--- a/data/imports/mrss-export.xlsx
+++ b/data/imports/mrss-export.xlsx
@@ -1168,16 +1168,10 @@
     <t>Number of student credit hours taught by part-time or adjunct faculty.</t>
   </si>
   <si>
-    <t>inst_full_cred_hr</t>
-  </si>
-  <si>
     <t>inst_part_expend</t>
   </si>
   <si>
     <t>inst_part_num</t>
-  </si>
-  <si>
-    <t>inst_part_cred_hr</t>
   </si>
   <si>
     <t>u1_unit_name</t>
@@ -5581,6 +5575,12 @@
       <t xml:space="preserve"> information in Form2b through Form2j.
 As the academic unit leadership returns the completed form, enter the data in the correct sheet in this document or directly into the web data collection instrument. </t>
     </r>
+  </si>
+  <si>
+    <t>inst_full_cred_hrs</t>
+  </si>
+  <si>
+    <t>inst_part_cred_hrs</t>
   </si>
 </sst>
 </file>
@@ -6396,8 +6396,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6405,29 +6414,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="13"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -6452,12 +6458,6 @@
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -7367,8 +7367,8 @@
   </sheetPr>
   <dimension ref="A1:Y457"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="B299" sqref="B299"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7384,11 +7384,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="14" customFormat="1" ht="66.5" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="156" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
@@ -7410,11 +7410,11 @@
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:25" s="14" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A3" s="151" t="s">
-        <v>899</v>
-      </c>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
+      <c r="A3" s="155" t="s">
+        <v>897</v>
+      </c>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
       <c r="D3" s="16"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -7424,8 +7424,8 @@
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:25" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A4" s="152"/>
-      <c r="B4" s="152"/>
+      <c r="A4" s="151"/>
+      <c r="B4" s="151"/>
       <c r="C4" s="18"/>
       <c r="D4" s="4"/>
       <c r="E4" s="49"/>
@@ -7451,11 +7451,11 @@
       <c r="Y4" s="3"/>
     </row>
     <row r="5" spans="1:25" customFormat="1" ht="104.25" customHeight="1">
-      <c r="A5" s="151" t="s">
-        <v>936</v>
-      </c>
-      <c r="B5" s="151"/>
-      <c r="C5" s="151"/>
+      <c r="A5" s="155" t="s">
+        <v>934</v>
+      </c>
+      <c r="B5" s="155"/>
+      <c r="C5" s="155"/>
       <c r="D5" s="127"/>
       <c r="E5" s="133"/>
       <c r="F5" s="49"/>
@@ -7480,8 +7480,8 @@
       <c r="Y5" s="3"/>
     </row>
     <row r="6" spans="1:25" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A6" s="152"/>
-      <c r="B6" s="152"/>
+      <c r="A6" s="151"/>
+      <c r="B6" s="151"/>
       <c r="C6" s="18"/>
       <c r="D6" s="4"/>
       <c r="E6" s="49"/>
@@ -7519,12 +7519,12 @@
       <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:25" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A8" s="149" t="s">
+      <c r="A8" s="152" t="s">
+        <v>787</v>
+      </c>
+      <c r="B8" s="153"/>
+      <c r="C8" s="38" t="s">
         <v>789</v>
-      </c>
-      <c r="B8" s="154"/>
-      <c r="C8" s="38" t="s">
-        <v>791</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>167</v>
@@ -7556,11 +7556,11 @@
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="1:25" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A9" s="151" t="s">
-        <v>790</v>
-      </c>
-      <c r="B9" s="151"/>
-      <c r="C9" s="151"/>
+      <c r="A9" s="155" t="s">
+        <v>788</v>
+      </c>
+      <c r="B9" s="155"/>
+      <c r="C9" s="155"/>
       <c r="D9" s="127" t="s">
         <v>260</v>
       </c>
@@ -7599,7 +7599,7 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="27" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>344</v>
@@ -7612,11 +7612,11 @@
     </row>
     <row r="12" spans="1:25" ht="39" customHeight="1" thickBot="1">
       <c r="A12" s="24" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="28" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>345</v>
@@ -7629,14 +7629,14 @@
     </row>
     <row r="13" spans="1:25" ht="87" customHeight="1" thickBot="1">
       <c r="A13" s="24" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="28" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>347</v>
+        <v>975</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
@@ -7657,10 +7657,10 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="32" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
@@ -7670,14 +7670,14 @@
     </row>
     <row r="16" spans="1:25" ht="39" customHeight="1" thickBot="1">
       <c r="A16" s="24" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="32" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -7687,14 +7687,14 @@
     </row>
     <row r="17" spans="1:25" ht="92.25" customHeight="1" thickBot="1">
       <c r="A17" s="24" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="32" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>350</v>
+        <v>976</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -7732,11 +7732,11 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="1:25" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A19" s="148" t="s">
-        <v>930</v>
-      </c>
-      <c r="B19" s="148"/>
-      <c r="C19" s="148"/>
+      <c r="A19" s="154" t="s">
+        <v>928</v>
+      </c>
+      <c r="B19" s="154"/>
+      <c r="C19" s="154"/>
       <c r="D19" s="31"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
@@ -7762,11 +7762,11 @@
     </row>
     <row r="20" spans="1:25" ht="56.25" customHeight="1" thickBot="1">
       <c r="A20" s="70" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="35" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>278</v>
@@ -7779,11 +7779,11 @@
     </row>
     <row r="21" spans="1:25" ht="45" customHeight="1" thickBot="1">
       <c r="A21" s="70" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="35" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>279</v>
@@ -7800,7 +7800,7 @@
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="35" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>340</v>
@@ -7813,11 +7813,11 @@
     </row>
     <row r="23" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A23" s="70" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="35" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>341</v>
@@ -7841,7 +7841,7 @@
     </row>
     <row r="25" spans="1:25" customFormat="1" ht="25.25" customHeight="1" thickBot="1">
       <c r="A25" s="55" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B25" s="56"/>
       <c r="C25" s="56"/>
@@ -7870,11 +7870,11 @@
     </row>
     <row r="26" spans="1:25" ht="50" customHeight="1" thickBot="1">
       <c r="A26" s="69" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="27" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>280</v>
@@ -7909,11 +7909,11 @@
       <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:25" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A29" s="149" t="s">
-        <v>888</v>
-      </c>
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
+      <c r="A29" s="152" t="s">
+        <v>886</v>
+      </c>
+      <c r="B29" s="153"/>
+      <c r="C29" s="153"/>
       <c r="D29" s="4"/>
       <c r="E29" s="49"/>
       <c r="F29" s="49"/>
@@ -7938,11 +7938,11 @@
       <c r="Y29" s="3"/>
     </row>
     <row r="30" spans="1:25" customFormat="1" ht="117.75" customHeight="1">
-      <c r="A30" s="148" t="s">
-        <v>975</v>
-      </c>
-      <c r="B30" s="148"/>
-      <c r="C30" s="148"/>
+      <c r="A30" s="154" t="s">
+        <v>973</v>
+      </c>
+      <c r="B30" s="154"/>
+      <c r="C30" s="154"/>
       <c r="D30" s="31"/>
       <c r="E30" s="49"/>
       <c r="F30" s="49"/>
@@ -7970,7 +7970,7 @@
       <c r="A31" s="131"/>
       <c r="B31" s="131"/>
       <c r="C31" s="130" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D31" s="31"/>
       <c r="E31" s="49"/>
@@ -7996,12 +7996,12 @@
       <c r="Y31" s="3"/>
     </row>
     <row r="32" spans="1:25" customFormat="1" ht="131.25" customHeight="1">
-      <c r="A32" s="155" t="s">
-        <v>976</v>
-      </c>
-      <c r="B32" s="156"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="156"/>
+      <c r="A32" s="147" t="s">
+        <v>974</v>
+      </c>
+      <c r="B32" s="148"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
       <c r="E32" s="132"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -8023,7 +8023,7 @@
     </row>
     <row r="33" spans="1:25" ht="23" customHeight="1">
       <c r="A33" s="141" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B33" s="144" t="str">
         <f>HYPERLINK("#Form2a!B6", IF(Form2a!B6 &gt; 0, Form2a!B6, "Add Academic Unit"))</f>
@@ -8039,7 +8039,7 @@
     </row>
     <row r="34" spans="1:25" ht="23" customHeight="1">
       <c r="A34" s="141" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B34" s="144" t="str">
         <f>HYPERLINK("#Form2b!B6", IF(Form2b!B6 &gt; 0, Form2b!B6, "Add Academic Unit"))</f>
@@ -8055,7 +8055,7 @@
     </row>
     <row r="35" spans="1:25" ht="23" customHeight="1">
       <c r="A35" s="141" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B35" s="144" t="str">
         <f>HYPERLINK("#Form2c!B6", IF(Form2c!B6 &gt; 0, Form2c!B6, "Add Academic Unit"))</f>
@@ -8071,7 +8071,7 @@
     </row>
     <row r="36" spans="1:25" ht="23" customHeight="1">
       <c r="A36" s="141" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B36" s="144" t="str">
         <f>HYPERLINK("#Form2d!B6", IF(Form2d!B6 &gt; 0, Form2d!B6, "Add Academic Unit"))</f>
@@ -8087,7 +8087,7 @@
     </row>
     <row r="37" spans="1:25" ht="23" customHeight="1">
       <c r="A37" s="141" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B37" s="144" t="str">
         <f>HYPERLINK("#Form2e!B6", IF(Form2e!B6 &gt; 0, Form2e!B6, "Add Academic Unit"))</f>
@@ -8103,7 +8103,7 @@
     </row>
     <row r="38" spans="1:25" ht="23" customHeight="1">
       <c r="A38" s="141" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B38" s="144" t="str">
         <f>HYPERLINK("#Form2f!B6", IF(Form2f!B6 &gt; 0, Form2f!B6, "Add Academic Unit"))</f>
@@ -8119,7 +8119,7 @@
     </row>
     <row r="39" spans="1:25" ht="23" customHeight="1">
       <c r="A39" s="141" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B39" s="144" t="str">
         <f>HYPERLINK("#Form2g!B6", IF(Form2g!B6 &gt; 0, Form2g!B6, "Add Academic Unit"))</f>
@@ -8135,7 +8135,7 @@
     </row>
     <row r="40" spans="1:25" ht="23" customHeight="1">
       <c r="A40" s="141" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B40" s="144" t="str">
         <f>HYPERLINK("#Form2h!B6", IF(Form2h!B6 &gt; 0, Form2h!B6, "Add Academic Unit"))</f>
@@ -8151,7 +8151,7 @@
     </row>
     <row r="41" spans="1:25" ht="23" customHeight="1">
       <c r="A41" s="141" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B41" s="144" t="str">
         <f>HYPERLINK("#Form2i!B6", IF(Form2i!B6 &gt; 0, Form2i!B6, "Add Academic Unit"))</f>
@@ -8167,7 +8167,7 @@
     </row>
     <row r="42" spans="1:25" ht="23" customHeight="1">
       <c r="A42" s="141" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B42" s="144" t="str">
         <f>HYPERLINK("#Form2j!B6", IF(Form2j!B6 &gt; 0, Form2j!B6, "Add Academic Unit"))</f>
@@ -8220,12 +8220,12 @@
       <c r="J44" s="16"/>
     </row>
     <row r="45" spans="1:25" customFormat="1" ht="16.25" customHeight="1">
-      <c r="A45" s="149" t="s">
-        <v>379</v>
-      </c>
-      <c r="B45" s="154"/>
+      <c r="A45" s="152" t="s">
+        <v>377</v>
+      </c>
+      <c r="B45" s="153"/>
       <c r="C45" s="38" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="49"/>
@@ -8251,11 +8251,11 @@
       <c r="Y45" s="3"/>
     </row>
     <row r="46" spans="1:25" customFormat="1" ht="63" customHeight="1">
-      <c r="A46" s="148" t="s">
-        <v>926</v>
-      </c>
-      <c r="B46" s="148"/>
-      <c r="C46" s="148"/>
+      <c r="A46" s="154" t="s">
+        <v>924</v>
+      </c>
+      <c r="B46" s="154"/>
+      <c r="C46" s="154"/>
       <c r="D46" s="31"/>
       <c r="E46" s="49"/>
       <c r="F46" s="49"/>
@@ -8283,10 +8283,10 @@
       <c r="A47" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="B47" s="146" t="s">
+      <c r="B47" s="149" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="147"/>
+      <c r="C47" s="150"/>
       <c r="D47" s="135"/>
       <c r="E47" s="135"/>
       <c r="F47" s="135"/>
@@ -8312,11 +8312,11 @@
     </row>
     <row r="49" spans="1:9" ht="50" customHeight="1" thickBot="1">
       <c r="A49" s="72" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="84" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D49" s="30" t="s">
         <v>173</v>
@@ -8333,7 +8333,7 @@
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="84" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D50" s="30" t="s">
         <v>252</v>
@@ -8350,7 +8350,7 @@
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="84" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D51" s="30" t="s">
         <v>97</v>
@@ -8365,10 +8365,10 @@
       <c r="A52" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="B52" s="146" t="s">
+      <c r="B52" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="147"/>
+      <c r="C52" s="150"/>
       <c r="D52" s="30"/>
       <c r="E52" s="30"/>
       <c r="F52" s="30"/>
@@ -8393,11 +8393,11 @@
     </row>
     <row r="54" spans="1:9" ht="50" customHeight="1" thickBot="1">
       <c r="A54" s="72" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="84" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D54" s="30" t="s">
         <v>174</v>
@@ -8414,7 +8414,7 @@
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="84" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D55" s="30" t="s">
         <v>253</v>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="43" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D56" s="30" t="s">
         <v>95</v>
@@ -8446,10 +8446,10 @@
       <c r="A57" s="41" t="s">
         <v>332</v>
       </c>
-      <c r="B57" s="146" t="s">
+      <c r="B57" s="149" t="s">
         <v>94</v>
       </c>
-      <c r="C57" s="147"/>
+      <c r="C57" s="150"/>
       <c r="D57" s="30"/>
       <c r="E57" s="30"/>
       <c r="F57" s="30"/>
@@ -8474,11 +8474,11 @@
     </row>
     <row r="59" spans="1:9" ht="50" customHeight="1" thickBot="1">
       <c r="A59" s="72" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="84" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D59" s="30" t="s">
         <v>175</v>
@@ -8495,7 +8495,7 @@
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="84" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D60" s="30" t="s">
         <v>254</v>
@@ -8529,7 +8529,7 @@
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="43" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D62" s="30" t="s">
         <v>93</v>
@@ -8544,10 +8544,10 @@
       <c r="A63" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="B63" s="146" t="s">
+      <c r="B63" s="149" t="s">
         <v>92</v>
       </c>
-      <c r="C63" s="147"/>
+      <c r="C63" s="150"/>
       <c r="D63" s="30"/>
       <c r="E63" s="30"/>
       <c r="F63" s="30"/>
@@ -8562,7 +8562,7 @@
       <c r="B64" s="10"/>
       <c r="C64" s="61"/>
       <c r="D64" s="30" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E64" s="123"/>
       <c r="F64" s="30"/>
@@ -8572,11 +8572,11 @@
     </row>
     <row r="65" spans="1:10" ht="50" customHeight="1" thickBot="1">
       <c r="A65" s="72" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="84" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D65" s="30" t="s">
         <v>255</v>
@@ -8593,7 +8593,7 @@
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="84" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D66" s="30" t="s">
         <v>256</v>
@@ -8627,10 +8627,10 @@
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="43" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E68" s="123"/>
       <c r="F68" s="30"/>
@@ -8642,10 +8642,10 @@
       <c r="A69" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="B69" s="146" t="s">
+      <c r="B69" s="149" t="s">
         <v>91</v>
       </c>
-      <c r="C69" s="147"/>
+      <c r="C69" s="150"/>
       <c r="D69" s="61"/>
       <c r="E69" s="61"/>
       <c r="F69" s="61"/>
@@ -8675,7 +8675,7 @@
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="84" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D71" s="30" t="s">
         <v>176</v>
@@ -8692,7 +8692,7 @@
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="84" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D72" s="30" t="s">
         <v>258</v>
@@ -8726,7 +8726,7 @@
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="43" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D74" s="30" t="s">
         <v>90</v>
@@ -8741,10 +8741,10 @@
       <c r="A75" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="B75" s="146" t="s">
+      <c r="B75" s="149" t="s">
         <v>168</v>
       </c>
-      <c r="C75" s="147"/>
+      <c r="C75" s="150"/>
       <c r="D75" s="30"/>
       <c r="E75" s="30"/>
       <c r="F75" s="30"/>
@@ -8773,7 +8773,7 @@
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="84" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D77" s="30" t="s">
         <v>177</v>
@@ -8790,7 +8790,7 @@
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="84" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D78" s="30" t="s">
         <v>261</v>
@@ -8807,10 +8807,10 @@
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="84" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E79" s="30"/>
       <c r="F79" s="30"/>
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="84" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D80" s="30" t="s">
         <v>89</v>
@@ -8839,10 +8839,10 @@
       <c r="A81" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="B81" s="146" t="s">
+      <c r="B81" s="149" t="s">
         <v>88</v>
       </c>
-      <c r="C81" s="147"/>
+      <c r="C81" s="150"/>
       <c r="D81" s="30"/>
       <c r="E81" s="30"/>
       <c r="F81" s="30"/>
@@ -8871,7 +8871,7 @@
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="84" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D83" s="30" t="s">
         <v>178</v>
@@ -8888,7 +8888,7 @@
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="84" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D84" s="30" t="s">
         <v>262</v>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="43" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D85" s="30" t="s">
         <v>87</v>
@@ -8920,10 +8920,10 @@
       <c r="A86" s="41" t="s">
         <v>333</v>
       </c>
-      <c r="B86" s="146" t="s">
+      <c r="B86" s="149" t="s">
         <v>130</v>
       </c>
-      <c r="C86" s="154"/>
+      <c r="C86" s="153"/>
       <c r="D86" s="30"/>
       <c r="E86" s="30"/>
       <c r="F86" s="30"/>
@@ -8952,7 +8952,7 @@
       </c>
       <c r="B88" s="10"/>
       <c r="C88" s="84" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D88" s="30" t="s">
         <v>179</v>
@@ -8969,7 +8969,7 @@
       </c>
       <c r="B89" s="10"/>
       <c r="C89" s="84" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D89" s="30" t="s">
         <v>263</v>
@@ -9003,7 +9003,7 @@
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="43" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D91" s="30" t="s">
         <v>86</v>
@@ -9016,12 +9016,12 @@
     </row>
     <row r="92" spans="1:9" ht="45" customHeight="1" thickBot="1">
       <c r="A92" s="45" t="s">
-        <v>904</v>
-      </c>
-      <c r="B92" s="146" t="s">
+        <v>902</v>
+      </c>
+      <c r="B92" s="149" t="s">
         <v>195</v>
       </c>
-      <c r="C92" s="147"/>
+      <c r="C92" s="150"/>
       <c r="D92" s="30"/>
       <c r="E92" s="30"/>
       <c r="F92" s="30"/>
@@ -9050,7 +9050,7 @@
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="84" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D94" s="30" t="s">
         <v>180</v>
@@ -9067,7 +9067,7 @@
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="84" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D95" s="30" t="s">
         <v>265</v>
@@ -9101,7 +9101,7 @@
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="43" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D97" s="30" t="s">
         <v>85</v>
@@ -9116,10 +9116,10 @@
       <c r="A98" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="B98" s="146" t="s">
+      <c r="B98" s="149" t="s">
         <v>84</v>
       </c>
-      <c r="C98" s="147"/>
+      <c r="C98" s="150"/>
       <c r="D98" s="30"/>
       <c r="E98" s="30"/>
       <c r="F98" s="30"/>
@@ -9148,7 +9148,7 @@
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="84" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D100" s="30" t="s">
         <v>181</v>
@@ -9165,7 +9165,7 @@
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="84" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D101" s="30" t="s">
         <v>266</v>
@@ -9182,7 +9182,7 @@
       </c>
       <c r="B102" s="10"/>
       <c r="C102" s="43" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D102" s="30" t="s">
         <v>83</v>
@@ -9197,10 +9197,10 @@
       <c r="A103" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="B103" s="146" t="s">
+      <c r="B103" s="149" t="s">
         <v>251</v>
       </c>
-      <c r="C103" s="147"/>
+      <c r="C103" s="150"/>
       <c r="D103" s="30"/>
       <c r="E103" s="30"/>
       <c r="F103" s="30"/>
@@ -9229,7 +9229,7 @@
       </c>
       <c r="B105" s="10"/>
       <c r="C105" s="84" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D105" s="30" t="s">
         <v>281</v>
@@ -9246,7 +9246,7 @@
       </c>
       <c r="B106" s="10"/>
       <c r="C106" s="84" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D106" s="30" t="s">
         <v>267</v>
@@ -9280,7 +9280,7 @@
       </c>
       <c r="B108" s="10"/>
       <c r="C108" s="43" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D108" s="30" t="s">
         <v>247</v>
@@ -9295,10 +9295,10 @@
       <c r="A109" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="B109" s="146" t="s">
+      <c r="B109" s="149" t="s">
         <v>250</v>
       </c>
-      <c r="C109" s="147"/>
+      <c r="C109" s="150"/>
       <c r="D109" s="30"/>
       <c r="E109" s="30"/>
       <c r="F109" s="30"/>
@@ -9323,11 +9323,11 @@
     </row>
     <row r="111" spans="1:9" ht="50" customHeight="1" thickBot="1">
       <c r="A111" s="42" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B111" s="10"/>
       <c r="C111" s="84" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D111" s="30" t="s">
         <v>282</v>
@@ -9344,7 +9344,7 @@
       </c>
       <c r="B112" s="10"/>
       <c r="C112" s="84" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D112" s="30" t="s">
         <v>268</v>
@@ -9378,7 +9378,7 @@
       </c>
       <c r="B114" s="11"/>
       <c r="C114" s="43" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D114" s="30" t="s">
         <v>249</v>
@@ -9413,12 +9413,12 @@
       <c r="J116" s="16"/>
     </row>
     <row r="117" spans="1:25" customFormat="1" ht="16.25" customHeight="1">
-      <c r="A117" s="149" t="s">
-        <v>380</v>
-      </c>
-      <c r="B117" s="150"/>
+      <c r="A117" s="152" t="s">
+        <v>378</v>
+      </c>
+      <c r="B117" s="158"/>
       <c r="C117" s="38" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="49"/>
@@ -9444,11 +9444,11 @@
       <c r="Y117" s="3"/>
     </row>
     <row r="118" spans="1:25" customFormat="1" ht="63" customHeight="1">
-      <c r="A118" s="148" t="s">
-        <v>926</v>
-      </c>
-      <c r="B118" s="148"/>
-      <c r="C118" s="148"/>
+      <c r="A118" s="154" t="s">
+        <v>924</v>
+      </c>
+      <c r="B118" s="154"/>
+      <c r="C118" s="154"/>
       <c r="D118" s="31"/>
       <c r="E118" s="49"/>
       <c r="F118" s="49"/>
@@ -9476,10 +9476,10 @@
       <c r="A119" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="B119" s="146" t="s">
+      <c r="B119" s="149" t="s">
         <v>76</v>
       </c>
-      <c r="C119" s="147"/>
+      <c r="C119" s="150"/>
       <c r="D119" s="30"/>
       <c r="E119" s="30"/>
       <c r="F119" s="30"/>
@@ -9504,11 +9504,11 @@
     </row>
     <row r="121" spans="1:25" ht="50" customHeight="1" thickBot="1">
       <c r="A121" s="42" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B121" s="10"/>
       <c r="C121" s="84" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D121" s="30" t="s">
         <v>182</v>
@@ -9525,7 +9525,7 @@
       </c>
       <c r="B122" s="10"/>
       <c r="C122" s="84" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D122" s="30" t="s">
         <v>271</v>
@@ -9559,7 +9559,7 @@
       </c>
       <c r="B124" s="7"/>
       <c r="C124" s="43" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D124" s="30" t="s">
         <v>75</v>
@@ -9574,10 +9574,10 @@
       <c r="A125" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="B125" s="146" t="s">
+      <c r="B125" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="C125" s="147"/>
+      <c r="C125" s="150"/>
       <c r="D125" s="30"/>
       <c r="E125" s="30"/>
       <c r="F125" s="30"/>
@@ -9602,11 +9602,11 @@
     </row>
     <row r="127" spans="1:25" ht="50" customHeight="1" thickBot="1">
       <c r="A127" s="42" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B127" s="10"/>
       <c r="C127" s="84" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D127" s="30" t="s">
         <v>183</v>
@@ -9623,7 +9623,7 @@
       </c>
       <c r="B128" s="10"/>
       <c r="C128" s="84" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D128" s="30" t="s">
         <v>273</v>
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B129" s="7"/>
       <c r="C129" s="58" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D129" s="30" t="s">
         <v>73</v>
@@ -9655,10 +9655,10 @@
       <c r="A130" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="B130" s="146" t="s">
-        <v>905</v>
-      </c>
-      <c r="C130" s="147"/>
+      <c r="B130" s="149" t="s">
+        <v>903</v>
+      </c>
+      <c r="C130" s="150"/>
       <c r="D130" s="30"/>
       <c r="E130" s="30"/>
       <c r="F130" s="30"/>
@@ -9683,11 +9683,11 @@
     </row>
     <row r="132" spans="1:25" ht="50" customHeight="1" thickBot="1">
       <c r="A132" s="42" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B132" s="10"/>
       <c r="C132" s="84" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D132" s="30" t="s">
         <v>184</v>
@@ -9704,7 +9704,7 @@
       </c>
       <c r="B133" s="10"/>
       <c r="C133" s="84" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D133" s="30" t="s">
         <v>275</v>
@@ -9738,7 +9738,7 @@
       </c>
       <c r="B135" s="12"/>
       <c r="C135" s="27" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D135" s="30" t="s">
         <v>72</v>
@@ -9773,11 +9773,11 @@
       <c r="J137" s="16"/>
     </row>
     <row r="138" spans="1:25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A138" s="149" t="s">
-        <v>381</v>
-      </c>
-      <c r="B138" s="150"/>
-      <c r="C138" s="150"/>
+      <c r="A138" s="152" t="s">
+        <v>379</v>
+      </c>
+      <c r="B138" s="158"/>
+      <c r="C138" s="158"/>
       <c r="D138" s="4"/>
       <c r="E138" s="49"/>
       <c r="F138" s="49"/>
@@ -9935,7 +9935,7 @@
       </c>
       <c r="B147" s="7"/>
       <c r="C147" s="35" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D147" s="100" t="s">
         <v>57</v>
@@ -10088,7 +10088,7 @@
     </row>
     <row r="156" spans="1:9" ht="49.5" customHeight="1" thickBot="1">
       <c r="A156" s="96" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B156" s="7"/>
       <c r="C156" s="27" t="s">
@@ -10305,7 +10305,7 @@
     </row>
     <row r="171" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A171" s="40" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B171" s="39"/>
       <c r="C171" s="39"/>
@@ -10322,7 +10322,7 @@
       </c>
       <c r="B172" s="7"/>
       <c r="C172" s="35" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D172" s="30" t="s">
         <v>22</v>
@@ -10339,7 +10339,7 @@
       </c>
       <c r="B173" s="7"/>
       <c r="C173" s="35" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D173" s="30" t="s">
         <v>20</v>
@@ -10363,7 +10363,7 @@
     </row>
     <row r="175" spans="1:9" ht="30" customHeight="1">
       <c r="A175" s="40" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B175" s="39"/>
       <c r="C175" s="39"/>
@@ -10569,7 +10569,7 @@
     </row>
     <row r="189" spans="1:10" ht="30.75" customHeight="1" thickBot="1">
       <c r="A189" s="59" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B189" s="7"/>
       <c r="C189" s="90" t="s">
@@ -10625,11 +10625,11 @@
       <c r="J192" s="16"/>
     </row>
     <row r="193" spans="1:25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A193" s="149" t="s">
-        <v>382</v>
-      </c>
-      <c r="B193" s="150"/>
-      <c r="C193" s="150"/>
+      <c r="A193" s="152" t="s">
+        <v>380</v>
+      </c>
+      <c r="B193" s="158"/>
+      <c r="C193" s="158"/>
       <c r="D193" s="4"/>
       <c r="E193" s="49"/>
       <c r="F193" s="49"/>
@@ -10654,11 +10654,11 @@
       <c r="Y193" s="3"/>
     </row>
     <row r="194" spans="1:25" s="103" customFormat="1" ht="30" customHeight="1">
-      <c r="A194" s="145" t="s">
-        <v>372</v>
-      </c>
-      <c r="B194" s="145"/>
-      <c r="C194" s="145"/>
+      <c r="A194" s="157" t="s">
+        <v>370</v>
+      </c>
+      <c r="B194" s="157"/>
+      <c r="C194" s="157"/>
       <c r="D194" s="137"/>
       <c r="E194" s="138"/>
       <c r="F194" s="138"/>
@@ -10706,7 +10706,7 @@
         <v>202</v>
       </c>
       <c r="D196" s="30" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E196" s="30"/>
       <c r="F196" s="30"/>
@@ -10723,7 +10723,7 @@
         <v>199</v>
       </c>
       <c r="D197" s="30" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E197" s="30"/>
       <c r="F197" s="30"/>
@@ -10737,10 +10737,10 @@
       </c>
       <c r="B198" s="7"/>
       <c r="C198" s="26" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D198" s="139" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E198" s="30"/>
       <c r="F198" s="30"/>
@@ -10821,7 +10821,7 @@
         <v>203</v>
       </c>
       <c r="D203" s="139" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E203" s="30"/>
       <c r="F203" s="30"/>
@@ -10838,7 +10838,7 @@
         <v>199</v>
       </c>
       <c r="D204" s="30" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E204" s="30"/>
       <c r="F204" s="30"/>
@@ -10852,10 +10852,10 @@
       </c>
       <c r="B205" s="7"/>
       <c r="C205" s="35" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D205" s="139" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E205" s="30"/>
       <c r="F205" s="30"/>
@@ -10936,7 +10936,7 @@
         <v>204</v>
       </c>
       <c r="D210" s="139" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E210" s="30"/>
       <c r="F210" s="30"/>
@@ -10953,7 +10953,7 @@
         <v>206</v>
       </c>
       <c r="D211" s="30" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E211" s="30"/>
       <c r="F211" s="30"/>
@@ -10967,10 +10967,10 @@
       </c>
       <c r="B212" s="7"/>
       <c r="C212" s="90" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D212" s="30" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E212" s="30"/>
       <c r="F212" s="30"/>
@@ -11051,7 +11051,7 @@
         <v>208</v>
       </c>
       <c r="D217" s="30" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E217" s="30"/>
       <c r="F217" s="30"/>
@@ -11068,7 +11068,7 @@
         <v>206</v>
       </c>
       <c r="D218" s="30" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E218" s="30"/>
       <c r="F218" s="30"/>
@@ -11082,10 +11082,10 @@
       </c>
       <c r="B219" s="7"/>
       <c r="C219" s="90" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D219" s="30" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E219" s="30"/>
       <c r="F219" s="30"/>
@@ -11161,7 +11161,7 @@
     </row>
     <row r="224" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A224" s="67" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B224" s="60"/>
       <c r="C224" s="68"/>
@@ -11174,14 +11174,14 @@
     </row>
     <row r="225" spans="1:10" ht="210" customHeight="1" thickBot="1">
       <c r="A225" s="97" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B225" s="7"/>
       <c r="C225" s="92" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D225" s="139" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="E225" s="30"/>
       <c r="F225" s="30"/>
@@ -11198,7 +11198,7 @@
         <v>290</v>
       </c>
       <c r="D226" s="139" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E226" s="30"/>
       <c r="F226" s="30"/>
@@ -11215,7 +11215,7 @@
         <v>321</v>
       </c>
       <c r="D227" s="30" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E227" s="30"/>
       <c r="F227" s="30"/>
@@ -11309,7 +11309,7 @@
         <v>212</v>
       </c>
       <c r="D233" s="30" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E233" s="30"/>
       <c r="F233" s="30"/>
@@ -11332,14 +11332,14 @@
     </row>
     <row r="235" spans="1:10" ht="36" customHeight="1" thickBot="1">
       <c r="A235" s="97" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B235" s="7"/>
       <c r="C235" s="92" t="s">
         <v>215</v>
       </c>
       <c r="D235" s="30" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E235" s="30"/>
       <c r="F235" s="30"/>
@@ -11356,7 +11356,7 @@
         <v>324</v>
       </c>
       <c r="D236" s="30" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E236" s="30"/>
       <c r="F236" s="30"/>
@@ -11379,14 +11379,14 @@
     </row>
     <row r="238" spans="1:10" ht="50" customHeight="1" thickBot="1">
       <c r="A238" s="97" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B238" s="7"/>
       <c r="C238" s="92" t="s">
         <v>219</v>
       </c>
       <c r="D238" s="30" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E238" s="30"/>
       <c r="F238" s="30"/>
@@ -11403,7 +11403,7 @@
         <v>220</v>
       </c>
       <c r="D239" s="30" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E239" s="30"/>
       <c r="F239" s="30"/>
@@ -11425,20 +11425,20 @@
     </row>
     <row r="241" spans="1:9">
       <c r="A241" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B241" s="142">
         <f>Form2a!B6</f>
         <v>0</v>
       </c>
       <c r="C241" s="29" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D241" s="30" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E241" s="30" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F241" s="30"/>
       <c r="G241" s="30"/>
@@ -11447,17 +11447,17 @@
     </row>
     <row r="242" spans="1:9" ht="30" customHeight="1">
       <c r="A242" s="62" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B242" s="98">
         <f>Form2a!C10</f>
         <v>0</v>
       </c>
       <c r="C242" s="28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D242" s="30" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E242" s="30"/>
       <c r="F242" s="30"/>
@@ -11467,7 +11467,7 @@
     </row>
     <row r="243" spans="1:9" ht="30" customHeight="1">
       <c r="A243" s="62" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B243" s="98">
         <f>Form2a!C14</f>
@@ -11477,7 +11477,7 @@
         <v>346</v>
       </c>
       <c r="D243" s="30" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E243" s="30"/>
       <c r="F243" s="30"/>
@@ -11487,7 +11487,7 @@
     </row>
     <row r="244" spans="1:9" ht="20.25" customHeight="1">
       <c r="A244" s="8" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B244" s="9">
         <f>Form2a!B21</f>
@@ -11497,7 +11497,7 @@
         <v>124</v>
       </c>
       <c r="D244" s="30" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E244" s="30"/>
       <c r="F244" s="30"/>
@@ -11507,7 +11507,7 @@
     </row>
     <row r="245" spans="1:9" ht="23.25" customHeight="1">
       <c r="A245" s="8" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B245" s="9">
         <f>Form2a!B22</f>
@@ -11517,7 +11517,7 @@
         <v>123</v>
       </c>
       <c r="D245" s="30" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E245" s="30"/>
       <c r="F245" s="30"/>
@@ -11527,7 +11527,7 @@
     </row>
     <row r="246" spans="1:9" ht="28.5" customHeight="1">
       <c r="A246" s="8" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B246" s="9">
         <f>Form2a!B23</f>
@@ -11537,7 +11537,7 @@
         <v>122</v>
       </c>
       <c r="D246" s="30" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E246" s="30"/>
       <c r="F246" s="30"/>
@@ -11547,7 +11547,7 @@
     </row>
     <row r="247" spans="1:9" ht="25">
       <c r="A247" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B247" s="9">
         <f>Form2a!B24</f>
@@ -11557,7 +11557,7 @@
         <v>126</v>
       </c>
       <c r="D247" s="30" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E247" s="30"/>
       <c r="F247" s="30"/>
@@ -11567,7 +11567,7 @@
     </row>
     <row r="248" spans="1:9" ht="37">
       <c r="A248" s="8" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B248" s="9">
         <f>Form2a!B25</f>
@@ -11577,7 +11577,7 @@
         <v>127</v>
       </c>
       <c r="D248" s="30" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E248" s="30"/>
       <c r="F248" s="30"/>
@@ -11587,7 +11587,7 @@
     </row>
     <row r="249" spans="1:9">
       <c r="A249" s="8" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B249" s="9">
         <f>Form2a!B26</f>
@@ -11597,7 +11597,7 @@
         <v>121</v>
       </c>
       <c r="D249" s="30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E249" s="30"/>
       <c r="F249" s="30"/>
@@ -11607,7 +11607,7 @@
     </row>
     <row r="250" spans="1:9" ht="56.25" customHeight="1">
       <c r="A250" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B250" s="9">
         <f>Form2a!B27</f>
@@ -11617,7 +11617,7 @@
         <v>120</v>
       </c>
       <c r="D250" s="30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E250" s="30"/>
       <c r="F250" s="30"/>
@@ -11627,7 +11627,7 @@
     </row>
     <row r="251" spans="1:9" ht="24" customHeight="1">
       <c r="A251" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B251" s="9">
         <f>Form2a!B28</f>
@@ -11637,7 +11637,7 @@
         <v>119</v>
       </c>
       <c r="D251" s="30" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E251" s="140"/>
       <c r="F251" s="30"/>
@@ -11647,7 +11647,7 @@
     </row>
     <row r="252" spans="1:9">
       <c r="A252" s="8" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B252" s="9">
         <f>Form2a!C21</f>
@@ -11657,7 +11657,7 @@
         <v>118</v>
       </c>
       <c r="D252" s="30" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E252" s="30"/>
       <c r="F252" s="30"/>
@@ -11667,7 +11667,7 @@
     </row>
     <row r="253" spans="1:9">
       <c r="A253" s="8" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B253" s="9">
         <f>Form2a!C22</f>
@@ -11677,7 +11677,7 @@
         <v>117</v>
       </c>
       <c r="D253" s="30" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E253" s="30"/>
       <c r="F253" s="30"/>
@@ -11687,7 +11687,7 @@
     </row>
     <row r="254" spans="1:9">
       <c r="A254" s="8" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B254" s="9">
         <f>Form2a!C23</f>
@@ -11697,7 +11697,7 @@
         <v>116</v>
       </c>
       <c r="D254" s="30" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E254" s="30"/>
       <c r="F254" s="30"/>
@@ -11707,7 +11707,7 @@
     </row>
     <row r="255" spans="1:9" ht="25">
       <c r="A255" s="8" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B255" s="9">
         <f>Form2a!C24</f>
@@ -11717,7 +11717,7 @@
         <v>128</v>
       </c>
       <c r="D255" s="30" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E255" s="30"/>
       <c r="F255" s="30"/>
@@ -11727,7 +11727,7 @@
     </row>
     <row r="256" spans="1:9" ht="37">
       <c r="A256" s="8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B256" s="9">
         <f>Form2a!C25</f>
@@ -11737,7 +11737,7 @@
         <v>129</v>
       </c>
       <c r="D256" s="30" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E256" s="30"/>
       <c r="F256" s="30"/>
@@ -11747,7 +11747,7 @@
     </row>
     <row r="257" spans="1:9">
       <c r="A257" s="8" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B257" s="9">
         <f>Form2a!C26</f>
@@ -11757,7 +11757,7 @@
         <v>115</v>
       </c>
       <c r="D257" s="30" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E257" s="30"/>
       <c r="F257" s="30"/>
@@ -11767,7 +11767,7 @@
     </row>
     <row r="258" spans="1:9">
       <c r="A258" s="8" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B258" s="9">
         <f>Form2a!C27</f>
@@ -11777,7 +11777,7 @@
         <v>114</v>
       </c>
       <c r="D258" s="30" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E258" s="30"/>
       <c r="F258" s="30"/>
@@ -11787,7 +11787,7 @@
     </row>
     <row r="259" spans="1:9">
       <c r="A259" s="8" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B259" s="9">
         <f>Form2a!C28</f>
@@ -11797,7 +11797,7 @@
         <v>113</v>
       </c>
       <c r="D259" s="30" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E259" s="30"/>
       <c r="F259" s="30"/>
@@ -11807,17 +11807,17 @@
     </row>
     <row r="260" spans="1:9">
       <c r="A260" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B260" s="142">
         <f>Form2b!B6</f>
         <v>0</v>
       </c>
       <c r="C260" s="29" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D260" s="30" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E260" s="30"/>
       <c r="F260" s="30"/>
@@ -11827,17 +11827,17 @@
     </row>
     <row r="261" spans="1:9" ht="30" customHeight="1">
       <c r="A261" s="62" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B261" s="98">
         <f>Form2b!C10</f>
         <v>0</v>
       </c>
       <c r="C261" s="28" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D261" s="30" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E261" s="30"/>
       <c r="F261" s="30"/>
@@ -11847,7 +11847,7 @@
     </row>
     <row r="262" spans="1:9" ht="30" customHeight="1">
       <c r="A262" s="62" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B262" s="98">
         <f>Form2b!C14</f>
@@ -11857,7 +11857,7 @@
         <v>346</v>
       </c>
       <c r="D262" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E262" s="30"/>
       <c r="F262" s="30"/>
@@ -11867,7 +11867,7 @@
     </row>
     <row r="263" spans="1:9" ht="20.25" customHeight="1">
       <c r="A263" s="8" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B263" s="9">
         <f>Form2b!B21</f>
@@ -11877,7 +11877,7 @@
         <v>124</v>
       </c>
       <c r="D263" s="30" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E263" s="30"/>
       <c r="F263" s="30"/>
@@ -11887,7 +11887,7 @@
     </row>
     <row r="264" spans="1:9" ht="23.25" customHeight="1">
       <c r="A264" s="8" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B264" s="9">
         <f>Form2b!B22</f>
@@ -11897,7 +11897,7 @@
         <v>123</v>
       </c>
       <c r="D264" s="30" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E264" s="30"/>
       <c r="F264" s="30"/>
@@ -11907,7 +11907,7 @@
     </row>
     <row r="265" spans="1:9" ht="28.5" customHeight="1">
       <c r="A265" s="8" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B265" s="9">
         <f>Form2b!B23</f>
@@ -11917,7 +11917,7 @@
         <v>122</v>
       </c>
       <c r="D265" s="30" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E265" s="30"/>
       <c r="F265" s="30"/>
@@ -11927,7 +11927,7 @@
     </row>
     <row r="266" spans="1:9" ht="25">
       <c r="A266" s="8" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B266" s="9">
         <f>Form2b!B24</f>
@@ -11937,7 +11937,7 @@
         <v>126</v>
       </c>
       <c r="D266" s="30" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E266" s="30"/>
       <c r="F266" s="30"/>
@@ -11947,7 +11947,7 @@
     </row>
     <row r="267" spans="1:9" ht="37">
       <c r="A267" s="8" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B267" s="9">
         <f>Form2b!B25</f>
@@ -11957,7 +11957,7 @@
         <v>127</v>
       </c>
       <c r="D267" s="30" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E267" s="30"/>
       <c r="F267" s="30"/>
@@ -11967,7 +11967,7 @@
     </row>
     <row r="268" spans="1:9">
       <c r="A268" s="8" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B268" s="9">
         <f>Form2b!B26</f>
@@ -11977,7 +11977,7 @@
         <v>121</v>
       </c>
       <c r="D268" s="30" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E268" s="30"/>
       <c r="F268" s="30"/>
@@ -11987,7 +11987,7 @@
     </row>
     <row r="269" spans="1:9" ht="56.25" customHeight="1">
       <c r="A269" s="8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B269" s="9">
         <f>Form2b!B27</f>
@@ -11997,7 +11997,7 @@
         <v>120</v>
       </c>
       <c r="D269" s="30" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E269" s="30"/>
       <c r="F269" s="30"/>
@@ -12007,7 +12007,7 @@
     </row>
     <row r="270" spans="1:9" ht="24" customHeight="1">
       <c r="A270" s="8" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B270" s="9">
         <f>Form2b!B28</f>
@@ -12017,7 +12017,7 @@
         <v>119</v>
       </c>
       <c r="D270" s="30" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E270" s="140"/>
       <c r="F270" s="30"/>
@@ -12027,7 +12027,7 @@
     </row>
     <row r="271" spans="1:9">
       <c r="A271" s="8" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B271" s="9">
         <f>Form2b!C21</f>
@@ -12037,7 +12037,7 @@
         <v>118</v>
       </c>
       <c r="D271" s="30" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E271" s="30"/>
       <c r="F271" s="30"/>
@@ -12047,7 +12047,7 @@
     </row>
     <row r="272" spans="1:9">
       <c r="A272" s="8" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B272" s="9">
         <f>Form2b!C22</f>
@@ -12057,7 +12057,7 @@
         <v>117</v>
       </c>
       <c r="D272" s="30" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E272" s="30"/>
       <c r="F272" s="30"/>
@@ -12067,7 +12067,7 @@
     </row>
     <row r="273" spans="1:9">
       <c r="A273" s="8" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B273" s="9">
         <f>Form2b!C23</f>
@@ -12077,7 +12077,7 @@
         <v>116</v>
       </c>
       <c r="D273" s="30" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E273" s="30"/>
       <c r="F273" s="30"/>
@@ -12087,7 +12087,7 @@
     </row>
     <row r="274" spans="1:9" ht="25">
       <c r="A274" s="8" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B274" s="9">
         <f>Form2b!C24</f>
@@ -12097,7 +12097,7 @@
         <v>128</v>
       </c>
       <c r="D274" s="30" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E274" s="30"/>
       <c r="F274" s="30"/>
@@ -12107,7 +12107,7 @@
     </row>
     <row r="275" spans="1:9" ht="37">
       <c r="A275" s="8" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B275" s="9">
         <f>Form2b!C25</f>
@@ -12117,7 +12117,7 @@
         <v>129</v>
       </c>
       <c r="D275" s="30" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E275" s="30"/>
       <c r="F275" s="30"/>
@@ -12127,7 +12127,7 @@
     </row>
     <row r="276" spans="1:9">
       <c r="A276" s="8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B276" s="9">
         <f>Form2b!C26</f>
@@ -12137,7 +12137,7 @@
         <v>115</v>
       </c>
       <c r="D276" s="30" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E276" s="30"/>
       <c r="F276" s="30"/>
@@ -12147,7 +12147,7 @@
     </row>
     <row r="277" spans="1:9">
       <c r="A277" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B277" s="9">
         <f>Form2b!C27</f>
@@ -12157,7 +12157,7 @@
         <v>114</v>
       </c>
       <c r="D277" s="30" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E277" s="30"/>
       <c r="F277" s="30"/>
@@ -12167,7 +12167,7 @@
     </row>
     <row r="278" spans="1:9">
       <c r="A278" s="8" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B278" s="9">
         <f>Form2b!C28</f>
@@ -12177,7 +12177,7 @@
         <v>113</v>
       </c>
       <c r="D278" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E278" s="30"/>
       <c r="F278" s="30"/>
@@ -12187,17 +12187,17 @@
     </row>
     <row r="279" spans="1:9">
       <c r="A279" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B279" s="142">
         <f>Form2c!B6</f>
         <v>0</v>
       </c>
       <c r="C279" s="29" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D279" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E279" s="30"/>
       <c r="F279" s="30"/>
@@ -12207,17 +12207,17 @@
     </row>
     <row r="280" spans="1:9" ht="30" customHeight="1">
       <c r="A280" s="62" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B280" s="98">
         <f>Form2c!C10</f>
         <v>0</v>
       </c>
       <c r="C280" s="28" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D280" s="30" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E280" s="30"/>
       <c r="F280" s="30"/>
@@ -12227,7 +12227,7 @@
     </row>
     <row r="281" spans="1:9" ht="30" customHeight="1">
       <c r="A281" s="62" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B281" s="98">
         <f>Form2c!C14</f>
@@ -12237,7 +12237,7 @@
         <v>346</v>
       </c>
       <c r="D281" s="30" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E281" s="30"/>
       <c r="F281" s="30"/>
@@ -12247,7 +12247,7 @@
     </row>
     <row r="282" spans="1:9" ht="20.25" customHeight="1">
       <c r="A282" s="8" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B282" s="9">
         <f>Form2c!B21</f>
@@ -12257,7 +12257,7 @@
         <v>124</v>
       </c>
       <c r="D282" s="30" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E282" s="30"/>
       <c r="F282" s="30"/>
@@ -12267,7 +12267,7 @@
     </row>
     <row r="283" spans="1:9" ht="23.25" customHeight="1">
       <c r="A283" s="8" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B283" s="9">
         <f>Form2c!B22</f>
@@ -12277,7 +12277,7 @@
         <v>123</v>
       </c>
       <c r="D283" s="30" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E283" s="30"/>
       <c r="F283" s="30"/>
@@ -12287,7 +12287,7 @@
     </row>
     <row r="284" spans="1:9" ht="28.5" customHeight="1">
       <c r="A284" s="8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B284" s="9">
         <f>Form2c!B23</f>
@@ -12297,7 +12297,7 @@
         <v>122</v>
       </c>
       <c r="D284" s="30" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E284" s="30"/>
       <c r="F284" s="30"/>
@@ -12307,7 +12307,7 @@
     </row>
     <row r="285" spans="1:9" ht="25">
       <c r="A285" s="8" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B285" s="9">
         <f>Form2c!B24</f>
@@ -12317,7 +12317,7 @@
         <v>126</v>
       </c>
       <c r="D285" s="30" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E285" s="30"/>
       <c r="F285" s="30"/>
@@ -12327,7 +12327,7 @@
     </row>
     <row r="286" spans="1:9" ht="37">
       <c r="A286" s="8" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B286" s="9">
         <f>Form2c!B25</f>
@@ -12337,7 +12337,7 @@
         <v>127</v>
       </c>
       <c r="D286" s="30" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E286" s="30"/>
       <c r="F286" s="30"/>
@@ -12347,7 +12347,7 @@
     </row>
     <row r="287" spans="1:9">
       <c r="A287" s="8" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B287" s="9">
         <f>Form2c!B26</f>
@@ -12357,7 +12357,7 @@
         <v>121</v>
       </c>
       <c r="D287" s="30" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E287" s="30"/>
       <c r="F287" s="30"/>
@@ -12367,7 +12367,7 @@
     </row>
     <row r="288" spans="1:9" ht="56.25" customHeight="1">
       <c r="A288" s="8" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B288" s="9">
         <f>Form2c!B27</f>
@@ -12377,7 +12377,7 @@
         <v>120</v>
       </c>
       <c r="D288" s="30" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E288" s="30"/>
       <c r="F288" s="30"/>
@@ -12387,7 +12387,7 @@
     </row>
     <row r="289" spans="1:9" ht="24" customHeight="1">
       <c r="A289" s="8" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B289" s="9">
         <f>Form2c!B28</f>
@@ -12397,7 +12397,7 @@
         <v>119</v>
       </c>
       <c r="D289" s="30" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E289" s="140"/>
       <c r="F289" s="30"/>
@@ -12407,7 +12407,7 @@
     </row>
     <row r="290" spans="1:9">
       <c r="A290" s="8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B290" s="9">
         <f>Form2c!C21</f>
@@ -12417,7 +12417,7 @@
         <v>118</v>
       </c>
       <c r="D290" s="30" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E290" s="30"/>
       <c r="F290" s="30"/>
@@ -12427,7 +12427,7 @@
     </row>
     <row r="291" spans="1:9">
       <c r="A291" s="8" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B291" s="9">
         <f>Form2c!C22</f>
@@ -12437,7 +12437,7 @@
         <v>117</v>
       </c>
       <c r="D291" s="30" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E291" s="30"/>
       <c r="F291" s="30"/>
@@ -12447,7 +12447,7 @@
     </row>
     <row r="292" spans="1:9">
       <c r="A292" s="8" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B292" s="9">
         <f>Form2c!C23</f>
@@ -12457,7 +12457,7 @@
         <v>116</v>
       </c>
       <c r="D292" s="30" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E292" s="30"/>
       <c r="F292" s="30"/>
@@ -12467,7 +12467,7 @@
     </row>
     <row r="293" spans="1:9" ht="25">
       <c r="A293" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B293" s="9">
         <f>Form2c!C24</f>
@@ -12477,7 +12477,7 @@
         <v>128</v>
       </c>
       <c r="D293" s="30" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E293" s="30"/>
       <c r="F293" s="30"/>
@@ -12487,7 +12487,7 @@
     </row>
     <row r="294" spans="1:9" ht="37">
       <c r="A294" s="8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B294" s="9">
         <f>Form2c!C25</f>
@@ -12497,7 +12497,7 @@
         <v>129</v>
       </c>
       <c r="D294" s="30" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E294" s="30"/>
       <c r="F294" s="30"/>
@@ -12507,7 +12507,7 @@
     </row>
     <row r="295" spans="1:9">
       <c r="A295" s="8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B295" s="9">
         <f>Form2c!C26</f>
@@ -12517,7 +12517,7 @@
         <v>115</v>
       </c>
       <c r="D295" s="30" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E295" s="30"/>
       <c r="F295" s="30"/>
@@ -12527,7 +12527,7 @@
     </row>
     <row r="296" spans="1:9">
       <c r="A296" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B296" s="9">
         <f>Form2c!C27</f>
@@ -12537,7 +12537,7 @@
         <v>114</v>
       </c>
       <c r="D296" s="30" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E296" s="30"/>
       <c r="F296" s="30"/>
@@ -12547,7 +12547,7 @@
     </row>
     <row r="297" spans="1:9">
       <c r="A297" s="8" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B297" s="9">
         <f>Form2c!C28</f>
@@ -12557,7 +12557,7 @@
         <v>113</v>
       </c>
       <c r="D297" s="30" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E297" s="30"/>
       <c r="F297" s="30"/>
@@ -12567,17 +12567,17 @@
     </row>
     <row r="298" spans="1:9">
       <c r="A298" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B298" s="142">
         <f>Form2d!B6</f>
         <v>0</v>
       </c>
       <c r="C298" s="29" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D298" s="30" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E298" s="30"/>
       <c r="F298" s="30"/>
@@ -12587,17 +12587,17 @@
     </row>
     <row r="299" spans="1:9" ht="30" customHeight="1">
       <c r="A299" s="62" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B299" s="98">
         <f>Form2d!C10</f>
         <v>0</v>
       </c>
       <c r="C299" s="28" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D299" s="30" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E299" s="30"/>
       <c r="F299" s="30"/>
@@ -12607,7 +12607,7 @@
     </row>
     <row r="300" spans="1:9" ht="30" customHeight="1">
       <c r="A300" s="62" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B300" s="98">
         <f>Form2d!C14</f>
@@ -12617,7 +12617,7 @@
         <v>346</v>
       </c>
       <c r="D300" s="30" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E300" s="30"/>
       <c r="F300" s="30"/>
@@ -12627,7 +12627,7 @@
     </row>
     <row r="301" spans="1:9" ht="20.25" customHeight="1">
       <c r="A301" s="8" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B301" s="9">
         <f>Form2d!B21</f>
@@ -12637,7 +12637,7 @@
         <v>124</v>
       </c>
       <c r="D301" s="30" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E301" s="30"/>
       <c r="F301" s="30"/>
@@ -12647,7 +12647,7 @@
     </row>
     <row r="302" spans="1:9" ht="23.25" customHeight="1">
       <c r="A302" s="8" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B302" s="9">
         <f>Form2d!B22</f>
@@ -12657,7 +12657,7 @@
         <v>123</v>
       </c>
       <c r="D302" s="30" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E302" s="30"/>
       <c r="F302" s="30"/>
@@ -12667,7 +12667,7 @@
     </row>
     <row r="303" spans="1:9" ht="28.5" customHeight="1">
       <c r="A303" s="8" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B303" s="9">
         <f>Form2d!B23</f>
@@ -12677,7 +12677,7 @@
         <v>122</v>
       </c>
       <c r="D303" s="30" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E303" s="30"/>
       <c r="F303" s="30"/>
@@ -12687,7 +12687,7 @@
     </row>
     <row r="304" spans="1:9" ht="25">
       <c r="A304" s="8" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B304" s="9">
         <f>Form2d!B24</f>
@@ -12697,7 +12697,7 @@
         <v>126</v>
       </c>
       <c r="D304" s="30" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E304" s="30"/>
       <c r="F304" s="30"/>
@@ -12707,7 +12707,7 @@
     </row>
     <row r="305" spans="1:9" ht="37">
       <c r="A305" s="8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B305" s="9">
         <f>Form2d!B25</f>
@@ -12717,7 +12717,7 @@
         <v>127</v>
       </c>
       <c r="D305" s="30" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E305" s="30"/>
       <c r="F305" s="30"/>
@@ -12727,7 +12727,7 @@
     </row>
     <row r="306" spans="1:9">
       <c r="A306" s="8" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B306" s="9">
         <f>Form2d!B26</f>
@@ -12737,7 +12737,7 @@
         <v>121</v>
       </c>
       <c r="D306" s="30" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E306" s="30"/>
       <c r="F306" s="30"/>
@@ -12747,7 +12747,7 @@
     </row>
     <row r="307" spans="1:9" ht="56.25" customHeight="1">
       <c r="A307" s="8" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B307" s="9">
         <f>Form2d!B27</f>
@@ -12757,7 +12757,7 @@
         <v>120</v>
       </c>
       <c r="D307" s="30" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E307" s="30"/>
       <c r="F307" s="30"/>
@@ -12767,7 +12767,7 @@
     </row>
     <row r="308" spans="1:9" ht="24" customHeight="1">
       <c r="A308" s="8" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B308" s="9">
         <f>Form2d!B28</f>
@@ -12777,7 +12777,7 @@
         <v>119</v>
       </c>
       <c r="D308" s="30" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E308" s="140"/>
       <c r="F308" s="30"/>
@@ -12787,7 +12787,7 @@
     </row>
     <row r="309" spans="1:9">
       <c r="A309" s="8" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B309" s="9">
         <f>Form2d!C21</f>
@@ -12797,7 +12797,7 @@
         <v>118</v>
       </c>
       <c r="D309" s="30" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E309" s="30"/>
       <c r="F309" s="30"/>
@@ -12807,7 +12807,7 @@
     </row>
     <row r="310" spans="1:9">
       <c r="A310" s="8" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B310" s="9">
         <f>Form2d!C22</f>
@@ -12817,7 +12817,7 @@
         <v>117</v>
       </c>
       <c r="D310" s="30" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E310" s="30"/>
       <c r="F310" s="30"/>
@@ -12827,7 +12827,7 @@
     </row>
     <row r="311" spans="1:9">
       <c r="A311" s="8" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B311" s="9">
         <f>Form2d!C23</f>
@@ -12837,7 +12837,7 @@
         <v>116</v>
       </c>
       <c r="D311" s="30" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E311" s="30"/>
       <c r="F311" s="30"/>
@@ -12847,7 +12847,7 @@
     </row>
     <row r="312" spans="1:9" ht="25">
       <c r="A312" s="8" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B312" s="9">
         <f>Form2d!C24</f>
@@ -12857,7 +12857,7 @@
         <v>128</v>
       </c>
       <c r="D312" s="30" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E312" s="30"/>
       <c r="F312" s="30"/>
@@ -12867,7 +12867,7 @@
     </row>
     <row r="313" spans="1:9" ht="37">
       <c r="A313" s="8" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B313" s="9">
         <f>Form2d!C25</f>
@@ -12877,7 +12877,7 @@
         <v>129</v>
       </c>
       <c r="D313" s="30" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E313" s="30"/>
       <c r="F313" s="30"/>
@@ -12887,7 +12887,7 @@
     </row>
     <row r="314" spans="1:9">
       <c r="A314" s="8" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B314" s="9">
         <f>Form2d!C26</f>
@@ -12897,7 +12897,7 @@
         <v>115</v>
       </c>
       <c r="D314" s="30" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E314" s="30"/>
       <c r="F314" s="30"/>
@@ -12907,7 +12907,7 @@
     </row>
     <row r="315" spans="1:9">
       <c r="A315" s="8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B315" s="9">
         <f>Form2d!C27</f>
@@ -12917,7 +12917,7 @@
         <v>114</v>
       </c>
       <c r="D315" s="30" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E315" s="30"/>
       <c r="F315" s="30"/>
@@ -12927,7 +12927,7 @@
     </row>
     <row r="316" spans="1:9">
       <c r="A316" s="8" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B316" s="9">
         <f>Form2d!C28</f>
@@ -12937,7 +12937,7 @@
         <v>113</v>
       </c>
       <c r="D316" s="30" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E316" s="30"/>
       <c r="F316" s="30"/>
@@ -12947,17 +12947,17 @@
     </row>
     <row r="317" spans="1:9">
       <c r="A317" s="8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B317" s="142">
         <f>Form2e!B6</f>
         <v>0</v>
       </c>
       <c r="C317" s="29" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D317" s="30" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E317" s="30"/>
       <c r="F317" s="30"/>
@@ -12967,17 +12967,17 @@
     </row>
     <row r="318" spans="1:9" ht="30" customHeight="1">
       <c r="A318" s="62" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B318" s="98">
         <f>Form2e!C10</f>
         <v>0</v>
       </c>
       <c r="C318" s="28" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D318" s="30" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E318" s="30"/>
       <c r="F318" s="30"/>
@@ -12987,17 +12987,17 @@
     </row>
     <row r="319" spans="1:9" ht="30" customHeight="1">
       <c r="A319" s="62" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B319" s="98">
         <f>Form2e!C14</f>
         <v>0</v>
       </c>
       <c r="C319" s="28" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D319" s="30" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E319" s="30"/>
       <c r="F319" s="30"/>
@@ -13007,7 +13007,7 @@
     </row>
     <row r="320" spans="1:9" ht="20.25" customHeight="1">
       <c r="A320" s="8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B320" s="9">
         <f>Form2e!B21</f>
@@ -13017,7 +13017,7 @@
         <v>124</v>
       </c>
       <c r="D320" s="30" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E320" s="30"/>
       <c r="F320" s="30"/>
@@ -13027,7 +13027,7 @@
     </row>
     <row r="321" spans="1:9" ht="23.25" customHeight="1">
       <c r="A321" s="8" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B321" s="9">
         <f>Form2e!B22</f>
@@ -13037,7 +13037,7 @@
         <v>123</v>
       </c>
       <c r="D321" s="30" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E321" s="30"/>
       <c r="F321" s="30"/>
@@ -13047,7 +13047,7 @@
     </row>
     <row r="322" spans="1:9" ht="28.5" customHeight="1">
       <c r="A322" s="8" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B322" s="9">
         <f>Form2e!B23</f>
@@ -13057,7 +13057,7 @@
         <v>122</v>
       </c>
       <c r="D322" s="30" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E322" s="30"/>
       <c r="F322" s="30"/>
@@ -13067,7 +13067,7 @@
     </row>
     <row r="323" spans="1:9" ht="25">
       <c r="A323" s="8" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B323" s="9">
         <f>Form2e!B24</f>
@@ -13077,7 +13077,7 @@
         <v>126</v>
       </c>
       <c r="D323" s="30" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E323" s="30"/>
       <c r="F323" s="30"/>
@@ -13087,7 +13087,7 @@
     </row>
     <row r="324" spans="1:9" ht="37">
       <c r="A324" s="8" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B324" s="9">
         <f>Form2e!B25</f>
@@ -13097,7 +13097,7 @@
         <v>127</v>
       </c>
       <c r="D324" s="30" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E324" s="30"/>
       <c r="F324" s="30"/>
@@ -13107,7 +13107,7 @@
     </row>
     <row r="325" spans="1:9">
       <c r="A325" s="8" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B325" s="9">
         <f>Form2e!B26</f>
@@ -13117,7 +13117,7 @@
         <v>121</v>
       </c>
       <c r="D325" s="30" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E325" s="30"/>
       <c r="F325" s="30"/>
@@ -13127,7 +13127,7 @@
     </row>
     <row r="326" spans="1:9" ht="56.25" customHeight="1">
       <c r="A326" s="8" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B326" s="9">
         <f>Form2e!B27</f>
@@ -13137,7 +13137,7 @@
         <v>120</v>
       </c>
       <c r="D326" s="30" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E326" s="30"/>
       <c r="F326" s="30"/>
@@ -13147,7 +13147,7 @@
     </row>
     <row r="327" spans="1:9" ht="24" customHeight="1">
       <c r="A327" s="8" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B327" s="9">
         <f>Form2e!B28</f>
@@ -13157,7 +13157,7 @@
         <v>119</v>
       </c>
       <c r="D327" s="30" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E327" s="140"/>
       <c r="F327" s="30"/>
@@ -13167,7 +13167,7 @@
     </row>
     <row r="328" spans="1:9">
       <c r="A328" s="8" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B328" s="9">
         <f>Form2e!C21</f>
@@ -13177,7 +13177,7 @@
         <v>118</v>
       </c>
       <c r="D328" s="30" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E328" s="30"/>
       <c r="F328" s="30"/>
@@ -13187,7 +13187,7 @@
     </row>
     <row r="329" spans="1:9">
       <c r="A329" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B329" s="9">
         <f>Form2e!C22</f>
@@ -13197,7 +13197,7 @@
         <v>117</v>
       </c>
       <c r="D329" s="30" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E329" s="30"/>
       <c r="F329" s="30"/>
@@ -13207,7 +13207,7 @@
     </row>
     <row r="330" spans="1:9">
       <c r="A330" s="8" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B330" s="9">
         <f>Form2e!C23</f>
@@ -13217,7 +13217,7 @@
         <v>116</v>
       </c>
       <c r="D330" s="30" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E330" s="30"/>
       <c r="F330" s="30"/>
@@ -13227,7 +13227,7 @@
     </row>
     <row r="331" spans="1:9" ht="25">
       <c r="A331" s="8" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B331" s="9">
         <f>Form2e!C24</f>
@@ -13237,7 +13237,7 @@
         <v>128</v>
       </c>
       <c r="D331" s="30" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E331" s="30"/>
       <c r="F331" s="30"/>
@@ -13247,7 +13247,7 @@
     </row>
     <row r="332" spans="1:9" ht="37">
       <c r="A332" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B332" s="9">
         <f>Form2e!C25</f>
@@ -13257,7 +13257,7 @@
         <v>129</v>
       </c>
       <c r="D332" s="30" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E332" s="30"/>
       <c r="F332" s="30"/>
@@ -13267,7 +13267,7 @@
     </row>
     <row r="333" spans="1:9">
       <c r="A333" s="8" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B333" s="9">
         <f>Form2e!C26</f>
@@ -13277,7 +13277,7 @@
         <v>115</v>
       </c>
       <c r="D333" s="30" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E333" s="30"/>
       <c r="F333" s="30"/>
@@ -13287,7 +13287,7 @@
     </row>
     <row r="334" spans="1:9">
       <c r="A334" s="8" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B334" s="9">
         <f>Form2e!C27</f>
@@ -13297,7 +13297,7 @@
         <v>114</v>
       </c>
       <c r="D334" s="30" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E334" s="30"/>
       <c r="F334" s="30"/>
@@ -13307,7 +13307,7 @@
     </row>
     <row r="335" spans="1:9">
       <c r="A335" s="8" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B335" s="9">
         <f>Form2e!C28</f>
@@ -13317,7 +13317,7 @@
         <v>113</v>
       </c>
       <c r="D335" s="30" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E335" s="30"/>
       <c r="F335" s="30"/>
@@ -13327,17 +13327,17 @@
     </row>
     <row r="336" spans="1:9">
       <c r="A336" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B336" s="142">
         <f>Form2f!B6</f>
         <v>0</v>
       </c>
       <c r="C336" s="29" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D336" s="30" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E336" s="30"/>
       <c r="F336" s="30"/>
@@ -13347,17 +13347,17 @@
     </row>
     <row r="337" spans="1:9" ht="30" customHeight="1">
       <c r="A337" s="62" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B337" s="98">
         <f>Form2f!C10</f>
         <v>0</v>
       </c>
       <c r="C337" s="28" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D337" s="30" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E337" s="30"/>
       <c r="F337" s="30"/>
@@ -13367,17 +13367,17 @@
     </row>
     <row r="338" spans="1:9" ht="30" customHeight="1">
       <c r="A338" s="62" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B338" s="98">
         <f>Form2f!C14</f>
         <v>0</v>
       </c>
       <c r="C338" s="28" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D338" s="30" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E338" s="30"/>
       <c r="F338" s="30"/>
@@ -13387,7 +13387,7 @@
     </row>
     <row r="339" spans="1:9" ht="20.25" customHeight="1">
       <c r="A339" s="8" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B339" s="9">
         <f>Form2f!B21</f>
@@ -13397,7 +13397,7 @@
         <v>124</v>
       </c>
       <c r="D339" s="30" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E339" s="30"/>
       <c r="F339" s="30"/>
@@ -13407,7 +13407,7 @@
     </row>
     <row r="340" spans="1:9" ht="23.25" customHeight="1">
       <c r="A340" s="8" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B340" s="9">
         <f>Form2f!B22</f>
@@ -13417,7 +13417,7 @@
         <v>123</v>
       </c>
       <c r="D340" s="30" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E340" s="30"/>
       <c r="F340" s="30"/>
@@ -13427,7 +13427,7 @@
     </row>
     <row r="341" spans="1:9" ht="28.5" customHeight="1">
       <c r="A341" s="8" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B341" s="9">
         <f>Form2f!B23</f>
@@ -13437,7 +13437,7 @@
         <v>122</v>
       </c>
       <c r="D341" s="30" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E341" s="30"/>
       <c r="F341" s="30"/>
@@ -13447,7 +13447,7 @@
     </row>
     <row r="342" spans="1:9" ht="25">
       <c r="A342" s="8" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B342" s="9">
         <f>Form2f!B24</f>
@@ -13457,7 +13457,7 @@
         <v>126</v>
       </c>
       <c r="D342" s="30" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E342" s="30"/>
       <c r="F342" s="30"/>
@@ -13467,7 +13467,7 @@
     </row>
     <row r="343" spans="1:9" ht="37">
       <c r="A343" s="8" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B343" s="9">
         <f>Form2f!B25</f>
@@ -13477,7 +13477,7 @@
         <v>127</v>
       </c>
       <c r="D343" s="30" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E343" s="30"/>
       <c r="F343" s="30"/>
@@ -13487,7 +13487,7 @@
     </row>
     <row r="344" spans="1:9">
       <c r="A344" s="8" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B344" s="9">
         <f>Form2f!B26</f>
@@ -13497,7 +13497,7 @@
         <v>121</v>
       </c>
       <c r="D344" s="30" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E344" s="30"/>
       <c r="F344" s="30"/>
@@ -13507,7 +13507,7 @@
     </row>
     <row r="345" spans="1:9" ht="56.25" customHeight="1">
       <c r="A345" s="8" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B345" s="9">
         <f>Form2f!B27</f>
@@ -13517,7 +13517,7 @@
         <v>120</v>
       </c>
       <c r="D345" s="30" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E345" s="30"/>
       <c r="F345" s="30"/>
@@ -13527,7 +13527,7 @@
     </row>
     <row r="346" spans="1:9" ht="24" customHeight="1">
       <c r="A346" s="8" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B346" s="9">
         <f>Form2f!B28</f>
@@ -13537,7 +13537,7 @@
         <v>119</v>
       </c>
       <c r="D346" s="30" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E346" s="140"/>
       <c r="F346" s="30"/>
@@ -13547,7 +13547,7 @@
     </row>
     <row r="347" spans="1:9">
       <c r="A347" s="8" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B347" s="9">
         <f>Form2f!C21</f>
@@ -13557,7 +13557,7 @@
         <v>118</v>
       </c>
       <c r="D347" s="30" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E347" s="30"/>
       <c r="F347" s="30"/>
@@ -13567,7 +13567,7 @@
     </row>
     <row r="348" spans="1:9">
       <c r="A348" s="8" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B348" s="9">
         <f>Form2f!C22</f>
@@ -13577,7 +13577,7 @@
         <v>117</v>
       </c>
       <c r="D348" s="30" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E348" s="30"/>
       <c r="F348" s="30"/>
@@ -13587,7 +13587,7 @@
     </row>
     <row r="349" spans="1:9">
       <c r="A349" s="8" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B349" s="9">
         <f>Form2f!C23</f>
@@ -13597,7 +13597,7 @@
         <v>116</v>
       </c>
       <c r="D349" s="30" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E349" s="30"/>
       <c r="F349" s="30"/>
@@ -13607,7 +13607,7 @@
     </row>
     <row r="350" spans="1:9" ht="25">
       <c r="A350" s="8" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B350" s="9">
         <f>Form2f!C24</f>
@@ -13617,7 +13617,7 @@
         <v>128</v>
       </c>
       <c r="D350" s="30" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E350" s="30"/>
       <c r="F350" s="30"/>
@@ -13627,7 +13627,7 @@
     </row>
     <row r="351" spans="1:9" ht="37">
       <c r="A351" s="8" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B351" s="9">
         <f>Form2f!C25</f>
@@ -13637,7 +13637,7 @@
         <v>129</v>
       </c>
       <c r="D351" s="30" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E351" s="30"/>
       <c r="F351" s="30"/>
@@ -13647,7 +13647,7 @@
     </row>
     <row r="352" spans="1:9">
       <c r="A352" s="8" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B352" s="9">
         <f>Form2f!C26</f>
@@ -13657,7 +13657,7 @@
         <v>115</v>
       </c>
       <c r="D352" s="30" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E352" s="30"/>
       <c r="F352" s="30"/>
@@ -13667,7 +13667,7 @@
     </row>
     <row r="353" spans="1:9">
       <c r="A353" s="8" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B353" s="9">
         <f>Form2f!C27</f>
@@ -13677,7 +13677,7 @@
         <v>114</v>
       </c>
       <c r="D353" s="30" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E353" s="30"/>
       <c r="F353" s="30"/>
@@ -13687,7 +13687,7 @@
     </row>
     <row r="354" spans="1:9">
       <c r="A354" s="8" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B354" s="9">
         <f>Form2f!C28</f>
@@ -13697,7 +13697,7 @@
         <v>113</v>
       </c>
       <c r="D354" s="30" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E354" s="30"/>
       <c r="F354" s="30"/>
@@ -13707,17 +13707,17 @@
     </row>
     <row r="355" spans="1:9">
       <c r="A355" s="8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B355" s="142">
         <f>Form2g!B6</f>
         <v>0</v>
       </c>
       <c r="C355" s="29" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D355" s="30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E355" s="30"/>
       <c r="F355" s="30"/>
@@ -13727,17 +13727,17 @@
     </row>
     <row r="356" spans="1:9" ht="30" customHeight="1">
       <c r="A356" s="62" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B356" s="98">
         <f>Form2g!C10</f>
         <v>0</v>
       </c>
       <c r="C356" s="28" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D356" s="30" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E356" s="30"/>
       <c r="F356" s="30"/>
@@ -13747,17 +13747,17 @@
     </row>
     <row r="357" spans="1:9" ht="30" customHeight="1">
       <c r="A357" s="62" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B357" s="98">
         <f>Form2g!C14</f>
         <v>0</v>
       </c>
       <c r="C357" s="28" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D357" s="30" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E357" s="30"/>
       <c r="F357" s="30"/>
@@ -13767,7 +13767,7 @@
     </row>
     <row r="358" spans="1:9" ht="20.25" customHeight="1">
       <c r="A358" s="8" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B358" s="9">
         <f>Form2g!B21</f>
@@ -13777,7 +13777,7 @@
         <v>124</v>
       </c>
       <c r="D358" s="30" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E358" s="30"/>
       <c r="F358" s="30"/>
@@ -13787,7 +13787,7 @@
     </row>
     <row r="359" spans="1:9" ht="23.25" customHeight="1">
       <c r="A359" s="8" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B359" s="9">
         <f>Form2g!B22</f>
@@ -13797,7 +13797,7 @@
         <v>123</v>
       </c>
       <c r="D359" s="30" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E359" s="30"/>
       <c r="F359" s="30"/>
@@ -13807,7 +13807,7 @@
     </row>
     <row r="360" spans="1:9" ht="28.5" customHeight="1">
       <c r="A360" s="8" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B360" s="9">
         <f>Form2g!B23</f>
@@ -13817,7 +13817,7 @@
         <v>122</v>
       </c>
       <c r="D360" s="30" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E360" s="30"/>
       <c r="F360" s="30"/>
@@ -13827,7 +13827,7 @@
     </row>
     <row r="361" spans="1:9" ht="25">
       <c r="A361" s="8" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B361" s="9">
         <f>Form2g!B24</f>
@@ -13837,7 +13837,7 @@
         <v>126</v>
       </c>
       <c r="D361" s="30" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E361" s="30"/>
       <c r="F361" s="30"/>
@@ -13847,7 +13847,7 @@
     </row>
     <row r="362" spans="1:9" ht="37">
       <c r="A362" s="8" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B362" s="9">
         <f>Form2g!B25</f>
@@ -13857,7 +13857,7 @@
         <v>127</v>
       </c>
       <c r="D362" s="30" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E362" s="30"/>
       <c r="F362" s="30"/>
@@ -13867,7 +13867,7 @@
     </row>
     <row r="363" spans="1:9">
       <c r="A363" s="8" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B363" s="9">
         <f>Form2g!B26</f>
@@ -13877,7 +13877,7 @@
         <v>121</v>
       </c>
       <c r="D363" s="30" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E363" s="30"/>
       <c r="F363" s="30"/>
@@ -13887,7 +13887,7 @@
     </row>
     <row r="364" spans="1:9" ht="56.25" customHeight="1">
       <c r="A364" s="8" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B364" s="9">
         <f>Form2g!B27</f>
@@ -13897,7 +13897,7 @@
         <v>120</v>
       </c>
       <c r="D364" s="30" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E364" s="30"/>
       <c r="F364" s="30"/>
@@ -13907,7 +13907,7 @@
     </row>
     <row r="365" spans="1:9" ht="24" customHeight="1">
       <c r="A365" s="8" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B365" s="9">
         <f>Form2g!B28</f>
@@ -13917,7 +13917,7 @@
         <v>119</v>
       </c>
       <c r="D365" s="30" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E365" s="140"/>
       <c r="F365" s="30"/>
@@ -13927,7 +13927,7 @@
     </row>
     <row r="366" spans="1:9">
       <c r="A366" s="8" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B366" s="9">
         <f>Form2g!C21</f>
@@ -13937,7 +13937,7 @@
         <v>118</v>
       </c>
       <c r="D366" s="30" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E366" s="30"/>
       <c r="F366" s="30"/>
@@ -13947,7 +13947,7 @@
     </row>
     <row r="367" spans="1:9">
       <c r="A367" s="8" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B367" s="9">
         <f>Form2g!C22</f>
@@ -13957,7 +13957,7 @@
         <v>117</v>
       </c>
       <c r="D367" s="30" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E367" s="30"/>
       <c r="F367" s="30"/>
@@ -13967,7 +13967,7 @@
     </row>
     <row r="368" spans="1:9">
       <c r="A368" s="8" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B368" s="9">
         <f>Form2g!C23</f>
@@ -13977,7 +13977,7 @@
         <v>116</v>
       </c>
       <c r="D368" s="30" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E368" s="30"/>
       <c r="F368" s="30"/>
@@ -13987,7 +13987,7 @@
     </row>
     <row r="369" spans="1:9" ht="25">
       <c r="A369" s="8" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B369" s="9">
         <f>Form2g!C24</f>
@@ -13997,7 +13997,7 @@
         <v>128</v>
       </c>
       <c r="D369" s="30" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E369" s="30"/>
       <c r="F369" s="30"/>
@@ -14007,7 +14007,7 @@
     </row>
     <row r="370" spans="1:9" ht="37">
       <c r="A370" s="8" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B370" s="9">
         <f>Form2g!C25</f>
@@ -14017,7 +14017,7 @@
         <v>129</v>
       </c>
       <c r="D370" s="30" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E370" s="30"/>
       <c r="F370" s="30"/>
@@ -14027,7 +14027,7 @@
     </row>
     <row r="371" spans="1:9">
       <c r="A371" s="8" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B371" s="9">
         <f>Form2g!C26</f>
@@ -14037,7 +14037,7 @@
         <v>115</v>
       </c>
       <c r="D371" s="30" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E371" s="30"/>
       <c r="F371" s="30"/>
@@ -14047,7 +14047,7 @@
     </row>
     <row r="372" spans="1:9">
       <c r="A372" s="8" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B372" s="9">
         <f>Form2g!C27</f>
@@ -14057,7 +14057,7 @@
         <v>114</v>
       </c>
       <c r="D372" s="30" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E372" s="30"/>
       <c r="F372" s="30"/>
@@ -14067,7 +14067,7 @@
     </row>
     <row r="373" spans="1:9">
       <c r="A373" s="8" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B373" s="9">
         <f>Form2g!C28</f>
@@ -14077,7 +14077,7 @@
         <v>113</v>
       </c>
       <c r="D373" s="30" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E373" s="30"/>
       <c r="F373" s="30"/>
@@ -14087,17 +14087,17 @@
     </row>
     <row r="374" spans="1:9">
       <c r="A374" s="8" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B374" s="142">
         <f>Form2h!B6</f>
         <v>0</v>
       </c>
       <c r="C374" s="29" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D374" s="30" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E374" s="30"/>
       <c r="F374" s="30"/>
@@ -14107,17 +14107,17 @@
     </row>
     <row r="375" spans="1:9" ht="30" customHeight="1">
       <c r="A375" s="62" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B375" s="98">
         <f>Form2h!C10</f>
         <v>0</v>
       </c>
       <c r="C375" s="28" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D375" s="30" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E375" s="30"/>
       <c r="F375" s="30"/>
@@ -14127,17 +14127,17 @@
     </row>
     <row r="376" spans="1:9" ht="30" customHeight="1">
       <c r="A376" s="62" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B376" s="98">
         <f>Form2h!C14</f>
         <v>0</v>
       </c>
       <c r="C376" s="28" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D376" s="30" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E376" s="30"/>
       <c r="F376" s="30"/>
@@ -14147,7 +14147,7 @@
     </row>
     <row r="377" spans="1:9" ht="20.25" customHeight="1">
       <c r="A377" s="8" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B377" s="9">
         <f>Form2h!B21</f>
@@ -14157,7 +14157,7 @@
         <v>124</v>
       </c>
       <c r="D377" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E377" s="30"/>
       <c r="F377" s="30"/>
@@ -14167,7 +14167,7 @@
     </row>
     <row r="378" spans="1:9" ht="23.25" customHeight="1">
       <c r="A378" s="8" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B378" s="9">
         <f>Form2h!B22</f>
@@ -14177,7 +14177,7 @@
         <v>123</v>
       </c>
       <c r="D378" s="30" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E378" s="30"/>
       <c r="F378" s="30"/>
@@ -14187,7 +14187,7 @@
     </row>
     <row r="379" spans="1:9" ht="28.5" customHeight="1">
       <c r="A379" s="8" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B379" s="9">
         <f>Form2h!B23</f>
@@ -14197,7 +14197,7 @@
         <v>122</v>
       </c>
       <c r="D379" s="30" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E379" s="30"/>
       <c r="F379" s="30"/>
@@ -14207,7 +14207,7 @@
     </row>
     <row r="380" spans="1:9" ht="25">
       <c r="A380" s="8" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B380" s="9">
         <f>Form2h!B24</f>
@@ -14217,7 +14217,7 @@
         <v>126</v>
       </c>
       <c r="D380" s="30" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E380" s="30"/>
       <c r="F380" s="30"/>
@@ -14227,7 +14227,7 @@
     </row>
     <row r="381" spans="1:9" ht="37">
       <c r="A381" s="8" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B381" s="9">
         <f>Form2h!B25</f>
@@ -14237,7 +14237,7 @@
         <v>127</v>
       </c>
       <c r="D381" s="30" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E381" s="30"/>
       <c r="F381" s="30"/>
@@ -14247,7 +14247,7 @@
     </row>
     <row r="382" spans="1:9">
       <c r="A382" s="8" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B382" s="9">
         <f>Form2h!B26</f>
@@ -14257,7 +14257,7 @@
         <v>121</v>
       </c>
       <c r="D382" s="30" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E382" s="30"/>
       <c r="F382" s="30"/>
@@ -14267,7 +14267,7 @@
     </row>
     <row r="383" spans="1:9" ht="56.25" customHeight="1">
       <c r="A383" s="8" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B383" s="9">
         <f>Form2h!B27</f>
@@ -14277,7 +14277,7 @@
         <v>120</v>
       </c>
       <c r="D383" s="30" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E383" s="30"/>
       <c r="F383" s="30"/>
@@ -14287,7 +14287,7 @@
     </row>
     <row r="384" spans="1:9" ht="24" customHeight="1">
       <c r="A384" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B384" s="9">
         <f>Form2h!B28</f>
@@ -14297,7 +14297,7 @@
         <v>119</v>
       </c>
       <c r="D384" s="30" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E384" s="140"/>
       <c r="F384" s="30"/>
@@ -14307,7 +14307,7 @@
     </row>
     <row r="385" spans="1:9">
       <c r="A385" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B385" s="9">
         <f>Form2h!C21</f>
@@ -14317,7 +14317,7 @@
         <v>118</v>
       </c>
       <c r="D385" s="30" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E385" s="30"/>
       <c r="F385" s="30"/>
@@ -14327,7 +14327,7 @@
     </row>
     <row r="386" spans="1:9">
       <c r="A386" s="8" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B386" s="9">
         <f>Form2h!C22</f>
@@ -14337,7 +14337,7 @@
         <v>117</v>
       </c>
       <c r="D386" s="30" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E386" s="30"/>
       <c r="F386" s="30"/>
@@ -14347,7 +14347,7 @@
     </row>
     <row r="387" spans="1:9">
       <c r="A387" s="8" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B387" s="9">
         <f>Form2h!C23</f>
@@ -14357,7 +14357,7 @@
         <v>116</v>
       </c>
       <c r="D387" s="30" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E387" s="30"/>
       <c r="F387" s="30"/>
@@ -14367,7 +14367,7 @@
     </row>
     <row r="388" spans="1:9" ht="25">
       <c r="A388" s="8" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B388" s="9">
         <f>Form2h!C24</f>
@@ -14377,7 +14377,7 @@
         <v>128</v>
       </c>
       <c r="D388" s="30" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E388" s="30"/>
       <c r="F388" s="30"/>
@@ -14387,7 +14387,7 @@
     </row>
     <row r="389" spans="1:9" ht="37">
       <c r="A389" s="8" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B389" s="9">
         <f>Form2h!C25</f>
@@ -14397,7 +14397,7 @@
         <v>129</v>
       </c>
       <c r="D389" s="30" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E389" s="30"/>
       <c r="F389" s="30"/>
@@ -14407,7 +14407,7 @@
     </row>
     <row r="390" spans="1:9">
       <c r="A390" s="8" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B390" s="9">
         <f>Form2h!C26</f>
@@ -14417,7 +14417,7 @@
         <v>115</v>
       </c>
       <c r="D390" s="30" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E390" s="30"/>
       <c r="F390" s="30"/>
@@ -14427,7 +14427,7 @@
     </row>
     <row r="391" spans="1:9">
       <c r="A391" s="8" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B391" s="9">
         <f>Form2h!C27</f>
@@ -14437,7 +14437,7 @@
         <v>114</v>
       </c>
       <c r="D391" s="30" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E391" s="30"/>
       <c r="F391" s="30"/>
@@ -14447,7 +14447,7 @@
     </row>
     <row r="392" spans="1:9">
       <c r="A392" s="8" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B392" s="9">
         <f>Form2h!C28</f>
@@ -14457,7 +14457,7 @@
         <v>113</v>
       </c>
       <c r="D392" s="30" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E392" s="30"/>
       <c r="F392" s="30"/>
@@ -14467,17 +14467,17 @@
     </row>
     <row r="393" spans="1:9">
       <c r="A393" s="8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B393" s="142">
         <f>Form2i!B6</f>
         <v>0</v>
       </c>
       <c r="C393" s="29" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D393" s="30" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E393" s="30"/>
       <c r="F393" s="30"/>
@@ -14487,17 +14487,17 @@
     </row>
     <row r="394" spans="1:9" ht="30" customHeight="1">
       <c r="A394" s="62" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B394" s="98">
         <f>Form2i!C10</f>
         <v>0</v>
       </c>
       <c r="C394" s="28" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D394" s="30" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E394" s="30"/>
       <c r="F394" s="30"/>
@@ -14507,17 +14507,17 @@
     </row>
     <row r="395" spans="1:9" ht="30" customHeight="1">
       <c r="A395" s="62" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B395" s="98">
         <f>Form2i!C14</f>
         <v>0</v>
       </c>
       <c r="C395" s="28" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D395" s="30" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E395" s="30"/>
       <c r="F395" s="30"/>
@@ -14527,17 +14527,17 @@
     </row>
     <row r="396" spans="1:9" ht="20.25" customHeight="1">
       <c r="A396" s="8" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B396" s="9">
         <f>Form2i!B21</f>
         <v>0</v>
       </c>
       <c r="C396" s="29" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D396" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E396" s="30"/>
       <c r="F396" s="30"/>
@@ -14547,7 +14547,7 @@
     </row>
     <row r="397" spans="1:9" ht="23.25" customHeight="1">
       <c r="A397" s="8" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B397" s="9">
         <f>Form2i!B22</f>
@@ -14557,7 +14557,7 @@
         <v>123</v>
       </c>
       <c r="D397" s="30" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E397" s="30"/>
       <c r="F397" s="30"/>
@@ -14567,7 +14567,7 @@
     </row>
     <row r="398" spans="1:9" ht="28.5" customHeight="1">
       <c r="A398" s="8" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B398" s="9">
         <f>Form2i!B23</f>
@@ -14577,7 +14577,7 @@
         <v>122</v>
       </c>
       <c r="D398" s="30" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E398" s="30"/>
       <c r="F398" s="30"/>
@@ -14587,7 +14587,7 @@
     </row>
     <row r="399" spans="1:9" ht="25">
       <c r="A399" s="8" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B399" s="9">
         <f>Form2i!B24</f>
@@ -14597,7 +14597,7 @@
         <v>126</v>
       </c>
       <c r="D399" s="30" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E399" s="30"/>
       <c r="F399" s="30"/>
@@ -14607,7 +14607,7 @@
     </row>
     <row r="400" spans="1:9" ht="37">
       <c r="A400" s="8" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B400" s="9">
         <f>Form2i!B25</f>
@@ -14617,7 +14617,7 @@
         <v>127</v>
       </c>
       <c r="D400" s="30" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E400" s="30"/>
       <c r="F400" s="30"/>
@@ -14627,7 +14627,7 @@
     </row>
     <row r="401" spans="1:9">
       <c r="A401" s="8" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B401" s="9">
         <f>Form2i!B26</f>
@@ -14637,7 +14637,7 @@
         <v>121</v>
       </c>
       <c r="D401" s="30" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E401" s="30"/>
       <c r="F401" s="30"/>
@@ -14647,7 +14647,7 @@
     </row>
     <row r="402" spans="1:9" ht="56.25" customHeight="1">
       <c r="A402" s="8" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B402" s="9">
         <f>Form2i!B27</f>
@@ -14657,7 +14657,7 @@
         <v>120</v>
       </c>
       <c r="D402" s="30" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E402" s="30"/>
       <c r="F402" s="30"/>
@@ -14667,7 +14667,7 @@
     </row>
     <row r="403" spans="1:9" ht="24" customHeight="1">
       <c r="A403" s="8" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B403" s="9">
         <f>Form2i!B28</f>
@@ -14677,7 +14677,7 @@
         <v>119</v>
       </c>
       <c r="D403" s="30" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E403" s="140"/>
       <c r="F403" s="30"/>
@@ -14687,7 +14687,7 @@
     </row>
     <row r="404" spans="1:9">
       <c r="A404" s="8" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B404" s="9">
         <f>Form2i!C21</f>
@@ -14697,7 +14697,7 @@
         <v>118</v>
       </c>
       <c r="D404" s="30" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E404" s="30"/>
       <c r="F404" s="30"/>
@@ -14707,7 +14707,7 @@
     </row>
     <row r="405" spans="1:9">
       <c r="A405" s="8" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B405" s="9">
         <f>Form2i!C22</f>
@@ -14717,7 +14717,7 @@
         <v>117</v>
       </c>
       <c r="D405" s="30" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E405" s="30"/>
       <c r="F405" s="30"/>
@@ -14727,7 +14727,7 @@
     </row>
     <row r="406" spans="1:9">
       <c r="A406" s="8" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B406" s="9">
         <f>Form2i!C23</f>
@@ -14737,7 +14737,7 @@
         <v>116</v>
       </c>
       <c r="D406" s="30" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E406" s="30"/>
       <c r="F406" s="30"/>
@@ -14747,7 +14747,7 @@
     </row>
     <row r="407" spans="1:9" ht="25">
       <c r="A407" s="8" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B407" s="9">
         <f>Form2i!C24</f>
@@ -14757,7 +14757,7 @@
         <v>128</v>
       </c>
       <c r="D407" s="30" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E407" s="30"/>
       <c r="F407" s="30"/>
@@ -14767,7 +14767,7 @@
     </row>
     <row r="408" spans="1:9" ht="37">
       <c r="A408" s="8" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B408" s="9">
         <f>Form2i!C25</f>
@@ -14777,7 +14777,7 @@
         <v>129</v>
       </c>
       <c r="D408" s="30" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E408" s="30"/>
       <c r="F408" s="30"/>
@@ -14787,7 +14787,7 @@
     </row>
     <row r="409" spans="1:9">
       <c r="A409" s="8" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B409" s="9">
         <f>Form2i!C26</f>
@@ -14797,7 +14797,7 @@
         <v>115</v>
       </c>
       <c r="D409" s="30" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E409" s="30"/>
       <c r="F409" s="30"/>
@@ -14807,7 +14807,7 @@
     </row>
     <row r="410" spans="1:9">
       <c r="A410" s="8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B410" s="9">
         <f>Form2i!C27</f>
@@ -14817,7 +14817,7 @@
         <v>114</v>
       </c>
       <c r="D410" s="30" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E410" s="30"/>
       <c r="F410" s="30"/>
@@ -14827,7 +14827,7 @@
     </row>
     <row r="411" spans="1:9">
       <c r="A411" s="8" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B411" s="9">
         <f>Form2i!C28</f>
@@ -14837,7 +14837,7 @@
         <v>113</v>
       </c>
       <c r="D411" s="30" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E411" s="30"/>
       <c r="F411" s="30"/>
@@ -14847,17 +14847,17 @@
     </row>
     <row r="412" spans="1:9">
       <c r="A412" s="8" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B412" s="142">
         <f>Form2j!B6</f>
         <v>0</v>
       </c>
       <c r="C412" s="29" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D412" s="30" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E412" s="30"/>
       <c r="F412" s="30"/>
@@ -14867,17 +14867,17 @@
     </row>
     <row r="413" spans="1:9" ht="30" customHeight="1">
       <c r="A413" s="62" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B413" s="98">
         <f>Form2j!C10</f>
         <v>0</v>
       </c>
       <c r="C413" s="28" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D413" s="30" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E413" s="30"/>
       <c r="F413" s="30"/>
@@ -14887,17 +14887,17 @@
     </row>
     <row r="414" spans="1:9" ht="30" customHeight="1">
       <c r="A414" s="62" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B414" s="98">
         <f>Form2j!C14</f>
         <v>0</v>
       </c>
       <c r="C414" s="28" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D414" s="30" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E414" s="30"/>
       <c r="F414" s="30"/>
@@ -14907,7 +14907,7 @@
     </row>
     <row r="415" spans="1:9" ht="20.25" customHeight="1">
       <c r="A415" s="8" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B415" s="9">
         <f>Form2j!B21</f>
@@ -14917,7 +14917,7 @@
         <v>124</v>
       </c>
       <c r="D415" s="30" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E415" s="30"/>
       <c r="F415" s="30"/>
@@ -14927,7 +14927,7 @@
     </row>
     <row r="416" spans="1:9" ht="23.25" customHeight="1">
       <c r="A416" s="8" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B416" s="9">
         <f>Form2j!B22</f>
@@ -14937,7 +14937,7 @@
         <v>123</v>
       </c>
       <c r="D416" s="30" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E416" s="30"/>
       <c r="F416" s="30"/>
@@ -14947,7 +14947,7 @@
     </row>
     <row r="417" spans="1:9" ht="28.5" customHeight="1">
       <c r="A417" s="8" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B417" s="9">
         <f>Form2j!B23</f>
@@ -14957,7 +14957,7 @@
         <v>122</v>
       </c>
       <c r="D417" s="30" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E417" s="30"/>
       <c r="F417" s="30"/>
@@ -14967,7 +14967,7 @@
     </row>
     <row r="418" spans="1:9" ht="25">
       <c r="A418" s="8" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B418" s="9">
         <f>Form2j!B24</f>
@@ -14977,7 +14977,7 @@
         <v>126</v>
       </c>
       <c r="D418" s="30" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E418" s="30"/>
       <c r="F418" s="30"/>
@@ -14987,7 +14987,7 @@
     </row>
     <row r="419" spans="1:9" ht="37">
       <c r="A419" s="8" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B419" s="9">
         <f>Form2j!B25</f>
@@ -14997,7 +14997,7 @@
         <v>127</v>
       </c>
       <c r="D419" s="30" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E419" s="30"/>
       <c r="F419" s="30"/>
@@ -15007,7 +15007,7 @@
     </row>
     <row r="420" spans="1:9">
       <c r="A420" s="8" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B420" s="9">
         <f>Form2j!B26</f>
@@ -15017,7 +15017,7 @@
         <v>121</v>
       </c>
       <c r="D420" s="30" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E420" s="30"/>
       <c r="F420" s="30"/>
@@ -15027,7 +15027,7 @@
     </row>
     <row r="421" spans="1:9" ht="56.25" customHeight="1">
       <c r="A421" s="8" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B421" s="9">
         <f>Form2j!B27</f>
@@ -15037,7 +15037,7 @@
         <v>120</v>
       </c>
       <c r="D421" s="30" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E421" s="30"/>
       <c r="F421" s="30"/>
@@ -15047,7 +15047,7 @@
     </row>
     <row r="422" spans="1:9" ht="24" customHeight="1">
       <c r="A422" s="8" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B422" s="9">
         <f>Form2j!B28</f>
@@ -15057,7 +15057,7 @@
         <v>119</v>
       </c>
       <c r="D422" s="30" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E422" s="140"/>
       <c r="F422" s="30"/>
@@ -15067,7 +15067,7 @@
     </row>
     <row r="423" spans="1:9">
       <c r="A423" s="8" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B423" s="9">
         <f>Form2j!C21</f>
@@ -15077,7 +15077,7 @@
         <v>118</v>
       </c>
       <c r="D423" s="30" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E423" s="30"/>
       <c r="F423" s="30"/>
@@ -15087,7 +15087,7 @@
     </row>
     <row r="424" spans="1:9">
       <c r="A424" s="8" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B424" s="9">
         <f>Form2j!C22</f>
@@ -15097,7 +15097,7 @@
         <v>117</v>
       </c>
       <c r="D424" s="30" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E424" s="30"/>
       <c r="F424" s="30"/>
@@ -15107,7 +15107,7 @@
     </row>
     <row r="425" spans="1:9">
       <c r="A425" s="8" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B425" s="9">
         <f>Form2j!C23</f>
@@ -15117,7 +15117,7 @@
         <v>116</v>
       </c>
       <c r="D425" s="30" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E425" s="30"/>
       <c r="F425" s="30"/>
@@ -15127,7 +15127,7 @@
     </row>
     <row r="426" spans="1:9" ht="25">
       <c r="A426" s="8" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B426" s="9">
         <f>Form2j!C24</f>
@@ -15137,7 +15137,7 @@
         <v>128</v>
       </c>
       <c r="D426" s="30" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E426" s="30"/>
       <c r="F426" s="30"/>
@@ -15147,7 +15147,7 @@
     </row>
     <row r="427" spans="1:9" ht="37">
       <c r="A427" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B427" s="9">
         <f>Form2j!C25</f>
@@ -15157,7 +15157,7 @@
         <v>129</v>
       </c>
       <c r="D427" s="30" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E427" s="30"/>
       <c r="F427" s="30"/>
@@ -15167,7 +15167,7 @@
     </row>
     <row r="428" spans="1:9">
       <c r="A428" s="8" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B428" s="9">
         <f>Form2j!C26</f>
@@ -15177,7 +15177,7 @@
         <v>115</v>
       </c>
       <c r="D428" s="30" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E428" s="30"/>
       <c r="F428" s="30"/>
@@ -15187,7 +15187,7 @@
     </row>
     <row r="429" spans="1:9">
       <c r="A429" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B429" s="9">
         <f>Form2j!C27</f>
@@ -15197,7 +15197,7 @@
         <v>114</v>
       </c>
       <c r="D429" s="30" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E429" s="30"/>
       <c r="F429" s="30"/>
@@ -15207,7 +15207,7 @@
     </row>
     <row r="430" spans="1:9">
       <c r="A430" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B430" s="9">
         <f>Form2j!C28</f>
@@ -15217,7 +15217,7 @@
         <v>113</v>
       </c>
       <c r="D430" s="30" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E430" s="30"/>
       <c r="F430" s="30"/>
@@ -15227,14 +15227,14 @@
     </row>
     <row r="431" spans="1:9" ht="30" customHeight="1">
       <c r="A431" s="62" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B431" s="98"/>
       <c r="C431" s="28" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D431" s="30" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E431" s="30"/>
       <c r="F431" s="30"/>
@@ -15244,14 +15244,14 @@
     </row>
     <row r="432" spans="1:9" ht="30" customHeight="1">
       <c r="A432" s="62" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B432" s="98"/>
       <c r="C432" s="28" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D432" s="30" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E432" s="30"/>
       <c r="F432" s="30"/>
@@ -15261,14 +15261,14 @@
     </row>
     <row r="433" spans="1:9" ht="20.25" customHeight="1">
       <c r="A433" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B433" s="9"/>
       <c r="C433" s="29" t="s">
         <v>124</v>
       </c>
       <c r="D433" s="30" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E433" s="30"/>
       <c r="F433" s="30"/>
@@ -15278,14 +15278,14 @@
     </row>
     <row r="434" spans="1:9" ht="23.25" customHeight="1">
       <c r="A434" s="8" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B434" s="9"/>
       <c r="C434" s="29" t="s">
         <v>123</v>
       </c>
       <c r="D434" s="30" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E434" s="30"/>
       <c r="F434" s="30"/>
@@ -15295,14 +15295,14 @@
     </row>
     <row r="435" spans="1:9" ht="28.5" customHeight="1">
       <c r="A435" s="8" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B435" s="9"/>
       <c r="C435" s="71" t="s">
         <v>122</v>
       </c>
       <c r="D435" s="30" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E435" s="30"/>
       <c r="F435" s="30"/>
@@ -15312,14 +15312,14 @@
     </row>
     <row r="436" spans="1:9" ht="25">
       <c r="A436" s="8" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B436" s="9"/>
       <c r="C436" s="71" t="s">
         <v>126</v>
       </c>
       <c r="D436" s="30" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E436" s="30"/>
       <c r="F436" s="30"/>
@@ -15329,14 +15329,14 @@
     </row>
     <row r="437" spans="1:9" ht="37">
       <c r="A437" s="8" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B437" s="9"/>
       <c r="C437" s="71" t="s">
         <v>127</v>
       </c>
       <c r="D437" s="30" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E437" s="30"/>
       <c r="F437" s="30"/>
@@ -15346,14 +15346,14 @@
     </row>
     <row r="438" spans="1:9">
       <c r="A438" s="8" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B438" s="9"/>
       <c r="C438" s="29" t="s">
         <v>121</v>
       </c>
       <c r="D438" s="30" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E438" s="30"/>
       <c r="F438" s="30"/>
@@ -15363,14 +15363,14 @@
     </row>
     <row r="439" spans="1:9" ht="56.25" customHeight="1">
       <c r="A439" s="8" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B439" s="9"/>
       <c r="C439" s="71" t="s">
         <v>120</v>
       </c>
       <c r="D439" s="30" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E439" s="30"/>
       <c r="F439" s="30"/>
@@ -15380,14 +15380,14 @@
     </row>
     <row r="440" spans="1:9" ht="24" customHeight="1">
       <c r="A440" s="8" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B440" s="9"/>
       <c r="C440" s="29" t="s">
         <v>119</v>
       </c>
       <c r="D440" s="30" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E440" s="140"/>
       <c r="F440" s="30"/>
@@ -15397,14 +15397,14 @@
     </row>
     <row r="441" spans="1:9">
       <c r="A441" s="8" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B441" s="9"/>
       <c r="C441" s="29" t="s">
         <v>118</v>
       </c>
       <c r="D441" s="30" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E441" s="30"/>
       <c r="F441" s="30"/>
@@ -15414,14 +15414,14 @@
     </row>
     <row r="442" spans="1:9">
       <c r="A442" s="8" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B442" s="9"/>
       <c r="C442" s="29" t="s">
         <v>117</v>
       </c>
       <c r="D442" s="30" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E442" s="30"/>
       <c r="F442" s="30"/>
@@ -15431,14 +15431,14 @@
     </row>
     <row r="443" spans="1:9">
       <c r="A443" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B443" s="9"/>
       <c r="C443" s="29" t="s">
         <v>116</v>
       </c>
       <c r="D443" s="30" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E443" s="30"/>
       <c r="F443" s="30"/>
@@ -15448,14 +15448,14 @@
     </row>
     <row r="444" spans="1:9" ht="25">
       <c r="A444" s="8" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B444" s="9"/>
       <c r="C444" s="71" t="s">
         <v>128</v>
       </c>
       <c r="D444" s="30" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E444" s="30"/>
       <c r="F444" s="30"/>
@@ -15465,14 +15465,14 @@
     </row>
     <row r="445" spans="1:9" ht="37">
       <c r="A445" s="8" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B445" s="9"/>
       <c r="C445" s="71" t="s">
         <v>129</v>
       </c>
       <c r="D445" s="30" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E445" s="30"/>
       <c r="F445" s="30"/>
@@ -15482,14 +15482,14 @@
     </row>
     <row r="446" spans="1:9">
       <c r="A446" s="8" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B446" s="9"/>
       <c r="C446" s="29" t="s">
         <v>115</v>
       </c>
       <c r="D446" s="30" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E446" s="30"/>
       <c r="F446" s="30"/>
@@ -15499,14 +15499,14 @@
     </row>
     <row r="447" spans="1:9">
       <c r="A447" s="8" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B447" s="9"/>
       <c r="C447" s="29" t="s">
         <v>114</v>
       </c>
       <c r="D447" s="30" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E447" s="30"/>
       <c r="F447" s="30"/>
@@ -15516,14 +15516,14 @@
     </row>
     <row r="448" spans="1:9">
       <c r="A448" s="8" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B448" s="9"/>
       <c r="C448" s="29" t="s">
         <v>113</v>
       </c>
       <c r="D448" s="30" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E448" s="30"/>
       <c r="F448" s="30"/>
@@ -15570,6 +15570,23 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="33">
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A193:C193"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="B98:C98"/>
     <mergeCell ref="A4:B4"/>
@@ -15586,23 +15603,6 @@
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B63:C63"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="A193:C193"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A117:B117"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31" location="'Move or Copy'!A1" display="Link to Move or Copy"/>
@@ -15642,11 +15642,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="14" customFormat="1" ht="66.5" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="156" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
       <c r="D1" s="118"/>
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
@@ -15664,12 +15664,12 @@
       <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:25" s="14" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="160" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
     </row>
@@ -15685,12 +15685,12 @@
       <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:25" ht="165" customHeight="1">
-      <c r="A5" s="151" t="s">
-        <v>887</v>
-      </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
+      <c r="A5" s="155" t="s">
+        <v>885</v>
+      </c>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
       <c r="E5" s="3"/>
       <c r="F5" s="116"/>
       <c r="G5" s="3"/>
@@ -15713,10 +15713,10 @@
     </row>
     <row r="6" spans="1:25" ht="22.5" customHeight="1">
       <c r="A6" s="114" t="s">
-        <v>884</v>
-      </c>
-      <c r="B6" s="162"/>
-      <c r="C6" s="165"/>
+        <v>882</v>
+      </c>
+      <c r="B6" s="164"/>
+      <c r="C6" s="167"/>
       <c r="D6" s="112"/>
       <c r="E6" s="53"/>
       <c r="F6" s="6"/>
@@ -15748,7 +15748,7 @@
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="126" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
@@ -15757,12 +15757,12 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:25" ht="63" customHeight="1" thickBot="1">
-      <c r="A9" s="164" t="s">
-        <v>922</v>
-      </c>
-      <c r="B9" s="164"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="154"/>
+      <c r="A9" s="166" t="s">
+        <v>920</v>
+      </c>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="153"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -15810,7 +15810,7 @@
     </row>
     <row r="12" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="126" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
@@ -15821,12 +15821,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="63" customHeight="1" thickBot="1">
-      <c r="A13" s="164" t="s">
-        <v>923</v>
-      </c>
-      <c r="B13" s="164"/>
-      <c r="C13" s="164"/>
-      <c r="D13" s="154"/>
+      <c r="A13" s="166" t="s">
+        <v>921</v>
+      </c>
+      <c r="B13" s="166"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="153"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -15887,20 +15887,20 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:25" s="14" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A16" s="157"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
+      <c r="A16" s="159"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A17" s="149" t="s">
-        <v>897</v>
-      </c>
-      <c r="B17" s="154"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
+      <c r="A17" s="152" t="s">
+        <v>895</v>
+      </c>
+      <c r="B17" s="153"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -15954,7 +15954,7 @@
       <c r="C19" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="D19" s="160" t="s">
+      <c r="D19" s="162" t="s">
         <v>172</v>
       </c>
       <c r="E19" s="51"/>
@@ -15969,15 +15969,15 @@
       <c r="C20" s="82" t="s">
         <v>191</v>
       </c>
-      <c r="D20" s="161"/>
+      <c r="D20" s="163"/>
       <c r="E20" s="51"/>
     </row>
     <row r="21" spans="1:23" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="145"/>
       <c r="D21" s="75" t="s">
         <v>112</v>
       </c>
@@ -15988,8 +15988,8 @@
       <c r="A22" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="166"/>
-      <c r="C22" s="166"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="145"/>
       <c r="D22" s="75" t="s">
         <v>111</v>
       </c>
@@ -16000,8 +16000,8 @@
       <c r="A23" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="166"/>
-      <c r="C23" s="166"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="145"/>
       <c r="D23" s="75" t="s">
         <v>110</v>
       </c>
@@ -16010,12 +16010,12 @@
     </row>
     <row r="24" spans="1:23" ht="33.75" customHeight="1" thickBot="1">
       <c r="A24" s="74" t="s">
-        <v>376</v>
-      </c>
-      <c r="B24" s="166"/>
-      <c r="C24" s="166"/>
+        <v>374</v>
+      </c>
+      <c r="B24" s="145"/>
+      <c r="C24" s="145"/>
       <c r="D24" s="75" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="6"/>
@@ -16024,10 +16024,10 @@
       <c r="A25" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="166"/>
-      <c r="C25" s="166"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="145"/>
       <c r="D25" s="129" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="117"/>
@@ -16036,8 +16036,8 @@
       <c r="A26" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="145"/>
       <c r="D26" s="75" t="s">
         <v>109</v>
       </c>
@@ -16048,8 +16048,8 @@
       <c r="A27" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="166"/>
-      <c r="C27" s="166"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="145"/>
       <c r="D27" s="75" t="s">
         <v>108</v>
       </c>
@@ -16060,8 +16060,8 @@
       <c r="A28" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="B28" s="166"/>
-      <c r="C28" s="166"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="145"/>
       <c r="D28" s="77" t="s">
         <v>193</v>
       </c>
@@ -16070,27 +16070,27 @@
     </row>
     <row r="29" spans="1:23" ht="31.5" customHeight="1">
       <c r="A29" s="114" t="s">
-        <v>377</v>
-      </c>
-      <c r="B29" s="167">
+        <v>375</v>
+      </c>
+      <c r="B29" s="146">
         <f>SUM(B21:B28)</f>
         <v>0</v>
       </c>
-      <c r="C29" s="167">
+      <c r="C29" s="146">
         <f>SUM(C21:C28)</f>
         <v>0</v>
       </c>
       <c r="D29" s="113" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
     </row>
     <row r="30" spans="1:23" s="14" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A30" s="157"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
+      <c r="A30" s="159"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
       <c r="E30" s="15"/>
       <c r="F30" s="16"/>
     </row>
@@ -16147,11 +16147,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="14" customFormat="1" ht="66.5" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="156" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
       <c r="D1" s="118"/>
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
@@ -16169,12 +16169,12 @@
       <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:25" s="14" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="160" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
     </row>
@@ -16190,12 +16190,12 @@
       <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:25" ht="165" customHeight="1">
-      <c r="A5" s="151" t="s">
-        <v>887</v>
-      </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
+      <c r="A5" s="155" t="s">
+        <v>885</v>
+      </c>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
       <c r="E5" s="3"/>
       <c r="F5" s="116"/>
       <c r="G5" s="3"/>
@@ -16218,10 +16218,10 @@
     </row>
     <row r="6" spans="1:25" ht="22.5" customHeight="1">
       <c r="A6" s="114" t="s">
-        <v>885</v>
-      </c>
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
+        <v>883</v>
+      </c>
+      <c r="B6" s="164"/>
+      <c r="C6" s="165"/>
       <c r="D6" s="112"/>
       <c r="E6" s="53"/>
       <c r="F6" s="6"/>
@@ -16253,7 +16253,7 @@
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="126" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
@@ -16262,12 +16262,12 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:25" ht="63" customHeight="1" thickBot="1">
-      <c r="A9" s="164" t="s">
-        <v>924</v>
-      </c>
-      <c r="B9" s="164"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="154"/>
+      <c r="A9" s="166" t="s">
+        <v>922</v>
+      </c>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="153"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -16315,7 +16315,7 @@
     </row>
     <row r="12" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="126" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
@@ -16326,12 +16326,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="63" customHeight="1" thickBot="1">
-      <c r="A13" s="164" t="s">
-        <v>925</v>
-      </c>
-      <c r="B13" s="164"/>
-      <c r="C13" s="164"/>
-      <c r="D13" s="154"/>
+      <c r="A13" s="166" t="s">
+        <v>923</v>
+      </c>
+      <c r="B13" s="166"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="153"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -16392,20 +16392,20 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:25" s="14" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A16" s="157"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
+      <c r="A16" s="159"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A17" s="149" t="s">
-        <v>898</v>
-      </c>
-      <c r="B17" s="154"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
+      <c r="A17" s="152" t="s">
+        <v>896</v>
+      </c>
+      <c r="B17" s="153"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -16459,7 +16459,7 @@
       <c r="C19" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="D19" s="160" t="s">
+      <c r="D19" s="162" t="s">
         <v>172</v>
       </c>
       <c r="E19" s="51"/>
@@ -16474,15 +16474,15 @@
       <c r="C20" s="82" t="s">
         <v>191</v>
       </c>
-      <c r="D20" s="161"/>
+      <c r="D20" s="163"/>
       <c r="E20" s="51"/>
     </row>
     <row r="21" spans="1:23" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="145"/>
       <c r="D21" s="75" t="s">
         <v>112</v>
       </c>
@@ -16493,8 +16493,8 @@
       <c r="A22" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="166"/>
-      <c r="C22" s="166"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="145"/>
       <c r="D22" s="75" t="s">
         <v>111</v>
       </c>
@@ -16505,8 +16505,8 @@
       <c r="A23" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="166"/>
-      <c r="C23" s="166"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="145"/>
       <c r="D23" s="75" t="s">
         <v>110</v>
       </c>
@@ -16515,12 +16515,12 @@
     </row>
     <row r="24" spans="1:23" ht="33.75" customHeight="1" thickBot="1">
       <c r="A24" s="74" t="s">
-        <v>376</v>
-      </c>
-      <c r="B24" s="166"/>
-      <c r="C24" s="166"/>
+        <v>374</v>
+      </c>
+      <c r="B24" s="145"/>
+      <c r="C24" s="145"/>
       <c r="D24" s="75" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="6"/>
@@ -16529,10 +16529,10 @@
       <c r="A25" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="166"/>
-      <c r="C25" s="166"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="145"/>
       <c r="D25" s="129" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="117"/>
@@ -16541,8 +16541,8 @@
       <c r="A26" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="145"/>
       <c r="D26" s="75" t="s">
         <v>109</v>
       </c>
@@ -16553,8 +16553,8 @@
       <c r="A27" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="166"/>
-      <c r="C27" s="166"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="145"/>
       <c r="D27" s="75" t="s">
         <v>108</v>
       </c>
@@ -16565,8 +16565,8 @@
       <c r="A28" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="B28" s="166"/>
-      <c r="C28" s="166"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="145"/>
       <c r="D28" s="77" t="s">
         <v>193</v>
       </c>
@@ -16575,27 +16575,27 @@
     </row>
     <row r="29" spans="1:23" ht="31.5" customHeight="1">
       <c r="A29" s="114" t="s">
-        <v>377</v>
-      </c>
-      <c r="B29" s="167">
+        <v>375</v>
+      </c>
+      <c r="B29" s="146">
         <f>SUM(B21:B28)</f>
         <v>0</v>
       </c>
-      <c r="C29" s="167">
+      <c r="C29" s="146">
         <f>SUM(C21:C28)</f>
         <v>0</v>
       </c>
       <c r="D29" s="113" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
     </row>
     <row r="30" spans="1:23" s="14" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A30" s="157"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
+      <c r="A30" s="159"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
       <c r="E30" s="15"/>
       <c r="F30" s="16"/>
     </row>
@@ -16670,11 +16670,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="14" customFormat="1" ht="66.5" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="156" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
       <c r="D1" s="118"/>
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
@@ -16692,12 +16692,12 @@
       <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:25" s="14" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="160" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
     </row>
@@ -16713,12 +16713,12 @@
       <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:25" ht="165" customHeight="1">
-      <c r="A5" s="151" t="s">
-        <v>886</v>
-      </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
+      <c r="A5" s="155" t="s">
+        <v>884</v>
+      </c>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
       <c r="E5" s="3"/>
       <c r="F5" s="116"/>
       <c r="G5" s="3"/>
@@ -16741,10 +16741,10 @@
     </row>
     <row r="6" spans="1:25" ht="23" customHeight="1">
       <c r="A6" s="114" t="s">
-        <v>876</v>
-      </c>
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
+        <v>874</v>
+      </c>
+      <c r="B6" s="164"/>
+      <c r="C6" s="165"/>
       <c r="D6" s="112"/>
       <c r="E6" s="53"/>
     </row>
@@ -16775,7 +16775,7 @@
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="126" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
@@ -16784,12 +16784,12 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:25" ht="63" customHeight="1" thickBot="1">
-      <c r="A9" s="164" t="s">
-        <v>944</v>
-      </c>
-      <c r="B9" s="164"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="154"/>
+      <c r="A9" s="166" t="s">
+        <v>942</v>
+      </c>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="153"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -16837,7 +16837,7 @@
     </row>
     <row r="12" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="126" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
@@ -16848,12 +16848,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="63" customHeight="1" thickBot="1">
-      <c r="A13" s="164" t="s">
-        <v>943</v>
-      </c>
-      <c r="B13" s="164"/>
-      <c r="C13" s="164"/>
-      <c r="D13" s="154"/>
+      <c r="A13" s="166" t="s">
+        <v>941</v>
+      </c>
+      <c r="B13" s="166"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="153"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -16914,20 +16914,20 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:25" s="14" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A16" s="157"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
+      <c r="A16" s="159"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A17" s="149" t="s">
-        <v>889</v>
-      </c>
-      <c r="B17" s="154"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
+      <c r="A17" s="152" t="s">
+        <v>887</v>
+      </c>
+      <c r="B17" s="153"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -16981,7 +16981,7 @@
       <c r="C19" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="D19" s="160" t="s">
+      <c r="D19" s="162" t="s">
         <v>172</v>
       </c>
       <c r="E19" s="51"/>
@@ -16996,15 +16996,15 @@
       <c r="C20" s="82" t="s">
         <v>191</v>
       </c>
-      <c r="D20" s="161"/>
+      <c r="D20" s="163"/>
       <c r="E20" s="51"/>
     </row>
     <row r="21" spans="1:23" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="145"/>
       <c r="D21" s="75" t="s">
         <v>112</v>
       </c>
@@ -17015,8 +17015,8 @@
       <c r="A22" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="166"/>
-      <c r="C22" s="166"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="145"/>
       <c r="D22" s="75" t="s">
         <v>111</v>
       </c>
@@ -17027,8 +17027,8 @@
       <c r="A23" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="166"/>
-      <c r="C23" s="166"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="145"/>
       <c r="D23" s="75" t="s">
         <v>110</v>
       </c>
@@ -17037,12 +17037,12 @@
     </row>
     <row r="24" spans="1:23" ht="33.75" customHeight="1" thickBot="1">
       <c r="A24" s="74" t="s">
-        <v>376</v>
-      </c>
-      <c r="B24" s="166"/>
-      <c r="C24" s="166"/>
+        <v>374</v>
+      </c>
+      <c r="B24" s="145"/>
+      <c r="C24" s="145"/>
       <c r="D24" s="75" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="6"/>
@@ -17051,10 +17051,10 @@
       <c r="A25" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="166"/>
-      <c r="C25" s="166"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="145"/>
       <c r="D25" s="129" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="117"/>
@@ -17063,8 +17063,8 @@
       <c r="A26" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="145"/>
       <c r="D26" s="75" t="s">
         <v>109</v>
       </c>
@@ -17075,8 +17075,8 @@
       <c r="A27" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="166"/>
-      <c r="C27" s="166"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="145"/>
       <c r="D27" s="75" t="s">
         <v>108</v>
       </c>
@@ -17087,8 +17087,8 @@
       <c r="A28" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="B28" s="166"/>
-      <c r="C28" s="166"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="145"/>
       <c r="D28" s="77" t="s">
         <v>193</v>
       </c>
@@ -17097,27 +17097,27 @@
     </row>
     <row r="29" spans="1:23" ht="31.5" customHeight="1">
       <c r="A29" s="114" t="s">
-        <v>377</v>
-      </c>
-      <c r="B29" s="167">
+        <v>375</v>
+      </c>
+      <c r="B29" s="146">
         <f>SUM(B21:B28)</f>
         <v>0</v>
       </c>
-      <c r="C29" s="167">
+      <c r="C29" s="146">
         <f>SUM(C21:C28)</f>
         <v>0</v>
       </c>
       <c r="D29" s="113" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
     </row>
     <row r="30" spans="1:23" s="14" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A30" s="157"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
+      <c r="A30" s="159"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
       <c r="E30" s="15"/>
       <c r="F30" s="16"/>
     </row>
@@ -17174,11 +17174,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="14" customFormat="1" ht="66.5" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="156" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
       <c r="D1" s="118"/>
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
@@ -17196,12 +17196,12 @@
       <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:25" s="14" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="160" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
     </row>
@@ -17217,12 +17217,12 @@
       <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:25" ht="165" customHeight="1">
-      <c r="A5" s="151" t="s">
-        <v>887</v>
-      </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
+      <c r="A5" s="155" t="s">
+        <v>885</v>
+      </c>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
       <c r="E5" s="3"/>
       <c r="F5" s="116"/>
       <c r="G5" s="3"/>
@@ -17245,10 +17245,10 @@
     </row>
     <row r="6" spans="1:25" ht="22.5" customHeight="1">
       <c r="A6" s="114" t="s">
-        <v>877</v>
-      </c>
-      <c r="B6" s="162"/>
-      <c r="C6" s="165"/>
+        <v>875</v>
+      </c>
+      <c r="B6" s="164"/>
+      <c r="C6" s="167"/>
       <c r="D6" s="112"/>
       <c r="E6" s="53"/>
       <c r="F6" s="6"/>
@@ -17280,7 +17280,7 @@
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="126" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
@@ -17289,12 +17289,12 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:25" ht="63" customHeight="1" thickBot="1">
-      <c r="A9" s="164" t="s">
-        <v>908</v>
-      </c>
-      <c r="B9" s="164"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="154"/>
+      <c r="A9" s="166" t="s">
+        <v>906</v>
+      </c>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="153"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -17342,7 +17342,7 @@
     </row>
     <row r="12" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="126" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
@@ -17353,12 +17353,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="63" customHeight="1" thickBot="1">
-      <c r="A13" s="164" t="s">
-        <v>909</v>
-      </c>
-      <c r="B13" s="164"/>
-      <c r="C13" s="164"/>
-      <c r="D13" s="154"/>
+      <c r="A13" s="166" t="s">
+        <v>907</v>
+      </c>
+      <c r="B13" s="166"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="153"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -17419,20 +17419,20 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:25" s="14" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A16" s="157"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
+      <c r="A16" s="159"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A17" s="149" t="s">
-        <v>890</v>
-      </c>
-      <c r="B17" s="154"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
+      <c r="A17" s="152" t="s">
+        <v>888</v>
+      </c>
+      <c r="B17" s="153"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -17486,7 +17486,7 @@
       <c r="C19" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="D19" s="160" t="s">
+      <c r="D19" s="162" t="s">
         <v>172</v>
       </c>
       <c r="E19" s="51"/>
@@ -17501,15 +17501,15 @@
       <c r="C20" s="82" t="s">
         <v>191</v>
       </c>
-      <c r="D20" s="161"/>
+      <c r="D20" s="163"/>
       <c r="E20" s="51"/>
     </row>
     <row r="21" spans="1:23" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="145"/>
       <c r="D21" s="75" t="s">
         <v>112</v>
       </c>
@@ -17520,8 +17520,8 @@
       <c r="A22" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="166"/>
-      <c r="C22" s="166"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="145"/>
       <c r="D22" s="75" t="s">
         <v>111</v>
       </c>
@@ -17532,8 +17532,8 @@
       <c r="A23" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="166"/>
-      <c r="C23" s="166"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="145"/>
       <c r="D23" s="75" t="s">
         <v>110</v>
       </c>
@@ -17542,12 +17542,12 @@
     </row>
     <row r="24" spans="1:23" ht="33.75" customHeight="1" thickBot="1">
       <c r="A24" s="74" t="s">
-        <v>376</v>
-      </c>
-      <c r="B24" s="166"/>
-      <c r="C24" s="166"/>
+        <v>374</v>
+      </c>
+      <c r="B24" s="145"/>
+      <c r="C24" s="145"/>
       <c r="D24" s="75" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="6"/>
@@ -17556,10 +17556,10 @@
       <c r="A25" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="166"/>
-      <c r="C25" s="166"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="145"/>
       <c r="D25" s="128" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="117"/>
@@ -17568,8 +17568,8 @@
       <c r="A26" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="145"/>
       <c r="D26" s="75" t="s">
         <v>109</v>
       </c>
@@ -17580,8 +17580,8 @@
       <c r="A27" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="166"/>
-      <c r="C27" s="166"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="145"/>
       <c r="D27" s="75" t="s">
         <v>108</v>
       </c>
@@ -17592,8 +17592,8 @@
       <c r="A28" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="B28" s="166"/>
-      <c r="C28" s="166"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="145"/>
       <c r="D28" s="77" t="s">
         <v>193</v>
       </c>
@@ -17602,27 +17602,27 @@
     </row>
     <row r="29" spans="1:23" ht="31.5" customHeight="1">
       <c r="A29" s="114" t="s">
-        <v>377</v>
-      </c>
-      <c r="B29" s="167">
+        <v>375</v>
+      </c>
+      <c r="B29" s="146">
         <f>SUM(B21:B28)</f>
         <v>0</v>
       </c>
-      <c r="C29" s="167">
+      <c r="C29" s="146">
         <f>SUM(C21:C28)</f>
         <v>0</v>
       </c>
       <c r="D29" s="113" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
     </row>
     <row r="30" spans="1:23" s="14" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A30" s="157"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
+      <c r="A30" s="159"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
       <c r="E30" s="15"/>
       <c r="F30" s="16"/>
     </row>
@@ -17679,11 +17679,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="14" customFormat="1" ht="66.5" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="156" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
       <c r="D1" s="118"/>
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
@@ -17701,12 +17701,12 @@
       <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:25" s="14" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="160" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
     </row>
@@ -17722,12 +17722,12 @@
       <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:25" ht="165" customHeight="1">
-      <c r="A5" s="151" t="s">
-        <v>887</v>
-      </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
+      <c r="A5" s="155" t="s">
+        <v>885</v>
+      </c>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
       <c r="E5" s="3"/>
       <c r="F5" s="116"/>
       <c r="G5" s="3"/>
@@ -17750,10 +17750,10 @@
     </row>
     <row r="6" spans="1:25" ht="22.5" customHeight="1">
       <c r="A6" s="114" t="s">
-        <v>878</v>
-      </c>
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
+        <v>876</v>
+      </c>
+      <c r="B6" s="164"/>
+      <c r="C6" s="165"/>
       <c r="D6" s="112"/>
       <c r="E6" s="53"/>
       <c r="F6" s="6"/>
@@ -17785,7 +17785,7 @@
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="126" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
@@ -17794,12 +17794,12 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:25" ht="63" customHeight="1" thickBot="1">
-      <c r="A9" s="164" t="s">
-        <v>910</v>
-      </c>
-      <c r="B9" s="164"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="154"/>
+      <c r="A9" s="166" t="s">
+        <v>908</v>
+      </c>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="153"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -17847,7 +17847,7 @@
     </row>
     <row r="12" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="126" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
@@ -17858,12 +17858,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="63" customHeight="1" thickBot="1">
-      <c r="A13" s="164" t="s">
-        <v>911</v>
-      </c>
-      <c r="B13" s="164"/>
-      <c r="C13" s="164"/>
-      <c r="D13" s="154"/>
+      <c r="A13" s="166" t="s">
+        <v>909</v>
+      </c>
+      <c r="B13" s="166"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="153"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -17924,20 +17924,20 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:25" s="14" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A16" s="157"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
+      <c r="A16" s="159"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A17" s="149" t="s">
-        <v>891</v>
-      </c>
-      <c r="B17" s="154"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
+      <c r="A17" s="152" t="s">
+        <v>889</v>
+      </c>
+      <c r="B17" s="153"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -17991,7 +17991,7 @@
       <c r="C19" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="D19" s="160" t="s">
+      <c r="D19" s="162" t="s">
         <v>172</v>
       </c>
       <c r="E19" s="51"/>
@@ -18006,7 +18006,7 @@
       <c r="C20" s="82" t="s">
         <v>191</v>
       </c>
-      <c r="D20" s="161"/>
+      <c r="D20" s="163"/>
       <c r="E20" s="51"/>
       <c r="F20" s="117"/>
     </row>
@@ -18014,8 +18014,8 @@
       <c r="A21" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="145"/>
       <c r="D21" s="75" t="s">
         <v>112</v>
       </c>
@@ -18026,8 +18026,8 @@
       <c r="A22" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="166"/>
-      <c r="C22" s="166"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="145"/>
       <c r="D22" s="75" t="s">
         <v>111</v>
       </c>
@@ -18038,8 +18038,8 @@
       <c r="A23" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="166"/>
-      <c r="C23" s="166"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="145"/>
       <c r="D23" s="75" t="s">
         <v>110</v>
       </c>
@@ -18048,12 +18048,12 @@
     </row>
     <row r="24" spans="1:23" ht="33.75" customHeight="1" thickBot="1">
       <c r="A24" s="74" t="s">
-        <v>376</v>
-      </c>
-      <c r="B24" s="166"/>
-      <c r="C24" s="166"/>
+        <v>374</v>
+      </c>
+      <c r="B24" s="145"/>
+      <c r="C24" s="145"/>
       <c r="D24" s="75" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="6"/>
@@ -18062,10 +18062,10 @@
       <c r="A25" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="166"/>
-      <c r="C25" s="166"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="145"/>
       <c r="D25" s="129" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="117"/>
@@ -18074,8 +18074,8 @@
       <c r="A26" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="145"/>
       <c r="D26" s="75" t="s">
         <v>109</v>
       </c>
@@ -18086,8 +18086,8 @@
       <c r="A27" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="166"/>
-      <c r="C27" s="166"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="145"/>
       <c r="D27" s="75" t="s">
         <v>108</v>
       </c>
@@ -18098,8 +18098,8 @@
       <c r="A28" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="B28" s="166"/>
-      <c r="C28" s="166"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="145"/>
       <c r="D28" s="77" t="s">
         <v>193</v>
       </c>
@@ -18108,27 +18108,27 @@
     </row>
     <row r="29" spans="1:23" ht="31.5" customHeight="1">
       <c r="A29" s="114" t="s">
-        <v>377</v>
-      </c>
-      <c r="B29" s="167">
+        <v>375</v>
+      </c>
+      <c r="B29" s="146">
         <f>SUM(B21:B28)</f>
         <v>0</v>
       </c>
-      <c r="C29" s="167">
+      <c r="C29" s="146">
         <f>SUM(C21:C28)</f>
         <v>0</v>
       </c>
       <c r="D29" s="113" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
     </row>
     <row r="30" spans="1:23" s="14" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A30" s="157"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
+      <c r="A30" s="159"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
       <c r="E30" s="15"/>
       <c r="F30" s="16"/>
     </row>
@@ -18185,11 +18185,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="14" customFormat="1" ht="66.5" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="156" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
       <c r="D1" s="118"/>
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
@@ -18207,12 +18207,12 @@
       <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:25" s="14" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="160" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
     </row>
@@ -18228,12 +18228,12 @@
       <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:25" ht="165" customHeight="1">
-      <c r="A5" s="151" t="s">
-        <v>887</v>
-      </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
+      <c r="A5" s="155" t="s">
+        <v>885</v>
+      </c>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
       <c r="E5" s="3"/>
       <c r="F5" s="116"/>
       <c r="G5" s="3"/>
@@ -18256,10 +18256,10 @@
     </row>
     <row r="6" spans="1:25" ht="22.5" customHeight="1">
       <c r="A6" s="114" t="s">
-        <v>879</v>
-      </c>
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
+        <v>877</v>
+      </c>
+      <c r="B6" s="164"/>
+      <c r="C6" s="165"/>
       <c r="D6" s="112"/>
       <c r="E6" s="53"/>
       <c r="F6" s="6"/>
@@ -18291,7 +18291,7 @@
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="126" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
@@ -18300,12 +18300,12 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:25" ht="63" customHeight="1" thickBot="1">
-      <c r="A9" s="164" t="s">
-        <v>912</v>
-      </c>
-      <c r="B9" s="164"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="154"/>
+      <c r="A9" s="166" t="s">
+        <v>910</v>
+      </c>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="153"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -18353,7 +18353,7 @@
     </row>
     <row r="12" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="126" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
@@ -18364,12 +18364,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="63" customHeight="1" thickBot="1">
-      <c r="A13" s="164" t="s">
-        <v>913</v>
-      </c>
-      <c r="B13" s="164"/>
-      <c r="C13" s="164"/>
-      <c r="D13" s="154"/>
+      <c r="A13" s="166" t="s">
+        <v>911</v>
+      </c>
+      <c r="B13" s="166"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="153"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -18430,20 +18430,20 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:25" s="14" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A16" s="157"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
+      <c r="A16" s="159"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A17" s="149" t="s">
-        <v>892</v>
-      </c>
-      <c r="B17" s="154"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
+      <c r="A17" s="152" t="s">
+        <v>890</v>
+      </c>
+      <c r="B17" s="153"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -18497,7 +18497,7 @@
       <c r="C19" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="D19" s="160" t="s">
+      <c r="D19" s="162" t="s">
         <v>172</v>
       </c>
       <c r="E19" s="51"/>
@@ -18512,15 +18512,15 @@
       <c r="C20" s="82" t="s">
         <v>191</v>
       </c>
-      <c r="D20" s="161"/>
+      <c r="D20" s="163"/>
       <c r="E20" s="51"/>
     </row>
     <row r="21" spans="1:23" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="145"/>
       <c r="D21" s="75" t="s">
         <v>112</v>
       </c>
@@ -18531,8 +18531,8 @@
       <c r="A22" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="166"/>
-      <c r="C22" s="166"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="145"/>
       <c r="D22" s="75" t="s">
         <v>111</v>
       </c>
@@ -18543,8 +18543,8 @@
       <c r="A23" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="166"/>
-      <c r="C23" s="166"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="145"/>
       <c r="D23" s="75" t="s">
         <v>110</v>
       </c>
@@ -18553,12 +18553,12 @@
     </row>
     <row r="24" spans="1:23" ht="33.75" customHeight="1" thickBot="1">
       <c r="A24" s="74" t="s">
-        <v>376</v>
-      </c>
-      <c r="B24" s="166"/>
-      <c r="C24" s="166"/>
+        <v>374</v>
+      </c>
+      <c r="B24" s="145"/>
+      <c r="C24" s="145"/>
       <c r="D24" s="75" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="6"/>
@@ -18567,10 +18567,10 @@
       <c r="A25" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="166"/>
-      <c r="C25" s="166"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="145"/>
       <c r="D25" s="129" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="117"/>
@@ -18579,8 +18579,8 @@
       <c r="A26" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="145"/>
       <c r="D26" s="75" t="s">
         <v>109</v>
       </c>
@@ -18591,8 +18591,8 @@
       <c r="A27" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="166"/>
-      <c r="C27" s="166"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="145"/>
       <c r="D27" s="75" t="s">
         <v>108</v>
       </c>
@@ -18603,8 +18603,8 @@
       <c r="A28" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="B28" s="166"/>
-      <c r="C28" s="166"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="145"/>
       <c r="D28" s="77" t="s">
         <v>193</v>
       </c>
@@ -18613,27 +18613,27 @@
     </row>
     <row r="29" spans="1:23" ht="31.5" customHeight="1">
       <c r="A29" s="114" t="s">
-        <v>377</v>
-      </c>
-      <c r="B29" s="167">
+        <v>375</v>
+      </c>
+      <c r="B29" s="146">
         <f>SUM(B21:B28)</f>
         <v>0</v>
       </c>
-      <c r="C29" s="167">
+      <c r="C29" s="146">
         <f>SUM(C21:C28)</f>
         <v>0</v>
       </c>
       <c r="D29" s="113" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
     </row>
     <row r="30" spans="1:23" s="14" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A30" s="157"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
+      <c r="A30" s="159"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
       <c r="E30" s="15"/>
       <c r="F30" s="16"/>
     </row>
@@ -18690,11 +18690,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="14" customFormat="1" ht="66.5" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="156" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
       <c r="D1" s="118"/>
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
@@ -18712,12 +18712,12 @@
       <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:25" s="14" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="160" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
     </row>
@@ -18733,12 +18733,12 @@
       <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:25" ht="165" customHeight="1">
-      <c r="A5" s="151" t="s">
-        <v>887</v>
-      </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
+      <c r="A5" s="155" t="s">
+        <v>885</v>
+      </c>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
       <c r="E5" s="3"/>
       <c r="F5" s="116"/>
       <c r="G5" s="3"/>
@@ -18761,10 +18761,10 @@
     </row>
     <row r="6" spans="1:25" ht="22.5" customHeight="1">
       <c r="A6" s="114" t="s">
-        <v>880</v>
-      </c>
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
+        <v>878</v>
+      </c>
+      <c r="B6" s="164"/>
+      <c r="C6" s="165"/>
       <c r="D6" s="112"/>
       <c r="E6" s="53"/>
       <c r="F6" s="6"/>
@@ -18796,7 +18796,7 @@
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="126" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
@@ -18805,12 +18805,12 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:25" ht="63" customHeight="1" thickBot="1">
-      <c r="A9" s="164" t="s">
-        <v>914</v>
-      </c>
-      <c r="B9" s="164"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="154"/>
+      <c r="A9" s="166" t="s">
+        <v>912</v>
+      </c>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="153"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -18858,7 +18858,7 @@
     </row>
     <row r="12" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="126" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
@@ -18869,12 +18869,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="63" customHeight="1" thickBot="1">
-      <c r="A13" s="164" t="s">
-        <v>915</v>
-      </c>
-      <c r="B13" s="164"/>
-      <c r="C13" s="164"/>
-      <c r="D13" s="154"/>
+      <c r="A13" s="166" t="s">
+        <v>913</v>
+      </c>
+      <c r="B13" s="166"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="153"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -18935,20 +18935,20 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:25" s="14" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A16" s="157"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
+      <c r="A16" s="159"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A17" s="149" t="s">
-        <v>893</v>
-      </c>
-      <c r="B17" s="154"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
+      <c r="A17" s="152" t="s">
+        <v>891</v>
+      </c>
+      <c r="B17" s="153"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -19002,7 +19002,7 @@
       <c r="C19" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="D19" s="160" t="s">
+      <c r="D19" s="162" t="s">
         <v>172</v>
       </c>
       <c r="E19" s="51"/>
@@ -19017,15 +19017,15 @@
       <c r="C20" s="82" t="s">
         <v>191</v>
       </c>
-      <c r="D20" s="161"/>
+      <c r="D20" s="163"/>
       <c r="E20" s="51"/>
     </row>
     <row r="21" spans="1:23" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="145"/>
       <c r="D21" s="75" t="s">
         <v>112</v>
       </c>
@@ -19036,8 +19036,8 @@
       <c r="A22" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="166"/>
-      <c r="C22" s="166"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="145"/>
       <c r="D22" s="75" t="s">
         <v>111</v>
       </c>
@@ -19048,8 +19048,8 @@
       <c r="A23" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="166"/>
-      <c r="C23" s="166"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="145"/>
       <c r="D23" s="75" t="s">
         <v>110</v>
       </c>
@@ -19058,12 +19058,12 @@
     </row>
     <row r="24" spans="1:23" ht="33.75" customHeight="1" thickBot="1">
       <c r="A24" s="74" t="s">
-        <v>376</v>
-      </c>
-      <c r="B24" s="166"/>
-      <c r="C24" s="166"/>
+        <v>374</v>
+      </c>
+      <c r="B24" s="145"/>
+      <c r="C24" s="145"/>
       <c r="D24" s="75" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="6"/>
@@ -19072,10 +19072,10 @@
       <c r="A25" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="166"/>
-      <c r="C25" s="166"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="145"/>
       <c r="D25" s="129" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="117"/>
@@ -19084,8 +19084,8 @@
       <c r="A26" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="145"/>
       <c r="D26" s="75" t="s">
         <v>109</v>
       </c>
@@ -19096,8 +19096,8 @@
       <c r="A27" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="166"/>
-      <c r="C27" s="166"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="145"/>
       <c r="D27" s="75" t="s">
         <v>108</v>
       </c>
@@ -19108,8 +19108,8 @@
       <c r="A28" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="B28" s="166"/>
-      <c r="C28" s="166"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="145"/>
       <c r="D28" s="77" t="s">
         <v>193</v>
       </c>
@@ -19118,27 +19118,27 @@
     </row>
     <row r="29" spans="1:23" ht="31.5" customHeight="1">
       <c r="A29" s="114" t="s">
-        <v>377</v>
-      </c>
-      <c r="B29" s="167">
+        <v>375</v>
+      </c>
+      <c r="B29" s="146">
         <f>SUM(B21:B28)</f>
         <v>0</v>
       </c>
-      <c r="C29" s="167">
+      <c r="C29" s="146">
         <f>SUM(C21:C28)</f>
         <v>0</v>
       </c>
       <c r="D29" s="113" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
     </row>
     <row r="30" spans="1:23" s="14" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A30" s="157"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
+      <c r="A30" s="159"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
       <c r="E30" s="15"/>
       <c r="F30" s="16"/>
     </row>
@@ -19195,11 +19195,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="14" customFormat="1" ht="66.5" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="156" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
       <c r="D1" s="118"/>
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
@@ -19217,12 +19217,12 @@
       <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:25" s="14" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="160" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
     </row>
@@ -19238,12 +19238,12 @@
       <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:25" ht="165" customHeight="1">
-      <c r="A5" s="151" t="s">
-        <v>887</v>
-      </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
+      <c r="A5" s="155" t="s">
+        <v>885</v>
+      </c>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
       <c r="E5" s="3"/>
       <c r="F5" s="116"/>
       <c r="G5" s="3"/>
@@ -19266,10 +19266,10 @@
     </row>
     <row r="6" spans="1:25" ht="22.5" customHeight="1">
       <c r="A6" s="114" t="s">
-        <v>881</v>
-      </c>
-      <c r="B6" s="162"/>
-      <c r="C6" s="165"/>
+        <v>879</v>
+      </c>
+      <c r="B6" s="164"/>
+      <c r="C6" s="167"/>
       <c r="D6" s="112"/>
       <c r="E6" s="53"/>
       <c r="F6" s="6"/>
@@ -19301,7 +19301,7 @@
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="126" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
@@ -19310,12 +19310,12 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:25" ht="63" customHeight="1" thickBot="1">
-      <c r="A9" s="164" t="s">
-        <v>916</v>
-      </c>
-      <c r="B9" s="164"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="154"/>
+      <c r="A9" s="166" t="s">
+        <v>914</v>
+      </c>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="153"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -19363,7 +19363,7 @@
     </row>
     <row r="12" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="126" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
@@ -19374,12 +19374,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="63" customHeight="1" thickBot="1">
-      <c r="A13" s="164" t="s">
-        <v>917</v>
-      </c>
-      <c r="B13" s="164"/>
-      <c r="C13" s="164"/>
-      <c r="D13" s="154"/>
+      <c r="A13" s="166" t="s">
+        <v>915</v>
+      </c>
+      <c r="B13" s="166"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="153"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -19440,20 +19440,20 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:25" s="14" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A16" s="157"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
+      <c r="A16" s="159"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A17" s="149" t="s">
-        <v>894</v>
-      </c>
-      <c r="B17" s="154"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
+      <c r="A17" s="152" t="s">
+        <v>892</v>
+      </c>
+      <c r="B17" s="153"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -19507,7 +19507,7 @@
       <c r="C19" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="D19" s="160" t="s">
+      <c r="D19" s="162" t="s">
         <v>172</v>
       </c>
       <c r="E19" s="51"/>
@@ -19522,15 +19522,15 @@
       <c r="C20" s="82" t="s">
         <v>191</v>
       </c>
-      <c r="D20" s="161"/>
+      <c r="D20" s="163"/>
       <c r="E20" s="51"/>
     </row>
     <row r="21" spans="1:23" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="145"/>
       <c r="D21" s="75" t="s">
         <v>112</v>
       </c>
@@ -19541,8 +19541,8 @@
       <c r="A22" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="166"/>
-      <c r="C22" s="166"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="145"/>
       <c r="D22" s="75" t="s">
         <v>111</v>
       </c>
@@ -19553,8 +19553,8 @@
       <c r="A23" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="166"/>
-      <c r="C23" s="166"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="145"/>
       <c r="D23" s="75" t="s">
         <v>110</v>
       </c>
@@ -19563,12 +19563,12 @@
     </row>
     <row r="24" spans="1:23" ht="33.75" customHeight="1" thickBot="1">
       <c r="A24" s="74" t="s">
-        <v>376</v>
-      </c>
-      <c r="B24" s="166"/>
-      <c r="C24" s="166"/>
+        <v>374</v>
+      </c>
+      <c r="B24" s="145"/>
+      <c r="C24" s="145"/>
       <c r="D24" s="75" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="6"/>
@@ -19577,10 +19577,10 @@
       <c r="A25" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="166"/>
-      <c r="C25" s="166"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="145"/>
       <c r="D25" s="129" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="117"/>
@@ -19589,8 +19589,8 @@
       <c r="A26" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="145"/>
       <c r="D26" s="75" t="s">
         <v>109</v>
       </c>
@@ -19601,8 +19601,8 @@
       <c r="A27" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="166"/>
-      <c r="C27" s="166"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="145"/>
       <c r="D27" s="75" t="s">
         <v>108</v>
       </c>
@@ -19613,8 +19613,8 @@
       <c r="A28" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="B28" s="166"/>
-      <c r="C28" s="166"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="145"/>
       <c r="D28" s="77" t="s">
         <v>193</v>
       </c>
@@ -19623,27 +19623,27 @@
     </row>
     <row r="29" spans="1:23" ht="31.5" customHeight="1">
       <c r="A29" s="114" t="s">
-        <v>377</v>
-      </c>
-      <c r="B29" s="167">
+        <v>375</v>
+      </c>
+      <c r="B29" s="146">
         <f>SUM(B21:B28)</f>
         <v>0</v>
       </c>
-      <c r="C29" s="167">
+      <c r="C29" s="146">
         <f>SUM(C21:C28)</f>
         <v>0</v>
       </c>
       <c r="D29" s="113" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
     </row>
     <row r="30" spans="1:23" s="14" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A30" s="157"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
+      <c r="A30" s="159"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
       <c r="E30" s="15"/>
       <c r="F30" s="16"/>
     </row>
@@ -19700,11 +19700,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="14" customFormat="1" ht="66.5" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="156" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
       <c r="D1" s="118"/>
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
@@ -19722,12 +19722,12 @@
       <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:25" s="14" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="160" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
     </row>
@@ -19743,12 +19743,12 @@
       <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:25" ht="165" customHeight="1">
-      <c r="A5" s="151" t="s">
-        <v>887</v>
-      </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
+      <c r="A5" s="155" t="s">
+        <v>885</v>
+      </c>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
       <c r="E5" s="3"/>
       <c r="F5" s="116"/>
       <c r="G5" s="3"/>
@@ -19771,10 +19771,10 @@
     </row>
     <row r="6" spans="1:25" ht="22.5" customHeight="1">
       <c r="A6" s="114" t="s">
-        <v>882</v>
-      </c>
-      <c r="B6" s="162"/>
-      <c r="C6" s="165"/>
+        <v>880</v>
+      </c>
+      <c r="B6" s="164"/>
+      <c r="C6" s="167"/>
       <c r="D6" s="112"/>
       <c r="E6" s="53"/>
       <c r="F6" s="6"/>
@@ -19806,7 +19806,7 @@
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="126" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
@@ -19815,12 +19815,12 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:25" ht="63" customHeight="1" thickBot="1">
-      <c r="A9" s="164" t="s">
-        <v>918</v>
-      </c>
-      <c r="B9" s="164"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="154"/>
+      <c r="A9" s="166" t="s">
+        <v>916</v>
+      </c>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="153"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -19868,7 +19868,7 @@
     </row>
     <row r="12" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="126" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
@@ -19879,12 +19879,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="63" customHeight="1" thickBot="1">
-      <c r="A13" s="164" t="s">
-        <v>919</v>
-      </c>
-      <c r="B13" s="164"/>
-      <c r="C13" s="164"/>
-      <c r="D13" s="154"/>
+      <c r="A13" s="166" t="s">
+        <v>917</v>
+      </c>
+      <c r="B13" s="166"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="153"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -19945,20 +19945,20 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:25" s="14" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A16" s="157"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
+      <c r="A16" s="159"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A17" s="149" t="s">
-        <v>895</v>
-      </c>
-      <c r="B17" s="154"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
+      <c r="A17" s="152" t="s">
+        <v>893</v>
+      </c>
+      <c r="B17" s="153"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -20012,7 +20012,7 @@
       <c r="C19" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="D19" s="160" t="s">
+      <c r="D19" s="162" t="s">
         <v>172</v>
       </c>
       <c r="E19" s="51"/>
@@ -20027,15 +20027,15 @@
       <c r="C20" s="82" t="s">
         <v>191</v>
       </c>
-      <c r="D20" s="161"/>
+      <c r="D20" s="163"/>
       <c r="E20" s="51"/>
     </row>
     <row r="21" spans="1:23" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="145"/>
       <c r="D21" s="75" t="s">
         <v>112</v>
       </c>
@@ -20046,8 +20046,8 @@
       <c r="A22" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="166"/>
-      <c r="C22" s="166"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="145"/>
       <c r="D22" s="75" t="s">
         <v>111</v>
       </c>
@@ -20058,8 +20058,8 @@
       <c r="A23" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="166"/>
-      <c r="C23" s="166"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="145"/>
       <c r="D23" s="75" t="s">
         <v>110</v>
       </c>
@@ -20068,12 +20068,12 @@
     </row>
     <row r="24" spans="1:23" ht="33.75" customHeight="1" thickBot="1">
       <c r="A24" s="74" t="s">
-        <v>376</v>
-      </c>
-      <c r="B24" s="166"/>
-      <c r="C24" s="166"/>
+        <v>374</v>
+      </c>
+      <c r="B24" s="145"/>
+      <c r="C24" s="145"/>
       <c r="D24" s="75" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="6"/>
@@ -20082,10 +20082,10 @@
       <c r="A25" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="166"/>
-      <c r="C25" s="166"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="145"/>
       <c r="D25" s="129" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="117"/>
@@ -20094,8 +20094,8 @@
       <c r="A26" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="145"/>
       <c r="D26" s="75" t="s">
         <v>109</v>
       </c>
@@ -20106,8 +20106,8 @@
       <c r="A27" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="166"/>
-      <c r="C27" s="166"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="145"/>
       <c r="D27" s="75" t="s">
         <v>108</v>
       </c>
@@ -20118,8 +20118,8 @@
       <c r="A28" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="B28" s="166"/>
-      <c r="C28" s="166"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="145"/>
       <c r="D28" s="77" t="s">
         <v>193</v>
       </c>
@@ -20128,27 +20128,27 @@
     </row>
     <row r="29" spans="1:23" ht="31.5" customHeight="1">
       <c r="A29" s="114" t="s">
-        <v>377</v>
-      </c>
-      <c r="B29" s="167">
+        <v>375</v>
+      </c>
+      <c r="B29" s="146">
         <f>SUM(B21:B28)</f>
         <v>0</v>
       </c>
-      <c r="C29" s="167">
+      <c r="C29" s="146">
         <f>SUM(C21:C28)</f>
         <v>0</v>
       </c>
       <c r="D29" s="113" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
     </row>
     <row r="30" spans="1:23" s="14" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A30" s="157"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
+      <c r="A30" s="159"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
       <c r="E30" s="15"/>
       <c r="F30" s="16"/>
     </row>
@@ -20205,11 +20205,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="14" customFormat="1" ht="66.5" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="156" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
       <c r="D1" s="118"/>
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
@@ -20227,12 +20227,12 @@
       <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:25" s="14" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="160" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
     </row>
@@ -20248,12 +20248,12 @@
       <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:25" ht="165" customHeight="1">
-      <c r="A5" s="151" t="s">
-        <v>887</v>
-      </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
+      <c r="A5" s="155" t="s">
+        <v>885</v>
+      </c>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
       <c r="E5" s="3"/>
       <c r="F5" s="116"/>
       <c r="G5" s="3"/>
@@ -20276,10 +20276,10 @@
     </row>
     <row r="6" spans="1:25" ht="22.5" customHeight="1">
       <c r="A6" s="114" t="s">
-        <v>883</v>
-      </c>
-      <c r="B6" s="162"/>
-      <c r="C6" s="165"/>
+        <v>881</v>
+      </c>
+      <c r="B6" s="164"/>
+      <c r="C6" s="167"/>
       <c r="D6" s="112"/>
       <c r="E6" s="53"/>
       <c r="F6" s="6"/>
@@ -20311,7 +20311,7 @@
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="126" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
@@ -20320,12 +20320,12 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:25" ht="63" customHeight="1" thickBot="1">
-      <c r="A9" s="164" t="s">
-        <v>920</v>
-      </c>
-      <c r="B9" s="164"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="154"/>
+      <c r="A9" s="166" t="s">
+        <v>918</v>
+      </c>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="153"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -20373,7 +20373,7 @@
     </row>
     <row r="12" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="126" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
@@ -20384,12 +20384,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="63" customHeight="1" thickBot="1">
-      <c r="A13" s="164" t="s">
-        <v>921</v>
-      </c>
-      <c r="B13" s="164"/>
-      <c r="C13" s="164"/>
-      <c r="D13" s="154"/>
+      <c r="A13" s="166" t="s">
+        <v>919</v>
+      </c>
+      <c r="B13" s="166"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="153"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -20450,20 +20450,20 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:25" s="14" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A16" s="157"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
+      <c r="A16" s="159"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A17" s="149" t="s">
-        <v>896</v>
-      </c>
-      <c r="B17" s="154"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
+      <c r="A17" s="152" t="s">
+        <v>894</v>
+      </c>
+      <c r="B17" s="153"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -20517,7 +20517,7 @@
       <c r="C19" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="D19" s="160" t="s">
+      <c r="D19" s="162" t="s">
         <v>172</v>
       </c>
       <c r="E19" s="51"/>
@@ -20532,15 +20532,15 @@
       <c r="C20" s="82" t="s">
         <v>191</v>
       </c>
-      <c r="D20" s="161"/>
+      <c r="D20" s="163"/>
       <c r="E20" s="51"/>
     </row>
     <row r="21" spans="1:23" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="145"/>
       <c r="D21" s="75" t="s">
         <v>112</v>
       </c>
@@ -20551,8 +20551,8 @@
       <c r="A22" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="166"/>
-      <c r="C22" s="166"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="145"/>
       <c r="D22" s="75" t="s">
         <v>111</v>
       </c>
@@ -20563,8 +20563,8 @@
       <c r="A23" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="166"/>
-      <c r="C23" s="166"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="145"/>
       <c r="D23" s="75" t="s">
         <v>110</v>
       </c>
@@ -20573,12 +20573,12 @@
     </row>
     <row r="24" spans="1:23" ht="33.75" customHeight="1" thickBot="1">
       <c r="A24" s="74" t="s">
-        <v>376</v>
-      </c>
-      <c r="B24" s="166"/>
-      <c r="C24" s="166"/>
+        <v>374</v>
+      </c>
+      <c r="B24" s="145"/>
+      <c r="C24" s="145"/>
       <c r="D24" s="75" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="6"/>
@@ -20587,10 +20587,10 @@
       <c r="A25" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="166"/>
-      <c r="C25" s="166"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="145"/>
       <c r="D25" s="129" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="117"/>
@@ -20599,8 +20599,8 @@
       <c r="A26" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="145"/>
       <c r="D26" s="75" t="s">
         <v>109</v>
       </c>
@@ -20611,8 +20611,8 @@
       <c r="A27" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="166"/>
-      <c r="C27" s="166"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="145"/>
       <c r="D27" s="75" t="s">
         <v>108</v>
       </c>
@@ -20623,8 +20623,8 @@
       <c r="A28" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="B28" s="166"/>
-      <c r="C28" s="166"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="145"/>
       <c r="D28" s="77" t="s">
         <v>193</v>
       </c>
@@ -20633,27 +20633,27 @@
     </row>
     <row r="29" spans="1:23" ht="31.5" customHeight="1">
       <c r="A29" s="114" t="s">
-        <v>377</v>
-      </c>
-      <c r="B29" s="167">
+        <v>375</v>
+      </c>
+      <c r="B29" s="146">
         <f>SUM(B21:B28)</f>
         <v>0</v>
       </c>
-      <c r="C29" s="167">
+      <c r="C29" s="146">
         <f>SUM(C21:C28)</f>
         <v>0</v>
       </c>
       <c r="D29" s="113" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
     </row>
     <row r="30" spans="1:23" s="14" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A30" s="157"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
+      <c r="A30" s="159"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
       <c r="E30" s="15"/>
       <c r="F30" s="16"/>
     </row>

--- a/data/imports/mrss-export.xlsx
+++ b/data/imports/mrss-export.xlsx
@@ -1147,12 +1147,6 @@
     <t>Clerical and Other Professional Staff Salaries and Benefits</t>
   </si>
   <si>
-    <t>inst_clerical_prof_expend</t>
-  </si>
-  <si>
-    <t>inst_clerical_prof_num</t>
-  </si>
-  <si>
     <t>Non-labor operating costs</t>
   </si>
   <si>
@@ -5581,6 +5575,12 @@
   </si>
   <si>
     <t>inst_part_cred_hrs</t>
+  </si>
+  <si>
+    <t>inst_exec_expend</t>
+  </si>
+  <si>
+    <t>inst_exec_num</t>
   </si>
 </sst>
 </file>
@@ -7367,8 +7367,8 @@
   </sheetPr>
   <dimension ref="A1:Y457"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7411,7 +7411,7 @@
     </row>
     <row r="3" spans="1:25" s="14" customFormat="1" ht="62.25" customHeight="1">
       <c r="A3" s="155" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B3" s="155"/>
       <c r="C3" s="155"/>
@@ -7452,7 +7452,7 @@
     </row>
     <row r="5" spans="1:25" customFormat="1" ht="104.25" customHeight="1">
       <c r="A5" s="155" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B5" s="155"/>
       <c r="C5" s="155"/>
@@ -7520,11 +7520,11 @@
     </row>
     <row r="8" spans="1:25" customFormat="1" ht="23.25" customHeight="1">
       <c r="A8" s="152" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B8" s="153"/>
       <c r="C8" s="38" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>167</v>
@@ -7557,7 +7557,7 @@
     </row>
     <row r="9" spans="1:25" customFormat="1" ht="52.5" customHeight="1">
       <c r="A9" s="155" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B9" s="155"/>
       <c r="C9" s="155"/>
@@ -7599,10 +7599,10 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="27" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
@@ -7612,14 +7612,14 @@
     </row>
     <row r="12" spans="1:25" ht="39" customHeight="1" thickBot="1">
       <c r="A12" s="24" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="28" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
@@ -7629,14 +7629,14 @@
     </row>
     <row r="13" spans="1:25" ht="87" customHeight="1" thickBot="1">
       <c r="A13" s="24" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="28" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
@@ -7657,10 +7657,10 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="32" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
@@ -7670,14 +7670,14 @@
     </row>
     <row r="16" spans="1:25" ht="39" customHeight="1" thickBot="1">
       <c r="A16" s="24" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="32" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -7687,14 +7687,14 @@
     </row>
     <row r="17" spans="1:25" ht="92.25" customHeight="1" thickBot="1">
       <c r="A17" s="24" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="32" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -7704,7 +7704,7 @@
     </row>
     <row r="18" spans="1:25" customFormat="1" ht="25.25" customHeight="1">
       <c r="A18" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -7733,7 +7733,7 @@
     </row>
     <row r="19" spans="1:25" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A19" s="154" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B19" s="154"/>
       <c r="C19" s="154"/>
@@ -7762,14 +7762,14 @@
     </row>
     <row r="20" spans="1:25" ht="56.25" customHeight="1" thickBot="1">
       <c r="A20" s="70" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="35" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>278</v>
+        <v>975</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -7779,14 +7779,14 @@
     </row>
     <row r="21" spans="1:25" ht="45" customHeight="1" thickBot="1">
       <c r="A21" s="70" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="35" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>279</v>
+        <v>976</v>
       </c>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
@@ -7800,10 +7800,10 @@
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="35" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>340</v>
+        <v>278</v>
       </c>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
@@ -7813,14 +7813,14 @@
     </row>
     <row r="23" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A23" s="70" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="35" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>341</v>
+        <v>279</v>
       </c>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -7841,7 +7841,7 @@
     </row>
     <row r="25" spans="1:25" customFormat="1" ht="25.25" customHeight="1" thickBot="1">
       <c r="A25" s="55" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B25" s="56"/>
       <c r="C25" s="56"/>
@@ -7870,11 +7870,11 @@
     </row>
     <row r="26" spans="1:25" ht="50" customHeight="1" thickBot="1">
       <c r="A26" s="69" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="27" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>280</v>
@@ -7910,7 +7910,7 @@
     </row>
     <row r="29" spans="1:25" customFormat="1" ht="22.5" customHeight="1">
       <c r="A29" s="152" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B29" s="153"/>
       <c r="C29" s="153"/>
@@ -7939,7 +7939,7 @@
     </row>
     <row r="30" spans="1:25" customFormat="1" ht="117.75" customHeight="1">
       <c r="A30" s="154" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B30" s="154"/>
       <c r="C30" s="154"/>
@@ -7970,7 +7970,7 @@
       <c r="A31" s="131"/>
       <c r="B31" s="131"/>
       <c r="C31" s="130" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D31" s="31"/>
       <c r="E31" s="49"/>
@@ -7997,7 +7997,7 @@
     </row>
     <row r="32" spans="1:25" customFormat="1" ht="131.25" customHeight="1">
       <c r="A32" s="147" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B32" s="148"/>
       <c r="C32" s="148"/>
@@ -8023,7 +8023,7 @@
     </row>
     <row r="33" spans="1:25" ht="23" customHeight="1">
       <c r="A33" s="141" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B33" s="144" t="str">
         <f>HYPERLINK("#Form2a!B6", IF(Form2a!B6 &gt; 0, Form2a!B6, "Add Academic Unit"))</f>
@@ -8039,7 +8039,7 @@
     </row>
     <row r="34" spans="1:25" ht="23" customHeight="1">
       <c r="A34" s="141" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B34" s="144" t="str">
         <f>HYPERLINK("#Form2b!B6", IF(Form2b!B6 &gt; 0, Form2b!B6, "Add Academic Unit"))</f>
@@ -8055,7 +8055,7 @@
     </row>
     <row r="35" spans="1:25" ht="23" customHeight="1">
       <c r="A35" s="141" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B35" s="144" t="str">
         <f>HYPERLINK("#Form2c!B6", IF(Form2c!B6 &gt; 0, Form2c!B6, "Add Academic Unit"))</f>
@@ -8071,7 +8071,7 @@
     </row>
     <row r="36" spans="1:25" ht="23" customHeight="1">
       <c r="A36" s="141" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B36" s="144" t="str">
         <f>HYPERLINK("#Form2d!B6", IF(Form2d!B6 &gt; 0, Form2d!B6, "Add Academic Unit"))</f>
@@ -8087,7 +8087,7 @@
     </row>
     <row r="37" spans="1:25" ht="23" customHeight="1">
       <c r="A37" s="141" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B37" s="144" t="str">
         <f>HYPERLINK("#Form2e!B6", IF(Form2e!B6 &gt; 0, Form2e!B6, "Add Academic Unit"))</f>
@@ -8103,7 +8103,7 @@
     </row>
     <row r="38" spans="1:25" ht="23" customHeight="1">
       <c r="A38" s="141" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B38" s="144" t="str">
         <f>HYPERLINK("#Form2f!B6", IF(Form2f!B6 &gt; 0, Form2f!B6, "Add Academic Unit"))</f>
@@ -8119,7 +8119,7 @@
     </row>
     <row r="39" spans="1:25" ht="23" customHeight="1">
       <c r="A39" s="141" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B39" s="144" t="str">
         <f>HYPERLINK("#Form2g!B6", IF(Form2g!B6 &gt; 0, Form2g!B6, "Add Academic Unit"))</f>
@@ -8135,7 +8135,7 @@
     </row>
     <row r="40" spans="1:25" ht="23" customHeight="1">
       <c r="A40" s="141" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B40" s="144" t="str">
         <f>HYPERLINK("#Form2h!B6", IF(Form2h!B6 &gt; 0, Form2h!B6, "Add Academic Unit"))</f>
@@ -8151,7 +8151,7 @@
     </row>
     <row r="41" spans="1:25" ht="23" customHeight="1">
       <c r="A41" s="141" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B41" s="144" t="str">
         <f>HYPERLINK("#Form2i!B6", IF(Form2i!B6 &gt; 0, Form2i!B6, "Add Academic Unit"))</f>
@@ -8167,7 +8167,7 @@
     </row>
     <row r="42" spans="1:25" ht="23" customHeight="1">
       <c r="A42" s="141" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B42" s="144" t="str">
         <f>HYPERLINK("#Form2j!B6", IF(Form2j!B6 &gt; 0, Form2j!B6, "Add Academic Unit"))</f>
@@ -8221,11 +8221,11 @@
     </row>
     <row r="45" spans="1:25" customFormat="1" ht="16.25" customHeight="1">
       <c r="A45" s="152" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B45" s="153"/>
       <c r="C45" s="38" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="49"/>
@@ -8252,7 +8252,7 @@
     </row>
     <row r="46" spans="1:25" customFormat="1" ht="63" customHeight="1">
       <c r="A46" s="154" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B46" s="154"/>
       <c r="C46" s="154"/>
@@ -8312,11 +8312,11 @@
     </row>
     <row r="49" spans="1:9" ht="50" customHeight="1" thickBot="1">
       <c r="A49" s="72" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="84" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D49" s="30" t="s">
         <v>173</v>
@@ -8333,7 +8333,7 @@
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="84" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D50" s="30" t="s">
         <v>252</v>
@@ -8350,7 +8350,7 @@
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="84" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D51" s="30" t="s">
         <v>97</v>
@@ -8393,11 +8393,11 @@
     </row>
     <row r="54" spans="1:9" ht="50" customHeight="1" thickBot="1">
       <c r="A54" s="72" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="84" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D54" s="30" t="s">
         <v>174</v>
@@ -8414,7 +8414,7 @@
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="84" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D55" s="30" t="s">
         <v>253</v>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="43" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D56" s="30" t="s">
         <v>95</v>
@@ -8474,11 +8474,11 @@
     </row>
     <row r="59" spans="1:9" ht="50" customHeight="1" thickBot="1">
       <c r="A59" s="72" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="84" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D59" s="30" t="s">
         <v>175</v>
@@ -8495,7 +8495,7 @@
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="84" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D60" s="30" t="s">
         <v>254</v>
@@ -8529,7 +8529,7 @@
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="43" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D62" s="30" t="s">
         <v>93</v>
@@ -8562,7 +8562,7 @@
       <c r="B64" s="10"/>
       <c r="C64" s="61"/>
       <c r="D64" s="30" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E64" s="123"/>
       <c r="F64" s="30"/>
@@ -8572,11 +8572,11 @@
     </row>
     <row r="65" spans="1:10" ht="50" customHeight="1" thickBot="1">
       <c r="A65" s="72" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="84" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D65" s="30" t="s">
         <v>255</v>
@@ -8593,7 +8593,7 @@
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="84" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D66" s="30" t="s">
         <v>256</v>
@@ -8627,10 +8627,10 @@
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="43" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E68" s="123"/>
       <c r="F68" s="30"/>
@@ -8671,11 +8671,11 @@
     </row>
     <row r="71" spans="1:10" ht="50" customHeight="1" thickBot="1">
       <c r="A71" s="72" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="84" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D71" s="30" t="s">
         <v>176</v>
@@ -8692,7 +8692,7 @@
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="84" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D72" s="30" t="s">
         <v>258</v>
@@ -8726,7 +8726,7 @@
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="43" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D74" s="30" t="s">
         <v>90</v>
@@ -8769,11 +8769,11 @@
     </row>
     <row r="77" spans="1:10" ht="50" customHeight="1" thickBot="1">
       <c r="A77" s="72" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="84" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D77" s="30" t="s">
         <v>177</v>
@@ -8790,7 +8790,7 @@
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="84" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D78" s="30" t="s">
         <v>261</v>
@@ -8807,10 +8807,10 @@
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="84" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E79" s="30"/>
       <c r="F79" s="30"/>
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="84" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D80" s="30" t="s">
         <v>89</v>
@@ -8867,11 +8867,11 @@
     </row>
     <row r="83" spans="1:9" ht="50" customHeight="1" thickBot="1">
       <c r="A83" s="72" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="84" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D83" s="30" t="s">
         <v>178</v>
@@ -8888,7 +8888,7 @@
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="84" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D84" s="30" t="s">
         <v>262</v>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="43" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D85" s="30" t="s">
         <v>87</v>
@@ -8948,11 +8948,11 @@
     </row>
     <row r="88" spans="1:9" ht="50" customHeight="1" thickBot="1">
       <c r="A88" s="72" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B88" s="10"/>
       <c r="C88" s="84" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D88" s="30" t="s">
         <v>179</v>
@@ -8969,7 +8969,7 @@
       </c>
       <c r="B89" s="10"/>
       <c r="C89" s="84" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D89" s="30" t="s">
         <v>263</v>
@@ -9003,7 +9003,7 @@
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="43" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D91" s="30" t="s">
         <v>86</v>
@@ -9016,7 +9016,7 @@
     </row>
     <row r="92" spans="1:9" ht="45" customHeight="1" thickBot="1">
       <c r="A92" s="45" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B92" s="149" t="s">
         <v>195</v>
@@ -9046,11 +9046,11 @@
     </row>
     <row r="94" spans="1:9" ht="50" customHeight="1" thickBot="1">
       <c r="A94" s="72" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="84" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D94" s="30" t="s">
         <v>180</v>
@@ -9067,7 +9067,7 @@
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="84" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D95" s="30" t="s">
         <v>265</v>
@@ -9101,7 +9101,7 @@
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="43" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D97" s="30" t="s">
         <v>85</v>
@@ -9144,11 +9144,11 @@
     </row>
     <row r="100" spans="1:9" ht="50" customHeight="1" thickBot="1">
       <c r="A100" s="72" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="84" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D100" s="30" t="s">
         <v>181</v>
@@ -9165,7 +9165,7 @@
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="84" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D101" s="30" t="s">
         <v>266</v>
@@ -9182,7 +9182,7 @@
       </c>
       <c r="B102" s="10"/>
       <c r="C102" s="43" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D102" s="30" t="s">
         <v>83</v>
@@ -9225,11 +9225,11 @@
     </row>
     <row r="105" spans="1:9" ht="50" customHeight="1" thickBot="1">
       <c r="A105" s="72" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B105" s="10"/>
       <c r="C105" s="84" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D105" s="30" t="s">
         <v>281</v>
@@ -9246,7 +9246,7 @@
       </c>
       <c r="B106" s="10"/>
       <c r="C106" s="84" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D106" s="30" t="s">
         <v>267</v>
@@ -9280,7 +9280,7 @@
       </c>
       <c r="B108" s="10"/>
       <c r="C108" s="43" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D108" s="30" t="s">
         <v>247</v>
@@ -9323,11 +9323,11 @@
     </row>
     <row r="111" spans="1:9" ht="50" customHeight="1" thickBot="1">
       <c r="A111" s="42" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B111" s="10"/>
       <c r="C111" s="84" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D111" s="30" t="s">
         <v>282</v>
@@ -9344,7 +9344,7 @@
       </c>
       <c r="B112" s="10"/>
       <c r="C112" s="84" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D112" s="30" t="s">
         <v>268</v>
@@ -9378,7 +9378,7 @@
       </c>
       <c r="B114" s="11"/>
       <c r="C114" s="43" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D114" s="30" t="s">
         <v>249</v>
@@ -9414,11 +9414,11 @@
     </row>
     <row r="117" spans="1:25" customFormat="1" ht="16.25" customHeight="1">
       <c r="A117" s="152" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B117" s="158"/>
       <c r="C117" s="38" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="49"/>
@@ -9445,7 +9445,7 @@
     </row>
     <row r="118" spans="1:25" customFormat="1" ht="63" customHeight="1">
       <c r="A118" s="154" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B118" s="154"/>
       <c r="C118" s="154"/>
@@ -9504,11 +9504,11 @@
     </row>
     <row r="121" spans="1:25" ht="50" customHeight="1" thickBot="1">
       <c r="A121" s="42" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B121" s="10"/>
       <c r="C121" s="84" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D121" s="30" t="s">
         <v>182</v>
@@ -9525,7 +9525,7 @@
       </c>
       <c r="B122" s="10"/>
       <c r="C122" s="84" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D122" s="30" t="s">
         <v>271</v>
@@ -9559,7 +9559,7 @@
       </c>
       <c r="B124" s="7"/>
       <c r="C124" s="43" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D124" s="30" t="s">
         <v>75</v>
@@ -9602,11 +9602,11 @@
     </row>
     <row r="127" spans="1:25" ht="50" customHeight="1" thickBot="1">
       <c r="A127" s="42" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B127" s="10"/>
       <c r="C127" s="84" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D127" s="30" t="s">
         <v>183</v>
@@ -9623,7 +9623,7 @@
       </c>
       <c r="B128" s="10"/>
       <c r="C128" s="84" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D128" s="30" t="s">
         <v>273</v>
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B129" s="7"/>
       <c r="C129" s="58" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D129" s="30" t="s">
         <v>73</v>
@@ -9656,7 +9656,7 @@
         <v>80</v>
       </c>
       <c r="B130" s="149" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C130" s="150"/>
       <c r="D130" s="30"/>
@@ -9683,11 +9683,11 @@
     </row>
     <row r="132" spans="1:25" ht="50" customHeight="1" thickBot="1">
       <c r="A132" s="42" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B132" s="10"/>
       <c r="C132" s="84" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D132" s="30" t="s">
         <v>184</v>
@@ -9704,7 +9704,7 @@
       </c>
       <c r="B133" s="10"/>
       <c r="C133" s="84" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D133" s="30" t="s">
         <v>275</v>
@@ -9738,7 +9738,7 @@
       </c>
       <c r="B135" s="12"/>
       <c r="C135" s="27" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D135" s="30" t="s">
         <v>72</v>
@@ -9774,7 +9774,7 @@
     </row>
     <row r="138" spans="1:25" customFormat="1" ht="18.75" customHeight="1">
       <c r="A138" s="152" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B138" s="158"/>
       <c r="C138" s="158"/>
@@ -9935,7 +9935,7 @@
       </c>
       <c r="B147" s="7"/>
       <c r="C147" s="35" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D147" s="100" t="s">
         <v>57</v>
@@ -10088,7 +10088,7 @@
     </row>
     <row r="156" spans="1:9" ht="49.5" customHeight="1" thickBot="1">
       <c r="A156" s="96" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B156" s="7"/>
       <c r="C156" s="27" t="s">
@@ -10305,7 +10305,7 @@
     </row>
     <row r="171" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A171" s="40" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B171" s="39"/>
       <c r="C171" s="39"/>
@@ -10322,7 +10322,7 @@
       </c>
       <c r="B172" s="7"/>
       <c r="C172" s="35" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D172" s="30" t="s">
         <v>22</v>
@@ -10339,7 +10339,7 @@
       </c>
       <c r="B173" s="7"/>
       <c r="C173" s="35" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D173" s="30" t="s">
         <v>20</v>
@@ -10363,7 +10363,7 @@
     </row>
     <row r="175" spans="1:9" ht="30" customHeight="1">
       <c r="A175" s="40" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B175" s="39"/>
       <c r="C175" s="39"/>
@@ -10569,7 +10569,7 @@
     </row>
     <row r="189" spans="1:10" ht="30.75" customHeight="1" thickBot="1">
       <c r="A189" s="59" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B189" s="7"/>
       <c r="C189" s="90" t="s">
@@ -10626,7 +10626,7 @@
     </row>
     <row r="193" spans="1:25" customFormat="1" ht="18.75" customHeight="1">
       <c r="A193" s="152" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B193" s="158"/>
       <c r="C193" s="158"/>
@@ -10655,7 +10655,7 @@
     </row>
     <row r="194" spans="1:25" s="103" customFormat="1" ht="30" customHeight="1">
       <c r="A194" s="157" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B194" s="157"/>
       <c r="C194" s="157"/>
@@ -10706,7 +10706,7 @@
         <v>202</v>
       </c>
       <c r="D196" s="30" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E196" s="30"/>
       <c r="F196" s="30"/>
@@ -10723,7 +10723,7 @@
         <v>199</v>
       </c>
       <c r="D197" s="30" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E197" s="30"/>
       <c r="F197" s="30"/>
@@ -10737,10 +10737,10 @@
       </c>
       <c r="B198" s="7"/>
       <c r="C198" s="26" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D198" s="139" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E198" s="30"/>
       <c r="F198" s="30"/>
@@ -10821,7 +10821,7 @@
         <v>203</v>
       </c>
       <c r="D203" s="139" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E203" s="30"/>
       <c r="F203" s="30"/>
@@ -10838,7 +10838,7 @@
         <v>199</v>
       </c>
       <c r="D204" s="30" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E204" s="30"/>
       <c r="F204" s="30"/>
@@ -10852,10 +10852,10 @@
       </c>
       <c r="B205" s="7"/>
       <c r="C205" s="35" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D205" s="139" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E205" s="30"/>
       <c r="F205" s="30"/>
@@ -10936,7 +10936,7 @@
         <v>204</v>
       </c>
       <c r="D210" s="139" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E210" s="30"/>
       <c r="F210" s="30"/>
@@ -10953,7 +10953,7 @@
         <v>206</v>
       </c>
       <c r="D211" s="30" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E211" s="30"/>
       <c r="F211" s="30"/>
@@ -10967,10 +10967,10 @@
       </c>
       <c r="B212" s="7"/>
       <c r="C212" s="90" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D212" s="30" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E212" s="30"/>
       <c r="F212" s="30"/>
@@ -11051,7 +11051,7 @@
         <v>208</v>
       </c>
       <c r="D217" s="30" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E217" s="30"/>
       <c r="F217" s="30"/>
@@ -11068,7 +11068,7 @@
         <v>206</v>
       </c>
       <c r="D218" s="30" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E218" s="30"/>
       <c r="F218" s="30"/>
@@ -11082,10 +11082,10 @@
       </c>
       <c r="B219" s="7"/>
       <c r="C219" s="90" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D219" s="30" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E219" s="30"/>
       <c r="F219" s="30"/>
@@ -11161,7 +11161,7 @@
     </row>
     <row r="224" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A224" s="67" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B224" s="60"/>
       <c r="C224" s="68"/>
@@ -11174,14 +11174,14 @@
     </row>
     <row r="225" spans="1:10" ht="210" customHeight="1" thickBot="1">
       <c r="A225" s="97" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B225" s="7"/>
       <c r="C225" s="92" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D225" s="139" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E225" s="30"/>
       <c r="F225" s="30"/>
@@ -11198,7 +11198,7 @@
         <v>290</v>
       </c>
       <c r="D226" s="139" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E226" s="30"/>
       <c r="F226" s="30"/>
@@ -11215,7 +11215,7 @@
         <v>321</v>
       </c>
       <c r="D227" s="30" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="E227" s="30"/>
       <c r="F227" s="30"/>
@@ -11309,7 +11309,7 @@
         <v>212</v>
       </c>
       <c r="D233" s="30" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E233" s="30"/>
       <c r="F233" s="30"/>
@@ -11332,14 +11332,14 @@
     </row>
     <row r="235" spans="1:10" ht="36" customHeight="1" thickBot="1">
       <c r="A235" s="97" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B235" s="7"/>
       <c r="C235" s="92" t="s">
         <v>215</v>
       </c>
       <c r="D235" s="30" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E235" s="30"/>
       <c r="F235" s="30"/>
@@ -11356,7 +11356,7 @@
         <v>324</v>
       </c>
       <c r="D236" s="30" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E236" s="30"/>
       <c r="F236" s="30"/>
@@ -11379,14 +11379,14 @@
     </row>
     <row r="238" spans="1:10" ht="50" customHeight="1" thickBot="1">
       <c r="A238" s="97" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B238" s="7"/>
       <c r="C238" s="92" t="s">
         <v>219</v>
       </c>
       <c r="D238" s="30" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E238" s="30"/>
       <c r="F238" s="30"/>
@@ -11403,7 +11403,7 @@
         <v>220</v>
       </c>
       <c r="D239" s="30" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E239" s="30"/>
       <c r="F239" s="30"/>
@@ -11425,20 +11425,20 @@
     </row>
     <row r="241" spans="1:9">
       <c r="A241" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B241" s="142">
         <f>Form2a!B6</f>
         <v>0</v>
       </c>
       <c r="C241" s="29" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D241" s="30" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E241" s="30" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="F241" s="30"/>
       <c r="G241" s="30"/>
@@ -11447,17 +11447,17 @@
     </row>
     <row r="242" spans="1:9" ht="30" customHeight="1">
       <c r="A242" s="62" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B242" s="98">
         <f>Form2a!C10</f>
         <v>0</v>
       </c>
       <c r="C242" s="28" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D242" s="30" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E242" s="30"/>
       <c r="F242" s="30"/>
@@ -11467,17 +11467,17 @@
     </row>
     <row r="243" spans="1:9" ht="30" customHeight="1">
       <c r="A243" s="62" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B243" s="98">
         <f>Form2a!C14</f>
         <v>0</v>
       </c>
       <c r="C243" s="28" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D243" s="30" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E243" s="30"/>
       <c r="F243" s="30"/>
@@ -11487,7 +11487,7 @@
     </row>
     <row r="244" spans="1:9" ht="20.25" customHeight="1">
       <c r="A244" s="8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B244" s="9">
         <f>Form2a!B21</f>
@@ -11497,7 +11497,7 @@
         <v>124</v>
       </c>
       <c r="D244" s="30" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E244" s="30"/>
       <c r="F244" s="30"/>
@@ -11507,7 +11507,7 @@
     </row>
     <row r="245" spans="1:9" ht="23.25" customHeight="1">
       <c r="A245" s="8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B245" s="9">
         <f>Form2a!B22</f>
@@ -11517,7 +11517,7 @@
         <v>123</v>
       </c>
       <c r="D245" s="30" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E245" s="30"/>
       <c r="F245" s="30"/>
@@ -11527,7 +11527,7 @@
     </row>
     <row r="246" spans="1:9" ht="28.5" customHeight="1">
       <c r="A246" s="8" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B246" s="9">
         <f>Form2a!B23</f>
@@ -11537,7 +11537,7 @@
         <v>122</v>
       </c>
       <c r="D246" s="30" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E246" s="30"/>
       <c r="F246" s="30"/>
@@ -11547,7 +11547,7 @@
     </row>
     <row r="247" spans="1:9" ht="25">
       <c r="A247" s="8" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B247" s="9">
         <f>Form2a!B24</f>
@@ -11557,7 +11557,7 @@
         <v>126</v>
       </c>
       <c r="D247" s="30" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E247" s="30"/>
       <c r="F247" s="30"/>
@@ -11567,7 +11567,7 @@
     </row>
     <row r="248" spans="1:9" ht="37">
       <c r="A248" s="8" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B248" s="9">
         <f>Form2a!B25</f>
@@ -11577,7 +11577,7 @@
         <v>127</v>
       </c>
       <c r="D248" s="30" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E248" s="30"/>
       <c r="F248" s="30"/>
@@ -11587,7 +11587,7 @@
     </row>
     <row r="249" spans="1:9">
       <c r="A249" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B249" s="9">
         <f>Form2a!B26</f>
@@ -11597,7 +11597,7 @@
         <v>121</v>
       </c>
       <c r="D249" s="30" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E249" s="30"/>
       <c r="F249" s="30"/>
@@ -11607,7 +11607,7 @@
     </row>
     <row r="250" spans="1:9" ht="56.25" customHeight="1">
       <c r="A250" s="8" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B250" s="9">
         <f>Form2a!B27</f>
@@ -11617,7 +11617,7 @@
         <v>120</v>
       </c>
       <c r="D250" s="30" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E250" s="30"/>
       <c r="F250" s="30"/>
@@ -11627,7 +11627,7 @@
     </row>
     <row r="251" spans="1:9" ht="24" customHeight="1">
       <c r="A251" s="8" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B251" s="9">
         <f>Form2a!B28</f>
@@ -11637,7 +11637,7 @@
         <v>119</v>
       </c>
       <c r="D251" s="30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E251" s="140"/>
       <c r="F251" s="30"/>
@@ -11647,7 +11647,7 @@
     </row>
     <row r="252" spans="1:9">
       <c r="A252" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B252" s="9">
         <f>Form2a!C21</f>
@@ -11657,7 +11657,7 @@
         <v>118</v>
       </c>
       <c r="D252" s="30" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E252" s="30"/>
       <c r="F252" s="30"/>
@@ -11667,7 +11667,7 @@
     </row>
     <row r="253" spans="1:9">
       <c r="A253" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B253" s="9">
         <f>Form2a!C22</f>
@@ -11677,7 +11677,7 @@
         <v>117</v>
       </c>
       <c r="D253" s="30" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E253" s="30"/>
       <c r="F253" s="30"/>
@@ -11687,7 +11687,7 @@
     </row>
     <row r="254" spans="1:9">
       <c r="A254" s="8" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B254" s="9">
         <f>Form2a!C23</f>
@@ -11697,7 +11697,7 @@
         <v>116</v>
       </c>
       <c r="D254" s="30" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E254" s="30"/>
       <c r="F254" s="30"/>
@@ -11707,7 +11707,7 @@
     </row>
     <row r="255" spans="1:9" ht="25">
       <c r="A255" s="8" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B255" s="9">
         <f>Form2a!C24</f>
@@ -11717,7 +11717,7 @@
         <v>128</v>
       </c>
       <c r="D255" s="30" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E255" s="30"/>
       <c r="F255" s="30"/>
@@ -11727,7 +11727,7 @@
     </row>
     <row r="256" spans="1:9" ht="37">
       <c r="A256" s="8" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B256" s="9">
         <f>Form2a!C25</f>
@@ -11737,7 +11737,7 @@
         <v>129</v>
       </c>
       <c r="D256" s="30" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E256" s="30"/>
       <c r="F256" s="30"/>
@@ -11747,7 +11747,7 @@
     </row>
     <row r="257" spans="1:9">
       <c r="A257" s="8" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B257" s="9">
         <f>Form2a!C26</f>
@@ -11757,7 +11757,7 @@
         <v>115</v>
       </c>
       <c r="D257" s="30" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E257" s="30"/>
       <c r="F257" s="30"/>
@@ -11767,7 +11767,7 @@
     </row>
     <row r="258" spans="1:9">
       <c r="A258" s="8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B258" s="9">
         <f>Form2a!C27</f>
@@ -11777,7 +11777,7 @@
         <v>114</v>
       </c>
       <c r="D258" s="30" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E258" s="30"/>
       <c r="F258" s="30"/>
@@ -11787,7 +11787,7 @@
     </row>
     <row r="259" spans="1:9">
       <c r="A259" s="8" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B259" s="9">
         <f>Form2a!C28</f>
@@ -11797,7 +11797,7 @@
         <v>113</v>
       </c>
       <c r="D259" s="30" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E259" s="30"/>
       <c r="F259" s="30"/>
@@ -11807,17 +11807,17 @@
     </row>
     <row r="260" spans="1:9">
       <c r="A260" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B260" s="142">
         <f>Form2b!B6</f>
         <v>0</v>
       </c>
       <c r="C260" s="29" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D260" s="30" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E260" s="30"/>
       <c r="F260" s="30"/>
@@ -11827,17 +11827,17 @@
     </row>
     <row r="261" spans="1:9" ht="30" customHeight="1">
       <c r="A261" s="62" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B261" s="98">
         <f>Form2b!C10</f>
         <v>0</v>
       </c>
       <c r="C261" s="28" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D261" s="30" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E261" s="30"/>
       <c r="F261" s="30"/>
@@ -11847,17 +11847,17 @@
     </row>
     <row r="262" spans="1:9" ht="30" customHeight="1">
       <c r="A262" s="62" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B262" s="98">
         <f>Form2b!C14</f>
         <v>0</v>
       </c>
       <c r="C262" s="28" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D262" s="30" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E262" s="30"/>
       <c r="F262" s="30"/>
@@ -11867,7 +11867,7 @@
     </row>
     <row r="263" spans="1:9" ht="20.25" customHeight="1">
       <c r="A263" s="8" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B263" s="9">
         <f>Form2b!B21</f>
@@ -11877,7 +11877,7 @@
         <v>124</v>
       </c>
       <c r="D263" s="30" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E263" s="30"/>
       <c r="F263" s="30"/>
@@ -11887,7 +11887,7 @@
     </row>
     <row r="264" spans="1:9" ht="23.25" customHeight="1">
       <c r="A264" s="8" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B264" s="9">
         <f>Form2b!B22</f>
@@ -11897,7 +11897,7 @@
         <v>123</v>
       </c>
       <c r="D264" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E264" s="30"/>
       <c r="F264" s="30"/>
@@ -11907,7 +11907,7 @@
     </row>
     <row r="265" spans="1:9" ht="28.5" customHeight="1">
       <c r="A265" s="8" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B265" s="9">
         <f>Form2b!B23</f>
@@ -11917,7 +11917,7 @@
         <v>122</v>
       </c>
       <c r="D265" s="30" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E265" s="30"/>
       <c r="F265" s="30"/>
@@ -11927,7 +11927,7 @@
     </row>
     <row r="266" spans="1:9" ht="25">
       <c r="A266" s="8" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B266" s="9">
         <f>Form2b!B24</f>
@@ -11937,7 +11937,7 @@
         <v>126</v>
       </c>
       <c r="D266" s="30" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E266" s="30"/>
       <c r="F266" s="30"/>
@@ -11947,7 +11947,7 @@
     </row>
     <row r="267" spans="1:9" ht="37">
       <c r="A267" s="8" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B267" s="9">
         <f>Form2b!B25</f>
@@ -11957,7 +11957,7 @@
         <v>127</v>
       </c>
       <c r="D267" s="30" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E267" s="30"/>
       <c r="F267" s="30"/>
@@ -11967,7 +11967,7 @@
     </row>
     <row r="268" spans="1:9">
       <c r="A268" s="8" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B268" s="9">
         <f>Form2b!B26</f>
@@ -11977,7 +11977,7 @@
         <v>121</v>
       </c>
       <c r="D268" s="30" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E268" s="30"/>
       <c r="F268" s="30"/>
@@ -11987,7 +11987,7 @@
     </row>
     <row r="269" spans="1:9" ht="56.25" customHeight="1">
       <c r="A269" s="8" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B269" s="9">
         <f>Form2b!B27</f>
@@ -11997,7 +11997,7 @@
         <v>120</v>
       </c>
       <c r="D269" s="30" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E269" s="30"/>
       <c r="F269" s="30"/>
@@ -12007,7 +12007,7 @@
     </row>
     <row r="270" spans="1:9" ht="24" customHeight="1">
       <c r="A270" s="8" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B270" s="9">
         <f>Form2b!B28</f>
@@ -12017,7 +12017,7 @@
         <v>119</v>
       </c>
       <c r="D270" s="30" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E270" s="140"/>
       <c r="F270" s="30"/>
@@ -12027,7 +12027,7 @@
     </row>
     <row r="271" spans="1:9">
       <c r="A271" s="8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B271" s="9">
         <f>Form2b!C21</f>
@@ -12037,7 +12037,7 @@
         <v>118</v>
       </c>
       <c r="D271" s="30" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E271" s="30"/>
       <c r="F271" s="30"/>
@@ -12047,7 +12047,7 @@
     </row>
     <row r="272" spans="1:9">
       <c r="A272" s="8" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B272" s="9">
         <f>Form2b!C22</f>
@@ -12057,7 +12057,7 @@
         <v>117</v>
       </c>
       <c r="D272" s="30" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E272" s="30"/>
       <c r="F272" s="30"/>
@@ -12067,7 +12067,7 @@
     </row>
     <row r="273" spans="1:9">
       <c r="A273" s="8" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B273" s="9">
         <f>Form2b!C23</f>
@@ -12077,7 +12077,7 @@
         <v>116</v>
       </c>
       <c r="D273" s="30" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E273" s="30"/>
       <c r="F273" s="30"/>
@@ -12087,7 +12087,7 @@
     </row>
     <row r="274" spans="1:9" ht="25">
       <c r="A274" s="8" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B274" s="9">
         <f>Form2b!C24</f>
@@ -12097,7 +12097,7 @@
         <v>128</v>
       </c>
       <c r="D274" s="30" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E274" s="30"/>
       <c r="F274" s="30"/>
@@ -12107,7 +12107,7 @@
     </row>
     <row r="275" spans="1:9" ht="37">
       <c r="A275" s="8" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B275" s="9">
         <f>Form2b!C25</f>
@@ -12117,7 +12117,7 @@
         <v>129</v>
       </c>
       <c r="D275" s="30" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E275" s="30"/>
       <c r="F275" s="30"/>
@@ -12127,7 +12127,7 @@
     </row>
     <row r="276" spans="1:9">
       <c r="A276" s="8" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B276" s="9">
         <f>Form2b!C26</f>
@@ -12137,7 +12137,7 @@
         <v>115</v>
       </c>
       <c r="D276" s="30" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E276" s="30"/>
       <c r="F276" s="30"/>
@@ -12147,7 +12147,7 @@
     </row>
     <row r="277" spans="1:9">
       <c r="A277" s="8" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B277" s="9">
         <f>Form2b!C27</f>
@@ -12157,7 +12157,7 @@
         <v>114</v>
       </c>
       <c r="D277" s="30" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E277" s="30"/>
       <c r="F277" s="30"/>
@@ -12167,7 +12167,7 @@
     </row>
     <row r="278" spans="1:9">
       <c r="A278" s="8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B278" s="9">
         <f>Form2b!C28</f>
@@ -12177,7 +12177,7 @@
         <v>113</v>
       </c>
       <c r="D278" s="30" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E278" s="30"/>
       <c r="F278" s="30"/>
@@ -12187,17 +12187,17 @@
     </row>
     <row r="279" spans="1:9">
       <c r="A279" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B279" s="142">
         <f>Form2c!B6</f>
         <v>0</v>
       </c>
       <c r="C279" s="29" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D279" s="30" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E279" s="30"/>
       <c r="F279" s="30"/>
@@ -12207,17 +12207,17 @@
     </row>
     <row r="280" spans="1:9" ht="30" customHeight="1">
       <c r="A280" s="62" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B280" s="98">
         <f>Form2c!C10</f>
         <v>0</v>
       </c>
       <c r="C280" s="28" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D280" s="30" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E280" s="30"/>
       <c r="F280" s="30"/>
@@ -12227,17 +12227,17 @@
     </row>
     <row r="281" spans="1:9" ht="30" customHeight="1">
       <c r="A281" s="62" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B281" s="98">
         <f>Form2c!C14</f>
         <v>0</v>
       </c>
       <c r="C281" s="28" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D281" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E281" s="30"/>
       <c r="F281" s="30"/>
@@ -12247,7 +12247,7 @@
     </row>
     <row r="282" spans="1:9" ht="20.25" customHeight="1">
       <c r="A282" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B282" s="9">
         <f>Form2c!B21</f>
@@ -12257,7 +12257,7 @@
         <v>124</v>
       </c>
       <c r="D282" s="30" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E282" s="30"/>
       <c r="F282" s="30"/>
@@ -12267,7 +12267,7 @@
     </row>
     <row r="283" spans="1:9" ht="23.25" customHeight="1">
       <c r="A283" s="8" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B283" s="9">
         <f>Form2c!B22</f>
@@ -12277,7 +12277,7 @@
         <v>123</v>
       </c>
       <c r="D283" s="30" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E283" s="30"/>
       <c r="F283" s="30"/>
@@ -12287,7 +12287,7 @@
     </row>
     <row r="284" spans="1:9" ht="28.5" customHeight="1">
       <c r="A284" s="8" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B284" s="9">
         <f>Form2c!B23</f>
@@ -12297,7 +12297,7 @@
         <v>122</v>
       </c>
       <c r="D284" s="30" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E284" s="30"/>
       <c r="F284" s="30"/>
@@ -12307,7 +12307,7 @@
     </row>
     <row r="285" spans="1:9" ht="25">
       <c r="A285" s="8" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B285" s="9">
         <f>Form2c!B24</f>
@@ -12317,7 +12317,7 @@
         <v>126</v>
       </c>
       <c r="D285" s="30" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E285" s="30"/>
       <c r="F285" s="30"/>
@@ -12327,7 +12327,7 @@
     </row>
     <row r="286" spans="1:9" ht="37">
       <c r="A286" s="8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B286" s="9">
         <f>Form2c!B25</f>
@@ -12337,7 +12337,7 @@
         <v>127</v>
       </c>
       <c r="D286" s="30" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E286" s="30"/>
       <c r="F286" s="30"/>
@@ -12347,7 +12347,7 @@
     </row>
     <row r="287" spans="1:9">
       <c r="A287" s="8" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B287" s="9">
         <f>Form2c!B26</f>
@@ -12357,7 +12357,7 @@
         <v>121</v>
       </c>
       <c r="D287" s="30" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E287" s="30"/>
       <c r="F287" s="30"/>
@@ -12367,7 +12367,7 @@
     </row>
     <row r="288" spans="1:9" ht="56.25" customHeight="1">
       <c r="A288" s="8" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B288" s="9">
         <f>Form2c!B27</f>
@@ -12377,7 +12377,7 @@
         <v>120</v>
       </c>
       <c r="D288" s="30" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E288" s="30"/>
       <c r="F288" s="30"/>
@@ -12387,7 +12387,7 @@
     </row>
     <row r="289" spans="1:9" ht="24" customHeight="1">
       <c r="A289" s="8" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B289" s="9">
         <f>Form2c!B28</f>
@@ -12397,7 +12397,7 @@
         <v>119</v>
       </c>
       <c r="D289" s="30" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E289" s="140"/>
       <c r="F289" s="30"/>
@@ -12407,7 +12407,7 @@
     </row>
     <row r="290" spans="1:9">
       <c r="A290" s="8" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B290" s="9">
         <f>Form2c!C21</f>
@@ -12417,7 +12417,7 @@
         <v>118</v>
       </c>
       <c r="D290" s="30" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E290" s="30"/>
       <c r="F290" s="30"/>
@@ -12427,7 +12427,7 @@
     </row>
     <row r="291" spans="1:9">
       <c r="A291" s="8" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B291" s="9">
         <f>Form2c!C22</f>
@@ -12437,7 +12437,7 @@
         <v>117</v>
       </c>
       <c r="D291" s="30" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E291" s="30"/>
       <c r="F291" s="30"/>
@@ -12447,7 +12447,7 @@
     </row>
     <row r="292" spans="1:9">
       <c r="A292" s="8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B292" s="9">
         <f>Form2c!C23</f>
@@ -12457,7 +12457,7 @@
         <v>116</v>
       </c>
       <c r="D292" s="30" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E292" s="30"/>
       <c r="F292" s="30"/>
@@ -12467,7 +12467,7 @@
     </row>
     <row r="293" spans="1:9" ht="25">
       <c r="A293" s="8" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B293" s="9">
         <f>Form2c!C24</f>
@@ -12477,7 +12477,7 @@
         <v>128</v>
       </c>
       <c r="D293" s="30" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E293" s="30"/>
       <c r="F293" s="30"/>
@@ -12487,7 +12487,7 @@
     </row>
     <row r="294" spans="1:9" ht="37">
       <c r="A294" s="8" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B294" s="9">
         <f>Form2c!C25</f>
@@ -12497,7 +12497,7 @@
         <v>129</v>
       </c>
       <c r="D294" s="30" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E294" s="30"/>
       <c r="F294" s="30"/>
@@ -12507,7 +12507,7 @@
     </row>
     <row r="295" spans="1:9">
       <c r="A295" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B295" s="9">
         <f>Form2c!C26</f>
@@ -12517,7 +12517,7 @@
         <v>115</v>
       </c>
       <c r="D295" s="30" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E295" s="30"/>
       <c r="F295" s="30"/>
@@ -12527,7 +12527,7 @@
     </row>
     <row r="296" spans="1:9">
       <c r="A296" s="8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B296" s="9">
         <f>Form2c!C27</f>
@@ -12537,7 +12537,7 @@
         <v>114</v>
       </c>
       <c r="D296" s="30" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E296" s="30"/>
       <c r="F296" s="30"/>
@@ -12547,7 +12547,7 @@
     </row>
     <row r="297" spans="1:9">
       <c r="A297" s="8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B297" s="9">
         <f>Form2c!C28</f>
@@ -12557,7 +12557,7 @@
         <v>113</v>
       </c>
       <c r="D297" s="30" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E297" s="30"/>
       <c r="F297" s="30"/>
@@ -12567,17 +12567,17 @@
     </row>
     <row r="298" spans="1:9">
       <c r="A298" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B298" s="142">
         <f>Form2d!B6</f>
         <v>0</v>
       </c>
       <c r="C298" s="29" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D298" s="30" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E298" s="30"/>
       <c r="F298" s="30"/>
@@ -12587,17 +12587,17 @@
     </row>
     <row r="299" spans="1:9" ht="30" customHeight="1">
       <c r="A299" s="62" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B299" s="98">
         <f>Form2d!C10</f>
         <v>0</v>
       </c>
       <c r="C299" s="28" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D299" s="30" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E299" s="30"/>
       <c r="F299" s="30"/>
@@ -12607,17 +12607,17 @@
     </row>
     <row r="300" spans="1:9" ht="30" customHeight="1">
       <c r="A300" s="62" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B300" s="98">
         <f>Form2d!C14</f>
         <v>0</v>
       </c>
       <c r="C300" s="28" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D300" s="30" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E300" s="30"/>
       <c r="F300" s="30"/>
@@ -12627,7 +12627,7 @@
     </row>
     <row r="301" spans="1:9" ht="20.25" customHeight="1">
       <c r="A301" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B301" s="9">
         <f>Form2d!B21</f>
@@ -12637,7 +12637,7 @@
         <v>124</v>
       </c>
       <c r="D301" s="30" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E301" s="30"/>
       <c r="F301" s="30"/>
@@ -12647,7 +12647,7 @@
     </row>
     <row r="302" spans="1:9" ht="23.25" customHeight="1">
       <c r="A302" s="8" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B302" s="9">
         <f>Form2d!B22</f>
@@ -12657,7 +12657,7 @@
         <v>123</v>
       </c>
       <c r="D302" s="30" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E302" s="30"/>
       <c r="F302" s="30"/>
@@ -12667,7 +12667,7 @@
     </row>
     <row r="303" spans="1:9" ht="28.5" customHeight="1">
       <c r="A303" s="8" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B303" s="9">
         <f>Form2d!B23</f>
@@ -12677,7 +12677,7 @@
         <v>122</v>
       </c>
       <c r="D303" s="30" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E303" s="30"/>
       <c r="F303" s="30"/>
@@ -12687,7 +12687,7 @@
     </row>
     <row r="304" spans="1:9" ht="25">
       <c r="A304" s="8" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B304" s="9">
         <f>Form2d!B24</f>
@@ -12697,7 +12697,7 @@
         <v>126</v>
       </c>
       <c r="D304" s="30" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E304" s="30"/>
       <c r="F304" s="30"/>
@@ -12707,7 +12707,7 @@
     </row>
     <row r="305" spans="1:9" ht="37">
       <c r="A305" s="8" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B305" s="9">
         <f>Form2d!B25</f>
@@ -12717,7 +12717,7 @@
         <v>127</v>
       </c>
       <c r="D305" s="30" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E305" s="30"/>
       <c r="F305" s="30"/>
@@ -12727,7 +12727,7 @@
     </row>
     <row r="306" spans="1:9">
       <c r="A306" s="8" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B306" s="9">
         <f>Form2d!B26</f>
@@ -12737,7 +12737,7 @@
         <v>121</v>
       </c>
       <c r="D306" s="30" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E306" s="30"/>
       <c r="F306" s="30"/>
@@ -12747,7 +12747,7 @@
     </row>
     <row r="307" spans="1:9" ht="56.25" customHeight="1">
       <c r="A307" s="8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B307" s="9">
         <f>Form2d!B27</f>
@@ -12757,7 +12757,7 @@
         <v>120</v>
       </c>
       <c r="D307" s="30" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E307" s="30"/>
       <c r="F307" s="30"/>
@@ -12767,7 +12767,7 @@
     </row>
     <row r="308" spans="1:9" ht="24" customHeight="1">
       <c r="A308" s="8" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B308" s="9">
         <f>Form2d!B28</f>
@@ -12777,7 +12777,7 @@
         <v>119</v>
       </c>
       <c r="D308" s="30" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E308" s="140"/>
       <c r="F308" s="30"/>
@@ -12787,7 +12787,7 @@
     </row>
     <row r="309" spans="1:9">
       <c r="A309" s="8" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B309" s="9">
         <f>Form2d!C21</f>
@@ -12797,7 +12797,7 @@
         <v>118</v>
       </c>
       <c r="D309" s="30" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E309" s="30"/>
       <c r="F309" s="30"/>
@@ -12807,7 +12807,7 @@
     </row>
     <row r="310" spans="1:9">
       <c r="A310" s="8" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B310" s="9">
         <f>Form2d!C22</f>
@@ -12817,7 +12817,7 @@
         <v>117</v>
       </c>
       <c r="D310" s="30" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E310" s="30"/>
       <c r="F310" s="30"/>
@@ -12827,7 +12827,7 @@
     </row>
     <row r="311" spans="1:9">
       <c r="A311" s="8" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B311" s="9">
         <f>Form2d!C23</f>
@@ -12837,7 +12837,7 @@
         <v>116</v>
       </c>
       <c r="D311" s="30" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E311" s="30"/>
       <c r="F311" s="30"/>
@@ -12847,7 +12847,7 @@
     </row>
     <row r="312" spans="1:9" ht="25">
       <c r="A312" s="8" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B312" s="9">
         <f>Form2d!C24</f>
@@ -12857,7 +12857,7 @@
         <v>128</v>
       </c>
       <c r="D312" s="30" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E312" s="30"/>
       <c r="F312" s="30"/>
@@ -12867,7 +12867,7 @@
     </row>
     <row r="313" spans="1:9" ht="37">
       <c r="A313" s="8" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B313" s="9">
         <f>Form2d!C25</f>
@@ -12877,7 +12877,7 @@
         <v>129</v>
       </c>
       <c r="D313" s="30" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E313" s="30"/>
       <c r="F313" s="30"/>
@@ -12887,7 +12887,7 @@
     </row>
     <row r="314" spans="1:9">
       <c r="A314" s="8" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B314" s="9">
         <f>Form2d!C26</f>
@@ -12897,7 +12897,7 @@
         <v>115</v>
       </c>
       <c r="D314" s="30" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E314" s="30"/>
       <c r="F314" s="30"/>
@@ -12907,7 +12907,7 @@
     </row>
     <row r="315" spans="1:9">
       <c r="A315" s="8" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B315" s="9">
         <f>Form2d!C27</f>
@@ -12917,7 +12917,7 @@
         <v>114</v>
       </c>
       <c r="D315" s="30" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E315" s="30"/>
       <c r="F315" s="30"/>
@@ -12927,7 +12927,7 @@
     </row>
     <row r="316" spans="1:9">
       <c r="A316" s="8" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B316" s="9">
         <f>Form2d!C28</f>
@@ -12937,7 +12937,7 @@
         <v>113</v>
       </c>
       <c r="D316" s="30" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E316" s="30"/>
       <c r="F316" s="30"/>
@@ -12947,17 +12947,17 @@
     </row>
     <row r="317" spans="1:9">
       <c r="A317" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B317" s="142">
         <f>Form2e!B6</f>
         <v>0</v>
       </c>
       <c r="C317" s="29" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D317" s="30" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E317" s="30"/>
       <c r="F317" s="30"/>
@@ -12967,17 +12967,17 @@
     </row>
     <row r="318" spans="1:9" ht="30" customHeight="1">
       <c r="A318" s="62" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B318" s="98">
         <f>Form2e!C10</f>
         <v>0</v>
       </c>
       <c r="C318" s="28" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D318" s="30" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E318" s="30"/>
       <c r="F318" s="30"/>
@@ -12987,17 +12987,17 @@
     </row>
     <row r="319" spans="1:9" ht="30" customHeight="1">
       <c r="A319" s="62" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B319" s="98">
         <f>Form2e!C14</f>
         <v>0</v>
       </c>
       <c r="C319" s="28" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D319" s="30" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E319" s="30"/>
       <c r="F319" s="30"/>
@@ -13007,7 +13007,7 @@
     </row>
     <row r="320" spans="1:9" ht="20.25" customHeight="1">
       <c r="A320" s="8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B320" s="9">
         <f>Form2e!B21</f>
@@ -13017,7 +13017,7 @@
         <v>124</v>
       </c>
       <c r="D320" s="30" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E320" s="30"/>
       <c r="F320" s="30"/>
@@ -13027,7 +13027,7 @@
     </row>
     <row r="321" spans="1:9" ht="23.25" customHeight="1">
       <c r="A321" s="8" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B321" s="9">
         <f>Form2e!B22</f>
@@ -13037,7 +13037,7 @@
         <v>123</v>
       </c>
       <c r="D321" s="30" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E321" s="30"/>
       <c r="F321" s="30"/>
@@ -13047,7 +13047,7 @@
     </row>
     <row r="322" spans="1:9" ht="28.5" customHeight="1">
       <c r="A322" s="8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B322" s="9">
         <f>Form2e!B23</f>
@@ -13057,7 +13057,7 @@
         <v>122</v>
       </c>
       <c r="D322" s="30" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E322" s="30"/>
       <c r="F322" s="30"/>
@@ -13067,7 +13067,7 @@
     </row>
     <row r="323" spans="1:9" ht="25">
       <c r="A323" s="8" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B323" s="9">
         <f>Form2e!B24</f>
@@ -13077,7 +13077,7 @@
         <v>126</v>
       </c>
       <c r="D323" s="30" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E323" s="30"/>
       <c r="F323" s="30"/>
@@ -13087,7 +13087,7 @@
     </row>
     <row r="324" spans="1:9" ht="37">
       <c r="A324" s="8" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B324" s="9">
         <f>Form2e!B25</f>
@@ -13097,7 +13097,7 @@
         <v>127</v>
       </c>
       <c r="D324" s="30" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E324" s="30"/>
       <c r="F324" s="30"/>
@@ -13107,7 +13107,7 @@
     </row>
     <row r="325" spans="1:9">
       <c r="A325" s="8" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B325" s="9">
         <f>Form2e!B26</f>
@@ -13117,7 +13117,7 @@
         <v>121</v>
       </c>
       <c r="D325" s="30" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E325" s="30"/>
       <c r="F325" s="30"/>
@@ -13127,7 +13127,7 @@
     </row>
     <row r="326" spans="1:9" ht="56.25" customHeight="1">
       <c r="A326" s="8" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B326" s="9">
         <f>Form2e!B27</f>
@@ -13137,7 +13137,7 @@
         <v>120</v>
       </c>
       <c r="D326" s="30" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E326" s="30"/>
       <c r="F326" s="30"/>
@@ -13147,7 +13147,7 @@
     </row>
     <row r="327" spans="1:9" ht="24" customHeight="1">
       <c r="A327" s="8" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B327" s="9">
         <f>Form2e!B28</f>
@@ -13157,7 +13157,7 @@
         <v>119</v>
       </c>
       <c r="D327" s="30" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E327" s="140"/>
       <c r="F327" s="30"/>
@@ -13167,7 +13167,7 @@
     </row>
     <row r="328" spans="1:9">
       <c r="A328" s="8" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B328" s="9">
         <f>Form2e!C21</f>
@@ -13177,7 +13177,7 @@
         <v>118</v>
       </c>
       <c r="D328" s="30" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E328" s="30"/>
       <c r="F328" s="30"/>
@@ -13187,7 +13187,7 @@
     </row>
     <row r="329" spans="1:9">
       <c r="A329" s="8" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B329" s="9">
         <f>Form2e!C22</f>
@@ -13197,7 +13197,7 @@
         <v>117</v>
       </c>
       <c r="D329" s="30" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E329" s="30"/>
       <c r="F329" s="30"/>
@@ -13207,7 +13207,7 @@
     </row>
     <row r="330" spans="1:9">
       <c r="A330" s="8" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B330" s="9">
         <f>Form2e!C23</f>
@@ -13217,7 +13217,7 @@
         <v>116</v>
       </c>
       <c r="D330" s="30" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E330" s="30"/>
       <c r="F330" s="30"/>
@@ -13227,7 +13227,7 @@
     </row>
     <row r="331" spans="1:9" ht="25">
       <c r="A331" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B331" s="9">
         <f>Form2e!C24</f>
@@ -13237,7 +13237,7 @@
         <v>128</v>
       </c>
       <c r="D331" s="30" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E331" s="30"/>
       <c r="F331" s="30"/>
@@ -13247,7 +13247,7 @@
     </row>
     <row r="332" spans="1:9" ht="37">
       <c r="A332" s="8" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B332" s="9">
         <f>Form2e!C25</f>
@@ -13257,7 +13257,7 @@
         <v>129</v>
       </c>
       <c r="D332" s="30" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E332" s="30"/>
       <c r="F332" s="30"/>
@@ -13267,7 +13267,7 @@
     </row>
     <row r="333" spans="1:9">
       <c r="A333" s="8" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B333" s="9">
         <f>Form2e!C26</f>
@@ -13277,7 +13277,7 @@
         <v>115</v>
       </c>
       <c r="D333" s="30" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E333" s="30"/>
       <c r="F333" s="30"/>
@@ -13287,7 +13287,7 @@
     </row>
     <row r="334" spans="1:9">
       <c r="A334" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B334" s="9">
         <f>Form2e!C27</f>
@@ -13297,7 +13297,7 @@
         <v>114</v>
       </c>
       <c r="D334" s="30" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E334" s="30"/>
       <c r="F334" s="30"/>
@@ -13307,7 +13307,7 @@
     </row>
     <row r="335" spans="1:9">
       <c r="A335" s="8" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B335" s="9">
         <f>Form2e!C28</f>
@@ -13317,7 +13317,7 @@
         <v>113</v>
       </c>
       <c r="D335" s="30" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E335" s="30"/>
       <c r="F335" s="30"/>
@@ -13327,17 +13327,17 @@
     </row>
     <row r="336" spans="1:9">
       <c r="A336" s="8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B336" s="142">
         <f>Form2f!B6</f>
         <v>0</v>
       </c>
       <c r="C336" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D336" s="30" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E336" s="30"/>
       <c r="F336" s="30"/>
@@ -13347,17 +13347,17 @@
     </row>
     <row r="337" spans="1:9" ht="30" customHeight="1">
       <c r="A337" s="62" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B337" s="98">
         <f>Form2f!C10</f>
         <v>0</v>
       </c>
       <c r="C337" s="28" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D337" s="30" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E337" s="30"/>
       <c r="F337" s="30"/>
@@ -13367,17 +13367,17 @@
     </row>
     <row r="338" spans="1:9" ht="30" customHeight="1">
       <c r="A338" s="62" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B338" s="98">
         <f>Form2f!C14</f>
         <v>0</v>
       </c>
       <c r="C338" s="28" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D338" s="30" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E338" s="30"/>
       <c r="F338" s="30"/>
@@ -13387,7 +13387,7 @@
     </row>
     <row r="339" spans="1:9" ht="20.25" customHeight="1">
       <c r="A339" s="8" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B339" s="9">
         <f>Form2f!B21</f>
@@ -13397,7 +13397,7 @@
         <v>124</v>
       </c>
       <c r="D339" s="30" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E339" s="30"/>
       <c r="F339" s="30"/>
@@ -13407,7 +13407,7 @@
     </row>
     <row r="340" spans="1:9" ht="23.25" customHeight="1">
       <c r="A340" s="8" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B340" s="9">
         <f>Form2f!B22</f>
@@ -13417,7 +13417,7 @@
         <v>123</v>
       </c>
       <c r="D340" s="30" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E340" s="30"/>
       <c r="F340" s="30"/>
@@ -13427,7 +13427,7 @@
     </row>
     <row r="341" spans="1:9" ht="28.5" customHeight="1">
       <c r="A341" s="8" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B341" s="9">
         <f>Form2f!B23</f>
@@ -13437,7 +13437,7 @@
         <v>122</v>
       </c>
       <c r="D341" s="30" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E341" s="30"/>
       <c r="F341" s="30"/>
@@ -13447,7 +13447,7 @@
     </row>
     <row r="342" spans="1:9" ht="25">
       <c r="A342" s="8" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B342" s="9">
         <f>Form2f!B24</f>
@@ -13457,7 +13457,7 @@
         <v>126</v>
       </c>
       <c r="D342" s="30" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E342" s="30"/>
       <c r="F342" s="30"/>
@@ -13467,7 +13467,7 @@
     </row>
     <row r="343" spans="1:9" ht="37">
       <c r="A343" s="8" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B343" s="9">
         <f>Form2f!B25</f>
@@ -13477,7 +13477,7 @@
         <v>127</v>
       </c>
       <c r="D343" s="30" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E343" s="30"/>
       <c r="F343" s="30"/>
@@ -13487,7 +13487,7 @@
     </row>
     <row r="344" spans="1:9">
       <c r="A344" s="8" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B344" s="9">
         <f>Form2f!B26</f>
@@ -13497,7 +13497,7 @@
         <v>121</v>
       </c>
       <c r="D344" s="30" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E344" s="30"/>
       <c r="F344" s="30"/>
@@ -13507,7 +13507,7 @@
     </row>
     <row r="345" spans="1:9" ht="56.25" customHeight="1">
       <c r="A345" s="8" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B345" s="9">
         <f>Form2f!B27</f>
@@ -13517,7 +13517,7 @@
         <v>120</v>
       </c>
       <c r="D345" s="30" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E345" s="30"/>
       <c r="F345" s="30"/>
@@ -13527,7 +13527,7 @@
     </row>
     <row r="346" spans="1:9" ht="24" customHeight="1">
       <c r="A346" s="8" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B346" s="9">
         <f>Form2f!B28</f>
@@ -13537,7 +13537,7 @@
         <v>119</v>
       </c>
       <c r="D346" s="30" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E346" s="140"/>
       <c r="F346" s="30"/>
@@ -13547,7 +13547,7 @@
     </row>
     <row r="347" spans="1:9">
       <c r="A347" s="8" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B347" s="9">
         <f>Form2f!C21</f>
@@ -13557,7 +13557,7 @@
         <v>118</v>
       </c>
       <c r="D347" s="30" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E347" s="30"/>
       <c r="F347" s="30"/>
@@ -13567,7 +13567,7 @@
     </row>
     <row r="348" spans="1:9">
       <c r="A348" s="8" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B348" s="9">
         <f>Form2f!C22</f>
@@ -13577,7 +13577,7 @@
         <v>117</v>
       </c>
       <c r="D348" s="30" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E348" s="30"/>
       <c r="F348" s="30"/>
@@ -13587,7 +13587,7 @@
     </row>
     <row r="349" spans="1:9">
       <c r="A349" s="8" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B349" s="9">
         <f>Form2f!C23</f>
@@ -13597,7 +13597,7 @@
         <v>116</v>
       </c>
       <c r="D349" s="30" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E349" s="30"/>
       <c r="F349" s="30"/>
@@ -13607,7 +13607,7 @@
     </row>
     <row r="350" spans="1:9" ht="25">
       <c r="A350" s="8" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B350" s="9">
         <f>Form2f!C24</f>
@@ -13617,7 +13617,7 @@
         <v>128</v>
       </c>
       <c r="D350" s="30" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E350" s="30"/>
       <c r="F350" s="30"/>
@@ -13627,7 +13627,7 @@
     </row>
     <row r="351" spans="1:9" ht="37">
       <c r="A351" s="8" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B351" s="9">
         <f>Form2f!C25</f>
@@ -13637,7 +13637,7 @@
         <v>129</v>
       </c>
       <c r="D351" s="30" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E351" s="30"/>
       <c r="F351" s="30"/>
@@ -13647,7 +13647,7 @@
     </row>
     <row r="352" spans="1:9">
       <c r="A352" s="8" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B352" s="9">
         <f>Form2f!C26</f>
@@ -13657,7 +13657,7 @@
         <v>115</v>
       </c>
       <c r="D352" s="30" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E352" s="30"/>
       <c r="F352" s="30"/>
@@ -13667,7 +13667,7 @@
     </row>
     <row r="353" spans="1:9">
       <c r="A353" s="8" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B353" s="9">
         <f>Form2f!C27</f>
@@ -13677,7 +13677,7 @@
         <v>114</v>
       </c>
       <c r="D353" s="30" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E353" s="30"/>
       <c r="F353" s="30"/>
@@ -13687,7 +13687,7 @@
     </row>
     <row r="354" spans="1:9">
       <c r="A354" s="8" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B354" s="9">
         <f>Form2f!C28</f>
@@ -13697,7 +13697,7 @@
         <v>113</v>
       </c>
       <c r="D354" s="30" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E354" s="30"/>
       <c r="F354" s="30"/>
@@ -13707,17 +13707,17 @@
     </row>
     <row r="355" spans="1:9">
       <c r="A355" s="8" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B355" s="142">
         <f>Form2g!B6</f>
         <v>0</v>
       </c>
       <c r="C355" s="29" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D355" s="30" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E355" s="30"/>
       <c r="F355" s="30"/>
@@ -13727,17 +13727,17 @@
     </row>
     <row r="356" spans="1:9" ht="30" customHeight="1">
       <c r="A356" s="62" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B356" s="98">
         <f>Form2g!C10</f>
         <v>0</v>
       </c>
       <c r="C356" s="28" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D356" s="30" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E356" s="30"/>
       <c r="F356" s="30"/>
@@ -13747,17 +13747,17 @@
     </row>
     <row r="357" spans="1:9" ht="30" customHeight="1">
       <c r="A357" s="62" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B357" s="98">
         <f>Form2g!C14</f>
         <v>0</v>
       </c>
       <c r="C357" s="28" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D357" s="30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E357" s="30"/>
       <c r="F357" s="30"/>
@@ -13767,7 +13767,7 @@
     </row>
     <row r="358" spans="1:9" ht="20.25" customHeight="1">
       <c r="A358" s="8" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B358" s="9">
         <f>Form2g!B21</f>
@@ -13777,7 +13777,7 @@
         <v>124</v>
       </c>
       <c r="D358" s="30" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E358" s="30"/>
       <c r="F358" s="30"/>
@@ -13787,7 +13787,7 @@
     </row>
     <row r="359" spans="1:9" ht="23.25" customHeight="1">
       <c r="A359" s="8" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B359" s="9">
         <f>Form2g!B22</f>
@@ -13797,7 +13797,7 @@
         <v>123</v>
       </c>
       <c r="D359" s="30" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E359" s="30"/>
       <c r="F359" s="30"/>
@@ -13807,7 +13807,7 @@
     </row>
     <row r="360" spans="1:9" ht="28.5" customHeight="1">
       <c r="A360" s="8" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B360" s="9">
         <f>Form2g!B23</f>
@@ -13817,7 +13817,7 @@
         <v>122</v>
       </c>
       <c r="D360" s="30" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E360" s="30"/>
       <c r="F360" s="30"/>
@@ -13827,7 +13827,7 @@
     </row>
     <row r="361" spans="1:9" ht="25">
       <c r="A361" s="8" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B361" s="9">
         <f>Form2g!B24</f>
@@ -13837,7 +13837,7 @@
         <v>126</v>
       </c>
       <c r="D361" s="30" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E361" s="30"/>
       <c r="F361" s="30"/>
@@ -13847,7 +13847,7 @@
     </row>
     <row r="362" spans="1:9" ht="37">
       <c r="A362" s="8" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B362" s="9">
         <f>Form2g!B25</f>
@@ -13857,7 +13857,7 @@
         <v>127</v>
       </c>
       <c r="D362" s="30" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E362" s="30"/>
       <c r="F362" s="30"/>
@@ -13867,7 +13867,7 @@
     </row>
     <row r="363" spans="1:9">
       <c r="A363" s="8" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B363" s="9">
         <f>Form2g!B26</f>
@@ -13877,7 +13877,7 @@
         <v>121</v>
       </c>
       <c r="D363" s="30" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E363" s="30"/>
       <c r="F363" s="30"/>
@@ -13887,7 +13887,7 @@
     </row>
     <row r="364" spans="1:9" ht="56.25" customHeight="1">
       <c r="A364" s="8" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B364" s="9">
         <f>Form2g!B27</f>
@@ -13897,7 +13897,7 @@
         <v>120</v>
       </c>
       <c r="D364" s="30" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E364" s="30"/>
       <c r="F364" s="30"/>
@@ -13907,7 +13907,7 @@
     </row>
     <row r="365" spans="1:9" ht="24" customHeight="1">
       <c r="A365" s="8" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B365" s="9">
         <f>Form2g!B28</f>
@@ -13917,7 +13917,7 @@
         <v>119</v>
       </c>
       <c r="D365" s="30" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E365" s="140"/>
       <c r="F365" s="30"/>
@@ -13927,7 +13927,7 @@
     </row>
     <row r="366" spans="1:9">
       <c r="A366" s="8" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B366" s="9">
         <f>Form2g!C21</f>
@@ -13937,7 +13937,7 @@
         <v>118</v>
       </c>
       <c r="D366" s="30" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E366" s="30"/>
       <c r="F366" s="30"/>
@@ -13947,7 +13947,7 @@
     </row>
     <row r="367" spans="1:9">
       <c r="A367" s="8" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B367" s="9">
         <f>Form2g!C22</f>
@@ -13957,7 +13957,7 @@
         <v>117</v>
       </c>
       <c r="D367" s="30" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E367" s="30"/>
       <c r="F367" s="30"/>
@@ -13967,7 +13967,7 @@
     </row>
     <row r="368" spans="1:9">
       <c r="A368" s="8" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B368" s="9">
         <f>Form2g!C23</f>
@@ -13977,7 +13977,7 @@
         <v>116</v>
       </c>
       <c r="D368" s="30" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E368" s="30"/>
       <c r="F368" s="30"/>
@@ -13987,7 +13987,7 @@
     </row>
     <row r="369" spans="1:9" ht="25">
       <c r="A369" s="8" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B369" s="9">
         <f>Form2g!C24</f>
@@ -13997,7 +13997,7 @@
         <v>128</v>
       </c>
       <c r="D369" s="30" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E369" s="30"/>
       <c r="F369" s="30"/>
@@ -14007,7 +14007,7 @@
     </row>
     <row r="370" spans="1:9" ht="37">
       <c r="A370" s="8" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B370" s="9">
         <f>Form2g!C25</f>
@@ -14017,7 +14017,7 @@
         <v>129</v>
       </c>
       <c r="D370" s="30" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E370" s="30"/>
       <c r="F370" s="30"/>
@@ -14027,7 +14027,7 @@
     </row>
     <row r="371" spans="1:9">
       <c r="A371" s="8" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B371" s="9">
         <f>Form2g!C26</f>
@@ -14037,7 +14037,7 @@
         <v>115</v>
       </c>
       <c r="D371" s="30" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E371" s="30"/>
       <c r="F371" s="30"/>
@@ -14047,7 +14047,7 @@
     </row>
     <row r="372" spans="1:9">
       <c r="A372" s="8" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B372" s="9">
         <f>Form2g!C27</f>
@@ -14057,7 +14057,7 @@
         <v>114</v>
       </c>
       <c r="D372" s="30" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E372" s="30"/>
       <c r="F372" s="30"/>
@@ -14067,7 +14067,7 @@
     </row>
     <row r="373" spans="1:9">
       <c r="A373" s="8" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B373" s="9">
         <f>Form2g!C28</f>
@@ -14077,7 +14077,7 @@
         <v>113</v>
       </c>
       <c r="D373" s="30" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E373" s="30"/>
       <c r="F373" s="30"/>
@@ -14087,17 +14087,17 @@
     </row>
     <row r="374" spans="1:9">
       <c r="A374" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B374" s="142">
         <f>Form2h!B6</f>
         <v>0</v>
       </c>
       <c r="C374" s="29" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D374" s="30" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E374" s="30"/>
       <c r="F374" s="30"/>
@@ -14107,17 +14107,17 @@
     </row>
     <row r="375" spans="1:9" ht="30" customHeight="1">
       <c r="A375" s="62" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B375" s="98">
         <f>Form2h!C10</f>
         <v>0</v>
       </c>
       <c r="C375" s="28" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D375" s="30" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E375" s="30"/>
       <c r="F375" s="30"/>
@@ -14127,17 +14127,17 @@
     </row>
     <row r="376" spans="1:9" ht="30" customHeight="1">
       <c r="A376" s="62" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B376" s="98">
         <f>Form2h!C14</f>
         <v>0</v>
       </c>
       <c r="C376" s="28" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D376" s="30" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E376" s="30"/>
       <c r="F376" s="30"/>
@@ -14147,7 +14147,7 @@
     </row>
     <row r="377" spans="1:9" ht="20.25" customHeight="1">
       <c r="A377" s="8" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B377" s="9">
         <f>Form2h!B21</f>
@@ -14157,7 +14157,7 @@
         <v>124</v>
       </c>
       <c r="D377" s="30" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E377" s="30"/>
       <c r="F377" s="30"/>
@@ -14167,7 +14167,7 @@
     </row>
     <row r="378" spans="1:9" ht="23.25" customHeight="1">
       <c r="A378" s="8" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B378" s="9">
         <f>Form2h!B22</f>
@@ -14177,7 +14177,7 @@
         <v>123</v>
       </c>
       <c r="D378" s="30" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E378" s="30"/>
       <c r="F378" s="30"/>
@@ -14187,7 +14187,7 @@
     </row>
     <row r="379" spans="1:9" ht="28.5" customHeight="1">
       <c r="A379" s="8" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B379" s="9">
         <f>Form2h!B23</f>
@@ -14197,7 +14197,7 @@
         <v>122</v>
       </c>
       <c r="D379" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E379" s="30"/>
       <c r="F379" s="30"/>
@@ -14207,7 +14207,7 @@
     </row>
     <row r="380" spans="1:9" ht="25">
       <c r="A380" s="8" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B380" s="9">
         <f>Form2h!B24</f>
@@ -14217,7 +14217,7 @@
         <v>126</v>
       </c>
       <c r="D380" s="30" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E380" s="30"/>
       <c r="F380" s="30"/>
@@ -14227,7 +14227,7 @@
     </row>
     <row r="381" spans="1:9" ht="37">
       <c r="A381" s="8" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B381" s="9">
         <f>Form2h!B25</f>
@@ -14237,7 +14237,7 @@
         <v>127</v>
       </c>
       <c r="D381" s="30" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E381" s="30"/>
       <c r="F381" s="30"/>
@@ -14247,7 +14247,7 @@
     </row>
     <row r="382" spans="1:9">
       <c r="A382" s="8" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B382" s="9">
         <f>Form2h!B26</f>
@@ -14257,7 +14257,7 @@
         <v>121</v>
       </c>
       <c r="D382" s="30" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E382" s="30"/>
       <c r="F382" s="30"/>
@@ -14267,7 +14267,7 @@
     </row>
     <row r="383" spans="1:9" ht="56.25" customHeight="1">
       <c r="A383" s="8" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B383" s="9">
         <f>Form2h!B27</f>
@@ -14277,7 +14277,7 @@
         <v>120</v>
       </c>
       <c r="D383" s="30" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E383" s="30"/>
       <c r="F383" s="30"/>
@@ -14287,7 +14287,7 @@
     </row>
     <row r="384" spans="1:9" ht="24" customHeight="1">
       <c r="A384" s="8" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B384" s="9">
         <f>Form2h!B28</f>
@@ -14297,7 +14297,7 @@
         <v>119</v>
       </c>
       <c r="D384" s="30" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E384" s="140"/>
       <c r="F384" s="30"/>
@@ -14307,7 +14307,7 @@
     </row>
     <row r="385" spans="1:9">
       <c r="A385" s="8" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B385" s="9">
         <f>Form2h!C21</f>
@@ -14317,7 +14317,7 @@
         <v>118</v>
       </c>
       <c r="D385" s="30" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E385" s="30"/>
       <c r="F385" s="30"/>
@@ -14327,7 +14327,7 @@
     </row>
     <row r="386" spans="1:9">
       <c r="A386" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B386" s="9">
         <f>Form2h!C22</f>
@@ -14337,7 +14337,7 @@
         <v>117</v>
       </c>
       <c r="D386" s="30" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E386" s="30"/>
       <c r="F386" s="30"/>
@@ -14347,7 +14347,7 @@
     </row>
     <row r="387" spans="1:9">
       <c r="A387" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B387" s="9">
         <f>Form2h!C23</f>
@@ -14357,7 +14357,7 @@
         <v>116</v>
       </c>
       <c r="D387" s="30" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E387" s="30"/>
       <c r="F387" s="30"/>
@@ -14367,7 +14367,7 @@
     </row>
     <row r="388" spans="1:9" ht="25">
       <c r="A388" s="8" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B388" s="9">
         <f>Form2h!C24</f>
@@ -14377,7 +14377,7 @@
         <v>128</v>
       </c>
       <c r="D388" s="30" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E388" s="30"/>
       <c r="F388" s="30"/>
@@ -14387,7 +14387,7 @@
     </row>
     <row r="389" spans="1:9" ht="37">
       <c r="A389" s="8" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B389" s="9">
         <f>Form2h!C25</f>
@@ -14397,7 +14397,7 @@
         <v>129</v>
       </c>
       <c r="D389" s="30" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E389" s="30"/>
       <c r="F389" s="30"/>
@@ -14407,7 +14407,7 @@
     </row>
     <row r="390" spans="1:9">
       <c r="A390" s="8" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B390" s="9">
         <f>Form2h!C26</f>
@@ -14417,7 +14417,7 @@
         <v>115</v>
       </c>
       <c r="D390" s="30" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E390" s="30"/>
       <c r="F390" s="30"/>
@@ -14427,7 +14427,7 @@
     </row>
     <row r="391" spans="1:9">
       <c r="A391" s="8" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B391" s="9">
         <f>Form2h!C27</f>
@@ -14437,7 +14437,7 @@
         <v>114</v>
       </c>
       <c r="D391" s="30" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E391" s="30"/>
       <c r="F391" s="30"/>
@@ -14447,7 +14447,7 @@
     </row>
     <row r="392" spans="1:9">
       <c r="A392" s="8" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B392" s="9">
         <f>Form2h!C28</f>
@@ -14457,7 +14457,7 @@
         <v>113</v>
       </c>
       <c r="D392" s="30" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E392" s="30"/>
       <c r="F392" s="30"/>
@@ -14467,17 +14467,17 @@
     </row>
     <row r="393" spans="1:9">
       <c r="A393" s="8" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B393" s="142">
         <f>Form2i!B6</f>
         <v>0</v>
       </c>
       <c r="C393" s="29" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D393" s="30" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E393" s="30"/>
       <c r="F393" s="30"/>
@@ -14487,17 +14487,17 @@
     </row>
     <row r="394" spans="1:9" ht="30" customHeight="1">
       <c r="A394" s="62" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B394" s="98">
         <f>Form2i!C10</f>
         <v>0</v>
       </c>
       <c r="C394" s="28" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D394" s="30" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E394" s="30"/>
       <c r="F394" s="30"/>
@@ -14507,17 +14507,17 @@
     </row>
     <row r="395" spans="1:9" ht="30" customHeight="1">
       <c r="A395" s="62" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B395" s="98">
         <f>Form2i!C14</f>
         <v>0</v>
       </c>
       <c r="C395" s="28" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D395" s="30" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E395" s="30"/>
       <c r="F395" s="30"/>
@@ -14527,17 +14527,17 @@
     </row>
     <row r="396" spans="1:9" ht="20.25" customHeight="1">
       <c r="A396" s="8" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B396" s="9">
         <f>Form2i!B21</f>
         <v>0</v>
       </c>
       <c r="C396" s="29" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D396" s="30" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E396" s="30"/>
       <c r="F396" s="30"/>
@@ -14547,7 +14547,7 @@
     </row>
     <row r="397" spans="1:9" ht="23.25" customHeight="1">
       <c r="A397" s="8" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B397" s="9">
         <f>Form2i!B22</f>
@@ -14557,7 +14557,7 @@
         <v>123</v>
       </c>
       <c r="D397" s="30" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E397" s="30"/>
       <c r="F397" s="30"/>
@@ -14567,7 +14567,7 @@
     </row>
     <row r="398" spans="1:9" ht="28.5" customHeight="1">
       <c r="A398" s="8" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B398" s="9">
         <f>Form2i!B23</f>
@@ -14577,7 +14577,7 @@
         <v>122</v>
       </c>
       <c r="D398" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E398" s="30"/>
       <c r="F398" s="30"/>
@@ -14587,7 +14587,7 @@
     </row>
     <row r="399" spans="1:9" ht="25">
       <c r="A399" s="8" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B399" s="9">
         <f>Form2i!B24</f>
@@ -14597,7 +14597,7 @@
         <v>126</v>
       </c>
       <c r="D399" s="30" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E399" s="30"/>
       <c r="F399" s="30"/>
@@ -14607,7 +14607,7 @@
     </row>
     <row r="400" spans="1:9" ht="37">
       <c r="A400" s="8" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B400" s="9">
         <f>Form2i!B25</f>
@@ -14617,7 +14617,7 @@
         <v>127</v>
       </c>
       <c r="D400" s="30" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E400" s="30"/>
       <c r="F400" s="30"/>
@@ -14627,7 +14627,7 @@
     </row>
     <row r="401" spans="1:9">
       <c r="A401" s="8" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B401" s="9">
         <f>Form2i!B26</f>
@@ -14637,7 +14637,7 @@
         <v>121</v>
       </c>
       <c r="D401" s="30" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E401" s="30"/>
       <c r="F401" s="30"/>
@@ -14647,7 +14647,7 @@
     </row>
     <row r="402" spans="1:9" ht="56.25" customHeight="1">
       <c r="A402" s="8" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B402" s="9">
         <f>Form2i!B27</f>
@@ -14657,7 +14657,7 @@
         <v>120</v>
       </c>
       <c r="D402" s="30" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E402" s="30"/>
       <c r="F402" s="30"/>
@@ -14667,7 +14667,7 @@
     </row>
     <row r="403" spans="1:9" ht="24" customHeight="1">
       <c r="A403" s="8" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B403" s="9">
         <f>Form2i!B28</f>
@@ -14677,7 +14677,7 @@
         <v>119</v>
       </c>
       <c r="D403" s="30" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E403" s="140"/>
       <c r="F403" s="30"/>
@@ -14687,7 +14687,7 @@
     </row>
     <row r="404" spans="1:9">
       <c r="A404" s="8" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B404" s="9">
         <f>Form2i!C21</f>
@@ -14697,7 +14697,7 @@
         <v>118</v>
       </c>
       <c r="D404" s="30" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E404" s="30"/>
       <c r="F404" s="30"/>
@@ -14707,7 +14707,7 @@
     </row>
     <row r="405" spans="1:9">
       <c r="A405" s="8" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B405" s="9">
         <f>Form2i!C22</f>
@@ -14717,7 +14717,7 @@
         <v>117</v>
       </c>
       <c r="D405" s="30" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E405" s="30"/>
       <c r="F405" s="30"/>
@@ -14727,7 +14727,7 @@
     </row>
     <row r="406" spans="1:9">
       <c r="A406" s="8" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B406" s="9">
         <f>Form2i!C23</f>
@@ -14737,7 +14737,7 @@
         <v>116</v>
       </c>
       <c r="D406" s="30" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E406" s="30"/>
       <c r="F406" s="30"/>
@@ -14747,7 +14747,7 @@
     </row>
     <row r="407" spans="1:9" ht="25">
       <c r="A407" s="8" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B407" s="9">
         <f>Form2i!C24</f>
@@ -14757,7 +14757,7 @@
         <v>128</v>
       </c>
       <c r="D407" s="30" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E407" s="30"/>
       <c r="F407" s="30"/>
@@ -14767,7 +14767,7 @@
     </row>
     <row r="408" spans="1:9" ht="37">
       <c r="A408" s="8" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B408" s="9">
         <f>Form2i!C25</f>
@@ -14777,7 +14777,7 @@
         <v>129</v>
       </c>
       <c r="D408" s="30" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E408" s="30"/>
       <c r="F408" s="30"/>
@@ -14787,7 +14787,7 @@
     </row>
     <row r="409" spans="1:9">
       <c r="A409" s="8" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B409" s="9">
         <f>Form2i!C26</f>
@@ -14797,7 +14797,7 @@
         <v>115</v>
       </c>
       <c r="D409" s="30" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E409" s="30"/>
       <c r="F409" s="30"/>
@@ -14807,7 +14807,7 @@
     </row>
     <row r="410" spans="1:9">
       <c r="A410" s="8" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B410" s="9">
         <f>Form2i!C27</f>
@@ -14817,7 +14817,7 @@
         <v>114</v>
       </c>
       <c r="D410" s="30" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E410" s="30"/>
       <c r="F410" s="30"/>
@@ -14827,7 +14827,7 @@
     </row>
     <row r="411" spans="1:9">
       <c r="A411" s="8" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B411" s="9">
         <f>Form2i!C28</f>
@@ -14837,7 +14837,7 @@
         <v>113</v>
       </c>
       <c r="D411" s="30" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E411" s="30"/>
       <c r="F411" s="30"/>
@@ -14847,17 +14847,17 @@
     </row>
     <row r="412" spans="1:9">
       <c r="A412" s="8" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B412" s="142">
         <f>Form2j!B6</f>
         <v>0</v>
       </c>
       <c r="C412" s="29" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D412" s="30" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E412" s="30"/>
       <c r="F412" s="30"/>
@@ -14867,17 +14867,17 @@
     </row>
     <row r="413" spans="1:9" ht="30" customHeight="1">
       <c r="A413" s="62" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B413" s="98">
         <f>Form2j!C10</f>
         <v>0</v>
       </c>
       <c r="C413" s="28" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D413" s="30" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E413" s="30"/>
       <c r="F413" s="30"/>
@@ -14887,17 +14887,17 @@
     </row>
     <row r="414" spans="1:9" ht="30" customHeight="1">
       <c r="A414" s="62" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B414" s="98">
         <f>Form2j!C14</f>
         <v>0</v>
       </c>
       <c r="C414" s="28" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D414" s="30" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E414" s="30"/>
       <c r="F414" s="30"/>
@@ -14907,7 +14907,7 @@
     </row>
     <row r="415" spans="1:9" ht="20.25" customHeight="1">
       <c r="A415" s="8" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B415" s="9">
         <f>Form2j!B21</f>
@@ -14917,7 +14917,7 @@
         <v>124</v>
       </c>
       <c r="D415" s="30" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E415" s="30"/>
       <c r="F415" s="30"/>
@@ -14927,7 +14927,7 @@
     </row>
     <row r="416" spans="1:9" ht="23.25" customHeight="1">
       <c r="A416" s="8" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B416" s="9">
         <f>Form2j!B22</f>
@@ -14937,7 +14937,7 @@
         <v>123</v>
       </c>
       <c r="D416" s="30" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E416" s="30"/>
       <c r="F416" s="30"/>
@@ -14947,7 +14947,7 @@
     </row>
     <row r="417" spans="1:9" ht="28.5" customHeight="1">
       <c r="A417" s="8" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B417" s="9">
         <f>Form2j!B23</f>
@@ -14957,7 +14957,7 @@
         <v>122</v>
       </c>
       <c r="D417" s="30" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E417" s="30"/>
       <c r="F417" s="30"/>
@@ -14967,7 +14967,7 @@
     </row>
     <row r="418" spans="1:9" ht="25">
       <c r="A418" s="8" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B418" s="9">
         <f>Form2j!B24</f>
@@ -14977,7 +14977,7 @@
         <v>126</v>
       </c>
       <c r="D418" s="30" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E418" s="30"/>
       <c r="F418" s="30"/>
@@ -14987,7 +14987,7 @@
     </row>
     <row r="419" spans="1:9" ht="37">
       <c r="A419" s="8" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B419" s="9">
         <f>Form2j!B25</f>
@@ -14997,7 +14997,7 @@
         <v>127</v>
       </c>
       <c r="D419" s="30" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E419" s="30"/>
       <c r="F419" s="30"/>
@@ -15007,7 +15007,7 @@
     </row>
     <row r="420" spans="1:9">
       <c r="A420" s="8" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B420" s="9">
         <f>Form2j!B26</f>
@@ -15017,7 +15017,7 @@
         <v>121</v>
       </c>
       <c r="D420" s="30" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E420" s="30"/>
       <c r="F420" s="30"/>
@@ -15027,7 +15027,7 @@
     </row>
     <row r="421" spans="1:9" ht="56.25" customHeight="1">
       <c r="A421" s="8" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B421" s="9">
         <f>Form2j!B27</f>
@@ -15037,7 +15037,7 @@
         <v>120</v>
       </c>
       <c r="D421" s="30" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E421" s="30"/>
       <c r="F421" s="30"/>
@@ -15047,7 +15047,7 @@
     </row>
     <row r="422" spans="1:9" ht="24" customHeight="1">
       <c r="A422" s="8" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B422" s="9">
         <f>Form2j!B28</f>
@@ -15057,7 +15057,7 @@
         <v>119</v>
       </c>
       <c r="D422" s="30" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E422" s="140"/>
       <c r="F422" s="30"/>
@@ -15067,7 +15067,7 @@
     </row>
     <row r="423" spans="1:9">
       <c r="A423" s="8" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B423" s="9">
         <f>Form2j!C21</f>
@@ -15077,7 +15077,7 @@
         <v>118</v>
       </c>
       <c r="D423" s="30" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E423" s="30"/>
       <c r="F423" s="30"/>
@@ -15087,7 +15087,7 @@
     </row>
     <row r="424" spans="1:9">
       <c r="A424" s="8" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B424" s="9">
         <f>Form2j!C22</f>
@@ -15097,7 +15097,7 @@
         <v>117</v>
       </c>
       <c r="D424" s="30" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E424" s="30"/>
       <c r="F424" s="30"/>
@@ -15107,7 +15107,7 @@
     </row>
     <row r="425" spans="1:9">
       <c r="A425" s="8" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B425" s="9">
         <f>Form2j!C23</f>
@@ -15117,7 +15117,7 @@
         <v>116</v>
       </c>
       <c r="D425" s="30" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E425" s="30"/>
       <c r="F425" s="30"/>
@@ -15127,7 +15127,7 @@
     </row>
     <row r="426" spans="1:9" ht="25">
       <c r="A426" s="8" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B426" s="9">
         <f>Form2j!C24</f>
@@ -15137,7 +15137,7 @@
         <v>128</v>
       </c>
       <c r="D426" s="30" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E426" s="30"/>
       <c r="F426" s="30"/>
@@ -15147,7 +15147,7 @@
     </row>
     <row r="427" spans="1:9" ht="37">
       <c r="A427" s="8" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B427" s="9">
         <f>Form2j!C25</f>
@@ -15157,7 +15157,7 @@
         <v>129</v>
       </c>
       <c r="D427" s="30" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E427" s="30"/>
       <c r="F427" s="30"/>
@@ -15167,7 +15167,7 @@
     </row>
     <row r="428" spans="1:9">
       <c r="A428" s="8" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B428" s="9">
         <f>Form2j!C26</f>
@@ -15177,7 +15177,7 @@
         <v>115</v>
       </c>
       <c r="D428" s="30" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E428" s="30"/>
       <c r="F428" s="30"/>
@@ -15187,7 +15187,7 @@
     </row>
     <row r="429" spans="1:9">
       <c r="A429" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B429" s="9">
         <f>Form2j!C27</f>
@@ -15197,7 +15197,7 @@
         <v>114</v>
       </c>
       <c r="D429" s="30" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E429" s="30"/>
       <c r="F429" s="30"/>
@@ -15207,7 +15207,7 @@
     </row>
     <row r="430" spans="1:9">
       <c r="A430" s="8" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B430" s="9">
         <f>Form2j!C28</f>
@@ -15217,7 +15217,7 @@
         <v>113</v>
       </c>
       <c r="D430" s="30" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E430" s="30"/>
       <c r="F430" s="30"/>
@@ -15227,14 +15227,14 @@
     </row>
     <row r="431" spans="1:9" ht="30" customHeight="1">
       <c r="A431" s="62" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B431" s="98"/>
       <c r="C431" s="28" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D431" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E431" s="30"/>
       <c r="F431" s="30"/>
@@ -15244,14 +15244,14 @@
     </row>
     <row r="432" spans="1:9" ht="30" customHeight="1">
       <c r="A432" s="62" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B432" s="98"/>
       <c r="C432" s="28" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D432" s="30" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E432" s="30"/>
       <c r="F432" s="30"/>
@@ -15261,14 +15261,14 @@
     </row>
     <row r="433" spans="1:9" ht="20.25" customHeight="1">
       <c r="A433" s="8" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B433" s="9"/>
       <c r="C433" s="29" t="s">
         <v>124</v>
       </c>
       <c r="D433" s="30" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E433" s="30"/>
       <c r="F433" s="30"/>
@@ -15278,14 +15278,14 @@
     </row>
     <row r="434" spans="1:9" ht="23.25" customHeight="1">
       <c r="A434" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B434" s="9"/>
       <c r="C434" s="29" t="s">
         <v>123</v>
       </c>
       <c r="D434" s="30" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E434" s="30"/>
       <c r="F434" s="30"/>
@@ -15295,14 +15295,14 @@
     </row>
     <row r="435" spans="1:9" ht="28.5" customHeight="1">
       <c r="A435" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B435" s="9"/>
       <c r="C435" s="71" t="s">
         <v>122</v>
       </c>
       <c r="D435" s="30" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E435" s="30"/>
       <c r="F435" s="30"/>
@@ -15312,14 +15312,14 @@
     </row>
     <row r="436" spans="1:9" ht="25">
       <c r="A436" s="8" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B436" s="9"/>
       <c r="C436" s="71" t="s">
         <v>126</v>
       </c>
       <c r="D436" s="30" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E436" s="30"/>
       <c r="F436" s="30"/>
@@ -15329,14 +15329,14 @@
     </row>
     <row r="437" spans="1:9" ht="37">
       <c r="A437" s="8" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B437" s="9"/>
       <c r="C437" s="71" t="s">
         <v>127</v>
       </c>
       <c r="D437" s="30" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E437" s="30"/>
       <c r="F437" s="30"/>
@@ -15346,14 +15346,14 @@
     </row>
     <row r="438" spans="1:9">
       <c r="A438" s="8" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B438" s="9"/>
       <c r="C438" s="29" t="s">
         <v>121</v>
       </c>
       <c r="D438" s="30" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E438" s="30"/>
       <c r="F438" s="30"/>
@@ -15363,14 +15363,14 @@
     </row>
     <row r="439" spans="1:9" ht="56.25" customHeight="1">
       <c r="A439" s="8" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B439" s="9"/>
       <c r="C439" s="71" t="s">
         <v>120</v>
       </c>
       <c r="D439" s="30" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E439" s="30"/>
       <c r="F439" s="30"/>
@@ -15380,14 +15380,14 @@
     </row>
     <row r="440" spans="1:9" ht="24" customHeight="1">
       <c r="A440" s="8" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B440" s="9"/>
       <c r="C440" s="29" t="s">
         <v>119</v>
       </c>
       <c r="D440" s="30" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E440" s="140"/>
       <c r="F440" s="30"/>
@@ -15397,14 +15397,14 @@
     </row>
     <row r="441" spans="1:9">
       <c r="A441" s="8" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B441" s="9"/>
       <c r="C441" s="29" t="s">
         <v>118</v>
       </c>
       <c r="D441" s="30" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E441" s="30"/>
       <c r="F441" s="30"/>
@@ -15414,14 +15414,14 @@
     </row>
     <row r="442" spans="1:9">
       <c r="A442" s="8" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B442" s="9"/>
       <c r="C442" s="29" t="s">
         <v>117</v>
       </c>
       <c r="D442" s="30" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E442" s="30"/>
       <c r="F442" s="30"/>
@@ -15431,14 +15431,14 @@
     </row>
     <row r="443" spans="1:9">
       <c r="A443" s="8" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B443" s="9"/>
       <c r="C443" s="29" t="s">
         <v>116</v>
       </c>
       <c r="D443" s="30" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E443" s="30"/>
       <c r="F443" s="30"/>
@@ -15448,14 +15448,14 @@
     </row>
     <row r="444" spans="1:9" ht="25">
       <c r="A444" s="8" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B444" s="9"/>
       <c r="C444" s="71" t="s">
         <v>128</v>
       </c>
       <c r="D444" s="30" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E444" s="30"/>
       <c r="F444" s="30"/>
@@ -15465,14 +15465,14 @@
     </row>
     <row r="445" spans="1:9" ht="37">
       <c r="A445" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B445" s="9"/>
       <c r="C445" s="71" t="s">
         <v>129</v>
       </c>
       <c r="D445" s="30" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E445" s="30"/>
       <c r="F445" s="30"/>
@@ -15482,14 +15482,14 @@
     </row>
     <row r="446" spans="1:9">
       <c r="A446" s="8" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B446" s="9"/>
       <c r="C446" s="29" t="s">
         <v>115</v>
       </c>
       <c r="D446" s="30" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E446" s="30"/>
       <c r="F446" s="30"/>
@@ -15499,14 +15499,14 @@
     </row>
     <row r="447" spans="1:9">
       <c r="A447" s="8" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B447" s="9"/>
       <c r="C447" s="29" t="s">
         <v>114</v>
       </c>
       <c r="D447" s="30" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E447" s="30"/>
       <c r="F447" s="30"/>
@@ -15516,14 +15516,14 @@
     </row>
     <row r="448" spans="1:9">
       <c r="A448" s="8" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B448" s="9"/>
       <c r="C448" s="29" t="s">
         <v>113</v>
       </c>
       <c r="D448" s="30" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E448" s="30"/>
       <c r="F448" s="30"/>
@@ -15686,7 +15686,7 @@
     </row>
     <row r="5" spans="1:25" ht="165" customHeight="1">
       <c r="A5" s="155" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B5" s="148"/>
       <c r="C5" s="148"/>
@@ -15713,7 +15713,7 @@
     </row>
     <row r="6" spans="1:25" ht="22.5" customHeight="1">
       <c r="A6" s="114" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B6" s="164"/>
       <c r="C6" s="167"/>
@@ -15748,7 +15748,7 @@
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="126" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
@@ -15758,7 +15758,7 @@
     </row>
     <row r="9" spans="1:25" ht="63" customHeight="1" thickBot="1">
       <c r="A9" s="166" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B9" s="166"/>
       <c r="C9" s="166"/>
@@ -15810,7 +15810,7 @@
     </row>
     <row r="12" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="126" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
@@ -15822,7 +15822,7 @@
     </row>
     <row r="13" spans="1:25" ht="63" customHeight="1" thickBot="1">
       <c r="A13" s="166" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B13" s="166"/>
       <c r="C13" s="166"/>
@@ -15896,7 +15896,7 @@
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1">
       <c r="A17" s="152" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B17" s="153"/>
       <c r="C17" s="153"/>
@@ -16010,12 +16010,12 @@
     </row>
     <row r="24" spans="1:23" ht="33.75" customHeight="1" thickBot="1">
       <c r="A24" s="74" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B24" s="145"/>
       <c r="C24" s="145"/>
       <c r="D24" s="75" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="6"/>
@@ -16027,7 +16027,7 @@
       <c r="B25" s="145"/>
       <c r="C25" s="145"/>
       <c r="D25" s="129" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="117"/>
@@ -16070,7 +16070,7 @@
     </row>
     <row r="29" spans="1:23" ht="31.5" customHeight="1">
       <c r="A29" s="114" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B29" s="146">
         <f>SUM(B21:B28)</f>
@@ -16081,7 +16081,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="113" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
@@ -16191,7 +16191,7 @@
     </row>
     <row r="5" spans="1:25" ht="165" customHeight="1">
       <c r="A5" s="155" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B5" s="148"/>
       <c r="C5" s="148"/>
@@ -16218,7 +16218,7 @@
     </row>
     <row r="6" spans="1:25" ht="22.5" customHeight="1">
       <c r="A6" s="114" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B6" s="164"/>
       <c r="C6" s="165"/>
@@ -16253,7 +16253,7 @@
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="126" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
@@ -16263,7 +16263,7 @@
     </row>
     <row r="9" spans="1:25" ht="63" customHeight="1" thickBot="1">
       <c r="A9" s="166" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B9" s="166"/>
       <c r="C9" s="166"/>
@@ -16315,7 +16315,7 @@
     </row>
     <row r="12" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="126" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
@@ -16327,7 +16327,7 @@
     </row>
     <row r="13" spans="1:25" ht="63" customHeight="1" thickBot="1">
       <c r="A13" s="166" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B13" s="166"/>
       <c r="C13" s="166"/>
@@ -16401,7 +16401,7 @@
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1">
       <c r="A17" s="152" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B17" s="153"/>
       <c r="C17" s="153"/>
@@ -16515,12 +16515,12 @@
     </row>
     <row r="24" spans="1:23" ht="33.75" customHeight="1" thickBot="1">
       <c r="A24" s="74" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B24" s="145"/>
       <c r="C24" s="145"/>
       <c r="D24" s="75" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="6"/>
@@ -16532,7 +16532,7 @@
       <c r="B25" s="145"/>
       <c r="C25" s="145"/>
       <c r="D25" s="129" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="117"/>
@@ -16575,7 +16575,7 @@
     </row>
     <row r="29" spans="1:23" ht="31.5" customHeight="1">
       <c r="A29" s="114" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B29" s="146">
         <f>SUM(B21:B28)</f>
@@ -16586,7 +16586,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="113" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
@@ -16714,7 +16714,7 @@
     </row>
     <row r="5" spans="1:25" ht="165" customHeight="1">
       <c r="A5" s="155" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B5" s="148"/>
       <c r="C5" s="148"/>
@@ -16741,7 +16741,7 @@
     </row>
     <row r="6" spans="1:25" ht="23" customHeight="1">
       <c r="A6" s="114" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B6" s="164"/>
       <c r="C6" s="165"/>
@@ -16775,7 +16775,7 @@
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="126" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
@@ -16785,7 +16785,7 @@
     </row>
     <row r="9" spans="1:25" ht="63" customHeight="1" thickBot="1">
       <c r="A9" s="166" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B9" s="166"/>
       <c r="C9" s="166"/>
@@ -16837,7 +16837,7 @@
     </row>
     <row r="12" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="126" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
@@ -16849,7 +16849,7 @@
     </row>
     <row r="13" spans="1:25" ht="63" customHeight="1" thickBot="1">
       <c r="A13" s="166" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B13" s="166"/>
       <c r="C13" s="166"/>
@@ -16923,7 +16923,7 @@
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1">
       <c r="A17" s="152" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B17" s="153"/>
       <c r="C17" s="153"/>
@@ -17037,12 +17037,12 @@
     </row>
     <row r="24" spans="1:23" ht="33.75" customHeight="1" thickBot="1">
       <c r="A24" s="74" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B24" s="145"/>
       <c r="C24" s="145"/>
       <c r="D24" s="75" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="6"/>
@@ -17054,7 +17054,7 @@
       <c r="B25" s="145"/>
       <c r="C25" s="145"/>
       <c r="D25" s="129" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="117"/>
@@ -17097,7 +17097,7 @@
     </row>
     <row r="29" spans="1:23" ht="31.5" customHeight="1">
       <c r="A29" s="114" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B29" s="146">
         <f>SUM(B21:B28)</f>
@@ -17108,7 +17108,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="113" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
@@ -17218,7 +17218,7 @@
     </row>
     <row r="5" spans="1:25" ht="165" customHeight="1">
       <c r="A5" s="155" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B5" s="148"/>
       <c r="C5" s="148"/>
@@ -17245,7 +17245,7 @@
     </row>
     <row r="6" spans="1:25" ht="22.5" customHeight="1">
       <c r="A6" s="114" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B6" s="164"/>
       <c r="C6" s="167"/>
@@ -17280,7 +17280,7 @@
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="126" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
@@ -17290,7 +17290,7 @@
     </row>
     <row r="9" spans="1:25" ht="63" customHeight="1" thickBot="1">
       <c r="A9" s="166" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B9" s="166"/>
       <c r="C9" s="166"/>
@@ -17342,7 +17342,7 @@
     </row>
     <row r="12" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="126" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
@@ -17354,7 +17354,7 @@
     </row>
     <row r="13" spans="1:25" ht="63" customHeight="1" thickBot="1">
       <c r="A13" s="166" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B13" s="166"/>
       <c r="C13" s="166"/>
@@ -17428,7 +17428,7 @@
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1">
       <c r="A17" s="152" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B17" s="153"/>
       <c r="C17" s="153"/>
@@ -17542,12 +17542,12 @@
     </row>
     <row r="24" spans="1:23" ht="33.75" customHeight="1" thickBot="1">
       <c r="A24" s="74" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B24" s="145"/>
       <c r="C24" s="145"/>
       <c r="D24" s="75" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="6"/>
@@ -17559,7 +17559,7 @@
       <c r="B25" s="145"/>
       <c r="C25" s="145"/>
       <c r="D25" s="128" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="117"/>
@@ -17602,7 +17602,7 @@
     </row>
     <row r="29" spans="1:23" ht="31.5" customHeight="1">
       <c r="A29" s="114" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B29" s="146">
         <f>SUM(B21:B28)</f>
@@ -17613,7 +17613,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="113" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
@@ -17723,7 +17723,7 @@
     </row>
     <row r="5" spans="1:25" ht="165" customHeight="1">
       <c r="A5" s="155" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B5" s="148"/>
       <c r="C5" s="148"/>
@@ -17750,7 +17750,7 @@
     </row>
     <row r="6" spans="1:25" ht="22.5" customHeight="1">
       <c r="A6" s="114" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B6" s="164"/>
       <c r="C6" s="165"/>
@@ -17785,7 +17785,7 @@
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="126" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
@@ -17795,7 +17795,7 @@
     </row>
     <row r="9" spans="1:25" ht="63" customHeight="1" thickBot="1">
       <c r="A9" s="166" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B9" s="166"/>
       <c r="C9" s="166"/>
@@ -17847,7 +17847,7 @@
     </row>
     <row r="12" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="126" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
@@ -17859,7 +17859,7 @@
     </row>
     <row r="13" spans="1:25" ht="63" customHeight="1" thickBot="1">
       <c r="A13" s="166" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B13" s="166"/>
       <c r="C13" s="166"/>
@@ -17933,7 +17933,7 @@
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1">
       <c r="A17" s="152" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B17" s="153"/>
       <c r="C17" s="153"/>
@@ -18048,12 +18048,12 @@
     </row>
     <row r="24" spans="1:23" ht="33.75" customHeight="1" thickBot="1">
       <c r="A24" s="74" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B24" s="145"/>
       <c r="C24" s="145"/>
       <c r="D24" s="75" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="6"/>
@@ -18065,7 +18065,7 @@
       <c r="B25" s="145"/>
       <c r="C25" s="145"/>
       <c r="D25" s="129" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="117"/>
@@ -18108,7 +18108,7 @@
     </row>
     <row r="29" spans="1:23" ht="31.5" customHeight="1">
       <c r="A29" s="114" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B29" s="146">
         <f>SUM(B21:B28)</f>
@@ -18119,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="113" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
@@ -18229,7 +18229,7 @@
     </row>
     <row r="5" spans="1:25" ht="165" customHeight="1">
       <c r="A5" s="155" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B5" s="148"/>
       <c r="C5" s="148"/>
@@ -18256,7 +18256,7 @@
     </row>
     <row r="6" spans="1:25" ht="22.5" customHeight="1">
       <c r="A6" s="114" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B6" s="164"/>
       <c r="C6" s="165"/>
@@ -18291,7 +18291,7 @@
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="126" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
@@ -18301,7 +18301,7 @@
     </row>
     <row r="9" spans="1:25" ht="63" customHeight="1" thickBot="1">
       <c r="A9" s="166" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B9" s="166"/>
       <c r="C9" s="166"/>
@@ -18353,7 +18353,7 @@
     </row>
     <row r="12" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="126" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
@@ -18365,7 +18365,7 @@
     </row>
     <row r="13" spans="1:25" ht="63" customHeight="1" thickBot="1">
       <c r="A13" s="166" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B13" s="166"/>
       <c r="C13" s="166"/>
@@ -18439,7 +18439,7 @@
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1">
       <c r="A17" s="152" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B17" s="153"/>
       <c r="C17" s="153"/>
@@ -18553,12 +18553,12 @@
     </row>
     <row r="24" spans="1:23" ht="33.75" customHeight="1" thickBot="1">
       <c r="A24" s="74" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B24" s="145"/>
       <c r="C24" s="145"/>
       <c r="D24" s="75" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="6"/>
@@ -18570,7 +18570,7 @@
       <c r="B25" s="145"/>
       <c r="C25" s="145"/>
       <c r="D25" s="129" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="117"/>
@@ -18613,7 +18613,7 @@
     </row>
     <row r="29" spans="1:23" ht="31.5" customHeight="1">
       <c r="A29" s="114" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B29" s="146">
         <f>SUM(B21:B28)</f>
@@ -18624,7 +18624,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="113" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
@@ -18734,7 +18734,7 @@
     </row>
     <row r="5" spans="1:25" ht="165" customHeight="1">
       <c r="A5" s="155" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B5" s="148"/>
       <c r="C5" s="148"/>
@@ -18761,7 +18761,7 @@
     </row>
     <row r="6" spans="1:25" ht="22.5" customHeight="1">
       <c r="A6" s="114" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B6" s="164"/>
       <c r="C6" s="165"/>
@@ -18796,7 +18796,7 @@
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="126" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
@@ -18806,7 +18806,7 @@
     </row>
     <row r="9" spans="1:25" ht="63" customHeight="1" thickBot="1">
       <c r="A9" s="166" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B9" s="166"/>
       <c r="C9" s="166"/>
@@ -18858,7 +18858,7 @@
     </row>
     <row r="12" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="126" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
@@ -18870,7 +18870,7 @@
     </row>
     <row r="13" spans="1:25" ht="63" customHeight="1" thickBot="1">
       <c r="A13" s="166" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B13" s="166"/>
       <c r="C13" s="166"/>
@@ -18944,7 +18944,7 @@
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1">
       <c r="A17" s="152" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B17" s="153"/>
       <c r="C17" s="153"/>
@@ -19058,12 +19058,12 @@
     </row>
     <row r="24" spans="1:23" ht="33.75" customHeight="1" thickBot="1">
       <c r="A24" s="74" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B24" s="145"/>
       <c r="C24" s="145"/>
       <c r="D24" s="75" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="6"/>
@@ -19075,7 +19075,7 @@
       <c r="B25" s="145"/>
       <c r="C25" s="145"/>
       <c r="D25" s="129" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="117"/>
@@ -19118,7 +19118,7 @@
     </row>
     <row r="29" spans="1:23" ht="31.5" customHeight="1">
       <c r="A29" s="114" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B29" s="146">
         <f>SUM(B21:B28)</f>
@@ -19129,7 +19129,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="113" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
@@ -19239,7 +19239,7 @@
     </row>
     <row r="5" spans="1:25" ht="165" customHeight="1">
       <c r="A5" s="155" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B5" s="148"/>
       <c r="C5" s="148"/>
@@ -19266,7 +19266,7 @@
     </row>
     <row r="6" spans="1:25" ht="22.5" customHeight="1">
       <c r="A6" s="114" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B6" s="164"/>
       <c r="C6" s="167"/>
@@ -19301,7 +19301,7 @@
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="126" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
@@ -19311,7 +19311,7 @@
     </row>
     <row r="9" spans="1:25" ht="63" customHeight="1" thickBot="1">
       <c r="A9" s="166" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B9" s="166"/>
       <c r="C9" s="166"/>
@@ -19363,7 +19363,7 @@
     </row>
     <row r="12" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="126" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
@@ -19375,7 +19375,7 @@
     </row>
     <row r="13" spans="1:25" ht="63" customHeight="1" thickBot="1">
       <c r="A13" s="166" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B13" s="166"/>
       <c r="C13" s="166"/>
@@ -19449,7 +19449,7 @@
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1">
       <c r="A17" s="152" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B17" s="153"/>
       <c r="C17" s="153"/>
@@ -19563,12 +19563,12 @@
     </row>
     <row r="24" spans="1:23" ht="33.75" customHeight="1" thickBot="1">
       <c r="A24" s="74" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B24" s="145"/>
       <c r="C24" s="145"/>
       <c r="D24" s="75" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="6"/>
@@ -19580,7 +19580,7 @@
       <c r="B25" s="145"/>
       <c r="C25" s="145"/>
       <c r="D25" s="129" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="117"/>
@@ -19623,7 +19623,7 @@
     </row>
     <row r="29" spans="1:23" ht="31.5" customHeight="1">
       <c r="A29" s="114" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B29" s="146">
         <f>SUM(B21:B28)</f>
@@ -19634,7 +19634,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="113" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
@@ -19744,7 +19744,7 @@
     </row>
     <row r="5" spans="1:25" ht="165" customHeight="1">
       <c r="A5" s="155" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B5" s="148"/>
       <c r="C5" s="148"/>
@@ -19771,7 +19771,7 @@
     </row>
     <row r="6" spans="1:25" ht="22.5" customHeight="1">
       <c r="A6" s="114" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B6" s="164"/>
       <c r="C6" s="167"/>
@@ -19806,7 +19806,7 @@
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="126" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
@@ -19816,7 +19816,7 @@
     </row>
     <row r="9" spans="1:25" ht="63" customHeight="1" thickBot="1">
       <c r="A9" s="166" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B9" s="166"/>
       <c r="C9" s="166"/>
@@ -19868,7 +19868,7 @@
     </row>
     <row r="12" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="126" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
@@ -19880,7 +19880,7 @@
     </row>
     <row r="13" spans="1:25" ht="63" customHeight="1" thickBot="1">
       <c r="A13" s="166" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B13" s="166"/>
       <c r="C13" s="166"/>
@@ -19954,7 +19954,7 @@
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1">
       <c r="A17" s="152" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B17" s="153"/>
       <c r="C17" s="153"/>
@@ -20068,12 +20068,12 @@
     </row>
     <row r="24" spans="1:23" ht="33.75" customHeight="1" thickBot="1">
       <c r="A24" s="74" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B24" s="145"/>
       <c r="C24" s="145"/>
       <c r="D24" s="75" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="6"/>
@@ -20085,7 +20085,7 @@
       <c r="B25" s="145"/>
       <c r="C25" s="145"/>
       <c r="D25" s="129" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="117"/>
@@ -20128,7 +20128,7 @@
     </row>
     <row r="29" spans="1:23" ht="31.5" customHeight="1">
       <c r="A29" s="114" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B29" s="146">
         <f>SUM(B21:B28)</f>
@@ -20139,7 +20139,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="113" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
@@ -20249,7 +20249,7 @@
     </row>
     <row r="5" spans="1:25" ht="165" customHeight="1">
       <c r="A5" s="155" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B5" s="148"/>
       <c r="C5" s="148"/>
@@ -20276,7 +20276,7 @@
     </row>
     <row r="6" spans="1:25" ht="22.5" customHeight="1">
       <c r="A6" s="114" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B6" s="164"/>
       <c r="C6" s="167"/>
@@ -20311,7 +20311,7 @@
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="126" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
@@ -20321,7 +20321,7 @@
     </row>
     <row r="9" spans="1:25" ht="63" customHeight="1" thickBot="1">
       <c r="A9" s="166" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B9" s="166"/>
       <c r="C9" s="166"/>
@@ -20373,7 +20373,7 @@
     </row>
     <row r="12" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="126" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
@@ -20385,7 +20385,7 @@
     </row>
     <row r="13" spans="1:25" ht="63" customHeight="1" thickBot="1">
       <c r="A13" s="166" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B13" s="166"/>
       <c r="C13" s="166"/>
@@ -20459,7 +20459,7 @@
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1">
       <c r="A17" s="152" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B17" s="153"/>
       <c r="C17" s="153"/>
@@ -20573,12 +20573,12 @@
     </row>
     <row r="24" spans="1:23" ht="33.75" customHeight="1" thickBot="1">
       <c r="A24" s="74" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B24" s="145"/>
       <c r="C24" s="145"/>
       <c r="D24" s="75" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="6"/>
@@ -20590,7 +20590,7 @@
       <c r="B25" s="145"/>
       <c r="C25" s="145"/>
       <c r="D25" s="129" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="117"/>
@@ -20633,7 +20633,7 @@
     </row>
     <row r="29" spans="1:23" ht="31.5" customHeight="1">
       <c r="A29" s="114" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B29" s="146">
         <f>SUM(B21:B28)</f>
@@ -20644,7 +20644,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="113" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>

--- a/data/imports/mrss-export.xlsx
+++ b/data/imports/mrss-export.xlsx
@@ -5690,8 +5690,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="0\%"/>
+    <numFmt numFmtId="167" formatCode="0.00\%\ "/>
   </numFmts>
   <fonts count="53" x14ac:knownFonts="1">
     <font>
@@ -6021,12 +6023,14 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="28"/>
@@ -6460,10 +6464,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6562,7 +6563,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6577,14 +6578,11 @@
     <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6592,14 +6590,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6607,13 +6605,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
@@ -6623,13 +6621,10 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6659,7 +6654,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -7614,7 +7618,7 @@
   <dimension ref="A1:Y467"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7630,11 +7634,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -7656,11 +7660,11 @@
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="173" t="s">
         <v>1037</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="12"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -7670,11 +7674,11 @@
       <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:25" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="175" t="s">
+      <c r="A4" s="173" t="s">
         <v>1038</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="85"/>
       <c r="E4" s="89"/>
       <c r="F4" s="30"/>
@@ -7711,11 +7715,11 @@
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:25" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="177" t="s">
+      <c r="A6" s="175" t="s">
         <v>804</v>
       </c>
-      <c r="B6" s="177"/>
-      <c r="C6" s="149" t="s">
+      <c r="B6" s="175"/>
+      <c r="C6" s="148" t="s">
         <v>694</v>
       </c>
       <c r="D6" s="4"/>
@@ -7742,11 +7746,11 @@
       <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="1:25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="175" t="s">
+      <c r="A7" s="173" t="s">
         <v>1036</v>
       </c>
-      <c r="B7" s="175"/>
-      <c r="C7" s="175"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="85"/>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
@@ -7778,11 +7782,11 @@
       <c r="C8" s="103"/>
     </row>
     <row r="9" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="136" t="s">
+      <c r="A9" s="135" t="s">
         <v>276</v>
       </c>
-      <c r="B9" s="157"/>
-      <c r="C9" s="132" t="s">
+      <c r="B9" s="156"/>
+      <c r="C9" s="131" t="s">
         <v>983</v>
       </c>
       <c r="D9" s="19" t="s">
@@ -7795,11 +7799,11 @@
       <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:25" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="135" t="s">
         <v>1056</v>
       </c>
-      <c r="B10" s="158"/>
-      <c r="C10" s="132" t="s">
+      <c r="B10" s="157"/>
+      <c r="C10" s="131" t="s">
         <v>984</v>
       </c>
       <c r="D10" s="19" t="s">
@@ -7812,11 +7816,11 @@
       <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:25" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="135" t="s">
         <v>1057</v>
       </c>
-      <c r="B11" s="158"/>
-      <c r="C11" s="132" t="s">
+      <c r="B11" s="157"/>
+      <c r="C11" s="131" t="s">
         <v>985</v>
       </c>
       <c r="D11" s="19" t="s">
@@ -7832,15 +7836,15 @@
       <c r="A12" s="83" t="s">
         <v>252</v>
       </c>
-      <c r="B12" s="159"/>
+      <c r="B12" s="158"/>
       <c r="C12" s="103"/>
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="136" t="s">
+      <c r="A13" s="135" t="s">
         <v>276</v>
       </c>
-      <c r="B13" s="157"/>
-      <c r="C13" s="133" t="s">
+      <c r="B13" s="156"/>
+      <c r="C13" s="132" t="s">
         <v>986</v>
       </c>
       <c r="D13" s="19" t="s">
@@ -7853,11 +7857,11 @@
       <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:25" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="136" t="s">
+      <c r="A14" s="135" t="s">
         <v>1058</v>
       </c>
-      <c r="B14" s="158"/>
-      <c r="C14" s="133" t="s">
+      <c r="B14" s="157"/>
+      <c r="C14" s="132" t="s">
         <v>987</v>
       </c>
       <c r="D14" s="19" t="s">
@@ -7870,11 +7874,11 @@
       <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:25" ht="93.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="136" t="s">
+      <c r="A15" s="135" t="s">
         <v>1057</v>
       </c>
-      <c r="B15" s="158"/>
-      <c r="C15" s="133" t="s">
+      <c r="B15" s="157"/>
+      <c r="C15" s="132" t="s">
         <v>988</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -7890,7 +7894,7 @@
       <c r="A16" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="B16" s="160"/>
+      <c r="B16" s="159"/>
       <c r="C16" s="106"/>
       <c r="D16" s="4"/>
       <c r="E16" s="30"/>
@@ -7945,11 +7949,11 @@
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="1:25" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="136" t="s">
+      <c r="A18" s="135" t="s">
         <v>276</v>
       </c>
-      <c r="B18" s="157"/>
-      <c r="C18" s="133" t="s">
+      <c r="B18" s="156"/>
+      <c r="C18" s="132" t="s">
         <v>278</v>
       </c>
       <c r="D18" s="19" t="s">
@@ -7962,11 +7966,11 @@
       <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:25" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="136" t="s">
+      <c r="A19" s="135" t="s">
         <v>277</v>
       </c>
-      <c r="B19" s="158"/>
-      <c r="C19" s="133" t="s">
+      <c r="B19" s="157"/>
+      <c r="C19" s="132" t="s">
         <v>989</v>
       </c>
       <c r="D19" s="19" t="s">
@@ -7979,11 +7983,11 @@
       <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:25" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="134" t="s">
+      <c r="A20" s="133" t="s">
         <v>257</v>
       </c>
-      <c r="B20" s="157"/>
-      <c r="C20" s="133" t="s">
+      <c r="B20" s="156"/>
+      <c r="C20" s="132" t="s">
         <v>278</v>
       </c>
       <c r="D20" s="19" t="s">
@@ -7996,11 +8000,11 @@
       <c r="I20" s="19"/>
     </row>
     <row r="21" spans="1:25" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="136" t="s">
+      <c r="A21" s="135" t="s">
         <v>291</v>
       </c>
-      <c r="B21" s="158"/>
-      <c r="C21" s="133" t="s">
+      <c r="B21" s="157"/>
+      <c r="C21" s="132" t="s">
         <v>989</v>
       </c>
       <c r="D21" s="19" t="s">
@@ -8013,11 +8017,11 @@
       <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:25" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="136" t="s">
+      <c r="A22" s="135" t="s">
         <v>746</v>
       </c>
-      <c r="B22" s="157"/>
-      <c r="C22" s="132" t="s">
+      <c r="B22" s="156"/>
+      <c r="C22" s="131" t="s">
         <v>777</v>
       </c>
       <c r="D22" s="19" t="s">
@@ -8042,11 +8046,11 @@
       <c r="J23" s="12"/>
     </row>
     <row r="24" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="173" t="s">
+      <c r="A24" s="170" t="s">
         <v>940</v>
       </c>
-      <c r="B24" s="180"/>
-      <c r="C24" s="180"/>
+      <c r="B24" s="171"/>
+      <c r="C24" s="171"/>
       <c r="D24" s="4"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
@@ -8127,12 +8131,12 @@
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:25" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="178" t="s">
+      <c r="A27" s="166" t="s">
         <v>805</v>
       </c>
-      <c r="B27" s="179"/>
-      <c r="C27" s="179"/>
-      <c r="D27" s="179"/>
+      <c r="B27" s="167"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="167"/>
       <c r="E27" s="88"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -8325,10 +8329,10 @@
       <c r="J38" s="12"/>
     </row>
     <row r="39" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="173" t="s">
+      <c r="A39" s="170" t="s">
         <v>289</v>
       </c>
-      <c r="B39" s="180"/>
+      <c r="B39" s="171"/>
       <c r="C39" s="102" t="s">
         <v>694</v>
       </c>
@@ -8388,8 +8392,8 @@
       <c r="A41" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="170"/>
-      <c r="C41" s="171"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="169"/>
       <c r="D41" s="91"/>
       <c r="E41" s="91"/>
       <c r="F41" s="91"/>
@@ -8399,11 +8403,11 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="137" t="s">
+      <c r="A42" s="136" t="s">
         <v>249</v>
       </c>
-      <c r="B42" s="157"/>
-      <c r="C42" s="133" t="s">
+      <c r="B42" s="156"/>
+      <c r="C42" s="132" t="s">
         <v>91</v>
       </c>
       <c r="D42" s="19"/>
@@ -8414,11 +8418,11 @@
       <c r="I42" s="19"/>
     </row>
     <row r="43" spans="1:25" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="137" t="s">
+      <c r="A43" s="136" t="s">
         <v>746</v>
       </c>
-      <c r="B43" s="157"/>
-      <c r="C43" s="133" t="s">
+      <c r="B43" s="156"/>
+      <c r="C43" s="132" t="s">
         <v>731</v>
       </c>
       <c r="D43" s="19" t="s">
@@ -8431,11 +8435,11 @@
       <c r="I43" s="19"/>
     </row>
     <row r="44" spans="1:25" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="137" t="s">
+      <c r="A44" s="136" t="s">
         <v>230</v>
       </c>
-      <c r="B44" s="161"/>
-      <c r="C44" s="133" t="s">
+      <c r="B44" s="160"/>
+      <c r="C44" s="132" t="s">
         <v>990</v>
       </c>
       <c r="D44" s="19" t="s">
@@ -8448,11 +8452,11 @@
       <c r="I44" s="19"/>
     </row>
     <row r="45" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="137" t="s">
+      <c r="A45" s="136" t="s">
         <v>221</v>
       </c>
-      <c r="B45" s="162"/>
-      <c r="C45" s="133" t="s">
+      <c r="B45" s="161"/>
+      <c r="C45" s="132" t="s">
         <v>748</v>
       </c>
       <c r="D45" s="19" t="s">
@@ -8468,8 +8472,8 @@
       <c r="A46" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B46" s="163"/>
-      <c r="C46" s="125"/>
+      <c r="B46" s="162"/>
+      <c r="C46" s="124"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
@@ -8478,11 +8482,11 @@
       <c r="I46" s="19"/>
     </row>
     <row r="47" spans="1:25" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="137" t="s">
+      <c r="A47" s="136" t="s">
         <v>249</v>
       </c>
-      <c r="B47" s="162"/>
-      <c r="C47" s="133" t="s">
+      <c r="B47" s="161"/>
+      <c r="C47" s="132" t="s">
         <v>89</v>
       </c>
       <c r="D47" s="19"/>
@@ -8493,11 +8497,11 @@
       <c r="I47" s="19"/>
     </row>
     <row r="48" spans="1:25" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="137" t="s">
+      <c r="A48" s="136" t="s">
         <v>746</v>
       </c>
-      <c r="B48" s="162"/>
-      <c r="C48" s="133" t="s">
+      <c r="B48" s="161"/>
+      <c r="C48" s="132" t="s">
         <v>732</v>
       </c>
       <c r="D48" s="19" t="s">
@@ -8510,11 +8514,11 @@
       <c r="I48" s="19"/>
     </row>
     <row r="49" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="137" t="s">
+      <c r="A49" s="136" t="s">
         <v>227</v>
       </c>
-      <c r="B49" s="161"/>
-      <c r="C49" s="133" t="s">
+      <c r="B49" s="160"/>
+      <c r="C49" s="132" t="s">
         <v>991</v>
       </c>
       <c r="D49" s="19" t="s">
@@ -8527,11 +8531,11 @@
       <c r="I49" s="19"/>
     </row>
     <row r="50" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="137" t="s">
+      <c r="A50" s="136" t="s">
         <v>221</v>
       </c>
-      <c r="B50" s="162"/>
-      <c r="C50" s="132" t="s">
+      <c r="B50" s="161"/>
+      <c r="C50" s="131" t="s">
         <v>749</v>
       </c>
       <c r="D50" s="19" t="s">
@@ -8544,11 +8548,11 @@
       <c r="I50" s="19"/>
     </row>
     <row r="51" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="138" t="s">
+      <c r="A51" s="137" t="s">
         <v>1041</v>
       </c>
-      <c r="B51" s="170"/>
-      <c r="C51" s="171"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="169"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
       <c r="F51" s="19"/>
@@ -8557,11 +8561,11 @@
       <c r="I51" s="19"/>
     </row>
     <row r="52" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="137" t="s">
+      <c r="A52" s="136" t="s">
         <v>249</v>
       </c>
-      <c r="B52" s="162"/>
-      <c r="C52" s="132" t="s">
+      <c r="B52" s="161"/>
+      <c r="C52" s="131" t="s">
         <v>87</v>
       </c>
       <c r="D52" s="19"/>
@@ -8572,11 +8576,11 @@
       <c r="I52" s="19"/>
     </row>
     <row r="53" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="137" t="s">
+      <c r="A53" s="136" t="s">
         <v>746</v>
       </c>
-      <c r="B53" s="162"/>
-      <c r="C53" s="133" t="s">
+      <c r="B53" s="161"/>
+      <c r="C53" s="132" t="s">
         <v>733</v>
       </c>
       <c r="D53" s="19" t="s">
@@ -8589,11 +8593,11 @@
       <c r="I53" s="19"/>
     </row>
     <row r="54" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="137" t="s">
+      <c r="A54" s="136" t="s">
         <v>228</v>
       </c>
-      <c r="B54" s="161"/>
-      <c r="C54" s="133" t="s">
+      <c r="B54" s="160"/>
+      <c r="C54" s="132" t="s">
         <v>992</v>
       </c>
       <c r="D54" s="19" t="s">
@@ -8606,11 +8610,11 @@
       <c r="I54" s="19"/>
     </row>
     <row r="55" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="137" t="s">
+      <c r="A55" s="136" t="s">
         <v>979</v>
       </c>
-      <c r="B55" s="161"/>
-      <c r="C55" s="133" t="s">
+      <c r="B55" s="160"/>
+      <c r="C55" s="132" t="s">
         <v>159</v>
       </c>
       <c r="D55" s="19" t="s">
@@ -8623,11 +8627,11 @@
       <c r="I55" s="19"/>
     </row>
     <row r="56" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="137" t="s">
+      <c r="A56" s="136" t="s">
         <v>221</v>
       </c>
-      <c r="B56" s="162"/>
-      <c r="C56" s="132" t="s">
+      <c r="B56" s="161"/>
+      <c r="C56" s="131" t="s">
         <v>750</v>
       </c>
       <c r="D56" s="19" t="s">
@@ -8643,8 +8647,8 @@
       <c r="A57" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="B57" s="170"/>
-      <c r="C57" s="171"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="169"/>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
       <c r="F57" s="19"/>
@@ -8653,11 +8657,11 @@
       <c r="I57" s="19"/>
     </row>
     <row r="58" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="137" t="s">
+      <c r="A58" s="136" t="s">
         <v>249</v>
       </c>
-      <c r="B58" s="162"/>
-      <c r="C58" s="132" t="s">
+      <c r="B58" s="161"/>
+      <c r="C58" s="131" t="s">
         <v>85</v>
       </c>
       <c r="D58" s="19"/>
@@ -8668,11 +8672,11 @@
       <c r="I58" s="19"/>
     </row>
     <row r="59" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="137" t="s">
+      <c r="A59" s="136" t="s">
         <v>746</v>
       </c>
-      <c r="B59" s="162"/>
-      <c r="C59" s="133" t="s">
+      <c r="B59" s="161"/>
+      <c r="C59" s="132" t="s">
         <v>734</v>
       </c>
       <c r="D59" s="19" t="s">
@@ -8685,11 +8689,11 @@
       <c r="I59" s="19"/>
     </row>
     <row r="60" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="137" t="s">
+      <c r="A60" s="136" t="s">
         <v>231</v>
       </c>
-      <c r="B60" s="161"/>
-      <c r="C60" s="133" t="s">
+      <c r="B60" s="160"/>
+      <c r="C60" s="132" t="s">
         <v>993</v>
       </c>
       <c r="D60" s="19" t="s">
@@ -8702,11 +8706,11 @@
       <c r="I60" s="19"/>
     </row>
     <row r="61" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="137" t="s">
+      <c r="A61" s="136" t="s">
         <v>980</v>
       </c>
-      <c r="B61" s="161"/>
-      <c r="C61" s="133" t="s">
+      <c r="B61" s="160"/>
+      <c r="C61" s="132" t="s">
         <v>160</v>
       </c>
       <c r="D61" s="19" t="s">
@@ -8719,11 +8723,11 @@
       <c r="I61" s="19"/>
     </row>
     <row r="62" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="137" t="s">
+      <c r="A62" s="136" t="s">
         <v>221</v>
       </c>
-      <c r="B62" s="162"/>
-      <c r="C62" s="132" t="s">
+      <c r="B62" s="161"/>
+      <c r="C62" s="131" t="s">
         <v>751</v>
       </c>
       <c r="D62" s="19" t="s">
@@ -8739,8 +8743,8 @@
       <c r="A63" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="B63" s="170"/>
-      <c r="C63" s="171"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="169"/>
       <c r="D63" s="39"/>
       <c r="E63" s="39"/>
       <c r="F63" s="39"/>
@@ -8750,11 +8754,11 @@
       <c r="J63" s="20"/>
     </row>
     <row r="64" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="137" t="s">
+      <c r="A64" s="136" t="s">
         <v>249</v>
       </c>
-      <c r="B64" s="162"/>
-      <c r="C64" s="133" t="s">
+      <c r="B64" s="161"/>
+      <c r="C64" s="132" t="s">
         <v>84</v>
       </c>
       <c r="D64" s="19"/>
@@ -8765,11 +8769,11 @@
       <c r="I64" s="19"/>
     </row>
     <row r="65" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="137" t="s">
+      <c r="A65" s="136" t="s">
         <v>258</v>
       </c>
-      <c r="B65" s="162"/>
-      <c r="C65" s="133" t="s">
+      <c r="B65" s="161"/>
+      <c r="C65" s="132" t="s">
         <v>735</v>
       </c>
       <c r="D65" s="19" t="s">
@@ -8782,11 +8786,11 @@
       <c r="I65" s="19"/>
     </row>
     <row r="66" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="137" t="s">
+      <c r="A66" s="136" t="s">
         <v>232</v>
       </c>
-      <c r="B66" s="161"/>
-      <c r="C66" s="133" t="s">
+      <c r="B66" s="160"/>
+      <c r="C66" s="132" t="s">
         <v>994</v>
       </c>
       <c r="D66" s="19" t="s">
@@ -8799,11 +8803,11 @@
       <c r="I66" s="19"/>
     </row>
     <row r="67" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="137" t="s">
+      <c r="A67" s="136" t="s">
         <v>980</v>
       </c>
-      <c r="B67" s="161"/>
-      <c r="C67" s="133" t="s">
+      <c r="B67" s="160"/>
+      <c r="C67" s="132" t="s">
         <v>207</v>
       </c>
       <c r="D67" s="19" t="s">
@@ -8816,11 +8820,11 @@
       <c r="I67" s="19"/>
     </row>
     <row r="68" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="137" t="s">
+      <c r="A68" s="136" t="s">
         <v>221</v>
       </c>
-      <c r="B68" s="162"/>
-      <c r="C68" s="132" t="s">
+      <c r="B68" s="161"/>
+      <c r="C68" s="131" t="s">
         <v>752</v>
       </c>
       <c r="D68" s="19" t="s">
@@ -8836,8 +8840,8 @@
       <c r="A69" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="B69" s="170"/>
-      <c r="C69" s="171"/>
+      <c r="B69" s="168"/>
+      <c r="C69" s="169"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
@@ -8846,11 +8850,11 @@
       <c r="I69" s="19"/>
     </row>
     <row r="70" spans="1:9" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="137" t="s">
+      <c r="A70" s="136" t="s">
         <v>249</v>
       </c>
-      <c r="B70" s="162"/>
-      <c r="C70" s="133" t="s">
+      <c r="B70" s="161"/>
+      <c r="C70" s="132" t="s">
         <v>142</v>
       </c>
       <c r="D70" s="19"/>
@@ -8861,11 +8865,11 @@
       <c r="I70" s="19"/>
     </row>
     <row r="71" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="137" t="s">
+      <c r="A71" s="136" t="s">
         <v>258</v>
       </c>
-      <c r="B71" s="162"/>
-      <c r="C71" s="133" t="s">
+      <c r="B71" s="161"/>
+      <c r="C71" s="132" t="s">
         <v>736</v>
       </c>
       <c r="D71" s="19" t="s">
@@ -8878,11 +8882,11 @@
       <c r="I71" s="19"/>
     </row>
     <row r="72" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="137" t="s">
+      <c r="A72" s="136" t="s">
         <v>233</v>
       </c>
-      <c r="B72" s="161"/>
-      <c r="C72" s="133" t="s">
+      <c r="B72" s="160"/>
+      <c r="C72" s="132" t="s">
         <v>995</v>
       </c>
       <c r="D72" s="19" t="s">
@@ -8895,11 +8899,11 @@
       <c r="I72" s="19"/>
     </row>
     <row r="73" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="137" t="s">
+      <c r="A73" s="136" t="s">
         <v>980</v>
       </c>
-      <c r="B73" s="161"/>
-      <c r="C73" s="133" t="s">
+      <c r="B73" s="160"/>
+      <c r="C73" s="132" t="s">
         <v>996</v>
       </c>
       <c r="D73" s="19" t="s">
@@ -8912,11 +8916,11 @@
       <c r="I73" s="19"/>
     </row>
     <row r="74" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="137" t="s">
+      <c r="A74" s="136" t="s">
         <v>221</v>
       </c>
-      <c r="B74" s="162"/>
-      <c r="C74" s="133" t="s">
+      <c r="B74" s="161"/>
+      <c r="C74" s="132" t="s">
         <v>753</v>
       </c>
       <c r="D74" s="19" t="s">
@@ -8932,8 +8936,8 @@
       <c r="A75" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="B75" s="170"/>
-      <c r="C75" s="171"/>
+      <c r="B75" s="168"/>
+      <c r="C75" s="169"/>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="19"/>
@@ -8945,8 +8949,8 @@
       <c r="A76" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="B76" s="162"/>
-      <c r="C76" s="133" t="s">
+      <c r="B76" s="161"/>
+      <c r="C76" s="132" t="s">
         <v>81</v>
       </c>
       <c r="D76" s="19"/>
@@ -8960,8 +8964,8 @@
       <c r="A77" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="B77" s="162"/>
-      <c r="C77" s="133" t="s">
+      <c r="B77" s="161"/>
+      <c r="C77" s="132" t="s">
         <v>737</v>
       </c>
       <c r="D77" s="19" t="s">
@@ -8977,8 +8981,8 @@
       <c r="A78" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="B78" s="161"/>
-      <c r="C78" s="133" t="s">
+      <c r="B78" s="160"/>
+      <c r="C78" s="132" t="s">
         <v>997</v>
       </c>
       <c r="D78" s="19" t="s">
@@ -8994,8 +8998,8 @@
       <c r="A79" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="B79" s="157"/>
-      <c r="C79" s="132" t="s">
+      <c r="B79" s="156"/>
+      <c r="C79" s="131" t="s">
         <v>998</v>
       </c>
       <c r="D79" s="19" t="s">
@@ -9008,11 +9012,11 @@
       <c r="I79" s="19"/>
     </row>
     <row r="80" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="138" t="s">
+      <c r="A80" s="137" t="s">
         <v>1040</v>
       </c>
-      <c r="B80" s="170"/>
-      <c r="C80" s="180"/>
+      <c r="B80" s="168"/>
+      <c r="C80" s="171"/>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
@@ -9021,11 +9025,11 @@
       <c r="I80" s="19"/>
     </row>
     <row r="81" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="137" t="s">
+      <c r="A81" s="136" t="s">
         <v>249</v>
       </c>
-      <c r="B81" s="162"/>
-      <c r="C81" s="132" t="s">
+      <c r="B81" s="161"/>
+      <c r="C81" s="131" t="s">
         <v>1024</v>
       </c>
       <c r="D81" s="19"/>
@@ -9036,11 +9040,11 @@
       <c r="I81" s="19"/>
     </row>
     <row r="82" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="137" t="s">
+      <c r="A82" s="136" t="s">
         <v>258</v>
       </c>
-      <c r="B82" s="162"/>
-      <c r="C82" s="133" t="s">
+      <c r="B82" s="161"/>
+      <c r="C82" s="132" t="s">
         <v>738</v>
       </c>
       <c r="D82" s="19" t="s">
@@ -9053,11 +9057,11 @@
       <c r="I82" s="19"/>
     </row>
     <row r="83" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="137" t="s">
+      <c r="A83" s="136" t="s">
         <v>235</v>
       </c>
-      <c r="B83" s="161"/>
-      <c r="C83" s="133" t="s">
+      <c r="B83" s="160"/>
+      <c r="C83" s="132" t="s">
         <v>999</v>
       </c>
       <c r="D83" s="19" t="s">
@@ -9070,11 +9074,11 @@
       <c r="I83" s="19"/>
     </row>
     <row r="84" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="137" t="s">
+      <c r="A84" s="136" t="s">
         <v>980</v>
       </c>
-      <c r="B84" s="161"/>
-      <c r="C84" s="133" t="s">
+      <c r="B84" s="160"/>
+      <c r="C84" s="132" t="s">
         <v>161</v>
       </c>
       <c r="D84" s="19" t="s">
@@ -9087,11 +9091,11 @@
       <c r="I84" s="19"/>
     </row>
     <row r="85" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="137" t="s">
+      <c r="A85" s="136" t="s">
         <v>221</v>
       </c>
-      <c r="B85" s="162"/>
-      <c r="C85" s="132" t="s">
+      <c r="B85" s="161"/>
+      <c r="C85" s="131" t="s">
         <v>754</v>
       </c>
       <c r="D85" s="19" t="s">
@@ -9107,8 +9111,8 @@
       <c r="A86" s="27" t="s">
         <v>774</v>
       </c>
-      <c r="B86" s="170"/>
-      <c r="C86" s="171"/>
+      <c r="B86" s="168"/>
+      <c r="C86" s="169"/>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
       <c r="F86" s="19"/>
@@ -9117,11 +9121,11 @@
       <c r="I86" s="19"/>
     </row>
     <row r="87" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="137" t="s">
+      <c r="A87" s="136" t="s">
         <v>249</v>
       </c>
-      <c r="B87" s="162"/>
-      <c r="C87" s="132" t="s">
+      <c r="B87" s="161"/>
+      <c r="C87" s="131" t="s">
         <v>168</v>
       </c>
       <c r="D87" s="19"/>
@@ -9132,11 +9136,11 @@
       <c r="I87" s="19"/>
     </row>
     <row r="88" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="137" t="s">
+      <c r="A88" s="136" t="s">
         <v>258</v>
       </c>
-      <c r="B88" s="162"/>
-      <c r="C88" s="133" t="s">
+      <c r="B88" s="161"/>
+      <c r="C88" s="132" t="s">
         <v>739</v>
       </c>
       <c r="D88" s="19" t="s">
@@ -9149,11 +9153,11 @@
       <c r="I88" s="19"/>
     </row>
     <row r="89" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="137" t="s">
+      <c r="A89" s="136" t="s">
         <v>236</v>
       </c>
-      <c r="B89" s="161"/>
-      <c r="C89" s="133" t="s">
+      <c r="B89" s="160"/>
+      <c r="C89" s="132" t="s">
         <v>1000</v>
       </c>
       <c r="D89" s="19" t="s">
@@ -9166,11 +9170,11 @@
       <c r="I89" s="19"/>
     </row>
     <row r="90" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="137" t="s">
+      <c r="A90" s="136" t="s">
         <v>980</v>
       </c>
-      <c r="B90" s="161"/>
-      <c r="C90" s="133" t="s">
+      <c r="B90" s="160"/>
+      <c r="C90" s="132" t="s">
         <v>163</v>
       </c>
       <c r="D90" s="19" t="s">
@@ -9183,11 +9187,11 @@
       <c r="I90" s="19"/>
     </row>
     <row r="91" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="137" t="s">
+      <c r="A91" s="136" t="s">
         <v>221</v>
       </c>
-      <c r="B91" s="157"/>
-      <c r="C91" s="132" t="s">
+      <c r="B91" s="156"/>
+      <c r="C91" s="131" t="s">
         <v>755</v>
       </c>
       <c r="D91" s="19" t="s">
@@ -9203,8 +9207,8 @@
       <c r="A92" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="B92" s="170"/>
-      <c r="C92" s="171"/>
+      <c r="B92" s="168"/>
+      <c r="C92" s="169"/>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
@@ -9213,11 +9217,11 @@
       <c r="I92" s="19"/>
     </row>
     <row r="93" spans="1:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="137" t="s">
+      <c r="A93" s="136" t="s">
         <v>249</v>
       </c>
-      <c r="B93" s="157"/>
-      <c r="C93" s="133" t="s">
+      <c r="B93" s="156"/>
+      <c r="C93" s="132" t="s">
         <v>77</v>
       </c>
       <c r="D93" s="19"/>
@@ -9228,11 +9232,11 @@
       <c r="I93" s="19"/>
     </row>
     <row r="94" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="137" t="s">
+      <c r="A94" s="136" t="s">
         <v>258</v>
       </c>
-      <c r="B94" s="162"/>
-      <c r="C94" s="133" t="s">
+      <c r="B94" s="161"/>
+      <c r="C94" s="132" t="s">
         <v>740</v>
       </c>
       <c r="D94" s="19" t="s">
@@ -9245,11 +9249,11 @@
       <c r="I94" s="19"/>
     </row>
     <row r="95" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="137" t="s">
+      <c r="A95" s="136" t="s">
         <v>237</v>
       </c>
-      <c r="B95" s="161"/>
-      <c r="C95" s="133" t="s">
+      <c r="B95" s="160"/>
+      <c r="C95" s="132" t="s">
         <v>1001</v>
       </c>
       <c r="D95" s="19" t="s">
@@ -9262,11 +9266,11 @@
       <c r="I95" s="19"/>
     </row>
     <row r="96" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="137" t="s">
+      <c r="A96" s="136" t="s">
         <v>221</v>
       </c>
-      <c r="B96" s="162"/>
-      <c r="C96" s="132" t="s">
+      <c r="B96" s="161"/>
+      <c r="C96" s="131" t="s">
         <v>756</v>
       </c>
       <c r="D96" s="19" t="s">
@@ -9282,8 +9286,8 @@
       <c r="A97" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="B97" s="170"/>
-      <c r="C97" s="171"/>
+      <c r="B97" s="168"/>
+      <c r="C97" s="169"/>
       <c r="D97" s="19"/>
       <c r="E97" s="19"/>
       <c r="F97" s="19"/>
@@ -9292,11 +9296,11 @@
       <c r="I97" s="19"/>
     </row>
     <row r="98" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="137" t="s">
+      <c r="A98" s="136" t="s">
         <v>249</v>
       </c>
-      <c r="B98" s="162"/>
-      <c r="C98" s="133" t="s">
+      <c r="B98" s="161"/>
+      <c r="C98" s="132" t="s">
         <v>190</v>
       </c>
       <c r="D98" s="19" t="s">
@@ -9309,11 +9313,11 @@
       <c r="I98" s="19"/>
     </row>
     <row r="99" spans="1:25" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="137" t="s">
+      <c r="A99" s="136" t="s">
         <v>258</v>
       </c>
-      <c r="B99" s="162"/>
-      <c r="C99" s="133" t="s">
+      <c r="B99" s="161"/>
+      <c r="C99" s="132" t="s">
         <v>741</v>
       </c>
       <c r="D99" s="19" t="s">
@@ -9326,11 +9330,11 @@
       <c r="I99" s="19"/>
     </row>
     <row r="100" spans="1:25" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="137" t="s">
+      <c r="A100" s="136" t="s">
         <v>238</v>
       </c>
-      <c r="B100" s="161"/>
-      <c r="C100" s="133" t="s">
+      <c r="B100" s="160"/>
+      <c r="C100" s="132" t="s">
         <v>1002</v>
       </c>
       <c r="D100" s="19" t="s">
@@ -9343,11 +9347,11 @@
       <c r="I100" s="19"/>
     </row>
     <row r="101" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="137" t="s">
+      <c r="A101" s="136" t="s">
         <v>980</v>
       </c>
-      <c r="B101" s="161"/>
-      <c r="C101" s="133" t="s">
+      <c r="B101" s="160"/>
+      <c r="C101" s="132" t="s">
         <v>220</v>
       </c>
       <c r="D101" s="19" t="s">
@@ -9360,11 +9364,11 @@
       <c r="I101" s="19"/>
     </row>
     <row r="102" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="137" t="s">
+      <c r="A102" s="136" t="s">
         <v>221</v>
       </c>
-      <c r="B102" s="162"/>
-      <c r="C102" s="132" t="s">
+      <c r="B102" s="161"/>
+      <c r="C102" s="131" t="s">
         <v>757</v>
       </c>
       <c r="D102" s="19" t="s">
@@ -9380,8 +9384,8 @@
       <c r="A103" s="27" t="s">
         <v>1023</v>
       </c>
-      <c r="B103" s="170"/>
-      <c r="C103" s="171"/>
+      <c r="B103" s="168"/>
+      <c r="C103" s="169"/>
       <c r="D103" s="19"/>
       <c r="E103" s="19"/>
       <c r="F103" s="19"/>
@@ -9390,11 +9394,11 @@
       <c r="I103" s="19"/>
     </row>
     <row r="104" spans="1:25" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="137" t="s">
+      <c r="A104" s="136" t="s">
         <v>249</v>
       </c>
-      <c r="B104" s="157"/>
-      <c r="C104" s="133" t="s">
+      <c r="B104" s="156"/>
+      <c r="C104" s="132" t="s">
         <v>189</v>
       </c>
       <c r="D104" s="19"/>
@@ -9405,11 +9409,11 @@
       <c r="I104" s="19"/>
     </row>
     <row r="105" spans="1:25" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="137" t="s">
+      <c r="A105" s="136" t="s">
         <v>746</v>
       </c>
-      <c r="B105" s="162"/>
-      <c r="C105" s="133" t="s">
+      <c r="B105" s="161"/>
+      <c r="C105" s="132" t="s">
         <v>742</v>
       </c>
       <c r="D105" s="19" t="s">
@@ -9422,11 +9426,11 @@
       <c r="I105" s="19"/>
     </row>
     <row r="106" spans="1:25" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="137" t="s">
+      <c r="A106" s="136" t="s">
         <v>1032</v>
       </c>
-      <c r="B106" s="161"/>
-      <c r="C106" s="133" t="s">
+      <c r="B106" s="160"/>
+      <c r="C106" s="132" t="s">
         <v>1003</v>
       </c>
       <c r="D106" s="19" t="s">
@@ -9439,11 +9443,11 @@
       <c r="I106" s="19"/>
     </row>
     <row r="107" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="137" t="s">
+      <c r="A107" s="136" t="s">
         <v>226</v>
       </c>
-      <c r="B107" s="161"/>
-      <c r="C107" s="133" t="s">
+      <c r="B107" s="160"/>
+      <c r="C107" s="132" t="s">
         <v>229</v>
       </c>
       <c r="D107" s="19" t="s">
@@ -9456,11 +9460,11 @@
       <c r="I107" s="19"/>
     </row>
     <row r="108" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="137" t="s">
+      <c r="A108" s="136" t="s">
         <v>221</v>
       </c>
-      <c r="B108" s="162"/>
-      <c r="C108" s="132" t="s">
+      <c r="B108" s="161"/>
+      <c r="C108" s="131" t="s">
         <v>1004</v>
       </c>
       <c r="D108" s="19" t="s">
@@ -9485,11 +9489,11 @@
       <c r="J109" s="12"/>
     </row>
     <row r="110" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="147" t="s">
+      <c r="A110" s="146" t="s">
         <v>290</v>
       </c>
-      <c r="B110" s="126"/>
-      <c r="C110" s="131" t="s">
+      <c r="B110" s="125"/>
+      <c r="C110" s="130" t="s">
         <v>694</v>
       </c>
       <c r="D110" s="4"/>
@@ -9548,8 +9552,8 @@
       <c r="A112" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B112" s="170"/>
-      <c r="C112" s="171"/>
+      <c r="B112" s="168"/>
+      <c r="C112" s="169"/>
       <c r="D112" s="19"/>
       <c r="E112" s="19"/>
       <c r="F112" s="19"/>
@@ -9558,11 +9562,11 @@
       <c r="I112" s="19"/>
     </row>
     <row r="113" spans="1:14" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="136" t="s">
+      <c r="A113" s="135" t="s">
         <v>249</v>
       </c>
-      <c r="B113" s="157"/>
-      <c r="C113" s="133" t="s">
+      <c r="B113" s="156"/>
+      <c r="C113" s="132" t="s">
         <v>72</v>
       </c>
       <c r="D113" s="19"/>
@@ -9573,11 +9577,11 @@
       <c r="I113" s="19"/>
     </row>
     <row r="114" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="137" t="s">
+      <c r="A114" s="136" t="s">
         <v>746</v>
       </c>
-      <c r="B114" s="162"/>
-      <c r="C114" s="133" t="s">
+      <c r="B114" s="161"/>
+      <c r="C114" s="132" t="s">
         <v>743</v>
       </c>
       <c r="D114" s="19" t="s">
@@ -9590,11 +9594,11 @@
       <c r="I114" s="19"/>
     </row>
     <row r="115" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="146" t="s">
+      <c r="A115" s="145" t="s">
         <v>239</v>
       </c>
-      <c r="B115" s="161"/>
-      <c r="C115" s="133" t="s">
+      <c r="B115" s="160"/>
+      <c r="C115" s="132" t="s">
         <v>1005</v>
       </c>
       <c r="D115" s="19" t="s">
@@ -9607,11 +9611,11 @@
       <c r="I115" s="19"/>
     </row>
     <row r="116" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="137" t="s">
+      <c r="A116" s="136" t="s">
         <v>240</v>
       </c>
-      <c r="B116" s="161"/>
-      <c r="C116" s="133" t="s">
+      <c r="B116" s="160"/>
+      <c r="C116" s="132" t="s">
         <v>982</v>
       </c>
       <c r="D116" s="19" t="s">
@@ -9624,11 +9628,11 @@
       <c r="I116" s="19"/>
     </row>
     <row r="117" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="136" t="s">
+      <c r="A117" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="B117" s="157"/>
-      <c r="C117" s="132" t="s">
+      <c r="B117" s="156"/>
+      <c r="C117" s="131" t="s">
         <v>758</v>
       </c>
       <c r="D117" s="19" t="s">
@@ -9644,22 +9648,22 @@
       <c r="A118" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B118" s="170"/>
-      <c r="C118" s="171"/>
+      <c r="B118" s="168"/>
+      <c r="C118" s="169"/>
       <c r="D118" s="19"/>
       <c r="E118" s="19"/>
       <c r="F118" s="19"/>
       <c r="G118" s="19"/>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
-      <c r="N118" s="148"/>
+      <c r="N118" s="147"/>
     </row>
     <row r="119" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="136" t="s">
+      <c r="A119" s="135" t="s">
         <v>249</v>
       </c>
-      <c r="B119" s="157"/>
-      <c r="C119" s="133" t="s">
+      <c r="B119" s="156"/>
+      <c r="C119" s="132" t="s">
         <v>70</v>
       </c>
       <c r="D119" s="19"/>
@@ -9670,11 +9674,11 @@
       <c r="I119" s="19"/>
     </row>
     <row r="120" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="137" t="s">
+      <c r="A120" s="136" t="s">
         <v>746</v>
       </c>
-      <c r="B120" s="162"/>
-      <c r="C120" s="133" t="s">
+      <c r="B120" s="161"/>
+      <c r="C120" s="132" t="s">
         <v>744</v>
       </c>
       <c r="D120" s="19" t="s">
@@ -9687,11 +9691,11 @@
       <c r="I120" s="19"/>
     </row>
     <row r="121" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="137" t="s">
+      <c r="A121" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="B121" s="161"/>
-      <c r="C121" s="133" t="s">
+      <c r="B121" s="160"/>
+      <c r="C121" s="132" t="s">
         <v>1006</v>
       </c>
       <c r="D121" s="19" t="s">
@@ -9704,11 +9708,11 @@
       <c r="I121" s="19"/>
     </row>
     <row r="122" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="136" t="s">
+      <c r="A122" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="B122" s="157"/>
-      <c r="C122" s="132" t="s">
+      <c r="B122" s="156"/>
+      <c r="C122" s="131" t="s">
         <v>759</v>
       </c>
       <c r="D122" s="19" t="s">
@@ -9724,8 +9728,8 @@
       <c r="A123" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B123" s="170"/>
-      <c r="C123" s="171"/>
+      <c r="B123" s="168"/>
+      <c r="C123" s="169"/>
       <c r="D123" s="19"/>
       <c r="E123" s="19"/>
       <c r="F123" s="19"/>
@@ -9734,11 +9738,11 @@
       <c r="I123" s="19"/>
     </row>
     <row r="124" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="136" t="s">
+      <c r="A124" s="135" t="s">
         <v>249</v>
       </c>
-      <c r="B124" s="162"/>
-      <c r="C124" s="139" t="s">
+      <c r="B124" s="161"/>
+      <c r="C124" s="138" t="s">
         <v>775</v>
       </c>
       <c r="D124" s="19"/>
@@ -9749,11 +9753,11 @@
       <c r="I124" s="19"/>
     </row>
     <row r="125" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="137" t="s">
+      <c r="A125" s="136" t="s">
         <v>746</v>
       </c>
-      <c r="B125" s="162"/>
-      <c r="C125" s="133" t="s">
+      <c r="B125" s="161"/>
+      <c r="C125" s="132" t="s">
         <v>745</v>
       </c>
       <c r="D125" s="19" t="s">
@@ -9766,11 +9770,11 @@
       <c r="I125" s="19"/>
     </row>
     <row r="126" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="137" t="s">
+      <c r="A126" s="136" t="s">
         <v>242</v>
       </c>
-      <c r="B126" s="161"/>
-      <c r="C126" s="133" t="s">
+      <c r="B126" s="160"/>
+      <c r="C126" s="132" t="s">
         <v>1007</v>
       </c>
       <c r="D126" s="19" t="s">
@@ -9783,11 +9787,11 @@
       <c r="I126" s="19"/>
     </row>
     <row r="127" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="137" t="s">
+      <c r="A127" s="136" t="s">
         <v>240</v>
       </c>
-      <c r="B127" s="161"/>
-      <c r="C127" s="133" t="s">
+      <c r="B127" s="160"/>
+      <c r="C127" s="132" t="s">
         <v>162</v>
       </c>
       <c r="D127" s="19" t="s">
@@ -9800,11 +9804,11 @@
       <c r="I127" s="19"/>
     </row>
     <row r="128" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="136" t="s">
+      <c r="A128" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="B128" s="157"/>
-      <c r="C128" s="132" t="s">
+      <c r="B128" s="156"/>
+      <c r="C128" s="131" t="s">
         <v>760</v>
       </c>
       <c r="D128" s="19" t="s">
@@ -9829,11 +9833,11 @@
       <c r="J129" s="12"/>
     </row>
     <row r="130" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="147" t="s">
+      <c r="A130" s="146" t="s">
         <v>1060</v>
       </c>
-      <c r="B130" s="127"/>
-      <c r="C130" s="127"/>
+      <c r="B130" s="126"/>
+      <c r="C130" s="126"/>
       <c r="D130" s="4"/>
       <c r="E130" s="30"/>
       <c r="F130" s="30"/>
@@ -9862,7 +9866,7 @@
         <v>254</v>
       </c>
       <c r="B131" s="24"/>
-      <c r="C131" s="143" t="s">
+      <c r="C131" s="142" t="s">
         <v>243</v>
       </c>
       <c r="D131" s="19"/>
@@ -9873,11 +9877,11 @@
       <c r="I131" s="19"/>
     </row>
     <row r="132" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="136" t="s">
+      <c r="A132" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="B132" s="164"/>
-      <c r="C132" s="133" t="s">
+      <c r="B132" s="189"/>
+      <c r="C132" s="132" t="s">
         <v>1008</v>
       </c>
       <c r="D132" s="19" t="s">
@@ -9890,11 +9894,11 @@
       <c r="I132" s="19"/>
     </row>
     <row r="133" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="136" t="s">
+      <c r="A133" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="B133" s="164"/>
-      <c r="C133" s="133" t="s">
+      <c r="B133" s="189"/>
+      <c r="C133" s="132" t="s">
         <v>122</v>
       </c>
       <c r="D133" s="19" t="s">
@@ -9907,11 +9911,11 @@
       <c r="I133" s="19"/>
     </row>
     <row r="134" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="136" t="s">
+      <c r="A134" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="B134" s="164"/>
-      <c r="C134" s="132" t="s">
+      <c r="B134" s="189"/>
+      <c r="C134" s="131" t="s">
         <v>123</v>
       </c>
       <c r="D134" s="19" t="s">
@@ -9928,7 +9932,7 @@
         <v>255</v>
       </c>
       <c r="B135" s="24"/>
-      <c r="C135" s="140"/>
+      <c r="C135" s="139"/>
       <c r="D135" s="19" t="s">
         <v>244</v>
       </c>
@@ -9943,7 +9947,7 @@
         <v>806</v>
       </c>
       <c r="B136" s="38"/>
-      <c r="C136" s="140"/>
+      <c r="C136" s="139"/>
       <c r="D136" s="19"/>
       <c r="E136" s="19"/>
       <c r="F136" s="19"/>
@@ -9952,11 +9956,11 @@
       <c r="I136" s="19"/>
     </row>
     <row r="137" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="137" t="s">
+      <c r="A137" s="136" t="s">
         <v>58</v>
       </c>
-      <c r="B137" s="158"/>
-      <c r="C137" s="133" t="s">
+      <c r="B137" s="157"/>
+      <c r="C137" s="132" t="s">
         <v>121</v>
       </c>
       <c r="D137" s="19" t="s">
@@ -9969,11 +9973,11 @@
       <c r="I137" s="19"/>
     </row>
     <row r="138" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="137" t="s">
+      <c r="A138" s="136" t="s">
         <v>56</v>
       </c>
-      <c r="B138" s="158"/>
-      <c r="C138" s="133" t="s">
+      <c r="B138" s="157"/>
+      <c r="C138" s="132" t="s">
         <v>1009</v>
       </c>
       <c r="D138" s="60" t="s">
@@ -9986,11 +9990,11 @@
       <c r="I138" s="19"/>
     </row>
     <row r="139" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="137" t="s">
+      <c r="A139" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="B139" s="158"/>
-      <c r="C139" s="133" t="s">
+      <c r="B139" s="157"/>
+      <c r="C139" s="132" t="s">
         <v>279</v>
       </c>
       <c r="D139" s="60" t="s">
@@ -10003,11 +10007,11 @@
       <c r="I139" s="19"/>
     </row>
     <row r="140" spans="1:25" ht="81.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="137" t="s">
+      <c r="A140" s="136" t="s">
         <v>803</v>
       </c>
-      <c r="B140" s="158"/>
-      <c r="C140" s="133" t="s">
+      <c r="B140" s="157"/>
+      <c r="C140" s="132" t="s">
         <v>1010</v>
       </c>
       <c r="D140" s="60" t="s">
@@ -10020,11 +10024,11 @@
       <c r="I140" s="19"/>
     </row>
     <row r="141" spans="1:25" ht="47.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="136" t="s">
+      <c r="A141" s="135" t="s">
         <v>245</v>
       </c>
-      <c r="B141" s="165"/>
-      <c r="C141" s="133" t="s">
+      <c r="B141" s="163"/>
+      <c r="C141" s="132" t="s">
         <v>124</v>
       </c>
       <c r="D141" s="19" t="s">
@@ -10037,11 +10041,11 @@
       <c r="I141" s="19"/>
     </row>
     <row r="142" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="136" t="s">
+      <c r="A142" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="B142" s="164"/>
-      <c r="C142" s="132" t="s">
+      <c r="B142" s="189"/>
+      <c r="C142" s="131" t="s">
         <v>126</v>
       </c>
       <c r="D142" s="19" t="s">
@@ -10054,11 +10058,11 @@
       <c r="I142" s="19"/>
     </row>
     <row r="143" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="136" t="s">
+      <c r="A143" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="B143" s="164"/>
-      <c r="C143" s="139" t="s">
+      <c r="B143" s="189"/>
+      <c r="C143" s="138" t="s">
         <v>134</v>
       </c>
       <c r="D143" s="19" t="s">
@@ -10071,11 +10075,11 @@
       <c r="I143" s="19"/>
     </row>
     <row r="144" spans="1:25" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="136" t="s">
+      <c r="A144" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="164"/>
-      <c r="C144" s="133" t="s">
+      <c r="B144" s="189"/>
+      <c r="C144" s="132" t="s">
         <v>127</v>
       </c>
       <c r="D144" s="19" t="s">
@@ -10088,11 +10092,11 @@
       <c r="I144" s="19"/>
     </row>
     <row r="145" spans="1:9" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="136" t="s">
+      <c r="A145" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="B145" s="165"/>
-      <c r="C145" s="133" t="s">
+      <c r="B145" s="163"/>
+      <c r="C145" s="132" t="s">
         <v>1025</v>
       </c>
       <c r="D145" s="19" t="s">
@@ -10105,11 +10109,11 @@
       <c r="I145" s="19"/>
     </row>
     <row r="146" spans="1:9" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="136" t="s">
+      <c r="A146" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="B146" s="165"/>
-      <c r="C146" s="133" t="s">
+      <c r="B146" s="163"/>
+      <c r="C146" s="132" t="s">
         <v>120</v>
       </c>
       <c r="D146" s="19" t="s">
@@ -10122,11 +10126,11 @@
       <c r="I146" s="19"/>
     </row>
     <row r="147" spans="1:9" ht="44.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="136" t="s">
+      <c r="A147" s="135" t="s">
         <v>129</v>
       </c>
-      <c r="B147" s="165"/>
-      <c r="C147" s="133" t="s">
+      <c r="B147" s="163"/>
+      <c r="C147" s="132" t="s">
         <v>119</v>
       </c>
       <c r="D147" s="19" t="s">
@@ -10139,11 +10143,11 @@
       <c r="I147" s="19"/>
     </row>
     <row r="148" spans="1:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="134" t="s">
+      <c r="A148" s="133" t="s">
         <v>280</v>
       </c>
-      <c r="B148" s="165"/>
-      <c r="C148" s="132" t="s">
+      <c r="B148" s="189"/>
+      <c r="C148" s="131" t="s">
         <v>125</v>
       </c>
       <c r="D148" s="19" t="s">
@@ -10156,11 +10160,11 @@
       <c r="I148" s="19"/>
     </row>
     <row r="149" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="136" t="s">
+      <c r="A149" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="B149" s="165"/>
-      <c r="C149" s="139" t="s">
+      <c r="B149" s="163"/>
+      <c r="C149" s="138" t="s">
         <v>1011</v>
       </c>
       <c r="D149" s="19" t="s">
@@ -10199,10 +10203,10 @@
       <c r="I151" s="19"/>
     </row>
     <row r="152" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="136" t="s">
+      <c r="A152" s="135" t="s">
         <v>1052</v>
       </c>
-      <c r="B152" s="164"/>
+      <c r="B152" s="189"/>
       <c r="C152" s="112"/>
       <c r="D152" s="19" t="s">
         <v>38</v>
@@ -10214,10 +10218,10 @@
       <c r="I152" s="19"/>
     </row>
     <row r="153" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="136" t="s">
+      <c r="A153" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="B153" s="164"/>
+      <c r="B153" s="189"/>
       <c r="C153" s="112"/>
       <c r="D153" s="19" t="s">
         <v>36</v>
@@ -10229,10 +10233,10 @@
       <c r="I153" s="19"/>
     </row>
     <row r="154" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="136" t="s">
+      <c r="A154" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="B154" s="164"/>
+      <c r="B154" s="189"/>
       <c r="C154" s="112"/>
       <c r="D154" s="19" t="s">
         <v>34</v>
@@ -10244,10 +10248,10 @@
       <c r="I154" s="19"/>
     </row>
     <row r="155" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="136" t="s">
+      <c r="A155" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="B155" s="164"/>
+      <c r="B155" s="189"/>
       <c r="C155" s="112"/>
       <c r="D155" s="19" t="s">
         <v>32</v>
@@ -10259,10 +10263,10 @@
       <c r="I155" s="19"/>
     </row>
     <row r="156" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="136" t="s">
+      <c r="A156" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="B156" s="164"/>
+      <c r="B156" s="189"/>
       <c r="C156" s="112"/>
       <c r="D156" s="19" t="s">
         <v>30</v>
@@ -10274,10 +10278,10 @@
       <c r="I156" s="19"/>
     </row>
     <row r="157" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="136" t="s">
+      <c r="A157" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="B157" s="164"/>
+      <c r="B157" s="189"/>
       <c r="C157" s="112"/>
       <c r="D157" s="19" t="s">
         <v>28</v>
@@ -10289,10 +10293,10 @@
       <c r="I157" s="19"/>
     </row>
     <row r="158" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="136" t="s">
+      <c r="A158" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B158" s="164"/>
+      <c r="B158" s="189"/>
       <c r="C158" s="112"/>
       <c r="D158" s="19" t="s">
         <v>26</v>
@@ -10304,10 +10308,10 @@
       <c r="I158" s="19"/>
     </row>
     <row r="159" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="136" t="s">
+      <c r="A159" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="B159" s="164"/>
+      <c r="B159" s="189"/>
       <c r="C159" s="112"/>
       <c r="D159" s="19" t="s">
         <v>24</v>
@@ -10319,10 +10323,10 @@
       <c r="I159" s="19"/>
     </row>
     <row r="160" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="136" t="s">
+      <c r="A160" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="B160" s="164"/>
+      <c r="B160" s="189"/>
       <c r="C160" s="112"/>
       <c r="D160" s="19" t="s">
         <v>22</v>
@@ -10347,11 +10351,11 @@
       <c r="I161" s="19"/>
     </row>
     <row r="162" spans="1:9" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="136" t="s">
+      <c r="A162" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="B162" s="157"/>
-      <c r="C162" s="133" t="s">
+      <c r="B162" s="156"/>
+      <c r="C162" s="132" t="s">
         <v>1012</v>
       </c>
       <c r="D162" s="19" t="s">
@@ -10364,11 +10368,11 @@
       <c r="I162" s="19"/>
     </row>
     <row r="163" spans="1:9" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="136" t="s">
+      <c r="A163" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="B163" s="157"/>
-      <c r="C163" s="133" t="s">
+      <c r="B163" s="156"/>
+      <c r="C163" s="132" t="s">
         <v>1026</v>
       </c>
       <c r="D163" s="19" t="s">
@@ -10384,7 +10388,7 @@
       <c r="A164" s="25" t="s">
         <v>1034</v>
       </c>
-      <c r="B164" s="130" t="s">
+      <c r="B164" s="129" t="s">
         <v>1033</v>
       </c>
       <c r="C164" s="29" t="s">
@@ -10414,7 +10418,7 @@
       <c r="A166" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="B166" s="164"/>
+      <c r="B166" s="189"/>
       <c r="C166" s="112" t="s">
         <v>113</v>
       </c>
@@ -10431,7 +10435,7 @@
       <c r="A167" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="B167" s="164"/>
+      <c r="B167" s="189"/>
       <c r="C167" s="111"/>
       <c r="D167" s="19" t="s">
         <v>16</v>
@@ -10446,7 +10450,7 @@
       <c r="A168" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="B168" s="164"/>
+      <c r="B168" s="189"/>
       <c r="C168" s="111"/>
       <c r="D168" s="19" t="s">
         <v>15</v>
@@ -10459,7 +10463,7 @@
     </row>
     <row r="169" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="37"/>
-      <c r="B169" s="166"/>
+      <c r="B169" s="164"/>
       <c r="C169" s="111"/>
       <c r="D169" s="19"/>
       <c r="E169" s="19"/>
@@ -10472,7 +10476,7 @@
       <c r="A170" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B170" s="129"/>
+      <c r="B170" s="128"/>
       <c r="C170" s="111"/>
       <c r="D170" s="19"/>
       <c r="E170" s="19"/>
@@ -10485,7 +10489,7 @@
       <c r="A171" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B171" s="165"/>
+      <c r="B171" s="163"/>
       <c r="C171" s="43" t="s">
         <v>114</v>
       </c>
@@ -10502,7 +10506,7 @@
       <c r="A172" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B172" s="165"/>
+      <c r="B172" s="163"/>
       <c r="C172" s="113" t="s">
         <v>114</v>
       </c>
@@ -10519,7 +10523,7 @@
       <c r="A173" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="B173" s="165"/>
+      <c r="B173" s="163"/>
       <c r="C173" s="113" t="s">
         <v>115</v>
       </c>
@@ -10536,7 +10540,7 @@
       <c r="A174" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B174" s="165"/>
+      <c r="B174" s="163"/>
       <c r="C174" s="114" t="s">
         <v>1062</v>
       </c>
@@ -10553,7 +10557,7 @@
       <c r="A175" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B175" s="165"/>
+      <c r="B175" s="163"/>
       <c r="C175" s="114" t="s">
         <v>1063</v>
       </c>
@@ -10570,7 +10574,7 @@
       <c r="A176" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B176" s="129"/>
+      <c r="B176" s="128"/>
       <c r="C176" s="111"/>
       <c r="D176" s="19"/>
       <c r="E176" s="19"/>
@@ -10583,7 +10587,7 @@
       <c r="A177" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="B177" s="167"/>
+      <c r="B177" s="190"/>
       <c r="C177" s="115"/>
       <c r="D177" s="19" t="s">
         <v>67</v>
@@ -10598,7 +10602,7 @@
       <c r="A178" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B178" s="157"/>
+      <c r="B178" s="156"/>
       <c r="C178" s="115"/>
       <c r="D178" s="19" t="s">
         <v>65</v>
@@ -10624,11 +10628,11 @@
       <c r="J179" s="12"/>
     </row>
     <row r="180" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="173" t="s">
+      <c r="A180" s="170" t="s">
         <v>1045</v>
       </c>
-      <c r="B180" s="174"/>
-      <c r="C180" s="174"/>
+      <c r="B180" s="177"/>
+      <c r="C180" s="177"/>
       <c r="D180" s="4"/>
       <c r="E180" s="30"/>
       <c r="F180" s="30"/>
@@ -10653,11 +10657,11 @@
       <c r="Y180" s="3"/>
     </row>
     <row r="181" spans="1:25" s="62" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="169" t="s">
+      <c r="A181" s="176" t="s">
         <v>283</v>
       </c>
-      <c r="B181" s="169"/>
-      <c r="C181" s="169"/>
+      <c r="B181" s="176"/>
+      <c r="C181" s="176"/>
       <c r="D181" s="93"/>
       <c r="E181" s="94"/>
       <c r="F181" s="94"/>
@@ -10697,11 +10701,11 @@
       <c r="I182" s="19"/>
     </row>
     <row r="183" spans="1:25" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="136" t="s">
+      <c r="A183" s="135" t="s">
         <v>169</v>
       </c>
-      <c r="B183" s="165"/>
-      <c r="C183" s="141" t="s">
+      <c r="B183" s="163"/>
+      <c r="C183" s="140" t="s">
         <v>1042</v>
       </c>
       <c r="D183" s="19" t="s">
@@ -10714,11 +10718,11 @@
       <c r="I183" s="19"/>
     </row>
     <row r="184" spans="1:25" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="136" t="s">
+      <c r="A184" s="135" t="s">
         <v>170</v>
       </c>
-      <c r="B184" s="165"/>
-      <c r="C184" s="142" t="s">
+      <c r="B184" s="163"/>
+      <c r="C184" s="141" t="s">
         <v>1043</v>
       </c>
       <c r="D184" s="19" t="s">
@@ -10731,11 +10735,11 @@
       <c r="I184" s="19"/>
     </row>
     <row r="185" spans="1:25" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="136" t="s">
+      <c r="A185" s="135" t="s">
         <v>171</v>
       </c>
-      <c r="B185" s="165"/>
-      <c r="C185" s="142" t="s">
+      <c r="B185" s="163"/>
+      <c r="C185" s="141" t="s">
         <v>1053</v>
       </c>
       <c r="D185" s="95" t="s">
@@ -10761,11 +10765,11 @@
       <c r="I186" s="19"/>
     </row>
     <row r="187" spans="1:25" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="136" t="s">
+      <c r="A187" s="135" t="s">
         <v>169</v>
       </c>
-      <c r="B187" s="165"/>
-      <c r="C187" s="141" t="s">
+      <c r="B187" s="163"/>
+      <c r="C187" s="140" t="s">
         <v>1044</v>
       </c>
       <c r="D187" s="95" t="s">
@@ -10778,11 +10782,11 @@
       <c r="I187" s="19"/>
     </row>
     <row r="188" spans="1:25" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="136" t="s">
+      <c r="A188" s="135" t="s">
         <v>170</v>
       </c>
-      <c r="B188" s="165"/>
-      <c r="C188" s="141" t="s">
+      <c r="B188" s="163"/>
+      <c r="C188" s="140" t="s">
         <v>1043</v>
       </c>
       <c r="D188" s="19" t="s">
@@ -10795,11 +10799,11 @@
       <c r="I188" s="19"/>
     </row>
     <row r="189" spans="1:25" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="136" t="s">
+      <c r="A189" s="135" t="s">
         <v>171</v>
       </c>
-      <c r="B189" s="165"/>
-      <c r="C189" s="133" t="s">
+      <c r="B189" s="163"/>
+      <c r="C189" s="132" t="s">
         <v>1054</v>
       </c>
       <c r="D189" s="95" t="s">
@@ -10825,11 +10829,11 @@
       <c r="I190" s="19"/>
     </row>
     <row r="191" spans="1:25" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="135" t="s">
+      <c r="A191" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="B191" s="165"/>
-      <c r="C191" s="133" t="s">
+      <c r="B191" s="163"/>
+      <c r="C191" s="132" t="s">
         <v>174</v>
       </c>
       <c r="D191" s="95" t="s">
@@ -10842,11 +10846,11 @@
       <c r="I191" s="19"/>
     </row>
     <row r="192" spans="1:25" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="135" t="s">
+      <c r="A192" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="B192" s="165"/>
-      <c r="C192" s="133" t="s">
+      <c r="B192" s="163"/>
+      <c r="C192" s="132" t="s">
         <v>1046</v>
       </c>
       <c r="D192" s="19" t="s">
@@ -10859,11 +10863,11 @@
       <c r="I192" s="19"/>
     </row>
     <row r="193" spans="1:9" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="135" t="s">
+      <c r="A193" s="134" t="s">
         <v>171</v>
       </c>
-      <c r="B193" s="165"/>
-      <c r="C193" s="141" t="s">
+      <c r="B193" s="163"/>
+      <c r="C193" s="140" t="s">
         <v>1055</v>
       </c>
       <c r="D193" s="19" t="s">
@@ -10889,11 +10893,11 @@
       <c r="I194" s="19"/>
     </row>
     <row r="195" spans="1:9" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="136" t="s">
+      <c r="A195" s="135" t="s">
         <v>169</v>
       </c>
-      <c r="B195" s="165"/>
-      <c r="C195" s="141" t="s">
+      <c r="B195" s="163"/>
+      <c r="C195" s="140" t="s">
         <v>1047</v>
       </c>
       <c r="D195" s="19" t="s">
@@ -10906,11 +10910,11 @@
       <c r="I195" s="19"/>
     </row>
     <row r="196" spans="1:9" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="136" t="s">
+      <c r="A196" s="135" t="s">
         <v>170</v>
       </c>
-      <c r="B196" s="165"/>
-      <c r="C196" s="141" t="s">
+      <c r="B196" s="163"/>
+      <c r="C196" s="140" t="s">
         <v>1048</v>
       </c>
       <c r="D196" s="19" t="s">
@@ -10923,11 +10927,11 @@
       <c r="I196" s="19"/>
     </row>
     <row r="197" spans="1:9" ht="106.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="136" t="s">
+      <c r="A197" s="135" t="s">
         <v>171</v>
       </c>
-      <c r="B197" s="165"/>
-      <c r="C197" s="141" t="s">
+      <c r="B197" s="163"/>
+      <c r="C197" s="140" t="s">
         <v>1055</v>
       </c>
       <c r="D197" s="19" t="s">
@@ -10955,11 +10959,11 @@
       <c r="I198" s="19"/>
     </row>
     <row r="199" spans="1:9" ht="184.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="134" t="s">
+      <c r="A199" s="133" t="s">
         <v>781</v>
       </c>
-      <c r="B199" s="165"/>
-      <c r="C199" s="141" t="s">
+      <c r="B199" s="163"/>
+      <c r="C199" s="140" t="s">
         <v>1049</v>
       </c>
       <c r="D199" s="95" t="s">
@@ -10972,11 +10976,11 @@
       <c r="I199" s="19"/>
     </row>
     <row r="200" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="134" t="s">
+      <c r="A200" s="133" t="s">
         <v>223</v>
       </c>
-      <c r="B200" s="165"/>
-      <c r="C200" s="141" t="s">
+      <c r="B200" s="163"/>
+      <c r="C200" s="140" t="s">
         <v>224</v>
       </c>
       <c r="D200" s="95" t="s">
@@ -10989,11 +10993,11 @@
       <c r="I200" s="19"/>
     </row>
     <row r="201" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="134" t="s">
+      <c r="A201" s="133" t="s">
         <v>225</v>
       </c>
-      <c r="B201" s="165"/>
-      <c r="C201" s="133" t="s">
+      <c r="B201" s="163"/>
+      <c r="C201" s="132" t="s">
         <v>246</v>
       </c>
       <c r="D201" s="19" t="s">
@@ -11009,7 +11013,7 @@
       <c r="A202" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="B202" s="166"/>
+      <c r="B202" s="164"/>
       <c r="C202" s="116"/>
       <c r="D202" s="19" t="s">
         <v>179</v>
@@ -11021,11 +11025,11 @@
       <c r="I202" s="19"/>
     </row>
     <row r="203" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="136" t="s">
+      <c r="A203" s="135" t="s">
         <v>180</v>
       </c>
-      <c r="B203" s="165"/>
-      <c r="C203" s="144" t="s">
+      <c r="B203" s="163"/>
+      <c r="C203" s="143" t="s">
         <v>1013</v>
       </c>
       <c r="D203" s="19" t="s">
@@ -11041,8 +11045,8 @@
       <c r="A204" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="B204" s="166"/>
-      <c r="C204" s="145"/>
+      <c r="B204" s="164"/>
+      <c r="C204" s="144"/>
       <c r="D204" s="19"/>
       <c r="E204" s="19"/>
       <c r="F204" s="19"/>
@@ -11051,11 +11055,11 @@
       <c r="I204" s="19"/>
     </row>
     <row r="205" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="134" t="s">
+      <c r="A205" s="133" t="s">
         <v>779</v>
       </c>
-      <c r="B205" s="165"/>
-      <c r="C205" s="141" t="s">
+      <c r="B205" s="163"/>
+      <c r="C205" s="140" t="s">
         <v>1014</v>
       </c>
       <c r="D205" s="19" t="s">
@@ -11068,11 +11072,11 @@
       <c r="I205" s="19"/>
     </row>
     <row r="206" spans="1:9" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="136" t="s">
+      <c r="A206" s="135" t="s">
         <v>182</v>
       </c>
-      <c r="B206" s="165"/>
-      <c r="C206" s="141" t="s">
+      <c r="B206" s="163"/>
+      <c r="C206" s="140" t="s">
         <v>1015</v>
       </c>
       <c r="D206" s="19" t="s">
@@ -11088,8 +11092,8 @@
       <c r="A207" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="B207" s="166"/>
-      <c r="C207" s="145"/>
+      <c r="B207" s="164"/>
+      <c r="C207" s="144"/>
       <c r="D207" s="19"/>
       <c r="E207" s="19"/>
       <c r="F207" s="19"/>
@@ -11098,11 +11102,11 @@
       <c r="I207" s="19"/>
     </row>
     <row r="208" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="134" t="s">
+      <c r="A208" s="133" t="s">
         <v>780</v>
       </c>
-      <c r="B208" s="165"/>
-      <c r="C208" s="141" t="s">
+      <c r="B208" s="163"/>
+      <c r="C208" s="140" t="s">
         <v>1016</v>
       </c>
       <c r="D208" s="19" t="s">
@@ -11115,11 +11119,11 @@
       <c r="I208" s="19"/>
     </row>
     <row r="209" spans="1:10" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="136" t="s">
+      <c r="A209" s="135" t="s">
         <v>184</v>
       </c>
-      <c r="B209" s="165"/>
-      <c r="C209" s="141" t="s">
+      <c r="B209" s="163"/>
+      <c r="C209" s="140" t="s">
         <v>1017</v>
       </c>
       <c r="D209" s="19" t="s">
@@ -16092,6 +16096,20 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="28">
+    <mergeCell ref="A181:C181"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="B92:C92"/>
     <mergeCell ref="A24:C24"/>
@@ -16106,20 +16124,6 @@
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A181:C181"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A180:C180"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A26" location="'Move or Copy'!A1" display="Link to Move or Copy"/>
@@ -16157,7 +16161,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16170,11 +16174,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
       <c r="D1" s="77"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -16192,12 +16196,12 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="181" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
@@ -16213,12 +16217,12 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="69.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="173" t="s">
         <v>1031</v>
       </c>
-      <c r="B5" s="179"/>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
       <c r="E5" s="3"/>
       <c r="F5" s="75"/>
       <c r="G5" s="3"/>
@@ -16243,8 +16247,8 @@
       <c r="A6" s="73" t="s">
         <v>769</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="190"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="187"/>
       <c r="D6" s="71"/>
       <c r="E6" s="34"/>
       <c r="F6" s="6"/>
@@ -16260,12 +16264,12 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="185" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="188"/>
-      <c r="C8" s="188"/>
-      <c r="D8" s="180"/>
+      <c r="B8" s="185"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="171"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -16293,7 +16297,7 @@
       <c r="B9" s="100" t="s">
         <v>820</v>
       </c>
-      <c r="C9" s="122"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="46" t="s">
         <v>811</v>
       </c>
@@ -16308,7 +16312,7 @@
       <c r="B10" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C10" s="123"/>
+      <c r="C10" s="122"/>
       <c r="D10" s="46" t="s">
         <v>812</v>
       </c>
@@ -16345,12 +16349,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="188" t="s">
+      <c r="A13" s="185" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="188"/>
-      <c r="C13" s="188"/>
-      <c r="D13" s="180"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="171"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -16378,7 +16382,7 @@
       <c r="B14" s="100" t="s">
         <v>820</v>
       </c>
-      <c r="C14" s="122"/>
+      <c r="C14" s="121"/>
       <c r="D14" s="46" t="s">
         <v>818</v>
       </c>
@@ -16393,7 +16397,7 @@
       <c r="B15" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C15" s="123"/>
+      <c r="C15" s="122"/>
       <c r="D15" s="46" t="s">
         <v>822</v>
       </c>
@@ -16443,20 +16447,20 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="183"/>
-      <c r="B18" s="180"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="180"/>
+      <c r="A18" s="180"/>
+      <c r="B18" s="171"/>
+      <c r="C18" s="171"/>
+      <c r="D18" s="171"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="173" t="s">
+      <c r="A19" s="170" t="s">
         <v>949</v>
       </c>
-      <c r="B19" s="180"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="180"/>
+      <c r="B19" s="171"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="171"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -16478,12 +16482,12 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="175" t="s">
+      <c r="A20" s="173" t="s">
         <v>981</v>
       </c>
-      <c r="B20" s="179"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="179"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
       <c r="E20" s="3"/>
       <c r="F20" s="75"/>
       <c r="G20" s="3"/>
@@ -16537,7 +16541,7 @@
       <c r="C22" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="186" t="s">
+      <c r="D22" s="183" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="32"/>
@@ -16552,15 +16556,15 @@
       <c r="C23" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="187"/>
+      <c r="D23" s="184"/>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="191"/>
       <c r="D24" s="50" t="s">
         <v>96</v>
       </c>
@@ -16571,8 +16575,8 @@
       <c r="A25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="191"/>
       <c r="D25" s="50" t="s">
         <v>95</v>
       </c>
@@ -16583,8 +16587,8 @@
       <c r="A26" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="191"/>
       <c r="D26" s="50" t="s">
         <v>94</v>
       </c>
@@ -16595,8 +16599,8 @@
       <c r="A27" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
+      <c r="B27" s="191"/>
+      <c r="C27" s="191"/>
       <c r="D27" s="50" t="s">
         <v>771</v>
       </c>
@@ -16607,8 +16611,8 @@
       <c r="A28" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
+      <c r="B28" s="191"/>
+      <c r="C28" s="191"/>
       <c r="D28" s="87" t="s">
         <v>772</v>
       </c>
@@ -16619,8 +16623,8 @@
       <c r="A29" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="191"/>
       <c r="D29" s="50" t="s">
         <v>93</v>
       </c>
@@ -16631,8 +16635,8 @@
       <c r="A30" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
       <c r="D30" s="50" t="s">
         <v>92</v>
       </c>
@@ -16643,8 +16647,8 @@
       <c r="A31" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
+      <c r="B31" s="191"/>
+      <c r="C31" s="191"/>
       <c r="D31" s="52" t="s">
         <v>166</v>
       </c>
@@ -16670,10 +16674,10 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="183"/>
-      <c r="B33" s="180"/>
-      <c r="C33" s="180"/>
-      <c r="D33" s="180"/>
+      <c r="A33" s="180"/>
+      <c r="B33" s="171"/>
+      <c r="C33" s="171"/>
+      <c r="D33" s="171"/>
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
     </row>
@@ -16721,7 +16725,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:C32"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16734,11 +16738,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
       <c r="D1" s="77"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -16756,12 +16760,12 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="181" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
@@ -16777,12 +16781,12 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="173" t="s">
         <v>1028</v>
       </c>
-      <c r="B5" s="179"/>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
       <c r="E5" s="3"/>
       <c r="F5" s="75"/>
       <c r="G5" s="3"/>
@@ -16807,8 +16811,8 @@
       <c r="A6" s="73" t="s">
         <v>770</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="191"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="188"/>
       <c r="D6" s="71"/>
       <c r="E6" s="34"/>
       <c r="F6" s="6"/>
@@ -16824,12 +16828,12 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="185" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="188"/>
-      <c r="C8" s="188"/>
-      <c r="D8" s="180"/>
+      <c r="B8" s="185"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="171"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -16857,7 +16861,7 @@
       <c r="B9" s="100" t="s">
         <v>820</v>
       </c>
-      <c r="C9" s="122"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="46" t="s">
         <v>811</v>
       </c>
@@ -16872,7 +16876,7 @@
       <c r="B10" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C10" s="123"/>
+      <c r="C10" s="122"/>
       <c r="D10" s="46" t="s">
         <v>812</v>
       </c>
@@ -16909,12 +16913,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="188" t="s">
+      <c r="A13" s="185" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="188"/>
-      <c r="C13" s="188"/>
-      <c r="D13" s="180"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="171"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -16942,7 +16946,7 @@
       <c r="B14" s="100" t="s">
         <v>820</v>
       </c>
-      <c r="C14" s="122"/>
+      <c r="C14" s="121"/>
       <c r="D14" s="46" t="s">
         <v>818</v>
       </c>
@@ -16957,7 +16961,7 @@
       <c r="B15" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C15" s="123"/>
+      <c r="C15" s="122"/>
       <c r="D15" s="46" t="s">
         <v>822</v>
       </c>
@@ -17007,20 +17011,20 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="183"/>
-      <c r="B18" s="180"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="180"/>
+      <c r="A18" s="180"/>
+      <c r="B18" s="171"/>
+      <c r="C18" s="171"/>
+      <c r="D18" s="171"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="173" t="s">
+      <c r="A19" s="170" t="s">
         <v>950</v>
       </c>
-      <c r="B19" s="180"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="180"/>
+      <c r="B19" s="171"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="171"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -17042,12 +17046,12 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="175" t="s">
+      <c r="A20" s="173" t="s">
         <v>981</v>
       </c>
-      <c r="B20" s="179"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="179"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
       <c r="E20" s="3"/>
       <c r="F20" s="75"/>
       <c r="G20" s="3"/>
@@ -17101,7 +17105,7 @@
       <c r="C22" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="186" t="s">
+      <c r="D22" s="183" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="32"/>
@@ -17116,15 +17120,15 @@
       <c r="C23" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="187"/>
+      <c r="D23" s="184"/>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="191"/>
       <c r="D24" s="50" t="s">
         <v>96</v>
       </c>
@@ -17135,8 +17139,8 @@
       <c r="A25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="191"/>
       <c r="D25" s="50" t="s">
         <v>95</v>
       </c>
@@ -17147,8 +17151,8 @@
       <c r="A26" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="191"/>
       <c r="D26" s="50" t="s">
         <v>94</v>
       </c>
@@ -17159,8 +17163,8 @@
       <c r="A27" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
+      <c r="B27" s="191"/>
+      <c r="C27" s="191"/>
       <c r="D27" s="50" t="s">
         <v>771</v>
       </c>
@@ -17171,8 +17175,8 @@
       <c r="A28" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
+      <c r="B28" s="191"/>
+      <c r="C28" s="191"/>
       <c r="D28" s="87" t="s">
         <v>772</v>
       </c>
@@ -17183,8 +17187,8 @@
       <c r="A29" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="191"/>
       <c r="D29" s="50" t="s">
         <v>93</v>
       </c>
@@ -17195,8 +17199,8 @@
       <c r="A30" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
       <c r="D30" s="50" t="s">
         <v>92</v>
       </c>
@@ -17207,8 +17211,8 @@
       <c r="A31" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
+      <c r="B31" s="191"/>
+      <c r="C31" s="191"/>
       <c r="D31" s="52" t="s">
         <v>166</v>
       </c>
@@ -17234,10 +17238,10 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="183"/>
-      <c r="B33" s="180"/>
-      <c r="C33" s="180"/>
-      <c r="D33" s="180"/>
+      <c r="A33" s="180"/>
+      <c r="B33" s="171"/>
+      <c r="C33" s="171"/>
+      <c r="D33" s="171"/>
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
     </row>
@@ -17307,7 +17311,7 @@
   <dimension ref="A1:Y34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17320,12 +17324,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="178" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
       <c r="G1" s="11"/>
@@ -17334,10 +17338,10 @@
       <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:25" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="182"/>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -17346,12 +17350,12 @@
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="181" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
@@ -17367,12 +17371,12 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="173" t="s">
         <v>1059</v>
       </c>
-      <c r="B5" s="179"/>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
       <c r="E5" s="3"/>
       <c r="F5" s="75"/>
       <c r="G5" s="3"/>
@@ -17397,10 +17401,10 @@
       <c r="A6" s="73" t="s">
         <v>761</v>
       </c>
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="127" t="s">
         <v>1061</v>
       </c>
-      <c r="C6" s="168"/>
+      <c r="C6" s="165"/>
       <c r="D6" s="71"/>
       <c r="E6" s="34"/>
     </row>
@@ -17415,12 +17419,12 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="185" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="188"/>
-      <c r="C8" s="188"/>
-      <c r="D8" s="180"/>
+      <c r="B8" s="185"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="171"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -17444,12 +17448,12 @@
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="1:25" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="150"/>
-      <c r="B9" s="151" t="s">
+      <c r="A9" s="149"/>
+      <c r="B9" s="150" t="s">
         <v>820</v>
       </c>
-      <c r="C9" s="122"/>
-      <c r="D9" s="154" t="s">
+      <c r="C9" s="121"/>
+      <c r="D9" s="153" t="s">
         <v>1027</v>
       </c>
       <c r="E9" s="18"/>
@@ -17459,12 +17463,12 @@
       <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:25" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="150"/>
-      <c r="B10" s="151" t="s">
+      <c r="A10" s="149"/>
+      <c r="B10" s="150" t="s">
         <v>821</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="154" t="s">
+      <c r="C10" s="122"/>
+      <c r="D10" s="153" t="s">
         <v>812</v>
       </c>
       <c r="E10" s="18"/>
@@ -17474,12 +17478,12 @@
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:25" s="1" customFormat="1" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="152"/>
-      <c r="B11" s="153" t="s">
+      <c r="A11" s="151"/>
+      <c r="B11" s="152" t="s">
         <v>819</v>
       </c>
       <c r="C11" s="118"/>
-      <c r="D11" s="155" t="s">
+      <c r="D11" s="154" t="s">
         <v>810</v>
       </c>
       <c r="E11" s="19"/>
@@ -17501,12 +17505,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="188" t="s">
+      <c r="A13" s="185" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="188"/>
-      <c r="C13" s="188"/>
-      <c r="D13" s="180"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="171"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -17531,11 +17535,11 @@
     </row>
     <row r="14" spans="1:25" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
-      <c r="B14" s="151" t="s">
+      <c r="B14" s="150" t="s">
         <v>820</v>
       </c>
-      <c r="C14" s="122"/>
-      <c r="D14" s="154" t="s">
+      <c r="C14" s="121"/>
+      <c r="D14" s="153" t="s">
         <v>818</v>
       </c>
       <c r="E14" s="18"/>
@@ -17546,11 +17550,11 @@
     </row>
     <row r="15" spans="1:25" s="1" customFormat="1" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
-      <c r="B15" s="151" t="s">
+      <c r="B15" s="150" t="s">
         <v>821</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="154" t="s">
+      <c r="C15" s="122"/>
+      <c r="D15" s="153" t="s">
         <v>822</v>
       </c>
       <c r="E15" s="18"/>
@@ -17560,11 +17564,11 @@
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:25" s="1" customFormat="1" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="156" t="s">
+      <c r="B16" s="155" t="s">
         <v>819</v>
       </c>
       <c r="C16" s="118"/>
-      <c r="D16" s="155" t="s">
+      <c r="D16" s="154" t="s">
         <v>814</v>
       </c>
       <c r="E16" s="19"/>
@@ -17574,20 +17578,20 @@
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="183"/>
-      <c r="B17" s="180"/>
-      <c r="C17" s="180"/>
-      <c r="D17" s="180"/>
+      <c r="A17" s="180"/>
+      <c r="B17" s="171"/>
+      <c r="C17" s="171"/>
+      <c r="D17" s="171"/>
       <c r="E17" s="11"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="173" t="s">
+      <c r="A18" s="170" t="s">
         <v>941</v>
       </c>
-      <c r="B18" s="180"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="180"/>
+      <c r="B18" s="171"/>
+      <c r="C18" s="171"/>
+      <c r="D18" s="171"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -17609,12 +17613,12 @@
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A19" s="175" t="s">
+      <c r="A19" s="173" t="s">
         <v>981</v>
       </c>
-      <c r="B19" s="179"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="179"/>
+      <c r="B19" s="167"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="167"/>
       <c r="E19" s="3"/>
       <c r="F19" s="75"/>
       <c r="G19" s="3"/>
@@ -17668,7 +17672,7 @@
       <c r="C21" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D21" s="186" t="s">
+      <c r="D21" s="183" t="s">
         <v>146</v>
       </c>
       <c r="E21" s="32"/>
@@ -17683,15 +17687,15 @@
       <c r="C22" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D22" s="187"/>
+      <c r="D22" s="184"/>
       <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="121"/>
-      <c r="C23" s="121"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="191"/>
       <c r="D23" s="50" t="s">
         <v>96</v>
       </c>
@@ -17702,8 +17706,8 @@
       <c r="A24" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="191"/>
       <c r="D24" s="50" t="s">
         <v>95</v>
       </c>
@@ -17714,8 +17718,8 @@
       <c r="A25" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="191"/>
       <c r="D25" s="50" t="s">
         <v>94</v>
       </c>
@@ -17726,8 +17730,8 @@
       <c r="A26" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="191"/>
       <c r="D26" s="50" t="s">
         <v>771</v>
       </c>
@@ -17738,8 +17742,8 @@
       <c r="A27" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
+      <c r="B27" s="191"/>
+      <c r="C27" s="191"/>
       <c r="D27" s="87" t="s">
         <v>772</v>
       </c>
@@ -17750,8 +17754,8 @@
       <c r="A28" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
+      <c r="B28" s="191"/>
+      <c r="C28" s="191"/>
       <c r="D28" s="50" t="s">
         <v>93</v>
       </c>
@@ -17762,8 +17766,8 @@
       <c r="A29" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="191"/>
       <c r="D29" s="50" t="s">
         <v>92</v>
       </c>
@@ -17774,8 +17778,8 @@
       <c r="A30" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
       <c r="D30" s="52" t="s">
         <v>166</v>
       </c>
@@ -17801,10 +17805,10 @@
       <c r="F31" s="35"/>
     </row>
     <row r="32" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="183"/>
-      <c r="B32" s="180"/>
-      <c r="C32" s="180"/>
-      <c r="D32" s="180"/>
+      <c r="A32" s="180"/>
+      <c r="B32" s="171"/>
+      <c r="C32" s="171"/>
+      <c r="D32" s="171"/>
       <c r="E32" s="11"/>
       <c r="F32" s="12"/>
     </row>
@@ -17852,7 +17856,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17865,11 +17869,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
       <c r="D1" s="77"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -17887,12 +17891,12 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="181" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
@@ -17908,12 +17912,12 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="173" t="s">
         <v>1022</v>
       </c>
-      <c r="B5" s="179"/>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
       <c r="E5" s="3"/>
       <c r="F5" s="75"/>
       <c r="G5" s="3"/>
@@ -17938,8 +17942,8 @@
       <c r="A6" s="73" t="s">
         <v>762</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="190"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="187"/>
       <c r="D6" s="71"/>
       <c r="E6" s="34"/>
       <c r="F6" s="6"/>
@@ -17955,12 +17959,12 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="185" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="188"/>
-      <c r="C8" s="188"/>
-      <c r="D8" s="180"/>
+      <c r="B8" s="185"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="171"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -17988,7 +17992,7 @@
       <c r="B9" s="100" t="s">
         <v>820</v>
       </c>
-      <c r="C9" s="122"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="46" t="s">
         <v>811</v>
       </c>
@@ -18003,7 +18007,7 @@
       <c r="B10" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C10" s="123"/>
+      <c r="C10" s="122"/>
       <c r="D10" s="46" t="s">
         <v>812</v>
       </c>
@@ -18040,12 +18044,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="188" t="s">
+      <c r="A13" s="185" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="188"/>
-      <c r="C13" s="188"/>
-      <c r="D13" s="180"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="171"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -18073,7 +18077,7 @@
       <c r="B14" s="100" t="s">
         <v>820</v>
       </c>
-      <c r="C14" s="122"/>
+      <c r="C14" s="121"/>
       <c r="D14" s="46" t="s">
         <v>818</v>
       </c>
@@ -18088,7 +18092,7 @@
       <c r="B15" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C15" s="123"/>
+      <c r="C15" s="122"/>
       <c r="D15" s="46" t="s">
         <v>822</v>
       </c>
@@ -18138,20 +18142,20 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="183"/>
-      <c r="B18" s="180"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="180"/>
+      <c r="A18" s="180"/>
+      <c r="B18" s="171"/>
+      <c r="C18" s="171"/>
+      <c r="D18" s="171"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="173" t="s">
+      <c r="A19" s="170" t="s">
         <v>942</v>
       </c>
-      <c r="B19" s="180"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="180"/>
+      <c r="B19" s="171"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="171"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -18173,12 +18177,12 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="175" t="s">
+      <c r="A20" s="173" t="s">
         <v>981</v>
       </c>
-      <c r="B20" s="179"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="179"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
       <c r="E20" s="3"/>
       <c r="F20" s="75"/>
       <c r="G20" s="3"/>
@@ -18232,7 +18236,7 @@
       <c r="C22" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="186" t="s">
+      <c r="D22" s="183" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="32"/>
@@ -18247,15 +18251,15 @@
       <c r="C23" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="187"/>
+      <c r="D23" s="184"/>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="191"/>
       <c r="D24" s="50" t="s">
         <v>96</v>
       </c>
@@ -18266,8 +18270,8 @@
       <c r="A25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="191"/>
       <c r="D25" s="50" t="s">
         <v>95</v>
       </c>
@@ -18278,8 +18282,8 @@
       <c r="A26" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="191"/>
       <c r="D26" s="50" t="s">
         <v>94</v>
       </c>
@@ -18290,8 +18294,8 @@
       <c r="A27" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
+      <c r="B27" s="191"/>
+      <c r="C27" s="191"/>
       <c r="D27" s="50" t="s">
         <v>771</v>
       </c>
@@ -18302,8 +18306,8 @@
       <c r="A28" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
+      <c r="B28" s="191"/>
+      <c r="C28" s="191"/>
       <c r="D28" s="86" t="s">
         <v>772</v>
       </c>
@@ -18314,8 +18318,8 @@
       <c r="A29" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="191"/>
       <c r="D29" s="50" t="s">
         <v>93</v>
       </c>
@@ -18326,8 +18330,8 @@
       <c r="A30" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
       <c r="D30" s="50" t="s">
         <v>92</v>
       </c>
@@ -18338,8 +18342,8 @@
       <c r="A31" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
+      <c r="B31" s="191"/>
+      <c r="C31" s="191"/>
       <c r="D31" s="52" t="s">
         <v>166</v>
       </c>
@@ -18365,10 +18369,10 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="183"/>
-      <c r="B33" s="180"/>
-      <c r="C33" s="180"/>
-      <c r="D33" s="180"/>
+      <c r="A33" s="180"/>
+      <c r="B33" s="171"/>
+      <c r="C33" s="171"/>
+      <c r="D33" s="171"/>
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
     </row>
@@ -18416,7 +18420,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18429,11 +18433,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
       <c r="D1" s="77"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -18451,12 +18455,12 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="181" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
@@ -18472,12 +18476,12 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="173" t="s">
         <v>1028</v>
       </c>
-      <c r="B5" s="179"/>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
       <c r="E5" s="3"/>
       <c r="F5" s="75"/>
       <c r="G5" s="3"/>
@@ -18502,8 +18506,8 @@
       <c r="A6" s="73" t="s">
         <v>763</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="191"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="188"/>
       <c r="D6" s="71"/>
       <c r="E6" s="34"/>
       <c r="F6" s="6"/>
@@ -18519,12 +18523,12 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="185" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="188"/>
-      <c r="C8" s="188"/>
-      <c r="D8" s="180"/>
+      <c r="B8" s="185"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="171"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -18552,7 +18556,7 @@
       <c r="B9" s="100" t="s">
         <v>820</v>
       </c>
-      <c r="C9" s="122"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="46" t="s">
         <v>811</v>
       </c>
@@ -18567,7 +18571,7 @@
       <c r="B10" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C10" s="123"/>
+      <c r="C10" s="122"/>
       <c r="D10" s="46" t="s">
         <v>812</v>
       </c>
@@ -18604,12 +18608,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="188" t="s">
+      <c r="A13" s="185" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="188"/>
-      <c r="C13" s="188"/>
-      <c r="D13" s="180"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="171"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -18637,7 +18641,7 @@
       <c r="B14" s="100" t="s">
         <v>820</v>
       </c>
-      <c r="C14" s="122"/>
+      <c r="C14" s="121"/>
       <c r="D14" s="46" t="s">
         <v>818</v>
       </c>
@@ -18652,7 +18656,7 @@
       <c r="B15" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C15" s="123"/>
+      <c r="C15" s="122"/>
       <c r="D15" s="46" t="s">
         <v>827</v>
       </c>
@@ -18702,20 +18706,20 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="183"/>
-      <c r="B18" s="180"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="180"/>
+      <c r="A18" s="180"/>
+      <c r="B18" s="171"/>
+      <c r="C18" s="171"/>
+      <c r="D18" s="171"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="173" t="s">
+      <c r="A19" s="170" t="s">
         <v>943</v>
       </c>
-      <c r="B19" s="180"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="180"/>
+      <c r="B19" s="171"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="171"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -18737,12 +18741,12 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="175" t="s">
+      <c r="A20" s="173" t="s">
         <v>981</v>
       </c>
-      <c r="B20" s="179"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="179"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
       <c r="E20" s="3"/>
       <c r="F20" s="75"/>
       <c r="G20" s="3"/>
@@ -18796,7 +18800,7 @@
       <c r="C22" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="186" t="s">
+      <c r="D22" s="183" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="32"/>
@@ -18811,7 +18815,7 @@
       <c r="C23" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="187"/>
+      <c r="D23" s="184"/>
       <c r="E23" s="32"/>
       <c r="F23" s="76"/>
     </row>
@@ -18819,8 +18823,8 @@
       <c r="A24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="191"/>
       <c r="D24" s="50" t="s">
         <v>96</v>
       </c>
@@ -18831,8 +18835,8 @@
       <c r="A25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="191"/>
       <c r="D25" s="50" t="s">
         <v>95</v>
       </c>
@@ -18843,8 +18847,8 @@
       <c r="A26" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="191"/>
       <c r="D26" s="50" t="s">
         <v>94</v>
       </c>
@@ -18855,8 +18859,8 @@
       <c r="A27" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
+      <c r="B27" s="191"/>
+      <c r="C27" s="191"/>
       <c r="D27" s="50" t="s">
         <v>771</v>
       </c>
@@ -18867,8 +18871,8 @@
       <c r="A28" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
+      <c r="B28" s="191"/>
+      <c r="C28" s="191"/>
       <c r="D28" s="87" t="s">
         <v>772</v>
       </c>
@@ -18879,8 +18883,8 @@
       <c r="A29" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="191"/>
       <c r="D29" s="50" t="s">
         <v>93</v>
       </c>
@@ -18891,8 +18895,8 @@
       <c r="A30" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
       <c r="D30" s="50" t="s">
         <v>92</v>
       </c>
@@ -18903,8 +18907,8 @@
       <c r="A31" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
+      <c r="B31" s="191"/>
+      <c r="C31" s="191"/>
       <c r="D31" s="52" t="s">
         <v>166</v>
       </c>
@@ -18930,10 +18934,10 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="183"/>
-      <c r="B33" s="180"/>
-      <c r="C33" s="180"/>
-      <c r="D33" s="180"/>
+      <c r="A33" s="180"/>
+      <c r="B33" s="171"/>
+      <c r="C33" s="171"/>
+      <c r="D33" s="171"/>
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
     </row>
@@ -18981,7 +18985,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18994,11 +18998,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
       <c r="D1" s="77"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -19016,12 +19020,12 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="181" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
@@ -19037,12 +19041,12 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="173" t="s">
         <v>1029</v>
       </c>
-      <c r="B5" s="179"/>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
       <c r="E5" s="3"/>
       <c r="F5" s="75"/>
       <c r="G5" s="3"/>
@@ -19067,8 +19071,8 @@
       <c r="A6" s="73" t="s">
         <v>764</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="191"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="188"/>
       <c r="D6" s="71"/>
       <c r="E6" s="34"/>
       <c r="F6" s="6"/>
@@ -19084,12 +19088,12 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="185" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="188"/>
-      <c r="C8" s="188"/>
-      <c r="D8" s="180"/>
+      <c r="B8" s="185"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="171"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -19117,7 +19121,7 @@
       <c r="B9" s="100" t="s">
         <v>820</v>
       </c>
-      <c r="C9" s="122"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="46" t="s">
         <v>811</v>
       </c>
@@ -19132,7 +19136,7 @@
       <c r="B10" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C10" s="123"/>
+      <c r="C10" s="122"/>
       <c r="D10" s="46" t="s">
         <v>812</v>
       </c>
@@ -19169,12 +19173,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="188" t="s">
+      <c r="A13" s="185" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="188"/>
-      <c r="C13" s="188"/>
-      <c r="D13" s="180"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="171"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -19202,7 +19206,7 @@
       <c r="B14" s="100" t="s">
         <v>820</v>
       </c>
-      <c r="C14" s="122"/>
+      <c r="C14" s="121"/>
       <c r="D14" s="46" t="s">
         <v>818</v>
       </c>
@@ -19217,7 +19221,7 @@
       <c r="B15" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C15" s="123"/>
+      <c r="C15" s="122"/>
       <c r="D15" s="46" t="s">
         <v>827</v>
       </c>
@@ -19267,20 +19271,20 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="183"/>
-      <c r="B18" s="180"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="180"/>
+      <c r="A18" s="180"/>
+      <c r="B18" s="171"/>
+      <c r="C18" s="171"/>
+      <c r="D18" s="171"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="173" t="s">
+      <c r="A19" s="170" t="s">
         <v>944</v>
       </c>
-      <c r="B19" s="180"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="180"/>
+      <c r="B19" s="171"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="171"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -19302,12 +19306,12 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="175" t="s">
+      <c r="A20" s="173" t="s">
         <v>981</v>
       </c>
-      <c r="B20" s="179"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="179"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
       <c r="E20" s="3"/>
       <c r="F20" s="75"/>
       <c r="G20" s="3"/>
@@ -19361,7 +19365,7 @@
       <c r="C22" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="186" t="s">
+      <c r="D22" s="183" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="32"/>
@@ -19376,15 +19380,15 @@
       <c r="C23" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="187"/>
+      <c r="D23" s="184"/>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="191"/>
       <c r="D24" s="50" t="s">
         <v>96</v>
       </c>
@@ -19395,8 +19399,8 @@
       <c r="A25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="191"/>
       <c r="D25" s="50" t="s">
         <v>95</v>
       </c>
@@ -19407,8 +19411,8 @@
       <c r="A26" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="191"/>
       <c r="D26" s="50" t="s">
         <v>94</v>
       </c>
@@ -19419,8 +19423,8 @@
       <c r="A27" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
+      <c r="B27" s="191"/>
+      <c r="C27" s="191"/>
       <c r="D27" s="50" t="s">
         <v>771</v>
       </c>
@@ -19431,8 +19435,8 @@
       <c r="A28" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
+      <c r="B28" s="191"/>
+      <c r="C28" s="191"/>
       <c r="D28" s="87" t="s">
         <v>772</v>
       </c>
@@ -19443,8 +19447,8 @@
       <c r="A29" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="191"/>
       <c r="D29" s="50" t="s">
         <v>93</v>
       </c>
@@ -19455,8 +19459,8 @@
       <c r="A30" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
       <c r="D30" s="50" t="s">
         <v>92</v>
       </c>
@@ -19467,8 +19471,8 @@
       <c r="A31" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
+      <c r="B31" s="191"/>
+      <c r="C31" s="191"/>
       <c r="D31" s="52" t="s">
         <v>166</v>
       </c>
@@ -19494,10 +19498,10 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="183"/>
-      <c r="B33" s="180"/>
-      <c r="C33" s="180"/>
-      <c r="D33" s="180"/>
+      <c r="A33" s="180"/>
+      <c r="B33" s="171"/>
+      <c r="C33" s="171"/>
+      <c r="D33" s="171"/>
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
     </row>
@@ -19545,7 +19549,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:C32"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19558,11 +19562,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
       <c r="D1" s="77"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -19580,12 +19584,12 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="181" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
@@ -19601,12 +19605,12 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="173" t="s">
         <v>1028</v>
       </c>
-      <c r="B5" s="179"/>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
       <c r="E5" s="3"/>
       <c r="F5" s="75"/>
       <c r="G5" s="3"/>
@@ -19631,8 +19635,8 @@
       <c r="A6" s="73" t="s">
         <v>765</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="191"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="188"/>
       <c r="D6" s="71"/>
       <c r="E6" s="34"/>
       <c r="F6" s="6"/>
@@ -19648,12 +19652,12 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="185" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="188"/>
-      <c r="C8" s="188"/>
-      <c r="D8" s="180"/>
+      <c r="B8" s="185"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="171"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -19681,7 +19685,7 @@
       <c r="B9" s="100" t="s">
         <v>820</v>
       </c>
-      <c r="C9" s="122"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="46" t="s">
         <v>811</v>
       </c>
@@ -19696,7 +19700,7 @@
       <c r="B10" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C10" s="123"/>
+      <c r="C10" s="122"/>
       <c r="D10" s="46" t="s">
         <v>812</v>
       </c>
@@ -19733,12 +19737,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="188" t="s">
+      <c r="A13" s="185" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="188"/>
-      <c r="C13" s="188"/>
-      <c r="D13" s="180"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="171"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -19766,7 +19770,7 @@
       <c r="B14" s="100" t="s">
         <v>820</v>
       </c>
-      <c r="C14" s="122"/>
+      <c r="C14" s="121"/>
       <c r="D14" s="46" t="s">
         <v>818</v>
       </c>
@@ -19781,7 +19785,7 @@
       <c r="B15" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C15" s="123"/>
+      <c r="C15" s="122"/>
       <c r="D15" s="46" t="s">
         <v>827</v>
       </c>
@@ -19831,20 +19835,20 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="183"/>
-      <c r="B18" s="180"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="180"/>
+      <c r="A18" s="180"/>
+      <c r="B18" s="171"/>
+      <c r="C18" s="171"/>
+      <c r="D18" s="171"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="173" t="s">
+      <c r="A19" s="170" t="s">
         <v>945</v>
       </c>
-      <c r="B19" s="180"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="180"/>
+      <c r="B19" s="171"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="171"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -19866,12 +19870,12 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="175" t="s">
+      <c r="A20" s="173" t="s">
         <v>981</v>
       </c>
-      <c r="B20" s="179"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="179"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
       <c r="E20" s="3"/>
       <c r="F20" s="75"/>
       <c r="G20" s="3"/>
@@ -19925,7 +19929,7 @@
       <c r="C22" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="186" t="s">
+      <c r="D22" s="183" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="32"/>
@@ -19940,15 +19944,15 @@
       <c r="C23" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="187"/>
+      <c r="D23" s="184"/>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="191"/>
       <c r="D24" s="50" t="s">
         <v>96</v>
       </c>
@@ -19959,8 +19963,8 @@
       <c r="A25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="191"/>
       <c r="D25" s="50" t="s">
         <v>95</v>
       </c>
@@ -19971,8 +19975,8 @@
       <c r="A26" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="191"/>
       <c r="D26" s="50" t="s">
         <v>94</v>
       </c>
@@ -19983,8 +19987,8 @@
       <c r="A27" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
+      <c r="B27" s="191"/>
+      <c r="C27" s="191"/>
       <c r="D27" s="50" t="s">
         <v>771</v>
       </c>
@@ -19995,8 +19999,8 @@
       <c r="A28" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
+      <c r="B28" s="191"/>
+      <c r="C28" s="191"/>
       <c r="D28" s="87" t="s">
         <v>778</v>
       </c>
@@ -20007,8 +20011,8 @@
       <c r="A29" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="191"/>
       <c r="D29" s="50" t="s">
         <v>93</v>
       </c>
@@ -20019,8 +20023,8 @@
       <c r="A30" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
       <c r="D30" s="50" t="s">
         <v>92</v>
       </c>
@@ -20031,8 +20035,8 @@
       <c r="A31" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
+      <c r="B31" s="191"/>
+      <c r="C31" s="191"/>
       <c r="D31" s="52" t="s">
         <v>166</v>
       </c>
@@ -20058,10 +20062,10 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="183"/>
-      <c r="B33" s="180"/>
-      <c r="C33" s="180"/>
-      <c r="D33" s="180"/>
+      <c r="A33" s="180"/>
+      <c r="B33" s="171"/>
+      <c r="C33" s="171"/>
+      <c r="D33" s="171"/>
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
     </row>
@@ -20108,8 +20112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:C32"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20122,11 +20126,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
       <c r="D1" s="77"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -20144,12 +20148,12 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="181" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
@@ -20165,12 +20169,12 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="173" t="s">
         <v>1028</v>
       </c>
-      <c r="B5" s="179"/>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
       <c r="E5" s="3"/>
       <c r="F5" s="75"/>
       <c r="G5" s="3"/>
@@ -20195,8 +20199,8 @@
       <c r="A6" s="73" t="s">
         <v>766</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="190"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="187"/>
       <c r="D6" s="71"/>
       <c r="E6" s="34"/>
       <c r="F6" s="6"/>
@@ -20212,12 +20216,12 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="185" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="188"/>
-      <c r="C8" s="188"/>
-      <c r="D8" s="180"/>
+      <c r="B8" s="185"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="171"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -20245,7 +20249,7 @@
       <c r="B9" s="100" t="s">
         <v>820</v>
       </c>
-      <c r="C9" s="122"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="46" t="s">
         <v>811</v>
       </c>
@@ -20260,7 +20264,7 @@
       <c r="B10" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C10" s="123"/>
+      <c r="C10" s="122"/>
       <c r="D10" s="46" t="s">
         <v>812</v>
       </c>
@@ -20297,12 +20301,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="188" t="s">
+      <c r="A13" s="185" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="188"/>
-      <c r="C13" s="188"/>
-      <c r="D13" s="180"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="171"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -20330,7 +20334,7 @@
       <c r="B14" s="100" t="s">
         <v>820</v>
       </c>
-      <c r="C14" s="122"/>
+      <c r="C14" s="121"/>
       <c r="D14" s="46" t="s">
         <v>818</v>
       </c>
@@ -20345,7 +20349,7 @@
       <c r="B15" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C15" s="123"/>
+      <c r="C15" s="122"/>
       <c r="D15" s="46" t="s">
         <v>827</v>
       </c>
@@ -20395,20 +20399,20 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="183"/>
-      <c r="B18" s="180"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="180"/>
+      <c r="A18" s="180"/>
+      <c r="B18" s="171"/>
+      <c r="C18" s="171"/>
+      <c r="D18" s="171"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="173" t="s">
+      <c r="A19" s="170" t="s">
         <v>946</v>
       </c>
-      <c r="B19" s="180"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="180"/>
+      <c r="B19" s="171"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="171"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -20430,12 +20434,12 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="175" t="s">
+      <c r="A20" s="173" t="s">
         <v>981</v>
       </c>
-      <c r="B20" s="179"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="179"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
       <c r="E20" s="3"/>
       <c r="F20" s="75"/>
       <c r="G20" s="3"/>
@@ -20489,7 +20493,7 @@
       <c r="C22" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="186" t="s">
+      <c r="D22" s="183" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="32"/>
@@ -20504,15 +20508,15 @@
       <c r="C23" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="187"/>
+      <c r="D23" s="184"/>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="191"/>
       <c r="D24" s="50" t="s">
         <v>96</v>
       </c>
@@ -20523,8 +20527,8 @@
       <c r="A25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="191"/>
       <c r="D25" s="50" t="s">
         <v>95</v>
       </c>
@@ -20535,8 +20539,8 @@
       <c r="A26" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="191"/>
       <c r="D26" s="50" t="s">
         <v>94</v>
       </c>
@@ -20547,8 +20551,8 @@
       <c r="A27" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
+      <c r="B27" s="191"/>
+      <c r="C27" s="191"/>
       <c r="D27" s="50" t="s">
         <v>771</v>
       </c>
@@ -20559,8 +20563,8 @@
       <c r="A28" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
+      <c r="B28" s="191"/>
+      <c r="C28" s="191"/>
       <c r="D28" s="87" t="s">
         <v>772</v>
       </c>
@@ -20571,8 +20575,8 @@
       <c r="A29" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="191"/>
       <c r="D29" s="50" t="s">
         <v>93</v>
       </c>
@@ -20583,8 +20587,8 @@
       <c r="A30" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
       <c r="D30" s="50" t="s">
         <v>92</v>
       </c>
@@ -20595,8 +20599,8 @@
       <c r="A31" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
+      <c r="B31" s="191"/>
+      <c r="C31" s="191"/>
       <c r="D31" s="52" t="s">
         <v>166</v>
       </c>
@@ -20622,10 +20626,10 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="183"/>
-      <c r="B33" s="180"/>
-      <c r="C33" s="180"/>
-      <c r="D33" s="180"/>
+      <c r="A33" s="180"/>
+      <c r="B33" s="171"/>
+      <c r="C33" s="171"/>
+      <c r="D33" s="171"/>
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
     </row>
@@ -20673,7 +20677,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:C32"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20686,11 +20690,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
       <c r="D1" s="77"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -20708,12 +20712,12 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="181" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
@@ -20729,12 +20733,12 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="173" t="s">
         <v>1030</v>
       </c>
-      <c r="B5" s="179"/>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
       <c r="E5" s="3"/>
       <c r="F5" s="75"/>
       <c r="G5" s="3"/>
@@ -20759,8 +20763,8 @@
       <c r="A6" s="73" t="s">
         <v>767</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="190"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="187"/>
       <c r="D6" s="71"/>
       <c r="E6" s="34"/>
       <c r="F6" s="6"/>
@@ -20776,12 +20780,12 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="185" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="188"/>
-      <c r="C8" s="188"/>
-      <c r="D8" s="180"/>
+      <c r="B8" s="185"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="171"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -20809,7 +20813,7 @@
       <c r="B9" s="100" t="s">
         <v>820</v>
       </c>
-      <c r="C9" s="122"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="46" t="s">
         <v>811</v>
       </c>
@@ -20824,7 +20828,7 @@
       <c r="B10" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C10" s="123"/>
+      <c r="C10" s="122"/>
       <c r="D10" s="46" t="s">
         <v>812</v>
       </c>
@@ -20861,12 +20865,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="188" t="s">
+      <c r="A13" s="185" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="188"/>
-      <c r="C13" s="188"/>
-      <c r="D13" s="180"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="171"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -20894,7 +20898,7 @@
       <c r="B14" s="100" t="s">
         <v>820</v>
       </c>
-      <c r="C14" s="124"/>
+      <c r="C14" s="123"/>
       <c r="D14" s="46" t="s">
         <v>818</v>
       </c>
@@ -20909,7 +20913,7 @@
       <c r="B15" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C15" s="123"/>
+      <c r="C15" s="122"/>
       <c r="D15" s="46" t="s">
         <v>822</v>
       </c>
@@ -20959,20 +20963,20 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="183"/>
-      <c r="B18" s="180"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="180"/>
+      <c r="A18" s="180"/>
+      <c r="B18" s="171"/>
+      <c r="C18" s="171"/>
+      <c r="D18" s="171"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="173" t="s">
+      <c r="A19" s="170" t="s">
         <v>947</v>
       </c>
-      <c r="B19" s="180"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="180"/>
+      <c r="B19" s="171"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="171"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -20994,12 +20998,12 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="175" t="s">
+      <c r="A20" s="173" t="s">
         <v>981</v>
       </c>
-      <c r="B20" s="179"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="179"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
       <c r="E20" s="3"/>
       <c r="F20" s="75"/>
       <c r="G20" s="3"/>
@@ -21053,7 +21057,7 @@
       <c r="C22" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="186" t="s">
+      <c r="D22" s="183" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="32"/>
@@ -21068,15 +21072,15 @@
       <c r="C23" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="187"/>
+      <c r="D23" s="184"/>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="191"/>
       <c r="D24" s="50" t="s">
         <v>96</v>
       </c>
@@ -21087,8 +21091,8 @@
       <c r="A25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="191"/>
       <c r="D25" s="50" t="s">
         <v>95</v>
       </c>
@@ -21099,8 +21103,8 @@
       <c r="A26" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="191"/>
       <c r="D26" s="50" t="s">
         <v>94</v>
       </c>
@@ -21111,8 +21115,8 @@
       <c r="A27" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
+      <c r="B27" s="191"/>
+      <c r="C27" s="191"/>
       <c r="D27" s="50" t="s">
         <v>771</v>
       </c>
@@ -21123,8 +21127,8 @@
       <c r="A28" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
+      <c r="B28" s="191"/>
+      <c r="C28" s="191"/>
       <c r="D28" s="87" t="s">
         <v>772</v>
       </c>
@@ -21135,8 +21139,8 @@
       <c r="A29" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="191"/>
       <c r="D29" s="50" t="s">
         <v>93</v>
       </c>
@@ -21147,8 +21151,8 @@
       <c r="A30" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
       <c r="D30" s="50" t="s">
         <v>92</v>
       </c>
@@ -21159,8 +21163,8 @@
       <c r="A31" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
+      <c r="B31" s="191"/>
+      <c r="C31" s="191"/>
       <c r="D31" s="52" t="s">
         <v>166</v>
       </c>
@@ -21186,10 +21190,10 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="183"/>
-      <c r="B33" s="180"/>
-      <c r="C33" s="180"/>
-      <c r="D33" s="180"/>
+      <c r="A33" s="180"/>
+      <c r="B33" s="171"/>
+      <c r="C33" s="171"/>
+      <c r="D33" s="171"/>
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
     </row>
@@ -21237,7 +21241,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21250,11 +21254,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
       <c r="D1" s="77"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -21272,12 +21276,12 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="181" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
@@ -21293,12 +21297,12 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="173" t="s">
         <v>1028</v>
       </c>
-      <c r="B5" s="179"/>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
       <c r="E5" s="3"/>
       <c r="F5" s="75"/>
       <c r="G5" s="3"/>
@@ -21323,8 +21327,8 @@
       <c r="A6" s="73" t="s">
         <v>768</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="190"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="187"/>
       <c r="D6" s="71"/>
       <c r="E6" s="34"/>
       <c r="F6" s="6"/>
@@ -21340,12 +21344,12 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="185" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="188"/>
-      <c r="C8" s="188"/>
-      <c r="D8" s="180"/>
+      <c r="B8" s="185"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="171"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -21373,7 +21377,7 @@
       <c r="B9" s="100" t="s">
         <v>820</v>
       </c>
-      <c r="C9" s="122"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="46" t="s">
         <v>811</v>
       </c>
@@ -21388,7 +21392,7 @@
       <c r="B10" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C10" s="123"/>
+      <c r="C10" s="122"/>
       <c r="D10" s="46" t="s">
         <v>812</v>
       </c>
@@ -21425,12 +21429,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="188" t="s">
+      <c r="A13" s="185" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="188"/>
-      <c r="C13" s="188"/>
-      <c r="D13" s="180"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="171"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -21458,7 +21462,7 @@
       <c r="B14" s="100" t="s">
         <v>820</v>
       </c>
-      <c r="C14" s="122"/>
+      <c r="C14" s="121"/>
       <c r="D14" s="46" t="s">
         <v>818</v>
       </c>
@@ -21473,7 +21477,7 @@
       <c r="B15" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C15" s="123"/>
+      <c r="C15" s="122"/>
       <c r="D15" s="46" t="s">
         <v>827</v>
       </c>
@@ -21523,20 +21527,20 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="183"/>
-      <c r="B18" s="180"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="180"/>
+      <c r="A18" s="180"/>
+      <c r="B18" s="171"/>
+      <c r="C18" s="171"/>
+      <c r="D18" s="171"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="173" t="s">
+      <c r="A19" s="170" t="s">
         <v>948</v>
       </c>
-      <c r="B19" s="180"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="180"/>
+      <c r="B19" s="171"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="171"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -21558,12 +21562,12 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="175" t="s">
+      <c r="A20" s="173" t="s">
         <v>981</v>
       </c>
-      <c r="B20" s="179"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="179"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
       <c r="E20" s="3"/>
       <c r="F20" s="75"/>
       <c r="G20" s="3"/>
@@ -21617,7 +21621,7 @@
       <c r="C22" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="186" t="s">
+      <c r="D22" s="183" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="32"/>
@@ -21632,15 +21636,15 @@
       <c r="C23" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="187"/>
+      <c r="D23" s="184"/>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="191"/>
       <c r="D24" s="50" t="s">
         <v>96</v>
       </c>
@@ -21651,8 +21655,8 @@
       <c r="A25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="191"/>
       <c r="D25" s="50" t="s">
         <v>95</v>
       </c>
@@ -21663,8 +21667,8 @@
       <c r="A26" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="191"/>
       <c r="D26" s="50" t="s">
         <v>94</v>
       </c>
@@ -21675,8 +21679,8 @@
       <c r="A27" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
+      <c r="B27" s="191"/>
+      <c r="C27" s="191"/>
       <c r="D27" s="50" t="s">
         <v>771</v>
       </c>
@@ -21687,8 +21691,8 @@
       <c r="A28" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
+      <c r="B28" s="191"/>
+      <c r="C28" s="191"/>
       <c r="D28" s="87" t="s">
         <v>772</v>
       </c>
@@ -21699,8 +21703,8 @@
       <c r="A29" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="191"/>
       <c r="D29" s="50" t="s">
         <v>93</v>
       </c>
@@ -21711,8 +21715,8 @@
       <c r="A30" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
       <c r="D30" s="50" t="s">
         <v>92</v>
       </c>
@@ -21723,8 +21727,8 @@
       <c r="A31" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
+      <c r="B31" s="191"/>
+      <c r="C31" s="191"/>
       <c r="D31" s="52" t="s">
         <v>166</v>
       </c>
@@ -21750,10 +21754,10 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="183"/>
-      <c r="B33" s="180"/>
-      <c r="C33" s="180"/>
-      <c r="D33" s="180"/>
+      <c r="A33" s="180"/>
+      <c r="B33" s="171"/>
+      <c r="C33" s="171"/>
+      <c r="D33" s="171"/>
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
     </row>

--- a/data/imports/mrss-export.xlsx
+++ b/data/imports/mrss-export.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Gates Folder\MRSS Development\Applications Development\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="12225" yWindow="0" windowWidth="25605" windowHeight="16065"/>
   </bookViews>
@@ -32,7 +37,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="9">Form2i!$A$1:$D$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">Form2j!$A$1:$D$33</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -5692,8 +5697,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="166" formatCode="0\%"/>
-    <numFmt numFmtId="167" formatCode="0.00\%\ "/>
+    <numFmt numFmtId="165" formatCode="0\%"/>
+    <numFmt numFmtId="166" formatCode="0.00\%\ "/>
   </numFmts>
   <fonts count="53" x14ac:knownFonts="1">
     <font>
@@ -6593,6 +6598,18 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
@@ -6653,18 +6670,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -7368,7 +7373,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7403,7 +7408,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7618,7 +7623,7 @@
   <dimension ref="A1:Y467"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A42" sqref="A42:A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7634,11 +7639,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="178" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -7660,11 +7665,11 @@
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="177" t="s">
         <v>1037</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
       <c r="D3" s="12"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -7674,11 +7679,11 @@
       <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:25" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="173" t="s">
+      <c r="A4" s="177" t="s">
         <v>1038</v>
       </c>
-      <c r="B4" s="173"/>
-      <c r="C4" s="173"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
       <c r="D4" s="85"/>
       <c r="E4" s="89"/>
       <c r="F4" s="30"/>
@@ -7715,10 +7720,10 @@
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:25" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="175" t="s">
+      <c r="A6" s="179" t="s">
         <v>804</v>
       </c>
-      <c r="B6" s="175"/>
+      <c r="B6" s="179"/>
       <c r="C6" s="148" t="s">
         <v>694</v>
       </c>
@@ -7746,11 +7751,11 @@
       <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="1:25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="173" t="s">
+      <c r="A7" s="177" t="s">
         <v>1036</v>
       </c>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="177"/>
       <c r="D7" s="85"/>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
@@ -7920,11 +7925,11 @@
       <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="1:25" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="172" t="s">
+      <c r="A17" s="176" t="s">
         <v>776</v>
       </c>
-      <c r="B17" s="172"/>
-      <c r="C17" s="172"/>
+      <c r="B17" s="176"/>
+      <c r="C17" s="176"/>
       <c r="D17" s="20"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -8046,11 +8051,11 @@
       <c r="J23" s="12"/>
     </row>
     <row r="24" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="170" t="s">
+      <c r="A24" s="174" t="s">
         <v>940</v>
       </c>
-      <c r="B24" s="171"/>
-      <c r="C24" s="171"/>
+      <c r="B24" s="175"/>
+      <c r="C24" s="175"/>
       <c r="D24" s="4"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
@@ -8075,11 +8080,11 @@
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="1:25" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="172" t="s">
+      <c r="A25" s="176" t="s">
         <v>1051</v>
       </c>
-      <c r="B25" s="172"/>
-      <c r="C25" s="172"/>
+      <c r="B25" s="176"/>
+      <c r="C25" s="176"/>
       <c r="D25" s="20"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -8131,12 +8136,12 @@
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:25" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="166" t="s">
+      <c r="A27" s="170" t="s">
         <v>805</v>
       </c>
-      <c r="B27" s="167"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
+      <c r="B27" s="171"/>
+      <c r="C27" s="171"/>
+      <c r="D27" s="171"/>
       <c r="E27" s="88"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -8329,10 +8334,10 @@
       <c r="J38" s="12"/>
     </row>
     <row r="39" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="170" t="s">
+      <c r="A39" s="174" t="s">
         <v>289</v>
       </c>
-      <c r="B39" s="171"/>
+      <c r="B39" s="175"/>
       <c r="C39" s="102" t="s">
         <v>694</v>
       </c>
@@ -8360,11 +8365,11 @@
       <c r="Y39" s="3"/>
     </row>
     <row r="40" spans="1:25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="172" t="s">
+      <c r="A40" s="176" t="s">
         <v>1039</v>
       </c>
-      <c r="B40" s="172"/>
-      <c r="C40" s="172"/>
+      <c r="B40" s="176"/>
+      <c r="C40" s="176"/>
       <c r="D40" s="20"/>
       <c r="E40" s="30"/>
       <c r="F40" s="30"/>
@@ -8392,8 +8397,8 @@
       <c r="A41" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="168"/>
-      <c r="C41" s="169"/>
+      <c r="B41" s="172"/>
+      <c r="C41" s="173"/>
       <c r="D41" s="91"/>
       <c r="E41" s="91"/>
       <c r="F41" s="91"/>
@@ -8551,8 +8556,8 @@
       <c r="A51" s="137" t="s">
         <v>1041</v>
       </c>
-      <c r="B51" s="168"/>
-      <c r="C51" s="169"/>
+      <c r="B51" s="172"/>
+      <c r="C51" s="173"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
       <c r="F51" s="19"/>
@@ -8647,8 +8652,8 @@
       <c r="A57" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="B57" s="168"/>
-      <c r="C57" s="169"/>
+      <c r="B57" s="172"/>
+      <c r="C57" s="173"/>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
       <c r="F57" s="19"/>
@@ -8743,8 +8748,8 @@
       <c r="A63" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="B63" s="168"/>
-      <c r="C63" s="169"/>
+      <c r="B63" s="172"/>
+      <c r="C63" s="173"/>
       <c r="D63" s="39"/>
       <c r="E63" s="39"/>
       <c r="F63" s="39"/>
@@ -8840,8 +8845,8 @@
       <c r="A69" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="B69" s="168"/>
-      <c r="C69" s="169"/>
+      <c r="B69" s="172"/>
+      <c r="C69" s="173"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
@@ -8936,8 +8941,8 @@
       <c r="A75" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="B75" s="168"/>
-      <c r="C75" s="169"/>
+      <c r="B75" s="172"/>
+      <c r="C75" s="173"/>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="19"/>
@@ -9015,8 +9020,8 @@
       <c r="A80" s="137" t="s">
         <v>1040</v>
       </c>
-      <c r="B80" s="168"/>
-      <c r="C80" s="171"/>
+      <c r="B80" s="172"/>
+      <c r="C80" s="175"/>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
@@ -9111,8 +9116,8 @@
       <c r="A86" s="27" t="s">
         <v>774</v>
       </c>
-      <c r="B86" s="168"/>
-      <c r="C86" s="169"/>
+      <c r="B86" s="172"/>
+      <c r="C86" s="173"/>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
       <c r="F86" s="19"/>
@@ -9207,8 +9212,8 @@
       <c r="A92" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="B92" s="168"/>
-      <c r="C92" s="169"/>
+      <c r="B92" s="172"/>
+      <c r="C92" s="173"/>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
@@ -9286,8 +9291,8 @@
       <c r="A97" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="B97" s="168"/>
-      <c r="C97" s="169"/>
+      <c r="B97" s="172"/>
+      <c r="C97" s="173"/>
       <c r="D97" s="19"/>
       <c r="E97" s="19"/>
       <c r="F97" s="19"/>
@@ -9384,8 +9389,8 @@
       <c r="A103" s="27" t="s">
         <v>1023</v>
       </c>
-      <c r="B103" s="168"/>
-      <c r="C103" s="169"/>
+      <c r="B103" s="172"/>
+      <c r="C103" s="173"/>
       <c r="D103" s="19"/>
       <c r="E103" s="19"/>
       <c r="F103" s="19"/>
@@ -9520,11 +9525,11 @@
       <c r="Y110" s="3"/>
     </row>
     <row r="111" spans="1:25" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="172" t="s">
+      <c r="A111" s="176" t="s">
         <v>1039</v>
       </c>
-      <c r="B111" s="172"/>
-      <c r="C111" s="172"/>
+      <c r="B111" s="176"/>
+      <c r="C111" s="176"/>
       <c r="D111" s="20"/>
       <c r="E111" s="30"/>
       <c r="F111" s="30"/>
@@ -9552,8 +9557,8 @@
       <c r="A112" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B112" s="168"/>
-      <c r="C112" s="169"/>
+      <c r="B112" s="172"/>
+      <c r="C112" s="173"/>
       <c r="D112" s="19"/>
       <c r="E112" s="19"/>
       <c r="F112" s="19"/>
@@ -9648,8 +9653,8 @@
       <c r="A118" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B118" s="168"/>
-      <c r="C118" s="169"/>
+      <c r="B118" s="172"/>
+      <c r="C118" s="173"/>
       <c r="D118" s="19"/>
       <c r="E118" s="19"/>
       <c r="F118" s="19"/>
@@ -9728,8 +9733,8 @@
       <c r="A123" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B123" s="168"/>
-      <c r="C123" s="169"/>
+      <c r="B123" s="172"/>
+      <c r="C123" s="173"/>
       <c r="D123" s="19"/>
       <c r="E123" s="19"/>
       <c r="F123" s="19"/>
@@ -9880,7 +9885,7 @@
       <c r="A132" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="B132" s="189"/>
+      <c r="B132" s="166"/>
       <c r="C132" s="132" t="s">
         <v>1008</v>
       </c>
@@ -9897,7 +9902,7 @@
       <c r="A133" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="B133" s="189"/>
+      <c r="B133" s="166"/>
       <c r="C133" s="132" t="s">
         <v>122</v>
       </c>
@@ -9914,7 +9919,7 @@
       <c r="A134" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="B134" s="189"/>
+      <c r="B134" s="166"/>
       <c r="C134" s="131" t="s">
         <v>123</v>
       </c>
@@ -10044,7 +10049,7 @@
       <c r="A142" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="B142" s="189"/>
+      <c r="B142" s="166"/>
       <c r="C142" s="131" t="s">
         <v>126</v>
       </c>
@@ -10061,7 +10066,7 @@
       <c r="A143" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="B143" s="189"/>
+      <c r="B143" s="166"/>
       <c r="C143" s="138" t="s">
         <v>134</v>
       </c>
@@ -10078,7 +10083,7 @@
       <c r="A144" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="189"/>
+      <c r="B144" s="166"/>
       <c r="C144" s="132" t="s">
         <v>127</v>
       </c>
@@ -10146,7 +10151,7 @@
       <c r="A148" s="133" t="s">
         <v>280</v>
       </c>
-      <c r="B148" s="189"/>
+      <c r="B148" s="166"/>
       <c r="C148" s="131" t="s">
         <v>125</v>
       </c>
@@ -10206,7 +10211,7 @@
       <c r="A152" s="135" t="s">
         <v>1052</v>
       </c>
-      <c r="B152" s="189"/>
+      <c r="B152" s="166"/>
       <c r="C152" s="112"/>
       <c r="D152" s="19" t="s">
         <v>38</v>
@@ -10221,7 +10226,7 @@
       <c r="A153" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="B153" s="189"/>
+      <c r="B153" s="166"/>
       <c r="C153" s="112"/>
       <c r="D153" s="19" t="s">
         <v>36</v>
@@ -10236,7 +10241,7 @@
       <c r="A154" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="B154" s="189"/>
+      <c r="B154" s="166"/>
       <c r="C154" s="112"/>
       <c r="D154" s="19" t="s">
         <v>34</v>
@@ -10251,7 +10256,7 @@
       <c r="A155" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="B155" s="189"/>
+      <c r="B155" s="166"/>
       <c r="C155" s="112"/>
       <c r="D155" s="19" t="s">
         <v>32</v>
@@ -10266,7 +10271,7 @@
       <c r="A156" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="B156" s="189"/>
+      <c r="B156" s="166"/>
       <c r="C156" s="112"/>
       <c r="D156" s="19" t="s">
         <v>30</v>
@@ -10281,7 +10286,7 @@
       <c r="A157" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="B157" s="189"/>
+      <c r="B157" s="166"/>
       <c r="C157" s="112"/>
       <c r="D157" s="19" t="s">
         <v>28</v>
@@ -10296,7 +10301,7 @@
       <c r="A158" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B158" s="189"/>
+      <c r="B158" s="166"/>
       <c r="C158" s="112"/>
       <c r="D158" s="19" t="s">
         <v>26</v>
@@ -10311,7 +10316,7 @@
       <c r="A159" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="B159" s="189"/>
+      <c r="B159" s="166"/>
       <c r="C159" s="112"/>
       <c r="D159" s="19" t="s">
         <v>24</v>
@@ -10326,7 +10331,7 @@
       <c r="A160" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="B160" s="189"/>
+      <c r="B160" s="166"/>
       <c r="C160" s="112"/>
       <c r="D160" s="19" t="s">
         <v>22</v>
@@ -10418,7 +10423,7 @@
       <c r="A166" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="B166" s="189"/>
+      <c r="B166" s="166"/>
       <c r="C166" s="112" t="s">
         <v>113</v>
       </c>
@@ -10435,7 +10440,7 @@
       <c r="A167" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="B167" s="189"/>
+      <c r="B167" s="166"/>
       <c r="C167" s="111"/>
       <c r="D167" s="19" t="s">
         <v>16</v>
@@ -10450,7 +10455,7 @@
       <c r="A168" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="B168" s="189"/>
+      <c r="B168" s="166"/>
       <c r="C168" s="111"/>
       <c r="D168" s="19" t="s">
         <v>15</v>
@@ -10587,7 +10592,7 @@
       <c r="A177" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="B177" s="190"/>
+      <c r="B177" s="167"/>
       <c r="C177" s="115"/>
       <c r="D177" s="19" t="s">
         <v>67</v>
@@ -10628,11 +10633,11 @@
       <c r="J179" s="12"/>
     </row>
     <row r="180" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="170" t="s">
+      <c r="A180" s="174" t="s">
         <v>1045</v>
       </c>
-      <c r="B180" s="177"/>
-      <c r="C180" s="177"/>
+      <c r="B180" s="181"/>
+      <c r="C180" s="181"/>
       <c r="D180" s="4"/>
       <c r="E180" s="30"/>
       <c r="F180" s="30"/>
@@ -10657,11 +10662,11 @@
       <c r="Y180" s="3"/>
     </row>
     <row r="181" spans="1:25" s="62" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="176" t="s">
+      <c r="A181" s="180" t="s">
         <v>283</v>
       </c>
-      <c r="B181" s="176"/>
-      <c r="C181" s="176"/>
+      <c r="B181" s="180"/>
+      <c r="C181" s="180"/>
       <c r="D181" s="93"/>
       <c r="E181" s="94"/>
       <c r="F181" s="94"/>
@@ -16161,7 +16166,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16174,11 +16179,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="178" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
       <c r="D1" s="77"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -16196,12 +16201,12 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="185" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
@@ -16217,12 +16222,12 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="69.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="177" t="s">
         <v>1031</v>
       </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="3"/>
       <c r="F5" s="75"/>
       <c r="G5" s="3"/>
@@ -16247,8 +16252,8 @@
       <c r="A6" s="73" t="s">
         <v>769</v>
       </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="187"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="191"/>
       <c r="D6" s="71"/>
       <c r="E6" s="34"/>
       <c r="F6" s="6"/>
@@ -16264,12 +16269,12 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="185" t="s">
+      <c r="A8" s="189" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="185"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="171"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="175"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -16349,12 +16354,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="185" t="s">
+      <c r="A13" s="189" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="185"/>
-      <c r="C13" s="185"/>
-      <c r="D13" s="171"/>
+      <c r="B13" s="189"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="175"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -16447,20 +16452,20 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="180"/>
-      <c r="B18" s="171"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="171"/>
+      <c r="A18" s="184"/>
+      <c r="B18" s="175"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="175"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="170" t="s">
+      <c r="A19" s="174" t="s">
         <v>949</v>
       </c>
-      <c r="B19" s="171"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
+      <c r="B19" s="175"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="175"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -16482,12 +16487,12 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="173" t="s">
+      <c r="A20" s="177" t="s">
         <v>981</v>
       </c>
-      <c r="B20" s="167"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="167"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="171"/>
       <c r="E20" s="3"/>
       <c r="F20" s="75"/>
       <c r="G20" s="3"/>
@@ -16541,7 +16546,7 @@
       <c r="C22" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="183" t="s">
+      <c r="D22" s="187" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="32"/>
@@ -16556,15 +16561,15 @@
       <c r="C23" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="184"/>
+      <c r="D23" s="188"/>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="191"/>
-      <c r="C24" s="191"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="168"/>
       <c r="D24" s="50" t="s">
         <v>96</v>
       </c>
@@ -16575,8 +16580,8 @@
       <c r="A25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="191"/>
-      <c r="C25" s="191"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
       <c r="D25" s="50" t="s">
         <v>95</v>
       </c>
@@ -16587,8 +16592,8 @@
       <c r="A26" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="191"/>
-      <c r="C26" s="191"/>
+      <c r="B26" s="168"/>
+      <c r="C26" s="168"/>
       <c r="D26" s="50" t="s">
         <v>94</v>
       </c>
@@ -16599,8 +16604,8 @@
       <c r="A27" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="191"/>
-      <c r="C27" s="191"/>
+      <c r="B27" s="168"/>
+      <c r="C27" s="168"/>
       <c r="D27" s="50" t="s">
         <v>771</v>
       </c>
@@ -16611,8 +16616,8 @@
       <c r="A28" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="191"/>
-      <c r="C28" s="191"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
       <c r="D28" s="87" t="s">
         <v>772</v>
       </c>
@@ -16623,8 +16628,8 @@
       <c r="A29" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="191"/>
-      <c r="C29" s="191"/>
+      <c r="B29" s="168"/>
+      <c r="C29" s="168"/>
       <c r="D29" s="50" t="s">
         <v>93</v>
       </c>
@@ -16635,8 +16640,8 @@
       <c r="A30" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="191"/>
-      <c r="C30" s="191"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
       <c r="D30" s="50" t="s">
         <v>92</v>
       </c>
@@ -16647,8 +16652,8 @@
       <c r="A31" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="191"/>
-      <c r="C31" s="191"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="168"/>
       <c r="D31" s="52" t="s">
         <v>166</v>
       </c>
@@ -16659,11 +16664,11 @@
       <c r="A32" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="B32" s="192">
+      <c r="B32" s="169">
         <f>SUM(B24:B31)</f>
         <v>0</v>
       </c>
-      <c r="C32" s="192">
+      <c r="C32" s="169">
         <f>SUM(C24:C31)</f>
         <v>0</v>
       </c>
@@ -16674,10 +16679,10 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="180"/>
-      <c r="B33" s="171"/>
-      <c r="C33" s="171"/>
-      <c r="D33" s="171"/>
+      <c r="A33" s="184"/>
+      <c r="B33" s="175"/>
+      <c r="C33" s="175"/>
+      <c r="D33" s="175"/>
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
     </row>
@@ -16706,7 +16711,10 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="76" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;Z&amp;F&amp;R&amp;A</oddHeader>
+    <oddHeader>&amp;R&amp;A</oddHeader>
+    <oddFooter>&amp;C
+©National Higher Educational Benchmarking Institute
+Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="17" max="16383" man="1"/>
@@ -16725,7 +16733,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16738,11 +16746,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="178" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
       <c r="D1" s="77"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -16760,12 +16768,12 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="185" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
@@ -16781,12 +16789,12 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="177" t="s">
         <v>1028</v>
       </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="3"/>
       <c r="F5" s="75"/>
       <c r="G5" s="3"/>
@@ -16811,8 +16819,8 @@
       <c r="A6" s="73" t="s">
         <v>770</v>
       </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="188"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="192"/>
       <c r="D6" s="71"/>
       <c r="E6" s="34"/>
       <c r="F6" s="6"/>
@@ -16828,12 +16836,12 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="185" t="s">
+      <c r="A8" s="189" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="185"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="171"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="175"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -16913,12 +16921,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="185" t="s">
+      <c r="A13" s="189" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="185"/>
-      <c r="C13" s="185"/>
-      <c r="D13" s="171"/>
+      <c r="B13" s="189"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="175"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -17011,20 +17019,20 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="180"/>
-      <c r="B18" s="171"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="171"/>
+      <c r="A18" s="184"/>
+      <c r="B18" s="175"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="175"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="170" t="s">
+      <c r="A19" s="174" t="s">
         <v>950</v>
       </c>
-      <c r="B19" s="171"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
+      <c r="B19" s="175"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="175"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -17046,12 +17054,12 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="173" t="s">
+      <c r="A20" s="177" t="s">
         <v>981</v>
       </c>
-      <c r="B20" s="167"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="167"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="171"/>
       <c r="E20" s="3"/>
       <c r="F20" s="75"/>
       <c r="G20" s="3"/>
@@ -17105,7 +17113,7 @@
       <c r="C22" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="183" t="s">
+      <c r="D22" s="187" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="32"/>
@@ -17120,15 +17128,15 @@
       <c r="C23" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="184"/>
+      <c r="D23" s="188"/>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="191"/>
-      <c r="C24" s="191"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="168"/>
       <c r="D24" s="50" t="s">
         <v>96</v>
       </c>
@@ -17139,8 +17147,8 @@
       <c r="A25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="191"/>
-      <c r="C25" s="191"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
       <c r="D25" s="50" t="s">
         <v>95</v>
       </c>
@@ -17151,8 +17159,8 @@
       <c r="A26" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="191"/>
-      <c r="C26" s="191"/>
+      <c r="B26" s="168"/>
+      <c r="C26" s="168"/>
       <c r="D26" s="50" t="s">
         <v>94</v>
       </c>
@@ -17163,8 +17171,8 @@
       <c r="A27" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="191"/>
-      <c r="C27" s="191"/>
+      <c r="B27" s="168"/>
+      <c r="C27" s="168"/>
       <c r="D27" s="50" t="s">
         <v>771</v>
       </c>
@@ -17175,8 +17183,8 @@
       <c r="A28" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="191"/>
-      <c r="C28" s="191"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
       <c r="D28" s="87" t="s">
         <v>772</v>
       </c>
@@ -17187,8 +17195,8 @@
       <c r="A29" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="191"/>
-      <c r="C29" s="191"/>
+      <c r="B29" s="168"/>
+      <c r="C29" s="168"/>
       <c r="D29" s="50" t="s">
         <v>93</v>
       </c>
@@ -17199,8 +17207,8 @@
       <c r="A30" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="191"/>
-      <c r="C30" s="191"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
       <c r="D30" s="50" t="s">
         <v>92</v>
       </c>
@@ -17211,8 +17219,8 @@
       <c r="A31" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="191"/>
-      <c r="C31" s="191"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="168"/>
       <c r="D31" s="52" t="s">
         <v>166</v>
       </c>
@@ -17223,11 +17231,11 @@
       <c r="A32" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="B32" s="192">
+      <c r="B32" s="169">
         <f>SUM(B24:B31)</f>
         <v>0</v>
       </c>
-      <c r="C32" s="192">
+      <c r="C32" s="169">
         <f>SUM(C24:C31)</f>
         <v>0</v>
       </c>
@@ -17238,10 +17246,10 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="180"/>
-      <c r="B33" s="171"/>
-      <c r="C33" s="171"/>
-      <c r="D33" s="171"/>
+      <c r="A33" s="184"/>
+      <c r="B33" s="175"/>
+      <c r="C33" s="175"/>
+      <c r="D33" s="175"/>
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
     </row>
@@ -17270,7 +17278,10 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;Z&amp;F&amp;R&amp;A</oddHeader>
+    <oddHeader>&amp;R&amp;A</oddHeader>
+    <oddFooter>&amp;C
+©National Higher Educational Benchmarking Institute
+Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="17" max="16383" man="1"/>
@@ -17288,12 +17299,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C
+©National Higher Educational Benchmarking Institute
+Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -17324,12 +17340,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="182" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
       <c r="G1" s="11"/>
@@ -17338,10 +17354,10 @@
       <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:25" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="179"/>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
+      <c r="A2" s="183"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -17350,12 +17366,12 @@
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="185" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
@@ -17371,12 +17387,12 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="177" t="s">
         <v>1059</v>
       </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="3"/>
       <c r="F5" s="75"/>
       <c r="G5" s="3"/>
@@ -17419,12 +17435,12 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="185" t="s">
+      <c r="A8" s="189" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="185"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="171"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="175"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -17505,12 +17521,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="185" t="s">
+      <c r="A13" s="189" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="185"/>
-      <c r="C13" s="185"/>
-      <c r="D13" s="171"/>
+      <c r="B13" s="189"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="175"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -17578,20 +17594,20 @@
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="180"/>
-      <c r="B17" s="171"/>
-      <c r="C17" s="171"/>
-      <c r="D17" s="171"/>
+      <c r="A17" s="184"/>
+      <c r="B17" s="175"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="175"/>
       <c r="E17" s="11"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="170" t="s">
+      <c r="A18" s="174" t="s">
         <v>941</v>
       </c>
-      <c r="B18" s="171"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="171"/>
+      <c r="B18" s="175"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="175"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -17613,12 +17629,12 @@
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A19" s="173" t="s">
+      <c r="A19" s="177" t="s">
         <v>981</v>
       </c>
-      <c r="B19" s="167"/>
-      <c r="C19" s="167"/>
-      <c r="D19" s="167"/>
+      <c r="B19" s="171"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="171"/>
       <c r="E19" s="3"/>
       <c r="F19" s="75"/>
       <c r="G19" s="3"/>
@@ -17672,7 +17688,7 @@
       <c r="C21" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D21" s="183" t="s">
+      <c r="D21" s="187" t="s">
         <v>146</v>
       </c>
       <c r="E21" s="32"/>
@@ -17687,15 +17703,15 @@
       <c r="C22" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D22" s="184"/>
+      <c r="D22" s="188"/>
       <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="191"/>
-      <c r="C23" s="191"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="168"/>
       <c r="D23" s="50" t="s">
         <v>96</v>
       </c>
@@ -17706,8 +17722,8 @@
       <c r="A24" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="191"/>
-      <c r="C24" s="191"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="168"/>
       <c r="D24" s="50" t="s">
         <v>95</v>
       </c>
@@ -17718,8 +17734,8 @@
       <c r="A25" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="191"/>
-      <c r="C25" s="191"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
       <c r="D25" s="50" t="s">
         <v>94</v>
       </c>
@@ -17730,8 +17746,8 @@
       <c r="A26" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B26" s="191"/>
-      <c r="C26" s="191"/>
+      <c r="B26" s="168"/>
+      <c r="C26" s="168"/>
       <c r="D26" s="50" t="s">
         <v>771</v>
       </c>
@@ -17742,8 +17758,8 @@
       <c r="A27" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="191"/>
-      <c r="C27" s="191"/>
+      <c r="B27" s="168"/>
+      <c r="C27" s="168"/>
       <c r="D27" s="87" t="s">
         <v>772</v>
       </c>
@@ -17754,8 +17770,8 @@
       <c r="A28" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="191"/>
-      <c r="C28" s="191"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
       <c r="D28" s="50" t="s">
         <v>93</v>
       </c>
@@ -17766,8 +17782,8 @@
       <c r="A29" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="191"/>
-      <c r="C29" s="191"/>
+      <c r="B29" s="168"/>
+      <c r="C29" s="168"/>
       <c r="D29" s="50" t="s">
         <v>92</v>
       </c>
@@ -17778,8 +17794,8 @@
       <c r="A30" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B30" s="191"/>
-      <c r="C30" s="191"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
       <c r="D30" s="52" t="s">
         <v>166</v>
       </c>
@@ -17790,11 +17806,11 @@
       <c r="A31" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="B31" s="192">
+      <c r="B31" s="169">
         <f>SUM(B23:B30)</f>
         <v>0</v>
       </c>
-      <c r="C31" s="192">
+      <c r="C31" s="169">
         <f>SUM(C23:C30)</f>
         <v>0</v>
       </c>
@@ -17805,10 +17821,10 @@
       <c r="F31" s="35"/>
     </row>
     <row r="32" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="180"/>
-      <c r="B32" s="171"/>
-      <c r="C32" s="171"/>
-      <c r="D32" s="171"/>
+      <c r="A32" s="184"/>
+      <c r="B32" s="175"/>
+      <c r="C32" s="175"/>
+      <c r="D32" s="175"/>
       <c r="E32" s="11"/>
       <c r="F32" s="12"/>
     </row>
@@ -17835,9 +17851,11 @@
     <mergeCell ref="A19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="83" fitToHeight="2" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="84" fitToHeight="2" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;Z&amp;F&amp;R&amp;A</oddHeader>
+    <oddFooter>&amp;C
+©National Higher Educational Benchmarking Institute
+Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="17" max="16383" man="1"/>
@@ -17856,7 +17874,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17869,11 +17887,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="178" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
       <c r="D1" s="77"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -17891,12 +17909,12 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="185" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
@@ -17912,12 +17930,12 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="177" t="s">
         <v>1022</v>
       </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="3"/>
       <c r="F5" s="75"/>
       <c r="G5" s="3"/>
@@ -17942,8 +17960,8 @@
       <c r="A6" s="73" t="s">
         <v>762</v>
       </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="187"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="191"/>
       <c r="D6" s="71"/>
       <c r="E6" s="34"/>
       <c r="F6" s="6"/>
@@ -17959,12 +17977,12 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="185" t="s">
+      <c r="A8" s="189" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="185"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="171"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="175"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -18044,12 +18062,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="185" t="s">
+      <c r="A13" s="189" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="185"/>
-      <c r="C13" s="185"/>
-      <c r="D13" s="171"/>
+      <c r="B13" s="189"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="175"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -18142,20 +18160,20 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="180"/>
-      <c r="B18" s="171"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="171"/>
+      <c r="A18" s="184"/>
+      <c r="B18" s="175"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="175"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="170" t="s">
+      <c r="A19" s="174" t="s">
         <v>942</v>
       </c>
-      <c r="B19" s="171"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
+      <c r="B19" s="175"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="175"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -18177,12 +18195,12 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="173" t="s">
+      <c r="A20" s="177" t="s">
         <v>981</v>
       </c>
-      <c r="B20" s="167"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="167"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="171"/>
       <c r="E20" s="3"/>
       <c r="F20" s="75"/>
       <c r="G20" s="3"/>
@@ -18236,7 +18254,7 @@
       <c r="C22" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="183" t="s">
+      <c r="D22" s="187" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="32"/>
@@ -18251,15 +18269,15 @@
       <c r="C23" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="184"/>
+      <c r="D23" s="188"/>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="191"/>
-      <c r="C24" s="191"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="168"/>
       <c r="D24" s="50" t="s">
         <v>96</v>
       </c>
@@ -18270,8 +18288,8 @@
       <c r="A25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="191"/>
-      <c r="C25" s="191"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
       <c r="D25" s="50" t="s">
         <v>95</v>
       </c>
@@ -18282,8 +18300,8 @@
       <c r="A26" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="191"/>
-      <c r="C26" s="191"/>
+      <c r="B26" s="168"/>
+      <c r="C26" s="168"/>
       <c r="D26" s="50" t="s">
         <v>94</v>
       </c>
@@ -18294,8 +18312,8 @@
       <c r="A27" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="191"/>
-      <c r="C27" s="191"/>
+      <c r="B27" s="168"/>
+      <c r="C27" s="168"/>
       <c r="D27" s="50" t="s">
         <v>771</v>
       </c>
@@ -18306,8 +18324,8 @@
       <c r="A28" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="191"/>
-      <c r="C28" s="191"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
       <c r="D28" s="86" t="s">
         <v>772</v>
       </c>
@@ -18318,8 +18336,8 @@
       <c r="A29" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="191"/>
-      <c r="C29" s="191"/>
+      <c r="B29" s="168"/>
+      <c r="C29" s="168"/>
       <c r="D29" s="50" t="s">
         <v>93</v>
       </c>
@@ -18330,8 +18348,8 @@
       <c r="A30" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="191"/>
-      <c r="C30" s="191"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
       <c r="D30" s="50" t="s">
         <v>92</v>
       </c>
@@ -18342,8 +18360,8 @@
       <c r="A31" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="191"/>
-      <c r="C31" s="191"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="168"/>
       <c r="D31" s="52" t="s">
         <v>166</v>
       </c>
@@ -18354,11 +18372,11 @@
       <c r="A32" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="B32" s="192">
+      <c r="B32" s="169">
         <f>SUM(B24:B31)</f>
         <v>0</v>
       </c>
-      <c r="C32" s="192">
+      <c r="C32" s="169">
         <f>SUM(C24:C31)</f>
         <v>0</v>
       </c>
@@ -18369,10 +18387,10 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="180"/>
-      <c r="B33" s="171"/>
-      <c r="C33" s="171"/>
-      <c r="D33" s="171"/>
+      <c r="A33" s="184"/>
+      <c r="B33" s="175"/>
+      <c r="C33" s="175"/>
+      <c r="D33" s="175"/>
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
     </row>
@@ -18401,7 +18419,10 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;Z&amp;F&amp;R&amp;A</oddHeader>
+    <oddHeader>&amp;R&amp;A</oddHeader>
+    <oddFooter>&amp;C
+©National Higher Educational Benchmarking Institute
+Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="17" max="16383" man="1"/>
@@ -18420,7 +18441,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18433,11 +18454,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="178" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
       <c r="D1" s="77"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -18455,12 +18476,12 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="185" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
@@ -18476,12 +18497,12 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="177" t="s">
         <v>1028</v>
       </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="3"/>
       <c r="F5" s="75"/>
       <c r="G5" s="3"/>
@@ -18506,8 +18527,8 @@
       <c r="A6" s="73" t="s">
         <v>763</v>
       </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="188"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="192"/>
       <c r="D6" s="71"/>
       <c r="E6" s="34"/>
       <c r="F6" s="6"/>
@@ -18523,12 +18544,12 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="185" t="s">
+      <c r="A8" s="189" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="185"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="171"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="175"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -18608,12 +18629,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="185" t="s">
+      <c r="A13" s="189" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="185"/>
-      <c r="C13" s="185"/>
-      <c r="D13" s="171"/>
+      <c r="B13" s="189"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="175"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -18706,20 +18727,20 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="180"/>
-      <c r="B18" s="171"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="171"/>
+      <c r="A18" s="184"/>
+      <c r="B18" s="175"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="175"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="170" t="s">
+      <c r="A19" s="174" t="s">
         <v>943</v>
       </c>
-      <c r="B19" s="171"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
+      <c r="B19" s="175"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="175"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -18741,12 +18762,12 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="173" t="s">
+      <c r="A20" s="177" t="s">
         <v>981</v>
       </c>
-      <c r="B20" s="167"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="167"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="171"/>
       <c r="E20" s="3"/>
       <c r="F20" s="75"/>
       <c r="G20" s="3"/>
@@ -18800,7 +18821,7 @@
       <c r="C22" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="183" t="s">
+      <c r="D22" s="187" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="32"/>
@@ -18815,7 +18836,7 @@
       <c r="C23" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="184"/>
+      <c r="D23" s="188"/>
       <c r="E23" s="32"/>
       <c r="F23" s="76"/>
     </row>
@@ -18823,8 +18844,8 @@
       <c r="A24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="191"/>
-      <c r="C24" s="191"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="168"/>
       <c r="D24" s="50" t="s">
         <v>96</v>
       </c>
@@ -18835,8 +18856,8 @@
       <c r="A25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="191"/>
-      <c r="C25" s="191"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
       <c r="D25" s="50" t="s">
         <v>95</v>
       </c>
@@ -18847,8 +18868,8 @@
       <c r="A26" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="191"/>
-      <c r="C26" s="191"/>
+      <c r="B26" s="168"/>
+      <c r="C26" s="168"/>
       <c r="D26" s="50" t="s">
         <v>94</v>
       </c>
@@ -18859,8 +18880,8 @@
       <c r="A27" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="191"/>
-      <c r="C27" s="191"/>
+      <c r="B27" s="168"/>
+      <c r="C27" s="168"/>
       <c r="D27" s="50" t="s">
         <v>771</v>
       </c>
@@ -18871,8 +18892,8 @@
       <c r="A28" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="191"/>
-      <c r="C28" s="191"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
       <c r="D28" s="87" t="s">
         <v>772</v>
       </c>
@@ -18883,8 +18904,8 @@
       <c r="A29" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="191"/>
-      <c r="C29" s="191"/>
+      <c r="B29" s="168"/>
+      <c r="C29" s="168"/>
       <c r="D29" s="50" t="s">
         <v>93</v>
       </c>
@@ -18895,8 +18916,8 @@
       <c r="A30" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="191"/>
-      <c r="C30" s="191"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
       <c r="D30" s="50" t="s">
         <v>92</v>
       </c>
@@ -18907,8 +18928,8 @@
       <c r="A31" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="191"/>
-      <c r="C31" s="191"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="168"/>
       <c r="D31" s="52" t="s">
         <v>166</v>
       </c>
@@ -18919,11 +18940,11 @@
       <c r="A32" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="B32" s="192">
+      <c r="B32" s="169">
         <f>SUM(B24:B31)</f>
         <v>0</v>
       </c>
-      <c r="C32" s="192">
+      <c r="C32" s="169">
         <f>SUM(C24:C31)</f>
         <v>0</v>
       </c>
@@ -18934,10 +18955,10 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="180"/>
-      <c r="B33" s="171"/>
-      <c r="C33" s="171"/>
-      <c r="D33" s="171"/>
+      <c r="A33" s="184"/>
+      <c r="B33" s="175"/>
+      <c r="C33" s="175"/>
+      <c r="D33" s="175"/>
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
     </row>
@@ -18966,7 +18987,10 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;Z&amp;F&amp;R&amp;A</oddHeader>
+    <oddHeader>&amp;R&amp;A</oddHeader>
+    <oddFooter>&amp;C
+©National Higher Educational Benchmarking Institute
+Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="17" max="16383" man="1"/>
@@ -18998,11 +19022,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="178" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
       <c r="D1" s="77"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -19020,12 +19044,12 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="185" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
@@ -19041,12 +19065,12 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="177" t="s">
         <v>1029</v>
       </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="3"/>
       <c r="F5" s="75"/>
       <c r="G5" s="3"/>
@@ -19071,8 +19095,8 @@
       <c r="A6" s="73" t="s">
         <v>764</v>
       </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="188"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="192"/>
       <c r="D6" s="71"/>
       <c r="E6" s="34"/>
       <c r="F6" s="6"/>
@@ -19088,12 +19112,12 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="185" t="s">
+      <c r="A8" s="189" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="185"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="171"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="175"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -19173,12 +19197,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="185" t="s">
+      <c r="A13" s="189" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="185"/>
-      <c r="C13" s="185"/>
-      <c r="D13" s="171"/>
+      <c r="B13" s="189"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="175"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -19271,20 +19295,20 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="180"/>
-      <c r="B18" s="171"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="171"/>
+      <c r="A18" s="184"/>
+      <c r="B18" s="175"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="175"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="170" t="s">
+      <c r="A19" s="174" t="s">
         <v>944</v>
       </c>
-      <c r="B19" s="171"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
+      <c r="B19" s="175"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="175"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -19306,12 +19330,12 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="173" t="s">
+      <c r="A20" s="177" t="s">
         <v>981</v>
       </c>
-      <c r="B20" s="167"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="167"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="171"/>
       <c r="E20" s="3"/>
       <c r="F20" s="75"/>
       <c r="G20" s="3"/>
@@ -19365,7 +19389,7 @@
       <c r="C22" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="183" t="s">
+      <c r="D22" s="187" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="32"/>
@@ -19380,15 +19404,15 @@
       <c r="C23" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="184"/>
+      <c r="D23" s="188"/>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="191"/>
-      <c r="C24" s="191"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="168"/>
       <c r="D24" s="50" t="s">
         <v>96</v>
       </c>
@@ -19399,8 +19423,8 @@
       <c r="A25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="191"/>
-      <c r="C25" s="191"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
       <c r="D25" s="50" t="s">
         <v>95</v>
       </c>
@@ -19411,8 +19435,8 @@
       <c r="A26" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="191"/>
-      <c r="C26" s="191"/>
+      <c r="B26" s="168"/>
+      <c r="C26" s="168"/>
       <c r="D26" s="50" t="s">
         <v>94</v>
       </c>
@@ -19423,8 +19447,8 @@
       <c r="A27" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="191"/>
-      <c r="C27" s="191"/>
+      <c r="B27" s="168"/>
+      <c r="C27" s="168"/>
       <c r="D27" s="50" t="s">
         <v>771</v>
       </c>
@@ -19435,8 +19459,8 @@
       <c r="A28" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="191"/>
-      <c r="C28" s="191"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
       <c r="D28" s="87" t="s">
         <v>772</v>
       </c>
@@ -19447,8 +19471,8 @@
       <c r="A29" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="191"/>
-      <c r="C29" s="191"/>
+      <c r="B29" s="168"/>
+      <c r="C29" s="168"/>
       <c r="D29" s="50" t="s">
         <v>93</v>
       </c>
@@ -19459,8 +19483,8 @@
       <c r="A30" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="191"/>
-      <c r="C30" s="191"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
       <c r="D30" s="50" t="s">
         <v>92</v>
       </c>
@@ -19471,8 +19495,8 @@
       <c r="A31" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="191"/>
-      <c r="C31" s="191"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="168"/>
       <c r="D31" s="52" t="s">
         <v>166</v>
       </c>
@@ -19483,11 +19507,11 @@
       <c r="A32" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="B32" s="192">
+      <c r="B32" s="169">
         <f>SUM(B24:B31)</f>
         <v>0</v>
       </c>
-      <c r="C32" s="192">
+      <c r="C32" s="169">
         <f>SUM(C24:C31)</f>
         <v>0</v>
       </c>
@@ -19498,10 +19522,10 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="180"/>
-      <c r="B33" s="171"/>
-      <c r="C33" s="171"/>
-      <c r="D33" s="171"/>
+      <c r="A33" s="184"/>
+      <c r="B33" s="175"/>
+      <c r="C33" s="175"/>
+      <c r="D33" s="175"/>
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
     </row>
@@ -19530,7 +19554,10 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="76" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;Z&amp;F&amp;R&amp;A</oddHeader>
+    <oddHeader>&amp;R&amp;A</oddHeader>
+    <oddFooter>&amp;C
+©National Higher Educational Benchmarking Institute
+Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="17" max="16383" man="1"/>
@@ -19549,7 +19576,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19562,11 +19589,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="178" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
       <c r="D1" s="77"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -19584,12 +19611,12 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="185" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
@@ -19605,12 +19632,12 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="177" t="s">
         <v>1028</v>
       </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="3"/>
       <c r="F5" s="75"/>
       <c r="G5" s="3"/>
@@ -19635,8 +19662,8 @@
       <c r="A6" s="73" t="s">
         <v>765</v>
       </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="188"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="192"/>
       <c r="D6" s="71"/>
       <c r="E6" s="34"/>
       <c r="F6" s="6"/>
@@ -19652,12 +19679,12 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="185" t="s">
+      <c r="A8" s="189" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="185"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="171"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="175"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -19737,12 +19764,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="185" t="s">
+      <c r="A13" s="189" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="185"/>
-      <c r="C13" s="185"/>
-      <c r="D13" s="171"/>
+      <c r="B13" s="189"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="175"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -19835,20 +19862,20 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="180"/>
-      <c r="B18" s="171"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="171"/>
+      <c r="A18" s="184"/>
+      <c r="B18" s="175"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="175"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="170" t="s">
+      <c r="A19" s="174" t="s">
         <v>945</v>
       </c>
-      <c r="B19" s="171"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
+      <c r="B19" s="175"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="175"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -19870,12 +19897,12 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="173" t="s">
+      <c r="A20" s="177" t="s">
         <v>981</v>
       </c>
-      <c r="B20" s="167"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="167"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="171"/>
       <c r="E20" s="3"/>
       <c r="F20" s="75"/>
       <c r="G20" s="3"/>
@@ -19929,7 +19956,7 @@
       <c r="C22" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="183" t="s">
+      <c r="D22" s="187" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="32"/>
@@ -19944,15 +19971,15 @@
       <c r="C23" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="184"/>
+      <c r="D23" s="188"/>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="191"/>
-      <c r="C24" s="191"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="168"/>
       <c r="D24" s="50" t="s">
         <v>96</v>
       </c>
@@ -19963,8 +19990,8 @@
       <c r="A25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="191"/>
-      <c r="C25" s="191"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
       <c r="D25" s="50" t="s">
         <v>95</v>
       </c>
@@ -19975,8 +20002,8 @@
       <c r="A26" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="191"/>
-      <c r="C26" s="191"/>
+      <c r="B26" s="168"/>
+      <c r="C26" s="168"/>
       <c r="D26" s="50" t="s">
         <v>94</v>
       </c>
@@ -19987,8 +20014,8 @@
       <c r="A27" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="191"/>
-      <c r="C27" s="191"/>
+      <c r="B27" s="168"/>
+      <c r="C27" s="168"/>
       <c r="D27" s="50" t="s">
         <v>771</v>
       </c>
@@ -19999,8 +20026,8 @@
       <c r="A28" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="191"/>
-      <c r="C28" s="191"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
       <c r="D28" s="87" t="s">
         <v>778</v>
       </c>
@@ -20011,8 +20038,8 @@
       <c r="A29" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="191"/>
-      <c r="C29" s="191"/>
+      <c r="B29" s="168"/>
+      <c r="C29" s="168"/>
       <c r="D29" s="50" t="s">
         <v>93</v>
       </c>
@@ -20023,8 +20050,8 @@
       <c r="A30" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="191"/>
-      <c r="C30" s="191"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
       <c r="D30" s="50" t="s">
         <v>92</v>
       </c>
@@ -20035,8 +20062,8 @@
       <c r="A31" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="191"/>
-      <c r="C31" s="191"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="168"/>
       <c r="D31" s="52" t="s">
         <v>166</v>
       </c>
@@ -20047,11 +20074,11 @@
       <c r="A32" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="B32" s="192">
+      <c r="B32" s="169">
         <f>SUM(B24:B31)</f>
         <v>0</v>
       </c>
-      <c r="C32" s="192">
+      <c r="C32" s="169">
         <f>SUM(C24:C31)</f>
         <v>0</v>
       </c>
@@ -20062,10 +20089,10 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="180"/>
-      <c r="B33" s="171"/>
-      <c r="C33" s="171"/>
-      <c r="D33" s="171"/>
+      <c r="A33" s="184"/>
+      <c r="B33" s="175"/>
+      <c r="C33" s="175"/>
+      <c r="D33" s="175"/>
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
     </row>
@@ -20094,7 +20121,10 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;Z&amp;F&amp;R&amp;A</oddHeader>
+    <oddHeader>&amp;R&amp;A</oddHeader>
+    <oddFooter>&amp;C
+©National Higher Educational Benchmarking Institute
+Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="17" max="16383" man="1"/>
@@ -20112,8 +20142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20126,11 +20156,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="178" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
       <c r="D1" s="77"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -20148,12 +20178,12 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="185" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
@@ -20169,12 +20199,12 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="177" t="s">
         <v>1028</v>
       </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="3"/>
       <c r="F5" s="75"/>
       <c r="G5" s="3"/>
@@ -20199,8 +20229,8 @@
       <c r="A6" s="73" t="s">
         <v>766</v>
       </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="187"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="191"/>
       <c r="D6" s="71"/>
       <c r="E6" s="34"/>
       <c r="F6" s="6"/>
@@ -20216,12 +20246,12 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="185" t="s">
+      <c r="A8" s="189" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="185"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="171"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="175"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -20301,12 +20331,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="185" t="s">
+      <c r="A13" s="189" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="185"/>
-      <c r="C13" s="185"/>
-      <c r="D13" s="171"/>
+      <c r="B13" s="189"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="175"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -20399,20 +20429,20 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="180"/>
-      <c r="B18" s="171"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="171"/>
+      <c r="A18" s="184"/>
+      <c r="B18" s="175"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="175"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="170" t="s">
+      <c r="A19" s="174" t="s">
         <v>946</v>
       </c>
-      <c r="B19" s="171"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
+      <c r="B19" s="175"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="175"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -20434,12 +20464,12 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="173" t="s">
+      <c r="A20" s="177" t="s">
         <v>981</v>
       </c>
-      <c r="B20" s="167"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="167"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="171"/>
       <c r="E20" s="3"/>
       <c r="F20" s="75"/>
       <c r="G20" s="3"/>
@@ -20493,7 +20523,7 @@
       <c r="C22" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="183" t="s">
+      <c r="D22" s="187" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="32"/>
@@ -20508,15 +20538,15 @@
       <c r="C23" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="184"/>
+      <c r="D23" s="188"/>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="191"/>
-      <c r="C24" s="191"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="168"/>
       <c r="D24" s="50" t="s">
         <v>96</v>
       </c>
@@ -20527,8 +20557,8 @@
       <c r="A25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="191"/>
-      <c r="C25" s="191"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
       <c r="D25" s="50" t="s">
         <v>95</v>
       </c>
@@ -20539,8 +20569,8 @@
       <c r="A26" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="191"/>
-      <c r="C26" s="191"/>
+      <c r="B26" s="168"/>
+      <c r="C26" s="168"/>
       <c r="D26" s="50" t="s">
         <v>94</v>
       </c>
@@ -20551,8 +20581,8 @@
       <c r="A27" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="191"/>
-      <c r="C27" s="191"/>
+      <c r="B27" s="168"/>
+      <c r="C27" s="168"/>
       <c r="D27" s="50" t="s">
         <v>771</v>
       </c>
@@ -20563,8 +20593,8 @@
       <c r="A28" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="191"/>
-      <c r="C28" s="191"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
       <c r="D28" s="87" t="s">
         <v>772</v>
       </c>
@@ -20575,8 +20605,8 @@
       <c r="A29" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="191"/>
-      <c r="C29" s="191"/>
+      <c r="B29" s="168"/>
+      <c r="C29" s="168"/>
       <c r="D29" s="50" t="s">
         <v>93</v>
       </c>
@@ -20587,8 +20617,8 @@
       <c r="A30" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="191"/>
-      <c r="C30" s="191"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
       <c r="D30" s="50" t="s">
         <v>92</v>
       </c>
@@ -20599,8 +20629,8 @@
       <c r="A31" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="191"/>
-      <c r="C31" s="191"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="168"/>
       <c r="D31" s="52" t="s">
         <v>166</v>
       </c>
@@ -20611,11 +20641,11 @@
       <c r="A32" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="B32" s="192">
+      <c r="B32" s="169">
         <f>SUM(B24:B31)</f>
         <v>0</v>
       </c>
-      <c r="C32" s="192">
+      <c r="C32" s="169">
         <f>SUM(C24:C31)</f>
         <v>0</v>
       </c>
@@ -20626,10 +20656,10 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="180"/>
-      <c r="B33" s="171"/>
-      <c r="C33" s="171"/>
-      <c r="D33" s="171"/>
+      <c r="A33" s="184"/>
+      <c r="B33" s="175"/>
+      <c r="C33" s="175"/>
+      <c r="D33" s="175"/>
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
     </row>
@@ -20658,7 +20688,10 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;Z&amp;F&amp;R&amp;A</oddHeader>
+    <oddHeader>&amp;R&amp;A</oddHeader>
+    <oddFooter>&amp;C
+©National Higher Educational Benchmarking Institute
+Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="17" max="16383" man="1"/>
@@ -20677,7 +20710,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20690,11 +20723,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="178" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
       <c r="D1" s="77"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -20712,12 +20745,12 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="185" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
@@ -20733,12 +20766,12 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="177" t="s">
         <v>1030</v>
       </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="3"/>
       <c r="F5" s="75"/>
       <c r="G5" s="3"/>
@@ -20763,8 +20796,8 @@
       <c r="A6" s="73" t="s">
         <v>767</v>
       </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="187"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="191"/>
       <c r="D6" s="71"/>
       <c r="E6" s="34"/>
       <c r="F6" s="6"/>
@@ -20780,12 +20813,12 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="185" t="s">
+      <c r="A8" s="189" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="185"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="171"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="175"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -20865,12 +20898,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="185" t="s">
+      <c r="A13" s="189" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="185"/>
-      <c r="C13" s="185"/>
-      <c r="D13" s="171"/>
+      <c r="B13" s="189"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="175"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -20963,20 +20996,20 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="180"/>
-      <c r="B18" s="171"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="171"/>
+      <c r="A18" s="184"/>
+      <c r="B18" s="175"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="175"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="170" t="s">
+      <c r="A19" s="174" t="s">
         <v>947</v>
       </c>
-      <c r="B19" s="171"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
+      <c r="B19" s="175"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="175"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -20998,12 +21031,12 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="173" t="s">
+      <c r="A20" s="177" t="s">
         <v>981</v>
       </c>
-      <c r="B20" s="167"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="167"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="171"/>
       <c r="E20" s="3"/>
       <c r="F20" s="75"/>
       <c r="G20" s="3"/>
@@ -21057,7 +21090,7 @@
       <c r="C22" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="183" t="s">
+      <c r="D22" s="187" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="32"/>
@@ -21072,15 +21105,15 @@
       <c r="C23" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="184"/>
+      <c r="D23" s="188"/>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="191"/>
-      <c r="C24" s="191"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="168"/>
       <c r="D24" s="50" t="s">
         <v>96</v>
       </c>
@@ -21091,8 +21124,8 @@
       <c r="A25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="191"/>
-      <c r="C25" s="191"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
       <c r="D25" s="50" t="s">
         <v>95</v>
       </c>
@@ -21103,8 +21136,8 @@
       <c r="A26" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="191"/>
-      <c r="C26" s="191"/>
+      <c r="B26" s="168"/>
+      <c r="C26" s="168"/>
       <c r="D26" s="50" t="s">
         <v>94</v>
       </c>
@@ -21115,8 +21148,8 @@
       <c r="A27" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="191"/>
-      <c r="C27" s="191"/>
+      <c r="B27" s="168"/>
+      <c r="C27" s="168"/>
       <c r="D27" s="50" t="s">
         <v>771</v>
       </c>
@@ -21127,8 +21160,8 @@
       <c r="A28" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="191"/>
-      <c r="C28" s="191"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
       <c r="D28" s="87" t="s">
         <v>772</v>
       </c>
@@ -21139,8 +21172,8 @@
       <c r="A29" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="191"/>
-      <c r="C29" s="191"/>
+      <c r="B29" s="168"/>
+      <c r="C29" s="168"/>
       <c r="D29" s="50" t="s">
         <v>93</v>
       </c>
@@ -21151,8 +21184,8 @@
       <c r="A30" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="191"/>
-      <c r="C30" s="191"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
       <c r="D30" s="50" t="s">
         <v>92</v>
       </c>
@@ -21163,8 +21196,8 @@
       <c r="A31" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="191"/>
-      <c r="C31" s="191"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="168"/>
       <c r="D31" s="52" t="s">
         <v>166</v>
       </c>
@@ -21175,11 +21208,11 @@
       <c r="A32" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="B32" s="192">
+      <c r="B32" s="169">
         <f>SUM(B24:B31)</f>
         <v>0</v>
       </c>
-      <c r="C32" s="192">
+      <c r="C32" s="169">
         <f>SUM(C24:C31)</f>
         <v>0</v>
       </c>
@@ -21190,10 +21223,10 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="180"/>
-      <c r="B33" s="171"/>
-      <c r="C33" s="171"/>
-      <c r="D33" s="171"/>
+      <c r="A33" s="184"/>
+      <c r="B33" s="175"/>
+      <c r="C33" s="175"/>
+      <c r="D33" s="175"/>
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
     </row>
@@ -21222,7 +21255,10 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;Z&amp;F&amp;R&amp;A</oddHeader>
+    <oddHeader>&amp;R&amp;A</oddHeader>
+    <oddFooter>&amp;C
+©National Higher Educational Benchmarking Institute
+Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="17" max="16383" man="1"/>
@@ -21241,7 +21277,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21254,11 +21290,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="178" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
       <c r="D1" s="77"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -21276,12 +21312,12 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="185" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
@@ -21297,12 +21333,12 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="177" t="s">
         <v>1028</v>
       </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="3"/>
       <c r="F5" s="75"/>
       <c r="G5" s="3"/>
@@ -21327,8 +21363,8 @@
       <c r="A6" s="73" t="s">
         <v>768</v>
       </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="187"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="191"/>
       <c r="D6" s="71"/>
       <c r="E6" s="34"/>
       <c r="F6" s="6"/>
@@ -21344,12 +21380,12 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="185" t="s">
+      <c r="A8" s="189" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="185"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="171"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="175"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -21429,12 +21465,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="185" t="s">
+      <c r="A13" s="189" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="185"/>
-      <c r="C13" s="185"/>
-      <c r="D13" s="171"/>
+      <c r="B13" s="189"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="175"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -21527,20 +21563,20 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="180"/>
-      <c r="B18" s="171"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="171"/>
+      <c r="A18" s="184"/>
+      <c r="B18" s="175"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="175"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="170" t="s">
+      <c r="A19" s="174" t="s">
         <v>948</v>
       </c>
-      <c r="B19" s="171"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
+      <c r="B19" s="175"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="175"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -21562,12 +21598,12 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="173" t="s">
+      <c r="A20" s="177" t="s">
         <v>981</v>
       </c>
-      <c r="B20" s="167"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="167"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="171"/>
       <c r="E20" s="3"/>
       <c r="F20" s="75"/>
       <c r="G20" s="3"/>
@@ -21621,7 +21657,7 @@
       <c r="C22" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="183" t="s">
+      <c r="D22" s="187" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="32"/>
@@ -21636,15 +21672,15 @@
       <c r="C23" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="184"/>
+      <c r="D23" s="188"/>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="191"/>
-      <c r="C24" s="191"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="168"/>
       <c r="D24" s="50" t="s">
         <v>96</v>
       </c>
@@ -21655,8 +21691,8 @@
       <c r="A25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="191"/>
-      <c r="C25" s="191"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
       <c r="D25" s="50" t="s">
         <v>95</v>
       </c>
@@ -21667,8 +21703,8 @@
       <c r="A26" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="191"/>
-      <c r="C26" s="191"/>
+      <c r="B26" s="168"/>
+      <c r="C26" s="168"/>
       <c r="D26" s="50" t="s">
         <v>94</v>
       </c>
@@ -21679,8 +21715,8 @@
       <c r="A27" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="191"/>
-      <c r="C27" s="191"/>
+      <c r="B27" s="168"/>
+      <c r="C27" s="168"/>
       <c r="D27" s="50" t="s">
         <v>771</v>
       </c>
@@ -21691,8 +21727,8 @@
       <c r="A28" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="191"/>
-      <c r="C28" s="191"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
       <c r="D28" s="87" t="s">
         <v>772</v>
       </c>
@@ -21703,8 +21739,8 @@
       <c r="A29" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="191"/>
-      <c r="C29" s="191"/>
+      <c r="B29" s="168"/>
+      <c r="C29" s="168"/>
       <c r="D29" s="50" t="s">
         <v>93</v>
       </c>
@@ -21715,8 +21751,8 @@
       <c r="A30" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="191"/>
-      <c r="C30" s="191"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
       <c r="D30" s="50" t="s">
         <v>92</v>
       </c>
@@ -21727,8 +21763,8 @@
       <c r="A31" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="191"/>
-      <c r="C31" s="191"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="168"/>
       <c r="D31" s="52" t="s">
         <v>166</v>
       </c>
@@ -21739,11 +21775,11 @@
       <c r="A32" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="B32" s="192">
+      <c r="B32" s="169">
         <f>SUM(B24:B31)</f>
         <v>0</v>
       </c>
-      <c r="C32" s="192">
+      <c r="C32" s="169">
         <f>SUM(C24:C31)</f>
         <v>0</v>
       </c>
@@ -21754,10 +21790,10 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="180"/>
-      <c r="B33" s="171"/>
-      <c r="C33" s="171"/>
-      <c r="D33" s="171"/>
+      <c r="A33" s="184"/>
+      <c r="B33" s="175"/>
+      <c r="C33" s="175"/>
+      <c r="D33" s="175"/>
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
     </row>
@@ -21786,7 +21822,10 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;Z&amp;F&amp;R&amp;A</oddHeader>
+    <oddHeader>&amp;R&amp;A</oddHeader>
+    <oddFooter>&amp;C
+©National Higher Educational Benchmarking Institute
+Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="17" max="16383" man="1"/>

--- a/data/imports/mrss-export.xlsx
+++ b/data/imports/mrss-export.xlsx
@@ -6106,7 +6106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -6205,6 +6205,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6217,7 +6232,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -6475,9 +6490,6 @@
     <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6571,17 +6583,11 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6610,11 +6616,8 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6622,13 +6625,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
@@ -6638,10 +6641,13 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6671,6 +6677,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -7623,7 +7646,7 @@
   <dimension ref="A1:Y467"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:A45"/>
+      <selection activeCell="B208" sqref="B208:B209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7639,11 +7662,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -7665,11 +7688,11 @@
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="173" t="s">
         <v>1037</v>
       </c>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="12"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -7679,11 +7702,11 @@
       <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:25" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="173" t="s">
         <v>1038</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="85"/>
       <c r="E4" s="89"/>
       <c r="F4" s="30"/>
@@ -7720,11 +7743,11 @@
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:25" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="179" t="s">
+      <c r="A6" s="175" t="s">
         <v>804</v>
       </c>
-      <c r="B6" s="179"/>
-      <c r="C6" s="148" t="s">
+      <c r="B6" s="175"/>
+      <c r="C6" s="147" t="s">
         <v>694</v>
       </c>
       <c r="D6" s="4"/>
@@ -7751,11 +7774,11 @@
       <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="1:25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="177" t="s">
+      <c r="A7" s="173" t="s">
         <v>1036</v>
       </c>
-      <c r="B7" s="177"/>
-      <c r="C7" s="177"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="85"/>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
@@ -7787,11 +7810,11 @@
       <c r="C8" s="103"/>
     </row>
     <row r="9" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="135" t="s">
+      <c r="A9" s="134" t="s">
         <v>276</v>
       </c>
-      <c r="B9" s="156"/>
-      <c r="C9" s="131" t="s">
+      <c r="B9" s="155"/>
+      <c r="C9" s="130" t="s">
         <v>983</v>
       </c>
       <c r="D9" s="19" t="s">
@@ -7804,11 +7827,11 @@
       <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:25" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="134" t="s">
         <v>1056</v>
       </c>
-      <c r="B10" s="157"/>
-      <c r="C10" s="131" t="s">
+      <c r="B10" s="191"/>
+      <c r="C10" s="130" t="s">
         <v>984</v>
       </c>
       <c r="D10" s="19" t="s">
@@ -7821,11 +7844,11 @@
       <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:25" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="134" t="s">
         <v>1057</v>
       </c>
-      <c r="B11" s="157"/>
-      <c r="C11" s="131" t="s">
+      <c r="B11" s="191"/>
+      <c r="C11" s="130" t="s">
         <v>985</v>
       </c>
       <c r="D11" s="19" t="s">
@@ -7841,15 +7864,15 @@
       <c r="A12" s="83" t="s">
         <v>252</v>
       </c>
-      <c r="B12" s="158"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="103"/>
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="135" t="s">
+      <c r="A13" s="134" t="s">
         <v>276</v>
       </c>
-      <c r="B13" s="156"/>
-      <c r="C13" s="132" t="s">
+      <c r="B13" s="155"/>
+      <c r="C13" s="131" t="s">
         <v>986</v>
       </c>
       <c r="D13" s="19" t="s">
@@ -7862,11 +7885,11 @@
       <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:25" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="134" t="s">
         <v>1058</v>
       </c>
-      <c r="B14" s="157"/>
-      <c r="C14" s="132" t="s">
+      <c r="B14" s="191"/>
+      <c r="C14" s="131" t="s">
         <v>987</v>
       </c>
       <c r="D14" s="19" t="s">
@@ -7879,11 +7902,11 @@
       <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:25" ht="93.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="135" t="s">
+      <c r="A15" s="134" t="s">
         <v>1057</v>
       </c>
-      <c r="B15" s="157"/>
-      <c r="C15" s="132" t="s">
+      <c r="B15" s="191"/>
+      <c r="C15" s="131" t="s">
         <v>988</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -7899,7 +7922,7 @@
       <c r="A16" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="B16" s="159"/>
+      <c r="B16" s="157"/>
       <c r="C16" s="106"/>
       <c r="D16" s="4"/>
       <c r="E16" s="30"/>
@@ -7925,11 +7948,11 @@
       <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="1:25" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="176" t="s">
+      <c r="A17" s="170" t="s">
         <v>776</v>
       </c>
-      <c r="B17" s="176"/>
-      <c r="C17" s="176"/>
+      <c r="B17" s="170"/>
+      <c r="C17" s="170"/>
       <c r="D17" s="20"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -7954,11 +7977,11 @@
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="1:25" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="135" t="s">
+      <c r="A18" s="134" t="s">
         <v>276</v>
       </c>
-      <c r="B18" s="156"/>
-      <c r="C18" s="132" t="s">
+      <c r="B18" s="155"/>
+      <c r="C18" s="131" t="s">
         <v>278</v>
       </c>
       <c r="D18" s="19" t="s">
@@ -7971,11 +7994,11 @@
       <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:25" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="135" t="s">
+      <c r="A19" s="134" t="s">
         <v>277</v>
       </c>
-      <c r="B19" s="157"/>
-      <c r="C19" s="132" t="s">
+      <c r="B19" s="191"/>
+      <c r="C19" s="131" t="s">
         <v>989</v>
       </c>
       <c r="D19" s="19" t="s">
@@ -7988,11 +8011,11 @@
       <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:25" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="133" t="s">
+      <c r="A20" s="132" t="s">
         <v>257</v>
       </c>
-      <c r="B20" s="156"/>
-      <c r="C20" s="132" t="s">
+      <c r="B20" s="155"/>
+      <c r="C20" s="131" t="s">
         <v>278</v>
       </c>
       <c r="D20" s="19" t="s">
@@ -8005,11 +8028,11 @@
       <c r="I20" s="19"/>
     </row>
     <row r="21" spans="1:25" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="135" t="s">
+      <c r="A21" s="134" t="s">
         <v>291</v>
       </c>
-      <c r="B21" s="157"/>
-      <c r="C21" s="132" t="s">
+      <c r="B21" s="191"/>
+      <c r="C21" s="131" t="s">
         <v>989</v>
       </c>
       <c r="D21" s="19" t="s">
@@ -8022,11 +8045,11 @@
       <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:25" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="135" t="s">
+      <c r="A22" s="134" t="s">
         <v>746</v>
       </c>
-      <c r="B22" s="156"/>
-      <c r="C22" s="131" t="s">
+      <c r="B22" s="155"/>
+      <c r="C22" s="130" t="s">
         <v>777</v>
       </c>
       <c r="D22" s="19" t="s">
@@ -8051,11 +8074,11 @@
       <c r="J23" s="12"/>
     </row>
     <row r="24" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="174" t="s">
+      <c r="A24" s="171" t="s">
         <v>940</v>
       </c>
-      <c r="B24" s="175"/>
-      <c r="C24" s="175"/>
+      <c r="B24" s="178"/>
+      <c r="C24" s="178"/>
       <c r="D24" s="4"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
@@ -8080,11 +8103,11 @@
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="1:25" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="176" t="s">
+      <c r="A25" s="170" t="s">
         <v>1051</v>
       </c>
-      <c r="B25" s="176"/>
-      <c r="C25" s="176"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="170"/>
       <c r="D25" s="20"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -8136,12 +8159,12 @@
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:25" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="170" t="s">
+      <c r="A27" s="176" t="s">
         <v>805</v>
       </c>
-      <c r="B27" s="171"/>
-      <c r="C27" s="171"/>
-      <c r="D27" s="171"/>
+      <c r="B27" s="177"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="177"/>
       <c r="E27" s="88"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -8334,10 +8357,10 @@
       <c r="J38" s="12"/>
     </row>
     <row r="39" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="174" t="s">
+      <c r="A39" s="171" t="s">
         <v>289</v>
       </c>
-      <c r="B39" s="175"/>
+      <c r="B39" s="178"/>
       <c r="C39" s="102" t="s">
         <v>694</v>
       </c>
@@ -8365,11 +8388,11 @@
       <c r="Y39" s="3"/>
     </row>
     <row r="40" spans="1:25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="176" t="s">
+      <c r="A40" s="170" t="s">
         <v>1039</v>
       </c>
-      <c r="B40" s="176"/>
-      <c r="C40" s="176"/>
+      <c r="B40" s="170"/>
+      <c r="C40" s="170"/>
       <c r="D40" s="20"/>
       <c r="E40" s="30"/>
       <c r="F40" s="30"/>
@@ -8397,8 +8420,8 @@
       <c r="A41" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="172"/>
-      <c r="C41" s="173"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="169"/>
       <c r="D41" s="91"/>
       <c r="E41" s="91"/>
       <c r="F41" s="91"/>
@@ -8408,11 +8431,11 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="136" t="s">
+      <c r="A42" s="135" t="s">
         <v>249</v>
       </c>
-      <c r="B42" s="156"/>
-      <c r="C42" s="132" t="s">
+      <c r="B42" s="155"/>
+      <c r="C42" s="131" t="s">
         <v>91</v>
       </c>
       <c r="D42" s="19"/>
@@ -8423,11 +8446,11 @@
       <c r="I42" s="19"/>
     </row>
     <row r="43" spans="1:25" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="136" t="s">
+      <c r="A43" s="135" t="s">
         <v>746</v>
       </c>
-      <c r="B43" s="156"/>
-      <c r="C43" s="132" t="s">
+      <c r="B43" s="155"/>
+      <c r="C43" s="131" t="s">
         <v>731</v>
       </c>
       <c r="D43" s="19" t="s">
@@ -8440,11 +8463,11 @@
       <c r="I43" s="19"/>
     </row>
     <row r="44" spans="1:25" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="136" t="s">
+      <c r="A44" s="135" t="s">
         <v>230</v>
       </c>
-      <c r="B44" s="160"/>
-      <c r="C44" s="132" t="s">
+      <c r="B44" s="190"/>
+      <c r="C44" s="131" t="s">
         <v>990</v>
       </c>
       <c r="D44" s="19" t="s">
@@ -8457,11 +8480,11 @@
       <c r="I44" s="19"/>
     </row>
     <row r="45" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="136" t="s">
+      <c r="A45" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="B45" s="161"/>
-      <c r="C45" s="132" t="s">
+      <c r="B45" s="158"/>
+      <c r="C45" s="131" t="s">
         <v>748</v>
       </c>
       <c r="D45" s="19" t="s">
@@ -8477,8 +8500,8 @@
       <c r="A46" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B46" s="162"/>
-      <c r="C46" s="124"/>
+      <c r="B46" s="159"/>
+      <c r="C46" s="123"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
@@ -8487,11 +8510,11 @@
       <c r="I46" s="19"/>
     </row>
     <row r="47" spans="1:25" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="136" t="s">
+      <c r="A47" s="135" t="s">
         <v>249</v>
       </c>
-      <c r="B47" s="161"/>
-      <c r="C47" s="132" t="s">
+      <c r="B47" s="158"/>
+      <c r="C47" s="131" t="s">
         <v>89</v>
       </c>
       <c r="D47" s="19"/>
@@ -8502,11 +8525,11 @@
       <c r="I47" s="19"/>
     </row>
     <row r="48" spans="1:25" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="136" t="s">
+      <c r="A48" s="135" t="s">
         <v>746</v>
       </c>
-      <c r="B48" s="161"/>
-      <c r="C48" s="132" t="s">
+      <c r="B48" s="158"/>
+      <c r="C48" s="131" t="s">
         <v>732</v>
       </c>
       <c r="D48" s="19" t="s">
@@ -8519,11 +8542,11 @@
       <c r="I48" s="19"/>
     </row>
     <row r="49" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="136" t="s">
+      <c r="A49" s="135" t="s">
         <v>227</v>
       </c>
-      <c r="B49" s="160"/>
-      <c r="C49" s="132" t="s">
+      <c r="B49" s="190"/>
+      <c r="C49" s="131" t="s">
         <v>991</v>
       </c>
       <c r="D49" s="19" t="s">
@@ -8536,11 +8559,11 @@
       <c r="I49" s="19"/>
     </row>
     <row r="50" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="136" t="s">
+      <c r="A50" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="B50" s="161"/>
-      <c r="C50" s="131" t="s">
+      <c r="B50" s="158"/>
+      <c r="C50" s="130" t="s">
         <v>749</v>
       </c>
       <c r="D50" s="19" t="s">
@@ -8553,11 +8576,11 @@
       <c r="I50" s="19"/>
     </row>
     <row r="51" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="137" t="s">
+      <c r="A51" s="136" t="s">
         <v>1041</v>
       </c>
-      <c r="B51" s="172"/>
-      <c r="C51" s="173"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="169"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
       <c r="F51" s="19"/>
@@ -8566,11 +8589,11 @@
       <c r="I51" s="19"/>
     </row>
     <row r="52" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="136" t="s">
+      <c r="A52" s="135" t="s">
         <v>249</v>
       </c>
-      <c r="B52" s="161"/>
-      <c r="C52" s="131" t="s">
+      <c r="B52" s="158"/>
+      <c r="C52" s="130" t="s">
         <v>87</v>
       </c>
       <c r="D52" s="19"/>
@@ -8581,11 +8604,11 @@
       <c r="I52" s="19"/>
     </row>
     <row r="53" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="136" t="s">
+      <c r="A53" s="135" t="s">
         <v>746</v>
       </c>
-      <c r="B53" s="161"/>
-      <c r="C53" s="132" t="s">
+      <c r="B53" s="158"/>
+      <c r="C53" s="131" t="s">
         <v>733</v>
       </c>
       <c r="D53" s="19" t="s">
@@ -8598,11 +8621,11 @@
       <c r="I53" s="19"/>
     </row>
     <row r="54" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="136" t="s">
+      <c r="A54" s="135" t="s">
         <v>228</v>
       </c>
-      <c r="B54" s="160"/>
-      <c r="C54" s="132" t="s">
+      <c r="B54" s="190"/>
+      <c r="C54" s="131" t="s">
         <v>992</v>
       </c>
       <c r="D54" s="19" t="s">
@@ -8615,11 +8638,11 @@
       <c r="I54" s="19"/>
     </row>
     <row r="55" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="136" t="s">
+      <c r="A55" s="135" t="s">
         <v>979</v>
       </c>
-      <c r="B55" s="160"/>
-      <c r="C55" s="132" t="s">
+      <c r="B55" s="190"/>
+      <c r="C55" s="131" t="s">
         <v>159</v>
       </c>
       <c r="D55" s="19" t="s">
@@ -8632,11 +8655,11 @@
       <c r="I55" s="19"/>
     </row>
     <row r="56" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="136" t="s">
+      <c r="A56" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="B56" s="161"/>
-      <c r="C56" s="131" t="s">
+      <c r="B56" s="158"/>
+      <c r="C56" s="130" t="s">
         <v>750</v>
       </c>
       <c r="D56" s="19" t="s">
@@ -8652,8 +8675,8 @@
       <c r="A57" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="B57" s="172"/>
-      <c r="C57" s="173"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="169"/>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
       <c r="F57" s="19"/>
@@ -8662,11 +8685,11 @@
       <c r="I57" s="19"/>
     </row>
     <row r="58" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="136" t="s">
+      <c r="A58" s="135" t="s">
         <v>249</v>
       </c>
-      <c r="B58" s="161"/>
-      <c r="C58" s="131" t="s">
+      <c r="B58" s="158"/>
+      <c r="C58" s="130" t="s">
         <v>85</v>
       </c>
       <c r="D58" s="19"/>
@@ -8677,11 +8700,11 @@
       <c r="I58" s="19"/>
     </row>
     <row r="59" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="136" t="s">
+      <c r="A59" s="135" t="s">
         <v>746</v>
       </c>
-      <c r="B59" s="161"/>
-      <c r="C59" s="132" t="s">
+      <c r="B59" s="158"/>
+      <c r="C59" s="131" t="s">
         <v>734</v>
       </c>
       <c r="D59" s="19" t="s">
@@ -8694,11 +8717,11 @@
       <c r="I59" s="19"/>
     </row>
     <row r="60" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="136" t="s">
+      <c r="A60" s="135" t="s">
         <v>231</v>
       </c>
-      <c r="B60" s="160"/>
-      <c r="C60" s="132" t="s">
+      <c r="B60" s="190"/>
+      <c r="C60" s="131" t="s">
         <v>993</v>
       </c>
       <c r="D60" s="19" t="s">
@@ -8711,11 +8734,11 @@
       <c r="I60" s="19"/>
     </row>
     <row r="61" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="136" t="s">
+      <c r="A61" s="135" t="s">
         <v>980</v>
       </c>
-      <c r="B61" s="160"/>
-      <c r="C61" s="132" t="s">
+      <c r="B61" s="190"/>
+      <c r="C61" s="131" t="s">
         <v>160</v>
       </c>
       <c r="D61" s="19" t="s">
@@ -8728,11 +8751,11 @@
       <c r="I61" s="19"/>
     </row>
     <row r="62" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="136" t="s">
+      <c r="A62" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="B62" s="161"/>
-      <c r="C62" s="131" t="s">
+      <c r="B62" s="158"/>
+      <c r="C62" s="130" t="s">
         <v>751</v>
       </c>
       <c r="D62" s="19" t="s">
@@ -8748,8 +8771,8 @@
       <c r="A63" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="B63" s="172"/>
-      <c r="C63" s="173"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="169"/>
       <c r="D63" s="39"/>
       <c r="E63" s="39"/>
       <c r="F63" s="39"/>
@@ -8759,11 +8782,11 @@
       <c r="J63" s="20"/>
     </row>
     <row r="64" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="136" t="s">
+      <c r="A64" s="135" t="s">
         <v>249</v>
       </c>
-      <c r="B64" s="161"/>
-      <c r="C64" s="132" t="s">
+      <c r="B64" s="158"/>
+      <c r="C64" s="131" t="s">
         <v>84</v>
       </c>
       <c r="D64" s="19"/>
@@ -8774,11 +8797,11 @@
       <c r="I64" s="19"/>
     </row>
     <row r="65" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="136" t="s">
+      <c r="A65" s="135" t="s">
         <v>258</v>
       </c>
-      <c r="B65" s="161"/>
-      <c r="C65" s="132" t="s">
+      <c r="B65" s="158"/>
+      <c r="C65" s="131" t="s">
         <v>735</v>
       </c>
       <c r="D65" s="19" t="s">
@@ -8791,11 +8814,11 @@
       <c r="I65" s="19"/>
     </row>
     <row r="66" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="136" t="s">
+      <c r="A66" s="135" t="s">
         <v>232</v>
       </c>
-      <c r="B66" s="160"/>
-      <c r="C66" s="132" t="s">
+      <c r="B66" s="190"/>
+      <c r="C66" s="131" t="s">
         <v>994</v>
       </c>
       <c r="D66" s="19" t="s">
@@ -8808,11 +8831,11 @@
       <c r="I66" s="19"/>
     </row>
     <row r="67" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="136" t="s">
+      <c r="A67" s="135" t="s">
         <v>980</v>
       </c>
-      <c r="B67" s="160"/>
-      <c r="C67" s="132" t="s">
+      <c r="B67" s="190"/>
+      <c r="C67" s="131" t="s">
         <v>207</v>
       </c>
       <c r="D67" s="19" t="s">
@@ -8825,11 +8848,11 @@
       <c r="I67" s="19"/>
     </row>
     <row r="68" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="136" t="s">
+      <c r="A68" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="B68" s="161"/>
-      <c r="C68" s="131" t="s">
+      <c r="B68" s="158"/>
+      <c r="C68" s="130" t="s">
         <v>752</v>
       </c>
       <c r="D68" s="19" t="s">
@@ -8845,8 +8868,8 @@
       <c r="A69" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="B69" s="172"/>
-      <c r="C69" s="173"/>
+      <c r="B69" s="168"/>
+      <c r="C69" s="169"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
@@ -8855,11 +8878,11 @@
       <c r="I69" s="19"/>
     </row>
     <row r="70" spans="1:9" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="136" t="s">
+      <c r="A70" s="135" t="s">
         <v>249</v>
       </c>
-      <c r="B70" s="161"/>
-      <c r="C70" s="132" t="s">
+      <c r="B70" s="158"/>
+      <c r="C70" s="131" t="s">
         <v>142</v>
       </c>
       <c r="D70" s="19"/>
@@ -8870,11 +8893,11 @@
       <c r="I70" s="19"/>
     </row>
     <row r="71" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="136" t="s">
+      <c r="A71" s="135" t="s">
         <v>258</v>
       </c>
-      <c r="B71" s="161"/>
-      <c r="C71" s="132" t="s">
+      <c r="B71" s="158"/>
+      <c r="C71" s="131" t="s">
         <v>736</v>
       </c>
       <c r="D71" s="19" t="s">
@@ -8887,11 +8910,11 @@
       <c r="I71" s="19"/>
     </row>
     <row r="72" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="136" t="s">
+      <c r="A72" s="135" t="s">
         <v>233</v>
       </c>
-      <c r="B72" s="160"/>
-      <c r="C72" s="132" t="s">
+      <c r="B72" s="190"/>
+      <c r="C72" s="131" t="s">
         <v>995</v>
       </c>
       <c r="D72" s="19" t="s">
@@ -8904,11 +8927,11 @@
       <c r="I72" s="19"/>
     </row>
     <row r="73" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="136" t="s">
+      <c r="A73" s="135" t="s">
         <v>980</v>
       </c>
-      <c r="B73" s="160"/>
-      <c r="C73" s="132" t="s">
+      <c r="B73" s="190"/>
+      <c r="C73" s="131" t="s">
         <v>996</v>
       </c>
       <c r="D73" s="19" t="s">
@@ -8921,11 +8944,11 @@
       <c r="I73" s="19"/>
     </row>
     <row r="74" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="136" t="s">
+      <c r="A74" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="B74" s="161"/>
-      <c r="C74" s="132" t="s">
+      <c r="B74" s="158"/>
+      <c r="C74" s="131" t="s">
         <v>753</v>
       </c>
       <c r="D74" s="19" t="s">
@@ -8941,8 +8964,8 @@
       <c r="A75" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="B75" s="172"/>
-      <c r="C75" s="173"/>
+      <c r="B75" s="168"/>
+      <c r="C75" s="169"/>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="19"/>
@@ -8954,8 +8977,8 @@
       <c r="A76" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="B76" s="161"/>
-      <c r="C76" s="132" t="s">
+      <c r="B76" s="158"/>
+      <c r="C76" s="131" t="s">
         <v>81</v>
       </c>
       <c r="D76" s="19"/>
@@ -8969,8 +8992,8 @@
       <c r="A77" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="B77" s="161"/>
-      <c r="C77" s="132" t="s">
+      <c r="B77" s="158"/>
+      <c r="C77" s="131" t="s">
         <v>737</v>
       </c>
       <c r="D77" s="19" t="s">
@@ -8986,8 +9009,8 @@
       <c r="A78" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="B78" s="160"/>
-      <c r="C78" s="132" t="s">
+      <c r="B78" s="190"/>
+      <c r="C78" s="131" t="s">
         <v>997</v>
       </c>
       <c r="D78" s="19" t="s">
@@ -9003,8 +9026,8 @@
       <c r="A79" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="B79" s="156"/>
-      <c r="C79" s="131" t="s">
+      <c r="B79" s="155"/>
+      <c r="C79" s="130" t="s">
         <v>998</v>
       </c>
       <c r="D79" s="19" t="s">
@@ -9017,11 +9040,11 @@
       <c r="I79" s="19"/>
     </row>
     <row r="80" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="137" t="s">
+      <c r="A80" s="136" t="s">
         <v>1040</v>
       </c>
-      <c r="B80" s="172"/>
-      <c r="C80" s="175"/>
+      <c r="B80" s="168"/>
+      <c r="C80" s="178"/>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
@@ -9030,11 +9053,11 @@
       <c r="I80" s="19"/>
     </row>
     <row r="81" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="136" t="s">
+      <c r="A81" s="135" t="s">
         <v>249</v>
       </c>
-      <c r="B81" s="161"/>
-      <c r="C81" s="131" t="s">
+      <c r="B81" s="158"/>
+      <c r="C81" s="130" t="s">
         <v>1024</v>
       </c>
       <c r="D81" s="19"/>
@@ -9045,11 +9068,11 @@
       <c r="I81" s="19"/>
     </row>
     <row r="82" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="136" t="s">
+      <c r="A82" s="135" t="s">
         <v>258</v>
       </c>
-      <c r="B82" s="161"/>
-      <c r="C82" s="132" t="s">
+      <c r="B82" s="158"/>
+      <c r="C82" s="131" t="s">
         <v>738</v>
       </c>
       <c r="D82" s="19" t="s">
@@ -9062,11 +9085,11 @@
       <c r="I82" s="19"/>
     </row>
     <row r="83" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="136" t="s">
+      <c r="A83" s="135" t="s">
         <v>235</v>
       </c>
-      <c r="B83" s="160"/>
-      <c r="C83" s="132" t="s">
+      <c r="B83" s="190"/>
+      <c r="C83" s="131" t="s">
         <v>999</v>
       </c>
       <c r="D83" s="19" t="s">
@@ -9079,11 +9102,11 @@
       <c r="I83" s="19"/>
     </row>
     <row r="84" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="136" t="s">
+      <c r="A84" s="135" t="s">
         <v>980</v>
       </c>
-      <c r="B84" s="160"/>
-      <c r="C84" s="132" t="s">
+      <c r="B84" s="190"/>
+      <c r="C84" s="131" t="s">
         <v>161</v>
       </c>
       <c r="D84" s="19" t="s">
@@ -9096,11 +9119,11 @@
       <c r="I84" s="19"/>
     </row>
     <row r="85" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="136" t="s">
+      <c r="A85" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="B85" s="161"/>
-      <c r="C85" s="131" t="s">
+      <c r="B85" s="158"/>
+      <c r="C85" s="130" t="s">
         <v>754</v>
       </c>
       <c r="D85" s="19" t="s">
@@ -9116,8 +9139,8 @@
       <c r="A86" s="27" t="s">
         <v>774</v>
       </c>
-      <c r="B86" s="172"/>
-      <c r="C86" s="173"/>
+      <c r="B86" s="168"/>
+      <c r="C86" s="169"/>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
       <c r="F86" s="19"/>
@@ -9126,11 +9149,11 @@
       <c r="I86" s="19"/>
     </row>
     <row r="87" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="136" t="s">
+      <c r="A87" s="135" t="s">
         <v>249</v>
       </c>
-      <c r="B87" s="161"/>
-      <c r="C87" s="131" t="s">
+      <c r="B87" s="158"/>
+      <c r="C87" s="130" t="s">
         <v>168</v>
       </c>
       <c r="D87" s="19"/>
@@ -9141,11 +9164,11 @@
       <c r="I87" s="19"/>
     </row>
     <row r="88" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="136" t="s">
+      <c r="A88" s="135" t="s">
         <v>258</v>
       </c>
-      <c r="B88" s="161"/>
-      <c r="C88" s="132" t="s">
+      <c r="B88" s="158"/>
+      <c r="C88" s="131" t="s">
         <v>739</v>
       </c>
       <c r="D88" s="19" t="s">
@@ -9158,11 +9181,11 @@
       <c r="I88" s="19"/>
     </row>
     <row r="89" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="136" t="s">
+      <c r="A89" s="135" t="s">
         <v>236</v>
       </c>
-      <c r="B89" s="160"/>
-      <c r="C89" s="132" t="s">
+      <c r="B89" s="190"/>
+      <c r="C89" s="131" t="s">
         <v>1000</v>
       </c>
       <c r="D89" s="19" t="s">
@@ -9175,11 +9198,11 @@
       <c r="I89" s="19"/>
     </row>
     <row r="90" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="136" t="s">
+      <c r="A90" s="135" t="s">
         <v>980</v>
       </c>
-      <c r="B90" s="160"/>
-      <c r="C90" s="132" t="s">
+      <c r="B90" s="190"/>
+      <c r="C90" s="131" t="s">
         <v>163</v>
       </c>
       <c r="D90" s="19" t="s">
@@ -9192,11 +9215,11 @@
       <c r="I90" s="19"/>
     </row>
     <row r="91" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="136" t="s">
+      <c r="A91" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="B91" s="156"/>
-      <c r="C91" s="131" t="s">
+      <c r="B91" s="155"/>
+      <c r="C91" s="130" t="s">
         <v>755</v>
       </c>
       <c r="D91" s="19" t="s">
@@ -9212,8 +9235,8 @@
       <c r="A92" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="B92" s="172"/>
-      <c r="C92" s="173"/>
+      <c r="B92" s="168"/>
+      <c r="C92" s="169"/>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
@@ -9222,11 +9245,11 @@
       <c r="I92" s="19"/>
     </row>
     <row r="93" spans="1:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="136" t="s">
+      <c r="A93" s="135" t="s">
         <v>249</v>
       </c>
-      <c r="B93" s="156"/>
-      <c r="C93" s="132" t="s">
+      <c r="B93" s="155"/>
+      <c r="C93" s="131" t="s">
         <v>77</v>
       </c>
       <c r="D93" s="19"/>
@@ -9237,11 +9260,11 @@
       <c r="I93" s="19"/>
     </row>
     <row r="94" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="136" t="s">
+      <c r="A94" s="135" t="s">
         <v>258</v>
       </c>
-      <c r="B94" s="161"/>
-      <c r="C94" s="132" t="s">
+      <c r="B94" s="158"/>
+      <c r="C94" s="131" t="s">
         <v>740</v>
       </c>
       <c r="D94" s="19" t="s">
@@ -9254,11 +9277,11 @@
       <c r="I94" s="19"/>
     </row>
     <row r="95" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="136" t="s">
+      <c r="A95" s="135" t="s">
         <v>237</v>
       </c>
-      <c r="B95" s="160"/>
-      <c r="C95" s="132" t="s">
+      <c r="B95" s="190"/>
+      <c r="C95" s="131" t="s">
         <v>1001</v>
       </c>
       <c r="D95" s="19" t="s">
@@ -9271,11 +9294,11 @@
       <c r="I95" s="19"/>
     </row>
     <row r="96" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="136" t="s">
+      <c r="A96" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="B96" s="161"/>
-      <c r="C96" s="131" t="s">
+      <c r="B96" s="158"/>
+      <c r="C96" s="130" t="s">
         <v>756</v>
       </c>
       <c r="D96" s="19" t="s">
@@ -9291,8 +9314,8 @@
       <c r="A97" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="B97" s="172"/>
-      <c r="C97" s="173"/>
+      <c r="B97" s="168"/>
+      <c r="C97" s="169"/>
       <c r="D97" s="19"/>
       <c r="E97" s="19"/>
       <c r="F97" s="19"/>
@@ -9301,11 +9324,11 @@
       <c r="I97" s="19"/>
     </row>
     <row r="98" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="136" t="s">
+      <c r="A98" s="135" t="s">
         <v>249</v>
       </c>
-      <c r="B98" s="161"/>
-      <c r="C98" s="132" t="s">
+      <c r="B98" s="158"/>
+      <c r="C98" s="131" t="s">
         <v>190</v>
       </c>
       <c r="D98" s="19" t="s">
@@ -9318,11 +9341,11 @@
       <c r="I98" s="19"/>
     </row>
     <row r="99" spans="1:25" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="136" t="s">
+      <c r="A99" s="135" t="s">
         <v>258</v>
       </c>
-      <c r="B99" s="161"/>
-      <c r="C99" s="132" t="s">
+      <c r="B99" s="158"/>
+      <c r="C99" s="131" t="s">
         <v>741</v>
       </c>
       <c r="D99" s="19" t="s">
@@ -9335,11 +9358,11 @@
       <c r="I99" s="19"/>
     </row>
     <row r="100" spans="1:25" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="136" t="s">
+      <c r="A100" s="135" t="s">
         <v>238</v>
       </c>
-      <c r="B100" s="160"/>
-      <c r="C100" s="132" t="s">
+      <c r="B100" s="190"/>
+      <c r="C100" s="131" t="s">
         <v>1002</v>
       </c>
       <c r="D100" s="19" t="s">
@@ -9352,11 +9375,11 @@
       <c r="I100" s="19"/>
     </row>
     <row r="101" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="136" t="s">
+      <c r="A101" s="135" t="s">
         <v>980</v>
       </c>
-      <c r="B101" s="160"/>
-      <c r="C101" s="132" t="s">
+      <c r="B101" s="190"/>
+      <c r="C101" s="131" t="s">
         <v>220</v>
       </c>
       <c r="D101" s="19" t="s">
@@ -9369,11 +9392,11 @@
       <c r="I101" s="19"/>
     </row>
     <row r="102" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="136" t="s">
+      <c r="A102" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="B102" s="161"/>
-      <c r="C102" s="131" t="s">
+      <c r="B102" s="158"/>
+      <c r="C102" s="130" t="s">
         <v>757</v>
       </c>
       <c r="D102" s="19" t="s">
@@ -9389,8 +9412,8 @@
       <c r="A103" s="27" t="s">
         <v>1023</v>
       </c>
-      <c r="B103" s="172"/>
-      <c r="C103" s="173"/>
+      <c r="B103" s="168"/>
+      <c r="C103" s="169"/>
       <c r="D103" s="19"/>
       <c r="E103" s="19"/>
       <c r="F103" s="19"/>
@@ -9399,11 +9422,11 @@
       <c r="I103" s="19"/>
     </row>
     <row r="104" spans="1:25" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="136" t="s">
+      <c r="A104" s="135" t="s">
         <v>249</v>
       </c>
-      <c r="B104" s="156"/>
-      <c r="C104" s="132" t="s">
+      <c r="B104" s="155"/>
+      <c r="C104" s="131" t="s">
         <v>189</v>
       </c>
       <c r="D104" s="19"/>
@@ -9414,11 +9437,11 @@
       <c r="I104" s="19"/>
     </row>
     <row r="105" spans="1:25" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="136" t="s">
+      <c r="A105" s="135" t="s">
         <v>746</v>
       </c>
-      <c r="B105" s="161"/>
-      <c r="C105" s="132" t="s">
+      <c r="B105" s="192"/>
+      <c r="C105" s="131" t="s">
         <v>742</v>
       </c>
       <c r="D105" s="19" t="s">
@@ -9431,11 +9454,11 @@
       <c r="I105" s="19"/>
     </row>
     <row r="106" spans="1:25" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="136" t="s">
+      <c r="A106" s="135" t="s">
         <v>1032</v>
       </c>
-      <c r="B106" s="160"/>
-      <c r="C106" s="132" t="s">
+      <c r="B106" s="190"/>
+      <c r="C106" s="131" t="s">
         <v>1003</v>
       </c>
       <c r="D106" s="19" t="s">
@@ -9448,11 +9471,11 @@
       <c r="I106" s="19"/>
     </row>
     <row r="107" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="136" t="s">
+      <c r="A107" s="135" t="s">
         <v>226</v>
       </c>
-      <c r="B107" s="160"/>
-      <c r="C107" s="132" t="s">
+      <c r="B107" s="190"/>
+      <c r="C107" s="131" t="s">
         <v>229</v>
       </c>
       <c r="D107" s="19" t="s">
@@ -9465,11 +9488,11 @@
       <c r="I107" s="19"/>
     </row>
     <row r="108" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="136" t="s">
+      <c r="A108" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="B108" s="161"/>
-      <c r="C108" s="131" t="s">
+      <c r="B108" s="158"/>
+      <c r="C108" s="130" t="s">
         <v>1004</v>
       </c>
       <c r="D108" s="19" t="s">
@@ -9494,11 +9517,11 @@
       <c r="J109" s="12"/>
     </row>
     <row r="110" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="146" t="s">
+      <c r="A110" s="145" t="s">
         <v>290</v>
       </c>
-      <c r="B110" s="125"/>
-      <c r="C110" s="130" t="s">
+      <c r="B110" s="124"/>
+      <c r="C110" s="129" t="s">
         <v>694</v>
       </c>
       <c r="D110" s="4"/>
@@ -9525,11 +9548,11 @@
       <c r="Y110" s="3"/>
     </row>
     <row r="111" spans="1:25" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="176" t="s">
+      <c r="A111" s="170" t="s">
         <v>1039</v>
       </c>
-      <c r="B111" s="176"/>
-      <c r="C111" s="176"/>
+      <c r="B111" s="170"/>
+      <c r="C111" s="170"/>
       <c r="D111" s="20"/>
       <c r="E111" s="30"/>
       <c r="F111" s="30"/>
@@ -9557,8 +9580,8 @@
       <c r="A112" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B112" s="172"/>
-      <c r="C112" s="173"/>
+      <c r="B112" s="168"/>
+      <c r="C112" s="169"/>
       <c r="D112" s="19"/>
       <c r="E112" s="19"/>
       <c r="F112" s="19"/>
@@ -9567,11 +9590,11 @@
       <c r="I112" s="19"/>
     </row>
     <row r="113" spans="1:14" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="135" t="s">
+      <c r="A113" s="134" t="s">
         <v>249</v>
       </c>
-      <c r="B113" s="156"/>
-      <c r="C113" s="132" t="s">
+      <c r="B113" s="155"/>
+      <c r="C113" s="131" t="s">
         <v>72</v>
       </c>
       <c r="D113" s="19"/>
@@ -9582,11 +9605,11 @@
       <c r="I113" s="19"/>
     </row>
     <row r="114" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="136" t="s">
+      <c r="A114" s="135" t="s">
         <v>746</v>
       </c>
-      <c r="B114" s="161"/>
-      <c r="C114" s="132" t="s">
+      <c r="B114" s="158"/>
+      <c r="C114" s="131" t="s">
         <v>743</v>
       </c>
       <c r="D114" s="19" t="s">
@@ -9599,11 +9622,11 @@
       <c r="I114" s="19"/>
     </row>
     <row r="115" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="145" t="s">
+      <c r="A115" s="144" t="s">
         <v>239</v>
       </c>
-      <c r="B115" s="160"/>
-      <c r="C115" s="132" t="s">
+      <c r="B115" s="190"/>
+      <c r="C115" s="131" t="s">
         <v>1005</v>
       </c>
       <c r="D115" s="19" t="s">
@@ -9616,11 +9639,11 @@
       <c r="I115" s="19"/>
     </row>
     <row r="116" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="136" t="s">
+      <c r="A116" s="135" t="s">
         <v>240</v>
       </c>
-      <c r="B116" s="160"/>
-      <c r="C116" s="132" t="s">
+      <c r="B116" s="190"/>
+      <c r="C116" s="131" t="s">
         <v>982</v>
       </c>
       <c r="D116" s="19" t="s">
@@ -9633,11 +9656,11 @@
       <c r="I116" s="19"/>
     </row>
     <row r="117" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="135" t="s">
+      <c r="A117" s="134" t="s">
         <v>221</v>
       </c>
-      <c r="B117" s="156"/>
-      <c r="C117" s="131" t="s">
+      <c r="B117" s="155"/>
+      <c r="C117" s="130" t="s">
         <v>758</v>
       </c>
       <c r="D117" s="19" t="s">
@@ -9653,22 +9676,22 @@
       <c r="A118" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B118" s="172"/>
-      <c r="C118" s="173"/>
+      <c r="B118" s="168"/>
+      <c r="C118" s="169"/>
       <c r="D118" s="19"/>
       <c r="E118" s="19"/>
       <c r="F118" s="19"/>
       <c r="G118" s="19"/>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
-      <c r="N118" s="147"/>
+      <c r="N118" s="146"/>
     </row>
     <row r="119" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="135" t="s">
+      <c r="A119" s="134" t="s">
         <v>249</v>
       </c>
-      <c r="B119" s="156"/>
-      <c r="C119" s="132" t="s">
+      <c r="B119" s="155"/>
+      <c r="C119" s="131" t="s">
         <v>70</v>
       </c>
       <c r="D119" s="19"/>
@@ -9679,11 +9702,11 @@
       <c r="I119" s="19"/>
     </row>
     <row r="120" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="136" t="s">
+      <c r="A120" s="135" t="s">
         <v>746</v>
       </c>
-      <c r="B120" s="161"/>
-      <c r="C120" s="132" t="s">
+      <c r="B120" s="158"/>
+      <c r="C120" s="131" t="s">
         <v>744</v>
       </c>
       <c r="D120" s="19" t="s">
@@ -9696,11 +9719,11 @@
       <c r="I120" s="19"/>
     </row>
     <row r="121" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="136" t="s">
+      <c r="A121" s="135" t="s">
         <v>241</v>
       </c>
-      <c r="B121" s="160"/>
-      <c r="C121" s="132" t="s">
+      <c r="B121" s="190"/>
+      <c r="C121" s="131" t="s">
         <v>1006</v>
       </c>
       <c r="D121" s="19" t="s">
@@ -9713,11 +9736,11 @@
       <c r="I121" s="19"/>
     </row>
     <row r="122" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="135" t="s">
+      <c r="A122" s="134" t="s">
         <v>221</v>
       </c>
-      <c r="B122" s="156"/>
-      <c r="C122" s="131" t="s">
+      <c r="B122" s="155"/>
+      <c r="C122" s="130" t="s">
         <v>759</v>
       </c>
       <c r="D122" s="19" t="s">
@@ -9733,8 +9756,8 @@
       <c r="A123" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B123" s="172"/>
-      <c r="C123" s="173"/>
+      <c r="B123" s="168"/>
+      <c r="C123" s="169"/>
       <c r="D123" s="19"/>
       <c r="E123" s="19"/>
       <c r="F123" s="19"/>
@@ -9743,11 +9766,11 @@
       <c r="I123" s="19"/>
     </row>
     <row r="124" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="135" t="s">
+      <c r="A124" s="134" t="s">
         <v>249</v>
       </c>
-      <c r="B124" s="161"/>
-      <c r="C124" s="138" t="s">
+      <c r="B124" s="158"/>
+      <c r="C124" s="137" t="s">
         <v>775</v>
       </c>
       <c r="D124" s="19"/>
@@ -9758,11 +9781,11 @@
       <c r="I124" s="19"/>
     </row>
     <row r="125" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="136" t="s">
+      <c r="A125" s="135" t="s">
         <v>746</v>
       </c>
-      <c r="B125" s="161"/>
-      <c r="C125" s="132" t="s">
+      <c r="B125" s="158"/>
+      <c r="C125" s="131" t="s">
         <v>745</v>
       </c>
       <c r="D125" s="19" t="s">
@@ -9775,11 +9798,11 @@
       <c r="I125" s="19"/>
     </row>
     <row r="126" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="136" t="s">
+      <c r="A126" s="135" t="s">
         <v>242</v>
       </c>
-      <c r="B126" s="160"/>
-      <c r="C126" s="132" t="s">
+      <c r="B126" s="190"/>
+      <c r="C126" s="131" t="s">
         <v>1007</v>
       </c>
       <c r="D126" s="19" t="s">
@@ -9792,11 +9815,11 @@
       <c r="I126" s="19"/>
     </row>
     <row r="127" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="136" t="s">
+      <c r="A127" s="135" t="s">
         <v>240</v>
       </c>
-      <c r="B127" s="160"/>
-      <c r="C127" s="132" t="s">
+      <c r="B127" s="190"/>
+      <c r="C127" s="131" t="s">
         <v>162</v>
       </c>
       <c r="D127" s="19" t="s">
@@ -9809,11 +9832,11 @@
       <c r="I127" s="19"/>
     </row>
     <row r="128" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="135" t="s">
+      <c r="A128" s="134" t="s">
         <v>221</v>
       </c>
-      <c r="B128" s="156"/>
-      <c r="C128" s="131" t="s">
+      <c r="B128" s="155"/>
+      <c r="C128" s="130" t="s">
         <v>760</v>
       </c>
       <c r="D128" s="19" t="s">
@@ -9838,11 +9861,11 @@
       <c r="J129" s="12"/>
     </row>
     <row r="130" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="146" t="s">
+      <c r="A130" s="145" t="s">
         <v>1060</v>
       </c>
-      <c r="B130" s="126"/>
-      <c r="C130" s="126"/>
+      <c r="B130" s="125"/>
+      <c r="C130" s="125"/>
       <c r="D130" s="4"/>
       <c r="E130" s="30"/>
       <c r="F130" s="30"/>
@@ -9871,7 +9894,7 @@
         <v>254</v>
       </c>
       <c r="B131" s="24"/>
-      <c r="C131" s="142" t="s">
+      <c r="C131" s="141" t="s">
         <v>243</v>
       </c>
       <c r="D131" s="19"/>
@@ -9882,11 +9905,11 @@
       <c r="I131" s="19"/>
     </row>
     <row r="132" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="135" t="s">
+      <c r="A132" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="B132" s="166"/>
-      <c r="C132" s="132" t="s">
+      <c r="B132" s="163"/>
+      <c r="C132" s="131" t="s">
         <v>1008</v>
       </c>
       <c r="D132" s="19" t="s">
@@ -9899,11 +9922,11 @@
       <c r="I132" s="19"/>
     </row>
     <row r="133" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="135" t="s">
+      <c r="A133" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="B133" s="166"/>
-      <c r="C133" s="132" t="s">
+      <c r="B133" s="163"/>
+      <c r="C133" s="131" t="s">
         <v>122</v>
       </c>
       <c r="D133" s="19" t="s">
@@ -9916,11 +9939,11 @@
       <c r="I133" s="19"/>
     </row>
     <row r="134" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="135" t="s">
+      <c r="A134" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="B134" s="166"/>
-      <c r="C134" s="131" t="s">
+      <c r="B134" s="163"/>
+      <c r="C134" s="130" t="s">
         <v>123</v>
       </c>
       <c r="D134" s="19" t="s">
@@ -9937,7 +9960,7 @@
         <v>255</v>
       </c>
       <c r="B135" s="24"/>
-      <c r="C135" s="139"/>
+      <c r="C135" s="138"/>
       <c r="D135" s="19" t="s">
         <v>244</v>
       </c>
@@ -9952,7 +9975,7 @@
         <v>806</v>
       </c>
       <c r="B136" s="38"/>
-      <c r="C136" s="139"/>
+      <c r="C136" s="138"/>
       <c r="D136" s="19"/>
       <c r="E136" s="19"/>
       <c r="F136" s="19"/>
@@ -9961,11 +9984,11 @@
       <c r="I136" s="19"/>
     </row>
     <row r="137" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="136" t="s">
+      <c r="A137" s="135" t="s">
         <v>58</v>
       </c>
-      <c r="B137" s="157"/>
-      <c r="C137" s="132" t="s">
+      <c r="B137" s="191"/>
+      <c r="C137" s="131" t="s">
         <v>121</v>
       </c>
       <c r="D137" s="19" t="s">
@@ -9978,11 +10001,11 @@
       <c r="I137" s="19"/>
     </row>
     <row r="138" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="136" t="s">
+      <c r="A138" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="B138" s="157"/>
-      <c r="C138" s="132" t="s">
+      <c r="B138" s="191"/>
+      <c r="C138" s="131" t="s">
         <v>1009</v>
       </c>
       <c r="D138" s="60" t="s">
@@ -9995,11 +10018,11 @@
       <c r="I138" s="19"/>
     </row>
     <row r="139" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="136" t="s">
+      <c r="A139" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="B139" s="157"/>
-      <c r="C139" s="132" t="s">
+      <c r="B139" s="191"/>
+      <c r="C139" s="131" t="s">
         <v>279</v>
       </c>
       <c r="D139" s="60" t="s">
@@ -10012,11 +10035,11 @@
       <c r="I139" s="19"/>
     </row>
     <row r="140" spans="1:25" ht="81.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="136" t="s">
+      <c r="A140" s="135" t="s">
         <v>803</v>
       </c>
-      <c r="B140" s="157"/>
-      <c r="C140" s="132" t="s">
+      <c r="B140" s="193"/>
+      <c r="C140" s="131" t="s">
         <v>1010</v>
       </c>
       <c r="D140" s="60" t="s">
@@ -10029,11 +10052,11 @@
       <c r="I140" s="19"/>
     </row>
     <row r="141" spans="1:25" ht="47.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="135" t="s">
+      <c r="A141" s="134" t="s">
         <v>245</v>
       </c>
-      <c r="B141" s="163"/>
-      <c r="C141" s="132" t="s">
+      <c r="B141" s="193"/>
+      <c r="C141" s="131" t="s">
         <v>124</v>
       </c>
       <c r="D141" s="19" t="s">
@@ -10046,11 +10069,11 @@
       <c r="I141" s="19"/>
     </row>
     <row r="142" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="135" t="s">
+      <c r="A142" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="B142" s="166"/>
-      <c r="C142" s="131" t="s">
+      <c r="B142" s="163"/>
+      <c r="C142" s="130" t="s">
         <v>126</v>
       </c>
       <c r="D142" s="19" t="s">
@@ -10063,11 +10086,11 @@
       <c r="I142" s="19"/>
     </row>
     <row r="143" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="135" t="s">
+      <c r="A143" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="B143" s="166"/>
-      <c r="C143" s="138" t="s">
+      <c r="B143" s="163"/>
+      <c r="C143" s="137" t="s">
         <v>134</v>
       </c>
       <c r="D143" s="19" t="s">
@@ -10080,11 +10103,11 @@
       <c r="I143" s="19"/>
     </row>
     <row r="144" spans="1:25" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="135" t="s">
+      <c r="A144" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="166"/>
-      <c r="C144" s="132" t="s">
+      <c r="B144" s="163"/>
+      <c r="C144" s="131" t="s">
         <v>127</v>
       </c>
       <c r="D144" s="19" t="s">
@@ -10097,11 +10120,11 @@
       <c r="I144" s="19"/>
     </row>
     <row r="145" spans="1:9" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="135" t="s">
+      <c r="A145" s="134" t="s">
         <v>128</v>
       </c>
       <c r="B145" s="163"/>
-      <c r="C145" s="132" t="s">
+      <c r="C145" s="131" t="s">
         <v>1025</v>
       </c>
       <c r="D145" s="19" t="s">
@@ -10114,11 +10137,11 @@
       <c r="I145" s="19"/>
     </row>
     <row r="146" spans="1:9" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="135" t="s">
+      <c r="A146" s="134" t="s">
         <v>43</v>
       </c>
       <c r="B146" s="163"/>
-      <c r="C146" s="132" t="s">
+      <c r="C146" s="131" t="s">
         <v>120</v>
       </c>
       <c r="D146" s="19" t="s">
@@ -10131,11 +10154,11 @@
       <c r="I146" s="19"/>
     </row>
     <row r="147" spans="1:9" ht="44.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="135" t="s">
+      <c r="A147" s="134" t="s">
         <v>129</v>
       </c>
       <c r="B147" s="163"/>
-      <c r="C147" s="132" t="s">
+      <c r="C147" s="131" t="s">
         <v>119</v>
       </c>
       <c r="D147" s="19" t="s">
@@ -10148,11 +10171,11 @@
       <c r="I147" s="19"/>
     </row>
     <row r="148" spans="1:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="133" t="s">
+      <c r="A148" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="B148" s="166"/>
-      <c r="C148" s="131" t="s">
+      <c r="B148" s="163"/>
+      <c r="C148" s="130" t="s">
         <v>125</v>
       </c>
       <c r="D148" s="19" t="s">
@@ -10165,11 +10188,11 @@
       <c r="I148" s="19"/>
     </row>
     <row r="149" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="135" t="s">
+      <c r="A149" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="B149" s="163"/>
-      <c r="C149" s="138" t="s">
+      <c r="B149" s="194"/>
+      <c r="C149" s="137" t="s">
         <v>1011</v>
       </c>
       <c r="D149" s="19" t="s">
@@ -10208,10 +10231,10 @@
       <c r="I151" s="19"/>
     </row>
     <row r="152" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="135" t="s">
+      <c r="A152" s="134" t="s">
         <v>1052</v>
       </c>
-      <c r="B152" s="166"/>
+      <c r="B152" s="163"/>
       <c r="C152" s="112"/>
       <c r="D152" s="19" t="s">
         <v>38</v>
@@ -10223,10 +10246,10 @@
       <c r="I152" s="19"/>
     </row>
     <row r="153" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="135" t="s">
+      <c r="A153" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="B153" s="166"/>
+      <c r="B153" s="163"/>
       <c r="C153" s="112"/>
       <c r="D153" s="19" t="s">
         <v>36</v>
@@ -10238,10 +10261,10 @@
       <c r="I153" s="19"/>
     </row>
     <row r="154" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="135" t="s">
+      <c r="A154" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="B154" s="166"/>
+      <c r="B154" s="163"/>
       <c r="C154" s="112"/>
       <c r="D154" s="19" t="s">
         <v>34</v>
@@ -10253,10 +10276,10 @@
       <c r="I154" s="19"/>
     </row>
     <row r="155" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="135" t="s">
+      <c r="A155" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="B155" s="166"/>
+      <c r="B155" s="163"/>
       <c r="C155" s="112"/>
       <c r="D155" s="19" t="s">
         <v>32</v>
@@ -10268,10 +10291,10 @@
       <c r="I155" s="19"/>
     </row>
     <row r="156" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="135" t="s">
+      <c r="A156" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="B156" s="166"/>
+      <c r="B156" s="163"/>
       <c r="C156" s="112"/>
       <c r="D156" s="19" t="s">
         <v>30</v>
@@ -10283,10 +10306,10 @@
       <c r="I156" s="19"/>
     </row>
     <row r="157" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="135" t="s">
+      <c r="A157" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="B157" s="166"/>
+      <c r="B157" s="163"/>
       <c r="C157" s="112"/>
       <c r="D157" s="19" t="s">
         <v>28</v>
@@ -10298,10 +10321,10 @@
       <c r="I157" s="19"/>
     </row>
     <row r="158" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="135" t="s">
+      <c r="A158" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="B158" s="166"/>
+      <c r="B158" s="163"/>
       <c r="C158" s="112"/>
       <c r="D158" s="19" t="s">
         <v>26</v>
@@ -10313,10 +10336,10 @@
       <c r="I158" s="19"/>
     </row>
     <row r="159" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="135" t="s">
+      <c r="A159" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="B159" s="166"/>
+      <c r="B159" s="163"/>
       <c r="C159" s="112"/>
       <c r="D159" s="19" t="s">
         <v>24</v>
@@ -10328,10 +10351,10 @@
       <c r="I159" s="19"/>
     </row>
     <row r="160" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="135" t="s">
+      <c r="A160" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="B160" s="166"/>
+      <c r="B160" s="163"/>
       <c r="C160" s="112"/>
       <c r="D160" s="19" t="s">
         <v>22</v>
@@ -10356,11 +10379,11 @@
       <c r="I161" s="19"/>
     </row>
     <row r="162" spans="1:9" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="135" t="s">
+      <c r="A162" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="B162" s="156"/>
-      <c r="C162" s="132" t="s">
+      <c r="B162" s="155"/>
+      <c r="C162" s="131" t="s">
         <v>1012</v>
       </c>
       <c r="D162" s="19" t="s">
@@ -10373,11 +10396,11 @@
       <c r="I162" s="19"/>
     </row>
     <row r="163" spans="1:9" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="135" t="s">
+      <c r="A163" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="B163" s="156"/>
-      <c r="C163" s="132" t="s">
+      <c r="B163" s="155"/>
+      <c r="C163" s="131" t="s">
         <v>1026</v>
       </c>
       <c r="D163" s="19" t="s">
@@ -10393,7 +10416,7 @@
       <c r="A164" s="25" t="s">
         <v>1034</v>
       </c>
-      <c r="B164" s="129" t="s">
+      <c r="B164" s="128" t="s">
         <v>1033</v>
       </c>
       <c r="C164" s="29" t="s">
@@ -10423,7 +10446,7 @@
       <c r="A166" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="B166" s="166"/>
+      <c r="B166" s="163"/>
       <c r="C166" s="112" t="s">
         <v>113</v>
       </c>
@@ -10440,7 +10463,7 @@
       <c r="A167" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="B167" s="166"/>
+      <c r="B167" s="163"/>
       <c r="C167" s="111"/>
       <c r="D167" s="19" t="s">
         <v>16</v>
@@ -10455,7 +10478,7 @@
       <c r="A168" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="B168" s="166"/>
+      <c r="B168" s="163"/>
       <c r="C168" s="111"/>
       <c r="D168" s="19" t="s">
         <v>15</v>
@@ -10468,7 +10491,7 @@
     </row>
     <row r="169" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="37"/>
-      <c r="B169" s="164"/>
+      <c r="B169" s="161"/>
       <c r="C169" s="111"/>
       <c r="D169" s="19"/>
       <c r="E169" s="19"/>
@@ -10481,7 +10504,7 @@
       <c r="A170" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B170" s="128"/>
+      <c r="B170" s="127"/>
       <c r="C170" s="111"/>
       <c r="D170" s="19"/>
       <c r="E170" s="19"/>
@@ -10494,7 +10517,7 @@
       <c r="A171" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B171" s="163"/>
+      <c r="B171" s="160"/>
       <c r="C171" s="43" t="s">
         <v>114</v>
       </c>
@@ -10511,7 +10534,7 @@
       <c r="A172" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B172" s="163"/>
+      <c r="B172" s="160"/>
       <c r="C172" s="113" t="s">
         <v>114</v>
       </c>
@@ -10528,7 +10551,7 @@
       <c r="A173" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="B173" s="163"/>
+      <c r="B173" s="160"/>
       <c r="C173" s="113" t="s">
         <v>115</v>
       </c>
@@ -10545,7 +10568,7 @@
       <c r="A174" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B174" s="163"/>
+      <c r="B174" s="160"/>
       <c r="C174" s="114" t="s">
         <v>1062</v>
       </c>
@@ -10562,7 +10585,7 @@
       <c r="A175" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B175" s="163"/>
+      <c r="B175" s="160"/>
       <c r="C175" s="114" t="s">
         <v>1063</v>
       </c>
@@ -10579,7 +10602,7 @@
       <c r="A176" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B176" s="128"/>
+      <c r="B176" s="127"/>
       <c r="C176" s="111"/>
       <c r="D176" s="19"/>
       <c r="E176" s="19"/>
@@ -10592,7 +10615,7 @@
       <c r="A177" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="B177" s="167"/>
+      <c r="B177" s="164"/>
       <c r="C177" s="115"/>
       <c r="D177" s="19" t="s">
         <v>67</v>
@@ -10607,7 +10630,7 @@
       <c r="A178" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B178" s="156"/>
+      <c r="B178" s="155"/>
       <c r="C178" s="115"/>
       <c r="D178" s="19" t="s">
         <v>65</v>
@@ -10633,11 +10656,11 @@
       <c r="J179" s="12"/>
     </row>
     <row r="180" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="174" t="s">
+      <c r="A180" s="171" t="s">
         <v>1045</v>
       </c>
-      <c r="B180" s="181"/>
-      <c r="C180" s="181"/>
+      <c r="B180" s="172"/>
+      <c r="C180" s="172"/>
       <c r="D180" s="4"/>
       <c r="E180" s="30"/>
       <c r="F180" s="30"/>
@@ -10662,11 +10685,11 @@
       <c r="Y180" s="3"/>
     </row>
     <row r="181" spans="1:25" s="62" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="180" t="s">
+      <c r="A181" s="167" t="s">
         <v>283</v>
       </c>
-      <c r="B181" s="180"/>
-      <c r="C181" s="180"/>
+      <c r="B181" s="167"/>
+      <c r="C181" s="167"/>
       <c r="D181" s="93"/>
       <c r="E181" s="94"/>
       <c r="F181" s="94"/>
@@ -10706,11 +10729,11 @@
       <c r="I182" s="19"/>
     </row>
     <row r="183" spans="1:25" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="135" t="s">
+      <c r="A183" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="B183" s="163"/>
-      <c r="C183" s="140" t="s">
+      <c r="B183" s="191"/>
+      <c r="C183" s="139" t="s">
         <v>1042</v>
       </c>
       <c r="D183" s="19" t="s">
@@ -10723,11 +10746,11 @@
       <c r="I183" s="19"/>
     </row>
     <row r="184" spans="1:25" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="135" t="s">
+      <c r="A184" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="B184" s="163"/>
-      <c r="C184" s="141" t="s">
+      <c r="B184" s="191"/>
+      <c r="C184" s="140" t="s">
         <v>1043</v>
       </c>
       <c r="D184" s="19" t="s">
@@ -10740,11 +10763,11 @@
       <c r="I184" s="19"/>
     </row>
     <row r="185" spans="1:25" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="135" t="s">
+      <c r="A185" s="134" t="s">
         <v>171</v>
       </c>
-      <c r="B185" s="163"/>
-      <c r="C185" s="141" t="s">
+      <c r="B185" s="191"/>
+      <c r="C185" s="140" t="s">
         <v>1053</v>
       </c>
       <c r="D185" s="95" t="s">
@@ -10770,11 +10793,11 @@
       <c r="I186" s="19"/>
     </row>
     <row r="187" spans="1:25" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="135" t="s">
+      <c r="A187" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="B187" s="163"/>
-      <c r="C187" s="140" t="s">
+      <c r="B187" s="191"/>
+      <c r="C187" s="139" t="s">
         <v>1044</v>
       </c>
       <c r="D187" s="95" t="s">
@@ -10787,11 +10810,11 @@
       <c r="I187" s="19"/>
     </row>
     <row r="188" spans="1:25" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="135" t="s">
+      <c r="A188" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="B188" s="163"/>
-      <c r="C188" s="140" t="s">
+      <c r="B188" s="191"/>
+      <c r="C188" s="139" t="s">
         <v>1043</v>
       </c>
       <c r="D188" s="19" t="s">
@@ -10804,11 +10827,11 @@
       <c r="I188" s="19"/>
     </row>
     <row r="189" spans="1:25" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="135" t="s">
+      <c r="A189" s="134" t="s">
         <v>171</v>
       </c>
-      <c r="B189" s="163"/>
-      <c r="C189" s="132" t="s">
+      <c r="B189" s="191"/>
+      <c r="C189" s="131" t="s">
         <v>1054</v>
       </c>
       <c r="D189" s="95" t="s">
@@ -10834,11 +10857,11 @@
       <c r="I190" s="19"/>
     </row>
     <row r="191" spans="1:25" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="134" t="s">
+      <c r="A191" s="133" t="s">
         <v>169</v>
       </c>
-      <c r="B191" s="163"/>
-      <c r="C191" s="132" t="s">
+      <c r="B191" s="191"/>
+      <c r="C191" s="131" t="s">
         <v>174</v>
       </c>
       <c r="D191" s="95" t="s">
@@ -10851,11 +10874,11 @@
       <c r="I191" s="19"/>
     </row>
     <row r="192" spans="1:25" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="134" t="s">
+      <c r="A192" s="133" t="s">
         <v>170</v>
       </c>
-      <c r="B192" s="163"/>
-      <c r="C192" s="132" t="s">
+      <c r="B192" s="191"/>
+      <c r="C192" s="131" t="s">
         <v>1046</v>
       </c>
       <c r="D192" s="19" t="s">
@@ -10868,11 +10891,11 @@
       <c r="I192" s="19"/>
     </row>
     <row r="193" spans="1:9" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="134" t="s">
+      <c r="A193" s="133" t="s">
         <v>171</v>
       </c>
-      <c r="B193" s="163"/>
-      <c r="C193" s="140" t="s">
+      <c r="B193" s="191"/>
+      <c r="C193" s="139" t="s">
         <v>1055</v>
       </c>
       <c r="D193" s="19" t="s">
@@ -10898,11 +10921,11 @@
       <c r="I194" s="19"/>
     </row>
     <row r="195" spans="1:9" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="135" t="s">
+      <c r="A195" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="B195" s="163"/>
-      <c r="C195" s="140" t="s">
+      <c r="B195" s="191"/>
+      <c r="C195" s="139" t="s">
         <v>1047</v>
       </c>
       <c r="D195" s="19" t="s">
@@ -10915,11 +10938,11 @@
       <c r="I195" s="19"/>
     </row>
     <row r="196" spans="1:9" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="135" t="s">
+      <c r="A196" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="B196" s="163"/>
-      <c r="C196" s="140" t="s">
+      <c r="B196" s="191"/>
+      <c r="C196" s="139" t="s">
         <v>1048</v>
       </c>
       <c r="D196" s="19" t="s">
@@ -10932,11 +10955,11 @@
       <c r="I196" s="19"/>
     </row>
     <row r="197" spans="1:9" ht="106.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="135" t="s">
+      <c r="A197" s="134" t="s">
         <v>171</v>
       </c>
-      <c r="B197" s="163"/>
-      <c r="C197" s="140" t="s">
+      <c r="B197" s="191"/>
+      <c r="C197" s="139" t="s">
         <v>1055</v>
       </c>
       <c r="D197" s="19" t="s">
@@ -10964,11 +10987,11 @@
       <c r="I198" s="19"/>
     </row>
     <row r="199" spans="1:9" ht="184.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="133" t="s">
+      <c r="A199" s="132" t="s">
         <v>781</v>
       </c>
-      <c r="B199" s="163"/>
-      <c r="C199" s="140" t="s">
+      <c r="B199" s="191"/>
+      <c r="C199" s="139" t="s">
         <v>1049</v>
       </c>
       <c r="D199" s="95" t="s">
@@ -10981,11 +11004,11 @@
       <c r="I199" s="19"/>
     </row>
     <row r="200" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="133" t="s">
+      <c r="A200" s="132" t="s">
         <v>223</v>
       </c>
-      <c r="B200" s="163"/>
-      <c r="C200" s="140" t="s">
+      <c r="B200" s="191"/>
+      <c r="C200" s="139" t="s">
         <v>224</v>
       </c>
       <c r="D200" s="95" t="s">
@@ -10998,11 +11021,11 @@
       <c r="I200" s="19"/>
     </row>
     <row r="201" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="133" t="s">
+      <c r="A201" s="132" t="s">
         <v>225</v>
       </c>
-      <c r="B201" s="163"/>
-      <c r="C201" s="132" t="s">
+      <c r="B201" s="191"/>
+      <c r="C201" s="131" t="s">
         <v>246</v>
       </c>
       <c r="D201" s="19" t="s">
@@ -11018,7 +11041,7 @@
       <c r="A202" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="B202" s="164"/>
+      <c r="B202" s="161"/>
       <c r="C202" s="116"/>
       <c r="D202" s="19" t="s">
         <v>179</v>
@@ -11030,11 +11053,11 @@
       <c r="I202" s="19"/>
     </row>
     <row r="203" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="135" t="s">
+      <c r="A203" s="134" t="s">
         <v>180</v>
       </c>
-      <c r="B203" s="163"/>
-      <c r="C203" s="143" t="s">
+      <c r="B203" s="191"/>
+      <c r="C203" s="142" t="s">
         <v>1013</v>
       </c>
       <c r="D203" s="19" t="s">
@@ -11050,8 +11073,8 @@
       <c r="A204" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="B204" s="164"/>
-      <c r="C204" s="144"/>
+      <c r="B204" s="161"/>
+      <c r="C204" s="143"/>
       <c r="D204" s="19"/>
       <c r="E204" s="19"/>
       <c r="F204" s="19"/>
@@ -11060,11 +11083,11 @@
       <c r="I204" s="19"/>
     </row>
     <row r="205" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="133" t="s">
+      <c r="A205" s="132" t="s">
         <v>779</v>
       </c>
-      <c r="B205" s="163"/>
-      <c r="C205" s="140" t="s">
+      <c r="B205" s="191"/>
+      <c r="C205" s="139" t="s">
         <v>1014</v>
       </c>
       <c r="D205" s="19" t="s">
@@ -11077,11 +11100,11 @@
       <c r="I205" s="19"/>
     </row>
     <row r="206" spans="1:9" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="135" t="s">
+      <c r="A206" s="134" t="s">
         <v>182</v>
       </c>
-      <c r="B206" s="163"/>
-      <c r="C206" s="140" t="s">
+      <c r="B206" s="191"/>
+      <c r="C206" s="139" t="s">
         <v>1015</v>
       </c>
       <c r="D206" s="19" t="s">
@@ -11097,8 +11120,8 @@
       <c r="A207" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="B207" s="164"/>
-      <c r="C207" s="144"/>
+      <c r="B207" s="161"/>
+      <c r="C207" s="143"/>
       <c r="D207" s="19"/>
       <c r="E207" s="19"/>
       <c r="F207" s="19"/>
@@ -11107,11 +11130,11 @@
       <c r="I207" s="19"/>
     </row>
     <row r="208" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="133" t="s">
+      <c r="A208" s="132" t="s">
         <v>780</v>
       </c>
-      <c r="B208" s="163"/>
-      <c r="C208" s="140" t="s">
+      <c r="B208" s="191"/>
+      <c r="C208" s="139" t="s">
         <v>1016</v>
       </c>
       <c r="D208" s="19" t="s">
@@ -11124,11 +11147,11 @@
       <c r="I208" s="19"/>
     </row>
     <row r="209" spans="1:10" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="135" t="s">
+      <c r="A209" s="134" t="s">
         <v>184</v>
       </c>
-      <c r="B209" s="163"/>
-      <c r="C209" s="140" t="s">
+      <c r="B209" s="191"/>
+      <c r="C209" s="139" t="s">
         <v>1017</v>
       </c>
       <c r="D209" s="19" t="s">
@@ -16101,20 +16124,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="28">
-    <mergeCell ref="A181:C181"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A180:C180"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="B92:C92"/>
     <mergeCell ref="A24:C24"/>
@@ -16129,6 +16138,20 @@
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A181:C181"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A180:C180"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A26" location="'Move or Copy'!A1" display="Link to Move or Copy"/>
@@ -16179,11 +16202,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
       <c r="D1" s="77"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -16201,12 +16224,12 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="182" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
@@ -16222,12 +16245,12 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="69.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="177" t="s">
+      <c r="A5" s="173" t="s">
         <v>1031</v>
       </c>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
       <c r="E5" s="3"/>
       <c r="F5" s="75"/>
       <c r="G5" s="3"/>
@@ -16252,8 +16275,8 @@
       <c r="A6" s="73" t="s">
         <v>769</v>
       </c>
-      <c r="B6" s="190"/>
-      <c r="C6" s="191"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="188"/>
       <c r="D6" s="71"/>
       <c r="E6" s="34"/>
       <c r="F6" s="6"/>
@@ -16269,12 +16292,12 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="189" t="s">
+      <c r="A8" s="186" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="175"/>
+      <c r="B8" s="186"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="178"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -16317,7 +16340,7 @@
       <c r="B10" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C10" s="122"/>
+      <c r="C10" s="195"/>
       <c r="D10" s="46" t="s">
         <v>812</v>
       </c>
@@ -16331,7 +16354,7 @@
       <c r="B11" s="74" t="s">
         <v>819</v>
       </c>
-      <c r="C11" s="118"/>
+      <c r="C11" s="196"/>
       <c r="D11" s="36" t="s">
         <v>810</v>
       </c>
@@ -16354,12 +16377,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="189" t="s">
+      <c r="A13" s="186" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="189"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="175"/>
+      <c r="B13" s="186"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="178"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -16402,7 +16425,7 @@
       <c r="B15" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C15" s="122"/>
+      <c r="C15" s="195"/>
       <c r="D15" s="46" t="s">
         <v>822</v>
       </c>
@@ -16416,7 +16439,7 @@
       <c r="B16" s="74" t="s">
         <v>819</v>
       </c>
-      <c r="C16" s="118"/>
+      <c r="C16" s="196"/>
       <c r="D16" s="36" t="s">
         <v>814</v>
       </c>
@@ -16452,20 +16475,20 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="184"/>
-      <c r="B18" s="175"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="175"/>
+      <c r="A18" s="181"/>
+      <c r="B18" s="178"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="178"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="174" t="s">
+      <c r="A19" s="171" t="s">
         <v>949</v>
       </c>
-      <c r="B19" s="175"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="175"/>
+      <c r="B19" s="178"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="178"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -16487,12 +16510,12 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="177" t="s">
+      <c r="A20" s="173" t="s">
         <v>981</v>
       </c>
-      <c r="B20" s="171"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="171"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="177"/>
       <c r="E20" s="3"/>
       <c r="F20" s="75"/>
       <c r="G20" s="3"/>
@@ -16546,7 +16569,7 @@
       <c r="C22" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="187" t="s">
+      <c r="D22" s="184" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="32"/>
@@ -16561,15 +16584,15 @@
       <c r="C23" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="188"/>
+      <c r="D23" s="185"/>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="168"/>
-      <c r="C24" s="168"/>
+      <c r="B24" s="165"/>
+      <c r="C24" s="165"/>
       <c r="D24" s="50" t="s">
         <v>96</v>
       </c>
@@ -16580,8 +16603,8 @@
       <c r="A25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="165"/>
       <c r="D25" s="50" t="s">
         <v>95</v>
       </c>
@@ -16592,8 +16615,8 @@
       <c r="A26" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="168"/>
-      <c r="C26" s="168"/>
+      <c r="B26" s="165"/>
+      <c r="C26" s="165"/>
       <c r="D26" s="50" t="s">
         <v>94</v>
       </c>
@@ -16604,8 +16627,8 @@
       <c r="A27" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="168"/>
-      <c r="C27" s="168"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="165"/>
       <c r="D27" s="50" t="s">
         <v>771</v>
       </c>
@@ -16616,8 +16639,8 @@
       <c r="A28" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="165"/>
       <c r="D28" s="87" t="s">
         <v>772</v>
       </c>
@@ -16628,8 +16651,8 @@
       <c r="A29" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="168"/>
-      <c r="C29" s="168"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="165"/>
       <c r="D29" s="50" t="s">
         <v>93</v>
       </c>
@@ -16640,8 +16663,8 @@
       <c r="A30" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
       <c r="D30" s="50" t="s">
         <v>92</v>
       </c>
@@ -16652,8 +16675,8 @@
       <c r="A31" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="168"/>
-      <c r="C31" s="168"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="165"/>
       <c r="D31" s="52" t="s">
         <v>166</v>
       </c>
@@ -16664,11 +16687,11 @@
       <c r="A32" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="B32" s="169">
+      <c r="B32" s="166">
         <f>SUM(B24:B31)</f>
         <v>0</v>
       </c>
-      <c r="C32" s="169">
+      <c r="C32" s="166">
         <f>SUM(C24:C31)</f>
         <v>0</v>
       </c>
@@ -16679,10 +16702,10 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="184"/>
-      <c r="B33" s="175"/>
-      <c r="C33" s="175"/>
-      <c r="D33" s="175"/>
+      <c r="A33" s="181"/>
+      <c r="B33" s="178"/>
+      <c r="C33" s="178"/>
+      <c r="D33" s="178"/>
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
     </row>
@@ -16733,7 +16756,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16746,11 +16769,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
       <c r="D1" s="77"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -16768,12 +16791,12 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="182" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
@@ -16789,12 +16812,12 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="177" t="s">
+      <c r="A5" s="173" t="s">
         <v>1028</v>
       </c>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
       <c r="E5" s="3"/>
       <c r="F5" s="75"/>
       <c r="G5" s="3"/>
@@ -16819,8 +16842,8 @@
       <c r="A6" s="73" t="s">
         <v>770</v>
       </c>
-      <c r="B6" s="190"/>
-      <c r="C6" s="192"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="189"/>
       <c r="D6" s="71"/>
       <c r="E6" s="34"/>
       <c r="F6" s="6"/>
@@ -16836,12 +16859,12 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="189" t="s">
+      <c r="A8" s="186" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="175"/>
+      <c r="B8" s="186"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="178"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -16884,7 +16907,7 @@
       <c r="B10" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C10" s="122"/>
+      <c r="C10" s="195"/>
       <c r="D10" s="46" t="s">
         <v>812</v>
       </c>
@@ -16898,7 +16921,7 @@
       <c r="B11" s="74" t="s">
         <v>819</v>
       </c>
-      <c r="C11" s="118"/>
+      <c r="C11" s="196"/>
       <c r="D11" s="36" t="s">
         <v>810</v>
       </c>
@@ -16921,12 +16944,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="189" t="s">
+      <c r="A13" s="186" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="189"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="175"/>
+      <c r="B13" s="186"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="178"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -16969,7 +16992,7 @@
       <c r="B15" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C15" s="122"/>
+      <c r="C15" s="195"/>
       <c r="D15" s="46" t="s">
         <v>822</v>
       </c>
@@ -16983,7 +17006,7 @@
       <c r="B16" s="74" t="s">
         <v>819</v>
       </c>
-      <c r="C16" s="118"/>
+      <c r="C16" s="196"/>
       <c r="D16" s="36" t="s">
         <v>814</v>
       </c>
@@ -17019,20 +17042,20 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="184"/>
-      <c r="B18" s="175"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="175"/>
+      <c r="A18" s="181"/>
+      <c r="B18" s="178"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="178"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="174" t="s">
+      <c r="A19" s="171" t="s">
         <v>950</v>
       </c>
-      <c r="B19" s="175"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="175"/>
+      <c r="B19" s="178"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="178"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -17054,12 +17077,12 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="177" t="s">
+      <c r="A20" s="173" t="s">
         <v>981</v>
       </c>
-      <c r="B20" s="171"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="171"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="177"/>
       <c r="E20" s="3"/>
       <c r="F20" s="75"/>
       <c r="G20" s="3"/>
@@ -17113,7 +17136,7 @@
       <c r="C22" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="187" t="s">
+      <c r="D22" s="184" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="32"/>
@@ -17128,15 +17151,15 @@
       <c r="C23" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="188"/>
+      <c r="D23" s="185"/>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="168"/>
-      <c r="C24" s="168"/>
+      <c r="B24" s="165"/>
+      <c r="C24" s="165"/>
       <c r="D24" s="50" t="s">
         <v>96</v>
       </c>
@@ -17147,8 +17170,8 @@
       <c r="A25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="165"/>
       <c r="D25" s="50" t="s">
         <v>95</v>
       </c>
@@ -17159,8 +17182,8 @@
       <c r="A26" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="168"/>
-      <c r="C26" s="168"/>
+      <c r="B26" s="165"/>
+      <c r="C26" s="165"/>
       <c r="D26" s="50" t="s">
         <v>94</v>
       </c>
@@ -17171,8 +17194,8 @@
       <c r="A27" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="168"/>
-      <c r="C27" s="168"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="165"/>
       <c r="D27" s="50" t="s">
         <v>771</v>
       </c>
@@ -17183,8 +17206,8 @@
       <c r="A28" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="165"/>
       <c r="D28" s="87" t="s">
         <v>772</v>
       </c>
@@ -17195,8 +17218,8 @@
       <c r="A29" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="168"/>
-      <c r="C29" s="168"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="165"/>
       <c r="D29" s="50" t="s">
         <v>93</v>
       </c>
@@ -17207,8 +17230,8 @@
       <c r="A30" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
       <c r="D30" s="50" t="s">
         <v>92</v>
       </c>
@@ -17219,8 +17242,8 @@
       <c r="A31" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="168"/>
-      <c r="C31" s="168"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="165"/>
       <c r="D31" s="52" t="s">
         <v>166</v>
       </c>
@@ -17231,11 +17254,11 @@
       <c r="A32" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="B32" s="169">
+      <c r="B32" s="166">
         <f>SUM(B24:B31)</f>
         <v>0</v>
       </c>
-      <c r="C32" s="169">
+      <c r="C32" s="166">
         <f>SUM(C24:C31)</f>
         <v>0</v>
       </c>
@@ -17246,10 +17269,10 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="184"/>
-      <c r="B33" s="175"/>
-      <c r="C33" s="175"/>
-      <c r="D33" s="175"/>
+      <c r="A33" s="181"/>
+      <c r="B33" s="178"/>
+      <c r="C33" s="178"/>
+      <c r="D33" s="178"/>
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
     </row>
@@ -17326,8 +17349,8 @@
   </sheetPr>
   <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17340,12 +17363,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="179" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
       <c r="G1" s="11"/>
@@ -17354,10 +17377,10 @@
       <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:25" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="183"/>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
+      <c r="A2" s="180"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -17366,12 +17389,12 @@
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="182" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
@@ -17387,12 +17410,12 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="177" t="s">
+      <c r="A5" s="173" t="s">
         <v>1059</v>
       </c>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
       <c r="E5" s="3"/>
       <c r="F5" s="75"/>
       <c r="G5" s="3"/>
@@ -17417,10 +17440,10 @@
       <c r="A6" s="73" t="s">
         <v>761</v>
       </c>
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="126" t="s">
         <v>1061</v>
       </c>
-      <c r="C6" s="165"/>
+      <c r="C6" s="162"/>
       <c r="D6" s="71"/>
       <c r="E6" s="34"/>
     </row>
@@ -17435,12 +17458,12 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="189" t="s">
+      <c r="A8" s="186" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="175"/>
+      <c r="B8" s="186"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="178"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -17464,12 +17487,12 @@
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="1:25" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="149"/>
-      <c r="B9" s="150" t="s">
+      <c r="A9" s="148"/>
+      <c r="B9" s="149" t="s">
         <v>820</v>
       </c>
       <c r="C9" s="121"/>
-      <c r="D9" s="153" t="s">
+      <c r="D9" s="152" t="s">
         <v>1027</v>
       </c>
       <c r="E9" s="18"/>
@@ -17479,12 +17502,12 @@
       <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:25" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="149"/>
-      <c r="B10" s="150" t="s">
+      <c r="A10" s="148"/>
+      <c r="B10" s="149" t="s">
         <v>821</v>
       </c>
       <c r="C10" s="122"/>
-      <c r="D10" s="153" t="s">
+      <c r="D10" s="152" t="s">
         <v>812</v>
       </c>
       <c r="E10" s="18"/>
@@ -17494,12 +17517,12 @@
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:25" s="1" customFormat="1" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="151"/>
-      <c r="B11" s="152" t="s">
+      <c r="A11" s="150"/>
+      <c r="B11" s="151" t="s">
         <v>819</v>
       </c>
       <c r="C11" s="118"/>
-      <c r="D11" s="154" t="s">
+      <c r="D11" s="153" t="s">
         <v>810</v>
       </c>
       <c r="E11" s="19"/>
@@ -17521,12 +17544,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="189" t="s">
+      <c r="A13" s="186" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="189"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="175"/>
+      <c r="B13" s="186"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="178"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -17551,11 +17574,11 @@
     </row>
     <row r="14" spans="1:25" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
-      <c r="B14" s="150" t="s">
+      <c r="B14" s="149" t="s">
         <v>820</v>
       </c>
       <c r="C14" s="121"/>
-      <c r="D14" s="153" t="s">
+      <c r="D14" s="152" t="s">
         <v>818</v>
       </c>
       <c r="E14" s="18"/>
@@ -17566,11 +17589,11 @@
     </row>
     <row r="15" spans="1:25" s="1" customFormat="1" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
-      <c r="B15" s="150" t="s">
+      <c r="B15" s="149" t="s">
         <v>821</v>
       </c>
-      <c r="C15" s="122"/>
-      <c r="D15" s="153" t="s">
+      <c r="C15" s="195"/>
+      <c r="D15" s="152" t="s">
         <v>822</v>
       </c>
       <c r="E15" s="18"/>
@@ -17580,11 +17603,11 @@
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:25" s="1" customFormat="1" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="155" t="s">
+      <c r="B16" s="154" t="s">
         <v>819</v>
       </c>
-      <c r="C16" s="118"/>
-      <c r="D16" s="154" t="s">
+      <c r="C16" s="196"/>
+      <c r="D16" s="153" t="s">
         <v>814</v>
       </c>
       <c r="E16" s="19"/>
@@ -17594,20 +17617,20 @@
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="184"/>
-      <c r="B17" s="175"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="175"/>
+      <c r="A17" s="181"/>
+      <c r="B17" s="178"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="178"/>
       <c r="E17" s="11"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="174" t="s">
+      <c r="A18" s="171" t="s">
         <v>941</v>
       </c>
-      <c r="B18" s="175"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="175"/>
+      <c r="B18" s="178"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="178"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -17629,12 +17652,12 @@
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A19" s="177" t="s">
+      <c r="A19" s="173" t="s">
         <v>981</v>
       </c>
-      <c r="B19" s="171"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
+      <c r="B19" s="177"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="177"/>
       <c r="E19" s="3"/>
       <c r="F19" s="75"/>
       <c r="G19" s="3"/>
@@ -17688,7 +17711,7 @@
       <c r="C21" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D21" s="187" t="s">
+      <c r="D21" s="184" t="s">
         <v>146</v>
       </c>
       <c r="E21" s="32"/>
@@ -17703,15 +17726,15 @@
       <c r="C22" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D22" s="188"/>
+      <c r="D22" s="185"/>
       <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="168"/>
-      <c r="C23" s="168"/>
+      <c r="B23" s="165"/>
+      <c r="C23" s="165"/>
       <c r="D23" s="50" t="s">
         <v>96</v>
       </c>
@@ -17722,8 +17745,8 @@
       <c r="A24" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="168"/>
-      <c r="C24" s="168"/>
+      <c r="B24" s="165"/>
+      <c r="C24" s="165"/>
       <c r="D24" s="50" t="s">
         <v>95</v>
       </c>
@@ -17734,8 +17757,8 @@
       <c r="A25" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="165"/>
       <c r="D25" s="50" t="s">
         <v>94</v>
       </c>
@@ -17746,8 +17769,8 @@
       <c r="A26" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B26" s="168"/>
-      <c r="C26" s="168"/>
+      <c r="B26" s="165"/>
+      <c r="C26" s="165"/>
       <c r="D26" s="50" t="s">
         <v>771</v>
       </c>
@@ -17758,8 +17781,8 @@
       <c r="A27" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="168"/>
-      <c r="C27" s="168"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="165"/>
       <c r="D27" s="87" t="s">
         <v>772</v>
       </c>
@@ -17770,8 +17793,8 @@
       <c r="A28" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="165"/>
       <c r="D28" s="50" t="s">
         <v>93</v>
       </c>
@@ -17782,8 +17805,8 @@
       <c r="A29" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="168"/>
-      <c r="C29" s="168"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="165"/>
       <c r="D29" s="50" t="s">
         <v>92</v>
       </c>
@@ -17794,8 +17817,8 @@
       <c r="A30" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
       <c r="D30" s="52" t="s">
         <v>166</v>
       </c>
@@ -17806,11 +17829,11 @@
       <c r="A31" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="B31" s="169">
+      <c r="B31" s="166">
         <f>SUM(B23:B30)</f>
         <v>0</v>
       </c>
-      <c r="C31" s="169">
+      <c r="C31" s="166">
         <f>SUM(C23:C30)</f>
         <v>0</v>
       </c>
@@ -17821,10 +17844,10 @@
       <c r="F31" s="35"/>
     </row>
     <row r="32" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="184"/>
-      <c r="B32" s="175"/>
-      <c r="C32" s="175"/>
-      <c r="D32" s="175"/>
+      <c r="A32" s="181"/>
+      <c r="B32" s="178"/>
+      <c r="C32" s="178"/>
+      <c r="D32" s="178"/>
       <c r="E32" s="11"/>
       <c r="F32" s="12"/>
     </row>
@@ -17874,7 +17897,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17887,11 +17910,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
       <c r="D1" s="77"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -17909,12 +17932,12 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="182" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
@@ -17930,12 +17953,12 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="177" t="s">
+      <c r="A5" s="173" t="s">
         <v>1022</v>
       </c>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
       <c r="E5" s="3"/>
       <c r="F5" s="75"/>
       <c r="G5" s="3"/>
@@ -17960,8 +17983,8 @@
       <c r="A6" s="73" t="s">
         <v>762</v>
       </c>
-      <c r="B6" s="190"/>
-      <c r="C6" s="191"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="188"/>
       <c r="D6" s="71"/>
       <c r="E6" s="34"/>
       <c r="F6" s="6"/>
@@ -17977,12 +18000,12 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="189" t="s">
+      <c r="A8" s="186" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="175"/>
+      <c r="B8" s="186"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="178"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -18025,7 +18048,7 @@
       <c r="B10" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C10" s="122"/>
+      <c r="C10" s="195"/>
       <c r="D10" s="46" t="s">
         <v>812</v>
       </c>
@@ -18039,7 +18062,7 @@
       <c r="B11" s="74" t="s">
         <v>819</v>
       </c>
-      <c r="C11" s="118"/>
+      <c r="C11" s="196"/>
       <c r="D11" s="36" t="s">
         <v>810</v>
       </c>
@@ -18062,12 +18085,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="189" t="s">
+      <c r="A13" s="186" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="189"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="175"/>
+      <c r="B13" s="186"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="178"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -18110,7 +18133,7 @@
       <c r="B15" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C15" s="122"/>
+      <c r="C15" s="195"/>
       <c r="D15" s="46" t="s">
         <v>822</v>
       </c>
@@ -18124,7 +18147,7 @@
       <c r="B16" s="74" t="s">
         <v>819</v>
       </c>
-      <c r="C16" s="118"/>
+      <c r="C16" s="196"/>
       <c r="D16" s="36" t="s">
         <v>814</v>
       </c>
@@ -18160,20 +18183,20 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="184"/>
-      <c r="B18" s="175"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="175"/>
+      <c r="A18" s="181"/>
+      <c r="B18" s="178"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="178"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="174" t="s">
+      <c r="A19" s="171" t="s">
         <v>942</v>
       </c>
-      <c r="B19" s="175"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="175"/>
+      <c r="B19" s="178"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="178"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -18195,12 +18218,12 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="177" t="s">
+      <c r="A20" s="173" t="s">
         <v>981</v>
       </c>
-      <c r="B20" s="171"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="171"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="177"/>
       <c r="E20" s="3"/>
       <c r="F20" s="75"/>
       <c r="G20" s="3"/>
@@ -18254,7 +18277,7 @@
       <c r="C22" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="187" t="s">
+      <c r="D22" s="184" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="32"/>
@@ -18269,15 +18292,15 @@
       <c r="C23" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="188"/>
+      <c r="D23" s="185"/>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="168"/>
-      <c r="C24" s="168"/>
+      <c r="B24" s="165"/>
+      <c r="C24" s="165"/>
       <c r="D24" s="50" t="s">
         <v>96</v>
       </c>
@@ -18288,8 +18311,8 @@
       <c r="A25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="165"/>
       <c r="D25" s="50" t="s">
         <v>95</v>
       </c>
@@ -18300,8 +18323,8 @@
       <c r="A26" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="168"/>
-      <c r="C26" s="168"/>
+      <c r="B26" s="165"/>
+      <c r="C26" s="165"/>
       <c r="D26" s="50" t="s">
         <v>94</v>
       </c>
@@ -18312,8 +18335,8 @@
       <c r="A27" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="168"/>
-      <c r="C27" s="168"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="165"/>
       <c r="D27" s="50" t="s">
         <v>771</v>
       </c>
@@ -18324,8 +18347,8 @@
       <c r="A28" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="165"/>
       <c r="D28" s="86" t="s">
         <v>772</v>
       </c>
@@ -18336,8 +18359,8 @@
       <c r="A29" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="168"/>
-      <c r="C29" s="168"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="165"/>
       <c r="D29" s="50" t="s">
         <v>93</v>
       </c>
@@ -18348,8 +18371,8 @@
       <c r="A30" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
       <c r="D30" s="50" t="s">
         <v>92</v>
       </c>
@@ -18360,8 +18383,8 @@
       <c r="A31" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="168"/>
-      <c r="C31" s="168"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="165"/>
       <c r="D31" s="52" t="s">
         <v>166</v>
       </c>
@@ -18372,11 +18395,11 @@
       <c r="A32" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="B32" s="169">
+      <c r="B32" s="166">
         <f>SUM(B24:B31)</f>
         <v>0</v>
       </c>
-      <c r="C32" s="169">
+      <c r="C32" s="166">
         <f>SUM(C24:C31)</f>
         <v>0</v>
       </c>
@@ -18387,10 +18410,10 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="184"/>
-      <c r="B33" s="175"/>
-      <c r="C33" s="175"/>
-      <c r="D33" s="175"/>
+      <c r="A33" s="181"/>
+      <c r="B33" s="178"/>
+      <c r="C33" s="178"/>
+      <c r="D33" s="178"/>
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
     </row>
@@ -18441,7 +18464,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D5"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18454,11 +18477,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
       <c r="D1" s="77"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -18476,12 +18499,12 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="182" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
@@ -18497,12 +18520,12 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="177" t="s">
+      <c r="A5" s="173" t="s">
         <v>1028</v>
       </c>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
       <c r="E5" s="3"/>
       <c r="F5" s="75"/>
       <c r="G5" s="3"/>
@@ -18527,8 +18550,8 @@
       <c r="A6" s="73" t="s">
         <v>763</v>
       </c>
-      <c r="B6" s="190"/>
-      <c r="C6" s="192"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="189"/>
       <c r="D6" s="71"/>
       <c r="E6" s="34"/>
       <c r="F6" s="6"/>
@@ -18544,12 +18567,12 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="189" t="s">
+      <c r="A8" s="186" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="175"/>
+      <c r="B8" s="186"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="178"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -18592,7 +18615,7 @@
       <c r="B10" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C10" s="122"/>
+      <c r="C10" s="195"/>
       <c r="D10" s="46" t="s">
         <v>812</v>
       </c>
@@ -18606,7 +18629,7 @@
       <c r="B11" s="74" t="s">
         <v>819</v>
       </c>
-      <c r="C11" s="118"/>
+      <c r="C11" s="196"/>
       <c r="D11" s="36" t="s">
         <v>810</v>
       </c>
@@ -18629,12 +18652,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="189" t="s">
+      <c r="A13" s="186" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="189"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="175"/>
+      <c r="B13" s="186"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="178"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -18677,7 +18700,7 @@
       <c r="B15" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C15" s="122"/>
+      <c r="C15" s="195"/>
       <c r="D15" s="46" t="s">
         <v>827</v>
       </c>
@@ -18691,7 +18714,7 @@
       <c r="B16" s="74" t="s">
         <v>819</v>
       </c>
-      <c r="C16" s="118"/>
+      <c r="C16" s="196"/>
       <c r="D16" s="36" t="s">
         <v>814</v>
       </c>
@@ -18727,20 +18750,20 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="184"/>
-      <c r="B18" s="175"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="175"/>
+      <c r="A18" s="181"/>
+      <c r="B18" s="178"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="178"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="174" t="s">
+      <c r="A19" s="171" t="s">
         <v>943</v>
       </c>
-      <c r="B19" s="175"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="175"/>
+      <c r="B19" s="178"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="178"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -18762,12 +18785,12 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="177" t="s">
+      <c r="A20" s="173" t="s">
         <v>981</v>
       </c>
-      <c r="B20" s="171"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="171"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="177"/>
       <c r="E20" s="3"/>
       <c r="F20" s="75"/>
       <c r="G20" s="3"/>
@@ -18821,7 +18844,7 @@
       <c r="C22" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="187" t="s">
+      <c r="D22" s="184" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="32"/>
@@ -18836,7 +18859,7 @@
       <c r="C23" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="188"/>
+      <c r="D23" s="185"/>
       <c r="E23" s="32"/>
       <c r="F23" s="76"/>
     </row>
@@ -18844,8 +18867,8 @@
       <c r="A24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="168"/>
-      <c r="C24" s="168"/>
+      <c r="B24" s="165"/>
+      <c r="C24" s="165"/>
       <c r="D24" s="50" t="s">
         <v>96</v>
       </c>
@@ -18856,8 +18879,8 @@
       <c r="A25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="165"/>
       <c r="D25" s="50" t="s">
         <v>95</v>
       </c>
@@ -18868,8 +18891,8 @@
       <c r="A26" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="168"/>
-      <c r="C26" s="168"/>
+      <c r="B26" s="165"/>
+      <c r="C26" s="165"/>
       <c r="D26" s="50" t="s">
         <v>94</v>
       </c>
@@ -18880,8 +18903,8 @@
       <c r="A27" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="168"/>
-      <c r="C27" s="168"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="165"/>
       <c r="D27" s="50" t="s">
         <v>771</v>
       </c>
@@ -18892,8 +18915,8 @@
       <c r="A28" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="165"/>
       <c r="D28" s="87" t="s">
         <v>772</v>
       </c>
@@ -18904,8 +18927,8 @@
       <c r="A29" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="168"/>
-      <c r="C29" s="168"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="165"/>
       <c r="D29" s="50" t="s">
         <v>93</v>
       </c>
@@ -18916,8 +18939,8 @@
       <c r="A30" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
       <c r="D30" s="50" t="s">
         <v>92</v>
       </c>
@@ -18928,8 +18951,8 @@
       <c r="A31" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="168"/>
-      <c r="C31" s="168"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="165"/>
       <c r="D31" s="52" t="s">
         <v>166</v>
       </c>
@@ -18940,11 +18963,11 @@
       <c r="A32" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="B32" s="169">
+      <c r="B32" s="166">
         <f>SUM(B24:B31)</f>
         <v>0</v>
       </c>
-      <c r="C32" s="169">
+      <c r="C32" s="166">
         <f>SUM(C24:C31)</f>
         <v>0</v>
       </c>
@@ -18955,10 +18978,10 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="184"/>
-      <c r="B33" s="175"/>
-      <c r="C33" s="175"/>
-      <c r="D33" s="175"/>
+      <c r="A33" s="181"/>
+      <c r="B33" s="178"/>
+      <c r="C33" s="178"/>
+      <c r="D33" s="178"/>
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
     </row>
@@ -19009,7 +19032,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19022,11 +19045,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
       <c r="D1" s="77"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -19044,12 +19067,12 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="182" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
@@ -19065,12 +19088,12 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="177" t="s">
+      <c r="A5" s="173" t="s">
         <v>1029</v>
       </c>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
       <c r="E5" s="3"/>
       <c r="F5" s="75"/>
       <c r="G5" s="3"/>
@@ -19095,8 +19118,8 @@
       <c r="A6" s="73" t="s">
         <v>764</v>
       </c>
-      <c r="B6" s="190"/>
-      <c r="C6" s="192"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="189"/>
       <c r="D6" s="71"/>
       <c r="E6" s="34"/>
       <c r="F6" s="6"/>
@@ -19112,12 +19135,12 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="189" t="s">
+      <c r="A8" s="186" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="175"/>
+      <c r="B8" s="186"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="178"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -19160,7 +19183,7 @@
       <c r="B10" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C10" s="122"/>
+      <c r="C10" s="195"/>
       <c r="D10" s="46" t="s">
         <v>812</v>
       </c>
@@ -19174,7 +19197,7 @@
       <c r="B11" s="74" t="s">
         <v>819</v>
       </c>
-      <c r="C11" s="118"/>
+      <c r="C11" s="196"/>
       <c r="D11" s="36" t="s">
         <v>810</v>
       </c>
@@ -19197,12 +19220,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="189" t="s">
+      <c r="A13" s="186" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="189"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="175"/>
+      <c r="B13" s="186"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="178"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -19245,7 +19268,7 @@
       <c r="B15" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C15" s="122"/>
+      <c r="C15" s="195"/>
       <c r="D15" s="46" t="s">
         <v>827</v>
       </c>
@@ -19259,7 +19282,7 @@
       <c r="B16" s="74" t="s">
         <v>819</v>
       </c>
-      <c r="C16" s="118"/>
+      <c r="C16" s="196"/>
       <c r="D16" s="36" t="s">
         <v>814</v>
       </c>
@@ -19295,20 +19318,20 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="184"/>
-      <c r="B18" s="175"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="175"/>
+      <c r="A18" s="181"/>
+      <c r="B18" s="178"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="178"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="174" t="s">
+      <c r="A19" s="171" t="s">
         <v>944</v>
       </c>
-      <c r="B19" s="175"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="175"/>
+      <c r="B19" s="178"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="178"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -19330,12 +19353,12 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="177" t="s">
+      <c r="A20" s="173" t="s">
         <v>981</v>
       </c>
-      <c r="B20" s="171"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="171"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="177"/>
       <c r="E20" s="3"/>
       <c r="F20" s="75"/>
       <c r="G20" s="3"/>
@@ -19389,7 +19412,7 @@
       <c r="C22" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="187" t="s">
+      <c r="D22" s="184" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="32"/>
@@ -19404,15 +19427,15 @@
       <c r="C23" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="188"/>
+      <c r="D23" s="185"/>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="168"/>
-      <c r="C24" s="168"/>
+      <c r="B24" s="165"/>
+      <c r="C24" s="165"/>
       <c r="D24" s="50" t="s">
         <v>96</v>
       </c>
@@ -19423,8 +19446,8 @@
       <c r="A25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="165"/>
       <c r="D25" s="50" t="s">
         <v>95</v>
       </c>
@@ -19435,8 +19458,8 @@
       <c r="A26" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="168"/>
-      <c r="C26" s="168"/>
+      <c r="B26" s="165"/>
+      <c r="C26" s="165"/>
       <c r="D26" s="50" t="s">
         <v>94</v>
       </c>
@@ -19447,8 +19470,8 @@
       <c r="A27" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="168"/>
-      <c r="C27" s="168"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="165"/>
       <c r="D27" s="50" t="s">
         <v>771</v>
       </c>
@@ -19459,8 +19482,8 @@
       <c r="A28" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="165"/>
       <c r="D28" s="87" t="s">
         <v>772</v>
       </c>
@@ -19471,8 +19494,8 @@
       <c r="A29" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="168"/>
-      <c r="C29" s="168"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="165"/>
       <c r="D29" s="50" t="s">
         <v>93</v>
       </c>
@@ -19483,8 +19506,8 @@
       <c r="A30" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
       <c r="D30" s="50" t="s">
         <v>92</v>
       </c>
@@ -19495,8 +19518,8 @@
       <c r="A31" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="168"/>
-      <c r="C31" s="168"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="165"/>
       <c r="D31" s="52" t="s">
         <v>166</v>
       </c>
@@ -19507,11 +19530,11 @@
       <c r="A32" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="B32" s="169">
+      <c r="B32" s="166">
         <f>SUM(B24:B31)</f>
         <v>0</v>
       </c>
-      <c r="C32" s="169">
+      <c r="C32" s="166">
         <f>SUM(C24:C31)</f>
         <v>0</v>
       </c>
@@ -19522,10 +19545,10 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="184"/>
-      <c r="B33" s="175"/>
-      <c r="C33" s="175"/>
-      <c r="D33" s="175"/>
+      <c r="A33" s="181"/>
+      <c r="B33" s="178"/>
+      <c r="C33" s="178"/>
+      <c r="D33" s="178"/>
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
     </row>
@@ -19576,7 +19599,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19589,11 +19612,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
       <c r="D1" s="77"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -19611,12 +19634,12 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="182" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
@@ -19632,12 +19655,12 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="177" t="s">
+      <c r="A5" s="173" t="s">
         <v>1028</v>
       </c>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
       <c r="E5" s="3"/>
       <c r="F5" s="75"/>
       <c r="G5" s="3"/>
@@ -19662,8 +19685,8 @@
       <c r="A6" s="73" t="s">
         <v>765</v>
       </c>
-      <c r="B6" s="190"/>
-      <c r="C6" s="192"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="189"/>
       <c r="D6" s="71"/>
       <c r="E6" s="34"/>
       <c r="F6" s="6"/>
@@ -19679,12 +19702,12 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="189" t="s">
+      <c r="A8" s="186" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="175"/>
+      <c r="B8" s="186"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="178"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -19727,7 +19750,7 @@
       <c r="B10" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C10" s="122"/>
+      <c r="C10" s="195"/>
       <c r="D10" s="46" t="s">
         <v>812</v>
       </c>
@@ -19741,7 +19764,7 @@
       <c r="B11" s="74" t="s">
         <v>819</v>
       </c>
-      <c r="C11" s="118"/>
+      <c r="C11" s="196"/>
       <c r="D11" s="36" t="s">
         <v>810</v>
       </c>
@@ -19764,12 +19787,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="189" t="s">
+      <c r="A13" s="186" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="189"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="175"/>
+      <c r="B13" s="186"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="178"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -19812,7 +19835,7 @@
       <c r="B15" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C15" s="122"/>
+      <c r="C15" s="195"/>
       <c r="D15" s="46" t="s">
         <v>827</v>
       </c>
@@ -19826,7 +19849,7 @@
       <c r="B16" s="74" t="s">
         <v>819</v>
       </c>
-      <c r="C16" s="118"/>
+      <c r="C16" s="196"/>
       <c r="D16" s="36" t="s">
         <v>814</v>
       </c>
@@ -19862,20 +19885,20 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="184"/>
-      <c r="B18" s="175"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="175"/>
+      <c r="A18" s="181"/>
+      <c r="B18" s="178"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="178"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="174" t="s">
+      <c r="A19" s="171" t="s">
         <v>945</v>
       </c>
-      <c r="B19" s="175"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="175"/>
+      <c r="B19" s="178"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="178"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -19897,12 +19920,12 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="177" t="s">
+      <c r="A20" s="173" t="s">
         <v>981</v>
       </c>
-      <c r="B20" s="171"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="171"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="177"/>
       <c r="E20" s="3"/>
       <c r="F20" s="75"/>
       <c r="G20" s="3"/>
@@ -19956,7 +19979,7 @@
       <c r="C22" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="187" t="s">
+      <c r="D22" s="184" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="32"/>
@@ -19971,15 +19994,15 @@
       <c r="C23" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="188"/>
+      <c r="D23" s="185"/>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="168"/>
-      <c r="C24" s="168"/>
+      <c r="B24" s="165"/>
+      <c r="C24" s="165"/>
       <c r="D24" s="50" t="s">
         <v>96</v>
       </c>
@@ -19990,8 +20013,8 @@
       <c r="A25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="165"/>
       <c r="D25" s="50" t="s">
         <v>95</v>
       </c>
@@ -20002,8 +20025,8 @@
       <c r="A26" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="168"/>
-      <c r="C26" s="168"/>
+      <c r="B26" s="165"/>
+      <c r="C26" s="165"/>
       <c r="D26" s="50" t="s">
         <v>94</v>
       </c>
@@ -20014,8 +20037,8 @@
       <c r="A27" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="168"/>
-      <c r="C27" s="168"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="165"/>
       <c r="D27" s="50" t="s">
         <v>771</v>
       </c>
@@ -20026,8 +20049,8 @@
       <c r="A28" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="165"/>
       <c r="D28" s="87" t="s">
         <v>778</v>
       </c>
@@ -20038,8 +20061,8 @@
       <c r="A29" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="168"/>
-      <c r="C29" s="168"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="165"/>
       <c r="D29" s="50" t="s">
         <v>93</v>
       </c>
@@ -20050,8 +20073,8 @@
       <c r="A30" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
       <c r="D30" s="50" t="s">
         <v>92</v>
       </c>
@@ -20062,8 +20085,8 @@
       <c r="A31" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="168"/>
-      <c r="C31" s="168"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="165"/>
       <c r="D31" s="52" t="s">
         <v>166</v>
       </c>
@@ -20074,11 +20097,11 @@
       <c r="A32" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="B32" s="169">
+      <c r="B32" s="166">
         <f>SUM(B24:B31)</f>
         <v>0</v>
       </c>
-      <c r="C32" s="169">
+      <c r="C32" s="166">
         <f>SUM(C24:C31)</f>
         <v>0</v>
       </c>
@@ -20089,10 +20112,10 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="184"/>
-      <c r="B33" s="175"/>
-      <c r="C33" s="175"/>
-      <c r="D33" s="175"/>
+      <c r="A33" s="181"/>
+      <c r="B33" s="178"/>
+      <c r="C33" s="178"/>
+      <c r="D33" s="178"/>
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
     </row>
@@ -20143,7 +20166,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection activeCell="B24" sqref="B24:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20156,11 +20179,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
       <c r="D1" s="77"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -20178,12 +20201,12 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="182" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
@@ -20199,12 +20222,12 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="177" t="s">
+      <c r="A5" s="173" t="s">
         <v>1028</v>
       </c>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
       <c r="E5" s="3"/>
       <c r="F5" s="75"/>
       <c r="G5" s="3"/>
@@ -20229,8 +20252,8 @@
       <c r="A6" s="73" t="s">
         <v>766</v>
       </c>
-      <c r="B6" s="190"/>
-      <c r="C6" s="191"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="188"/>
       <c r="D6" s="71"/>
       <c r="E6" s="34"/>
       <c r="F6" s="6"/>
@@ -20246,12 +20269,12 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="189" t="s">
+      <c r="A8" s="186" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="175"/>
+      <c r="B8" s="186"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="178"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -20294,7 +20317,7 @@
       <c r="B10" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C10" s="122"/>
+      <c r="C10" s="195"/>
       <c r="D10" s="46" t="s">
         <v>812</v>
       </c>
@@ -20308,7 +20331,7 @@
       <c r="B11" s="74" t="s">
         <v>819</v>
       </c>
-      <c r="C11" s="118"/>
+      <c r="C11" s="196"/>
       <c r="D11" s="36" t="s">
         <v>810</v>
       </c>
@@ -20331,12 +20354,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="189" t="s">
+      <c r="A13" s="186" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="189"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="175"/>
+      <c r="B13" s="186"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="178"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -20379,7 +20402,7 @@
       <c r="B15" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C15" s="122"/>
+      <c r="C15" s="195"/>
       <c r="D15" s="46" t="s">
         <v>827</v>
       </c>
@@ -20393,7 +20416,7 @@
       <c r="B16" s="74" t="s">
         <v>819</v>
       </c>
-      <c r="C16" s="118"/>
+      <c r="C16" s="196"/>
       <c r="D16" s="36" t="s">
         <v>814</v>
       </c>
@@ -20429,20 +20452,20 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="184"/>
-      <c r="B18" s="175"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="175"/>
+      <c r="A18" s="181"/>
+      <c r="B18" s="178"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="178"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="174" t="s">
+      <c r="A19" s="171" t="s">
         <v>946</v>
       </c>
-      <c r="B19" s="175"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="175"/>
+      <c r="B19" s="178"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="178"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -20464,12 +20487,12 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="177" t="s">
+      <c r="A20" s="173" t="s">
         <v>981</v>
       </c>
-      <c r="B20" s="171"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="171"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="177"/>
       <c r="E20" s="3"/>
       <c r="F20" s="75"/>
       <c r="G20" s="3"/>
@@ -20523,7 +20546,7 @@
       <c r="C22" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="187" t="s">
+      <c r="D22" s="184" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="32"/>
@@ -20538,15 +20561,15 @@
       <c r="C23" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="188"/>
+      <c r="D23" s="185"/>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="168"/>
-      <c r="C24" s="168"/>
+      <c r="B24" s="165"/>
+      <c r="C24" s="165"/>
       <c r="D24" s="50" t="s">
         <v>96</v>
       </c>
@@ -20557,8 +20580,8 @@
       <c r="A25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="165"/>
       <c r="D25" s="50" t="s">
         <v>95</v>
       </c>
@@ -20569,8 +20592,8 @@
       <c r="A26" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="168"/>
-      <c r="C26" s="168"/>
+      <c r="B26" s="165"/>
+      <c r="C26" s="165"/>
       <c r="D26" s="50" t="s">
         <v>94</v>
       </c>
@@ -20581,8 +20604,8 @@
       <c r="A27" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="168"/>
-      <c r="C27" s="168"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="165"/>
       <c r="D27" s="50" t="s">
         <v>771</v>
       </c>
@@ -20593,8 +20616,8 @@
       <c r="A28" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="165"/>
       <c r="D28" s="87" t="s">
         <v>772</v>
       </c>
@@ -20605,8 +20628,8 @@
       <c r="A29" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="168"/>
-      <c r="C29" s="168"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="165"/>
       <c r="D29" s="50" t="s">
         <v>93</v>
       </c>
@@ -20617,8 +20640,8 @@
       <c r="A30" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
       <c r="D30" s="50" t="s">
         <v>92</v>
       </c>
@@ -20629,8 +20652,8 @@
       <c r="A31" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="168"/>
-      <c r="C31" s="168"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="165"/>
       <c r="D31" s="52" t="s">
         <v>166</v>
       </c>
@@ -20641,11 +20664,11 @@
       <c r="A32" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="B32" s="169">
+      <c r="B32" s="166">
         <f>SUM(B24:B31)</f>
         <v>0</v>
       </c>
-      <c r="C32" s="169">
+      <c r="C32" s="166">
         <f>SUM(C24:C31)</f>
         <v>0</v>
       </c>
@@ -20656,10 +20679,10 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="184"/>
-      <c r="B33" s="175"/>
-      <c r="C33" s="175"/>
-      <c r="D33" s="175"/>
+      <c r="A33" s="181"/>
+      <c r="B33" s="178"/>
+      <c r="C33" s="178"/>
+      <c r="D33" s="178"/>
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
     </row>
@@ -20710,7 +20733,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20723,11 +20746,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
       <c r="D1" s="77"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -20745,12 +20768,12 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="182" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
@@ -20766,12 +20789,12 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="177" t="s">
+      <c r="A5" s="173" t="s">
         <v>1030</v>
       </c>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
       <c r="E5" s="3"/>
       <c r="F5" s="75"/>
       <c r="G5" s="3"/>
@@ -20796,8 +20819,8 @@
       <c r="A6" s="73" t="s">
         <v>767</v>
       </c>
-      <c r="B6" s="190"/>
-      <c r="C6" s="191"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="188"/>
       <c r="D6" s="71"/>
       <c r="E6" s="34"/>
       <c r="F6" s="6"/>
@@ -20813,12 +20836,12 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="189" t="s">
+      <c r="A8" s="186" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="175"/>
+      <c r="B8" s="186"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="178"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -20861,7 +20884,7 @@
       <c r="B10" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C10" s="122"/>
+      <c r="C10" s="195"/>
       <c r="D10" s="46" t="s">
         <v>812</v>
       </c>
@@ -20875,7 +20898,7 @@
       <c r="B11" s="74" t="s">
         <v>819</v>
       </c>
-      <c r="C11" s="118"/>
+      <c r="C11" s="196"/>
       <c r="D11" s="36" t="s">
         <v>810</v>
       </c>
@@ -20898,12 +20921,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="189" t="s">
+      <c r="A13" s="186" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="189"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="175"/>
+      <c r="B13" s="186"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="178"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -20931,7 +20954,7 @@
       <c r="B14" s="100" t="s">
         <v>820</v>
       </c>
-      <c r="C14" s="123"/>
+      <c r="C14" s="121"/>
       <c r="D14" s="46" t="s">
         <v>818</v>
       </c>
@@ -20946,7 +20969,7 @@
       <c r="B15" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C15" s="122"/>
+      <c r="C15" s="195"/>
       <c r="D15" s="46" t="s">
         <v>822</v>
       </c>
@@ -20960,7 +20983,7 @@
       <c r="B16" s="74" t="s">
         <v>819</v>
       </c>
-      <c r="C16" s="118"/>
+      <c r="C16" s="196"/>
       <c r="D16" s="36" t="s">
         <v>814</v>
       </c>
@@ -20996,20 +21019,20 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="184"/>
-      <c r="B18" s="175"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="175"/>
+      <c r="A18" s="181"/>
+      <c r="B18" s="178"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="178"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="174" t="s">
+      <c r="A19" s="171" t="s">
         <v>947</v>
       </c>
-      <c r="B19" s="175"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="175"/>
+      <c r="B19" s="178"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="178"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -21031,12 +21054,12 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="177" t="s">
+      <c r="A20" s="173" t="s">
         <v>981</v>
       </c>
-      <c r="B20" s="171"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="171"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="177"/>
       <c r="E20" s="3"/>
       <c r="F20" s="75"/>
       <c r="G20" s="3"/>
@@ -21090,7 +21113,7 @@
       <c r="C22" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="187" t="s">
+      <c r="D22" s="184" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="32"/>
@@ -21105,15 +21128,15 @@
       <c r="C23" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="188"/>
+      <c r="D23" s="185"/>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="168"/>
-      <c r="C24" s="168"/>
+      <c r="B24" s="165"/>
+      <c r="C24" s="165"/>
       <c r="D24" s="50" t="s">
         <v>96</v>
       </c>
@@ -21124,8 +21147,8 @@
       <c r="A25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="165"/>
       <c r="D25" s="50" t="s">
         <v>95</v>
       </c>
@@ -21136,8 +21159,8 @@
       <c r="A26" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="168"/>
-      <c r="C26" s="168"/>
+      <c r="B26" s="165"/>
+      <c r="C26" s="165"/>
       <c r="D26" s="50" t="s">
         <v>94</v>
       </c>
@@ -21148,8 +21171,8 @@
       <c r="A27" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="168"/>
-      <c r="C27" s="168"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="165"/>
       <c r="D27" s="50" t="s">
         <v>771</v>
       </c>
@@ -21160,8 +21183,8 @@
       <c r="A28" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="165"/>
       <c r="D28" s="87" t="s">
         <v>772</v>
       </c>
@@ -21172,8 +21195,8 @@
       <c r="A29" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="168"/>
-      <c r="C29" s="168"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="165"/>
       <c r="D29" s="50" t="s">
         <v>93</v>
       </c>
@@ -21184,8 +21207,8 @@
       <c r="A30" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
       <c r="D30" s="50" t="s">
         <v>92</v>
       </c>
@@ -21196,8 +21219,8 @@
       <c r="A31" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="168"/>
-      <c r="C31" s="168"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="165"/>
       <c r="D31" s="52" t="s">
         <v>166</v>
       </c>
@@ -21208,11 +21231,11 @@
       <c r="A32" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="B32" s="169">
+      <c r="B32" s="166">
         <f>SUM(B24:B31)</f>
         <v>0</v>
       </c>
-      <c r="C32" s="169">
+      <c r="C32" s="166">
         <f>SUM(C24:C31)</f>
         <v>0</v>
       </c>
@@ -21223,10 +21246,10 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="184"/>
-      <c r="B33" s="175"/>
-      <c r="C33" s="175"/>
-      <c r="D33" s="175"/>
+      <c r="A33" s="181"/>
+      <c r="B33" s="178"/>
+      <c r="C33" s="178"/>
+      <c r="D33" s="178"/>
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
     </row>
@@ -21277,7 +21300,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D5"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21290,11 +21313,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="10" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
       <c r="D1" s="77"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -21312,12 +21335,12 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="182" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
@@ -21333,12 +21356,12 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="177" t="s">
+      <c r="A5" s="173" t="s">
         <v>1028</v>
       </c>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
       <c r="E5" s="3"/>
       <c r="F5" s="75"/>
       <c r="G5" s="3"/>
@@ -21363,8 +21386,8 @@
       <c r="A6" s="73" t="s">
         <v>768</v>
       </c>
-      <c r="B6" s="190"/>
-      <c r="C6" s="191"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="188"/>
       <c r="D6" s="71"/>
       <c r="E6" s="34"/>
       <c r="F6" s="6"/>
@@ -21380,12 +21403,12 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="189" t="s">
+      <c r="A8" s="186" t="s">
         <v>813</v>
       </c>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="175"/>
+      <c r="B8" s="186"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="178"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -21428,7 +21451,7 @@
       <c r="B10" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C10" s="122"/>
+      <c r="C10" s="195"/>
       <c r="D10" s="46" t="s">
         <v>812</v>
       </c>
@@ -21442,7 +21465,7 @@
       <c r="B11" s="74" t="s">
         <v>819</v>
       </c>
-      <c r="C11" s="118"/>
+      <c r="C11" s="196"/>
       <c r="D11" s="36" t="s">
         <v>810</v>
       </c>
@@ -21465,12 +21488,12 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="189" t="s">
+      <c r="A13" s="186" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="189"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="175"/>
+      <c r="B13" s="186"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="178"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -21513,7 +21536,7 @@
       <c r="B15" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="C15" s="122"/>
+      <c r="C15" s="195"/>
       <c r="D15" s="46" t="s">
         <v>827</v>
       </c>
@@ -21527,7 +21550,7 @@
       <c r="B16" s="74" t="s">
         <v>819</v>
       </c>
-      <c r="C16" s="118"/>
+      <c r="C16" s="196"/>
       <c r="D16" s="36" t="s">
         <v>814</v>
       </c>
@@ -21563,20 +21586,20 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="184"/>
-      <c r="B18" s="175"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="175"/>
+      <c r="A18" s="181"/>
+      <c r="B18" s="178"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="178"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="174" t="s">
+      <c r="A19" s="171" t="s">
         <v>948</v>
       </c>
-      <c r="B19" s="175"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="175"/>
+      <c r="B19" s="178"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="178"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -21598,12 +21621,12 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="177" t="s">
+      <c r="A20" s="173" t="s">
         <v>981</v>
       </c>
-      <c r="B20" s="171"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="171"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="177"/>
       <c r="E20" s="3"/>
       <c r="F20" s="75"/>
       <c r="G20" s="3"/>
@@ -21657,7 +21680,7 @@
       <c r="C22" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="187" t="s">
+      <c r="D22" s="184" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="32"/>
@@ -21672,15 +21695,15 @@
       <c r="C23" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="188"/>
+      <c r="D23" s="185"/>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="168"/>
-      <c r="C24" s="168"/>
+      <c r="B24" s="165"/>
+      <c r="C24" s="165"/>
       <c r="D24" s="50" t="s">
         <v>96</v>
       </c>
@@ -21691,8 +21714,8 @@
       <c r="A25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="165"/>
       <c r="D25" s="50" t="s">
         <v>95</v>
       </c>
@@ -21703,8 +21726,8 @@
       <c r="A26" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="168"/>
-      <c r="C26" s="168"/>
+      <c r="B26" s="165"/>
+      <c r="C26" s="165"/>
       <c r="D26" s="50" t="s">
         <v>94</v>
       </c>
@@ -21715,8 +21738,8 @@
       <c r="A27" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="168"/>
-      <c r="C27" s="168"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="165"/>
       <c r="D27" s="50" t="s">
         <v>771</v>
       </c>
@@ -21727,8 +21750,8 @@
       <c r="A28" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="165"/>
       <c r="D28" s="87" t="s">
         <v>772</v>
       </c>
@@ -21739,8 +21762,8 @@
       <c r="A29" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="168"/>
-      <c r="C29" s="168"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="165"/>
       <c r="D29" s="50" t="s">
         <v>93</v>
       </c>
@@ -21751,8 +21774,8 @@
       <c r="A30" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
       <c r="D30" s="50" t="s">
         <v>92</v>
       </c>
@@ -21763,8 +21786,8 @@
       <c r="A31" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="168"/>
-      <c r="C31" s="168"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="165"/>
       <c r="D31" s="52" t="s">
         <v>166</v>
       </c>
@@ -21775,11 +21798,11 @@
       <c r="A32" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="B32" s="169">
+      <c r="B32" s="166">
         <f>SUM(B24:B31)</f>
         <v>0</v>
       </c>
-      <c r="C32" s="169">
+      <c r="C32" s="166">
         <f>SUM(C24:C31)</f>
         <v>0</v>
       </c>
@@ -21790,10 +21813,10 @@
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="184"/>
-      <c r="B33" s="175"/>
-      <c r="C33" s="175"/>
-      <c r="D33" s="175"/>
+      <c r="A33" s="181"/>
+      <c r="B33" s="178"/>
+      <c r="C33" s="178"/>
+      <c r="D33" s="178"/>
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
     </row>

--- a/data/imports/mrss-export.xlsx
+++ b/data/imports/mrss-export.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vdouglas\Documents\MRSS Development\Applications Development\Output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24816"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22360" windowHeight="19380"/>
   </bookViews>
   <sheets>
     <sheet name="DataEntry" sheetId="1" r:id="rId1"/>
@@ -39,7 +34,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="10">Form2j!$A$1:$D$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'Move or Copy'!$A$1:$T$57</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -49,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="1005">
   <si>
     <t>Maximizing Resources for Student Success</t>
   </si>
@@ -5230,16 +5225,7 @@
     <t>2012 Annual Number of FTE Staff</t>
   </si>
   <si>
-    <t>Enter the total number of student credit hours taught by part-time faculty or adjuncts in the academic unit in the 2013 academic year. This should be the number of credit hours for a course times the number of students enrolled in the course (include students who received a grade of W). For example, a 3 credit hour course with 30 enrolled students would generate 90 student credit hours. Exclude high school students taking classes taught by high school faculty in their high schools for college credit. The 2013 academic year is the end of term counts for summer 2012, fall 2012 and spring 2013.</t>
-  </si>
-  <si>
     <t>FY 2012/13 Non-labor Operating Costs</t>
-  </si>
-  <si>
-    <t>Full-time equivalent (FTE) Faculty will equal total instructor credit hours taught by all full-time credit faculty in the academic unit in the 2013 academic year divided by 15. The 2013 academic year is the end of term counts for summer 2012, fall 2012 and spring 2013.</t>
-  </si>
-  <si>
-    <t>Full-time equivalent (FTE) faculty will equal total instructor credit hours taught by all part-time credit faculty or adjuncts in the academic unit in the 2013 academic year divided by 15. The 2013 academic year is the end of term counts for summer 2012, fall 2012 and spring 2013.</t>
   </si>
   <si>
     <r>
@@ -5273,7 +5259,10 @@
     <t>Full-time equivalent (FTE) faculty will equal instructor credit hours taught by all full-time credit faculty in the academic unit in the 2013 academic year divided by 15. The 2013 academic year is the end of term counts for summer 2012, fall 2012 and spring 2013.</t>
   </si>
   <si>
-    <t>Full-time equivalent (FTE) faculty will equal total instructor credit hours taught by all full-time credit faculty in the academic unit in the 2013 academic year divided by 15. The 2013 academic year is the end of term counts for summer 2012, fall 2012 and spring 2013.</t>
+    <t>Full-time equivalent (FTE) faculty will equal instructor credit hours taught by all part-time credit faculty or adjuncts in the academic unit in the 2013 academic year divided by 15. The 2013 academic year is the end of term counts for summer 2012, fall 2012 and spring 2013.</t>
+  </si>
+  <si>
+    <t>Enter the number of student credit hours taught by part-time faculty or adjuncts in the academic unit in the 2013 academic year. This should be the number of credit hours for a course times the number of students enrolled in the course (include students who received a grade of W). For example, a 3 credit hour course with 30 enrolled students would generate 90 student credit hours. Exclude high school students taking classes taught by high school faculty in their high schools for college credit. The 2013 academic year is the end of term counts for summer 2012, fall 2012 and spring 2013.</t>
   </si>
 </sst>
 </file>
@@ -5288,7 +5277,7 @@
     <numFmt numFmtId="166" formatCode="0.00\%\ "/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -6373,26 +6362,28 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -6408,18 +6399,16 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="15"/>
     </xf>
@@ -7104,7 +7093,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7139,7 +7128,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7348,33 +7337,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X509"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="54.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="67.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="42" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="4" customWidth="1"/>
-    <col min="7" max="9" width="8.85546875" style="4"/>
-    <col min="10" max="10" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="54.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="67.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="51.1640625" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="42" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" style="4" customWidth="1"/>
+    <col min="7" max="9" width="8.83203125" style="4"/>
+    <col min="10" max="10" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="9" customFormat="1" ht="66.599999999999994" customHeight="1">
-      <c r="A1" s="243" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
+    <row r="1" spans="1:24" s="9" customFormat="1" ht="66.5" customHeight="1">
+      <c r="A1" s="230" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="230"/>
+      <c r="C1" s="230"/>
       <c r="D1" s="42"/>
       <c r="E1" s="42"/>
       <c r="F1" s="10"/>
@@ -7407,21 +7396,21 @@
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="11" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A4" s="245" t="s">
+      <c r="A4" s="234" t="s">
         <v>521</v>
       </c>
-      <c r="B4" s="246"/>
-      <c r="C4" s="246"/>
+      <c r="B4" s="235"/>
+      <c r="C4" s="235"/>
       <c r="D4" s="190"/>
       <c r="E4" s="190"/>
       <c r="F4" s="10"/>
     </row>
     <row r="6" spans="1:24" ht="48.75" customHeight="1">
-      <c r="A6" s="244" t="s">
+      <c r="A6" s="233" t="s">
         <v>522</v>
       </c>
-      <c r="B6" s="244"/>
-      <c r="C6" s="244"/>
+      <c r="B6" s="233"/>
+      <c r="C6" s="233"/>
       <c r="D6" s="191"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
@@ -7451,12 +7440,12 @@
       <c r="E7" s="190"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:24" s="171" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A8" s="234" t="s">
+    <row r="8" spans="1:24" s="171" customFormat="1" ht="40" customHeight="1">
+      <c r="A8" s="236" t="s">
         <v>685</v>
       </c>
-      <c r="B8" s="235"/>
-      <c r="C8" s="235"/>
+      <c r="B8" s="237"/>
+      <c r="C8" s="237"/>
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
       <c r="F8" s="18"/>
@@ -7564,11 +7553,11 @@
       <c r="X11" s="69"/>
     </row>
     <row r="12" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="232" t="s">
+      <c r="A12" s="231" t="s">
         <v>456</v>
       </c>
-      <c r="B12" s="233"/>
-      <c r="C12" s="233"/>
+      <c r="B12" s="232"/>
+      <c r="C12" s="232"/>
       <c r="D12" s="192"/>
       <c r="E12" s="192"/>
       <c r="F12" s="69"/>
@@ -7780,7 +7769,7 @@
       <c r="W23" s="63"/>
       <c r="X23" s="63"/>
     </row>
-    <row r="24" spans="1:24" ht="64.5" thickBot="1">
+    <row r="24" spans="1:24" ht="49" thickBot="1">
       <c r="A24" s="75" t="s">
         <v>994</v>
       </c>
@@ -7859,7 +7848,7 @@
       </c>
       <c r="B28" s="81"/>
       <c r="C28" s="49" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D28" s="42" t="s">
         <v>539</v>
@@ -7870,7 +7859,7 @@
     </row>
     <row r="29" spans="1:24" ht="49.5" customHeight="1" thickBot="1">
       <c r="A29" s="78" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B29" s="80"/>
       <c r="C29" s="48" t="s">
@@ -7891,12 +7880,12 @@
       <c r="E30" s="190"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:24" ht="39.950000000000003" customHeight="1">
-      <c r="A31" s="234" t="s">
+    <row r="31" spans="1:24" ht="40" customHeight="1">
+      <c r="A31" s="236" t="s">
         <v>457</v>
       </c>
-      <c r="B31" s="235"/>
-      <c r="C31" s="235"/>
+      <c r="B31" s="237"/>
+      <c r="C31" s="237"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
@@ -8227,11 +8216,11 @@
       <c r="E49" s="190"/>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:24" ht="39.950000000000003" customHeight="1">
-      <c r="A50" s="234" t="s">
+    <row r="50" spans="1:24" ht="40" customHeight="1">
+      <c r="A50" s="236" t="s">
         <v>470</v>
       </c>
-      <c r="B50" s="235"/>
+      <c r="B50" s="237"/>
       <c r="C50" s="59"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
@@ -8338,11 +8327,11 @@
       <c r="X53" s="69"/>
     </row>
     <row r="54" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
-      <c r="A54" s="232" t="s">
+      <c r="A54" s="231" t="s">
         <v>456</v>
       </c>
-      <c r="B54" s="233"/>
-      <c r="C54" s="233"/>
+      <c r="B54" s="232"/>
+      <c r="C54" s="232"/>
       <c r="D54" s="42"/>
       <c r="E54" s="192"/>
       <c r="F54" s="69"/>
@@ -8395,8 +8384,8 @@
       <c r="A56" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="236"/>
-      <c r="C56" s="237"/>
+      <c r="B56" s="243"/>
+      <c r="C56" s="244"/>
       <c r="F56" s="32"/>
       <c r="G56" s="32"/>
       <c r="H56" s="32"/>
@@ -9126,7 +9115,7 @@
       <c r="G107" s="14"/>
       <c r="H107" s="14"/>
     </row>
-    <row r="108" spans="1:8" ht="50.1" customHeight="1" thickBot="1">
+    <row r="108" spans="1:8" ht="50" customHeight="1" thickBot="1">
       <c r="A108" s="100" t="s">
         <v>6</v>
       </c>
@@ -9281,7 +9270,7 @@
       <c r="G118" s="14"/>
       <c r="H118" s="14"/>
     </row>
-    <row r="119" spans="1:24" ht="50.1" customHeight="1" thickBot="1">
+    <row r="119" spans="1:24" ht="50" customHeight="1" thickBot="1">
       <c r="A119" s="100" t="s">
         <v>6</v>
       </c>
@@ -9364,11 +9353,11 @@
       <c r="E124" s="190"/>
       <c r="F124" s="10"/>
     </row>
-    <row r="125" spans="1:24" s="171" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A125" s="234" t="s">
+    <row r="125" spans="1:24" s="171" customFormat="1" ht="40" customHeight="1">
+      <c r="A125" s="236" t="s">
         <v>689</v>
       </c>
-      <c r="B125" s="235"/>
+      <c r="B125" s="237"/>
       <c r="C125" s="59"/>
       <c r="D125" s="42"/>
       <c r="E125" s="42"/>
@@ -9449,11 +9438,11 @@
       <c r="X127" s="69"/>
     </row>
     <row r="128" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
-      <c r="A128" s="232" t="s">
+      <c r="A128" s="231" t="s">
         <v>456</v>
       </c>
-      <c r="B128" s="233"/>
-      <c r="C128" s="233"/>
+      <c r="B128" s="232"/>
+      <c r="C128" s="232"/>
       <c r="D128" s="33"/>
       <c r="E128" s="192"/>
       <c r="F128" s="69"/>
@@ -9506,8 +9495,8 @@
       <c r="A130" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="B130" s="236"/>
-      <c r="C130" s="237"/>
+      <c r="B130" s="243"/>
+      <c r="C130" s="244"/>
       <c r="D130" s="33"/>
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
@@ -9592,8 +9581,8 @@
       <c r="A136" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="B136" s="236"/>
-      <c r="C136" s="237"/>
+      <c r="B136" s="243"/>
+      <c r="C136" s="244"/>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
       <c r="H136" s="14"/>
@@ -9758,11 +9747,11 @@
       <c r="E147" s="190"/>
       <c r="F147" s="10"/>
     </row>
-    <row r="148" spans="1:24" s="61" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A148" s="234" t="s">
+    <row r="148" spans="1:24" s="61" customFormat="1" ht="40" customHeight="1">
+      <c r="A148" s="236" t="s">
         <v>476</v>
       </c>
-      <c r="B148" s="235"/>
+      <c r="B148" s="237"/>
       <c r="C148" s="59"/>
       <c r="D148" s="42"/>
       <c r="E148" s="42"/>
@@ -9815,11 +9804,11 @@
       <c r="X149" s="69"/>
     </row>
     <row r="150" spans="1:24" s="64" customFormat="1" ht="24" customHeight="1">
-      <c r="A150" s="232" t="s">
+      <c r="A150" s="231" t="s">
         <v>478</v>
       </c>
-      <c r="B150" s="233"/>
-      <c r="C150" s="233"/>
+      <c r="B150" s="232"/>
+      <c r="C150" s="232"/>
       <c r="D150" s="42"/>
       <c r="E150" s="192"/>
       <c r="F150" s="69"/>
@@ -9869,10 +9858,10 @@
       <c r="X151" s="97"/>
     </row>
     <row r="152" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A152" s="230" t="s">
+      <c r="A152" s="245" t="s">
         <v>479</v>
       </c>
-      <c r="B152" s="231"/>
+      <c r="B152" s="246"/>
       <c r="C152" s="107"/>
       <c r="D152" s="42"/>
       <c r="E152" s="42"/>
@@ -9956,10 +9945,10 @@
       <c r="H156" s="14"/>
     </row>
     <row r="157" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A157" s="230" t="s">
+      <c r="A157" s="245" t="s">
         <v>480</v>
       </c>
-      <c r="B157" s="231"/>
+      <c r="B157" s="246"/>
       <c r="C157" s="107"/>
       <c r="D157" s="42" t="s">
         <v>740</v>
@@ -10076,7 +10065,7 @@
       <c r="G163" s="14"/>
       <c r="H163" s="14"/>
     </row>
-    <row r="164" spans="1:24" ht="47.1" customHeight="1" thickBot="1">
+    <row r="164" spans="1:24" ht="47" customHeight="1" thickBot="1">
       <c r="A164" s="201" t="s">
         <v>93</v>
       </c>
@@ -10091,7 +10080,7 @@
       <c r="G164" s="14"/>
       <c r="H164" s="14"/>
     </row>
-    <row r="165" spans="1:24" ht="50.1" customHeight="1" thickBot="1">
+    <row r="165" spans="1:24" ht="50" customHeight="1" thickBot="1">
       <c r="A165" s="203" t="s">
         <v>107</v>
       </c>
@@ -10181,7 +10170,7 @@
       <c r="G170" s="14"/>
       <c r="H170" s="14"/>
     </row>
-    <row r="171" spans="1:24" ht="44.1" customHeight="1" thickBot="1">
+    <row r="171" spans="1:24" ht="44" customHeight="1" thickBot="1">
       <c r="A171" s="201" t="s">
         <v>105</v>
       </c>
@@ -10212,10 +10201,10 @@
       <c r="H172" s="14"/>
     </row>
     <row r="173" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A173" s="230" t="s">
+      <c r="A173" s="245" t="s">
         <v>481</v>
       </c>
-      <c r="B173" s="231"/>
+      <c r="B173" s="246"/>
       <c r="C173" s="107"/>
       <c r="D173" s="42"/>
       <c r="E173" s="42"/>
@@ -10372,10 +10361,10 @@
       <c r="H183" s="14"/>
     </row>
     <row r="184" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A184" s="230" t="s">
+      <c r="A184" s="245" t="s">
         <v>491</v>
       </c>
-      <c r="B184" s="231"/>
+      <c r="B184" s="246"/>
       <c r="C184" s="107"/>
       <c r="D184" s="42"/>
       <c r="E184" s="42"/>
@@ -10442,10 +10431,10 @@
       <c r="H187" s="14"/>
     </row>
     <row r="188" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A188" s="230" t="s">
+      <c r="A188" s="245" t="s">
         <v>492</v>
       </c>
-      <c r="B188" s="231"/>
+      <c r="B188" s="246"/>
       <c r="C188" s="107"/>
       <c r="D188" s="42"/>
       <c r="E188" s="42"/>
@@ -10536,7 +10525,7 @@
       <c r="G193" s="14"/>
       <c r="H193" s="14"/>
     </row>
-    <row r="194" spans="1:24" ht="9.9499999999999993" customHeight="1">
+    <row r="194" spans="1:24" ht="10" customHeight="1">
       <c r="A194" s="23"/>
       <c r="B194" s="54"/>
       <c r="C194" s="43"/>
@@ -10545,10 +10534,10 @@
       <c r="H194" s="14"/>
     </row>
     <row r="195" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A195" s="230" t="s">
+      <c r="A195" s="245" t="s">
         <v>115</v>
       </c>
-      <c r="B195" s="231"/>
+      <c r="B195" s="246"/>
       <c r="C195" s="107"/>
       <c r="D195" s="42"/>
       <c r="E195" s="42"/>
@@ -10686,10 +10675,10 @@
       <c r="H202" s="42"/>
     </row>
     <row r="203" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A203" s="230" t="s">
+      <c r="A203" s="245" t="s">
         <v>502</v>
       </c>
-      <c r="B203" s="231"/>
+      <c r="B203" s="246"/>
       <c r="C203" s="107"/>
       <c r="D203" s="42"/>
       <c r="E203" s="42"/>
@@ -10789,11 +10778,11 @@
       <c r="E208" s="190"/>
       <c r="F208" s="10"/>
     </row>
-    <row r="209" spans="1:24" s="61" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A209" s="234" t="s">
+    <row r="209" spans="1:24" s="61" customFormat="1" ht="40" customHeight="1">
+      <c r="A209" s="236" t="s">
         <v>503</v>
       </c>
-      <c r="B209" s="235"/>
+      <c r="B209" s="237"/>
       <c r="C209" s="59"/>
       <c r="D209" s="42"/>
       <c r="E209" s="42"/>
@@ -10879,8 +10868,8 @@
       <c r="A212" s="238" t="s">
         <v>706</v>
       </c>
-      <c r="B212" s="233"/>
-      <c r="C212" s="233"/>
+      <c r="B212" s="232"/>
+      <c r="C212" s="232"/>
       <c r="D212" s="42"/>
       <c r="E212" s="192"/>
       <c r="F212" s="69"/>
@@ -10904,10 +10893,10 @@
       <c r="X212" s="69"/>
     </row>
     <row r="213" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A213" s="230" t="s">
+      <c r="A213" s="245" t="s">
         <v>504</v>
       </c>
-      <c r="B213" s="231"/>
+      <c r="B213" s="246"/>
       <c r="C213" s="107"/>
       <c r="D213" s="42"/>
       <c r="E213" s="42"/>
@@ -10993,10 +10982,10 @@
       <c r="H217" s="14"/>
     </row>
     <row r="218" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A218" s="230" t="s">
+      <c r="A218" s="245" t="s">
         <v>504</v>
       </c>
-      <c r="B218" s="231"/>
+      <c r="B218" s="246"/>
       <c r="C218" s="107"/>
       <c r="D218" s="42"/>
       <c r="E218" s="42"/>
@@ -11081,10 +11070,10 @@
       <c r="H222" s="14"/>
     </row>
     <row r="223" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A223" s="230" t="s">
+      <c r="A223" s="245" t="s">
         <v>504</v>
       </c>
-      <c r="B223" s="231"/>
+      <c r="B223" s="246"/>
       <c r="C223" s="107"/>
       <c r="D223" s="42"/>
       <c r="E223" s="42"/>
@@ -11108,7 +11097,7 @@
       <c r="W223" s="18"/>
       <c r="X223" s="18"/>
     </row>
-    <row r="224" spans="1:24" ht="33.950000000000003" customHeight="1" thickBot="1">
+    <row r="224" spans="1:24" ht="34" customHeight="1" thickBot="1">
       <c r="A224" s="197" t="s">
         <v>713</v>
       </c>
@@ -11164,10 +11153,10 @@
       <c r="H227" s="14"/>
     </row>
     <row r="228" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A228" s="230" t="s">
+      <c r="A228" s="245" t="s">
         <v>504</v>
       </c>
-      <c r="B228" s="231"/>
+      <c r="B228" s="246"/>
       <c r="C228" s="107"/>
       <c r="D228" s="42"/>
       <c r="E228" s="42"/>
@@ -11191,7 +11180,7 @@
       <c r="W228" s="18"/>
       <c r="X228" s="18"/>
     </row>
-    <row r="229" spans="1:24" ht="33.950000000000003" customHeight="1" thickBot="1">
+    <row r="229" spans="1:24" ht="34" customHeight="1" thickBot="1">
       <c r="A229" s="197" t="s">
         <v>714</v>
       </c>
@@ -11276,7 +11265,7 @@
       <c r="W233" s="18"/>
       <c r="X233" s="18"/>
     </row>
-    <row r="234" spans="1:24" s="61" customFormat="1" ht="33.950000000000003" customHeight="1" thickBot="1">
+    <row r="234" spans="1:24" s="61" customFormat="1" ht="34" customHeight="1" thickBot="1">
       <c r="A234" s="197" t="s">
         <v>716</v>
       </c>
@@ -11473,7 +11462,7 @@
       <c r="G243" s="14"/>
       <c r="H243" s="14"/>
     </row>
-    <row r="244" spans="1:24" ht="32.1" customHeight="1" thickBot="1">
+    <row r="244" spans="1:24" ht="32" customHeight="1" thickBot="1">
       <c r="A244" s="221" t="s">
         <v>130</v>
       </c>
@@ -11580,7 +11569,7 @@
       <c r="E249" s="190"/>
       <c r="F249" s="10"/>
     </row>
-    <row r="250" spans="1:24" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="250" spans="1:24" ht="20" hidden="1" customHeight="1">
       <c r="A250" s="7" t="s">
         <v>133</v>
       </c>
@@ -11601,7 +11590,7 @@
       <c r="G250" s="14"/>
       <c r="H250" s="14"/>
     </row>
-    <row r="251" spans="1:24" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="251" spans="1:24" ht="20" hidden="1" customHeight="1">
       <c r="A251" s="7" t="s">
         <v>136</v>
       </c>
@@ -11619,7 +11608,7 @@
       <c r="G251" s="14"/>
       <c r="H251" s="14"/>
     </row>
-    <row r="252" spans="1:24" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="252" spans="1:24" ht="20" hidden="1" customHeight="1">
       <c r="A252" s="7" t="s">
         <v>137</v>
       </c>
@@ -11637,7 +11626,7 @@
       <c r="G252" s="14"/>
       <c r="H252" s="14"/>
     </row>
-    <row r="253" spans="1:24" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="253" spans="1:24" ht="20" hidden="1" customHeight="1">
       <c r="A253" s="26" t="s">
         <v>139</v>
       </c>
@@ -11655,7 +11644,7 @@
       <c r="G253" s="14"/>
       <c r="H253" s="14"/>
     </row>
-    <row r="254" spans="1:24" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="254" spans="1:24" ht="20" hidden="1" customHeight="1">
       <c r="A254" s="7" t="s">
         <v>141</v>
       </c>
@@ -11673,7 +11662,7 @@
       <c r="G254" s="14"/>
       <c r="H254" s="14"/>
     </row>
-    <row r="255" spans="1:24" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="255" spans="1:24" ht="20" hidden="1" customHeight="1">
       <c r="A255" s="7" t="s">
         <v>142</v>
       </c>
@@ -11691,7 +11680,7 @@
       <c r="G255" s="14"/>
       <c r="H255" s="14"/>
     </row>
-    <row r="256" spans="1:24" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="256" spans="1:24" ht="20" hidden="1" customHeight="1">
       <c r="A256" s="26" t="s">
         <v>144</v>
       </c>
@@ -11709,7 +11698,7 @@
       <c r="G256" s="14"/>
       <c r="H256" s="14"/>
     </row>
-    <row r="257" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="257" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A257" s="7" t="s">
         <v>146</v>
       </c>
@@ -11727,7 +11716,7 @@
       <c r="G257" s="14"/>
       <c r="H257" s="14"/>
     </row>
-    <row r="258" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="258" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A258" s="7" t="s">
         <v>148</v>
       </c>
@@ -11763,7 +11752,7 @@
       <c r="G259" s="14"/>
       <c r="H259" s="14"/>
     </row>
-    <row r="260" spans="1:8" ht="27.95" hidden="1" customHeight="1">
+    <row r="260" spans="1:8" ht="28" hidden="1" customHeight="1">
       <c r="A260" s="7" t="s">
         <v>152</v>
       </c>
@@ -11799,7 +11788,7 @@
       <c r="G261" s="14"/>
       <c r="H261" s="14"/>
     </row>
-    <row r="262" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="262" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A262" s="7" t="s">
         <v>156</v>
       </c>
@@ -11853,7 +11842,7 @@
       <c r="G264" s="14"/>
       <c r="H264" s="14"/>
     </row>
-    <row r="265" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="265" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A265" s="7" t="s">
         <v>162</v>
       </c>
@@ -11871,7 +11860,7 @@
       <c r="G265" s="14"/>
       <c r="H265" s="14"/>
     </row>
-    <row r="266" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1">
+    <row r="266" spans="1:8" ht="40" hidden="1" customHeight="1">
       <c r="A266" s="7" t="s">
         <v>164</v>
       </c>
@@ -11889,7 +11878,7 @@
       <c r="G266" s="14"/>
       <c r="H266" s="14"/>
     </row>
-    <row r="267" spans="1:8" ht="24.95" hidden="1" customHeight="1">
+    <row r="267" spans="1:8" ht="25" hidden="1" customHeight="1">
       <c r="A267" s="7" t="s">
         <v>166</v>
       </c>
@@ -11925,7 +11914,7 @@
       <c r="G268" s="14"/>
       <c r="H268" s="14"/>
     </row>
-    <row r="269" spans="1:8" ht="45.95" hidden="1" customHeight="1">
+    <row r="269" spans="1:8" ht="46" hidden="1" customHeight="1">
       <c r="A269" s="7" t="s">
         <v>170</v>
       </c>
@@ -11997,7 +11986,7 @@
       <c r="G272" s="14"/>
       <c r="H272" s="14"/>
     </row>
-    <row r="273" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="273" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A273" s="7" t="s">
         <v>177</v>
       </c>
@@ -12015,7 +12004,7 @@
       <c r="G273" s="14"/>
       <c r="H273" s="14"/>
     </row>
-    <row r="274" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="274" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A274" s="7" t="s">
         <v>179</v>
       </c>
@@ -12033,7 +12022,7 @@
       <c r="G274" s="14"/>
       <c r="H274" s="14"/>
     </row>
-    <row r="275" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="275" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A275" s="7" t="s">
         <v>180</v>
       </c>
@@ -12051,7 +12040,7 @@
       <c r="G275" s="14"/>
       <c r="H275" s="14"/>
     </row>
-    <row r="276" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="276" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A276" s="26" t="s">
         <v>182</v>
       </c>
@@ -12069,7 +12058,7 @@
       <c r="G276" s="14"/>
       <c r="H276" s="14"/>
     </row>
-    <row r="277" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="277" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A277" s="7" t="s">
         <v>184</v>
       </c>
@@ -12087,7 +12076,7 @@
       <c r="G277" s="14"/>
       <c r="H277" s="14"/>
     </row>
-    <row r="278" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="278" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A278" s="7" t="s">
         <v>185</v>
       </c>
@@ -12105,7 +12094,7 @@
       <c r="G278" s="14"/>
       <c r="H278" s="14"/>
     </row>
-    <row r="279" spans="1:8" ht="24.95" hidden="1" customHeight="1">
+    <row r="279" spans="1:8" ht="25" hidden="1" customHeight="1">
       <c r="A279" s="26" t="s">
         <v>187</v>
       </c>
@@ -12123,7 +12112,7 @@
       <c r="G279" s="14"/>
       <c r="H279" s="14"/>
     </row>
-    <row r="280" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="280" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A280" s="7" t="s">
         <v>189</v>
       </c>
@@ -12177,7 +12166,7 @@
       <c r="G282" s="14"/>
       <c r="H282" s="14"/>
     </row>
-    <row r="283" spans="1:8" ht="24.95" hidden="1" customHeight="1">
+    <row r="283" spans="1:8" ht="25" hidden="1" customHeight="1">
       <c r="A283" s="7" t="s">
         <v>192</v>
       </c>
@@ -12195,7 +12184,7 @@
       <c r="G283" s="14"/>
       <c r="H283" s="14"/>
     </row>
-    <row r="284" spans="1:8" ht="36.950000000000003" hidden="1" customHeight="1">
+    <row r="284" spans="1:8" ht="37" hidden="1" customHeight="1">
       <c r="A284" s="7" t="s">
         <v>193</v>
       </c>
@@ -12321,7 +12310,7 @@
       <c r="G290" s="14"/>
       <c r="H290" s="14"/>
     </row>
-    <row r="291" spans="1:8" ht="24.95" hidden="1" customHeight="1">
+    <row r="291" spans="1:8" ht="25" hidden="1" customHeight="1">
       <c r="A291" s="7" t="s">
         <v>200</v>
       </c>
@@ -12339,7 +12328,7 @@
       <c r="G291" s="14"/>
       <c r="H291" s="14"/>
     </row>
-    <row r="292" spans="1:8" ht="36.950000000000003" hidden="1" customHeight="1">
+    <row r="292" spans="1:8" ht="37" hidden="1" customHeight="1">
       <c r="A292" s="7" t="s">
         <v>202</v>
       </c>
@@ -12357,7 +12346,7 @@
       <c r="G292" s="14"/>
       <c r="H292" s="14"/>
     </row>
-    <row r="293" spans="1:8" ht="24.95" hidden="1" customHeight="1">
+    <row r="293" spans="1:8" ht="25" hidden="1" customHeight="1">
       <c r="A293" s="7" t="s">
         <v>203</v>
       </c>
@@ -12375,7 +12364,7 @@
       <c r="G293" s="14"/>
       <c r="H293" s="14"/>
     </row>
-    <row r="294" spans="1:8" ht="48.95" hidden="1" customHeight="1">
+    <row r="294" spans="1:8" ht="49" hidden="1" customHeight="1">
       <c r="A294" s="7" t="s">
         <v>204</v>
       </c>
@@ -12393,7 +12382,7 @@
       <c r="G294" s="14"/>
       <c r="H294" s="14"/>
     </row>
-    <row r="295" spans="1:8" ht="36.950000000000003" hidden="1" customHeight="1">
+    <row r="295" spans="1:8" ht="37" hidden="1" customHeight="1">
       <c r="A295" s="7" t="s">
         <v>205</v>
       </c>
@@ -12591,7 +12580,7 @@
       <c r="G305" s="14"/>
       <c r="H305" s="14"/>
     </row>
-    <row r="306" spans="1:8" ht="24.95" hidden="1" customHeight="1">
+    <row r="306" spans="1:8" ht="25" hidden="1" customHeight="1">
       <c r="A306" s="7" t="s">
         <v>221</v>
       </c>
@@ -12609,7 +12598,7 @@
       <c r="G306" s="14"/>
       <c r="H306" s="14"/>
     </row>
-    <row r="307" spans="1:8" ht="36.950000000000003" hidden="1" customHeight="1">
+    <row r="307" spans="1:8" ht="37" hidden="1" customHeight="1">
       <c r="A307" s="7" t="s">
         <v>223</v>
       </c>
@@ -12627,7 +12616,7 @@
       <c r="G307" s="14"/>
       <c r="H307" s="14"/>
     </row>
-    <row r="308" spans="1:8" ht="26.25" hidden="1">
+    <row r="308" spans="1:8" hidden="1">
       <c r="A308" s="7" t="s">
         <v>224</v>
       </c>
@@ -12663,7 +12652,7 @@
       <c r="G309" s="14"/>
       <c r="H309" s="14"/>
     </row>
-    <row r="310" spans="1:8" ht="59.1" hidden="1" customHeight="1">
+    <row r="310" spans="1:8" ht="59" hidden="1" customHeight="1">
       <c r="A310" s="7" t="s">
         <v>226</v>
       </c>
@@ -12681,7 +12670,7 @@
       <c r="G310" s="14"/>
       <c r="H310" s="14"/>
     </row>
-    <row r="311" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="311" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A311" s="7" t="s">
         <v>227</v>
       </c>
@@ -12699,7 +12688,7 @@
       <c r="G311" s="14"/>
       <c r="H311" s="14"/>
     </row>
-    <row r="312" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="312" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A312" s="7" t="s">
         <v>228</v>
       </c>
@@ -12717,7 +12706,7 @@
       <c r="G312" s="14"/>
       <c r="H312" s="14"/>
     </row>
-    <row r="313" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="313" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A313" s="7" t="s">
         <v>229</v>
       </c>
@@ -12735,7 +12724,7 @@
       <c r="G313" s="14"/>
       <c r="H313" s="14"/>
     </row>
-    <row r="314" spans="1:8" ht="27.95" hidden="1" customHeight="1">
+    <row r="314" spans="1:8" ht="28" hidden="1" customHeight="1">
       <c r="A314" s="7" t="s">
         <v>230</v>
       </c>
@@ -12753,7 +12742,7 @@
       <c r="G314" s="14"/>
       <c r="H314" s="14"/>
     </row>
-    <row r="315" spans="1:8" ht="36.950000000000003" hidden="1" customHeight="1">
+    <row r="315" spans="1:8" ht="37" hidden="1" customHeight="1">
       <c r="A315" s="7" t="s">
         <v>231</v>
       </c>
@@ -13023,7 +13012,7 @@
       <c r="G329" s="14"/>
       <c r="H329" s="14"/>
     </row>
-    <row r="330" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1">
+    <row r="330" spans="1:8" ht="40" hidden="1" customHeight="1">
       <c r="A330" s="7" t="s">
         <v>251</v>
       </c>
@@ -13095,7 +13084,7 @@
       <c r="G333" s="14"/>
       <c r="H333" s="14"/>
     </row>
-    <row r="334" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="334" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A334" s="7" t="s">
         <v>255</v>
       </c>
@@ -13131,7 +13120,7 @@
       <c r="G335" s="14"/>
       <c r="H335" s="14"/>
     </row>
-    <row r="336" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="336" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A336" s="7" t="s">
         <v>257</v>
       </c>
@@ -13149,7 +13138,7 @@
       <c r="G336" s="14"/>
       <c r="H336" s="14"/>
     </row>
-    <row r="337" spans="1:8" ht="27.95" hidden="1" customHeight="1">
+    <row r="337" spans="1:8" ht="28" hidden="1" customHeight="1">
       <c r="A337" s="7" t="s">
         <v>258</v>
       </c>
@@ -13167,7 +13156,7 @@
       <c r="G337" s="14"/>
       <c r="H337" s="14"/>
     </row>
-    <row r="338" spans="1:8" ht="41.1" hidden="1" customHeight="1">
+    <row r="338" spans="1:8" ht="41" hidden="1" customHeight="1">
       <c r="A338" s="7" t="s">
         <v>259</v>
       </c>
@@ -13185,7 +13174,7 @@
       <c r="G338" s="14"/>
       <c r="H338" s="14"/>
     </row>
-    <row r="339" spans="1:8" ht="24.95" hidden="1" customHeight="1">
+    <row r="339" spans="1:8" ht="25" hidden="1" customHeight="1">
       <c r="A339" s="7" t="s">
         <v>260</v>
       </c>
@@ -13221,7 +13210,7 @@
       <c r="G340" s="14"/>
       <c r="H340" s="14"/>
     </row>
-    <row r="341" spans="1:8" ht="36.950000000000003" hidden="1" customHeight="1">
+    <row r="341" spans="1:8" ht="37" hidden="1" customHeight="1">
       <c r="A341" s="47" t="s">
         <v>262</v>
       </c>
@@ -13311,7 +13300,7 @@
       <c r="G345" s="14"/>
       <c r="H345" s="14"/>
     </row>
-    <row r="346" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="346" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A346" s="23" t="s">
         <v>270</v>
       </c>
@@ -13329,7 +13318,7 @@
       <c r="G346" s="14"/>
       <c r="H346" s="14"/>
     </row>
-    <row r="347" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="347" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A347" s="23" t="s">
         <v>271</v>
       </c>
@@ -13437,7 +13426,7 @@
       <c r="G352" s="14"/>
       <c r="H352" s="14"/>
     </row>
-    <row r="353" spans="1:8" ht="36.950000000000003" hidden="1" customHeight="1">
+    <row r="353" spans="1:8" ht="37" hidden="1" customHeight="1">
       <c r="A353" s="7" t="s">
         <v>279</v>
       </c>
@@ -13509,7 +13498,7 @@
       <c r="G356" s="14"/>
       <c r="H356" s="14"/>
     </row>
-    <row r="357" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="357" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A357" s="7" t="s">
         <v>283</v>
       </c>
@@ -13527,7 +13516,7 @@
       <c r="G357" s="14"/>
       <c r="H357" s="14"/>
     </row>
-    <row r="358" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="358" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A358" s="7" t="s">
         <v>284</v>
       </c>
@@ -13545,7 +13534,7 @@
       <c r="G358" s="14"/>
       <c r="H358" s="14"/>
     </row>
-    <row r="359" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="359" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A359" s="7" t="s">
         <v>285</v>
       </c>
@@ -13581,7 +13570,7 @@
       <c r="G360" s="14"/>
       <c r="H360" s="14"/>
     </row>
-    <row r="361" spans="1:8" ht="53.1" hidden="1" customHeight="1">
+    <row r="361" spans="1:8" ht="53" hidden="1" customHeight="1">
       <c r="A361" s="7" t="s">
         <v>287</v>
       </c>
@@ -13599,7 +13588,7 @@
       <c r="G361" s="14"/>
       <c r="H361" s="14"/>
     </row>
-    <row r="362" spans="1:8" ht="27.95" hidden="1" customHeight="1">
+    <row r="362" spans="1:8" ht="28" hidden="1" customHeight="1">
       <c r="A362" s="7" t="s">
         <v>289</v>
       </c>
@@ -13617,7 +13606,7 @@
       <c r="G362" s="14"/>
       <c r="H362" s="14"/>
     </row>
-    <row r="363" spans="1:8" ht="53.1" hidden="1" customHeight="1">
+    <row r="363" spans="1:8" ht="53" hidden="1" customHeight="1">
       <c r="A363" s="7" t="s">
         <v>290</v>
       </c>
@@ -13635,7 +13624,7 @@
       <c r="G363" s="14"/>
       <c r="H363" s="14"/>
     </row>
-    <row r="364" spans="1:8" ht="53.1" hidden="1" customHeight="1">
+    <row r="364" spans="1:8" ht="53" hidden="1" customHeight="1">
       <c r="A364" s="7" t="s">
         <v>291</v>
       </c>
@@ -13653,7 +13642,7 @@
       <c r="G364" s="14"/>
       <c r="H364" s="14"/>
     </row>
-    <row r="365" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="365" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A365" s="7" t="s">
         <v>292</v>
       </c>
@@ -13671,7 +13660,7 @@
       <c r="G365" s="14"/>
       <c r="H365" s="14"/>
     </row>
-    <row r="366" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="366" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A366" s="23" t="s">
         <v>294</v>
       </c>
@@ -13689,7 +13678,7 @@
       <c r="G366" s="14"/>
       <c r="H366" s="14"/>
     </row>
-    <row r="367" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="367" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A367" s="23" t="s">
         <v>295</v>
       </c>
@@ -13725,7 +13714,7 @@
       <c r="G368" s="14"/>
       <c r="H368" s="14"/>
     </row>
-    <row r="369" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="369" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A369" s="23" t="s">
         <v>299</v>
       </c>
@@ -13743,7 +13732,7 @@
       <c r="G369" s="14"/>
       <c r="H369" s="14"/>
     </row>
-    <row r="370" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="370" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A370" s="23" t="s">
         <v>300</v>
       </c>
@@ -13761,7 +13750,7 @@
       <c r="G370" s="14"/>
       <c r="H370" s="14"/>
     </row>
-    <row r="371" spans="1:8" ht="24.95" hidden="1" customHeight="1">
+    <row r="371" spans="1:8" ht="25" hidden="1" customHeight="1">
       <c r="A371" s="26" t="s">
         <v>302</v>
       </c>
@@ -13851,7 +13840,7 @@
       <c r="G375" s="14"/>
       <c r="H375" s="14"/>
     </row>
-    <row r="376" spans="1:8" ht="50.1" hidden="1" customHeight="1">
+    <row r="376" spans="1:8" ht="50" hidden="1" customHeight="1">
       <c r="A376" s="7" t="s">
         <v>308</v>
       </c>
@@ -13869,7 +13858,7 @@
       <c r="G376" s="14"/>
       <c r="H376" s="14"/>
     </row>
-    <row r="377" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="377" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A377" s="7" t="s">
         <v>309</v>
       </c>
@@ -13923,7 +13912,7 @@
       <c r="G379" s="14"/>
       <c r="H379" s="14"/>
     </row>
-    <row r="380" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="380" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A380" s="7" t="s">
         <v>312</v>
       </c>
@@ -13941,7 +13930,7 @@
       <c r="G380" s="14"/>
       <c r="H380" s="14"/>
     </row>
-    <row r="381" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="381" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A381" s="7" t="s">
         <v>313</v>
       </c>
@@ -13959,7 +13948,7 @@
       <c r="G381" s="14"/>
       <c r="H381" s="14"/>
     </row>
-    <row r="382" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="382" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A382" s="7" t="s">
         <v>314</v>
       </c>
@@ -13995,7 +13984,7 @@
       <c r="G383" s="14"/>
       <c r="H383" s="14"/>
     </row>
-    <row r="384" spans="1:8" ht="53.1" hidden="1" customHeight="1">
+    <row r="384" spans="1:8" ht="53" hidden="1" customHeight="1">
       <c r="A384" s="7" t="s">
         <v>316</v>
       </c>
@@ -14013,7 +14002,7 @@
       <c r="G384" s="14"/>
       <c r="H384" s="14"/>
     </row>
-    <row r="385" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="385" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A385" s="7" t="s">
         <v>317</v>
       </c>
@@ -14031,7 +14020,7 @@
       <c r="G385" s="14"/>
       <c r="H385" s="14"/>
     </row>
-    <row r="386" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="386" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A386" s="7" t="s">
         <v>318</v>
       </c>
@@ -14049,7 +14038,7 @@
       <c r="G386" s="14"/>
       <c r="H386" s="14"/>
     </row>
-    <row r="387" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="387" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A387" s="7" t="s">
         <v>319</v>
       </c>
@@ -14067,7 +14056,7 @@
       <c r="G387" s="14"/>
       <c r="H387" s="14"/>
     </row>
-    <row r="388" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="388" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A388" s="7" t="s">
         <v>320</v>
       </c>
@@ -14085,7 +14074,7 @@
       <c r="G388" s="14"/>
       <c r="H388" s="14"/>
     </row>
-    <row r="389" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="389" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A389" s="23" t="s">
         <v>322</v>
       </c>
@@ -14103,7 +14092,7 @@
       <c r="G389" s="14"/>
       <c r="H389" s="14"/>
     </row>
-    <row r="390" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="390" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A390" s="23" t="s">
         <v>323</v>
       </c>
@@ -14121,7 +14110,7 @@
       <c r="G390" s="14"/>
       <c r="H390" s="14"/>
     </row>
-    <row r="391" spans="1:8" ht="24.95" hidden="1" customHeight="1">
+    <row r="391" spans="1:8" ht="25" hidden="1" customHeight="1">
       <c r="A391" s="26" t="s">
         <v>325</v>
       </c>
@@ -14139,7 +14128,7 @@
       <c r="G391" s="14"/>
       <c r="H391" s="14"/>
     </row>
-    <row r="392" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="392" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A392" s="23" t="s">
         <v>327</v>
       </c>
@@ -14157,7 +14146,7 @@
       <c r="G392" s="14"/>
       <c r="H392" s="14"/>
     </row>
-    <row r="393" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="393" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A393" s="23" t="s">
         <v>328</v>
       </c>
@@ -14283,7 +14272,7 @@
       <c r="G399" s="14"/>
       <c r="H399" s="14"/>
     </row>
-    <row r="400" spans="1:8" ht="26.25" hidden="1">
+    <row r="400" spans="1:8" hidden="1">
       <c r="A400" s="7" t="s">
         <v>337</v>
       </c>
@@ -14337,7 +14326,7 @@
       <c r="G402" s="14"/>
       <c r="H402" s="14"/>
     </row>
-    <row r="403" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="403" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A403" s="7" t="s">
         <v>340</v>
       </c>
@@ -14355,7 +14344,7 @@
       <c r="G403" s="14"/>
       <c r="H403" s="14"/>
     </row>
-    <row r="404" spans="1:8" ht="24.95" hidden="1" customHeight="1">
+    <row r="404" spans="1:8" ht="25" hidden="1" customHeight="1">
       <c r="A404" s="7" t="s">
         <v>341</v>
       </c>
@@ -14373,7 +14362,7 @@
       <c r="G404" s="14"/>
       <c r="H404" s="14"/>
     </row>
-    <row r="405" spans="1:8" ht="24.95" hidden="1" customHeight="1">
+    <row r="405" spans="1:8" ht="25" hidden="1" customHeight="1">
       <c r="A405" s="7" t="s">
         <v>342</v>
       </c>
@@ -14445,7 +14434,7 @@
       <c r="G408" s="14"/>
       <c r="H408" s="14"/>
     </row>
-    <row r="409" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="409" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A409" s="7" t="s">
         <v>346</v>
       </c>
@@ -14463,7 +14452,7 @@
       <c r="G409" s="14"/>
       <c r="H409" s="14"/>
     </row>
-    <row r="410" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="410" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A410" s="7" t="s">
         <v>347</v>
       </c>
@@ -14481,7 +14470,7 @@
       <c r="G410" s="14"/>
       <c r="H410" s="14"/>
     </row>
-    <row r="411" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="411" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A411" s="7" t="s">
         <v>348</v>
       </c>
@@ -14499,7 +14488,7 @@
       <c r="G411" s="14"/>
       <c r="H411" s="14"/>
     </row>
-    <row r="412" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="412" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A412" s="23" t="s">
         <v>350</v>
       </c>
@@ -14517,7 +14506,7 @@
       <c r="G412" s="14"/>
       <c r="H412" s="14"/>
     </row>
-    <row r="413" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="413" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A413" s="23" t="s">
         <v>351</v>
       </c>
@@ -14535,7 +14524,7 @@
       <c r="G413" s="14"/>
       <c r="H413" s="14"/>
     </row>
-    <row r="414" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="414" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A414" s="26" t="s">
         <v>353</v>
       </c>
@@ -14553,7 +14542,7 @@
       <c r="G414" s="14"/>
       <c r="H414" s="14"/>
     </row>
-    <row r="415" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="415" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A415" s="23" t="s">
         <v>355</v>
       </c>
@@ -14571,7 +14560,7 @@
       <c r="G415" s="14"/>
       <c r="H415" s="14"/>
     </row>
-    <row r="416" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="416" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A416" s="23" t="s">
         <v>356</v>
       </c>
@@ -14589,7 +14578,7 @@
       <c r="G416" s="14"/>
       <c r="H416" s="14"/>
     </row>
-    <row r="417" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="417" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A417" s="26" t="s">
         <v>358</v>
       </c>
@@ -14607,7 +14596,7 @@
       <c r="G417" s="14"/>
       <c r="H417" s="14"/>
     </row>
-    <row r="418" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="418" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A418" s="7" t="s">
         <v>360</v>
       </c>
@@ -14625,7 +14614,7 @@
       <c r="G418" s="14"/>
       <c r="H418" s="14"/>
     </row>
-    <row r="419" spans="1:8" ht="35.1" hidden="1" customHeight="1">
+    <row r="419" spans="1:8" ht="35" hidden="1" customHeight="1">
       <c r="A419" s="7" t="s">
         <v>361</v>
       </c>
@@ -14751,7 +14740,7 @@
       <c r="G425" s="14"/>
       <c r="H425" s="14"/>
     </row>
-    <row r="426" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="426" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A426" s="7" t="s">
         <v>368</v>
       </c>
@@ -14769,7 +14758,7 @@
       <c r="G426" s="14"/>
       <c r="H426" s="14"/>
     </row>
-    <row r="427" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="427" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A427" s="7" t="s">
         <v>369</v>
       </c>
@@ -14787,7 +14776,7 @@
       <c r="G427" s="14"/>
       <c r="H427" s="14"/>
     </row>
-    <row r="428" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="428" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A428" s="7" t="s">
         <v>370</v>
       </c>
@@ -14823,7 +14812,7 @@
       <c r="G429" s="14"/>
       <c r="H429" s="14"/>
     </row>
-    <row r="430" spans="1:8" ht="53.1" hidden="1" customHeight="1">
+    <row r="430" spans="1:8" ht="53" hidden="1" customHeight="1">
       <c r="A430" s="7" t="s">
         <v>372</v>
       </c>
@@ -14841,7 +14830,7 @@
       <c r="G430" s="14"/>
       <c r="H430" s="14"/>
     </row>
-    <row r="431" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="431" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A431" s="7" t="s">
         <v>373</v>
       </c>
@@ -14859,7 +14848,7 @@
       <c r="G431" s="14"/>
       <c r="H431" s="14"/>
     </row>
-    <row r="432" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="432" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A432" s="7" t="s">
         <v>374</v>
       </c>
@@ -14877,7 +14866,7 @@
       <c r="G432" s="14"/>
       <c r="H432" s="14"/>
     </row>
-    <row r="433" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="433" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A433" s="7" t="s">
         <v>375</v>
       </c>
@@ -14895,7 +14884,7 @@
       <c r="G433" s="14"/>
       <c r="H433" s="14"/>
     </row>
-    <row r="434" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="434" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A434" s="7" t="s">
         <v>376</v>
       </c>
@@ -14913,7 +14902,7 @@
       <c r="G434" s="14"/>
       <c r="H434" s="14"/>
     </row>
-    <row r="435" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="435" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A435" s="23" t="s">
         <v>378</v>
       </c>
@@ -14931,7 +14920,7 @@
       <c r="G435" s="14"/>
       <c r="H435" s="14"/>
     </row>
-    <row r="436" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="436" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A436" s="23" t="s">
         <v>379</v>
       </c>
@@ -14949,7 +14938,7 @@
       <c r="G436" s="14"/>
       <c r="H436" s="14"/>
     </row>
-    <row r="437" spans="1:8" ht="24.95" hidden="1" customHeight="1">
+    <row r="437" spans="1:8" ht="25" hidden="1" customHeight="1">
       <c r="A437" s="26" t="s">
         <v>381</v>
       </c>
@@ -14967,7 +14956,7 @@
       <c r="G437" s="14"/>
       <c r="H437" s="14"/>
     </row>
-    <row r="438" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="438" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A438" s="23" t="s">
         <v>383</v>
       </c>
@@ -14985,7 +14974,7 @@
       <c r="G438" s="14"/>
       <c r="H438" s="14"/>
     </row>
-    <row r="439" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="439" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A439" s="23" t="s">
         <v>384</v>
       </c>
@@ -15003,7 +14992,7 @@
       <c r="G439" s="14"/>
       <c r="H439" s="14"/>
     </row>
-    <row r="440" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="440" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A440" s="26" t="s">
         <v>386</v>
       </c>
@@ -15021,7 +15010,7 @@
       <c r="G440" s="14"/>
       <c r="H440" s="14"/>
     </row>
-    <row r="441" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="441" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A441" s="7" t="s">
         <v>388</v>
       </c>
@@ -15093,7 +15082,7 @@
       <c r="G444" s="14"/>
       <c r="H444" s="14"/>
     </row>
-    <row r="445" spans="1:8" ht="51.95" hidden="1" customHeight="1">
+    <row r="445" spans="1:8" ht="52" hidden="1" customHeight="1">
       <c r="A445" s="7" t="s">
         <v>393</v>
       </c>
@@ -15165,7 +15154,7 @@
       <c r="G448" s="14"/>
       <c r="H448" s="14"/>
     </row>
-    <row r="449" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="449" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A449" s="7" t="s">
         <v>398</v>
       </c>
@@ -15219,7 +15208,7 @@
       <c r="G451" s="14"/>
       <c r="H451" s="14"/>
     </row>
-    <row r="452" spans="1:8" ht="24.95" hidden="1" customHeight="1">
+    <row r="452" spans="1:8" ht="25" hidden="1" customHeight="1">
       <c r="A452" s="7" t="s">
         <v>401</v>
       </c>
@@ -15291,7 +15280,7 @@
       <c r="G455" s="14"/>
       <c r="H455" s="14"/>
     </row>
-    <row r="456" spans="1:8" ht="56.1" hidden="1" customHeight="1">
+    <row r="456" spans="1:8" ht="56" hidden="1" customHeight="1">
       <c r="A456" s="7" t="s">
         <v>405</v>
       </c>
@@ -15309,7 +15298,7 @@
       <c r="G456" s="14"/>
       <c r="H456" s="14"/>
     </row>
-    <row r="457" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="457" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A457" s="7" t="s">
         <v>406</v>
       </c>
@@ -15327,7 +15316,7 @@
       <c r="G457" s="14"/>
       <c r="H457" s="14"/>
     </row>
-    <row r="458" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="458" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A458" s="23" t="s">
         <v>408</v>
       </c>
@@ -15345,7 +15334,7 @@
       <c r="G458" s="14"/>
       <c r="H458" s="14"/>
     </row>
-    <row r="459" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="459" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A459" s="23" t="s">
         <v>409</v>
       </c>
@@ -15363,7 +15352,7 @@
       <c r="G459" s="14"/>
       <c r="H459" s="14"/>
     </row>
-    <row r="460" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="460" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A460" s="26" t="s">
         <v>411</v>
       </c>
@@ -15381,7 +15370,7 @@
       <c r="G460" s="14"/>
       <c r="H460" s="14"/>
     </row>
-    <row r="461" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="461" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A461" s="23" t="s">
         <v>413</v>
       </c>
@@ -15399,7 +15388,7 @@
       <c r="G461" s="14"/>
       <c r="H461" s="14"/>
     </row>
-    <row r="462" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="462" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A462" s="23" t="s">
         <v>414</v>
       </c>
@@ -15489,7 +15478,7 @@
       <c r="G466" s="14"/>
       <c r="H466" s="14"/>
     </row>
-    <row r="467" spans="1:8" ht="24.95" hidden="1" customHeight="1">
+    <row r="467" spans="1:8" ht="25" hidden="1" customHeight="1">
       <c r="A467" s="7" t="s">
         <v>421</v>
       </c>
@@ -15507,7 +15496,7 @@
       <c r="G467" s="14"/>
       <c r="H467" s="14"/>
     </row>
-    <row r="468" spans="1:8" ht="36.950000000000003" hidden="1" customHeight="1">
+    <row r="468" spans="1:8" ht="37" hidden="1" customHeight="1">
       <c r="A468" s="7" t="s">
         <v>422</v>
       </c>
@@ -15543,7 +15532,7 @@
       <c r="G469" s="14"/>
       <c r="H469" s="14"/>
     </row>
-    <row r="470" spans="1:8" ht="57.95" hidden="1" customHeight="1">
+    <row r="470" spans="1:8" ht="58" hidden="1" customHeight="1">
       <c r="A470" s="7" t="s">
         <v>424</v>
       </c>
@@ -15651,7 +15640,7 @@
       <c r="G475" s="14"/>
       <c r="H475" s="14"/>
     </row>
-    <row r="476" spans="1:8" ht="36.950000000000003" hidden="1" customHeight="1">
+    <row r="476" spans="1:8" ht="37" hidden="1" customHeight="1">
       <c r="A476" s="7" t="s">
         <v>430</v>
       </c>
@@ -15669,7 +15658,7 @@
       <c r="G476" s="14"/>
       <c r="H476" s="14"/>
     </row>
-    <row r="477" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="477" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A477" s="7" t="s">
         <v>431</v>
       </c>
@@ -15687,7 +15676,7 @@
       <c r="G477" s="14"/>
       <c r="H477" s="14"/>
     </row>
-    <row r="478" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="478" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A478" s="7" t="s">
         <v>432</v>
       </c>
@@ -15705,7 +15694,7 @@
       <c r="G478" s="14"/>
       <c r="H478" s="14"/>
     </row>
-    <row r="479" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="479" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A479" s="7" t="s">
         <v>433</v>
       </c>
@@ -15777,21 +15766,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="31">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A125:B125"/>
     <mergeCell ref="A213:B213"/>
     <mergeCell ref="A218:B218"/>
     <mergeCell ref="A228:B228"/>
@@ -15808,13 +15782,28 @@
     <mergeCell ref="A188:B188"/>
     <mergeCell ref="A195:B195"/>
     <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A36" location="'Move or Copy'!A1" display="Link to Move or Copy"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="61" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="61" fitToHeight="0" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C
 ©National Higher Educational Benchmarking Institute
@@ -15831,7 +15820,7 @@
     <brk id="227" max="2" man="1"/>
     <brk id="248" max="2" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -15842,26 +15831,26 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" style="62" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" style="62" customWidth="1"/>
-    <col min="4" max="4" width="63.42578125" style="62" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" style="62" customWidth="1"/>
-    <col min="6" max="6" width="78.140625" style="62" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="62"/>
+    <col min="1" max="1" width="36.83203125" style="62" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" style="62" customWidth="1"/>
+    <col min="4" max="4" width="63.5" style="62" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="62" customWidth="1"/>
+    <col min="6" max="6" width="78.1640625" style="62" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.599999999999994" customHeight="1">
+    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.5" customHeight="1">
       <c r="A1" s="247" t="s">
         <v>0</v>
       </c>
@@ -15890,7 +15879,7 @@
       <c r="D3" s="253"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.5" customHeight="1">
       <c r="A4" s="160" t="s">
         <v>434</v>
       </c>
@@ -16039,7 +16028,7 @@
       <c r="V9" s="128"/>
       <c r="W9" s="128"/>
     </row>
-    <row r="10" spans="1:25" ht="23.1" customHeight="1" thickBot="1">
+    <row r="10" spans="1:25" ht="23" customHeight="1" thickBot="1">
       <c r="A10" s="58"/>
       <c r="C10" s="55"/>
       <c r="D10" s="29"/>
@@ -16051,7 +16040,7 @@
       <c r="D11" s="29"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="12" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="74" t="s">
         <v>673</v>
       </c>
@@ -16081,7 +16070,7 @@
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -16096,7 +16085,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -16104,7 +16093,7 @@
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
     </row>
-    <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="16" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="74" t="s">
         <v>676</v>
       </c>
@@ -16127,14 +16116,14 @@
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
     </row>
-    <row r="18" spans="1:24" ht="56.1" customHeight="1" thickBot="1">
+    <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
         <v>995</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -16149,7 +16138,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -16224,8 +16213,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="232"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -16274,7 +16263,7 @@
       <c r="W24" s="69"/>
       <c r="X24" s="69"/>
     </row>
-    <row r="25" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="25" spans="1:24" ht="16.25" customHeight="1">
       <c r="A25" s="142" t="s">
         <v>453</v>
       </c>
@@ -16338,7 +16327,7 @@
       </c>
       <c r="E28" s="21"/>
     </row>
-    <row r="29" spans="1:24" ht="24.75">
+    <row r="29" spans="1:24" ht="23">
       <c r="A29" s="153" t="s">
         <v>439</v>
       </c>
@@ -16349,7 +16338,7 @@
       </c>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:24" ht="24.75">
+    <row r="30" spans="1:24">
       <c r="A30" s="153" t="s">
         <v>441</v>
       </c>
@@ -16360,7 +16349,7 @@
       </c>
       <c r="E30" s="21"/>
     </row>
-    <row r="31" spans="1:24" ht="36">
+    <row r="31" spans="1:24" ht="33">
       <c r="A31" s="153" t="s">
         <v>442</v>
       </c>
@@ -16383,7 +16372,7 @@
       </c>
       <c r="E32" s="21"/>
     </row>
-    <row r="33" spans="1:6" ht="48.75">
+    <row r="33" spans="1:6" ht="34">
       <c r="A33" s="153" t="s">
         <v>445</v>
       </c>
@@ -16394,7 +16383,7 @@
       </c>
       <c r="E33" s="21"/>
     </row>
-    <row r="34" spans="1:6" ht="48.75">
+    <row r="34" spans="1:6" ht="34">
       <c r="A34" s="153" t="s">
         <v>447</v>
       </c>
@@ -16455,12 +16444,12 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" fitToHeight="2" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" fitToHeight="2" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C©National Higher Educational Benchmarking Institute
 Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -16471,26 +16460,26 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" style="62" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" style="62" customWidth="1"/>
-    <col min="4" max="4" width="63.42578125" style="62" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" style="62" customWidth="1"/>
-    <col min="6" max="6" width="78.140625" style="62" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="62"/>
+    <col min="1" max="1" width="36.83203125" style="62" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" style="62" customWidth="1"/>
+    <col min="4" max="4" width="63.5" style="62" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="62" customWidth="1"/>
+    <col min="6" max="6" width="78.1640625" style="62" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.599999999999994" customHeight="1">
+    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.5" customHeight="1">
       <c r="A1" s="247" t="s">
         <v>0</v>
       </c>
@@ -16519,7 +16508,7 @@
       <c r="D3" s="253"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.5" customHeight="1">
       <c r="A4" s="160" t="s">
         <v>434</v>
       </c>
@@ -16668,7 +16657,7 @@
       <c r="V9" s="128"/>
       <c r="W9" s="128"/>
     </row>
-    <row r="10" spans="1:25" ht="23.1" customHeight="1" thickBot="1">
+    <row r="10" spans="1:25" ht="23" customHeight="1" thickBot="1">
       <c r="A10" s="58"/>
       <c r="C10" s="55"/>
       <c r="D10" s="29"/>
@@ -16680,7 +16669,7 @@
       <c r="D11" s="29"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="12" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="74" t="s">
         <v>673</v>
       </c>
@@ -16710,7 +16699,7 @@
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -16725,7 +16714,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -16733,7 +16722,7 @@
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
     </row>
-    <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="16" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="74" t="s">
         <v>676</v>
       </c>
@@ -16756,14 +16745,14 @@
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
     </row>
-    <row r="18" spans="1:24" ht="56.1" customHeight="1" thickBot="1">
+    <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
         <v>452</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -16778,7 +16767,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -16853,8 +16842,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="232"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -16903,7 +16892,7 @@
       <c r="W24" s="69"/>
       <c r="X24" s="69"/>
     </row>
-    <row r="25" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="25" spans="1:24" ht="16.25" customHeight="1">
       <c r="A25" s="142" t="s">
         <v>453</v>
       </c>
@@ -16967,7 +16956,7 @@
       </c>
       <c r="E28" s="21"/>
     </row>
-    <row r="29" spans="1:24" ht="24.75">
+    <row r="29" spans="1:24" ht="23">
       <c r="A29" s="153" t="s">
         <v>439</v>
       </c>
@@ -16978,7 +16967,7 @@
       </c>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:24" ht="24.75">
+    <row r="30" spans="1:24">
       <c r="A30" s="153" t="s">
         <v>441</v>
       </c>
@@ -16989,7 +16978,7 @@
       </c>
       <c r="E30" s="21"/>
     </row>
-    <row r="31" spans="1:24" ht="36">
+    <row r="31" spans="1:24" ht="33">
       <c r="A31" s="153" t="s">
         <v>442</v>
       </c>
@@ -17012,7 +17001,7 @@
       </c>
       <c r="E32" s="21"/>
     </row>
-    <row r="33" spans="1:6" ht="48.75">
+    <row r="33" spans="1:6" ht="34">
       <c r="A33" s="153" t="s">
         <v>445</v>
       </c>
@@ -17023,7 +17012,7 @@
       </c>
       <c r="E33" s="21"/>
     </row>
-    <row r="34" spans="1:6" ht="48.75">
+    <row r="34" spans="1:6" ht="34">
       <c r="A34" s="153" t="s">
         <v>447</v>
       </c>
@@ -17084,12 +17073,12 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" fitToHeight="2" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" fitToHeight="2" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C©National Higher Educational Benchmarking Institute
 Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -17106,18 +17095,18 @@
       <selection activeCell="AI35" sqref="AI35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="167"/>
+    <col min="1" max="16384" width="8.83203125" style="167"/>
   </cols>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="51" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="51" orientation="portrait"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="20" max="56" man="1"/>
   </colBreaks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -17131,19 +17120,19 @@
   <dimension ref="A1:Y496"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="63.42578125" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" customWidth="1"/>
-    <col min="6" max="6" width="78.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="63.5" customWidth="1"/>
+    <col min="5" max="5" width="3.5" customWidth="1"/>
+    <col min="6" max="6" width="78.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="9" customFormat="1" ht="66.599999999999994" customHeight="1">
+    <row r="1" spans="1:25" s="9" customFormat="1" ht="66.5" customHeight="1">
       <c r="A1" s="247" t="s">
         <v>0</v>
       </c>
@@ -17179,7 +17168,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="1:25" s="9" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="4" spans="1:25" s="9" customFormat="1" ht="18.5" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>434</v>
       </c>
@@ -17218,7 +17207,7 @@
       <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:25" s="171" customFormat="1" ht="36" customHeight="1">
-      <c r="A6" s="234" t="s">
+      <c r="A6" s="236" t="s">
         <v>701</v>
       </c>
       <c r="B6" s="254"/>
@@ -17328,7 +17317,7 @@
       <c r="V9" s="128"/>
       <c r="W9" s="128"/>
     </row>
-    <row r="10" spans="1:25" ht="23.1" customHeight="1" thickBot="1">
+    <row r="10" spans="1:25" ht="23" customHeight="1" thickBot="1">
       <c r="A10" s="58"/>
       <c r="C10" s="55"/>
       <c r="D10" s="29"/>
@@ -17340,7 +17329,7 @@
       <c r="D11" s="29"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="12" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="74" t="s">
         <v>673</v>
       </c>
@@ -17372,7 +17361,7 @@
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="180" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="14"/>
@@ -17387,7 +17376,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="180" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="13"/>
@@ -17395,7 +17384,7 @@
       <c r="H15" s="14"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="16" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="74" t="s">
         <v>676</v>
       </c>
@@ -17429,7 +17418,7 @@
       <c r="B18" s="134"/>
       <c r="C18" s="135"/>
       <c r="D18" s="180" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="14"/>
@@ -17444,7 +17433,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="66"/>
       <c r="D19" s="140" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -17518,8 +17507,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="232"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -17568,7 +17557,7 @@
       <c r="W24" s="69"/>
       <c r="X24" s="69"/>
     </row>
-    <row r="25" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="25" spans="1:24" ht="16.25" customHeight="1">
       <c r="A25" s="142" t="s">
         <v>453</v>
       </c>
@@ -17658,7 +17647,7 @@
       <c r="E30" s="21"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:24" ht="36">
+    <row r="31" spans="1:24" ht="33">
       <c r="A31" s="153" t="s">
         <v>442</v>
       </c>
@@ -17682,7 +17671,7 @@
       <c r="E32" s="21"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" ht="48.75">
+    <row r="33" spans="1:6" ht="34">
       <c r="A33" s="153" t="s">
         <v>445</v>
       </c>
@@ -17694,7 +17683,7 @@
       <c r="E33" s="21"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" ht="48.75">
+    <row r="34" spans="1:6" ht="34">
       <c r="A34" s="153" t="s">
         <v>447</v>
       </c>
@@ -17724,7 +17713,7 @@
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
     </row>
-    <row r="36" spans="1:6" s="62" customFormat="1" ht="12.95" customHeight="1">
+    <row r="36" spans="1:6" s="62" customFormat="1" ht="13" customHeight="1">
       <c r="A36" s="153"/>
       <c r="B36" s="155"/>
       <c r="C36" s="155"/>
@@ -18058,12 +18047,12 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" fitToHeight="2" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" fitToHeight="2" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C©National Higher Educational Benchmarking Institute
 Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -18077,20 +18066,20 @@
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" style="62" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" style="62" customWidth="1"/>
-    <col min="4" max="4" width="63.42578125" style="62" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" style="62" customWidth="1"/>
-    <col min="6" max="6" width="78.140625" style="62" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="62"/>
+    <col min="1" max="1" width="36.83203125" style="62" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" style="62" customWidth="1"/>
+    <col min="4" max="4" width="63.5" style="62" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="62" customWidth="1"/>
+    <col min="6" max="6" width="78.1640625" style="62" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.599999999999994" customHeight="1">
+    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.5" customHeight="1">
       <c r="A1" s="247" t="s">
         <v>0</v>
       </c>
@@ -18119,7 +18108,7 @@
       <c r="D3" s="253"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.5" customHeight="1">
       <c r="A4" s="160" t="s">
         <v>434</v>
       </c>
@@ -18268,7 +18257,7 @@
       <c r="V9" s="128"/>
       <c r="W9" s="128"/>
     </row>
-    <row r="10" spans="1:25" ht="23.1" customHeight="1" thickBot="1">
+    <row r="10" spans="1:25" ht="23" customHeight="1" thickBot="1">
       <c r="A10" s="58"/>
       <c r="C10" s="55"/>
       <c r="D10" s="29"/>
@@ -18280,7 +18269,7 @@
       <c r="D11" s="29"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="12" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="74" t="s">
         <v>673</v>
       </c>
@@ -18310,7 +18299,7 @@
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="180" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -18325,7 +18314,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="180" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -18333,7 +18322,7 @@
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
     </row>
-    <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="16" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="74" t="s">
         <v>676</v>
       </c>
@@ -18356,14 +18345,14 @@
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
     </row>
-    <row r="18" spans="1:24" ht="56.1" customHeight="1" thickBot="1">
+    <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
         <v>995</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="180" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -18378,7 +18367,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -18453,8 +18442,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="232"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -18503,7 +18492,7 @@
       <c r="W24" s="69"/>
       <c r="X24" s="69"/>
     </row>
-    <row r="25" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="25" spans="1:24" ht="16.25" customHeight="1">
       <c r="A25" s="142" t="s">
         <v>453</v>
       </c>
@@ -18578,7 +18567,7 @@
       </c>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:24" ht="24.75">
+    <row r="30" spans="1:24">
       <c r="A30" s="153" t="s">
         <v>441</v>
       </c>
@@ -18589,7 +18578,7 @@
       </c>
       <c r="E30" s="21"/>
     </row>
-    <row r="31" spans="1:24" ht="36">
+    <row r="31" spans="1:24" ht="33">
       <c r="A31" s="153" t="s">
         <v>442</v>
       </c>
@@ -18612,7 +18601,7 @@
       </c>
       <c r="E32" s="21"/>
     </row>
-    <row r="33" spans="1:6" ht="48.75">
+    <row r="33" spans="1:6" ht="34">
       <c r="A33" s="153" t="s">
         <v>445</v>
       </c>
@@ -18623,7 +18612,7 @@
       </c>
       <c r="E33" s="21"/>
     </row>
-    <row r="34" spans="1:6" ht="48.75">
+    <row r="34" spans="1:6" ht="34">
       <c r="A34" s="153" t="s">
         <v>447</v>
       </c>
@@ -18684,12 +18673,12 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" fitToHeight="2" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" fitToHeight="2" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C©National Higher Educational Benchmarking Institute
 Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -18706,17 +18695,17 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" style="62" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" style="62" customWidth="1"/>
-    <col min="4" max="4" width="63.42578125" style="62" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" style="62" customWidth="1"/>
-    <col min="6" max="6" width="78.140625" style="62" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="62"/>
+    <col min="1" max="1" width="36.83203125" style="62" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" style="62" customWidth="1"/>
+    <col min="4" max="4" width="63.5" style="62" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="62" customWidth="1"/>
+    <col min="6" max="6" width="78.1640625" style="62" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.599999999999994" customHeight="1">
+    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.5" customHeight="1">
       <c r="A1" s="247" t="s">
         <v>0</v>
       </c>
@@ -18745,7 +18734,7 @@
       <c r="D3" s="253"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.5" customHeight="1">
       <c r="A4" s="160" t="s">
         <v>434</v>
       </c>
@@ -18894,7 +18883,7 @@
       <c r="V9" s="128"/>
       <c r="W9" s="128"/>
     </row>
-    <row r="10" spans="1:25" ht="23.1" customHeight="1" thickBot="1">
+    <row r="10" spans="1:25" ht="23" customHeight="1" thickBot="1">
       <c r="A10" s="58"/>
       <c r="C10" s="55"/>
       <c r="D10" s="29"/>
@@ -18906,7 +18895,7 @@
       <c r="D11" s="29"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="12" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="74" t="s">
         <v>673</v>
       </c>
@@ -18936,7 +18925,7 @@
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -18951,7 +18940,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -18959,7 +18948,7 @@
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
     </row>
-    <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="16" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="74" t="s">
         <v>676</v>
       </c>
@@ -18982,14 +18971,14 @@
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
     </row>
-    <row r="18" spans="1:24" ht="56.1" customHeight="1" thickBot="1">
+    <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
         <v>995</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -19004,7 +18993,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -19079,8 +19068,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="232"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -19129,7 +19118,7 @@
       <c r="W24" s="69"/>
       <c r="X24" s="69"/>
     </row>
-    <row r="25" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="25" spans="1:24" ht="16.25" customHeight="1">
       <c r="A25" s="142" t="s">
         <v>453</v>
       </c>
@@ -19193,7 +19182,7 @@
       </c>
       <c r="E28" s="21"/>
     </row>
-    <row r="29" spans="1:24" ht="24.75">
+    <row r="29" spans="1:24" ht="23">
       <c r="A29" s="153" t="s">
         <v>439</v>
       </c>
@@ -19204,7 +19193,7 @@
       </c>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:24" ht="24.75">
+    <row r="30" spans="1:24">
       <c r="A30" s="153" t="s">
         <v>441</v>
       </c>
@@ -19215,7 +19204,7 @@
       </c>
       <c r="E30" s="21"/>
     </row>
-    <row r="31" spans="1:24" ht="36">
+    <row r="31" spans="1:24" ht="33">
       <c r="A31" s="153" t="s">
         <v>442</v>
       </c>
@@ -19238,7 +19227,7 @@
       </c>
       <c r="E32" s="21"/>
     </row>
-    <row r="33" spans="1:6" ht="48.75">
+    <row r="33" spans="1:6" ht="34">
       <c r="A33" s="153" t="s">
         <v>445</v>
       </c>
@@ -19249,7 +19238,7 @@
       </c>
       <c r="E33" s="21"/>
     </row>
-    <row r="34" spans="1:6" ht="48.75">
+    <row r="34" spans="1:6" ht="34">
       <c r="A34" s="153" t="s">
         <v>447</v>
       </c>
@@ -19310,12 +19299,12 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" fitToHeight="2" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" fitToHeight="2" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C©National Higher Educational Benchmarking Institute
 Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -19332,17 +19321,17 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" style="62" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" style="62" customWidth="1"/>
-    <col min="4" max="4" width="63.42578125" style="62" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" style="62" customWidth="1"/>
-    <col min="6" max="6" width="78.140625" style="62" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="62"/>
+    <col min="1" max="1" width="36.83203125" style="62" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" style="62" customWidth="1"/>
+    <col min="4" max="4" width="63.5" style="62" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="62" customWidth="1"/>
+    <col min="6" max="6" width="78.1640625" style="62" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.599999999999994" customHeight="1">
+    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.5" customHeight="1">
       <c r="A1" s="247" t="s">
         <v>0</v>
       </c>
@@ -19371,7 +19360,7 @@
       <c r="D3" s="253"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.5" customHeight="1">
       <c r="A4" s="160" t="s">
         <v>434</v>
       </c>
@@ -19520,7 +19509,7 @@
       <c r="V9" s="128"/>
       <c r="W9" s="128"/>
     </row>
-    <row r="10" spans="1:25" ht="23.1" customHeight="1" thickBot="1">
+    <row r="10" spans="1:25" ht="23" customHeight="1" thickBot="1">
       <c r="A10" s="58"/>
       <c r="C10" s="55"/>
       <c r="D10" s="29"/>
@@ -19532,7 +19521,7 @@
       <c r="D11" s="29"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="12" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="74" t="s">
         <v>673</v>
       </c>
@@ -19562,7 +19551,7 @@
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -19577,7 +19566,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42" t="s">
@@ -19587,7 +19576,7 @@
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
     </row>
-    <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="16" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="74" t="s">
         <v>676</v>
       </c>
@@ -19610,14 +19599,14 @@
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
     </row>
-    <row r="18" spans="1:24" ht="56.1" customHeight="1" thickBot="1">
+    <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
         <v>995</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -19632,7 +19621,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -19707,8 +19696,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="232"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -19757,7 +19746,7 @@
       <c r="W24" s="69"/>
       <c r="X24" s="69"/>
     </row>
-    <row r="25" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="25" spans="1:24" ht="16.25" customHeight="1">
       <c r="A25" s="142" t="s">
         <v>453</v>
       </c>
@@ -19821,7 +19810,7 @@
       </c>
       <c r="E28" s="21"/>
     </row>
-    <row r="29" spans="1:24" ht="24.75">
+    <row r="29" spans="1:24" ht="23">
       <c r="A29" s="153" t="s">
         <v>439</v>
       </c>
@@ -19832,7 +19821,7 @@
       </c>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:24" ht="24.75">
+    <row r="30" spans="1:24">
       <c r="A30" s="153" t="s">
         <v>441</v>
       </c>
@@ -19843,7 +19832,7 @@
       </c>
       <c r="E30" s="21"/>
     </row>
-    <row r="31" spans="1:24" ht="36">
+    <row r="31" spans="1:24" ht="33">
       <c r="A31" s="153" t="s">
         <v>442</v>
       </c>
@@ -19866,7 +19855,7 @@
       </c>
       <c r="E32" s="21"/>
     </row>
-    <row r="33" spans="1:6" ht="48.75">
+    <row r="33" spans="1:6" ht="34">
       <c r="A33" s="153" t="s">
         <v>445</v>
       </c>
@@ -19877,7 +19866,7 @@
       </c>
       <c r="E33" s="21"/>
     </row>
-    <row r="34" spans="1:6" ht="48.75">
+    <row r="34" spans="1:6" ht="34">
       <c r="A34" s="153" t="s">
         <v>447</v>
       </c>
@@ -19938,12 +19927,12 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" fitToHeight="2" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" fitToHeight="2" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C©National Higher Educational Benchmarking Institute
 Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -19954,26 +19943,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" style="62" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" style="62" customWidth="1"/>
-    <col min="4" max="4" width="63.42578125" style="62" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" style="62" customWidth="1"/>
-    <col min="6" max="6" width="78.140625" style="62" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="62"/>
+    <col min="1" max="1" width="36.83203125" style="62" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" style="62" customWidth="1"/>
+    <col min="4" max="4" width="63.5" style="62" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="62" customWidth="1"/>
+    <col min="6" max="6" width="78.1640625" style="62" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.599999999999994" customHeight="1">
+    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.5" customHeight="1">
       <c r="A1" s="247" t="s">
         <v>0</v>
       </c>
@@ -20002,7 +19991,7 @@
       <c r="D3" s="253"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.5" customHeight="1">
       <c r="A4" s="160" t="s">
         <v>434</v>
       </c>
@@ -20151,7 +20140,7 @@
       <c r="V9" s="128"/>
       <c r="W9" s="128"/>
     </row>
-    <row r="10" spans="1:25" ht="23.1" customHeight="1" thickBot="1">
+    <row r="10" spans="1:25" ht="23" customHeight="1" thickBot="1">
       <c r="A10" s="58"/>
       <c r="C10" s="55"/>
       <c r="D10" s="29"/>
@@ -20165,7 +20154,7 @@
       <c r="D11" s="29"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="12" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="74" t="s">
         <v>673</v>
       </c>
@@ -20195,7 +20184,7 @@
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -20210,7 +20199,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -20218,7 +20207,7 @@
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
     </row>
-    <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="16" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="74" t="s">
         <v>676</v>
       </c>
@@ -20241,14 +20230,14 @@
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
     </row>
-    <row r="18" spans="1:24" ht="56.1" customHeight="1" thickBot="1">
+    <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
         <v>995</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -20263,7 +20252,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -20338,8 +20327,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="232"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -20388,7 +20377,7 @@
       <c r="W24" s="69"/>
       <c r="X24" s="69"/>
     </row>
-    <row r="25" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="25" spans="1:24" ht="16.25" customHeight="1">
       <c r="A25" s="142" t="s">
         <v>453</v>
       </c>
@@ -20452,7 +20441,7 @@
       </c>
       <c r="E28" s="21"/>
     </row>
-    <row r="29" spans="1:24" ht="24.75">
+    <row r="29" spans="1:24" ht="23">
       <c r="A29" s="153" t="s">
         <v>439</v>
       </c>
@@ -20463,7 +20452,7 @@
       </c>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:24" ht="24.75">
+    <row r="30" spans="1:24">
       <c r="A30" s="153" t="s">
         <v>441</v>
       </c>
@@ -20474,7 +20463,7 @@
       </c>
       <c r="E30" s="21"/>
     </row>
-    <row r="31" spans="1:24" ht="36">
+    <row r="31" spans="1:24" ht="33">
       <c r="A31" s="153" t="s">
         <v>442</v>
       </c>
@@ -20497,7 +20486,7 @@
       </c>
       <c r="E32" s="21"/>
     </row>
-    <row r="33" spans="1:6" ht="48.75">
+    <row r="33" spans="1:6" ht="34">
       <c r="A33" s="153" t="s">
         <v>445</v>
       </c>
@@ -20508,7 +20497,7 @@
       </c>
       <c r="E33" s="21"/>
     </row>
-    <row r="34" spans="1:6" ht="48.75">
+    <row r="34" spans="1:6" ht="34">
       <c r="A34" s="153" t="s">
         <v>447</v>
       </c>
@@ -20569,12 +20558,12 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" fitToHeight="2" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" fitToHeight="2" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C©National Higher Educational Benchmarking Institute
 Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -20585,26 +20574,26 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" style="62" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" style="62" customWidth="1"/>
-    <col min="4" max="4" width="63.42578125" style="62" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" style="62" customWidth="1"/>
-    <col min="6" max="6" width="78.140625" style="62" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="62"/>
+    <col min="1" max="1" width="36.83203125" style="62" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" style="62" customWidth="1"/>
+    <col min="4" max="4" width="63.5" style="62" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="62" customWidth="1"/>
+    <col min="6" max="6" width="78.1640625" style="62" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.599999999999994" customHeight="1">
+    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.5" customHeight="1">
       <c r="A1" s="247" t="s">
         <v>0</v>
       </c>
@@ -20633,7 +20622,7 @@
       <c r="D3" s="253"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.5" customHeight="1">
       <c r="A4" s="160" t="s">
         <v>434</v>
       </c>
@@ -20782,7 +20771,7 @@
       <c r="V9" s="128"/>
       <c r="W9" s="128"/>
     </row>
-    <row r="10" spans="1:25" ht="23.1" customHeight="1" thickBot="1">
+    <row r="10" spans="1:25" ht="23" customHeight="1" thickBot="1">
       <c r="A10" s="58"/>
       <c r="C10" s="55"/>
       <c r="D10" s="29"/>
@@ -20794,7 +20783,7 @@
       <c r="D11" s="29"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="12" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="74" t="s">
         <v>673</v>
       </c>
@@ -20824,7 +20813,7 @@
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -20839,7 +20828,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -20847,7 +20836,7 @@
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
     </row>
-    <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="16" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="74" t="s">
         <v>676</v>
       </c>
@@ -20870,14 +20859,14 @@
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
     </row>
-    <row r="18" spans="1:24" ht="56.1" customHeight="1" thickBot="1">
+    <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
         <v>995</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -20892,7 +20881,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -20967,8 +20956,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="232"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -21017,7 +21006,7 @@
       <c r="W24" s="69"/>
       <c r="X24" s="69"/>
     </row>
-    <row r="25" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="25" spans="1:24" ht="16.25" customHeight="1">
       <c r="A25" s="142" t="s">
         <v>453</v>
       </c>
@@ -21081,7 +21070,7 @@
       </c>
       <c r="E28" s="21"/>
     </row>
-    <row r="29" spans="1:24" ht="24.75">
+    <row r="29" spans="1:24" ht="23">
       <c r="A29" s="153" t="s">
         <v>439</v>
       </c>
@@ -21092,7 +21081,7 @@
       </c>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:24" ht="24.75">
+    <row r="30" spans="1:24">
       <c r="A30" s="153" t="s">
         <v>441</v>
       </c>
@@ -21103,7 +21092,7 @@
       </c>
       <c r="E30" s="21"/>
     </row>
-    <row r="31" spans="1:24" ht="36">
+    <row r="31" spans="1:24" ht="33">
       <c r="A31" s="153" t="s">
         <v>442</v>
       </c>
@@ -21126,7 +21115,7 @@
       </c>
       <c r="E32" s="21"/>
     </row>
-    <row r="33" spans="1:6" ht="48.75">
+    <row r="33" spans="1:6" ht="34">
       <c r="A33" s="153" t="s">
         <v>445</v>
       </c>
@@ -21137,7 +21126,7 @@
       </c>
       <c r="E33" s="21"/>
     </row>
-    <row r="34" spans="1:6" ht="48.75">
+    <row r="34" spans="1:6" ht="34">
       <c r="A34" s="153" t="s">
         <v>447</v>
       </c>
@@ -21198,12 +21187,12 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" fitToHeight="2" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" fitToHeight="2" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C©National Higher Educational Benchmarking Institute
 Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -21214,26 +21203,26 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" style="62" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" style="62" customWidth="1"/>
-    <col min="4" max="4" width="63.42578125" style="62" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" style="62" customWidth="1"/>
-    <col min="6" max="6" width="78.140625" style="62" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="62"/>
+    <col min="1" max="1" width="36.83203125" style="62" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" style="62" customWidth="1"/>
+    <col min="4" max="4" width="63.5" style="62" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="62" customWidth="1"/>
+    <col min="6" max="6" width="78.1640625" style="62" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.599999999999994" customHeight="1">
+    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.5" customHeight="1">
       <c r="A1" s="247" t="s">
         <v>0</v>
       </c>
@@ -21262,7 +21251,7 @@
       <c r="D3" s="253"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.5" customHeight="1">
       <c r="A4" s="160" t="s">
         <v>434</v>
       </c>
@@ -21411,7 +21400,7 @@
       <c r="V9" s="128"/>
       <c r="W9" s="128"/>
     </row>
-    <row r="10" spans="1:25" ht="23.1" customHeight="1" thickBot="1">
+    <row r="10" spans="1:25" ht="23" customHeight="1" thickBot="1">
       <c r="A10" s="58"/>
       <c r="C10" s="55"/>
       <c r="D10" s="29"/>
@@ -21423,7 +21412,7 @@
       <c r="D11" s="29"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="12" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="74" t="s">
         <v>673</v>
       </c>
@@ -21453,7 +21442,7 @@
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -21468,7 +21457,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -21476,7 +21465,7 @@
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
     </row>
-    <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="16" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="74" t="s">
         <v>676</v>
       </c>
@@ -21499,14 +21488,14 @@
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
     </row>
-    <row r="18" spans="1:24" ht="56.1" customHeight="1" thickBot="1">
+    <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
         <v>995</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -21521,7 +21510,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -21596,8 +21585,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="232"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -21646,7 +21635,7 @@
       <c r="W24" s="69"/>
       <c r="X24" s="69"/>
     </row>
-    <row r="25" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="25" spans="1:24" ht="16.25" customHeight="1">
       <c r="A25" s="142" t="s">
         <v>453</v>
       </c>
@@ -21710,7 +21699,7 @@
       </c>
       <c r="E28" s="21"/>
     </row>
-    <row r="29" spans="1:24" ht="24.75">
+    <row r="29" spans="1:24" ht="23">
       <c r="A29" s="153" t="s">
         <v>439</v>
       </c>
@@ -21721,7 +21710,7 @@
       </c>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:24" ht="24.75">
+    <row r="30" spans="1:24">
       <c r="A30" s="153" t="s">
         <v>441</v>
       </c>
@@ -21732,7 +21721,7 @@
       </c>
       <c r="E30" s="21"/>
     </row>
-    <row r="31" spans="1:24" ht="36">
+    <row r="31" spans="1:24" ht="33">
       <c r="A31" s="153" t="s">
         <v>442</v>
       </c>
@@ -21755,7 +21744,7 @@
       </c>
       <c r="E32" s="21"/>
     </row>
-    <row r="33" spans="1:6" ht="48.75">
+    <row r="33" spans="1:6" ht="34">
       <c r="A33" s="153" t="s">
         <v>445</v>
       </c>
@@ -21766,7 +21755,7 @@
       </c>
       <c r="E33" s="21"/>
     </row>
-    <row r="34" spans="1:6" ht="48.75">
+    <row r="34" spans="1:6" ht="34">
       <c r="A34" s="153" t="s">
         <v>447</v>
       </c>
@@ -21827,12 +21816,12 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" fitToHeight="2" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" fitToHeight="2" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C©National Higher Educational Benchmarking Institute
 Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -21843,26 +21832,26 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" style="62" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" style="62" customWidth="1"/>
-    <col min="4" max="4" width="63.42578125" style="62" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" style="62" customWidth="1"/>
-    <col min="6" max="6" width="78.140625" style="62" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="62"/>
+    <col min="1" max="1" width="36.83203125" style="62" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" style="62" customWidth="1"/>
+    <col min="4" max="4" width="63.5" style="62" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="62" customWidth="1"/>
+    <col min="6" max="6" width="78.1640625" style="62" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.599999999999994" customHeight="1">
+    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.5" customHeight="1">
       <c r="A1" s="247" t="s">
         <v>0</v>
       </c>
@@ -21891,7 +21880,7 @@
       <c r="D3" s="253"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.5" customHeight="1">
       <c r="A4" s="160" t="s">
         <v>434</v>
       </c>
@@ -22040,7 +22029,7 @@
       <c r="V9" s="128"/>
       <c r="W9" s="128"/>
     </row>
-    <row r="10" spans="1:25" ht="23.1" customHeight="1" thickBot="1">
+    <row r="10" spans="1:25" ht="23" customHeight="1" thickBot="1">
       <c r="A10" s="58"/>
       <c r="C10" s="55"/>
       <c r="D10" s="29"/>
@@ -22052,7 +22041,7 @@
       <c r="D11" s="29"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="12" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="74" t="s">
         <v>673</v>
       </c>
@@ -22082,7 +22071,7 @@
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -22097,7 +22086,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -22105,7 +22094,7 @@
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
     </row>
-    <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="16" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="74" t="s">
         <v>676</v>
       </c>
@@ -22128,14 +22117,14 @@
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
     </row>
-    <row r="18" spans="1:24" ht="56.1" customHeight="1" thickBot="1">
+    <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
         <v>995</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -22150,7 +22139,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -22225,8 +22214,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="232"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -22275,7 +22264,7 @@
       <c r="W24" s="69"/>
       <c r="X24" s="69"/>
     </row>
-    <row r="25" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="25" spans="1:24" ht="16.25" customHeight="1">
       <c r="A25" s="142" t="s">
         <v>453</v>
       </c>
@@ -22339,7 +22328,7 @@
       </c>
       <c r="E28" s="21"/>
     </row>
-    <row r="29" spans="1:24" ht="24.75">
+    <row r="29" spans="1:24" ht="23">
       <c r="A29" s="153" t="s">
         <v>439</v>
       </c>
@@ -22350,7 +22339,7 @@
       </c>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:24" ht="24.75">
+    <row r="30" spans="1:24">
       <c r="A30" s="153" t="s">
         <v>441</v>
       </c>
@@ -22361,7 +22350,7 @@
       </c>
       <c r="E30" s="21"/>
     </row>
-    <row r="31" spans="1:24" ht="36">
+    <row r="31" spans="1:24" ht="33">
       <c r="A31" s="153" t="s">
         <v>442</v>
       </c>
@@ -22384,7 +22373,7 @@
       </c>
       <c r="E32" s="21"/>
     </row>
-    <row r="33" spans="1:6" ht="48.75">
+    <row r="33" spans="1:6" ht="34">
       <c r="A33" s="153" t="s">
         <v>445</v>
       </c>
@@ -22395,7 +22384,7 @@
       </c>
       <c r="E33" s="21"/>
     </row>
-    <row r="34" spans="1:6" ht="48.75">
+    <row r="34" spans="1:6" ht="34">
       <c r="A34" s="153" t="s">
         <v>447</v>
       </c>
@@ -22456,12 +22445,12 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" fitToHeight="2" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" fitToHeight="2" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C©National Higher Educational Benchmarking Institute
 Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/data/imports/mrss-export.xlsx
+++ b/data/imports/mrss-export.xlsx
@@ -5173,9 +5173,6 @@
     <t>Enter the number of student credit hours taught by part-time faculty or adjuncts in the 2013 academic year. This should be the number of credit hours for a course times the number of students enrolled in the course (include students who received a grade of W). For example, a 3 credit hour course with 30 enrolled students would generate 90 student credit hours. Exclude high school students taking classes taught by high school faculty in their high schools for college credit. The 2013 academic year is the end of term counts for summer 2012, fall 2012 and spring 2013.</t>
   </si>
   <si>
-    <t>2012 annual number of FTE executive staff who directly support the instructional function as administrators (e.g. Chief Academic Officer, Vice President of Academic Affairs, Deans, Provosts or other instructional leadership.)</t>
-  </si>
-  <si>
     <t>Fiscal year 2012-2013 salaries and benefits for all full-time credit instructional faculty in the academic unit.</t>
   </si>
   <si>
@@ -5253,9 +5250,6 @@
     <t>Enter the number of student credit hours taught by full-time faculty in the academic unit in the 2013 academic year. This should be the number of credit hours for a course times the number of students enrolled in the course (include students who received a grade of W). For example, a 3 credit hour course with 30 enrolled students would generate 90 student credit hours. Exclude high school students taking classes taught by high school faculty in their high schools for college credit. The 2013 academic year is the end of term counts for summer 2012, fall 2012 and spring 2013.</t>
   </si>
   <si>
-    <t>Enter the 2012 annual FTE credit instructional clerical and other professional support staff. The calculation for FTE = (number of full-time staff) + (part-time staff hours / 2080)</t>
-  </si>
-  <si>
     <t>Full-time equivalent (FTE) faculty will equal instructor credit hours taught by all full-time credit faculty in the academic unit in the 2013 academic year divided by 15. The 2013 academic year is the end of term counts for summer 2012, fall 2012 and spring 2013.</t>
   </si>
   <si>
@@ -5263,6 +5257,12 @@
   </si>
   <si>
     <t>Enter the number of student credit hours taught by part-time faculty or adjuncts in the academic unit in the 2013 academic year. This should be the number of credit hours for a course times the number of students enrolled in the course (include students who received a grade of W). For example, a 3 credit hour course with 30 enrolled students would generate 90 student credit hours. Exclude high school students taking classes taught by high school faculty in their high schools for college credit. The 2013 academic year is the end of term counts for summer 2012, fall 2012 and spring 2013.</t>
+  </si>
+  <si>
+    <t>2013 annual number of FTE executive staff who directly support the instructional function as administrators (e.g. Chief Academic Officer, Vice President of Academic Affairs, Deans, Provosts or other instructional leadership.)</t>
+  </si>
+  <si>
+    <t>Enter the 2013 annual FTE credit instructional clerical and other professional support staff. The calculation for FTE = (number of full-time staff) + (part-time staff hours / 2080)</t>
   </si>
 </sst>
 </file>
@@ -6362,28 +6362,26 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -6399,16 +6397,18 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="15"/>
     </xf>
@@ -7342,8 +7342,8 @@
   </sheetPr>
   <dimension ref="A1:X509"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7359,11 +7359,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="9" customFormat="1" ht="66.5" customHeight="1">
-      <c r="A1" s="230" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
+      <c r="A1" s="243" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
       <c r="D1" s="42"/>
       <c r="E1" s="42"/>
       <c r="F1" s="10"/>
@@ -7396,21 +7396,21 @@
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="11" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="245" t="s">
         <v>521</v>
       </c>
-      <c r="B4" s="235"/>
-      <c r="C4" s="235"/>
+      <c r="B4" s="246"/>
+      <c r="C4" s="246"/>
       <c r="D4" s="190"/>
       <c r="E4" s="190"/>
       <c r="F4" s="10"/>
     </row>
     <row r="6" spans="1:24" ht="48.75" customHeight="1">
-      <c r="A6" s="233" t="s">
+      <c r="A6" s="244" t="s">
         <v>522</v>
       </c>
-      <c r="B6" s="233"/>
-      <c r="C6" s="233"/>
+      <c r="B6" s="244"/>
+      <c r="C6" s="244"/>
       <c r="D6" s="191"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
@@ -7441,11 +7441,11 @@
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:24" s="171" customFormat="1" ht="40" customHeight="1">
-      <c r="A8" s="236" t="s">
+      <c r="A8" s="234" t="s">
         <v>685</v>
       </c>
-      <c r="B8" s="237"/>
-      <c r="C8" s="237"/>
+      <c r="B8" s="235"/>
+      <c r="C8" s="235"/>
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
       <c r="F8" s="18"/>
@@ -7470,7 +7470,7 @@
     </row>
     <row r="9" spans="1:24" s="64" customFormat="1" ht="24" customHeight="1">
       <c r="A9" s="176" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B9" s="71"/>
       <c r="C9" s="70"/>
@@ -7553,11 +7553,11 @@
       <c r="X11" s="69"/>
     </row>
     <row r="12" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="231" t="s">
+      <c r="A12" s="232" t="s">
         <v>456</v>
       </c>
-      <c r="B12" s="232"/>
-      <c r="C12" s="232"/>
+      <c r="B12" s="233"/>
+      <c r="C12" s="233"/>
       <c r="D12" s="192"/>
       <c r="E12" s="192"/>
       <c r="F12" s="69"/>
@@ -7645,7 +7645,7 @@
     </row>
     <row r="16" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B16" s="80"/>
       <c r="C16" s="48" t="s">
@@ -7660,7 +7660,7 @@
     </row>
     <row r="17" spans="1:24" ht="39" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B17" s="81"/>
       <c r="C17" s="48" t="s">
@@ -7698,7 +7698,7 @@
     </row>
     <row r="20" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A20" s="75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B20" s="80"/>
       <c r="C20" s="49" t="s">
@@ -7713,7 +7713,7 @@
     </row>
     <row r="21" spans="1:24" ht="52.5" customHeight="1" thickBot="1">
       <c r="A21" s="229" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B21" s="81"/>
       <c r="C21" s="49" t="s">
@@ -7771,7 +7771,7 @@
     </row>
     <row r="24" spans="1:24" ht="49" thickBot="1">
       <c r="A24" s="75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B24" s="80"/>
       <c r="C24" s="227" t="s">
@@ -7786,11 +7786,11 @@
     </row>
     <row r="25" spans="1:24" ht="47.25" customHeight="1" thickBot="1">
       <c r="A25" s="75" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B25" s="81"/>
       <c r="C25" s="65" t="s">
-        <v>987</v>
+        <v>1003</v>
       </c>
       <c r="D25" s="42" t="s">
         <v>724</v>
@@ -7829,7 +7829,7 @@
     </row>
     <row r="27" spans="1:24" ht="48" customHeight="1" thickBot="1">
       <c r="A27" s="75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B27" s="80"/>
       <c r="C27" s="49" t="s">
@@ -7844,11 +7844,11 @@
     </row>
     <row r="28" spans="1:24" ht="46.5" customHeight="1" thickBot="1">
       <c r="A28" s="75" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B28" s="81"/>
       <c r="C28" s="49" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="D28" s="42" t="s">
         <v>539</v>
@@ -7859,7 +7859,7 @@
     </row>
     <row r="29" spans="1:24" ht="49.5" customHeight="1" thickBot="1">
       <c r="A29" s="78" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B29" s="80"/>
       <c r="C29" s="48" t="s">
@@ -7881,11 +7881,11 @@
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:24" ht="40" customHeight="1">
-      <c r="A31" s="236" t="s">
+      <c r="A31" s="234" t="s">
         <v>457</v>
       </c>
-      <c r="B31" s="237"/>
-      <c r="C31" s="237"/>
+      <c r="B31" s="235"/>
+      <c r="C31" s="235"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
@@ -7908,7 +7908,7 @@
     </row>
     <row r="32" spans="1:24" s="64" customFormat="1" ht="24" customHeight="1">
       <c r="A32" s="176" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B32" s="71"/>
       <c r="C32" s="70"/>
@@ -8217,10 +8217,10 @@
       <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:24" ht="40" customHeight="1">
-      <c r="A50" s="236" t="s">
+      <c r="A50" s="234" t="s">
         <v>470</v>
       </c>
-      <c r="B50" s="237"/>
+      <c r="B50" s="235"/>
       <c r="C50" s="59"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
@@ -8327,11 +8327,11 @@
       <c r="X53" s="69"/>
     </row>
     <row r="54" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
-      <c r="A54" s="231" t="s">
+      <c r="A54" s="232" t="s">
         <v>456</v>
       </c>
-      <c r="B54" s="232"/>
-      <c r="C54" s="232"/>
+      <c r="B54" s="233"/>
+      <c r="C54" s="233"/>
       <c r="D54" s="42"/>
       <c r="E54" s="192"/>
       <c r="F54" s="69"/>
@@ -8384,8 +8384,8 @@
       <c r="A56" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="243"/>
-      <c r="C56" s="244"/>
+      <c r="B56" s="236"/>
+      <c r="C56" s="237"/>
       <c r="F56" s="32"/>
       <c r="G56" s="32"/>
       <c r="H56" s="32"/>
@@ -9354,10 +9354,10 @@
       <c r="F124" s="10"/>
     </row>
     <row r="125" spans="1:24" s="171" customFormat="1" ht="40" customHeight="1">
-      <c r="A125" s="236" t="s">
+      <c r="A125" s="234" t="s">
         <v>689</v>
       </c>
-      <c r="B125" s="237"/>
+      <c r="B125" s="235"/>
       <c r="C125" s="59"/>
       <c r="D125" s="42"/>
       <c r="E125" s="42"/>
@@ -9438,11 +9438,11 @@
       <c r="X127" s="69"/>
     </row>
     <row r="128" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
-      <c r="A128" s="231" t="s">
+      <c r="A128" s="232" t="s">
         <v>456</v>
       </c>
-      <c r="B128" s="232"/>
-      <c r="C128" s="232"/>
+      <c r="B128" s="233"/>
+      <c r="C128" s="233"/>
       <c r="D128" s="33"/>
       <c r="E128" s="192"/>
       <c r="F128" s="69"/>
@@ -9495,8 +9495,8 @@
       <c r="A130" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="B130" s="243"/>
-      <c r="C130" s="244"/>
+      <c r="B130" s="236"/>
+      <c r="C130" s="237"/>
       <c r="D130" s="33"/>
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
@@ -9581,8 +9581,8 @@
       <c r="A136" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="B136" s="243"/>
-      <c r="C136" s="244"/>
+      <c r="B136" s="236"/>
+      <c r="C136" s="237"/>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
       <c r="H136" s="14"/>
@@ -9748,10 +9748,10 @@
       <c r="F147" s="10"/>
     </row>
     <row r="148" spans="1:24" s="61" customFormat="1" ht="40" customHeight="1">
-      <c r="A148" s="236" t="s">
+      <c r="A148" s="234" t="s">
         <v>476</v>
       </c>
-      <c r="B148" s="237"/>
+      <c r="B148" s="235"/>
       <c r="C148" s="59"/>
       <c r="D148" s="42"/>
       <c r="E148" s="42"/>
@@ -9804,11 +9804,11 @@
       <c r="X149" s="69"/>
     </row>
     <row r="150" spans="1:24" s="64" customFormat="1" ht="24" customHeight="1">
-      <c r="A150" s="231" t="s">
+      <c r="A150" s="232" t="s">
         <v>478</v>
       </c>
-      <c r="B150" s="232"/>
-      <c r="C150" s="232"/>
+      <c r="B150" s="233"/>
+      <c r="C150" s="233"/>
       <c r="D150" s="42"/>
       <c r="E150" s="192"/>
       <c r="F150" s="69"/>
@@ -9858,10 +9858,10 @@
       <c r="X151" s="97"/>
     </row>
     <row r="152" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A152" s="245" t="s">
+      <c r="A152" s="230" t="s">
         <v>479</v>
       </c>
-      <c r="B152" s="246"/>
+      <c r="B152" s="231"/>
       <c r="C152" s="107"/>
       <c r="D152" s="42"/>
       <c r="E152" s="42"/>
@@ -9945,10 +9945,10 @@
       <c r="H156" s="14"/>
     </row>
     <row r="157" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A157" s="245" t="s">
+      <c r="A157" s="230" t="s">
         <v>480</v>
       </c>
-      <c r="B157" s="246"/>
+      <c r="B157" s="231"/>
       <c r="C157" s="107"/>
       <c r="D157" s="42" t="s">
         <v>740</v>
@@ -10201,10 +10201,10 @@
       <c r="H172" s="14"/>
     </row>
     <row r="173" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A173" s="245" t="s">
+      <c r="A173" s="230" t="s">
         <v>481</v>
       </c>
-      <c r="B173" s="246"/>
+      <c r="B173" s="231"/>
       <c r="C173" s="107"/>
       <c r="D173" s="42"/>
       <c r="E173" s="42"/>
@@ -10361,10 +10361,10 @@
       <c r="H183" s="14"/>
     </row>
     <row r="184" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A184" s="245" t="s">
+      <c r="A184" s="230" t="s">
         <v>491</v>
       </c>
-      <c r="B184" s="246"/>
+      <c r="B184" s="231"/>
       <c r="C184" s="107"/>
       <c r="D184" s="42"/>
       <c r="E184" s="42"/>
@@ -10431,10 +10431,10 @@
       <c r="H187" s="14"/>
     </row>
     <row r="188" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A188" s="245" t="s">
+      <c r="A188" s="230" t="s">
         <v>492</v>
       </c>
-      <c r="B188" s="246"/>
+      <c r="B188" s="231"/>
       <c r="C188" s="107"/>
       <c r="D188" s="42"/>
       <c r="E188" s="42"/>
@@ -10534,10 +10534,10 @@
       <c r="H194" s="14"/>
     </row>
     <row r="195" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A195" s="245" t="s">
+      <c r="A195" s="230" t="s">
         <v>115</v>
       </c>
-      <c r="B195" s="246"/>
+      <c r="B195" s="231"/>
       <c r="C195" s="107"/>
       <c r="D195" s="42"/>
       <c r="E195" s="42"/>
@@ -10675,10 +10675,10 @@
       <c r="H202" s="42"/>
     </row>
     <row r="203" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A203" s="245" t="s">
+      <c r="A203" s="230" t="s">
         <v>502</v>
       </c>
-      <c r="B203" s="246"/>
+      <c r="B203" s="231"/>
       <c r="C203" s="107"/>
       <c r="D203" s="42"/>
       <c r="E203" s="42"/>
@@ -10779,10 +10779,10 @@
       <c r="F208" s="10"/>
     </row>
     <row r="209" spans="1:24" s="61" customFormat="1" ht="40" customHeight="1">
-      <c r="A209" s="236" t="s">
+      <c r="A209" s="234" t="s">
         <v>503</v>
       </c>
-      <c r="B209" s="237"/>
+      <c r="B209" s="235"/>
       <c r="C209" s="59"/>
       <c r="D209" s="42"/>
       <c r="E209" s="42"/>
@@ -10868,8 +10868,8 @@
       <c r="A212" s="238" t="s">
         <v>706</v>
       </c>
-      <c r="B212" s="232"/>
-      <c r="C212" s="232"/>
+      <c r="B212" s="233"/>
+      <c r="C212" s="233"/>
       <c r="D212" s="42"/>
       <c r="E212" s="192"/>
       <c r="F212" s="69"/>
@@ -10893,10 +10893,10 @@
       <c r="X212" s="69"/>
     </row>
     <row r="213" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A213" s="245" t="s">
+      <c r="A213" s="230" t="s">
         <v>504</v>
       </c>
-      <c r="B213" s="246"/>
+      <c r="B213" s="231"/>
       <c r="C213" s="107"/>
       <c r="D213" s="42"/>
       <c r="E213" s="42"/>
@@ -10982,10 +10982,10 @@
       <c r="H217" s="14"/>
     </row>
     <row r="218" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A218" s="245" t="s">
+      <c r="A218" s="230" t="s">
         <v>504</v>
       </c>
-      <c r="B218" s="246"/>
+      <c r="B218" s="231"/>
       <c r="C218" s="107"/>
       <c r="D218" s="42"/>
       <c r="E218" s="42"/>
@@ -11070,10 +11070,10 @@
       <c r="H222" s="14"/>
     </row>
     <row r="223" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A223" s="245" t="s">
+      <c r="A223" s="230" t="s">
         <v>504</v>
       </c>
-      <c r="B223" s="246"/>
+      <c r="B223" s="231"/>
       <c r="C223" s="107"/>
       <c r="D223" s="42"/>
       <c r="E223" s="42"/>
@@ -11153,10 +11153,10 @@
       <c r="H227" s="14"/>
     </row>
     <row r="228" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A228" s="245" t="s">
+      <c r="A228" s="230" t="s">
         <v>504</v>
       </c>
-      <c r="B228" s="246"/>
+      <c r="B228" s="231"/>
       <c r="C228" s="107"/>
       <c r="D228" s="42"/>
       <c r="E228" s="42"/>
@@ -15766,6 +15766,21 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="31">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A125:B125"/>
     <mergeCell ref="A213:B213"/>
     <mergeCell ref="A218:B218"/>
     <mergeCell ref="A228:B228"/>
@@ -15782,21 +15797,6 @@
     <mergeCell ref="A188:B188"/>
     <mergeCell ref="A195:B195"/>
     <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A36" location="'Move or Copy'!A1" display="Link to Move or Copy"/>
@@ -15947,7 +15947,7 @@
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
       <c r="A7" s="260" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B7" s="259"/>
       <c r="C7" s="93"/>
@@ -16050,12 +16050,12 @@
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="136"/>
       <c r="D13" s="140" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -16065,12 +16065,12 @@
     </row>
     <row r="14" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A14" s="75" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -16085,7 +16085,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -16103,12 +16103,12 @@
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="137"/>
       <c r="D17" s="140" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -16118,12 +16118,12 @@
     </row>
     <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -16138,7 +16138,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -16213,8 +16213,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="232"/>
-      <c r="C23" s="232"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -16576,7 +16576,7 @@
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
       <c r="A7" s="260" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B7" s="259"/>
       <c r="C7" s="93"/>
@@ -16632,7 +16632,7 @@
     </row>
     <row r="9" spans="1:25" s="130" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="131" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B9" s="127"/>
       <c r="C9" s="127"/>
@@ -16679,12 +16679,12 @@
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="136"/>
       <c r="D13" s="140" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -16699,7 +16699,7 @@
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -16714,7 +16714,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -16732,12 +16732,12 @@
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="137"/>
       <c r="D17" s="140" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -16752,7 +16752,7 @@
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -16767,7 +16767,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -16842,8 +16842,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="232"/>
-      <c r="C23" s="232"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -17207,7 +17207,7 @@
       <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:25" s="171" customFormat="1" ht="36" customHeight="1">
-      <c r="A6" s="236" t="s">
+      <c r="A6" s="234" t="s">
         <v>701</v>
       </c>
       <c r="B6" s="254"/>
@@ -17236,7 +17236,7 @@
     </row>
     <row r="7" spans="1:25" s="62" customFormat="1" ht="23.25" customHeight="1">
       <c r="A7" s="260" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B7" s="259"/>
       <c r="C7" s="93"/>
@@ -17341,12 +17341,12 @@
     </row>
     <row r="13" spans="1:25" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="136"/>
       <c r="D13" s="140" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="14"/>
@@ -17356,12 +17356,12 @@
     </row>
     <row r="14" spans="1:25" s="1" customFormat="1" ht="48" customHeight="1" thickBot="1">
       <c r="A14" s="75" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="180" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="14"/>
@@ -17376,7 +17376,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="180" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="13"/>
@@ -17398,12 +17398,12 @@
     </row>
     <row r="17" spans="1:24" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="137"/>
       <c r="D17" s="140" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="14"/>
@@ -17413,12 +17413,12 @@
     </row>
     <row r="18" spans="1:24" s="1" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
       <c r="A18" s="75" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="135"/>
       <c r="D18" s="180" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="14"/>
@@ -17433,7 +17433,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="66"/>
       <c r="D19" s="140" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -17507,8 +17507,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="232"/>
-      <c r="C23" s="232"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -18176,7 +18176,7 @@
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
       <c r="A7" s="260" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B7" s="259"/>
       <c r="C7" s="93"/>
@@ -18279,12 +18279,12 @@
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="136"/>
       <c r="D13" s="140" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -18294,12 +18294,12 @@
     </row>
     <row r="14" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A14" s="76" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="180" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -18314,7 +18314,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="180" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -18332,12 +18332,12 @@
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="137"/>
       <c r="D17" s="140" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -18347,12 +18347,12 @@
     </row>
     <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="180" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -18367,7 +18367,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -18442,8 +18442,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="232"/>
-      <c r="C23" s="232"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -18802,7 +18802,7 @@
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
       <c r="A7" s="260" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B7" s="259"/>
       <c r="C7" s="93"/>
@@ -18905,12 +18905,12 @@
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="136"/>
       <c r="D13" s="140" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -18920,12 +18920,12 @@
     </row>
     <row r="14" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A14" s="76" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -18940,7 +18940,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -18958,12 +18958,12 @@
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="137"/>
       <c r="D17" s="140" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -18973,12 +18973,12 @@
     </row>
     <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -18993,7 +18993,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -19068,8 +19068,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="232"/>
-      <c r="C23" s="232"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -19428,7 +19428,7 @@
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
       <c r="A7" s="260" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B7" s="259"/>
       <c r="C7" s="93"/>
@@ -19531,12 +19531,12 @@
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="136"/>
       <c r="D13" s="140" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -19546,12 +19546,12 @@
     </row>
     <row r="14" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A14" s="76" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -19566,7 +19566,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42" t="s">
@@ -19586,12 +19586,12 @@
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="137"/>
       <c r="D17" s="140" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -19601,12 +19601,12 @@
     </row>
     <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -19621,7 +19621,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -19696,8 +19696,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="232"/>
-      <c r="C23" s="232"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -20059,7 +20059,7 @@
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
       <c r="A7" s="260" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B7" s="259"/>
       <c r="C7" s="93"/>
@@ -20164,12 +20164,12 @@
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="136"/>
       <c r="D13" s="140" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -20179,12 +20179,12 @@
     </row>
     <row r="14" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A14" s="76" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -20199,7 +20199,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -20217,12 +20217,12 @@
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="137"/>
       <c r="D17" s="140" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -20232,12 +20232,12 @@
     </row>
     <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -20252,7 +20252,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -20327,8 +20327,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="232"/>
-      <c r="C23" s="232"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -20690,7 +20690,7 @@
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
       <c r="A7" s="260" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B7" s="259"/>
       <c r="C7" s="93"/>
@@ -20793,12 +20793,12 @@
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="136"/>
       <c r="D13" s="140" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -20808,12 +20808,12 @@
     </row>
     <row r="14" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A14" s="76" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -20828,7 +20828,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -20846,12 +20846,12 @@
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="137"/>
       <c r="D17" s="140" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -20861,12 +20861,12 @@
     </row>
     <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -20881,7 +20881,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -20956,8 +20956,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="232"/>
-      <c r="C23" s="232"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -21319,7 +21319,7 @@
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
       <c r="A7" s="260" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B7" s="259"/>
       <c r="C7" s="93"/>
@@ -21375,7 +21375,7 @@
     </row>
     <row r="9" spans="1:25" s="130" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="131" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B9" s="127"/>
       <c r="C9" s="127"/>
@@ -21422,12 +21422,12 @@
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="136"/>
       <c r="D13" s="140" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -21437,12 +21437,12 @@
     </row>
     <row r="14" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A14" s="76" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -21457,7 +21457,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -21475,12 +21475,12 @@
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="137"/>
       <c r="D17" s="140" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -21490,12 +21490,12 @@
     </row>
     <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -21510,7 +21510,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -21585,8 +21585,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="232"/>
-      <c r="C23" s="232"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -21948,7 +21948,7 @@
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
       <c r="A7" s="260" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B7" s="259"/>
       <c r="C7" s="93"/>
@@ -22004,7 +22004,7 @@
     </row>
     <row r="9" spans="1:25" s="130" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="131" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B9" s="127"/>
       <c r="C9" s="127"/>
@@ -22051,12 +22051,12 @@
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="136"/>
       <c r="D13" s="140" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -22066,12 +22066,12 @@
     </row>
     <row r="14" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A14" s="76" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -22086,7 +22086,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -22104,12 +22104,12 @@
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="137"/>
       <c r="D17" s="140" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -22119,12 +22119,12 @@
     </row>
     <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -22139,7 +22139,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -22214,8 +22214,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="232"/>
-      <c r="C23" s="232"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>

--- a/data/imports/mrss-export.xlsx
+++ b/data/imports/mrss-export.xlsx
@@ -5219,9 +5219,6 @@
     <t>Number of Academic Year 2013 FTE Faculty/Adjuncts</t>
   </si>
   <si>
-    <t>2012 Annual Number of FTE Staff</t>
-  </si>
-  <si>
     <t>FY 2012/13 Non-labor Operating Costs</t>
   </si>
   <si>
@@ -5263,6 +5260,9 @@
   </si>
   <si>
     <t>Enter the 2013 annual FTE credit instructional clerical and other professional support staff. The calculation for FTE = (number of full-time staff) + (part-time staff hours / 2080)</t>
+  </si>
+  <si>
+    <t>2013 Annual Number of FTE Staff</t>
   </si>
 </sst>
 </file>
@@ -6362,26 +6362,28 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -6397,18 +6399,16 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="15"/>
     </xf>
@@ -7343,7 +7343,7 @@
   <dimension ref="A1:X509"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7359,11 +7359,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="9" customFormat="1" ht="66.5" customHeight="1">
-      <c r="A1" s="243" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
+      <c r="A1" s="230" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="230"/>
+      <c r="C1" s="230"/>
       <c r="D1" s="42"/>
       <c r="E1" s="42"/>
       <c r="F1" s="10"/>
@@ -7396,21 +7396,21 @@
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="11" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A4" s="245" t="s">
+      <c r="A4" s="234" t="s">
         <v>521</v>
       </c>
-      <c r="B4" s="246"/>
-      <c r="C4" s="246"/>
+      <c r="B4" s="235"/>
+      <c r="C4" s="235"/>
       <c r="D4" s="190"/>
       <c r="E4" s="190"/>
       <c r="F4" s="10"/>
     </row>
     <row r="6" spans="1:24" ht="48.75" customHeight="1">
-      <c r="A6" s="244" t="s">
+      <c r="A6" s="233" t="s">
         <v>522</v>
       </c>
-      <c r="B6" s="244"/>
-      <c r="C6" s="244"/>
+      <c r="B6" s="233"/>
+      <c r="C6" s="233"/>
       <c r="D6" s="191"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
@@ -7441,11 +7441,11 @@
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:24" s="171" customFormat="1" ht="40" customHeight="1">
-      <c r="A8" s="234" t="s">
+      <c r="A8" s="236" t="s">
         <v>685</v>
       </c>
-      <c r="B8" s="235"/>
-      <c r="C8" s="235"/>
+      <c r="B8" s="237"/>
+      <c r="C8" s="237"/>
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
       <c r="F8" s="18"/>
@@ -7553,11 +7553,11 @@
       <c r="X11" s="69"/>
     </row>
     <row r="12" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="232" t="s">
+      <c r="A12" s="231" t="s">
         <v>456</v>
       </c>
-      <c r="B12" s="233"/>
-      <c r="C12" s="233"/>
+      <c r="B12" s="232"/>
+      <c r="C12" s="232"/>
       <c r="D12" s="192"/>
       <c r="E12" s="192"/>
       <c r="F12" s="69"/>
@@ -7786,11 +7786,11 @@
     </row>
     <row r="25" spans="1:24" ht="47.25" customHeight="1" thickBot="1">
       <c r="A25" s="75" t="s">
-        <v>996</v>
+        <v>1004</v>
       </c>
       <c r="B25" s="81"/>
       <c r="C25" s="65" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D25" s="42" t="s">
         <v>724</v>
@@ -7844,11 +7844,11 @@
     </row>
     <row r="28" spans="1:24" ht="46.5" customHeight="1" thickBot="1">
       <c r="A28" s="75" t="s">
-        <v>996</v>
+        <v>1004</v>
       </c>
       <c r="B28" s="81"/>
       <c r="C28" s="49" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D28" s="42" t="s">
         <v>539</v>
@@ -7859,7 +7859,7 @@
     </row>
     <row r="29" spans="1:24" ht="49.5" customHeight="1" thickBot="1">
       <c r="A29" s="78" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B29" s="80"/>
       <c r="C29" s="48" t="s">
@@ -7881,11 +7881,11 @@
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:24" ht="40" customHeight="1">
-      <c r="A31" s="234" t="s">
+      <c r="A31" s="236" t="s">
         <v>457</v>
       </c>
-      <c r="B31" s="235"/>
-      <c r="C31" s="235"/>
+      <c r="B31" s="237"/>
+      <c r="C31" s="237"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
@@ -8217,10 +8217,10 @@
       <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:24" ht="40" customHeight="1">
-      <c r="A50" s="234" t="s">
+      <c r="A50" s="236" t="s">
         <v>470</v>
       </c>
-      <c r="B50" s="235"/>
+      <c r="B50" s="237"/>
       <c r="C50" s="59"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
@@ -8327,11 +8327,11 @@
       <c r="X53" s="69"/>
     </row>
     <row r="54" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
-      <c r="A54" s="232" t="s">
+      <c r="A54" s="231" t="s">
         <v>456</v>
       </c>
-      <c r="B54" s="233"/>
-      <c r="C54" s="233"/>
+      <c r="B54" s="232"/>
+      <c r="C54" s="232"/>
       <c r="D54" s="42"/>
       <c r="E54" s="192"/>
       <c r="F54" s="69"/>
@@ -8384,8 +8384,8 @@
       <c r="A56" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="236"/>
-      <c r="C56" s="237"/>
+      <c r="B56" s="243"/>
+      <c r="C56" s="244"/>
       <c r="F56" s="32"/>
       <c r="G56" s="32"/>
       <c r="H56" s="32"/>
@@ -9354,10 +9354,10 @@
       <c r="F124" s="10"/>
     </row>
     <row r="125" spans="1:24" s="171" customFormat="1" ht="40" customHeight="1">
-      <c r="A125" s="234" t="s">
+      <c r="A125" s="236" t="s">
         <v>689</v>
       </c>
-      <c r="B125" s="235"/>
+      <c r="B125" s="237"/>
       <c r="C125" s="59"/>
       <c r="D125" s="42"/>
       <c r="E125" s="42"/>
@@ -9438,11 +9438,11 @@
       <c r="X127" s="69"/>
     </row>
     <row r="128" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
-      <c r="A128" s="232" t="s">
+      <c r="A128" s="231" t="s">
         <v>456</v>
       </c>
-      <c r="B128" s="233"/>
-      <c r="C128" s="233"/>
+      <c r="B128" s="232"/>
+      <c r="C128" s="232"/>
       <c r="D128" s="33"/>
       <c r="E128" s="192"/>
       <c r="F128" s="69"/>
@@ -9495,8 +9495,8 @@
       <c r="A130" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="B130" s="236"/>
-      <c r="C130" s="237"/>
+      <c r="B130" s="243"/>
+      <c r="C130" s="244"/>
       <c r="D130" s="33"/>
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
@@ -9581,8 +9581,8 @@
       <c r="A136" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="B136" s="236"/>
-      <c r="C136" s="237"/>
+      <c r="B136" s="243"/>
+      <c r="C136" s="244"/>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
       <c r="H136" s="14"/>
@@ -9748,10 +9748,10 @@
       <c r="F147" s="10"/>
     </row>
     <row r="148" spans="1:24" s="61" customFormat="1" ht="40" customHeight="1">
-      <c r="A148" s="234" t="s">
+      <c r="A148" s="236" t="s">
         <v>476</v>
       </c>
-      <c r="B148" s="235"/>
+      <c r="B148" s="237"/>
       <c r="C148" s="59"/>
       <c r="D148" s="42"/>
       <c r="E148" s="42"/>
@@ -9804,11 +9804,11 @@
       <c r="X149" s="69"/>
     </row>
     <row r="150" spans="1:24" s="64" customFormat="1" ht="24" customHeight="1">
-      <c r="A150" s="232" t="s">
+      <c r="A150" s="231" t="s">
         <v>478</v>
       </c>
-      <c r="B150" s="233"/>
-      <c r="C150" s="233"/>
+      <c r="B150" s="232"/>
+      <c r="C150" s="232"/>
       <c r="D150" s="42"/>
       <c r="E150" s="192"/>
       <c r="F150" s="69"/>
@@ -9858,10 +9858,10 @@
       <c r="X151" s="97"/>
     </row>
     <row r="152" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A152" s="230" t="s">
+      <c r="A152" s="245" t="s">
         <v>479</v>
       </c>
-      <c r="B152" s="231"/>
+      <c r="B152" s="246"/>
       <c r="C152" s="107"/>
       <c r="D152" s="42"/>
       <c r="E152" s="42"/>
@@ -9945,10 +9945,10 @@
       <c r="H156" s="14"/>
     </row>
     <row r="157" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A157" s="230" t="s">
+      <c r="A157" s="245" t="s">
         <v>480</v>
       </c>
-      <c r="B157" s="231"/>
+      <c r="B157" s="246"/>
       <c r="C157" s="107"/>
       <c r="D157" s="42" t="s">
         <v>740</v>
@@ -10201,10 +10201,10 @@
       <c r="H172" s="14"/>
     </row>
     <row r="173" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A173" s="230" t="s">
+      <c r="A173" s="245" t="s">
         <v>481</v>
       </c>
-      <c r="B173" s="231"/>
+      <c r="B173" s="246"/>
       <c r="C173" s="107"/>
       <c r="D173" s="42"/>
       <c r="E173" s="42"/>
@@ -10361,10 +10361,10 @@
       <c r="H183" s="14"/>
     </row>
     <row r="184" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A184" s="230" t="s">
+      <c r="A184" s="245" t="s">
         <v>491</v>
       </c>
-      <c r="B184" s="231"/>
+      <c r="B184" s="246"/>
       <c r="C184" s="107"/>
       <c r="D184" s="42"/>
       <c r="E184" s="42"/>
@@ -10431,10 +10431,10 @@
       <c r="H187" s="14"/>
     </row>
     <row r="188" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A188" s="230" t="s">
+      <c r="A188" s="245" t="s">
         <v>492</v>
       </c>
-      <c r="B188" s="231"/>
+      <c r="B188" s="246"/>
       <c r="C188" s="107"/>
       <c r="D188" s="42"/>
       <c r="E188" s="42"/>
@@ -10534,10 +10534,10 @@
       <c r="H194" s="14"/>
     </row>
     <row r="195" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A195" s="230" t="s">
+      <c r="A195" s="245" t="s">
         <v>115</v>
       </c>
-      <c r="B195" s="231"/>
+      <c r="B195" s="246"/>
       <c r="C195" s="107"/>
       <c r="D195" s="42"/>
       <c r="E195" s="42"/>
@@ -10675,10 +10675,10 @@
       <c r="H202" s="42"/>
     </row>
     <row r="203" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A203" s="230" t="s">
+      <c r="A203" s="245" t="s">
         <v>502</v>
       </c>
-      <c r="B203" s="231"/>
+      <c r="B203" s="246"/>
       <c r="C203" s="107"/>
       <c r="D203" s="42"/>
       <c r="E203" s="42"/>
@@ -10779,10 +10779,10 @@
       <c r="F208" s="10"/>
     </row>
     <row r="209" spans="1:24" s="61" customFormat="1" ht="40" customHeight="1">
-      <c r="A209" s="234" t="s">
+      <c r="A209" s="236" t="s">
         <v>503</v>
       </c>
-      <c r="B209" s="235"/>
+      <c r="B209" s="237"/>
       <c r="C209" s="59"/>
       <c r="D209" s="42"/>
       <c r="E209" s="42"/>
@@ -10868,8 +10868,8 @@
       <c r="A212" s="238" t="s">
         <v>706</v>
       </c>
-      <c r="B212" s="233"/>
-      <c r="C212" s="233"/>
+      <c r="B212" s="232"/>
+      <c r="C212" s="232"/>
       <c r="D212" s="42"/>
       <c r="E212" s="192"/>
       <c r="F212" s="69"/>
@@ -10893,10 +10893,10 @@
       <c r="X212" s="69"/>
     </row>
     <row r="213" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A213" s="230" t="s">
+      <c r="A213" s="245" t="s">
         <v>504</v>
       </c>
-      <c r="B213" s="231"/>
+      <c r="B213" s="246"/>
       <c r="C213" s="107"/>
       <c r="D213" s="42"/>
       <c r="E213" s="42"/>
@@ -10982,10 +10982,10 @@
       <c r="H217" s="14"/>
     </row>
     <row r="218" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A218" s="230" t="s">
+      <c r="A218" s="245" t="s">
         <v>504</v>
       </c>
-      <c r="B218" s="231"/>
+      <c r="B218" s="246"/>
       <c r="C218" s="107"/>
       <c r="D218" s="42"/>
       <c r="E218" s="42"/>
@@ -11070,10 +11070,10 @@
       <c r="H222" s="14"/>
     </row>
     <row r="223" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A223" s="230" t="s">
+      <c r="A223" s="245" t="s">
         <v>504</v>
       </c>
-      <c r="B223" s="231"/>
+      <c r="B223" s="246"/>
       <c r="C223" s="107"/>
       <c r="D223" s="42"/>
       <c r="E223" s="42"/>
@@ -11153,10 +11153,10 @@
       <c r="H227" s="14"/>
     </row>
     <row r="228" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A228" s="230" t="s">
+      <c r="A228" s="245" t="s">
         <v>504</v>
       </c>
-      <c r="B228" s="231"/>
+      <c r="B228" s="246"/>
       <c r="C228" s="107"/>
       <c r="D228" s="42"/>
       <c r="E228" s="42"/>
@@ -15766,21 +15766,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="31">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A125:B125"/>
     <mergeCell ref="A213:B213"/>
     <mergeCell ref="A218:B218"/>
     <mergeCell ref="A228:B228"/>
@@ -15797,6 +15782,21 @@
     <mergeCell ref="A188:B188"/>
     <mergeCell ref="A195:B195"/>
     <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A36" location="'Move or Copy'!A1" display="Link to Move or Copy"/>
@@ -16070,7 +16070,7 @@
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -16085,7 +16085,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -16123,7 +16123,7 @@
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -16138,7 +16138,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -16213,8 +16213,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="232"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -16699,7 +16699,7 @@
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -16714,7 +16714,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -16752,7 +16752,7 @@
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -16767,7 +16767,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -16842,8 +16842,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="232"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -17207,7 +17207,7 @@
       <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:25" s="171" customFormat="1" ht="36" customHeight="1">
-      <c r="A6" s="234" t="s">
+      <c r="A6" s="236" t="s">
         <v>701</v>
       </c>
       <c r="B6" s="254"/>
@@ -17361,7 +17361,7 @@
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="180" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="14"/>
@@ -17376,7 +17376,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="180" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="13"/>
@@ -17418,7 +17418,7 @@
       <c r="B18" s="134"/>
       <c r="C18" s="135"/>
       <c r="D18" s="180" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="14"/>
@@ -17433,7 +17433,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="66"/>
       <c r="D19" s="140" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -17507,8 +17507,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="232"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -18299,7 +18299,7 @@
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="180" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -18314,7 +18314,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="180" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -18352,7 +18352,7 @@
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="180" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -18367,7 +18367,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -18442,8 +18442,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="232"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -18925,7 +18925,7 @@
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -18940,7 +18940,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -18978,7 +18978,7 @@
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -18993,7 +18993,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -19068,8 +19068,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="232"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -19551,7 +19551,7 @@
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -19566,7 +19566,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42" t="s">
@@ -19606,7 +19606,7 @@
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -19621,7 +19621,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -19696,8 +19696,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="232"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -20184,7 +20184,7 @@
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -20199,7 +20199,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -20237,7 +20237,7 @@
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -20252,7 +20252,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -20327,8 +20327,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="232"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -20813,7 +20813,7 @@
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -20828,7 +20828,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -20866,7 +20866,7 @@
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -20881,7 +20881,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -20956,8 +20956,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="232"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -21442,7 +21442,7 @@
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -21457,7 +21457,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -21495,7 +21495,7 @@
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -21510,7 +21510,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -21585,8 +21585,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="232"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -22071,7 +22071,7 @@
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -22086,7 +22086,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -22124,7 +22124,7 @@
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -22139,7 +22139,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -22214,8 +22214,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="232"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>

--- a/data/imports/mrss-export.xlsx
+++ b/data/imports/mrss-export.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24816"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22360" windowHeight="19380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22360" windowHeight="19380" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="DataEntry" sheetId="1" r:id="rId1"/>
@@ -5161,13 +5161,7 @@
     <t>Number of Academic Year 2013 Student Credit Hours</t>
   </si>
   <si>
-    <t>FTE Faculty will equal instructor credit hours taught by all full-time credit faculty in the 2013 academic year divided by 15. The 2013 academic year is the end of term counts for summer 2012, fall 2012 and spring 2013.</t>
-  </si>
-  <si>
     <t>Enter the number of student credit hours taught by full-time faculty in the 2013 academic year. This should be the number of credit hours for a course times the number of students enrolled in the course (include students who received a grade of W). For example, a 3 credit hour course with 30 enrolled students would generate 90 student credit hours. Exclude high school students taking classes taught by high school faculty in their high schools for college credit. The 2013 academic year is the end of term counts for summer 2012, fall 2012 and spring 2013.</t>
-  </si>
-  <si>
-    <t>FTE part-time credit faculty will equal instructor credit hours taught by all part-time faculty or adjuncts in the 2013 academic year divided by 15. The 2013 academic year is the end of term counts for summer 2012, fall 2012 and spring 2013.</t>
   </si>
   <si>
     <t>Enter the number of student credit hours taught by part-time faculty or adjuncts in the 2013 academic year. This should be the number of credit hours for a course times the number of students enrolled in the course (include students who received a grade of W). For example, a 3 credit hour course with 30 enrolled students would generate 90 student credit hours. Exclude high school students taking classes taught by high school faculty in their high schools for college credit. The 2013 academic year is the end of term counts for summer 2012, fall 2012 and spring 2013.</t>
@@ -5247,12 +5241,6 @@
     <t>Enter the number of student credit hours taught by full-time faculty in the academic unit in the 2013 academic year. This should be the number of credit hours for a course times the number of students enrolled in the course (include students who received a grade of W). For example, a 3 credit hour course with 30 enrolled students would generate 90 student credit hours. Exclude high school students taking classes taught by high school faculty in their high schools for college credit. The 2013 academic year is the end of term counts for summer 2012, fall 2012 and spring 2013.</t>
   </si>
   <si>
-    <t>Full-time equivalent (FTE) faculty will equal instructor credit hours taught by all full-time credit faculty in the academic unit in the 2013 academic year divided by 15. The 2013 academic year is the end of term counts for summer 2012, fall 2012 and spring 2013.</t>
-  </si>
-  <si>
-    <t>Full-time equivalent (FTE) faculty will equal instructor credit hours taught by all part-time credit faculty or adjuncts in the academic unit in the 2013 academic year divided by 15. The 2013 academic year is the end of term counts for summer 2012, fall 2012 and spring 2013.</t>
-  </si>
-  <si>
     <t>Enter the number of student credit hours taught by part-time faculty or adjuncts in the academic unit in the 2013 academic year. This should be the number of credit hours for a course times the number of students enrolled in the course (include students who received a grade of W). For example, a 3 credit hour course with 30 enrolled students would generate 90 student credit hours. Exclude high school students taking classes taught by high school faculty in their high schools for college credit. The 2013 academic year is the end of term counts for summer 2012, fall 2012 and spring 2013.</t>
   </si>
   <si>
@@ -5263,6 +5251,18 @@
   </si>
   <si>
     <t>2013 Annual Number of FTE Staff</t>
+  </si>
+  <si>
+    <t>Full-time equivalent (FTE) faculty will equal instructor credit hours taught by all part-time credit faculty or adjuncts in the academic unit in the 2013 academic year divided by 30. The 2013 academic year is the end of term counts for summer 2012, fall 2012 and spring 2013.</t>
+  </si>
+  <si>
+    <t>Full-time equivalent (FTE) faculty will equal instructor credit hours taught by all full-time credit faculty in the academic unit in the 2013 academic year divided by 30. The 2013 academic year is the end of term counts for summer 2012, fall 2012 and spring 2013.</t>
+  </si>
+  <si>
+    <t>FTE Faculty will equal instructor credit hours taught by all full-time credit faculty in the 2013 academic year divided by 30. The 2013 academic year is the end of term counts for summer 2012, fall 2012 and spring 2013.</t>
+  </si>
+  <si>
+    <t>FTE part-time credit faculty will equal instructor credit hours taught by all part-time faculty or adjuncts in the 2013 academic year divided by 30. The 2013 academic year is the end of term counts for summer 2012, fall 2012 and spring 2013.</t>
   </si>
 </sst>
 </file>
@@ -6362,28 +6362,26 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -6399,16 +6397,18 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="15"/>
     </xf>
@@ -7342,8 +7342,8 @@
   </sheetPr>
   <dimension ref="A1:X509"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView showGridLines="0" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="B253" sqref="B253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7359,11 +7359,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="9" customFormat="1" ht="66.5" customHeight="1">
-      <c r="A1" s="230" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
+      <c r="A1" s="243" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
       <c r="D1" s="42"/>
       <c r="E1" s="42"/>
       <c r="F1" s="10"/>
@@ -7396,21 +7396,21 @@
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="11" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="245" t="s">
         <v>521</v>
       </c>
-      <c r="B4" s="235"/>
-      <c r="C4" s="235"/>
+      <c r="B4" s="246"/>
+      <c r="C4" s="246"/>
       <c r="D4" s="190"/>
       <c r="E4" s="190"/>
       <c r="F4" s="10"/>
     </row>
     <row r="6" spans="1:24" ht="48.75" customHeight="1">
-      <c r="A6" s="233" t="s">
+      <c r="A6" s="244" t="s">
         <v>522</v>
       </c>
-      <c r="B6" s="233"/>
-      <c r="C6" s="233"/>
+      <c r="B6" s="244"/>
+      <c r="C6" s="244"/>
       <c r="D6" s="191"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
@@ -7441,11 +7441,11 @@
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:24" s="171" customFormat="1" ht="40" customHeight="1">
-      <c r="A8" s="236" t="s">
+      <c r="A8" s="234" t="s">
         <v>685</v>
       </c>
-      <c r="B8" s="237"/>
-      <c r="C8" s="237"/>
+      <c r="B8" s="235"/>
+      <c r="C8" s="235"/>
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
       <c r="F8" s="18"/>
@@ -7470,7 +7470,7 @@
     </row>
     <row r="9" spans="1:24" s="64" customFormat="1" ht="24" customHeight="1">
       <c r="A9" s="176" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B9" s="71"/>
       <c r="C9" s="70"/>
@@ -7553,11 +7553,11 @@
       <c r="X11" s="69"/>
     </row>
     <row r="12" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="231" t="s">
+      <c r="A12" s="232" t="s">
         <v>456</v>
       </c>
-      <c r="B12" s="232"/>
-      <c r="C12" s="232"/>
+      <c r="B12" s="233"/>
+      <c r="C12" s="233"/>
       <c r="D12" s="192"/>
       <c r="E12" s="192"/>
       <c r="F12" s="69"/>
@@ -7645,7 +7645,7 @@
     </row>
     <row r="16" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="75" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B16" s="80"/>
       <c r="C16" s="48" t="s">
@@ -7660,11 +7660,11 @@
     </row>
     <row r="17" spans="1:24" ht="39" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B17" s="81"/>
       <c r="C17" s="48" t="s">
-        <v>983</v>
+        <v>1003</v>
       </c>
       <c r="D17" s="192" t="s">
         <v>533</v>
@@ -7679,7 +7679,7 @@
       </c>
       <c r="B18" s="81"/>
       <c r="C18" s="48" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D18" s="192" t="s">
         <v>534</v>
@@ -7698,7 +7698,7 @@
     </row>
     <row r="20" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A20" s="75" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B20" s="80"/>
       <c r="C20" s="49" t="s">
@@ -7713,11 +7713,11 @@
     </row>
     <row r="21" spans="1:24" ht="52.5" customHeight="1" thickBot="1">
       <c r="A21" s="229" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B21" s="81"/>
       <c r="C21" s="49" t="s">
-        <v>985</v>
+        <v>1004</v>
       </c>
       <c r="D21" s="34" t="s">
         <v>536</v>
@@ -7732,7 +7732,7 @@
       </c>
       <c r="B22" s="81"/>
       <c r="C22" s="49" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D22" s="42" t="s">
         <v>537</v>
@@ -7771,7 +7771,7 @@
     </row>
     <row r="24" spans="1:24" ht="49" thickBot="1">
       <c r="A24" s="75" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B24" s="80"/>
       <c r="C24" s="227" t="s">
@@ -7786,11 +7786,11 @@
     </row>
     <row r="25" spans="1:24" ht="47.25" customHeight="1" thickBot="1">
       <c r="A25" s="75" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="B25" s="81"/>
       <c r="C25" s="65" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="D25" s="42" t="s">
         <v>724</v>
@@ -7829,7 +7829,7 @@
     </row>
     <row r="27" spans="1:24" ht="48" customHeight="1" thickBot="1">
       <c r="A27" s="75" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B27" s="80"/>
       <c r="C27" s="49" t="s">
@@ -7844,11 +7844,11 @@
     </row>
     <row r="28" spans="1:24" ht="46.5" customHeight="1" thickBot="1">
       <c r="A28" s="75" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="B28" s="81"/>
       <c r="C28" s="49" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="D28" s="42" t="s">
         <v>539</v>
@@ -7859,7 +7859,7 @@
     </row>
     <row r="29" spans="1:24" ht="49.5" customHeight="1" thickBot="1">
       <c r="A29" s="78" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B29" s="80"/>
       <c r="C29" s="48" t="s">
@@ -7881,11 +7881,11 @@
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:24" ht="40" customHeight="1">
-      <c r="A31" s="236" t="s">
+      <c r="A31" s="234" t="s">
         <v>457</v>
       </c>
-      <c r="B31" s="237"/>
-      <c r="C31" s="237"/>
+      <c r="B31" s="235"/>
+      <c r="C31" s="235"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
@@ -7908,7 +7908,7 @@
     </row>
     <row r="32" spans="1:24" s="64" customFormat="1" ht="24" customHeight="1">
       <c r="A32" s="176" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B32" s="71"/>
       <c r="C32" s="70"/>
@@ -8217,10 +8217,10 @@
       <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:24" ht="40" customHeight="1">
-      <c r="A50" s="236" t="s">
+      <c r="A50" s="234" t="s">
         <v>470</v>
       </c>
-      <c r="B50" s="237"/>
+      <c r="B50" s="235"/>
       <c r="C50" s="59"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
@@ -8327,11 +8327,11 @@
       <c r="X53" s="69"/>
     </row>
     <row r="54" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
-      <c r="A54" s="231" t="s">
+      <c r="A54" s="232" t="s">
         <v>456</v>
       </c>
-      <c r="B54" s="232"/>
-      <c r="C54" s="232"/>
+      <c r="B54" s="233"/>
+      <c r="C54" s="233"/>
       <c r="D54" s="42"/>
       <c r="E54" s="192"/>
       <c r="F54" s="69"/>
@@ -8384,8 +8384,8 @@
       <c r="A56" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="243"/>
-      <c r="C56" s="244"/>
+      <c r="B56" s="236"/>
+      <c r="C56" s="237"/>
       <c r="F56" s="32"/>
       <c r="G56" s="32"/>
       <c r="H56" s="32"/>
@@ -9354,10 +9354,10 @@
       <c r="F124" s="10"/>
     </row>
     <row r="125" spans="1:24" s="171" customFormat="1" ht="40" customHeight="1">
-      <c r="A125" s="236" t="s">
+      <c r="A125" s="234" t="s">
         <v>689</v>
       </c>
-      <c r="B125" s="237"/>
+      <c r="B125" s="235"/>
       <c r="C125" s="59"/>
       <c r="D125" s="42"/>
       <c r="E125" s="42"/>
@@ -9438,11 +9438,11 @@
       <c r="X127" s="69"/>
     </row>
     <row r="128" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
-      <c r="A128" s="231" t="s">
+      <c r="A128" s="232" t="s">
         <v>456</v>
       </c>
-      <c r="B128" s="232"/>
-      <c r="C128" s="232"/>
+      <c r="B128" s="233"/>
+      <c r="C128" s="233"/>
       <c r="D128" s="33"/>
       <c r="E128" s="192"/>
       <c r="F128" s="69"/>
@@ -9495,8 +9495,8 @@
       <c r="A130" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="B130" s="243"/>
-      <c r="C130" s="244"/>
+      <c r="B130" s="236"/>
+      <c r="C130" s="237"/>
       <c r="D130" s="33"/>
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
@@ -9581,8 +9581,8 @@
       <c r="A136" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="B136" s="243"/>
-      <c r="C136" s="244"/>
+      <c r="B136" s="236"/>
+      <c r="C136" s="237"/>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
       <c r="H136" s="14"/>
@@ -9748,10 +9748,10 @@
       <c r="F147" s="10"/>
     </row>
     <row r="148" spans="1:24" s="61" customFormat="1" ht="40" customHeight="1">
-      <c r="A148" s="236" t="s">
+      <c r="A148" s="234" t="s">
         <v>476</v>
       </c>
-      <c r="B148" s="237"/>
+      <c r="B148" s="235"/>
       <c r="C148" s="59"/>
       <c r="D148" s="42"/>
       <c r="E148" s="42"/>
@@ -9804,11 +9804,11 @@
       <c r="X149" s="69"/>
     </row>
     <row r="150" spans="1:24" s="64" customFormat="1" ht="24" customHeight="1">
-      <c r="A150" s="231" t="s">
+      <c r="A150" s="232" t="s">
         <v>478</v>
       </c>
-      <c r="B150" s="232"/>
-      <c r="C150" s="232"/>
+      <c r="B150" s="233"/>
+      <c r="C150" s="233"/>
       <c r="D150" s="42"/>
       <c r="E150" s="192"/>
       <c r="F150" s="69"/>
@@ -9858,10 +9858,10 @@
       <c r="X151" s="97"/>
     </row>
     <row r="152" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A152" s="245" t="s">
+      <c r="A152" s="230" t="s">
         <v>479</v>
       </c>
-      <c r="B152" s="246"/>
+      <c r="B152" s="231"/>
       <c r="C152" s="107"/>
       <c r="D152" s="42"/>
       <c r="E152" s="42"/>
@@ -9945,10 +9945,10 @@
       <c r="H156" s="14"/>
     </row>
     <row r="157" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A157" s="245" t="s">
+      <c r="A157" s="230" t="s">
         <v>480</v>
       </c>
-      <c r="B157" s="246"/>
+      <c r="B157" s="231"/>
       <c r="C157" s="107"/>
       <c r="D157" s="42" t="s">
         <v>740</v>
@@ -10201,10 +10201,10 @@
       <c r="H172" s="14"/>
     </row>
     <row r="173" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A173" s="245" t="s">
+      <c r="A173" s="230" t="s">
         <v>481</v>
       </c>
-      <c r="B173" s="246"/>
+      <c r="B173" s="231"/>
       <c r="C173" s="107"/>
       <c r="D173" s="42"/>
       <c r="E173" s="42"/>
@@ -10361,10 +10361,10 @@
       <c r="H183" s="14"/>
     </row>
     <row r="184" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A184" s="245" t="s">
+      <c r="A184" s="230" t="s">
         <v>491</v>
       </c>
-      <c r="B184" s="246"/>
+      <c r="B184" s="231"/>
       <c r="C184" s="107"/>
       <c r="D184" s="42"/>
       <c r="E184" s="42"/>
@@ -10431,10 +10431,10 @@
       <c r="H187" s="14"/>
     </row>
     <row r="188" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A188" s="245" t="s">
+      <c r="A188" s="230" t="s">
         <v>492</v>
       </c>
-      <c r="B188" s="246"/>
+      <c r="B188" s="231"/>
       <c r="C188" s="107"/>
       <c r="D188" s="42"/>
       <c r="E188" s="42"/>
@@ -10534,10 +10534,10 @@
       <c r="H194" s="14"/>
     </row>
     <row r="195" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A195" s="245" t="s">
+      <c r="A195" s="230" t="s">
         <v>115</v>
       </c>
-      <c r="B195" s="246"/>
+      <c r="B195" s="231"/>
       <c r="C195" s="107"/>
       <c r="D195" s="42"/>
       <c r="E195" s="42"/>
@@ -10675,10 +10675,10 @@
       <c r="H202" s="42"/>
     </row>
     <row r="203" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A203" s="245" t="s">
+      <c r="A203" s="230" t="s">
         <v>502</v>
       </c>
-      <c r="B203" s="246"/>
+      <c r="B203" s="231"/>
       <c r="C203" s="107"/>
       <c r="D203" s="42"/>
       <c r="E203" s="42"/>
@@ -10779,10 +10779,10 @@
       <c r="F208" s="10"/>
     </row>
     <row r="209" spans="1:24" s="61" customFormat="1" ht="40" customHeight="1">
-      <c r="A209" s="236" t="s">
+      <c r="A209" s="234" t="s">
         <v>503</v>
       </c>
-      <c r="B209" s="237"/>
+      <c r="B209" s="235"/>
       <c r="C209" s="59"/>
       <c r="D209" s="42"/>
       <c r="E209" s="42"/>
@@ -10868,8 +10868,8 @@
       <c r="A212" s="238" t="s">
         <v>706</v>
       </c>
-      <c r="B212" s="232"/>
-      <c r="C212" s="232"/>
+      <c r="B212" s="233"/>
+      <c r="C212" s="233"/>
       <c r="D212" s="42"/>
       <c r="E212" s="192"/>
       <c r="F212" s="69"/>
@@ -10893,10 +10893,10 @@
       <c r="X212" s="69"/>
     </row>
     <row r="213" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A213" s="245" t="s">
+      <c r="A213" s="230" t="s">
         <v>504</v>
       </c>
-      <c r="B213" s="246"/>
+      <c r="B213" s="231"/>
       <c r="C213" s="107"/>
       <c r="D213" s="42"/>
       <c r="E213" s="42"/>
@@ -10982,10 +10982,10 @@
       <c r="H217" s="14"/>
     </row>
     <row r="218" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A218" s="245" t="s">
+      <c r="A218" s="230" t="s">
         <v>504</v>
       </c>
-      <c r="B218" s="246"/>
+      <c r="B218" s="231"/>
       <c r="C218" s="107"/>
       <c r="D218" s="42"/>
       <c r="E218" s="42"/>
@@ -11070,10 +11070,10 @@
       <c r="H222" s="14"/>
     </row>
     <row r="223" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A223" s="245" t="s">
+      <c r="A223" s="230" t="s">
         <v>504</v>
       </c>
-      <c r="B223" s="246"/>
+      <c r="B223" s="231"/>
       <c r="C223" s="107"/>
       <c r="D223" s="42"/>
       <c r="E223" s="42"/>
@@ -11153,10 +11153,10 @@
       <c r="H227" s="14"/>
     </row>
     <row r="228" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A228" s="245" t="s">
+      <c r="A228" s="230" t="s">
         <v>504</v>
       </c>
-      <c r="B228" s="246"/>
+      <c r="B228" s="231"/>
       <c r="C228" s="107"/>
       <c r="D228" s="42"/>
       <c r="E228" s="42"/>
@@ -15766,6 +15766,21 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="31">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A125:B125"/>
     <mergeCell ref="A213:B213"/>
     <mergeCell ref="A218:B218"/>
     <mergeCell ref="A228:B228"/>
@@ -15782,21 +15797,6 @@
     <mergeCell ref="A188:B188"/>
     <mergeCell ref="A195:B195"/>
     <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A36" location="'Move or Copy'!A1" display="Link to Move or Copy"/>
@@ -15837,7 +15837,7 @@
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -15947,7 +15947,7 @@
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
       <c r="A7" s="260" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B7" s="259"/>
       <c r="C7" s="93"/>
@@ -16050,12 +16050,12 @@
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="136"/>
       <c r="D13" s="140" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -16065,12 +16065,12 @@
     </row>
     <row r="14" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A14" s="75" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -16085,7 +16085,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -16103,12 +16103,12 @@
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="137"/>
       <c r="D17" s="140" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -16118,12 +16118,12 @@
     </row>
     <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -16138,7 +16138,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -16213,8 +16213,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="232"/>
-      <c r="C23" s="232"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -16465,8 +16465,8 @@
   </sheetPr>
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -16576,7 +16576,7 @@
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
       <c r="A7" s="260" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B7" s="259"/>
       <c r="C7" s="93"/>
@@ -16632,7 +16632,7 @@
     </row>
     <row r="9" spans="1:25" s="130" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="131" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B9" s="127"/>
       <c r="C9" s="127"/>
@@ -16679,12 +16679,12 @@
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="136"/>
       <c r="D13" s="140" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -16699,7 +16699,7 @@
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -16714,7 +16714,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -16732,12 +16732,12 @@
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="137"/>
       <c r="D17" s="140" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -16752,7 +16752,7 @@
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -16767,7 +16767,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -16842,8 +16842,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="232"/>
-      <c r="C23" s="232"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -17119,8 +17119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y496"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -17207,7 +17207,7 @@
       <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:25" s="171" customFormat="1" ht="36" customHeight="1">
-      <c r="A6" s="236" t="s">
+      <c r="A6" s="234" t="s">
         <v>701</v>
       </c>
       <c r="B6" s="254"/>
@@ -17236,7 +17236,7 @@
     </row>
     <row r="7" spans="1:25" s="62" customFormat="1" ht="23.25" customHeight="1">
       <c r="A7" s="260" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B7" s="259"/>
       <c r="C7" s="93"/>
@@ -17341,12 +17341,12 @@
     </row>
     <row r="13" spans="1:25" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="136"/>
       <c r="D13" s="140" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="14"/>
@@ -17356,12 +17356,12 @@
     </row>
     <row r="14" spans="1:25" s="1" customFormat="1" ht="48" customHeight="1" thickBot="1">
       <c r="A14" s="75" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="180" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="14"/>
@@ -17376,7 +17376,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="180" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="13"/>
@@ -17398,12 +17398,12 @@
     </row>
     <row r="17" spans="1:24" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="137"/>
       <c r="D17" s="140" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="14"/>
@@ -17413,12 +17413,12 @@
     </row>
     <row r="18" spans="1:24" s="1" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
       <c r="A18" s="75" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="135"/>
       <c r="D18" s="180" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="14"/>
@@ -17433,7 +17433,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="66"/>
       <c r="D19" s="140" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -17507,8 +17507,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="232"/>
-      <c r="C23" s="232"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -18066,7 +18066,7 @@
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -18176,7 +18176,7 @@
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
       <c r="A7" s="260" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B7" s="259"/>
       <c r="C7" s="93"/>
@@ -18279,12 +18279,12 @@
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="136"/>
       <c r="D13" s="140" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -18294,12 +18294,12 @@
     </row>
     <row r="14" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A14" s="76" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="180" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -18314,7 +18314,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="180" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -18332,12 +18332,12 @@
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="137"/>
       <c r="D17" s="140" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -18347,12 +18347,12 @@
     </row>
     <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="180" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -18367,7 +18367,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -18442,8 +18442,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="232"/>
-      <c r="C23" s="232"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -18692,7 +18692,7 @@
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -18802,7 +18802,7 @@
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
       <c r="A7" s="260" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B7" s="259"/>
       <c r="C7" s="93"/>
@@ -18905,12 +18905,12 @@
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="136"/>
       <c r="D13" s="140" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -18920,12 +18920,12 @@
     </row>
     <row r="14" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A14" s="76" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -18940,7 +18940,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -18958,12 +18958,12 @@
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="137"/>
       <c r="D17" s="140" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -18973,12 +18973,12 @@
     </row>
     <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -18993,7 +18993,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -19068,8 +19068,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="232"/>
-      <c r="C23" s="232"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -19318,7 +19318,7 @@
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -19428,7 +19428,7 @@
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
       <c r="A7" s="260" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B7" s="259"/>
       <c r="C7" s="93"/>
@@ -19531,12 +19531,12 @@
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="136"/>
       <c r="D13" s="140" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -19546,12 +19546,12 @@
     </row>
     <row r="14" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A14" s="76" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -19566,7 +19566,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42" t="s">
@@ -19586,12 +19586,12 @@
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="137"/>
       <c r="D17" s="140" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -19601,12 +19601,12 @@
     </row>
     <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -19621,7 +19621,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -19696,8 +19696,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="232"/>
-      <c r="C23" s="232"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -19949,7 +19949,7 @@
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -20059,7 +20059,7 @@
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
       <c r="A7" s="260" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B7" s="259"/>
       <c r="C7" s="93"/>
@@ -20164,12 +20164,12 @@
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="136"/>
       <c r="D13" s="140" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -20179,12 +20179,12 @@
     </row>
     <row r="14" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A14" s="76" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -20199,7 +20199,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -20217,12 +20217,12 @@
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="137"/>
       <c r="D17" s="140" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -20232,12 +20232,12 @@
     </row>
     <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -20252,7 +20252,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -20327,8 +20327,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="232"/>
-      <c r="C23" s="232"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -20580,7 +20580,7 @@
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -20690,7 +20690,7 @@
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
       <c r="A7" s="260" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B7" s="259"/>
       <c r="C7" s="93"/>
@@ -20793,12 +20793,12 @@
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="136"/>
       <c r="D13" s="140" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -20808,12 +20808,12 @@
     </row>
     <row r="14" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A14" s="76" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -20828,7 +20828,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -20846,12 +20846,12 @@
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="137"/>
       <c r="D17" s="140" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -20861,12 +20861,12 @@
     </row>
     <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -20881,7 +20881,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -20956,8 +20956,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="232"/>
-      <c r="C23" s="232"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -21209,7 +21209,7 @@
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -21319,7 +21319,7 @@
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
       <c r="A7" s="260" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B7" s="259"/>
       <c r="C7" s="93"/>
@@ -21375,7 +21375,7 @@
     </row>
     <row r="9" spans="1:25" s="130" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="131" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B9" s="127"/>
       <c r="C9" s="127"/>
@@ -21422,12 +21422,12 @@
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="136"/>
       <c r="D13" s="140" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -21437,12 +21437,12 @@
     </row>
     <row r="14" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A14" s="76" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -21457,7 +21457,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -21475,12 +21475,12 @@
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="137"/>
       <c r="D17" s="140" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -21490,12 +21490,12 @@
     </row>
     <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -21510,7 +21510,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -21585,8 +21585,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="232"/>
-      <c r="C23" s="232"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -21838,7 +21838,7 @@
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -21948,7 +21948,7 @@
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
       <c r="A7" s="260" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B7" s="259"/>
       <c r="C7" s="93"/>
@@ -22004,7 +22004,7 @@
     </row>
     <row r="9" spans="1:25" s="130" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="131" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B9" s="127"/>
       <c r="C9" s="127"/>
@@ -22051,12 +22051,12 @@
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="136"/>
       <c r="D13" s="140" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -22066,12 +22066,12 @@
     </row>
     <row r="14" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A14" s="76" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -22086,7 +22086,7 @@
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -22104,12 +22104,12 @@
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="137"/>
       <c r="D17" s="140" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -22119,12 +22119,12 @@
     </row>
     <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -22139,7 +22139,7 @@
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -22214,8 +22214,8 @@
       <c r="A23" s="256" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="232"/>
-      <c r="C23" s="232"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>

--- a/data/imports/mrss-export.xlsx
+++ b/data/imports/mrss-export.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="1003">
   <si>
     <t>Maximizing Resources for Student Success</t>
   </si>
@@ -3241,9 +3241,6 @@
     <t>Faculty Categories</t>
   </si>
   <si>
-    <t>Number of FTE Faculty</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -3687,9 +3684,6 @@
   </si>
   <si>
     <t xml:space="preserve">Academic Unit Name  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Student Credit Hours </t>
   </si>
   <si>
     <t>Enter whole numbers without commas or decimals.</t>
@@ -5270,12 +5264,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="165" formatCode="0\%"/>
-    <numFmt numFmtId="166" formatCode="0.00\%\ "/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="0\%"/>
+    <numFmt numFmtId="168" formatCode="0.00\%\ "/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="57" x14ac:knownFonts="1">
     <font>
@@ -5819,13 +5813,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="266">
+  <cellXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5933,10 +5928,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -5991,10 +5986,10 @@
     <xf numFmtId="0" fontId="31" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6067,19 +6062,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6106,7 +6101,7 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -6132,10 +6127,10 @@
     <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6172,7 +6167,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6181,7 +6176,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6251,7 +6246,7 @@
     </xf>
     <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="42" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6270,7 +6265,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="55" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6344,7 +6339,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="24" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6362,26 +6357,32 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -6397,18 +6398,16 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="15"/>
     </xf>
@@ -6449,8 +6448,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
@@ -6589,6 +6589,50 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="374650" y="25400"/>
+          <a:ext cx="531970" cy="832974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>906620</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>20174</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7359,11 +7403,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="9" customFormat="1" ht="66.5" customHeight="1">
-      <c r="A1" s="243" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
+      <c r="A1" s="234" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
       <c r="D1" s="42"/>
       <c r="E1" s="42"/>
       <c r="F1" s="10"/>
@@ -7383,11 +7427,11 @@
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:24" s="9" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A3" s="239" t="s">
-        <v>530</v>
-      </c>
-      <c r="B3" s="239"/>
-      <c r="C3" s="239"/>
+      <c r="A3" s="243" t="s">
+        <v>528</v>
+      </c>
+      <c r="B3" s="243"/>
+      <c r="C3" s="243"/>
       <c r="D3" s="190"/>
       <c r="E3" s="190"/>
       <c r="F3" s="10"/>
@@ -7396,21 +7440,21 @@
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="11" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A4" s="245" t="s">
-        <v>521</v>
-      </c>
-      <c r="B4" s="246"/>
-      <c r="C4" s="246"/>
+      <c r="A4" s="238" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4" s="239"/>
+      <c r="C4" s="239"/>
       <c r="D4" s="190"/>
       <c r="E4" s="190"/>
       <c r="F4" s="10"/>
     </row>
     <row r="6" spans="1:24" ht="48.75" customHeight="1">
-      <c r="A6" s="244" t="s">
-        <v>522</v>
-      </c>
-      <c r="B6" s="244"/>
-      <c r="C6" s="244"/>
+      <c r="A6" s="237" t="s">
+        <v>520</v>
+      </c>
+      <c r="B6" s="237"/>
+      <c r="C6" s="237"/>
       <c r="D6" s="191"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
@@ -7441,11 +7485,11 @@
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:24" s="171" customFormat="1" ht="40" customHeight="1">
-      <c r="A8" s="234" t="s">
-        <v>685</v>
-      </c>
-      <c r="B8" s="235"/>
-      <c r="C8" s="235"/>
+      <c r="A8" s="240" t="s">
+        <v>683</v>
+      </c>
+      <c r="B8" s="241"/>
+      <c r="C8" s="241"/>
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
       <c r="F8" s="18"/>
@@ -7470,7 +7514,7 @@
     </row>
     <row r="9" spans="1:24" s="64" customFormat="1" ht="24" customHeight="1">
       <c r="A9" s="176" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B9" s="71"/>
       <c r="C9" s="70"/>
@@ -7498,7 +7542,7 @@
     </row>
     <row r="10" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="91" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B10" s="89"/>
       <c r="C10" s="90"/>
@@ -7526,7 +7570,7 @@
     </row>
     <row r="11" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="91" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B11" s="89"/>
       <c r="C11" s="90"/>
@@ -7553,11 +7597,11 @@
       <c r="X11" s="69"/>
     </row>
     <row r="12" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="232" t="s">
-        <v>456</v>
-      </c>
-      <c r="B12" s="233"/>
-      <c r="C12" s="233"/>
+      <c r="A12" s="235" t="s">
+        <v>455</v>
+      </c>
+      <c r="B12" s="236"/>
+      <c r="C12" s="236"/>
       <c r="D12" s="192"/>
       <c r="E12" s="192"/>
       <c r="F12" s="69"/>
@@ -7636,7 +7680,7 @@
     </row>
     <row r="15" spans="1:24" s="60" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A15" s="74" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B15" s="83"/>
       <c r="C15" s="84"/>
@@ -7645,14 +7689,14 @@
     </row>
     <row r="16" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="75" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B16" s="80"/>
       <c r="C16" s="48" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D16" s="192" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -7660,14 +7704,14 @@
     </row>
     <row r="17" spans="1:24" ht="39" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B17" s="81"/>
       <c r="C17" s="48" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D17" s="192" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -7675,14 +7719,14 @@
     </row>
     <row r="18" spans="1:24" ht="103.5" customHeight="1" thickBot="1">
       <c r="A18" s="228" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B18" s="81"/>
       <c r="C18" s="48" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="D18" s="192" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -7690,7 +7734,7 @@
     </row>
     <row r="19" spans="1:24" ht="18" customHeight="1" thickBot="1">
       <c r="A19" s="74" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B19" s="85"/>
       <c r="C19" s="86"/>
@@ -7698,14 +7742,14 @@
     </row>
     <row r="20" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A20" s="75" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B20" s="80"/>
       <c r="C20" s="49" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -7713,14 +7757,14 @@
     </row>
     <row r="21" spans="1:24" ht="52.5" customHeight="1" thickBot="1">
       <c r="A21" s="229" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B21" s="81"/>
       <c r="C21" s="49" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
@@ -7728,14 +7772,14 @@
     </row>
     <row r="22" spans="1:24" ht="104.25" customHeight="1" thickBot="1">
       <c r="A22" s="228" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B22" s="81"/>
       <c r="C22" s="49" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
@@ -7743,7 +7787,7 @@
     </row>
     <row r="23" spans="1:24" s="60" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A23" s="77" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B23" s="87"/>
       <c r="C23" s="88"/>
@@ -7771,14 +7815,14 @@
     </row>
     <row r="24" spans="1:24" ht="49" thickBot="1">
       <c r="A24" s="75" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B24" s="80"/>
       <c r="C24" s="227" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -7786,14 +7830,14 @@
     </row>
     <row r="25" spans="1:24" ht="47.25" customHeight="1" thickBot="1">
       <c r="A25" s="75" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B25" s="81"/>
       <c r="C25" s="65" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -7801,7 +7845,7 @@
     </row>
     <row r="26" spans="1:24" s="60" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A26" s="77" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B26" s="87"/>
       <c r="C26" s="88"/>
@@ -7829,14 +7873,14 @@
     </row>
     <row r="27" spans="1:24" ht="48" customHeight="1" thickBot="1">
       <c r="A27" s="75" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B27" s="80"/>
       <c r="C27" s="49" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -7844,14 +7888,14 @@
     </row>
     <row r="28" spans="1:24" ht="46.5" customHeight="1" thickBot="1">
       <c r="A28" s="75" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B28" s="81"/>
       <c r="C28" s="49" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
@@ -7859,14 +7903,14 @@
     </row>
     <row r="29" spans="1:24" ht="49.5" customHeight="1" thickBot="1">
       <c r="A29" s="78" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B29" s="80"/>
       <c r="C29" s="48" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
@@ -7881,11 +7925,11 @@
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:24" ht="40" customHeight="1">
-      <c r="A31" s="234" t="s">
-        <v>457</v>
-      </c>
-      <c r="B31" s="235"/>
-      <c r="C31" s="235"/>
+      <c r="A31" s="240" t="s">
+        <v>456</v>
+      </c>
+      <c r="B31" s="241"/>
+      <c r="C31" s="241"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
@@ -7908,7 +7952,7 @@
     </row>
     <row r="32" spans="1:24" s="64" customFormat="1" ht="24" customHeight="1">
       <c r="A32" s="176" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B32" s="71"/>
       <c r="C32" s="70"/>
@@ -7936,7 +7980,7 @@
     </row>
     <row r="33" spans="1:24" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="143" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B33" s="93"/>
       <c r="C33" s="93"/>
@@ -7964,7 +8008,7 @@
     </row>
     <row r="34" spans="1:24" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A34" s="92" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B34" s="93"/>
       <c r="C34" s="93"/>
@@ -7991,11 +8035,11 @@
       <c r="X34" s="18"/>
     </row>
     <row r="35" spans="1:24" ht="43.5" customHeight="1">
-      <c r="A35" s="242" t="s">
-        <v>459</v>
-      </c>
-      <c r="B35" s="242"/>
-      <c r="C35" s="242"/>
+      <c r="A35" s="246" t="s">
+        <v>458</v>
+      </c>
+      <c r="B35" s="246"/>
+      <c r="C35" s="246"/>
       <c r="D35" s="189"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
@@ -8043,11 +8087,11 @@
       <c r="V36" s="3"/>
     </row>
     <row r="37" spans="1:24" ht="48.75" customHeight="1">
-      <c r="A37" s="240" t="s">
+      <c r="A37" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="241"/>
-      <c r="C37" s="241"/>
+      <c r="B37" s="245"/>
+      <c r="C37" s="245"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -8068,7 +8112,7 @@
     </row>
     <row r="38" spans="1:24" ht="18" customHeight="1">
       <c r="A38" s="94" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B38" s="165" t="str">
         <f>HYPERLINK("#Form2a!A10", IF(Form2a!A10 &gt; 0, Form2a!A10, "Add Academic Unit"))</f>
@@ -8082,7 +8126,7 @@
     </row>
     <row r="39" spans="1:24" ht="18" customHeight="1">
       <c r="A39" s="94" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B39" s="165" t="str">
         <f>HYPERLINK("#Form2b!A10", IF(Form2b!A10 &gt; 0, Form2b!A10, "Add Academic Unit"))</f>
@@ -8095,7 +8139,7 @@
     </row>
     <row r="40" spans="1:24" ht="18" customHeight="1">
       <c r="A40" s="94" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B40" s="165" t="str">
         <f>HYPERLINK("#Form2c!A10", IF(Form2c!A10 &gt; 0, Form2c!A10, "Add Academic Unit"))</f>
@@ -8108,7 +8152,7 @@
     </row>
     <row r="41" spans="1:24" ht="18" customHeight="1">
       <c r="A41" s="94" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B41" s="165" t="str">
         <f>HYPERLINK("#Form2d!A10", IF(Form2d!A10 &gt; 0, Form2d!A10, "Add Academic Unit"))</f>
@@ -8121,7 +8165,7 @@
     </row>
     <row r="42" spans="1:24" ht="18" customHeight="1">
       <c r="A42" s="94" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B42" s="165" t="str">
         <f>HYPERLINK("#Form2e!A10", IF(Form2e!A10 &gt; 0, Form2e!A10, "Add Academic Unit"))</f>
@@ -8134,7 +8178,7 @@
     </row>
     <row r="43" spans="1:24" ht="18" customHeight="1">
       <c r="A43" s="94" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B43" s="165" t="str">
         <f>HYPERLINK("#Form2f!A10", IF(Form2f!A10 &gt; 0, Form2f!A10, "Add Academic Unit"))</f>
@@ -8148,7 +8192,7 @@
     </row>
     <row r="44" spans="1:24" ht="18" customHeight="1">
       <c r="A44" s="94" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B44" s="165" t="str">
         <f>HYPERLINK("#Form2g!A10", IF(Form2g!A10 &gt; 0, Form2g!A10, "Add Academic Unit"))</f>
@@ -8161,7 +8205,7 @@
     </row>
     <row r="45" spans="1:24" ht="18" customHeight="1">
       <c r="A45" s="94" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B45" s="165" t="str">
         <f>HYPERLINK("#Form2h!A10", IF(Form2h!A10 &gt; 0, Form2h!A10, "Add Academic Unit"))</f>
@@ -8174,7 +8218,7 @@
     </row>
     <row r="46" spans="1:24" ht="18" customHeight="1">
       <c r="A46" s="94" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B46" s="165" t="str">
         <f>HYPERLINK("#Form2i!A10", IF(Form2i!A10 &gt; 0, Form2i!A10, "Add Academic Unit"))</f>
@@ -8187,7 +8231,7 @@
     </row>
     <row r="47" spans="1:24" ht="18" customHeight="1">
       <c r="A47" s="94" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B47" s="165" t="str">
         <f>HYPERLINK("#Form2j!A10", IF(Form2j!A10 &gt; 0, Form2j!A10, "Add Academic Unit"))</f>
@@ -8217,10 +8261,10 @@
       <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:24" ht="40" customHeight="1">
-      <c r="A50" s="234" t="s">
-        <v>470</v>
-      </c>
-      <c r="B50" s="235"/>
+      <c r="A50" s="240" t="s">
+        <v>469</v>
+      </c>
+      <c r="B50" s="241"/>
       <c r="C50" s="59"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
@@ -8272,7 +8316,7 @@
     </row>
     <row r="52" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
       <c r="A52" s="91" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B52" s="89"/>
       <c r="C52" s="90"/>
@@ -8300,7 +8344,7 @@
     </row>
     <row r="53" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
       <c r="A53" s="91" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B53" s="89"/>
       <c r="C53" s="90"/>
@@ -8327,11 +8371,11 @@
       <c r="X53" s="69"/>
     </row>
     <row r="54" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
-      <c r="A54" s="232" t="s">
-        <v>456</v>
-      </c>
-      <c r="B54" s="233"/>
-      <c r="C54" s="233"/>
+      <c r="A54" s="235" t="s">
+        <v>455</v>
+      </c>
+      <c r="B54" s="236"/>
+      <c r="C54" s="236"/>
       <c r="D54" s="42"/>
       <c r="E54" s="192"/>
       <c r="F54" s="69"/>
@@ -8384,8 +8428,8 @@
       <c r="A56" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="236"/>
-      <c r="C56" s="237"/>
+      <c r="B56" s="247"/>
+      <c r="C56" s="248"/>
       <c r="F56" s="32"/>
       <c r="G56" s="32"/>
       <c r="H56" s="32"/>
@@ -8400,7 +8444,7 @@
         <v>7</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
@@ -8415,7 +8459,7 @@
         <v>8</v>
       </c>
       <c r="D58" s="42" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
@@ -8423,14 +8467,14 @@
     </row>
     <row r="59" spans="1:24" ht="36" customHeight="1" thickBot="1">
       <c r="A59" s="101" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B59" s="81"/>
       <c r="C59" s="49" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="42" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
@@ -8445,7 +8489,7 @@
         <v>11</v>
       </c>
       <c r="D60" s="42" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
@@ -8470,7 +8514,7 @@
         <v>13</v>
       </c>
       <c r="D62" s="42" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
@@ -8485,7 +8529,7 @@
         <v>14</v>
       </c>
       <c r="D63" s="42" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
@@ -8493,14 +8537,14 @@
     </row>
     <row r="64" spans="1:24" ht="36" customHeight="1" thickBot="1">
       <c r="A64" s="101" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B64" s="81"/>
       <c r="C64" s="49" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="192" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
@@ -8515,7 +8559,7 @@
         <v>16</v>
       </c>
       <c r="D65" s="192" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
@@ -8523,7 +8567,7 @@
     </row>
     <row r="66" spans="1:9" ht="24" customHeight="1" thickBot="1">
       <c r="A66" s="102" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B66" s="104"/>
       <c r="C66" s="105"/>
@@ -8541,7 +8585,7 @@
         <v>17</v>
       </c>
       <c r="D67" s="192" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
@@ -8556,7 +8600,7 @@
         <v>18</v>
       </c>
       <c r="D68" s="194" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
@@ -8564,14 +8608,14 @@
     </row>
     <row r="69" spans="1:9" ht="36" customHeight="1" thickBot="1">
       <c r="A69" s="101" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B69" s="81"/>
       <c r="C69" s="49" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="42" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
@@ -8579,14 +8623,14 @@
     </row>
     <row r="70" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A70" s="100" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B70" s="81"/>
       <c r="C70" s="49" t="s">
         <v>20</v>
       </c>
       <c r="D70" s="42" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F70" s="14"/>
       <c r="G70" s="14"/>
@@ -8601,7 +8645,7 @@
         <v>21</v>
       </c>
       <c r="D71" s="42" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
@@ -8626,7 +8670,7 @@
         <v>23</v>
       </c>
       <c r="D73" s="42" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F73" s="14"/>
       <c r="G73" s="14"/>
@@ -8641,7 +8685,7 @@
         <v>24</v>
       </c>
       <c r="D74" s="42" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
@@ -8649,14 +8693,14 @@
     </row>
     <row r="75" spans="1:9" ht="36" customHeight="1" thickBot="1">
       <c r="A75" s="101" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B75" s="66"/>
       <c r="C75" s="49" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="42" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
@@ -8664,14 +8708,14 @@
     </row>
     <row r="76" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A76" s="100" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B76" s="81"/>
       <c r="C76" s="49" t="s">
         <v>26</v>
       </c>
       <c r="D76" s="42" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
@@ -8686,7 +8730,7 @@
         <v>27</v>
       </c>
       <c r="D77" s="182" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
@@ -8714,7 +8758,7 @@
         <v>29</v>
       </c>
       <c r="D79" s="42" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F79" s="14"/>
       <c r="G79" s="14"/>
@@ -8729,7 +8773,7 @@
         <v>30</v>
       </c>
       <c r="D80" s="42" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F80" s="14"/>
       <c r="G80" s="14"/>
@@ -8737,14 +8781,14 @@
     </row>
     <row r="81" spans="1:8" ht="36" customHeight="1" thickBot="1">
       <c r="A81" s="101" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B81" s="81"/>
       <c r="C81" s="49" t="s">
         <v>31</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
@@ -8752,14 +8796,14 @@
     </row>
     <row r="82" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A82" s="100" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B82" s="81"/>
       <c r="C82" s="49" t="s">
         <v>32</v>
       </c>
       <c r="D82" s="182" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F82" s="14"/>
       <c r="G82" s="14"/>
@@ -8774,7 +8818,7 @@
         <v>33</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F83" s="14"/>
       <c r="G83" s="14"/>
@@ -8799,7 +8843,7 @@
         <v>35</v>
       </c>
       <c r="D85" s="42" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F85" s="14"/>
       <c r="G85" s="14"/>
@@ -8814,7 +8858,7 @@
         <v>36</v>
       </c>
       <c r="D86" s="42" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F86" s="14"/>
       <c r="G86" s="14"/>
@@ -8822,14 +8866,14 @@
     </row>
     <row r="87" spans="1:8" ht="36" customHeight="1" thickBot="1">
       <c r="A87" s="101" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B87" s="81"/>
       <c r="C87" s="49" t="s">
         <v>37</v>
       </c>
       <c r="D87" s="42" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F87" s="14"/>
       <c r="G87" s="14"/>
@@ -8837,14 +8881,14 @@
     </row>
     <row r="88" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A88" s="100" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B88" s="81"/>
       <c r="C88" s="49" t="s">
         <v>38</v>
       </c>
       <c r="D88" s="182" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F88" s="14"/>
       <c r="G88" s="14"/>
@@ -8859,7 +8903,7 @@
         <v>39</v>
       </c>
       <c r="D89" s="42" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F89" s="14"/>
       <c r="G89" s="14"/>
@@ -8867,7 +8911,7 @@
     </row>
     <row r="90" spans="1:8" ht="24" customHeight="1" thickBot="1">
       <c r="A90" s="103" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B90" s="104"/>
       <c r="C90" s="105"/>
@@ -8884,7 +8928,7 @@
         <v>40</v>
       </c>
       <c r="D91" s="42" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F91" s="14"/>
       <c r="G91" s="14"/>
@@ -8899,7 +8943,7 @@
         <v>41</v>
       </c>
       <c r="D92" s="42" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F92" s="14"/>
       <c r="G92" s="14"/>
@@ -8907,14 +8951,14 @@
     </row>
     <row r="93" spans="1:8" ht="36" customHeight="1" thickBot="1">
       <c r="A93" s="101" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B93" s="81"/>
       <c r="C93" s="49" t="s">
         <v>42</v>
       </c>
       <c r="D93" s="42" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F93" s="14"/>
       <c r="G93" s="14"/>
@@ -8929,7 +8973,7 @@
         <v>43</v>
       </c>
       <c r="D94" s="182" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F94" s="14"/>
       <c r="G94" s="14"/>
@@ -8937,7 +8981,7 @@
     </row>
     <row r="95" spans="1:8" ht="24" customHeight="1" thickBot="1">
       <c r="A95" s="103" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B95" s="104"/>
       <c r="C95" s="106"/>
@@ -8954,7 +8998,7 @@
         <v>44</v>
       </c>
       <c r="D96" s="42" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F96" s="14"/>
       <c r="G96" s="14"/>
@@ -8969,7 +9013,7 @@
         <v>45</v>
       </c>
       <c r="D97" s="42" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F97" s="14"/>
       <c r="G97" s="14"/>
@@ -8977,14 +9021,14 @@
     </row>
     <row r="98" spans="1:8" ht="36" customHeight="1" thickBot="1">
       <c r="A98" s="101" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B98" s="81"/>
       <c r="C98" s="49" t="s">
         <v>46</v>
       </c>
       <c r="D98" s="42" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F98" s="14"/>
       <c r="G98" s="14"/>
@@ -8992,14 +9036,14 @@
     </row>
     <row r="99" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A99" s="100" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B99" s="81"/>
       <c r="C99" s="49" t="s">
         <v>47</v>
       </c>
       <c r="D99" s="42" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F99" s="14"/>
       <c r="G99" s="14"/>
@@ -9014,7 +9058,7 @@
         <v>48</v>
       </c>
       <c r="D100" s="182" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F100" s="14"/>
       <c r="G100" s="14"/>
@@ -9022,7 +9066,7 @@
     </row>
     <row r="101" spans="1:8" ht="24" customHeight="1" thickBot="1">
       <c r="A101" s="103" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B101" s="104"/>
       <c r="C101" s="105"/>
@@ -9039,7 +9083,7 @@
         <v>49</v>
       </c>
       <c r="D102" s="42" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F102" s="14"/>
       <c r="G102" s="14"/>
@@ -9054,7 +9098,7 @@
         <v>50</v>
       </c>
       <c r="D103" s="42" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F103" s="14"/>
       <c r="G103" s="14"/>
@@ -9062,14 +9106,14 @@
     </row>
     <row r="104" spans="1:8" ht="36" customHeight="1" thickBot="1">
       <c r="A104" s="101" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B104" s="81"/>
       <c r="C104" s="49" t="s">
         <v>51</v>
       </c>
       <c r="D104" s="42" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F104" s="14"/>
       <c r="G104" s="14"/>
@@ -9077,14 +9121,14 @@
     </row>
     <row r="105" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A105" s="100" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B105" s="81"/>
       <c r="C105" s="49" t="s">
         <v>52</v>
       </c>
       <c r="D105" s="42" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F105" s="14"/>
       <c r="G105" s="14"/>
@@ -9099,7 +9143,7 @@
         <v>53</v>
       </c>
       <c r="D106" s="182" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F106" s="14"/>
       <c r="G106" s="14"/>
@@ -9107,7 +9151,7 @@
     </row>
     <row r="107" spans="1:8" ht="24" customHeight="1" thickBot="1">
       <c r="A107" s="103" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B107" s="104"/>
       <c r="C107" s="105"/>
@@ -9124,7 +9168,7 @@
         <v>54</v>
       </c>
       <c r="D108" s="42" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F108" s="14"/>
       <c r="G108" s="14"/>
@@ -9139,7 +9183,7 @@
         <v>55</v>
       </c>
       <c r="D109" s="42" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F109" s="14"/>
       <c r="G109" s="14"/>
@@ -9147,14 +9191,14 @@
     </row>
     <row r="110" spans="1:8" ht="36" customHeight="1" thickBot="1">
       <c r="A110" s="101" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B110" s="81"/>
       <c r="C110" s="49" t="s">
         <v>56</v>
       </c>
       <c r="D110" s="42" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F110" s="14"/>
       <c r="G110" s="14"/>
@@ -9169,7 +9213,7 @@
         <v>57</v>
       </c>
       <c r="D111" s="182" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F111" s="14"/>
       <c r="G111" s="14"/>
@@ -9177,7 +9221,7 @@
     </row>
     <row r="112" spans="1:8" ht="24" customHeight="1" thickBot="1">
       <c r="A112" s="103" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B112" s="104"/>
       <c r="C112" s="105"/>
@@ -9194,7 +9238,7 @@
         <v>58</v>
       </c>
       <c r="D113" s="42" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F113" s="14"/>
       <c r="G113" s="14"/>
@@ -9209,7 +9253,7 @@
         <v>59</v>
       </c>
       <c r="D114" s="42" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F114" s="14"/>
       <c r="G114" s="14"/>
@@ -9217,14 +9261,14 @@
     </row>
     <row r="115" spans="1:24" ht="36" customHeight="1" thickBot="1">
       <c r="A115" s="101" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B115" s="81"/>
       <c r="C115" s="49" t="s">
         <v>60</v>
       </c>
       <c r="D115" s="42" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F115" s="14"/>
       <c r="G115" s="14"/>
@@ -9232,14 +9276,14 @@
     </row>
     <row r="116" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A116" s="100" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B116" s="81"/>
       <c r="C116" s="49" t="s">
         <v>61</v>
       </c>
       <c r="D116" s="42" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -9254,7 +9298,7 @@
         <v>62</v>
       </c>
       <c r="D117" s="182" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F117" s="14"/>
       <c r="G117" s="14"/>
@@ -9262,7 +9306,7 @@
     </row>
     <row r="118" spans="1:24" ht="24" customHeight="1" thickBot="1">
       <c r="A118" s="103" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B118" s="104"/>
       <c r="C118" s="105"/>
@@ -9279,7 +9323,7 @@
         <v>63</v>
       </c>
       <c r="D119" s="42" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F119" s="14"/>
       <c r="G119" s="14"/>
@@ -9291,10 +9335,10 @@
       </c>
       <c r="B120" s="80"/>
       <c r="C120" s="49" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D120" s="42" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F120" s="14"/>
       <c r="G120" s="14"/>
@@ -9302,14 +9346,14 @@
     </row>
     <row r="121" spans="1:24" ht="36" customHeight="1" thickBot="1">
       <c r="A121" s="101" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B121" s="81"/>
       <c r="C121" s="49" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D121" s="42" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F121" s="14"/>
       <c r="G121" s="14"/>
@@ -9317,14 +9361,14 @@
     </row>
     <row r="122" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A122" s="100" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B122" s="81"/>
       <c r="C122" s="49" t="s">
         <v>64</v>
       </c>
       <c r="D122" s="42" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F122" s="14"/>
       <c r="G122" s="14"/>
@@ -9336,10 +9380,10 @@
       </c>
       <c r="B123" s="80"/>
       <c r="C123" s="48" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D123" s="182" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F123" s="14"/>
       <c r="G123" s="14"/>
@@ -9354,10 +9398,10 @@
       <c r="F124" s="10"/>
     </row>
     <row r="125" spans="1:24" s="171" customFormat="1" ht="40" customHeight="1">
-      <c r="A125" s="234" t="s">
-        <v>689</v>
-      </c>
-      <c r="B125" s="235"/>
+      <c r="A125" s="240" t="s">
+        <v>687</v>
+      </c>
+      <c r="B125" s="241"/>
       <c r="C125" s="59"/>
       <c r="D125" s="42"/>
       <c r="E125" s="42"/>
@@ -9411,7 +9455,7 @@
     </row>
     <row r="127" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
       <c r="A127" s="91" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B127" s="89"/>
       <c r="C127" s="90"/>
@@ -9438,11 +9482,11 @@
       <c r="X127" s="69"/>
     </row>
     <row r="128" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
-      <c r="A128" s="232" t="s">
-        <v>456</v>
-      </c>
-      <c r="B128" s="233"/>
-      <c r="C128" s="233"/>
+      <c r="A128" s="235" t="s">
+        <v>455</v>
+      </c>
+      <c r="B128" s="236"/>
+      <c r="C128" s="236"/>
       <c r="D128" s="33"/>
       <c r="E128" s="192"/>
       <c r="F128" s="69"/>
@@ -9495,8 +9539,8 @@
       <c r="A130" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="B130" s="236"/>
-      <c r="C130" s="237"/>
+      <c r="B130" s="247"/>
+      <c r="C130" s="248"/>
       <c r="D130" s="33"/>
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
@@ -9511,7 +9555,7 @@
         <v>66</v>
       </c>
       <c r="D131" s="182" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F131" s="14"/>
       <c r="G131" s="14"/>
@@ -9526,7 +9570,7 @@
         <v>67</v>
       </c>
       <c r="D132" s="42" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F132" s="14"/>
       <c r="G132" s="14"/>
@@ -9534,14 +9578,14 @@
     </row>
     <row r="133" spans="1:24" ht="36" customHeight="1" thickBot="1">
       <c r="A133" s="101" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B133" s="81"/>
       <c r="C133" s="49" t="s">
         <v>68</v>
       </c>
       <c r="D133" s="42" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F133" s="14"/>
       <c r="G133" s="14"/>
@@ -9549,14 +9593,14 @@
     </row>
     <row r="134" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A134" s="101" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B134" s="81"/>
       <c r="C134" s="49" t="s">
         <v>69</v>
       </c>
       <c r="D134" s="42" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F134" s="14"/>
       <c r="G134" s="14"/>
@@ -9571,7 +9615,7 @@
         <v>70</v>
       </c>
       <c r="D135" s="42" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
@@ -9581,8 +9625,8 @@
       <c r="A136" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="B136" s="236"/>
-      <c r="C136" s="237"/>
+      <c r="B136" s="247"/>
+      <c r="C136" s="248"/>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
       <c r="H136" s="14"/>
@@ -9597,7 +9641,7 @@
         <v>72</v>
       </c>
       <c r="D137" s="182" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F137" s="14"/>
       <c r="G137" s="14"/>
@@ -9612,7 +9656,7 @@
         <v>73</v>
       </c>
       <c r="D138" s="42" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F138" s="14"/>
       <c r="G138" s="14"/>
@@ -9620,14 +9664,14 @@
     </row>
     <row r="139" spans="1:24" ht="36" customHeight="1" thickBot="1">
       <c r="A139" s="101" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B139" s="81"/>
       <c r="C139" s="49" t="s">
         <v>74</v>
       </c>
       <c r="D139" s="42" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F139" s="14"/>
       <c r="G139" s="14"/>
@@ -9642,7 +9686,7 @@
         <v>75</v>
       </c>
       <c r="D140" s="182" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F140" s="14"/>
       <c r="G140" s="14"/>
@@ -9669,7 +9713,7 @@
         <v>77</v>
       </c>
       <c r="D142" s="182" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E142" s="42"/>
       <c r="F142" s="42"/>
@@ -9685,7 +9729,7 @@
         <v>78</v>
       </c>
       <c r="D143" s="42" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E143" s="42"/>
       <c r="F143" s="42"/>
@@ -9694,14 +9738,14 @@
     </row>
     <row r="144" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1" thickBot="1">
       <c r="A144" s="101" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B144" s="81"/>
       <c r="C144" s="49" t="s">
         <v>79</v>
       </c>
       <c r="D144" s="192" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E144" s="42"/>
       <c r="F144" s="42"/>
@@ -9710,14 +9754,14 @@
     </row>
     <row r="145" spans="1:24" s="61" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A145" s="101" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B145" s="81"/>
       <c r="C145" s="49" t="s">
         <v>80</v>
       </c>
       <c r="D145" s="192" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E145" s="42"/>
       <c r="F145" s="42"/>
@@ -9733,7 +9777,7 @@
         <v>81</v>
       </c>
       <c r="D146" s="42" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F146" s="14"/>
       <c r="G146" s="14"/>
@@ -9748,10 +9792,10 @@
       <c r="F147" s="10"/>
     </row>
     <row r="148" spans="1:24" s="61" customFormat="1" ht="40" customHeight="1">
-      <c r="A148" s="234" t="s">
-        <v>476</v>
-      </c>
-      <c r="B148" s="235"/>
+      <c r="A148" s="240" t="s">
+        <v>475</v>
+      </c>
+      <c r="B148" s="241"/>
       <c r="C148" s="59"/>
       <c r="D148" s="42"/>
       <c r="E148" s="42"/>
@@ -9777,7 +9821,7 @@
     </row>
     <row r="149" spans="1:24" s="64" customFormat="1" ht="24" customHeight="1">
       <c r="A149" s="91" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B149" s="89"/>
       <c r="C149" s="90"/>
@@ -9804,11 +9848,11 @@
       <c r="X149" s="69"/>
     </row>
     <row r="150" spans="1:24" s="64" customFormat="1" ht="24" customHeight="1">
-      <c r="A150" s="232" t="s">
-        <v>478</v>
-      </c>
-      <c r="B150" s="233"/>
-      <c r="C150" s="233"/>
+      <c r="A150" s="235" t="s">
+        <v>477</v>
+      </c>
+      <c r="B150" s="236"/>
+      <c r="C150" s="236"/>
       <c r="D150" s="42"/>
       <c r="E150" s="192"/>
       <c r="F150" s="69"/>
@@ -9858,10 +9902,10 @@
       <c r="X151" s="97"/>
     </row>
     <row r="152" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A152" s="230" t="s">
-        <v>479</v>
-      </c>
-      <c r="B152" s="231"/>
+      <c r="A152" s="249" t="s">
+        <v>478</v>
+      </c>
+      <c r="B152" s="250"/>
       <c r="C152" s="107"/>
       <c r="D152" s="42"/>
       <c r="E152" s="42"/>
@@ -9887,7 +9931,7 @@
     </row>
     <row r="153" spans="1:24" s="60" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="A153" s="197" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B153" s="198"/>
       <c r="C153" s="199" t="s">
@@ -9908,7 +9952,7 @@
         <v>84</v>
       </c>
       <c r="D154" s="42" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F154" s="116"/>
       <c r="G154" s="14"/>
@@ -9923,7 +9967,7 @@
         <v>86</v>
       </c>
       <c r="D155" s="42" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F155" s="116"/>
       <c r="G155" s="14"/>
@@ -9935,23 +9979,23 @@
       </c>
       <c r="B156" s="56"/>
       <c r="C156" s="48" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D156" s="42" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F156" s="116"/>
       <c r="G156" s="14"/>
       <c r="H156" s="14"/>
     </row>
     <row r="157" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A157" s="230" t="s">
-        <v>480</v>
-      </c>
-      <c r="B157" s="231"/>
+      <c r="A157" s="249" t="s">
+        <v>479</v>
+      </c>
+      <c r="B157" s="250"/>
       <c r="C157" s="107"/>
       <c r="D157" s="42" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E157" s="42"/>
       <c r="F157" s="18"/>
@@ -9976,11 +10020,11 @@
     </row>
     <row r="158" spans="1:24" s="60" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="A158" s="197" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B158" s="198"/>
       <c r="C158" s="204" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D158" s="42"/>
       <c r="E158" s="34"/>
@@ -9994,10 +10038,10 @@
       </c>
       <c r="B159" s="223"/>
       <c r="C159" s="49" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D159" s="182" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F159" s="14"/>
       <c r="G159" s="14"/>
@@ -10012,7 +10056,7 @@
         <v>90</v>
       </c>
       <c r="D160" s="42" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F160" s="14"/>
       <c r="G160" s="14"/>
@@ -10027,7 +10071,7 @@
         <v>92</v>
       </c>
       <c r="D161" s="42" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F161" s="14"/>
       <c r="G161" s="14"/>
@@ -10036,14 +10080,14 @@
     </row>
     <row r="162" spans="1:24" s="172" customFormat="1" ht="90.75" customHeight="1" thickBot="1">
       <c r="A162" s="202" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B162" s="223"/>
       <c r="C162" s="49" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D162" s="42" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E162" s="42"/>
       <c r="F162" s="42"/>
@@ -10052,14 +10096,14 @@
     </row>
     <row r="163" spans="1:24" ht="91.5" customHeight="1" thickBot="1">
       <c r="A163" s="202" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B163" s="223"/>
       <c r="C163" s="49" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D163" s="42" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -10074,7 +10118,7 @@
         <v>94</v>
       </c>
       <c r="D164" s="42" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F164" s="14"/>
       <c r="G164" s="14"/>
@@ -10089,7 +10133,7 @@
         <v>108</v>
       </c>
       <c r="D165" s="182" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F165" s="14"/>
       <c r="G165" s="14"/>
@@ -10104,7 +10148,7 @@
         <v>96</v>
       </c>
       <c r="D166" s="42" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F166" s="14"/>
       <c r="G166" s="14"/>
@@ -10119,7 +10163,7 @@
         <v>98</v>
       </c>
       <c r="D167" s="42" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F167" s="14"/>
       <c r="G167" s="14"/>
@@ -10134,7 +10178,7 @@
         <v>100</v>
       </c>
       <c r="D168" s="182" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F168" s="14"/>
       <c r="G168" s="14"/>
@@ -10149,7 +10193,7 @@
         <v>102</v>
       </c>
       <c r="D169" s="42" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F169" s="14"/>
       <c r="G169" s="14"/>
@@ -10164,7 +10208,7 @@
         <v>104</v>
       </c>
       <c r="D170" s="192" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -10179,7 +10223,7 @@
         <v>106</v>
       </c>
       <c r="D171" s="192" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F171" s="14"/>
       <c r="G171" s="14"/>
@@ -10194,17 +10238,17 @@
         <v>110</v>
       </c>
       <c r="D172" s="194" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F172" s="14"/>
       <c r="G172" s="14"/>
       <c r="H172" s="14"/>
     </row>
     <row r="173" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A173" s="230" t="s">
-        <v>481</v>
-      </c>
-      <c r="B173" s="231"/>
+      <c r="A173" s="249" t="s">
+        <v>480</v>
+      </c>
+      <c r="B173" s="250"/>
       <c r="C173" s="107"/>
       <c r="D173" s="42"/>
       <c r="E173" s="42"/>
@@ -10230,7 +10274,7 @@
     </row>
     <row r="174" spans="1:24" s="60" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="A174" s="197" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B174" s="198"/>
       <c r="C174" s="204"/>
@@ -10242,12 +10286,12 @@
     </row>
     <row r="175" spans="1:24" ht="15" customHeight="1" thickBot="1">
       <c r="A175" s="205" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B175" s="110"/>
       <c r="C175" s="44"/>
       <c r="D175" s="42" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F175" s="14"/>
       <c r="G175" s="14"/>
@@ -10255,12 +10299,12 @@
     </row>
     <row r="176" spans="1:24" ht="15" customHeight="1" thickBot="1">
       <c r="A176" s="205" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B176" s="110"/>
       <c r="C176" s="44"/>
       <c r="D176" s="42" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F176" s="14"/>
       <c r="G176" s="14"/>
@@ -10268,12 +10312,12 @@
     </row>
     <row r="177" spans="1:24" ht="15" customHeight="1" thickBot="1">
       <c r="A177" s="205" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B177" s="110"/>
       <c r="C177" s="44"/>
       <c r="D177" s="42" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F177" s="14"/>
       <c r="G177" s="14"/>
@@ -10281,12 +10325,12 @@
     </row>
     <row r="178" spans="1:24" ht="15" customHeight="1" thickBot="1">
       <c r="A178" s="205" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B178" s="110"/>
       <c r="C178" s="44"/>
       <c r="D178" s="42" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F178" s="14"/>
       <c r="G178" s="14"/>
@@ -10294,12 +10338,12 @@
     </row>
     <row r="179" spans="1:24" ht="15" customHeight="1" thickBot="1">
       <c r="A179" s="205" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B179" s="110"/>
       <c r="C179" s="44"/>
       <c r="D179" s="34" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F179" s="14"/>
       <c r="G179" s="14"/>
@@ -10307,12 +10351,12 @@
     </row>
     <row r="180" spans="1:24" ht="15" customHeight="1" thickBot="1">
       <c r="A180" s="205" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B180" s="110"/>
       <c r="C180" s="44"/>
       <c r="D180" s="34" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F180" s="14"/>
       <c r="G180" s="14"/>
@@ -10320,12 +10364,12 @@
     </row>
     <row r="181" spans="1:24" ht="15" customHeight="1" thickBot="1">
       <c r="A181" s="205" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B181" s="110"/>
       <c r="C181" s="44"/>
       <c r="D181" s="42" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F181" s="14"/>
       <c r="G181" s="14"/>
@@ -10333,12 +10377,12 @@
     </row>
     <row r="182" spans="1:24" ht="15" customHeight="1" thickBot="1">
       <c r="A182" s="205" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B182" s="110"/>
       <c r="C182" s="44"/>
       <c r="D182" s="183" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F182" s="14"/>
       <c r="G182" s="14"/>
@@ -10346,7 +10390,7 @@
     </row>
     <row r="183" spans="1:24" ht="15" customHeight="1" thickBot="1">
       <c r="A183" s="205" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B183" s="110"/>
       <c r="C183" s="111">
@@ -10354,17 +10398,17 @@
         <v>0</v>
       </c>
       <c r="D183" s="42" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F183" s="14"/>
       <c r="G183" s="14"/>
       <c r="H183" s="14"/>
     </row>
     <row r="184" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A184" s="230" t="s">
-        <v>491</v>
-      </c>
-      <c r="B184" s="231"/>
+      <c r="A184" s="249" t="s">
+        <v>490</v>
+      </c>
+      <c r="B184" s="250"/>
       <c r="C184" s="107"/>
       <c r="D184" s="42"/>
       <c r="E184" s="42"/>
@@ -10392,7 +10436,7 @@
       <c r="A185" s="179"/>
       <c r="B185" s="43"/>
       <c r="C185" s="108" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D185" s="42"/>
       <c r="E185" s="42"/>
@@ -10406,10 +10450,10 @@
       </c>
       <c r="B186" s="112"/>
       <c r="C186" s="49" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D186" s="42" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F186" s="14"/>
       <c r="G186" s="14"/>
@@ -10421,20 +10465,20 @@
       </c>
       <c r="B187" s="113"/>
       <c r="C187" s="49" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D187" s="42" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F187" s="14"/>
       <c r="G187" s="14"/>
       <c r="H187" s="14"/>
     </row>
     <row r="188" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A188" s="230" t="s">
-        <v>492</v>
-      </c>
-      <c r="B188" s="231"/>
+      <c r="A188" s="249" t="s">
+        <v>491</v>
+      </c>
+      <c r="B188" s="250"/>
       <c r="C188" s="107"/>
       <c r="D188" s="42"/>
       <c r="E188" s="42"/>
@@ -10460,11 +10504,11 @@
     </row>
     <row r="189" spans="1:24" s="60" customFormat="1" ht="24" customHeight="1">
       <c r="A189" s="197" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B189" s="198"/>
       <c r="C189" s="204" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D189" s="42"/>
       <c r="E189" s="34"/>
@@ -10482,14 +10526,14 @@
     </row>
     <row r="191" spans="1:24" ht="15" customHeight="1" thickBot="1">
       <c r="A191" s="207" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B191" s="56"/>
       <c r="C191" s="44" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D191" s="42" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F191" s="34"/>
       <c r="G191" s="14"/>
@@ -10497,14 +10541,14 @@
     </row>
     <row r="192" spans="1:24" ht="15" customHeight="1" thickBot="1">
       <c r="A192" s="207" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B192" s="56"/>
       <c r="C192" s="43" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D192" s="42" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F192" s="34"/>
       <c r="G192" s="14"/>
@@ -10516,10 +10560,10 @@
       </c>
       <c r="B193" s="56"/>
       <c r="C193" s="43" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D193" s="42" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F193" s="34"/>
       <c r="G193" s="14"/>
@@ -10534,10 +10578,10 @@
       <c r="H194" s="14"/>
     </row>
     <row r="195" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A195" s="230" t="s">
+      <c r="A195" s="249" t="s">
         <v>115</v>
       </c>
-      <c r="B195" s="231"/>
+      <c r="B195" s="250"/>
       <c r="C195" s="107"/>
       <c r="D195" s="42"/>
       <c r="E195" s="42"/>
@@ -10589,14 +10633,14 @@
     </row>
     <row r="197" spans="1:24" ht="15" customHeight="1" thickBot="1">
       <c r="A197" s="207" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B197" s="53"/>
       <c r="C197" s="27" t="s">
         <v>114</v>
       </c>
       <c r="D197" s="42" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F197" s="14"/>
       <c r="G197" s="14"/>
@@ -10604,14 +10648,14 @@
     </row>
     <row r="198" spans="1:24" ht="15" customHeight="1" thickBot="1">
       <c r="A198" s="207" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B198" s="53"/>
       <c r="C198" s="45" t="s">
         <v>114</v>
       </c>
       <c r="D198" s="34" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F198" s="14"/>
       <c r="G198" s="14"/>
@@ -10619,14 +10663,14 @@
     </row>
     <row r="199" spans="1:24" ht="15" customHeight="1" thickBot="1">
       <c r="A199" s="207" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B199" s="53"/>
       <c r="C199" s="45" t="s">
         <v>116</v>
       </c>
       <c r="D199" s="34" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F199" s="14"/>
       <c r="G199" s="14"/>
@@ -10641,7 +10685,7 @@
         <v>118</v>
       </c>
       <c r="D200" s="42" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F200" s="14"/>
       <c r="G200" s="14"/>
@@ -10653,10 +10697,10 @@
       </c>
       <c r="B201" s="53"/>
       <c r="C201" s="46" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D201" s="42" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F201" s="14"/>
       <c r="G201" s="14"/>
@@ -10664,7 +10708,7 @@
     </row>
     <row r="202" spans="1:24" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A202" s="212" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B202" s="213"/>
       <c r="C202" s="214"/>
@@ -10675,10 +10719,10 @@
       <c r="H202" s="42"/>
     </row>
     <row r="203" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A203" s="230" t="s">
-        <v>502</v>
-      </c>
-      <c r="B203" s="231"/>
+      <c r="A203" s="249" t="s">
+        <v>501</v>
+      </c>
+      <c r="B203" s="250"/>
       <c r="C203" s="107"/>
       <c r="D203" s="42"/>
       <c r="E203" s="42"/>
@@ -10730,14 +10774,14 @@
     </row>
     <row r="205" spans="1:24" ht="30.75" customHeight="1" thickBot="1">
       <c r="A205" s="207" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B205" s="124"/>
       <c r="C205" s="114" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D205" s="42" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F205" s="14"/>
       <c r="G205" s="14"/>
@@ -10745,14 +10789,14 @@
     </row>
     <row r="206" spans="1:24" ht="29.25" customHeight="1" thickBot="1">
       <c r="A206" s="207" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B206" s="79"/>
       <c r="C206" s="114" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D206" s="42" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F206" s="14"/>
       <c r="G206" s="14"/>
@@ -10760,7 +10804,7 @@
     </row>
     <row r="207" spans="1:24" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A207" s="212" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B207" s="213"/>
       <c r="C207" s="214"/>
@@ -10779,10 +10823,10 @@
       <c r="F208" s="10"/>
     </row>
     <row r="209" spans="1:24" s="61" customFormat="1" ht="40" customHeight="1">
-      <c r="A209" s="234" t="s">
-        <v>503</v>
-      </c>
-      <c r="B209" s="235"/>
+      <c r="A209" s="240" t="s">
+        <v>502</v>
+      </c>
+      <c r="B209" s="241"/>
       <c r="C209" s="59"/>
       <c r="D209" s="42"/>
       <c r="E209" s="42"/>
@@ -10808,12 +10852,12 @@
     </row>
     <row r="210" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
       <c r="A210" s="91" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B210" s="89"/>
       <c r="C210" s="90"/>
       <c r="D210" s="42" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E210" s="192"/>
       <c r="F210" s="69"/>
@@ -10838,7 +10882,7 @@
     </row>
     <row r="211" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
       <c r="A211" s="117" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B211" s="89"/>
       <c r="C211" s="90"/>
@@ -10865,11 +10909,11 @@
       <c r="X211" s="69"/>
     </row>
     <row r="212" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
-      <c r="A212" s="238" t="s">
-        <v>706</v>
-      </c>
-      <c r="B212" s="233"/>
-      <c r="C212" s="233"/>
+      <c r="A212" s="242" t="s">
+        <v>704</v>
+      </c>
+      <c r="B212" s="236"/>
+      <c r="C212" s="236"/>
       <c r="D212" s="42"/>
       <c r="E212" s="192"/>
       <c r="F212" s="69"/>
@@ -10893,10 +10937,10 @@
       <c r="X212" s="69"/>
     </row>
     <row r="213" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A213" s="230" t="s">
-        <v>504</v>
-      </c>
-      <c r="B213" s="231"/>
+      <c r="A213" s="249" t="s">
+        <v>503</v>
+      </c>
+      <c r="B213" s="250"/>
       <c r="C213" s="107"/>
       <c r="D213" s="42"/>
       <c r="E213" s="42"/>
@@ -10922,11 +10966,11 @@
     </row>
     <row r="214" spans="1:24" s="60" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="A214" s="197" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B214" s="198"/>
       <c r="C214" s="204" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D214" s="42"/>
       <c r="E214" s="34"/>
@@ -10940,10 +10984,10 @@
       </c>
       <c r="B215" s="81"/>
       <c r="C215" s="118" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D215" s="42" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F215" s="14"/>
       <c r="G215" s="14"/>
@@ -10955,13 +10999,13 @@
       </c>
       <c r="B216" s="81"/>
       <c r="C216" s="121" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D216" s="42" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F216" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G216" s="14"/>
       <c r="H216" s="14"/>
@@ -10972,20 +11016,20 @@
       </c>
       <c r="B217" s="81"/>
       <c r="C217" s="120" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D217" s="42" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F217" s="14"/>
       <c r="G217" s="14"/>
       <c r="H217" s="14"/>
     </row>
     <row r="218" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A218" s="230" t="s">
-        <v>504</v>
-      </c>
-      <c r="B218" s="231"/>
+      <c r="A218" s="249" t="s">
+        <v>503</v>
+      </c>
+      <c r="B218" s="250"/>
       <c r="C218" s="107"/>
       <c r="D218" s="42"/>
       <c r="E218" s="42"/>
@@ -11011,11 +11055,11 @@
     </row>
     <row r="219" spans="1:24" s="60" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="A219" s="197" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B219" s="198"/>
       <c r="C219" s="204" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D219" s="42"/>
       <c r="E219" s="34"/>
@@ -11029,10 +11073,10 @@
       </c>
       <c r="B220" s="225"/>
       <c r="C220" s="118" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D220" s="42" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E220" s="42"/>
       <c r="F220" s="119"/>
@@ -11045,10 +11089,10 @@
       </c>
       <c r="B221" s="81"/>
       <c r="C221" s="118" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D221" s="34" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F221" s="14"/>
       <c r="G221" s="14"/>
@@ -11060,20 +11104,20 @@
       </c>
       <c r="B222" s="81"/>
       <c r="C222" s="115" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D222" s="42" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F222" s="14"/>
       <c r="G222" s="14"/>
       <c r="H222" s="14"/>
     </row>
     <row r="223" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A223" s="230" t="s">
-        <v>504</v>
-      </c>
-      <c r="B223" s="231"/>
+      <c r="A223" s="249" t="s">
+        <v>503</v>
+      </c>
+      <c r="B223" s="250"/>
       <c r="C223" s="107"/>
       <c r="D223" s="42"/>
       <c r="E223" s="42"/>
@@ -11099,7 +11143,7 @@
     </row>
     <row r="224" spans="1:24" ht="34" customHeight="1" thickBot="1">
       <c r="A224" s="197" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B224" s="215"/>
       <c r="C224" s="216"/>
@@ -11116,7 +11160,7 @@
         <v>123</v>
       </c>
       <c r="D225" s="42" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F225" s="184"/>
       <c r="G225" s="14"/>
@@ -11128,10 +11172,10 @@
       </c>
       <c r="B226" s="81"/>
       <c r="C226" s="49" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D226" s="42" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F226" s="14"/>
       <c r="G226" s="14"/>
@@ -11143,20 +11187,20 @@
       </c>
       <c r="B227" s="81"/>
       <c r="C227" s="51" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D227" s="42" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F227" s="14"/>
       <c r="G227" s="14"/>
       <c r="H227" s="14"/>
     </row>
     <row r="228" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A228" s="230" t="s">
-        <v>504</v>
-      </c>
-      <c r="B228" s="231"/>
+      <c r="A228" s="249" t="s">
+        <v>503</v>
+      </c>
+      <c r="B228" s="250"/>
       <c r="C228" s="107"/>
       <c r="D228" s="42"/>
       <c r="E228" s="42"/>
@@ -11182,7 +11226,7 @@
     </row>
     <row r="229" spans="1:24" ht="34" customHeight="1" thickBot="1">
       <c r="A229" s="197" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B229" s="215"/>
       <c r="C229" s="216"/>
@@ -11196,10 +11240,10 @@
       </c>
       <c r="B230" s="81"/>
       <c r="C230" s="51" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D230" s="42" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F230" s="14"/>
       <c r="G230" s="14"/>
@@ -11211,10 +11255,10 @@
       </c>
       <c r="B231" s="81"/>
       <c r="C231" s="51" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D231" s="42" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F231" s="14"/>
       <c r="G231" s="14"/>
@@ -11226,10 +11270,10 @@
       </c>
       <c r="B232" s="81"/>
       <c r="C232" s="51" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D232" s="42" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F232" s="14"/>
       <c r="G232" s="14"/>
@@ -11237,12 +11281,12 @@
     </row>
     <row r="233" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
       <c r="A233" s="123" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B233" s="122"/>
       <c r="C233" s="107"/>
       <c r="D233" s="42" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E233" s="42"/>
       <c r="F233" s="18"/>
@@ -11267,7 +11311,7 @@
     </row>
     <row r="234" spans="1:24" s="61" customFormat="1" ht="34" customHeight="1" thickBot="1">
       <c r="A234" s="197" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B234" s="215"/>
       <c r="C234" s="216"/>
@@ -11283,10 +11327,10 @@
       </c>
       <c r="B235" s="81"/>
       <c r="C235" s="51" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D235" s="42" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F235" s="14"/>
       <c r="G235" s="14"/>
@@ -11298,10 +11342,10 @@
       </c>
       <c r="B236" s="81"/>
       <c r="C236" s="51" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D236" s="42" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F236" s="14"/>
       <c r="G236" s="14"/>
@@ -11313,10 +11357,10 @@
       </c>
       <c r="B237" s="81"/>
       <c r="C237" s="49" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D237" s="42" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F237" s="14"/>
       <c r="G237" s="14"/>
@@ -11329,7 +11373,7 @@
       <c r="B238" s="122"/>
       <c r="C238" s="107"/>
       <c r="D238" s="42" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E238" s="42"/>
       <c r="F238" s="18"/>
@@ -11384,10 +11428,10 @@
       </c>
       <c r="B240" s="81"/>
       <c r="C240" s="177" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D240" s="42" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F240" s="14"/>
       <c r="G240" s="14"/>
@@ -11449,14 +11493,14 @@
     </row>
     <row r="243" spans="1:24" ht="36" customHeight="1" thickBot="1">
       <c r="A243" s="220" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B243" s="81"/>
       <c r="C243" s="51" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D243" s="42" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F243" s="14"/>
       <c r="G243" s="14"/>
@@ -11468,10 +11512,10 @@
       </c>
       <c r="B244" s="81"/>
       <c r="C244" s="51" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D244" s="42" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F244" s="14"/>
       <c r="G244" s="14"/>
@@ -11533,14 +11577,14 @@
     </row>
     <row r="247" spans="1:24" ht="48" customHeight="1" thickBot="1">
       <c r="A247" s="222" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B247" s="81"/>
       <c r="C247" s="51" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D247" s="42" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F247" s="14"/>
       <c r="G247" s="14"/>
@@ -11552,10 +11596,10 @@
       </c>
       <c r="B248" s="81"/>
       <c r="C248" s="51" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D248" s="192" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F248" s="14"/>
       <c r="G248" s="14"/>
@@ -11581,7 +11625,7 @@
         <v>134</v>
       </c>
       <c r="D250" s="188" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E250" s="42" t="s">
         <v>135</v>
@@ -11599,10 +11643,10 @@
         <v>0</v>
       </c>
       <c r="C251" s="42" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D251" s="183" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F251" s="14"/>
       <c r="G251" s="14"/>
@@ -11620,7 +11664,7 @@
         <v>138</v>
       </c>
       <c r="D252" s="187" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F252" s="14"/>
       <c r="G252" s="14"/>
@@ -11638,7 +11682,7 @@
         <v>140</v>
       </c>
       <c r="D253" s="183" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F253" s="14"/>
       <c r="G253" s="14"/>
@@ -11653,10 +11697,10 @@
         <v>0</v>
       </c>
       <c r="C254" s="42" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D254" s="183" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F254" s="14"/>
       <c r="G254" s="14"/>
@@ -11674,7 +11718,7 @@
         <v>143</v>
       </c>
       <c r="D255" s="183" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F255" s="14"/>
       <c r="G255" s="14"/>
@@ -11692,7 +11736,7 @@
         <v>145</v>
       </c>
       <c r="D256" s="183" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F256" s="14"/>
       <c r="G256" s="14"/>
@@ -11710,7 +11754,7 @@
         <v>147</v>
       </c>
       <c r="D257" s="187" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F257" s="14"/>
       <c r="G257" s="14"/>
@@ -11728,7 +11772,7 @@
         <v>149</v>
       </c>
       <c r="D258" s="183" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F258" s="14"/>
       <c r="G258" s="14"/>
@@ -11746,7 +11790,7 @@
         <v>151</v>
       </c>
       <c r="D259" s="183" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F259" s="14"/>
       <c r="G259" s="14"/>
@@ -11764,7 +11808,7 @@
         <v>153</v>
       </c>
       <c r="D260" s="183" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F260" s="14"/>
       <c r="G260" s="14"/>
@@ -11782,7 +11826,7 @@
         <v>155</v>
       </c>
       <c r="D261" s="183" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F261" s="14"/>
       <c r="G261" s="14"/>
@@ -11800,7 +11844,7 @@
         <v>157</v>
       </c>
       <c r="D262" s="183" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F262" s="14"/>
       <c r="G262" s="14"/>
@@ -11818,7 +11862,7 @@
         <v>159</v>
       </c>
       <c r="D263" s="183" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F263" s="14"/>
       <c r="G263" s="14"/>
@@ -11836,7 +11880,7 @@
         <v>161</v>
       </c>
       <c r="D264" s="183" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F264" s="14"/>
       <c r="G264" s="14"/>
@@ -11854,7 +11898,7 @@
         <v>163</v>
       </c>
       <c r="D265" s="183" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F265" s="14"/>
       <c r="G265" s="14"/>
@@ -11872,7 +11916,7 @@
         <v>165</v>
       </c>
       <c r="D266" s="183" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F266" s="14"/>
       <c r="G266" s="14"/>
@@ -11890,7 +11934,7 @@
         <v>167</v>
       </c>
       <c r="D267" s="183" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F267" s="14"/>
       <c r="G267" s="14"/>
@@ -11908,7 +11952,7 @@
         <v>169</v>
       </c>
       <c r="D268" s="183" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F268" s="14"/>
       <c r="G268" s="14"/>
@@ -11926,7 +11970,7 @@
         <v>171</v>
       </c>
       <c r="D269" s="183" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F269" s="14"/>
       <c r="G269" s="14"/>
@@ -11944,7 +11988,7 @@
         <v>173</v>
       </c>
       <c r="D270" s="183" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F270" s="14"/>
       <c r="G270" s="14"/>
@@ -11962,7 +12006,7 @@
         <v>175</v>
       </c>
       <c r="D271" s="183" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F271" s="14"/>
       <c r="G271" s="14"/>
@@ -11980,7 +12024,7 @@
         <v>161</v>
       </c>
       <c r="D272" s="183" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F272" s="14"/>
       <c r="G272" s="14"/>
@@ -11998,7 +12042,7 @@
         <v>178</v>
       </c>
       <c r="D273" s="183" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F273" s="14"/>
       <c r="G273" s="14"/>
@@ -12013,10 +12057,10 @@
         <v>0</v>
       </c>
       <c r="C274" s="42" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D274" s="183" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F274" s="14"/>
       <c r="G274" s="14"/>
@@ -12034,7 +12078,7 @@
         <v>181</v>
       </c>
       <c r="D275" s="183" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F275" s="14"/>
       <c r="G275" s="14"/>
@@ -12052,7 +12096,7 @@
         <v>183</v>
       </c>
       <c r="D276" s="183" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F276" s="14"/>
       <c r="G276" s="14"/>
@@ -12067,10 +12111,10 @@
         <v>0</v>
       </c>
       <c r="C277" s="42" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D277" s="183" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F277" s="14"/>
       <c r="G277" s="14"/>
@@ -12088,7 +12132,7 @@
         <v>186</v>
       </c>
       <c r="D278" s="183" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F278" s="14"/>
       <c r="G278" s="14"/>
@@ -12106,7 +12150,7 @@
         <v>188</v>
       </c>
       <c r="D279" s="183" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F279" s="14"/>
       <c r="G279" s="14"/>
@@ -12124,7 +12168,7 @@
         <v>147</v>
       </c>
       <c r="D280" s="183" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F280" s="14"/>
       <c r="G280" s="14"/>
@@ -12142,7 +12186,7 @@
         <v>149</v>
       </c>
       <c r="D281" s="183" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F281" s="14"/>
       <c r="G281" s="14"/>
@@ -12160,7 +12204,7 @@
         <v>151</v>
       </c>
       <c r="D282" s="183" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F282" s="14"/>
       <c r="G282" s="14"/>
@@ -12178,7 +12222,7 @@
         <v>153</v>
       </c>
       <c r="D283" s="183" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F283" s="14"/>
       <c r="G283" s="14"/>
@@ -12196,7 +12240,7 @@
         <v>155</v>
       </c>
       <c r="D284" s="183" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F284" s="14"/>
       <c r="G284" s="14"/>
@@ -12214,7 +12258,7 @@
         <v>157</v>
       </c>
       <c r="D285" s="183" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F285" s="14"/>
       <c r="G285" s="14"/>
@@ -12232,7 +12276,7 @@
         <v>159</v>
       </c>
       <c r="D286" s="183" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F286" s="14"/>
       <c r="G286" s="14"/>
@@ -12250,7 +12294,7 @@
         <v>161</v>
       </c>
       <c r="D287" s="182" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F287" s="14"/>
       <c r="G287" s="14"/>
@@ -12268,7 +12312,7 @@
         <v>163</v>
       </c>
       <c r="D288" s="183" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F288" s="14"/>
       <c r="G288" s="14"/>
@@ -12286,7 +12330,7 @@
         <v>165</v>
       </c>
       <c r="D289" s="183" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F289" s="14"/>
       <c r="G289" s="14"/>
@@ -12304,7 +12348,7 @@
         <v>167</v>
       </c>
       <c r="D290" s="183" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F290" s="14"/>
       <c r="G290" s="14"/>
@@ -12322,7 +12366,7 @@
         <v>201</v>
       </c>
       <c r="D291" s="183" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F291" s="14"/>
       <c r="G291" s="14"/>
@@ -12340,7 +12384,7 @@
         <v>171</v>
       </c>
       <c r="D292" s="183" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F292" s="14"/>
       <c r="G292" s="14"/>
@@ -12358,7 +12402,7 @@
         <v>173</v>
       </c>
       <c r="D293" s="183" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F293" s="14"/>
       <c r="G293" s="14"/>
@@ -12376,7 +12420,7 @@
         <v>175</v>
       </c>
       <c r="D294" s="183" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F294" s="14"/>
       <c r="G294" s="14"/>
@@ -12394,7 +12438,7 @@
         <v>161</v>
       </c>
       <c r="D295" s="183" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F295" s="14"/>
       <c r="G295" s="14"/>
@@ -12412,7 +12456,7 @@
         <v>207</v>
       </c>
       <c r="D296" s="183" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F296" s="14"/>
       <c r="G296" s="14"/>
@@ -12427,10 +12471,10 @@
         <v>0</v>
       </c>
       <c r="C297" s="42" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D297" s="183" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F297" s="14"/>
       <c r="G297" s="14"/>
@@ -12448,7 +12492,7 @@
         <v>210</v>
       </c>
       <c r="D298" s="183" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F298" s="14"/>
       <c r="G298" s="14"/>
@@ -12466,7 +12510,7 @@
         <v>212</v>
       </c>
       <c r="D299" s="183" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F299" s="14"/>
       <c r="G299" s="14"/>
@@ -12481,10 +12525,10 @@
         <v>0</v>
       </c>
       <c r="C300" s="42" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D300" s="183" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F300" s="14"/>
       <c r="G300" s="14"/>
@@ -12502,7 +12546,7 @@
         <v>215</v>
       </c>
       <c r="D301" s="183" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F301" s="14"/>
       <c r="G301" s="14"/>
@@ -12520,7 +12564,7 @@
         <v>217</v>
       </c>
       <c r="D302" s="183" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F302" s="14"/>
       <c r="G302" s="14"/>
@@ -12538,7 +12582,7 @@
         <v>147</v>
       </c>
       <c r="D303" s="183" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F303" s="14"/>
       <c r="G303" s="14"/>
@@ -12556,7 +12600,7 @@
         <v>149</v>
       </c>
       <c r="D304" s="183" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F304" s="14"/>
       <c r="G304" s="14"/>
@@ -12574,7 +12618,7 @@
         <v>151</v>
       </c>
       <c r="D305" s="183" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F305" s="14"/>
       <c r="G305" s="14"/>
@@ -12592,7 +12636,7 @@
         <v>222</v>
       </c>
       <c r="D306" s="183" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F306" s="14"/>
       <c r="G306" s="14"/>
@@ -12610,7 +12654,7 @@
         <v>155</v>
       </c>
       <c r="D307" s="183" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F307" s="14"/>
       <c r="G307" s="14"/>
@@ -12628,7 +12672,7 @@
         <v>157</v>
       </c>
       <c r="D308" s="183" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F308" s="14"/>
       <c r="G308" s="14"/>
@@ -12646,7 +12690,7 @@
         <v>159</v>
       </c>
       <c r="D309" s="183" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F309" s="14"/>
       <c r="G309" s="14"/>
@@ -12664,7 +12708,7 @@
         <v>161</v>
       </c>
       <c r="D310" s="183" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F310" s="14"/>
       <c r="G310" s="14"/>
@@ -12682,7 +12726,7 @@
         <v>163</v>
       </c>
       <c r="D311" s="183" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F311" s="14"/>
       <c r="G311" s="14"/>
@@ -12700,7 +12744,7 @@
         <v>165</v>
       </c>
       <c r="D312" s="183" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F312" s="14"/>
       <c r="G312" s="14"/>
@@ -12718,7 +12762,7 @@
         <v>167</v>
       </c>
       <c r="D313" s="183" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F313" s="14"/>
       <c r="G313" s="14"/>
@@ -12736,7 +12780,7 @@
         <v>169</v>
       </c>
       <c r="D314" s="183" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F314" s="14"/>
       <c r="G314" s="14"/>
@@ -12754,7 +12798,7 @@
         <v>171</v>
       </c>
       <c r="D315" s="183" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F315" s="14"/>
       <c r="G315" s="14"/>
@@ -12772,7 +12816,7 @@
         <v>173</v>
       </c>
       <c r="D316" s="183" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F316" s="14"/>
       <c r="G316" s="14"/>
@@ -12790,7 +12834,7 @@
         <v>175</v>
       </c>
       <c r="D317" s="183" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F317" s="14"/>
       <c r="G317" s="14"/>
@@ -12808,7 +12852,7 @@
         <v>161</v>
       </c>
       <c r="D318" s="183" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F318" s="14"/>
       <c r="G318" s="14"/>
@@ -12826,7 +12870,7 @@
         <v>236</v>
       </c>
       <c r="D319" s="183" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F319" s="14"/>
       <c r="G319" s="14"/>
@@ -12841,10 +12885,10 @@
         <v>0</v>
       </c>
       <c r="C320" s="42" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D320" s="183" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F320" s="14"/>
       <c r="G320" s="14"/>
@@ -12862,7 +12906,7 @@
         <v>239</v>
       </c>
       <c r="D321" s="183" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F321" s="14"/>
       <c r="G321" s="14"/>
@@ -12880,7 +12924,7 @@
         <v>241</v>
       </c>
       <c r="D322" s="183" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F322" s="14"/>
       <c r="G322" s="14"/>
@@ -12895,10 +12939,10 @@
         <v>0</v>
       </c>
       <c r="C323" s="42" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D323" s="183" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F323" s="14"/>
       <c r="G323" s="14"/>
@@ -12916,7 +12960,7 @@
         <v>244</v>
       </c>
       <c r="D324" s="183" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F324" s="14"/>
       <c r="G324" s="14"/>
@@ -12934,7 +12978,7 @@
         <v>246</v>
       </c>
       <c r="D325" s="183" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F325" s="14"/>
       <c r="G325" s="14"/>
@@ -12952,7 +12996,7 @@
         <v>147</v>
       </c>
       <c r="D326" s="183" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F326" s="14"/>
       <c r="G326" s="14"/>
@@ -12970,7 +13014,7 @@
         <v>149</v>
       </c>
       <c r="D327" s="183" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F327" s="14"/>
       <c r="G327" s="14"/>
@@ -12988,7 +13032,7 @@
         <v>151</v>
       </c>
       <c r="D328" s="183" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F328" s="14"/>
       <c r="G328" s="14"/>
@@ -13006,7 +13050,7 @@
         <v>153</v>
       </c>
       <c r="D329" s="183" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F329" s="14"/>
       <c r="G329" s="14"/>
@@ -13024,7 +13068,7 @@
         <v>155</v>
       </c>
       <c r="D330" s="183" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F330" s="14"/>
       <c r="G330" s="14"/>
@@ -13042,7 +13086,7 @@
         <v>157</v>
       </c>
       <c r="D331" s="183" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F331" s="14"/>
       <c r="G331" s="14"/>
@@ -13060,7 +13104,7 @@
         <v>159</v>
       </c>
       <c r="D332" s="183" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F332" s="14"/>
       <c r="G332" s="14"/>
@@ -13078,7 +13122,7 @@
         <v>161</v>
       </c>
       <c r="D333" s="183" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F333" s="14"/>
       <c r="G333" s="14"/>
@@ -13096,7 +13140,7 @@
         <v>163</v>
       </c>
       <c r="D334" s="183" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F334" s="14"/>
       <c r="G334" s="14"/>
@@ -13114,7 +13158,7 @@
         <v>165</v>
       </c>
       <c r="D335" s="183" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F335" s="14"/>
       <c r="G335" s="14"/>
@@ -13132,7 +13176,7 @@
         <v>167</v>
       </c>
       <c r="D336" s="183" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F336" s="14"/>
       <c r="G336" s="14"/>
@@ -13150,7 +13194,7 @@
         <v>169</v>
       </c>
       <c r="D337" s="183" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F337" s="14"/>
       <c r="G337" s="14"/>
@@ -13168,7 +13212,7 @@
         <v>171</v>
       </c>
       <c r="D338" s="183" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F338" s="14"/>
       <c r="G338" s="14"/>
@@ -13186,7 +13230,7 @@
         <v>173</v>
       </c>
       <c r="D339" s="183" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F339" s="14"/>
       <c r="G339" s="14"/>
@@ -13204,7 +13248,7 @@
         <v>175</v>
       </c>
       <c r="D340" s="183" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F340" s="14"/>
       <c r="G340" s="14"/>
@@ -13222,7 +13266,7 @@
         <v>161</v>
       </c>
       <c r="D341" s="183" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F341" s="14"/>
       <c r="G341" s="14"/>
@@ -13240,7 +13284,7 @@
         <v>264</v>
       </c>
       <c r="D342" s="183" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F342" s="14"/>
       <c r="G342" s="14"/>
@@ -13255,10 +13299,10 @@
         <v>0</v>
       </c>
       <c r="C343" s="42" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D343" s="183" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F343" s="14"/>
       <c r="G343" s="14"/>
@@ -13276,7 +13320,7 @@
         <v>267</v>
       </c>
       <c r="D344" s="183" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F344" s="14"/>
       <c r="G344" s="14"/>
@@ -13294,7 +13338,7 @@
         <v>269</v>
       </c>
       <c r="D345" s="183" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F345" s="14"/>
       <c r="G345" s="14"/>
@@ -13309,10 +13353,10 @@
         <v>0</v>
       </c>
       <c r="C346" s="42" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D346" s="183" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F346" s="14"/>
       <c r="G346" s="14"/>
@@ -13330,7 +13374,7 @@
         <v>272</v>
       </c>
       <c r="D347" s="183" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F347" s="14"/>
       <c r="G347" s="14"/>
@@ -13348,7 +13392,7 @@
         <v>274</v>
       </c>
       <c r="D348" s="183" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F348" s="14"/>
       <c r="G348" s="14"/>
@@ -13366,7 +13410,7 @@
         <v>147</v>
       </c>
       <c r="D349" s="183" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F349" s="14"/>
       <c r="G349" s="14"/>
@@ -13384,7 +13428,7 @@
         <v>149</v>
       </c>
       <c r="D350" s="183" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F350" s="14"/>
       <c r="G350" s="14"/>
@@ -13402,7 +13446,7 @@
         <v>151</v>
       </c>
       <c r="D351" s="183" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F351" s="14"/>
       <c r="G351" s="14"/>
@@ -13420,7 +13464,7 @@
         <v>222</v>
       </c>
       <c r="D352" s="183" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F352" s="14"/>
       <c r="G352" s="14"/>
@@ -13438,7 +13482,7 @@
         <v>155</v>
       </c>
       <c r="D353" s="183" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F353" s="14"/>
       <c r="G353" s="14"/>
@@ -13456,7 +13500,7 @@
         <v>157</v>
       </c>
       <c r="D354" s="183" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F354" s="14"/>
       <c r="G354" s="14"/>
@@ -13474,7 +13518,7 @@
         <v>159</v>
       </c>
       <c r="D355" s="183" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F355" s="14"/>
       <c r="G355" s="14"/>
@@ -13492,7 +13536,7 @@
         <v>161</v>
       </c>
       <c r="D356" s="183" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F356" s="14"/>
       <c r="G356" s="14"/>
@@ -13510,7 +13554,7 @@
         <v>163</v>
       </c>
       <c r="D357" s="183" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="F357" s="14"/>
       <c r="G357" s="14"/>
@@ -13528,7 +13572,7 @@
         <v>165</v>
       </c>
       <c r="D358" s="183" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F358" s="14"/>
       <c r="G358" s="14"/>
@@ -13546,7 +13590,7 @@
         <v>167</v>
       </c>
       <c r="D359" s="183" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F359" s="14"/>
       <c r="G359" s="14"/>
@@ -13564,7 +13608,7 @@
         <v>201</v>
       </c>
       <c r="D360" s="183" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F360" s="14"/>
       <c r="G360" s="14"/>
@@ -13582,7 +13626,7 @@
         <v>288</v>
       </c>
       <c r="D361" s="183" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F361" s="14"/>
       <c r="G361" s="14"/>
@@ -13600,7 +13644,7 @@
         <v>173</v>
       </c>
       <c r="D362" s="183" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F362" s="14"/>
       <c r="G362" s="14"/>
@@ -13618,7 +13662,7 @@
         <v>175</v>
       </c>
       <c r="D363" s="183" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F363" s="14"/>
       <c r="G363" s="14"/>
@@ -13636,7 +13680,7 @@
         <v>161</v>
       </c>
       <c r="D364" s="183" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F364" s="14"/>
       <c r="G364" s="14"/>
@@ -13654,7 +13698,7 @@
         <v>293</v>
       </c>
       <c r="D365" s="183" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F365" s="14"/>
       <c r="G365" s="14"/>
@@ -13669,10 +13713,10 @@
         <v>0</v>
       </c>
       <c r="C366" s="42" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D366" s="183" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F366" s="14"/>
       <c r="G366" s="14"/>
@@ -13690,7 +13734,7 @@
         <v>296</v>
       </c>
       <c r="D367" s="183" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F367" s="14"/>
       <c r="G367" s="14"/>
@@ -13708,7 +13752,7 @@
         <v>298</v>
       </c>
       <c r="D368" s="183" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F368" s="14"/>
       <c r="G368" s="14"/>
@@ -13723,10 +13767,10 @@
         <v>0</v>
       </c>
       <c r="C369" s="42" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D369" s="183" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F369" s="14"/>
       <c r="G369" s="14"/>
@@ -13744,7 +13788,7 @@
         <v>301</v>
       </c>
       <c r="D370" s="183" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F370" s="14"/>
       <c r="G370" s="14"/>
@@ -13762,7 +13806,7 @@
         <v>303</v>
       </c>
       <c r="D371" s="183" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F371" s="14"/>
       <c r="G371" s="14"/>
@@ -13780,7 +13824,7 @@
         <v>147</v>
       </c>
       <c r="D372" s="183" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F372" s="14"/>
       <c r="G372" s="14"/>
@@ -13798,7 +13842,7 @@
         <v>149</v>
       </c>
       <c r="D373" s="183" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F373" s="14"/>
       <c r="G373" s="14"/>
@@ -13816,7 +13860,7 @@
         <v>151</v>
       </c>
       <c r="D374" s="183" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F374" s="14"/>
       <c r="G374" s="14"/>
@@ -13834,7 +13878,7 @@
         <v>153</v>
       </c>
       <c r="D375" s="183" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F375" s="14"/>
       <c r="G375" s="14"/>
@@ -13852,7 +13896,7 @@
         <v>155</v>
       </c>
       <c r="D376" s="183" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F376" s="14"/>
       <c r="G376" s="14"/>
@@ -13870,7 +13914,7 @@
         <v>157</v>
       </c>
       <c r="D377" s="183" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F377" s="14"/>
       <c r="G377" s="14"/>
@@ -13888,7 +13932,7 @@
         <v>159</v>
       </c>
       <c r="D378" s="183" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F378" s="14"/>
       <c r="G378" s="14"/>
@@ -13906,7 +13950,7 @@
         <v>161</v>
       </c>
       <c r="D379" s="183" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F379" s="14"/>
       <c r="G379" s="14"/>
@@ -13924,7 +13968,7 @@
         <v>163</v>
       </c>
       <c r="D380" s="183" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F380" s="14"/>
       <c r="G380" s="14"/>
@@ -13942,7 +13986,7 @@
         <v>165</v>
       </c>
       <c r="D381" s="183" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F381" s="14"/>
       <c r="G381" s="14"/>
@@ -13960,7 +14004,7 @@
         <v>167</v>
       </c>
       <c r="D382" s="183" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F382" s="14"/>
       <c r="G382" s="14"/>
@@ -13978,7 +14022,7 @@
         <v>169</v>
       </c>
       <c r="D383" s="183" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F383" s="14"/>
       <c r="G383" s="14"/>
@@ -13996,7 +14040,7 @@
         <v>288</v>
       </c>
       <c r="D384" s="183" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F384" s="14"/>
       <c r="G384" s="14"/>
@@ -14014,7 +14058,7 @@
         <v>173</v>
       </c>
       <c r="D385" s="183" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F385" s="14"/>
       <c r="G385" s="14"/>
@@ -14032,7 +14076,7 @@
         <v>175</v>
       </c>
       <c r="D386" s="183" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F386" s="14"/>
       <c r="G386" s="14"/>
@@ -14050,7 +14094,7 @@
         <v>161</v>
       </c>
       <c r="D387" s="183" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F387" s="14"/>
       <c r="G387" s="14"/>
@@ -14068,7 +14112,7 @@
         <v>321</v>
       </c>
       <c r="D388" s="183" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F388" s="14"/>
       <c r="G388" s="14"/>
@@ -14083,10 +14127,10 @@
         <v>0</v>
       </c>
       <c r="C389" s="42" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D389" s="183" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="F389" s="14"/>
       <c r="G389" s="14"/>
@@ -14104,7 +14148,7 @@
         <v>324</v>
       </c>
       <c r="D390" s="183" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F390" s="14"/>
       <c r="G390" s="14"/>
@@ -14122,7 +14166,7 @@
         <v>326</v>
       </c>
       <c r="D391" s="183" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F391" s="14"/>
       <c r="G391" s="14"/>
@@ -14137,10 +14181,10 @@
         <v>0</v>
       </c>
       <c r="C392" s="42" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D392" s="183" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F392" s="14"/>
       <c r="G392" s="14"/>
@@ -14158,7 +14202,7 @@
         <v>329</v>
       </c>
       <c r="D393" s="183" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F393" s="14"/>
       <c r="G393" s="14"/>
@@ -14176,7 +14220,7 @@
         <v>331</v>
       </c>
       <c r="D394" s="183" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F394" s="14"/>
       <c r="G394" s="14"/>
@@ -14194,7 +14238,7 @@
         <v>147</v>
       </c>
       <c r="D395" s="183" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="F395" s="14"/>
       <c r="G395" s="14"/>
@@ -14212,7 +14256,7 @@
         <v>149</v>
       </c>
       <c r="D396" s="183" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F396" s="14"/>
       <c r="G396" s="14"/>
@@ -14230,7 +14274,7 @@
         <v>151</v>
       </c>
       <c r="D397" s="183" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F397" s="14"/>
       <c r="G397" s="14"/>
@@ -14248,7 +14292,7 @@
         <v>153</v>
       </c>
       <c r="D398" s="183" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F398" s="14"/>
       <c r="G398" s="14"/>
@@ -14266,7 +14310,7 @@
         <v>155</v>
       </c>
       <c r="D399" s="183" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="F399" s="14"/>
       <c r="G399" s="14"/>
@@ -14284,7 +14328,7 @@
         <v>157</v>
       </c>
       <c r="D400" s="183" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F400" s="14"/>
       <c r="G400" s="14"/>
@@ -14302,7 +14346,7 @@
         <v>159</v>
       </c>
       <c r="D401" s="183" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F401" s="14"/>
       <c r="G401" s="14"/>
@@ -14320,7 +14364,7 @@
         <v>161</v>
       </c>
       <c r="D402" s="183" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F402" s="14"/>
       <c r="G402" s="14"/>
@@ -14338,7 +14382,7 @@
         <v>163</v>
       </c>
       <c r="D403" s="183" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F403" s="14"/>
       <c r="G403" s="14"/>
@@ -14356,7 +14400,7 @@
         <v>165</v>
       </c>
       <c r="D404" s="183" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F404" s="14"/>
       <c r="G404" s="14"/>
@@ -14374,7 +14418,7 @@
         <v>167</v>
       </c>
       <c r="D405" s="183" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F405" s="14"/>
       <c r="G405" s="14"/>
@@ -14392,7 +14436,7 @@
         <v>169</v>
       </c>
       <c r="D406" s="183" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F406" s="14"/>
       <c r="G406" s="14"/>
@@ -14410,7 +14454,7 @@
         <v>171</v>
       </c>
       <c r="D407" s="183" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F407" s="14"/>
       <c r="G407" s="14"/>
@@ -14428,7 +14472,7 @@
         <v>173</v>
       </c>
       <c r="D408" s="183" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F408" s="14"/>
       <c r="G408" s="14"/>
@@ -14446,7 +14490,7 @@
         <v>175</v>
       </c>
       <c r="D409" s="183" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F409" s="14"/>
       <c r="G409" s="14"/>
@@ -14464,7 +14508,7 @@
         <v>161</v>
       </c>
       <c r="D410" s="183" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F410" s="14"/>
       <c r="G410" s="14"/>
@@ -14482,7 +14526,7 @@
         <v>349</v>
       </c>
       <c r="D411" s="183" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F411" s="14"/>
       <c r="G411" s="14"/>
@@ -14497,10 +14541,10 @@
         <v>0</v>
       </c>
       <c r="C412" s="42" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D412" s="183" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F412" s="14"/>
       <c r="G412" s="14"/>
@@ -14518,7 +14562,7 @@
         <v>352</v>
       </c>
       <c r="D413" s="183" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F413" s="14"/>
       <c r="G413" s="14"/>
@@ -14536,7 +14580,7 @@
         <v>354</v>
       </c>
       <c r="D414" s="183" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F414" s="14"/>
       <c r="G414" s="14"/>
@@ -14551,10 +14595,10 @@
         <v>0</v>
       </c>
       <c r="C415" s="42" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D415" s="183" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="F415" s="14"/>
       <c r="G415" s="14"/>
@@ -14572,7 +14616,7 @@
         <v>357</v>
       </c>
       <c r="D416" s="183" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F416" s="14"/>
       <c r="G416" s="14"/>
@@ -14590,7 +14634,7 @@
         <v>359</v>
       </c>
       <c r="D417" s="183" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="F417" s="14"/>
       <c r="G417" s="14"/>
@@ -14608,7 +14652,7 @@
         <v>147</v>
       </c>
       <c r="D418" s="183" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F418" s="14"/>
       <c r="G418" s="14"/>
@@ -14626,7 +14670,7 @@
         <v>149</v>
       </c>
       <c r="D419" s="183" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F419" s="14"/>
       <c r="G419" s="14"/>
@@ -14644,7 +14688,7 @@
         <v>151</v>
       </c>
       <c r="D420" s="183" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F420" s="14"/>
       <c r="G420" s="14"/>
@@ -14662,7 +14706,7 @@
         <v>153</v>
       </c>
       <c r="D421" s="183" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F421" s="14"/>
       <c r="G421" s="14"/>
@@ -14680,7 +14724,7 @@
         <v>155</v>
       </c>
       <c r="D422" s="183" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F422" s="14"/>
       <c r="G422" s="14"/>
@@ -14698,7 +14742,7 @@
         <v>157</v>
       </c>
       <c r="D423" s="183" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F423" s="14"/>
       <c r="G423" s="14"/>
@@ -14716,7 +14760,7 @@
         <v>159</v>
       </c>
       <c r="D424" s="183" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F424" s="14"/>
       <c r="G424" s="14"/>
@@ -14734,7 +14778,7 @@
         <v>161</v>
       </c>
       <c r="D425" s="183" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F425" s="14"/>
       <c r="G425" s="14"/>
@@ -14752,7 +14796,7 @@
         <v>163</v>
       </c>
       <c r="D426" s="183" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F426" s="14"/>
       <c r="G426" s="14"/>
@@ -14770,7 +14814,7 @@
         <v>165</v>
       </c>
       <c r="D427" s="183" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F427" s="14"/>
       <c r="G427" s="14"/>
@@ -14788,7 +14832,7 @@
         <v>167</v>
       </c>
       <c r="D428" s="183" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F428" s="14"/>
       <c r="G428" s="14"/>
@@ -14806,7 +14850,7 @@
         <v>169</v>
       </c>
       <c r="D429" s="183" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F429" s="14"/>
       <c r="G429" s="14"/>
@@ -14824,7 +14868,7 @@
         <v>288</v>
       </c>
       <c r="D430" s="183" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F430" s="14"/>
       <c r="G430" s="14"/>
@@ -14842,7 +14886,7 @@
         <v>173</v>
       </c>
       <c r="D431" s="183" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F431" s="14"/>
       <c r="G431" s="14"/>
@@ -14860,7 +14904,7 @@
         <v>175</v>
       </c>
       <c r="D432" s="183" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F432" s="14"/>
       <c r="G432" s="14"/>
@@ -14878,7 +14922,7 @@
         <v>161</v>
       </c>
       <c r="D433" s="183" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="F433" s="14"/>
       <c r="G433" s="14"/>
@@ -14896,7 +14940,7 @@
         <v>377</v>
       </c>
       <c r="D434" s="183" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F434" s="14"/>
       <c r="G434" s="14"/>
@@ -14911,10 +14955,10 @@
         <v>0</v>
       </c>
       <c r="C435" s="42" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D435" s="183" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="F435" s="14"/>
       <c r="G435" s="14"/>
@@ -14932,7 +14976,7 @@
         <v>380</v>
       </c>
       <c r="D436" s="183" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F436" s="14"/>
       <c r="G436" s="14"/>
@@ -14950,7 +14994,7 @@
         <v>382</v>
       </c>
       <c r="D437" s="183" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F437" s="14"/>
       <c r="G437" s="14"/>
@@ -14965,10 +15009,10 @@
         <v>0</v>
       </c>
       <c r="C438" s="42" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D438" s="183" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F438" s="14"/>
       <c r="G438" s="14"/>
@@ -14986,7 +15030,7 @@
         <v>385</v>
       </c>
       <c r="D439" s="183" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F439" s="14"/>
       <c r="G439" s="14"/>
@@ -15004,7 +15048,7 @@
         <v>387</v>
       </c>
       <c r="D440" s="183" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F440" s="14"/>
       <c r="G440" s="14"/>
@@ -15022,7 +15066,7 @@
         <v>389</v>
       </c>
       <c r="D441" s="183" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F441" s="14"/>
       <c r="G441" s="14"/>
@@ -15040,7 +15084,7 @@
         <v>149</v>
       </c>
       <c r="D442" s="183" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F442" s="14"/>
       <c r="G442" s="14"/>
@@ -15058,7 +15102,7 @@
         <v>151</v>
       </c>
       <c r="D443" s="183" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F443" s="14"/>
       <c r="G443" s="14"/>
@@ -15076,7 +15120,7 @@
         <v>153</v>
       </c>
       <c r="D444" s="183" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F444" s="14"/>
       <c r="G444" s="14"/>
@@ -15094,7 +15138,7 @@
         <v>394</v>
       </c>
       <c r="D445" s="183" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F445" s="14"/>
       <c r="G445" s="14"/>
@@ -15112,7 +15156,7 @@
         <v>157</v>
       </c>
       <c r="D446" s="183" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F446" s="14"/>
       <c r="G446" s="14"/>
@@ -15130,7 +15174,7 @@
         <v>159</v>
       </c>
       <c r="D447" s="183" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F447" s="14"/>
       <c r="G447" s="14"/>
@@ -15148,7 +15192,7 @@
         <v>161</v>
       </c>
       <c r="D448" s="183" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F448" s="14"/>
       <c r="G448" s="14"/>
@@ -15166,7 +15210,7 @@
         <v>163</v>
       </c>
       <c r="D449" s="183" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="F449" s="14"/>
       <c r="G449" s="14"/>
@@ -15184,7 +15228,7 @@
         <v>165</v>
       </c>
       <c r="D450" s="183" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F450" s="14"/>
       <c r="G450" s="14"/>
@@ -15202,7 +15246,7 @@
         <v>167</v>
       </c>
       <c r="D451" s="183" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F451" s="14"/>
       <c r="G451" s="14"/>
@@ -15220,7 +15264,7 @@
         <v>169</v>
       </c>
       <c r="D452" s="183" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F452" s="14"/>
       <c r="G452" s="14"/>
@@ -15238,7 +15282,7 @@
         <v>171</v>
       </c>
       <c r="D453" s="183" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="F453" s="14"/>
       <c r="G453" s="14"/>
@@ -15256,7 +15300,7 @@
         <v>173</v>
       </c>
       <c r="D454" s="183" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F454" s="14"/>
       <c r="G454" s="14"/>
@@ -15274,7 +15318,7 @@
         <v>175</v>
       </c>
       <c r="D455" s="183" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F455" s="14"/>
       <c r="G455" s="14"/>
@@ -15292,7 +15336,7 @@
         <v>161</v>
       </c>
       <c r="D456" s="183" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F456" s="14"/>
       <c r="G456" s="14"/>
@@ -15310,7 +15354,7 @@
         <v>407</v>
       </c>
       <c r="D457" s="183" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F457" s="14"/>
       <c r="G457" s="14"/>
@@ -15325,10 +15369,10 @@
         <v>0</v>
       </c>
       <c r="C458" s="42" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D458" s="183" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F458" s="14"/>
       <c r="G458" s="14"/>
@@ -15346,7 +15390,7 @@
         <v>410</v>
       </c>
       <c r="D459" s="183" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F459" s="14"/>
       <c r="G459" s="14"/>
@@ -15364,7 +15408,7 @@
         <v>412</v>
       </c>
       <c r="D460" s="183" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F460" s="14"/>
       <c r="G460" s="14"/>
@@ -15379,10 +15423,10 @@
         <v>0</v>
       </c>
       <c r="C461" s="42" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D461" s="183" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F461" s="14"/>
       <c r="G461" s="14"/>
@@ -15400,7 +15444,7 @@
         <v>415</v>
       </c>
       <c r="D462" s="183" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F462" s="14"/>
       <c r="G462" s="14"/>
@@ -15418,7 +15462,7 @@
         <v>417</v>
       </c>
       <c r="D463" s="183" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="F463" s="14"/>
       <c r="G463" s="14"/>
@@ -15436,7 +15480,7 @@
         <v>147</v>
       </c>
       <c r="D464" s="183" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F464" s="14"/>
       <c r="G464" s="14"/>
@@ -15454,7 +15498,7 @@
         <v>149</v>
       </c>
       <c r="D465" s="183" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F465" s="14"/>
       <c r="G465" s="14"/>
@@ -15472,7 +15516,7 @@
         <v>151</v>
       </c>
       <c r="D466" s="183" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F466" s="14"/>
       <c r="G466" s="14"/>
@@ -15490,7 +15534,7 @@
         <v>222</v>
       </c>
       <c r="D467" s="183" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="F467" s="14"/>
       <c r="G467" s="14"/>
@@ -15508,7 +15552,7 @@
         <v>155</v>
       </c>
       <c r="D468" s="183" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F468" s="14"/>
       <c r="G468" s="14"/>
@@ -15526,7 +15570,7 @@
         <v>157</v>
       </c>
       <c r="D469" s="183" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F469" s="14"/>
       <c r="G469" s="14"/>
@@ -15544,7 +15588,7 @@
         <v>159</v>
       </c>
       <c r="D470" s="183" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F470" s="14"/>
       <c r="G470" s="14"/>
@@ -15562,7 +15606,7 @@
         <v>161</v>
       </c>
       <c r="D471" s="183" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F471" s="14"/>
       <c r="G471" s="14"/>
@@ -15580,7 +15624,7 @@
         <v>163</v>
       </c>
       <c r="D472" s="183" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F472" s="14"/>
       <c r="G472" s="14"/>
@@ -15598,7 +15642,7 @@
         <v>165</v>
       </c>
       <c r="D473" s="183" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F473" s="14"/>
       <c r="G473" s="14"/>
@@ -15616,7 +15660,7 @@
         <v>167</v>
       </c>
       <c r="D474" s="183" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F474" s="14"/>
       <c r="G474" s="14"/>
@@ -15634,7 +15678,7 @@
         <v>169</v>
       </c>
       <c r="D475" s="183" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="F475" s="14"/>
       <c r="G475" s="14"/>
@@ -15652,7 +15696,7 @@
         <v>171</v>
       </c>
       <c r="D476" s="183" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F476" s="14"/>
       <c r="G476" s="14"/>
@@ -15670,7 +15714,7 @@
         <v>173</v>
       </c>
       <c r="D477" s="183" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F477" s="14"/>
       <c r="G477" s="14"/>
@@ -15688,7 +15732,7 @@
         <v>175</v>
       </c>
       <c r="D478" s="183" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F478" s="14"/>
       <c r="G478" s="14"/>
@@ -15706,7 +15750,7 @@
         <v>161</v>
       </c>
       <c r="D479" s="183" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F479" s="14"/>
       <c r="G479" s="14"/>
@@ -15766,21 +15810,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="31">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A125:B125"/>
     <mergeCell ref="A213:B213"/>
     <mergeCell ref="A218:B218"/>
     <mergeCell ref="A228:B228"/>
@@ -15797,6 +15826,21 @@
     <mergeCell ref="A188:B188"/>
     <mergeCell ref="A195:B195"/>
     <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A36" location="'Move or Copy'!A1" display="Link to Move or Copy"/>
@@ -15836,8 +15880,8 @@
   </sheetPr>
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -15851,32 +15895,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="11" customFormat="1" ht="66.5" customHeight="1">
-      <c r="A1" s="247" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
+      <c r="A1" s="251" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:25" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A2" s="249"/>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
+      <c r="A2" s="253"/>
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="253"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:25" s="11" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="252" t="s">
-        <v>531</v>
-      </c>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
+      <c r="A3" s="256" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3" s="257"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
       <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:25" s="11" customFormat="1" ht="18.5" customHeight="1">
@@ -15891,12 +15935,12 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:25" s="159" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="262" t="s">
-        <v>672</v>
-      </c>
-      <c r="B5" s="263"/>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
+      <c r="A5" s="266" t="s">
+        <v>670</v>
+      </c>
+      <c r="B5" s="267"/>
+      <c r="C5" s="267"/>
+      <c r="D5" s="267"/>
       <c r="E5" s="157"/>
       <c r="F5" s="158"/>
       <c r="G5" s="157"/>
@@ -15919,7 +15963,7 @@
     </row>
     <row r="6" spans="1:25" ht="36" customHeight="1">
       <c r="A6" s="67" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
@@ -15946,10 +15990,10 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
-      <c r="A7" s="260" t="s">
-        <v>989</v>
-      </c>
-      <c r="B7" s="259"/>
+      <c r="A7" s="264" t="s">
+        <v>987</v>
+      </c>
+      <c r="B7" s="263"/>
       <c r="C7" s="93"/>
       <c r="D7" s="125"/>
       <c r="E7" s="18"/>
@@ -15976,7 +16020,7 @@
     </row>
     <row r="8" spans="1:25" s="60" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="174" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B8" s="163"/>
       <c r="C8" s="163"/>
@@ -16003,7 +16047,7 @@
     </row>
     <row r="9" spans="1:25" s="130" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="131" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B9" s="127"/>
       <c r="C9" s="127"/>
@@ -16042,7 +16086,7 @@
     </row>
     <row r="12" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="74" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="86"/>
@@ -16050,12 +16094,12 @@
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="136"/>
       <c r="D13" s="140" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -16065,12 +16109,12 @@
     </row>
     <row r="14" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A14" s="75" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -16080,12 +16124,12 @@
     </row>
     <row r="15" spans="1:25" ht="96" customHeight="1" thickBot="1">
       <c r="A15" s="75" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -16095,7 +16139,7 @@
     </row>
     <row r="16" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="74" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B16" s="133"/>
       <c r="C16" s="86"/>
@@ -16103,12 +16147,12 @@
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="137"/>
       <c r="D17" s="140" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -16118,12 +16162,12 @@
     </row>
     <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -16133,12 +16177,12 @@
     </row>
     <row r="19" spans="1:24" ht="96" customHeight="1" thickBot="1">
       <c r="A19" s="75" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -16147,21 +16191,21 @@
       <c r="I19" s="42"/>
     </row>
     <row r="20" spans="1:24" s="139" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A20" s="264"/>
-      <c r="B20" s="265"/>
-      <c r="C20" s="265"/>
-      <c r="D20" s="265" t="s">
+      <c r="A20" s="268"/>
+      <c r="B20" s="269"/>
+      <c r="C20" s="269"/>
+      <c r="D20" s="269" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="138"/>
     </row>
     <row r="21" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A21" s="238" t="s">
-        <v>519</v>
-      </c>
-      <c r="B21" s="238"/>
-      <c r="C21" s="238"/>
-      <c r="D21" s="238"/>
+      <c r="A21" s="242" t="s">
+        <v>517</v>
+      </c>
+      <c r="B21" s="242"/>
+      <c r="C21" s="242"/>
+      <c r="D21" s="242"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -16184,7 +16228,7 @@
     </row>
     <row r="22" spans="1:24" ht="20.25" customHeight="1">
       <c r="A22" s="175" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B22" s="144"/>
       <c r="C22" s="144"/>
@@ -16210,11 +16254,11 @@
       <c r="W22" s="18"/>
     </row>
     <row r="23" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="256" t="s">
-        <v>684</v>
-      </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
+      <c r="A23" s="260" t="s">
+        <v>682</v>
+      </c>
+      <c r="B23" s="236"/>
+      <c r="C23" s="236"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -16265,12 +16309,12 @@
     </row>
     <row r="25" spans="1:24" ht="16.25" customHeight="1">
       <c r="A25" s="142" t="s">
-        <v>453</v>
-      </c>
-      <c r="B25" s="261" t="s">
-        <v>702</v>
-      </c>
-      <c r="C25" s="261"/>
+        <v>452</v>
+      </c>
+      <c r="B25" s="265" t="s">
+        <v>700</v>
+      </c>
+      <c r="C25" s="265"/>
       <c r="D25" s="106"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
@@ -16295,13 +16339,13 @@
     <row r="26" spans="1:24" ht="33" customHeight="1">
       <c r="A26" s="146"/>
       <c r="B26" s="147" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C26" s="148" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D26" s="149" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E26" s="19"/>
     </row>
@@ -16345,7 +16389,7 @@
       <c r="B30" s="152"/>
       <c r="C30" s="152"/>
       <c r="D30" s="150" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E30" s="21"/>
     </row>
@@ -16422,10 +16466,10 @@
       <c r="F36" s="43"/>
     </row>
     <row r="37" spans="1:6" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A37" s="250"/>
-      <c r="B37" s="251"/>
-      <c r="C37" s="251"/>
-      <c r="D37" s="251"/>
+      <c r="A37" s="254"/>
+      <c r="B37" s="255"/>
+      <c r="C37" s="255"/>
+      <c r="D37" s="255"/>
       <c r="E37" s="10"/>
     </row>
   </sheetData>
@@ -16465,47 +16509,47 @@
   </sheetPr>
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.83203125" style="62" customWidth="1"/>
-    <col min="2" max="3" width="20.6640625" style="62" customWidth="1"/>
-    <col min="4" max="4" width="63.5" style="62" customWidth="1"/>
-    <col min="5" max="5" width="3.5" style="62" customWidth="1"/>
-    <col min="6" max="6" width="78.1640625" style="62" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="62"/>
+    <col min="1" max="1" width="36.83203125" style="230" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" style="230" customWidth="1"/>
+    <col min="4" max="4" width="63.5" style="230" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="230" customWidth="1"/>
+    <col min="6" max="6" width="78.1640625" style="230" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="230"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="11" customFormat="1" ht="66.5" customHeight="1">
-      <c r="A1" s="247" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
+      <c r="A1" s="251" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:25" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A2" s="249"/>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
+      <c r="A2" s="253"/>
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="253"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:25" s="11" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="252" t="s">
-        <v>531</v>
-      </c>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
+      <c r="A3" s="256" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3" s="257"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
       <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:25" s="11" customFormat="1" ht="18.5" customHeight="1">
@@ -16520,12 +16564,12 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:25" s="159" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="262" t="s">
-        <v>672</v>
-      </c>
-      <c r="B5" s="263"/>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
+      <c r="A5" s="266" t="s">
+        <v>670</v>
+      </c>
+      <c r="B5" s="267"/>
+      <c r="C5" s="267"/>
+      <c r="D5" s="267"/>
       <c r="E5" s="157"/>
       <c r="F5" s="158"/>
       <c r="G5" s="157"/>
@@ -16548,10 +16592,10 @@
     </row>
     <row r="6" spans="1:25" ht="36" customHeight="1">
       <c r="A6" s="67" t="s">
-        <v>513</v>
-      </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
+        <v>512</v>
+      </c>
+      <c r="B6" s="231"/>
+      <c r="C6" s="231"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
@@ -16575,10 +16619,10 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
-      <c r="A7" s="260" t="s">
-        <v>989</v>
-      </c>
-      <c r="B7" s="259"/>
+      <c r="A7" s="264" t="s">
+        <v>987</v>
+      </c>
+      <c r="B7" s="263"/>
       <c r="C7" s="93"/>
       <c r="D7" s="125"/>
       <c r="E7" s="18"/>
@@ -16605,7 +16649,7 @@
     </row>
     <row r="8" spans="1:25" s="60" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="174" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B8" s="163"/>
       <c r="C8" s="163"/>
@@ -16630,9 +16674,9 @@
       <c r="V8" s="63"/>
       <c r="W8" s="63"/>
     </row>
-    <row r="9" spans="1:25" s="130" customFormat="1" ht="21" customHeight="1" thickBot="1">
+    <row r="9" spans="1:25" s="233" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="131" t="s">
-        <v>988</v>
+        <v>513</v>
       </c>
       <c r="B9" s="127"/>
       <c r="C9" s="127"/>
@@ -16671,7 +16715,7 @@
     </row>
     <row r="12" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="74" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="86"/>
@@ -16679,12 +16723,12 @@
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="136"/>
       <c r="D13" s="140" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -16693,13 +16737,13 @@
       <c r="I13" s="42"/>
     </row>
     <row r="14" spans="1:25" ht="48" customHeight="1" thickBot="1">
-      <c r="A14" s="76" t="s">
-        <v>452</v>
+      <c r="A14" s="75" t="s">
+        <v>990</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -16709,12 +16753,12 @@
     </row>
     <row r="15" spans="1:25" ht="96" customHeight="1" thickBot="1">
       <c r="A15" s="75" t="s">
-        <v>515</v>
+        <v>980</v>
       </c>
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -16724,7 +16768,7 @@
     </row>
     <row r="16" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="74" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B16" s="133"/>
       <c r="C16" s="86"/>
@@ -16732,12 +16776,12 @@
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="137"/>
       <c r="D17" s="140" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -16747,12 +16791,12 @@
     </row>
     <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
-        <v>452</v>
+        <v>990</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -16762,12 +16806,12 @@
     </row>
     <row r="19" spans="1:24" ht="96" customHeight="1" thickBot="1">
       <c r="A19" s="75" t="s">
-        <v>515</v>
+        <v>980</v>
       </c>
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -16776,21 +16820,21 @@
       <c r="I19" s="42"/>
     </row>
     <row r="20" spans="1:24" s="139" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A20" s="264"/>
-      <c r="B20" s="265"/>
-      <c r="C20" s="265"/>
-      <c r="D20" s="265" t="s">
+      <c r="A20" s="268"/>
+      <c r="B20" s="269"/>
+      <c r="C20" s="269"/>
+      <c r="D20" s="269" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="138"/>
     </row>
     <row r="21" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A21" s="238" t="s">
-        <v>519</v>
-      </c>
-      <c r="B21" s="238"/>
-      <c r="C21" s="238"/>
-      <c r="D21" s="238"/>
+      <c r="A21" s="242" t="s">
+        <v>517</v>
+      </c>
+      <c r="B21" s="242"/>
+      <c r="C21" s="242"/>
+      <c r="D21" s="242"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -16813,7 +16857,7 @@
     </row>
     <row r="22" spans="1:24" ht="20.25" customHeight="1">
       <c r="A22" s="175" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B22" s="144"/>
       <c r="C22" s="144"/>
@@ -16838,12 +16882,12 @@
       <c r="V22" s="18"/>
       <c r="W22" s="18"/>
     </row>
-    <row r="23" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="256" t="s">
-        <v>684</v>
-      </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
+    <row r="23" spans="1:24" s="232" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="260" t="s">
+        <v>682</v>
+      </c>
+      <c r="B23" s="236"/>
+      <c r="C23" s="236"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -16866,7 +16910,7 @@
       <c r="W23" s="69"/>
       <c r="X23" s="69"/>
     </row>
-    <row r="24" spans="1:24" s="64" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:24" s="232" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="95"/>
       <c r="B24" s="96"/>
       <c r="C24" s="96"/>
@@ -16894,12 +16938,12 @@
     </row>
     <row r="25" spans="1:24" ht="16.25" customHeight="1">
       <c r="A25" s="142" t="s">
-        <v>453</v>
-      </c>
-      <c r="B25" s="261" t="s">
-        <v>702</v>
-      </c>
-      <c r="C25" s="261"/>
+        <v>452</v>
+      </c>
+      <c r="B25" s="265" t="s">
+        <v>700</v>
+      </c>
+      <c r="C25" s="265"/>
       <c r="D25" s="106"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
@@ -16924,13 +16968,13 @@
     <row r="26" spans="1:24" ht="33" customHeight="1">
       <c r="A26" s="146"/>
       <c r="B26" s="147" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C26" s="148" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D26" s="149" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E26" s="19"/>
     </row>
@@ -16974,7 +17018,7 @@
       <c r="B30" s="152"/>
       <c r="C30" s="152"/>
       <c r="D30" s="150" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E30" s="21"/>
     </row>
@@ -17051,10 +17095,10 @@
       <c r="F36" s="43"/>
     </row>
     <row r="37" spans="1:6" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A37" s="250"/>
-      <c r="B37" s="251"/>
-      <c r="C37" s="251"/>
-      <c r="D37" s="251"/>
+      <c r="A37" s="254"/>
+      <c r="B37" s="255"/>
+      <c r="C37" s="255"/>
+      <c r="D37" s="255"/>
       <c r="E37" s="10"/>
     </row>
   </sheetData>
@@ -17133,12 +17177,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="9" customFormat="1" ht="66.5" customHeight="1">
-      <c r="A1" s="247" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
+      <c r="A1" s="251" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="10"/>
@@ -17147,10 +17191,10 @@
       <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:25" s="9" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A2" s="249"/>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
+      <c r="A2" s="253"/>
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="253"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -17159,12 +17203,12 @@
       <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:25" s="9" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="252" t="s">
-        <v>531</v>
-      </c>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
+      <c r="A3" s="256" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3" s="257"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
     </row>
@@ -17180,12 +17224,12 @@
       <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:25" ht="46.5" customHeight="1">
-      <c r="A5" s="239" t="s">
-        <v>671</v>
-      </c>
-      <c r="B5" s="241"/>
-      <c r="C5" s="241"/>
-      <c r="D5" s="241"/>
+      <c r="A5" s="243" t="s">
+        <v>669</v>
+      </c>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
       <c r="E5" s="3"/>
       <c r="F5" s="30"/>
       <c r="G5" s="3"/>
@@ -17207,12 +17251,12 @@
       <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:25" s="171" customFormat="1" ht="36" customHeight="1">
-      <c r="A6" s="234" t="s">
-        <v>701</v>
-      </c>
-      <c r="B6" s="254"/>
-      <c r="C6" s="254"/>
-      <c r="D6" s="255"/>
+      <c r="A6" s="240" t="s">
+        <v>699</v>
+      </c>
+      <c r="B6" s="258"/>
+      <c r="C6" s="258"/>
+      <c r="D6" s="259"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
@@ -17235,10 +17279,10 @@
       <c r="X6" s="18"/>
     </row>
     <row r="7" spans="1:25" s="62" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A7" s="260" t="s">
-        <v>989</v>
-      </c>
-      <c r="B7" s="259"/>
+      <c r="A7" s="264" t="s">
+        <v>987</v>
+      </c>
+      <c r="B7" s="263"/>
       <c r="C7" s="93"/>
       <c r="D7" s="125"/>
       <c r="E7" s="18"/>
@@ -17265,7 +17309,7 @@
     </row>
     <row r="8" spans="1:25" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A8" s="173" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B8" s="126"/>
       <c r="C8" s="126"/>
@@ -17292,7 +17336,7 @@
     </row>
     <row r="9" spans="1:25" s="130" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="131" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B9" s="127"/>
       <c r="C9" s="127"/>
@@ -17331,7 +17375,7 @@
     </row>
     <row r="12" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="74" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="86"/>
@@ -17341,12 +17385,12 @@
     </row>
     <row r="13" spans="1:25" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="136"/>
       <c r="D13" s="140" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="14"/>
@@ -17356,12 +17400,12 @@
     </row>
     <row r="14" spans="1:25" s="1" customFormat="1" ht="48" customHeight="1" thickBot="1">
       <c r="A14" s="75" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="180" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="14"/>
@@ -17371,12 +17415,12 @@
     </row>
     <row r="15" spans="1:25" s="1" customFormat="1" ht="96" customHeight="1" thickBot="1">
       <c r="A15" s="178" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="180" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="13"/>
@@ -17386,7 +17430,7 @@
     </row>
     <row r="16" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="74" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B16" s="133"/>
       <c r="C16" s="86"/>
@@ -17398,12 +17442,12 @@
     </row>
     <row r="17" spans="1:24" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="137"/>
       <c r="D17" s="140" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="14"/>
@@ -17413,12 +17457,12 @@
     </row>
     <row r="18" spans="1:24" s="1" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
       <c r="A18" s="75" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="135"/>
       <c r="D18" s="180" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="14"/>
@@ -17428,12 +17472,12 @@
     </row>
     <row r="19" spans="1:24" s="1" customFormat="1" ht="96" customHeight="1" thickBot="1">
       <c r="A19" s="178" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B19" s="134"/>
       <c r="C19" s="66"/>
       <c r="D19" s="140" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -17442,20 +17486,20 @@
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:24" s="11" customFormat="1" ht="6" customHeight="1">
-      <c r="A20" s="258"/>
-      <c r="B20" s="259"/>
-      <c r="C20" s="259"/>
-      <c r="D20" s="259"/>
+      <c r="A20" s="262"/>
+      <c r="B20" s="263"/>
+      <c r="C20" s="263"/>
+      <c r="D20" s="263"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A21" s="238" t="s">
-        <v>519</v>
-      </c>
-      <c r="B21" s="238"/>
-      <c r="C21" s="238"/>
-      <c r="D21" s="238"/>
+      <c r="A21" s="242" t="s">
+        <v>517</v>
+      </c>
+      <c r="B21" s="242"/>
+      <c r="C21" s="242"/>
+      <c r="D21" s="242"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -17478,7 +17522,7 @@
     </row>
     <row r="22" spans="1:24" s="62" customFormat="1" ht="20.25" customHeight="1">
       <c r="A22" s="175" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B22" s="144"/>
       <c r="C22" s="144"/>
@@ -17504,11 +17548,11 @@
       <c r="W22" s="18"/>
     </row>
     <row r="23" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="256" t="s">
-        <v>684</v>
-      </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
+      <c r="A23" s="260" t="s">
+        <v>682</v>
+      </c>
+      <c r="B23" s="236"/>
+      <c r="C23" s="236"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -17559,12 +17603,12 @@
     </row>
     <row r="25" spans="1:24" ht="16.25" customHeight="1">
       <c r="A25" s="142" t="s">
-        <v>453</v>
-      </c>
-      <c r="B25" s="257" t="s">
-        <v>702</v>
-      </c>
-      <c r="C25" s="257"/>
+        <v>452</v>
+      </c>
+      <c r="B25" s="261" t="s">
+        <v>700</v>
+      </c>
+      <c r="C25" s="261"/>
       <c r="D25" s="106"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -17589,13 +17633,13 @@
     <row r="26" spans="1:24" s="20" customFormat="1" ht="33" customHeight="1">
       <c r="A26" s="146"/>
       <c r="B26" s="147" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C26" s="148" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D26" s="149" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E26" s="19"/>
     </row>
@@ -17642,7 +17686,7 @@
       <c r="B30" s="152"/>
       <c r="C30" s="152"/>
       <c r="D30" s="150" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="6"/>
@@ -17722,10 +17766,10 @@
       <c r="F36" s="43"/>
     </row>
     <row r="37" spans="1:6" s="9" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A37" s="250"/>
-      <c r="B37" s="251"/>
-      <c r="C37" s="251"/>
-      <c r="D37" s="251"/>
+      <c r="A37" s="254"/>
+      <c r="B37" s="255"/>
+      <c r="C37" s="255"/>
+      <c r="D37" s="255"/>
       <c r="E37" s="10"/>
       <c r="F37" s="11"/>
     </row>
@@ -18080,32 +18124,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="11" customFormat="1" ht="66.5" customHeight="1">
-      <c r="A1" s="247" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
+      <c r="A1" s="251" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:25" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A2" s="249"/>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
+      <c r="A2" s="253"/>
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="253"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:25" s="11" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="252" t="s">
-        <v>531</v>
-      </c>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
+      <c r="A3" s="256" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3" s="257"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
       <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:25" s="11" customFormat="1" ht="18.5" customHeight="1">
@@ -18120,12 +18164,12 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:25" s="159" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="262" t="s">
-        <v>672</v>
-      </c>
-      <c r="B5" s="263"/>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
+      <c r="A5" s="266" t="s">
+        <v>670</v>
+      </c>
+      <c r="B5" s="267"/>
+      <c r="C5" s="267"/>
+      <c r="D5" s="267"/>
       <c r="E5" s="157"/>
       <c r="F5" s="158"/>
       <c r="G5" s="157"/>
@@ -18148,7 +18192,7 @@
     </row>
     <row r="6" spans="1:25" ht="36" customHeight="1">
       <c r="A6" s="67" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
@@ -18175,10 +18219,10 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
-      <c r="A7" s="260" t="s">
-        <v>989</v>
-      </c>
-      <c r="B7" s="259"/>
+      <c r="A7" s="264" t="s">
+        <v>987</v>
+      </c>
+      <c r="B7" s="263"/>
       <c r="C7" s="93"/>
       <c r="D7" s="125"/>
       <c r="E7" s="18"/>
@@ -18205,7 +18249,7 @@
     </row>
     <row r="8" spans="1:25" s="60" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="174" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B8" s="163"/>
       <c r="C8" s="163"/>
@@ -18232,7 +18276,7 @@
     </row>
     <row r="9" spans="1:25" s="130" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="131" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B9" s="127"/>
       <c r="C9" s="127"/>
@@ -18271,7 +18315,7 @@
     </row>
     <row r="12" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="74" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="86"/>
@@ -18279,12 +18323,12 @@
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="136"/>
       <c r="D13" s="140" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -18294,12 +18338,12 @@
     </row>
     <row r="14" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A14" s="76" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="180" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -18309,12 +18353,12 @@
     </row>
     <row r="15" spans="1:25" ht="96" customHeight="1" thickBot="1">
       <c r="A15" s="75" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="180" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -18324,7 +18368,7 @@
     </row>
     <row r="16" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="74" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B16" s="133"/>
       <c r="C16" s="86"/>
@@ -18332,12 +18376,12 @@
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="137"/>
       <c r="D17" s="140" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -18347,12 +18391,12 @@
     </row>
     <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="180" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -18362,12 +18406,12 @@
     </row>
     <row r="19" spans="1:24" ht="96" customHeight="1" thickBot="1">
       <c r="A19" s="75" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -18376,21 +18420,21 @@
       <c r="I19" s="42"/>
     </row>
     <row r="20" spans="1:24" s="139" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A20" s="264"/>
-      <c r="B20" s="265"/>
-      <c r="C20" s="265"/>
-      <c r="D20" s="265" t="s">
+      <c r="A20" s="268"/>
+      <c r="B20" s="269"/>
+      <c r="C20" s="269"/>
+      <c r="D20" s="269" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="138"/>
     </row>
     <row r="21" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A21" s="238" t="s">
-        <v>519</v>
-      </c>
-      <c r="B21" s="238"/>
-      <c r="C21" s="238"/>
-      <c r="D21" s="238"/>
+      <c r="A21" s="242" t="s">
+        <v>517</v>
+      </c>
+      <c r="B21" s="242"/>
+      <c r="C21" s="242"/>
+      <c r="D21" s="242"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -18413,7 +18457,7 @@
     </row>
     <row r="22" spans="1:24" ht="20.25" customHeight="1">
       <c r="A22" s="175" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B22" s="144"/>
       <c r="C22" s="144"/>
@@ -18439,11 +18483,11 @@
       <c r="W22" s="18"/>
     </row>
     <row r="23" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="256" t="s">
-        <v>684</v>
-      </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
+      <c r="A23" s="260" t="s">
+        <v>682</v>
+      </c>
+      <c r="B23" s="236"/>
+      <c r="C23" s="236"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -18494,12 +18538,12 @@
     </row>
     <row r="25" spans="1:24" ht="16.25" customHeight="1">
       <c r="A25" s="142" t="s">
-        <v>453</v>
-      </c>
-      <c r="B25" s="261" t="s">
-        <v>702</v>
-      </c>
-      <c r="C25" s="261"/>
+        <v>452</v>
+      </c>
+      <c r="B25" s="265" t="s">
+        <v>700</v>
+      </c>
+      <c r="C25" s="265"/>
       <c r="D25" s="106"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
@@ -18524,13 +18568,13 @@
     <row r="26" spans="1:24" ht="33" customHeight="1">
       <c r="A26" s="146"/>
       <c r="B26" s="147" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C26" s="148" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D26" s="149" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E26" s="19"/>
     </row>
@@ -18574,7 +18618,7 @@
       <c r="B30" s="152"/>
       <c r="C30" s="152"/>
       <c r="D30" s="150" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E30" s="21"/>
     </row>
@@ -18651,10 +18695,10 @@
       <c r="F36" s="43"/>
     </row>
     <row r="37" spans="1:6" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A37" s="250"/>
-      <c r="B37" s="251"/>
-      <c r="C37" s="251"/>
-      <c r="D37" s="251"/>
+      <c r="A37" s="254"/>
+      <c r="B37" s="255"/>
+      <c r="C37" s="255"/>
+      <c r="D37" s="255"/>
       <c r="E37" s="10"/>
     </row>
   </sheetData>
@@ -18706,32 +18750,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="11" customFormat="1" ht="66.5" customHeight="1">
-      <c r="A1" s="247" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
+      <c r="A1" s="251" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:25" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A2" s="249"/>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
+      <c r="A2" s="253"/>
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="253"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:25" s="11" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="252" t="s">
-        <v>531</v>
-      </c>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
+      <c r="A3" s="256" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3" s="257"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
       <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:25" s="11" customFormat="1" ht="18.5" customHeight="1">
@@ -18746,12 +18790,12 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:25" s="159" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="262" t="s">
-        <v>672</v>
-      </c>
-      <c r="B5" s="263"/>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
+      <c r="A5" s="266" t="s">
+        <v>670</v>
+      </c>
+      <c r="B5" s="267"/>
+      <c r="C5" s="267"/>
+      <c r="D5" s="267"/>
       <c r="E5" s="157"/>
       <c r="F5" s="158"/>
       <c r="G5" s="157"/>
@@ -18774,7 +18818,7 @@
     </row>
     <row r="6" spans="1:25" ht="36" customHeight="1">
       <c r="A6" s="67" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
@@ -18801,10 +18845,10 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
-      <c r="A7" s="260" t="s">
-        <v>989</v>
-      </c>
-      <c r="B7" s="259"/>
+      <c r="A7" s="264" t="s">
+        <v>987</v>
+      </c>
+      <c r="B7" s="263"/>
       <c r="C7" s="93"/>
       <c r="D7" s="125"/>
       <c r="E7" s="18"/>
@@ -18831,7 +18875,7 @@
     </row>
     <row r="8" spans="1:25" s="60" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="174" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B8" s="163"/>
       <c r="C8" s="163"/>
@@ -18858,7 +18902,7 @@
     </row>
     <row r="9" spans="1:25" s="130" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="131" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B9" s="127"/>
       <c r="C9" s="127"/>
@@ -18897,7 +18941,7 @@
     </row>
     <row r="12" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="74" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="86"/>
@@ -18905,12 +18949,12 @@
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="136"/>
       <c r="D13" s="140" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -18920,12 +18964,12 @@
     </row>
     <row r="14" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A14" s="76" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -18935,12 +18979,12 @@
     </row>
     <row r="15" spans="1:25" ht="96" customHeight="1" thickBot="1">
       <c r="A15" s="75" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -18950,7 +18994,7 @@
     </row>
     <row r="16" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="74" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B16" s="133"/>
       <c r="C16" s="86"/>
@@ -18958,12 +19002,12 @@
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="137"/>
       <c r="D17" s="140" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -18973,12 +19017,12 @@
     </row>
     <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -18988,12 +19032,12 @@
     </row>
     <row r="19" spans="1:24" ht="96" customHeight="1" thickBot="1">
       <c r="A19" s="75" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -19002,21 +19046,21 @@
       <c r="I19" s="42"/>
     </row>
     <row r="20" spans="1:24" s="139" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A20" s="264"/>
-      <c r="B20" s="265"/>
-      <c r="C20" s="265"/>
-      <c r="D20" s="265" t="s">
+      <c r="A20" s="268"/>
+      <c r="B20" s="269"/>
+      <c r="C20" s="269"/>
+      <c r="D20" s="269" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="138"/>
     </row>
     <row r="21" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A21" s="238" t="s">
-        <v>519</v>
-      </c>
-      <c r="B21" s="238"/>
-      <c r="C21" s="238"/>
-      <c r="D21" s="238"/>
+      <c r="A21" s="242" t="s">
+        <v>517</v>
+      </c>
+      <c r="B21" s="242"/>
+      <c r="C21" s="242"/>
+      <c r="D21" s="242"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -19039,7 +19083,7 @@
     </row>
     <row r="22" spans="1:24" ht="20.25" customHeight="1">
       <c r="A22" s="175" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B22" s="144"/>
       <c r="C22" s="144"/>
@@ -19065,11 +19109,11 @@
       <c r="W22" s="18"/>
     </row>
     <row r="23" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="256" t="s">
-        <v>684</v>
-      </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
+      <c r="A23" s="260" t="s">
+        <v>682</v>
+      </c>
+      <c r="B23" s="236"/>
+      <c r="C23" s="236"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -19120,12 +19164,12 @@
     </row>
     <row r="25" spans="1:24" ht="16.25" customHeight="1">
       <c r="A25" s="142" t="s">
-        <v>453</v>
-      </c>
-      <c r="B25" s="261" t="s">
-        <v>702</v>
-      </c>
-      <c r="C25" s="261"/>
+        <v>452</v>
+      </c>
+      <c r="B25" s="265" t="s">
+        <v>700</v>
+      </c>
+      <c r="C25" s="265"/>
       <c r="D25" s="106"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
@@ -19150,13 +19194,13 @@
     <row r="26" spans="1:24" ht="33" customHeight="1">
       <c r="A26" s="146"/>
       <c r="B26" s="147" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C26" s="148" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D26" s="149" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E26" s="19"/>
     </row>
@@ -19200,7 +19244,7 @@
       <c r="B30" s="152"/>
       <c r="C30" s="152"/>
       <c r="D30" s="150" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E30" s="21"/>
     </row>
@@ -19277,10 +19321,10 @@
       <c r="F36" s="43"/>
     </row>
     <row r="37" spans="1:6" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A37" s="250"/>
-      <c r="B37" s="251"/>
-      <c r="C37" s="251"/>
-      <c r="D37" s="251"/>
+      <c r="A37" s="254"/>
+      <c r="B37" s="255"/>
+      <c r="C37" s="255"/>
+      <c r="D37" s="255"/>
       <c r="E37" s="10"/>
     </row>
   </sheetData>
@@ -19332,32 +19376,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="11" customFormat="1" ht="66.5" customHeight="1">
-      <c r="A1" s="247" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
+      <c r="A1" s="251" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:25" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A2" s="249"/>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
+      <c r="A2" s="253"/>
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="253"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:25" s="11" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="252" t="s">
-        <v>531</v>
-      </c>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
+      <c r="A3" s="256" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3" s="257"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
       <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:25" s="11" customFormat="1" ht="18.5" customHeight="1">
@@ -19372,12 +19416,12 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:25" s="159" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="262" t="s">
-        <v>672</v>
-      </c>
-      <c r="B5" s="263"/>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
+      <c r="A5" s="266" t="s">
+        <v>670</v>
+      </c>
+      <c r="B5" s="267"/>
+      <c r="C5" s="267"/>
+      <c r="D5" s="267"/>
       <c r="E5" s="157"/>
       <c r="F5" s="158"/>
       <c r="G5" s="157"/>
@@ -19400,7 +19444,7 @@
     </row>
     <row r="6" spans="1:25" ht="36" customHeight="1">
       <c r="A6" s="67" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
@@ -19427,10 +19471,10 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
-      <c r="A7" s="260" t="s">
-        <v>989</v>
-      </c>
-      <c r="B7" s="259"/>
+      <c r="A7" s="264" t="s">
+        <v>987</v>
+      </c>
+      <c r="B7" s="263"/>
       <c r="C7" s="93"/>
       <c r="D7" s="125"/>
       <c r="E7" s="18"/>
@@ -19457,7 +19501,7 @@
     </row>
     <row r="8" spans="1:25" s="60" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="174" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B8" s="163"/>
       <c r="C8" s="163"/>
@@ -19484,7 +19528,7 @@
     </row>
     <row r="9" spans="1:25" s="130" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="131" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B9" s="127"/>
       <c r="C9" s="127"/>
@@ -19523,7 +19567,7 @@
     </row>
     <row r="12" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="74" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="86"/>
@@ -19531,12 +19575,12 @@
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="136"/>
       <c r="D13" s="140" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -19546,12 +19590,12 @@
     </row>
     <row r="14" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A14" s="76" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -19561,16 +19605,16 @@
     </row>
     <row r="15" spans="1:25" ht="96" customHeight="1" thickBot="1">
       <c r="A15" s="75" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G15" s="42"/>
       <c r="H15" s="42"/>
@@ -19578,7 +19622,7 @@
     </row>
     <row r="16" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="74" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B16" s="133"/>
       <c r="C16" s="86"/>
@@ -19586,12 +19630,12 @@
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="137"/>
       <c r="D17" s="140" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -19601,12 +19645,12 @@
     </row>
     <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -19616,12 +19660,12 @@
     </row>
     <row r="19" spans="1:24" ht="96" customHeight="1" thickBot="1">
       <c r="A19" s="75" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -19630,21 +19674,21 @@
       <c r="I19" s="42"/>
     </row>
     <row r="20" spans="1:24" s="139" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A20" s="264"/>
-      <c r="B20" s="265"/>
-      <c r="C20" s="265"/>
-      <c r="D20" s="265" t="s">
+      <c r="A20" s="268"/>
+      <c r="B20" s="269"/>
+      <c r="C20" s="269"/>
+      <c r="D20" s="269" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="138"/>
     </row>
     <row r="21" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A21" s="238" t="s">
-        <v>519</v>
-      </c>
-      <c r="B21" s="238"/>
-      <c r="C21" s="238"/>
-      <c r="D21" s="238"/>
+      <c r="A21" s="242" t="s">
+        <v>517</v>
+      </c>
+      <c r="B21" s="242"/>
+      <c r="C21" s="242"/>
+      <c r="D21" s="242"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -19667,7 +19711,7 @@
     </row>
     <row r="22" spans="1:24" ht="20.25" customHeight="1">
       <c r="A22" s="175" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B22" s="144"/>
       <c r="C22" s="144"/>
@@ -19693,11 +19737,11 @@
       <c r="W22" s="18"/>
     </row>
     <row r="23" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="256" t="s">
-        <v>684</v>
-      </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
+      <c r="A23" s="260" t="s">
+        <v>682</v>
+      </c>
+      <c r="B23" s="236"/>
+      <c r="C23" s="236"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -19748,12 +19792,12 @@
     </row>
     <row r="25" spans="1:24" ht="16.25" customHeight="1">
       <c r="A25" s="142" t="s">
-        <v>453</v>
-      </c>
-      <c r="B25" s="261" t="s">
-        <v>702</v>
-      </c>
-      <c r="C25" s="261"/>
+        <v>452</v>
+      </c>
+      <c r="B25" s="265" t="s">
+        <v>700</v>
+      </c>
+      <c r="C25" s="265"/>
       <c r="D25" s="106"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
@@ -19778,13 +19822,13 @@
     <row r="26" spans="1:24" ht="33" customHeight="1">
       <c r="A26" s="146"/>
       <c r="B26" s="147" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C26" s="148" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D26" s="149" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E26" s="19"/>
     </row>
@@ -19828,7 +19872,7 @@
       <c r="B30" s="152"/>
       <c r="C30" s="152"/>
       <c r="D30" s="150" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E30" s="21"/>
     </row>
@@ -19905,10 +19949,10 @@
       <c r="F36" s="43"/>
     </row>
     <row r="37" spans="1:6" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A37" s="250"/>
-      <c r="B37" s="251"/>
-      <c r="C37" s="251"/>
-      <c r="D37" s="251"/>
+      <c r="A37" s="254"/>
+      <c r="B37" s="255"/>
+      <c r="C37" s="255"/>
+      <c r="D37" s="255"/>
       <c r="E37" s="10"/>
     </row>
   </sheetData>
@@ -19963,32 +20007,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="11" customFormat="1" ht="66.5" customHeight="1">
-      <c r="A1" s="247" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
+      <c r="A1" s="251" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:25" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A2" s="249"/>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
+      <c r="A2" s="253"/>
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="253"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:25" s="11" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="252" t="s">
-        <v>531</v>
-      </c>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
+      <c r="A3" s="256" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3" s="257"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
       <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:25" s="11" customFormat="1" ht="18.5" customHeight="1">
@@ -20003,12 +20047,12 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:25" s="159" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="262" t="s">
-        <v>672</v>
-      </c>
-      <c r="B5" s="263"/>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
+      <c r="A5" s="266" t="s">
+        <v>670</v>
+      </c>
+      <c r="B5" s="267"/>
+      <c r="C5" s="267"/>
+      <c r="D5" s="267"/>
       <c r="E5" s="157"/>
       <c r="F5" s="158"/>
       <c r="G5" s="157"/>
@@ -20031,7 +20075,7 @@
     </row>
     <row r="6" spans="1:25" ht="36" customHeight="1">
       <c r="A6" s="67" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
@@ -20058,10 +20102,10 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
-      <c r="A7" s="260" t="s">
-        <v>989</v>
-      </c>
-      <c r="B7" s="259"/>
+      <c r="A7" s="264" t="s">
+        <v>987</v>
+      </c>
+      <c r="B7" s="263"/>
       <c r="C7" s="93"/>
       <c r="D7" s="125"/>
       <c r="E7" s="18"/>
@@ -20088,7 +20132,7 @@
     </row>
     <row r="8" spans="1:25" s="60" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="174" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B8" s="163"/>
       <c r="C8" s="163"/>
@@ -20115,7 +20159,7 @@
     </row>
     <row r="9" spans="1:25" s="130" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="131" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B9" s="127"/>
       <c r="C9" s="127"/>
@@ -20148,7 +20192,7 @@
     </row>
     <row r="11" spans="1:25" ht="9.75" customHeight="1">
       <c r="A11" s="132" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C11" s="55"/>
       <c r="D11" s="29"/>
@@ -20156,7 +20200,7 @@
     </row>
     <row r="12" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="74" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="86"/>
@@ -20164,12 +20208,12 @@
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="136"/>
       <c r="D13" s="140" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -20179,12 +20223,12 @@
     </row>
     <row r="14" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A14" s="76" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -20194,12 +20238,12 @@
     </row>
     <row r="15" spans="1:25" ht="96" customHeight="1" thickBot="1">
       <c r="A15" s="75" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -20209,7 +20253,7 @@
     </row>
     <row r="16" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="74" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B16" s="133"/>
       <c r="C16" s="86"/>
@@ -20217,12 +20261,12 @@
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="137"/>
       <c r="D17" s="140" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -20232,12 +20276,12 @@
     </row>
     <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -20247,12 +20291,12 @@
     </row>
     <row r="19" spans="1:24" ht="96" customHeight="1" thickBot="1">
       <c r="A19" s="75" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -20261,21 +20305,21 @@
       <c r="I19" s="42"/>
     </row>
     <row r="20" spans="1:24" s="139" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A20" s="264"/>
-      <c r="B20" s="265"/>
-      <c r="C20" s="265"/>
-      <c r="D20" s="265" t="s">
+      <c r="A20" s="268"/>
+      <c r="B20" s="269"/>
+      <c r="C20" s="269"/>
+      <c r="D20" s="269" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="138"/>
     </row>
     <row r="21" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A21" s="238" t="s">
-        <v>519</v>
-      </c>
-      <c r="B21" s="238"/>
-      <c r="C21" s="238"/>
-      <c r="D21" s="238"/>
+      <c r="A21" s="242" t="s">
+        <v>517</v>
+      </c>
+      <c r="B21" s="242"/>
+      <c r="C21" s="242"/>
+      <c r="D21" s="242"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -20298,7 +20342,7 @@
     </row>
     <row r="22" spans="1:24" ht="20.25" customHeight="1">
       <c r="A22" s="175" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B22" s="144"/>
       <c r="C22" s="144"/>
@@ -20324,11 +20368,11 @@
       <c r="W22" s="18"/>
     </row>
     <row r="23" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="256" t="s">
-        <v>684</v>
-      </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
+      <c r="A23" s="260" t="s">
+        <v>682</v>
+      </c>
+      <c r="B23" s="236"/>
+      <c r="C23" s="236"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -20379,12 +20423,12 @@
     </row>
     <row r="25" spans="1:24" ht="16.25" customHeight="1">
       <c r="A25" s="142" t="s">
-        <v>453</v>
-      </c>
-      <c r="B25" s="261" t="s">
-        <v>702</v>
-      </c>
-      <c r="C25" s="261"/>
+        <v>452</v>
+      </c>
+      <c r="B25" s="265" t="s">
+        <v>700</v>
+      </c>
+      <c r="C25" s="265"/>
       <c r="D25" s="106"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
@@ -20409,13 +20453,13 @@
     <row r="26" spans="1:24" ht="33" customHeight="1">
       <c r="A26" s="146"/>
       <c r="B26" s="147" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C26" s="148" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D26" s="149" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E26" s="19"/>
     </row>
@@ -20459,7 +20503,7 @@
       <c r="B30" s="152"/>
       <c r="C30" s="152"/>
       <c r="D30" s="150" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E30" s="21"/>
     </row>
@@ -20536,10 +20580,10 @@
       <c r="F36" s="43"/>
     </row>
     <row r="37" spans="1:6" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A37" s="250"/>
-      <c r="B37" s="251"/>
-      <c r="C37" s="251"/>
-      <c r="D37" s="251"/>
+      <c r="A37" s="254"/>
+      <c r="B37" s="255"/>
+      <c r="C37" s="255"/>
+      <c r="D37" s="255"/>
       <c r="E37" s="10"/>
     </row>
   </sheetData>
@@ -20594,32 +20638,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="11" customFormat="1" ht="66.5" customHeight="1">
-      <c r="A1" s="247" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
+      <c r="A1" s="251" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:25" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A2" s="249"/>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
+      <c r="A2" s="253"/>
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="253"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:25" s="11" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="252" t="s">
-        <v>531</v>
-      </c>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
+      <c r="A3" s="256" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3" s="257"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
       <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:25" s="11" customFormat="1" ht="18.5" customHeight="1">
@@ -20634,12 +20678,12 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:25" s="159" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="262" t="s">
-        <v>672</v>
-      </c>
-      <c r="B5" s="263"/>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
+      <c r="A5" s="266" t="s">
+        <v>670</v>
+      </c>
+      <c r="B5" s="267"/>
+      <c r="C5" s="267"/>
+      <c r="D5" s="267"/>
       <c r="E5" s="157"/>
       <c r="F5" s="158"/>
       <c r="G5" s="157"/>
@@ -20662,7 +20706,7 @@
     </row>
     <row r="6" spans="1:25" ht="36" customHeight="1">
       <c r="A6" s="67" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
@@ -20689,10 +20733,10 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
-      <c r="A7" s="260" t="s">
-        <v>989</v>
-      </c>
-      <c r="B7" s="259"/>
+      <c r="A7" s="264" t="s">
+        <v>987</v>
+      </c>
+      <c r="B7" s="263"/>
       <c r="C7" s="93"/>
       <c r="D7" s="125"/>
       <c r="E7" s="18"/>
@@ -20719,7 +20763,7 @@
     </row>
     <row r="8" spans="1:25" s="60" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="174" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B8" s="163"/>
       <c r="C8" s="163"/>
@@ -20746,7 +20790,7 @@
     </row>
     <row r="9" spans="1:25" s="130" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="131" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B9" s="127"/>
       <c r="C9" s="127"/>
@@ -20785,7 +20829,7 @@
     </row>
     <row r="12" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="74" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="86"/>
@@ -20793,12 +20837,12 @@
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="136"/>
       <c r="D13" s="140" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -20808,12 +20852,12 @@
     </row>
     <row r="14" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A14" s="76" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -20823,12 +20867,12 @@
     </row>
     <row r="15" spans="1:25" ht="96" customHeight="1" thickBot="1">
       <c r="A15" s="75" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -20838,7 +20882,7 @@
     </row>
     <row r="16" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="74" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B16" s="133"/>
       <c r="C16" s="86"/>
@@ -20846,12 +20890,12 @@
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="137"/>
       <c r="D17" s="140" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -20861,12 +20905,12 @@
     </row>
     <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -20876,12 +20920,12 @@
     </row>
     <row r="19" spans="1:24" ht="96" customHeight="1" thickBot="1">
       <c r="A19" s="75" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -20890,21 +20934,21 @@
       <c r="I19" s="42"/>
     </row>
     <row r="20" spans="1:24" s="139" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A20" s="264"/>
-      <c r="B20" s="265"/>
-      <c r="C20" s="265"/>
-      <c r="D20" s="265" t="s">
+      <c r="A20" s="268"/>
+      <c r="B20" s="269"/>
+      <c r="C20" s="269"/>
+      <c r="D20" s="269" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="138"/>
     </row>
     <row r="21" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A21" s="238" t="s">
-        <v>519</v>
-      </c>
-      <c r="B21" s="238"/>
-      <c r="C21" s="238"/>
-      <c r="D21" s="238"/>
+      <c r="A21" s="242" t="s">
+        <v>517</v>
+      </c>
+      <c r="B21" s="242"/>
+      <c r="C21" s="242"/>
+      <c r="D21" s="242"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -20927,7 +20971,7 @@
     </row>
     <row r="22" spans="1:24" ht="20.25" customHeight="1">
       <c r="A22" s="175" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B22" s="144"/>
       <c r="C22" s="144"/>
@@ -20953,11 +20997,11 @@
       <c r="W22" s="18"/>
     </row>
     <row r="23" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="256" t="s">
-        <v>684</v>
-      </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
+      <c r="A23" s="260" t="s">
+        <v>682</v>
+      </c>
+      <c r="B23" s="236"/>
+      <c r="C23" s="236"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -21008,12 +21052,12 @@
     </row>
     <row r="25" spans="1:24" ht="16.25" customHeight="1">
       <c r="A25" s="142" t="s">
-        <v>453</v>
-      </c>
-      <c r="B25" s="261" t="s">
-        <v>702</v>
-      </c>
-      <c r="C25" s="261"/>
+        <v>452</v>
+      </c>
+      <c r="B25" s="265" t="s">
+        <v>700</v>
+      </c>
+      <c r="C25" s="265"/>
       <c r="D25" s="106"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
@@ -21038,13 +21082,13 @@
     <row r="26" spans="1:24" ht="33" customHeight="1">
       <c r="A26" s="146"/>
       <c r="B26" s="147" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C26" s="148" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D26" s="149" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E26" s="19"/>
     </row>
@@ -21088,7 +21132,7 @@
       <c r="B30" s="152"/>
       <c r="C30" s="152"/>
       <c r="D30" s="150" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E30" s="21"/>
     </row>
@@ -21165,10 +21209,10 @@
       <c r="F36" s="43"/>
     </row>
     <row r="37" spans="1:6" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A37" s="250"/>
-      <c r="B37" s="251"/>
-      <c r="C37" s="251"/>
-      <c r="D37" s="251"/>
+      <c r="A37" s="254"/>
+      <c r="B37" s="255"/>
+      <c r="C37" s="255"/>
+      <c r="D37" s="255"/>
       <c r="E37" s="10"/>
     </row>
   </sheetData>
@@ -21223,32 +21267,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="11" customFormat="1" ht="66.5" customHeight="1">
-      <c r="A1" s="247" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
+      <c r="A1" s="251" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:25" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A2" s="249"/>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
+      <c r="A2" s="253"/>
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="253"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:25" s="11" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="252" t="s">
-        <v>531</v>
-      </c>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
+      <c r="A3" s="256" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3" s="257"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
       <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:25" s="11" customFormat="1" ht="18.5" customHeight="1">
@@ -21263,12 +21307,12 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:25" s="159" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="262" t="s">
-        <v>672</v>
-      </c>
-      <c r="B5" s="263"/>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
+      <c r="A5" s="266" t="s">
+        <v>670</v>
+      </c>
+      <c r="B5" s="267"/>
+      <c r="C5" s="267"/>
+      <c r="D5" s="267"/>
       <c r="E5" s="157"/>
       <c r="F5" s="158"/>
       <c r="G5" s="157"/>
@@ -21291,7 +21335,7 @@
     </row>
     <row r="6" spans="1:25" ht="36" customHeight="1">
       <c r="A6" s="67" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
@@ -21318,10 +21362,10 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
-      <c r="A7" s="260" t="s">
-        <v>989</v>
-      </c>
-      <c r="B7" s="259"/>
+      <c r="A7" s="264" t="s">
+        <v>987</v>
+      </c>
+      <c r="B7" s="263"/>
       <c r="C7" s="93"/>
       <c r="D7" s="125"/>
       <c r="E7" s="18"/>
@@ -21348,7 +21392,7 @@
     </row>
     <row r="8" spans="1:25" s="60" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="174" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B8" s="163"/>
       <c r="C8" s="163"/>
@@ -21375,7 +21419,7 @@
     </row>
     <row r="9" spans="1:25" s="130" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="131" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B9" s="127"/>
       <c r="C9" s="127"/>
@@ -21414,7 +21458,7 @@
     </row>
     <row r="12" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="74" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="86"/>
@@ -21422,12 +21466,12 @@
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="136"/>
       <c r="D13" s="140" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -21437,12 +21481,12 @@
     </row>
     <row r="14" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A14" s="76" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -21452,12 +21496,12 @@
     </row>
     <row r="15" spans="1:25" ht="96" customHeight="1" thickBot="1">
       <c r="A15" s="75" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -21467,7 +21511,7 @@
     </row>
     <row r="16" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="74" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B16" s="133"/>
       <c r="C16" s="86"/>
@@ -21475,12 +21519,12 @@
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="137"/>
       <c r="D17" s="140" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -21490,12 +21534,12 @@
     </row>
     <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -21505,12 +21549,12 @@
     </row>
     <row r="19" spans="1:24" ht="96" customHeight="1" thickBot="1">
       <c r="A19" s="75" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -21519,21 +21563,21 @@
       <c r="I19" s="42"/>
     </row>
     <row r="20" spans="1:24" s="139" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A20" s="264"/>
-      <c r="B20" s="265"/>
-      <c r="C20" s="265"/>
-      <c r="D20" s="265" t="s">
+      <c r="A20" s="268"/>
+      <c r="B20" s="269"/>
+      <c r="C20" s="269"/>
+      <c r="D20" s="269" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="138"/>
     </row>
     <row r="21" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A21" s="238" t="s">
-        <v>519</v>
-      </c>
-      <c r="B21" s="238"/>
-      <c r="C21" s="238"/>
-      <c r="D21" s="238"/>
+      <c r="A21" s="242" t="s">
+        <v>517</v>
+      </c>
+      <c r="B21" s="242"/>
+      <c r="C21" s="242"/>
+      <c r="D21" s="242"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -21556,7 +21600,7 @@
     </row>
     <row r="22" spans="1:24" ht="20.25" customHeight="1">
       <c r="A22" s="175" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B22" s="144"/>
       <c r="C22" s="144"/>
@@ -21582,11 +21626,11 @@
       <c r="W22" s="18"/>
     </row>
     <row r="23" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="256" t="s">
-        <v>684</v>
-      </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
+      <c r="A23" s="260" t="s">
+        <v>682</v>
+      </c>
+      <c r="B23" s="236"/>
+      <c r="C23" s="236"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -21637,12 +21681,12 @@
     </row>
     <row r="25" spans="1:24" ht="16.25" customHeight="1">
       <c r="A25" s="142" t="s">
-        <v>453</v>
-      </c>
-      <c r="B25" s="261" t="s">
-        <v>702</v>
-      </c>
-      <c r="C25" s="261"/>
+        <v>452</v>
+      </c>
+      <c r="B25" s="265" t="s">
+        <v>700</v>
+      </c>
+      <c r="C25" s="265"/>
       <c r="D25" s="106"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
@@ -21667,13 +21711,13 @@
     <row r="26" spans="1:24" ht="33" customHeight="1">
       <c r="A26" s="146"/>
       <c r="B26" s="147" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C26" s="148" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D26" s="149" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E26" s="19"/>
     </row>
@@ -21717,7 +21761,7 @@
       <c r="B30" s="152"/>
       <c r="C30" s="152"/>
       <c r="D30" s="150" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E30" s="21"/>
     </row>
@@ -21794,10 +21838,10 @@
       <c r="F36" s="43"/>
     </row>
     <row r="37" spans="1:6" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A37" s="250"/>
-      <c r="B37" s="251"/>
-      <c r="C37" s="251"/>
-      <c r="D37" s="251"/>
+      <c r="A37" s="254"/>
+      <c r="B37" s="255"/>
+      <c r="C37" s="255"/>
+      <c r="D37" s="255"/>
       <c r="E37" s="10"/>
     </row>
   </sheetData>
@@ -21852,32 +21896,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="11" customFormat="1" ht="66.5" customHeight="1">
-      <c r="A1" s="247" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
+      <c r="A1" s="251" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:25" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A2" s="249"/>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
+      <c r="A2" s="253"/>
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="253"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:25" s="11" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="252" t="s">
-        <v>531</v>
-      </c>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
+      <c r="A3" s="256" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3" s="257"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
       <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:25" s="11" customFormat="1" ht="18.5" customHeight="1">
@@ -21892,12 +21936,12 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:25" s="159" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="262" t="s">
-        <v>672</v>
-      </c>
-      <c r="B5" s="263"/>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
+      <c r="A5" s="266" t="s">
+        <v>670</v>
+      </c>
+      <c r="B5" s="267"/>
+      <c r="C5" s="267"/>
+      <c r="D5" s="267"/>
       <c r="E5" s="157"/>
       <c r="F5" s="158"/>
       <c r="G5" s="157"/>
@@ -21920,7 +21964,7 @@
     </row>
     <row r="6" spans="1:25" ht="36" customHeight="1">
       <c r="A6" s="67" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
@@ -21947,10 +21991,10 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
-      <c r="A7" s="260" t="s">
-        <v>989</v>
-      </c>
-      <c r="B7" s="259"/>
+      <c r="A7" s="264" t="s">
+        <v>987</v>
+      </c>
+      <c r="B7" s="263"/>
       <c r="C7" s="93"/>
       <c r="D7" s="125"/>
       <c r="E7" s="18"/>
@@ -21977,7 +22021,7 @@
     </row>
     <row r="8" spans="1:25" s="60" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="174" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B8" s="163"/>
       <c r="C8" s="163"/>
@@ -22004,7 +22048,7 @@
     </row>
     <row r="9" spans="1:25" s="130" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="131" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B9" s="127"/>
       <c r="C9" s="127"/>
@@ -22043,7 +22087,7 @@
     </row>
     <row r="12" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="74" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="86"/>
@@ -22051,12 +22095,12 @@
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="136"/>
       <c r="D13" s="140" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -22066,12 +22110,12 @@
     </row>
     <row r="14" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A14" s="76" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="226"/>
       <c r="D14" s="140" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -22081,12 +22125,12 @@
     </row>
     <row r="15" spans="1:25" ht="96" customHeight="1" thickBot="1">
       <c r="A15" s="75" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B15" s="134"/>
       <c r="C15" s="81"/>
       <c r="D15" s="140" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -22096,7 +22140,7 @@
     </row>
     <row r="16" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A16" s="74" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B16" s="133"/>
       <c r="C16" s="86"/>
@@ -22104,12 +22148,12 @@
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="75" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="137"/>
       <c r="D17" s="140" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -22119,12 +22163,12 @@
     </row>
     <row r="18" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A18" s="76" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B18" s="134"/>
       <c r="C18" s="226"/>
       <c r="D18" s="140" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -22134,12 +22178,12 @@
     </row>
     <row r="19" spans="1:24" ht="96" customHeight="1" thickBot="1">
       <c r="A19" s="75" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B19" s="134"/>
       <c r="C19" s="81"/>
       <c r="D19" s="140" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -22148,21 +22192,21 @@
       <c r="I19" s="42"/>
     </row>
     <row r="20" spans="1:24" s="139" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A20" s="264"/>
-      <c r="B20" s="265"/>
-      <c r="C20" s="265"/>
-      <c r="D20" s="265" t="s">
+      <c r="A20" s="268"/>
+      <c r="B20" s="269"/>
+      <c r="C20" s="269"/>
+      <c r="D20" s="269" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="138"/>
     </row>
     <row r="21" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A21" s="238" t="s">
-        <v>519</v>
-      </c>
-      <c r="B21" s="238"/>
-      <c r="C21" s="238"/>
-      <c r="D21" s="238"/>
+      <c r="A21" s="242" t="s">
+        <v>517</v>
+      </c>
+      <c r="B21" s="242"/>
+      <c r="C21" s="242"/>
+      <c r="D21" s="242"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -22185,7 +22229,7 @@
     </row>
     <row r="22" spans="1:24" ht="20.25" customHeight="1">
       <c r="A22" s="175" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B22" s="144"/>
       <c r="C22" s="144"/>
@@ -22211,11 +22255,11 @@
       <c r="W22" s="18"/>
     </row>
     <row r="23" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="256" t="s">
-        <v>684</v>
-      </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
+      <c r="A23" s="260" t="s">
+        <v>682</v>
+      </c>
+      <c r="B23" s="236"/>
+      <c r="C23" s="236"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -22266,12 +22310,12 @@
     </row>
     <row r="25" spans="1:24" ht="16.25" customHeight="1">
       <c r="A25" s="142" t="s">
-        <v>453</v>
-      </c>
-      <c r="B25" s="261" t="s">
-        <v>702</v>
-      </c>
-      <c r="C25" s="261"/>
+        <v>452</v>
+      </c>
+      <c r="B25" s="265" t="s">
+        <v>700</v>
+      </c>
+      <c r="C25" s="265"/>
       <c r="D25" s="106"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
@@ -22296,13 +22340,13 @@
     <row r="26" spans="1:24" ht="33" customHeight="1">
       <c r="A26" s="146"/>
       <c r="B26" s="147" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C26" s="148" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D26" s="149" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E26" s="19"/>
     </row>
@@ -22346,7 +22390,7 @@
       <c r="B30" s="152"/>
       <c r="C30" s="152"/>
       <c r="D30" s="150" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E30" s="21"/>
     </row>
@@ -22423,10 +22467,10 @@
       <c r="F36" s="43"/>
     </row>
     <row r="37" spans="1:6" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A37" s="250"/>
-      <c r="B37" s="251"/>
-      <c r="C37" s="251"/>
-      <c r="D37" s="251"/>
+      <c r="A37" s="254"/>
+      <c r="B37" s="255"/>
+      <c r="C37" s="255"/>
+      <c r="D37" s="255"/>
       <c r="E37" s="10"/>
     </row>
   </sheetData>

--- a/data/imports/mrss-export.xlsx
+++ b/data/imports/mrss-export.xlsx
@@ -6361,28 +6361,26 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -6398,16 +6396,18 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="15"/>
     </xf>
@@ -7403,11 +7403,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="9" customFormat="1" ht="66.5" customHeight="1">
-      <c r="A1" s="234" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="234"/>
+      <c r="A1" s="247" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
       <c r="D1" s="42"/>
       <c r="E1" s="42"/>
       <c r="F1" s="10"/>
@@ -7440,21 +7440,21 @@
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="11" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A4" s="238" t="s">
+      <c r="A4" s="249" t="s">
         <v>519</v>
       </c>
-      <c r="B4" s="239"/>
-      <c r="C4" s="239"/>
+      <c r="B4" s="250"/>
+      <c r="C4" s="250"/>
       <c r="D4" s="190"/>
       <c r="E4" s="190"/>
       <c r="F4" s="10"/>
     </row>
     <row r="6" spans="1:24" ht="48.75" customHeight="1">
-      <c r="A6" s="237" t="s">
+      <c r="A6" s="248" t="s">
         <v>520</v>
       </c>
-      <c r="B6" s="237"/>
-      <c r="C6" s="237"/>
+      <c r="B6" s="248"/>
+      <c r="C6" s="248"/>
       <c r="D6" s="191"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
@@ -7485,11 +7485,11 @@
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:24" s="171" customFormat="1" ht="40" customHeight="1">
-      <c r="A8" s="240" t="s">
+      <c r="A8" s="238" t="s">
         <v>683</v>
       </c>
-      <c r="B8" s="241"/>
-      <c r="C8" s="241"/>
+      <c r="B8" s="239"/>
+      <c r="C8" s="239"/>
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
       <c r="F8" s="18"/>
@@ -7597,11 +7597,11 @@
       <c r="X11" s="69"/>
     </row>
     <row r="12" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="235" t="s">
+      <c r="A12" s="236" t="s">
         <v>455</v>
       </c>
-      <c r="B12" s="236"/>
-      <c r="C12" s="236"/>
+      <c r="B12" s="237"/>
+      <c r="C12" s="237"/>
       <c r="D12" s="192"/>
       <c r="E12" s="192"/>
       <c r="F12" s="69"/>
@@ -7925,11 +7925,11 @@
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:24" ht="40" customHeight="1">
-      <c r="A31" s="240" t="s">
+      <c r="A31" s="238" t="s">
         <v>456</v>
       </c>
-      <c r="B31" s="241"/>
-      <c r="C31" s="241"/>
+      <c r="B31" s="239"/>
+      <c r="C31" s="239"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
@@ -8261,10 +8261,10 @@
       <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:24" ht="40" customHeight="1">
-      <c r="A50" s="240" t="s">
+      <c r="A50" s="238" t="s">
         <v>469</v>
       </c>
-      <c r="B50" s="241"/>
+      <c r="B50" s="239"/>
       <c r="C50" s="59"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
@@ -8371,11 +8371,11 @@
       <c r="X53" s="69"/>
     </row>
     <row r="54" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
-      <c r="A54" s="235" t="s">
+      <c r="A54" s="236" t="s">
         <v>455</v>
       </c>
-      <c r="B54" s="236"/>
-      <c r="C54" s="236"/>
+      <c r="B54" s="237"/>
+      <c r="C54" s="237"/>
       <c r="D54" s="42"/>
       <c r="E54" s="192"/>
       <c r="F54" s="69"/>
@@ -8428,8 +8428,8 @@
       <c r="A56" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="247"/>
-      <c r="C56" s="248"/>
+      <c r="B56" s="240"/>
+      <c r="C56" s="241"/>
       <c r="F56" s="32"/>
       <c r="G56" s="32"/>
       <c r="H56" s="32"/>
@@ -9398,10 +9398,10 @@
       <c r="F124" s="10"/>
     </row>
     <row r="125" spans="1:24" s="171" customFormat="1" ht="40" customHeight="1">
-      <c r="A125" s="240" t="s">
+      <c r="A125" s="238" t="s">
         <v>687</v>
       </c>
-      <c r="B125" s="241"/>
+      <c r="B125" s="239"/>
       <c r="C125" s="59"/>
       <c r="D125" s="42"/>
       <c r="E125" s="42"/>
@@ -9482,11 +9482,11 @@
       <c r="X127" s="69"/>
     </row>
     <row r="128" spans="1:24" s="64" customFormat="1" ht="18" customHeight="1">
-      <c r="A128" s="235" t="s">
+      <c r="A128" s="236" t="s">
         <v>455</v>
       </c>
-      <c r="B128" s="236"/>
-      <c r="C128" s="236"/>
+      <c r="B128" s="237"/>
+      <c r="C128" s="237"/>
       <c r="D128" s="33"/>
       <c r="E128" s="192"/>
       <c r="F128" s="69"/>
@@ -9539,8 +9539,8 @@
       <c r="A130" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="B130" s="247"/>
-      <c r="C130" s="248"/>
+      <c r="B130" s="240"/>
+      <c r="C130" s="241"/>
       <c r="D130" s="33"/>
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
@@ -9625,8 +9625,8 @@
       <c r="A136" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="B136" s="247"/>
-      <c r="C136" s="248"/>
+      <c r="B136" s="240"/>
+      <c r="C136" s="241"/>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
       <c r="H136" s="14"/>
@@ -9792,10 +9792,10 @@
       <c r="F147" s="10"/>
     </row>
     <row r="148" spans="1:24" s="61" customFormat="1" ht="40" customHeight="1">
-      <c r="A148" s="240" t="s">
+      <c r="A148" s="238" t="s">
         <v>475</v>
       </c>
-      <c r="B148" s="241"/>
+      <c r="B148" s="239"/>
       <c r="C148" s="59"/>
       <c r="D148" s="42"/>
       <c r="E148" s="42"/>
@@ -9848,11 +9848,11 @@
       <c r="X149" s="69"/>
     </row>
     <row r="150" spans="1:24" s="64" customFormat="1" ht="24" customHeight="1">
-      <c r="A150" s="235" t="s">
+      <c r="A150" s="236" t="s">
         <v>477</v>
       </c>
-      <c r="B150" s="236"/>
-      <c r="C150" s="236"/>
+      <c r="B150" s="237"/>
+      <c r="C150" s="237"/>
       <c r="D150" s="42"/>
       <c r="E150" s="192"/>
       <c r="F150" s="69"/>
@@ -9902,10 +9902,10 @@
       <c r="X151" s="97"/>
     </row>
     <row r="152" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A152" s="249" t="s">
+      <c r="A152" s="234" t="s">
         <v>478</v>
       </c>
-      <c r="B152" s="250"/>
+      <c r="B152" s="235"/>
       <c r="C152" s="107"/>
       <c r="D152" s="42"/>
       <c r="E152" s="42"/>
@@ -9989,10 +9989,10 @@
       <c r="H156" s="14"/>
     </row>
     <row r="157" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A157" s="249" t="s">
+      <c r="A157" s="234" t="s">
         <v>479</v>
       </c>
-      <c r="B157" s="250"/>
+      <c r="B157" s="235"/>
       <c r="C157" s="107"/>
       <c r="D157" s="42" t="s">
         <v>738</v>
@@ -10245,10 +10245,10 @@
       <c r="H172" s="14"/>
     </row>
     <row r="173" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A173" s="249" t="s">
+      <c r="A173" s="234" t="s">
         <v>480</v>
       </c>
-      <c r="B173" s="250"/>
+      <c r="B173" s="235"/>
       <c r="C173" s="107"/>
       <c r="D173" s="42"/>
       <c r="E173" s="42"/>
@@ -10405,10 +10405,10 @@
       <c r="H183" s="14"/>
     </row>
     <row r="184" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A184" s="249" t="s">
+      <c r="A184" s="234" t="s">
         <v>490</v>
       </c>
-      <c r="B184" s="250"/>
+      <c r="B184" s="235"/>
       <c r="C184" s="107"/>
       <c r="D184" s="42"/>
       <c r="E184" s="42"/>
@@ -10475,10 +10475,10 @@
       <c r="H187" s="14"/>
     </row>
     <row r="188" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A188" s="249" t="s">
+      <c r="A188" s="234" t="s">
         <v>491</v>
       </c>
-      <c r="B188" s="250"/>
+      <c r="B188" s="235"/>
       <c r="C188" s="107"/>
       <c r="D188" s="42"/>
       <c r="E188" s="42"/>
@@ -10578,10 +10578,10 @@
       <c r="H194" s="14"/>
     </row>
     <row r="195" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A195" s="249" t="s">
+      <c r="A195" s="234" t="s">
         <v>115</v>
       </c>
-      <c r="B195" s="250"/>
+      <c r="B195" s="235"/>
       <c r="C195" s="107"/>
       <c r="D195" s="42"/>
       <c r="E195" s="42"/>
@@ -10719,10 +10719,10 @@
       <c r="H202" s="42"/>
     </row>
     <row r="203" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A203" s="249" t="s">
+      <c r="A203" s="234" t="s">
         <v>501</v>
       </c>
-      <c r="B203" s="250"/>
+      <c r="B203" s="235"/>
       <c r="C203" s="107"/>
       <c r="D203" s="42"/>
       <c r="E203" s="42"/>
@@ -10823,10 +10823,10 @@
       <c r="F208" s="10"/>
     </row>
     <row r="209" spans="1:24" s="61" customFormat="1" ht="40" customHeight="1">
-      <c r="A209" s="240" t="s">
+      <c r="A209" s="238" t="s">
         <v>502</v>
       </c>
-      <c r="B209" s="241"/>
+      <c r="B209" s="239"/>
       <c r="C209" s="59"/>
       <c r="D209" s="42"/>
       <c r="E209" s="42"/>
@@ -10912,8 +10912,8 @@
       <c r="A212" s="242" t="s">
         <v>704</v>
       </c>
-      <c r="B212" s="236"/>
-      <c r="C212" s="236"/>
+      <c r="B212" s="237"/>
+      <c r="C212" s="237"/>
       <c r="D212" s="42"/>
       <c r="E212" s="192"/>
       <c r="F212" s="69"/>
@@ -10937,10 +10937,10 @@
       <c r="X212" s="69"/>
     </row>
     <row r="213" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A213" s="249" t="s">
+      <c r="A213" s="234" t="s">
         <v>503</v>
       </c>
-      <c r="B213" s="250"/>
+      <c r="B213" s="235"/>
       <c r="C213" s="107"/>
       <c r="D213" s="42"/>
       <c r="E213" s="42"/>
@@ -11026,10 +11026,10 @@
       <c r="H217" s="14"/>
     </row>
     <row r="218" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A218" s="249" t="s">
+      <c r="A218" s="234" t="s">
         <v>503</v>
       </c>
-      <c r="B218" s="250"/>
+      <c r="B218" s="235"/>
       <c r="C218" s="107"/>
       <c r="D218" s="42"/>
       <c r="E218" s="42"/>
@@ -11114,10 +11114,10 @@
       <c r="H222" s="14"/>
     </row>
     <row r="223" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A223" s="249" t="s">
+      <c r="A223" s="234" t="s">
         <v>503</v>
       </c>
-      <c r="B223" s="250"/>
+      <c r="B223" s="235"/>
       <c r="C223" s="107"/>
       <c r="D223" s="42"/>
       <c r="E223" s="42"/>
@@ -11197,10 +11197,10 @@
       <c r="H227" s="14"/>
     </row>
     <row r="228" spans="1:24" s="61" customFormat="1" ht="36" customHeight="1">
-      <c r="A228" s="249" t="s">
+      <c r="A228" s="234" t="s">
         <v>503</v>
       </c>
-      <c r="B228" s="250"/>
+      <c r="B228" s="235"/>
       <c r="C228" s="107"/>
       <c r="D228" s="42"/>
       <c r="E228" s="42"/>
@@ -15810,6 +15810,21 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="31">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A125:B125"/>
     <mergeCell ref="A213:B213"/>
     <mergeCell ref="A218:B218"/>
     <mergeCell ref="A228:B228"/>
@@ -15826,21 +15841,6 @@
     <mergeCell ref="A188:B188"/>
     <mergeCell ref="A195:B195"/>
     <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A36" location="'Move or Copy'!A1" display="Link to Move or Copy"/>
@@ -15881,7 +15881,7 @@
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -16257,8 +16257,8 @@
       <c r="A23" s="260" t="s">
         <v>682</v>
       </c>
-      <c r="B23" s="236"/>
-      <c r="C23" s="236"/>
+      <c r="B23" s="237"/>
+      <c r="C23" s="237"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -16510,7 +16510,7 @@
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -16886,8 +16886,8 @@
       <c r="A23" s="260" t="s">
         <v>682</v>
       </c>
-      <c r="B23" s="236"/>
-      <c r="C23" s="236"/>
+      <c r="B23" s="237"/>
+      <c r="C23" s="237"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -17251,7 +17251,7 @@
       <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:25" s="171" customFormat="1" ht="36" customHeight="1">
-      <c r="A6" s="240" t="s">
+      <c r="A6" s="238" t="s">
         <v>699</v>
       </c>
       <c r="B6" s="258"/>
@@ -17551,8 +17551,8 @@
       <c r="A23" s="260" t="s">
         <v>682</v>
       </c>
-      <c r="B23" s="236"/>
-      <c r="C23" s="236"/>
+      <c r="B23" s="237"/>
+      <c r="C23" s="237"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -18486,8 +18486,8 @@
       <c r="A23" s="260" t="s">
         <v>682</v>
       </c>
-      <c r="B23" s="236"/>
-      <c r="C23" s="236"/>
+      <c r="B23" s="237"/>
+      <c r="C23" s="237"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -19112,8 +19112,8 @@
       <c r="A23" s="260" t="s">
         <v>682</v>
       </c>
-      <c r="B23" s="236"/>
-      <c r="C23" s="236"/>
+      <c r="B23" s="237"/>
+      <c r="C23" s="237"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -19740,8 +19740,8 @@
       <c r="A23" s="260" t="s">
         <v>682</v>
       </c>
-      <c r="B23" s="236"/>
-      <c r="C23" s="236"/>
+      <c r="B23" s="237"/>
+      <c r="C23" s="237"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -20371,8 +20371,8 @@
       <c r="A23" s="260" t="s">
         <v>682</v>
       </c>
-      <c r="B23" s="236"/>
-      <c r="C23" s="236"/>
+      <c r="B23" s="237"/>
+      <c r="C23" s="237"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -21000,8 +21000,8 @@
       <c r="A23" s="260" t="s">
         <v>682</v>
       </c>
-      <c r="B23" s="236"/>
-      <c r="C23" s="236"/>
+      <c r="B23" s="237"/>
+      <c r="C23" s="237"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -21629,8 +21629,8 @@
       <c r="A23" s="260" t="s">
         <v>682</v>
       </c>
-      <c r="B23" s="236"/>
-      <c r="C23" s="236"/>
+      <c r="B23" s="237"/>
+      <c r="C23" s="237"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
@@ -21881,7 +21881,7 @@
   </sheetPr>
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -22258,8 +22258,8 @@
       <c r="A23" s="260" t="s">
         <v>682</v>
       </c>
-      <c r="B23" s="236"/>
-      <c r="C23" s="236"/>
+      <c r="B23" s="237"/>
+      <c r="C23" s="237"/>
       <c r="D23" s="145"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>

--- a/data/imports/mrss-export.xlsx
+++ b/data/imports/mrss-export.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louguthrie\Documents\Maximizing Resources After Victoria\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22356" windowHeight="19380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22360" windowHeight="19380"/>
   </bookViews>
   <sheets>
     <sheet name="DataEntry" sheetId="1" r:id="rId1"/>
@@ -39,7 +34,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="10">Form2j!$A$1:$D$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'Move or Copy'!$A$1:$Q$66</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -3971,154 +3966,13 @@
     <t>instruction_hybrid</t>
   </si>
   <si>
-    <t>ipeds_enr</t>
-  </si>
-  <si>
-    <t>ft_cr_head</t>
-  </si>
-  <si>
-    <t>pt_cr_head</t>
-  </si>
-  <si>
-    <t>hs_stud_hdct</t>
-  </si>
-  <si>
-    <t>hs_stud_crh</t>
-  </si>
-  <si>
-    <t>pell_grant_rec</t>
-  </si>
-  <si>
-    <t>fem_cred_stud</t>
-  </si>
-  <si>
-    <t>trans_cred</t>
-  </si>
-  <si>
-    <t>t_c_crh</t>
-  </si>
-  <si>
-    <t>dev_crh</t>
-  </si>
-  <si>
-    <t>crd_stud_minc</t>
-  </si>
-  <si>
-    <t>non_res_alien_2012</t>
-  </si>
-  <si>
-    <t>hisp_anyrace_2012</t>
-  </si>
-  <si>
-    <t>ind_alaska_2012</t>
-  </si>
-  <si>
-    <t>asian_2012</t>
-  </si>
-  <si>
-    <t>blk_2012</t>
-  </si>
-  <si>
-    <t>white_2012</t>
-  </si>
-  <si>
-    <t>two_or_more</t>
-  </si>
-  <si>
-    <t>race_eth_unk_2012</t>
-  </si>
-  <si>
-    <t>tuition_fees</t>
-  </si>
-  <si>
-    <t>unre_o_rev</t>
-  </si>
-  <si>
-    <t>loc_sour</t>
-  </si>
-  <si>
-    <t>state_sour</t>
-  </si>
-  <si>
-    <t>tuition_fees_sour</t>
-  </si>
-  <si>
-    <t>institutional_demographics_faculty_unionized</t>
-  </si>
-  <si>
-    <t>institutional_demographics_staff_unionized</t>
-  </si>
-  <si>
-    <t>institutional_control</t>
-  </si>
-  <si>
-    <t>institutional_type</t>
-  </si>
-  <si>
-    <t>institutional_demographics_unemployment_rate</t>
-  </si>
-  <si>
-    <t>institutional_demographics_median_household_income</t>
-  </si>
-  <si>
     <t>Form 2 NCCBP</t>
   </si>
   <si>
-    <t>ft_f_yminus4_headc</t>
-  </si>
-  <si>
-    <t>ft_f_yminus4_degr_cert</t>
-  </si>
-  <si>
-    <t>ft_f_yminus4_transf</t>
-  </si>
-  <si>
-    <t>pt_f_yminus4_headc</t>
-  </si>
-  <si>
-    <t>pt_f_yminus4_degr_cert</t>
-  </si>
-  <si>
-    <t>pt_f_yminus4_transf</t>
-  </si>
-  <si>
-    <t>ft_yminus7_degr</t>
-  </si>
-  <si>
-    <t>ft_yminus7_transf</t>
-  </si>
-  <si>
-    <t>pt_fminus7_headc</t>
-  </si>
-  <si>
-    <t>pt_yminus7_degr</t>
-  </si>
-  <si>
-    <t>pt_yminus7_transf</t>
-  </si>
-  <si>
     <t>Form 7: NCCBP</t>
   </si>
   <si>
-    <t>tot_grad_abcpdfw</t>
-  </si>
-  <si>
     <t>Form 4 NCCBP</t>
-  </si>
-  <si>
-    <t>tot_cr_st</t>
-  </si>
-  <si>
-    <t>grad_bef_spr</t>
-  </si>
-  <si>
-    <t>enr_bef_spr</t>
-  </si>
-  <si>
-    <t>grad_bef_fall</t>
-  </si>
-  <si>
-    <t>enr_fall</t>
   </si>
   <si>
     <t>Include those employees who directly support the instructional function and whose salaries and benefits are paid from the instructional budget.</t>
@@ -4345,12 +4199,6 @@
     <t>Enter the total number of student credit hours taught by full-time faculty at the end of the fall 2012 term. This should be the number of credit hours for a course times the number of students enrolled in the course (include students who received a grade of W). For example, a 3 credit hour course with 30 enrolled students would generate 90 student credit hours. Exclude high school students taking classes taught by high school faculty in their high schools for college credit.</t>
   </si>
   <si>
-    <t>ft_tot_stud_crhrs_tght</t>
-  </si>
-  <si>
-    <t>pt_tot_stud_crhrs_tght</t>
-  </si>
-  <si>
     <t>inst_exec_expend</t>
   </si>
   <si>
@@ -4403,24 +4251,6 @@
   </si>
   <si>
     <t>NCCBP Form 1 and Form 16C (Student Credit Hours taught)</t>
-  </si>
-  <si>
-    <t>first_gen_students</t>
-  </si>
-  <si>
-    <t>haw_pacific_2012</t>
-  </si>
-  <si>
-    <t>institutional_demographics_campus_environment</t>
-  </si>
-  <si>
-    <t>f_yminus7_headc</t>
-  </si>
-  <si>
-    <t>tot_grad_abcpdf</t>
-  </si>
-  <si>
-    <t>tot_grad_abcp</t>
   </si>
   <si>
     <t>u1_unit_name</t>
@@ -5261,20 +5091,185 @@
 P grades (or your institution's equivalent) are awarded when a student takes a class for a "pass" or "fail" grade.  Not all institutions may offer this option.</t>
     </r>
   </si>
+  <si>
+    <t>max_res_ipeds_enr</t>
+  </si>
+  <si>
+    <t>max_res_ft_cr_head</t>
+  </si>
+  <si>
+    <t>max_res_pt_cr_head</t>
+  </si>
+  <si>
+    <t>max_res_ft_tot_stud_crhrs_tght</t>
+  </si>
+  <si>
+    <t>max_res_pt_tot_stud_crhrs_tght</t>
+  </si>
+  <si>
+    <t>max_res_hs_stud_hdct</t>
+  </si>
+  <si>
+    <t>max_res_hs_stud_crh</t>
+  </si>
+  <si>
+    <t>max_res_pell_grant_rec</t>
+  </si>
+  <si>
+    <t>max_res_fem_cred_stud</t>
+  </si>
+  <si>
+    <t>max_res_first_gen_students</t>
+  </si>
+  <si>
+    <t>max_res_trans_cred</t>
+  </si>
+  <si>
+    <t>max_res_t_c_crh</t>
+  </si>
+  <si>
+    <t>max_res_dev_crh</t>
+  </si>
+  <si>
+    <t>max_res_crd_stud_minc</t>
+  </si>
+  <si>
+    <t>max_res_non_res_alien_2012</t>
+  </si>
+  <si>
+    <t>max_res_hisp_anyrace_2012</t>
+  </si>
+  <si>
+    <t>max_res_ind_alaska_2012</t>
+  </si>
+  <si>
+    <t>max_res_asian_2012</t>
+  </si>
+  <si>
+    <t>max_res_blk_2012</t>
+  </si>
+  <si>
+    <t>max_res_haw_pacific_2012</t>
+  </si>
+  <si>
+    <t>max_res_white_2012</t>
+  </si>
+  <si>
+    <t>max_res_two_or_more</t>
+  </si>
+  <si>
+    <t>max_res_race_eth_unk_2012</t>
+  </si>
+  <si>
+    <t>max_res_tuition_fees</t>
+  </si>
+  <si>
+    <t>max_res_unre_o_rev</t>
+  </si>
+  <si>
+    <t>max_res_loc_sour</t>
+  </si>
+  <si>
+    <t>max_res_state_sour</t>
+  </si>
+  <si>
+    <t>max_res_tuition_fees_sour</t>
+  </si>
+  <si>
+    <t>max_res_institutional_demographics_faculty_unionized</t>
+  </si>
+  <si>
+    <t>max_res_institutional_demographics_staff_unionized</t>
+  </si>
+  <si>
+    <t>max_res_institutional_demographics_campus_environment</t>
+  </si>
+  <si>
+    <t>max_res_institutional_control</t>
+  </si>
+  <si>
+    <t>max_res_institutional_type</t>
+  </si>
+  <si>
+    <t>max_res_institutional_demographics_unemployment_rate</t>
+  </si>
+  <si>
+    <t>max_res_institutional_demographics_median_household_income</t>
+  </si>
+  <si>
+    <t>max_res_ft_f_yminus4_headc</t>
+  </si>
+  <si>
+    <t>max_res_ft_f_yminus4_degr_cert</t>
+  </si>
+  <si>
+    <t>max_res_ft_f_yminus4_transf</t>
+  </si>
+  <si>
+    <t>max_res_pt_f_yminus4_headc</t>
+  </si>
+  <si>
+    <t>max_res_pt_f_yminus4_degr_cert</t>
+  </si>
+  <si>
+    <t>max_res_pt_f_yminus4_transf</t>
+  </si>
+  <si>
+    <t>max_res_f_yminus7_headc</t>
+  </si>
+  <si>
+    <t>max_res_ft_yminus7_degr</t>
+  </si>
+  <si>
+    <t>max_res_ft_yminus7_transf</t>
+  </si>
+  <si>
+    <t>max_res_pt_fminus7_headc</t>
+  </si>
+  <si>
+    <t>max_res_pt_yminus7_degr</t>
+  </si>
+  <si>
+    <t>max_res_pt_yminus7_transf</t>
+  </si>
+  <si>
+    <t>max_res_tot_grad_abcpdfw</t>
+  </si>
+  <si>
+    <t>max_res_tot_grad_abcpdf</t>
+  </si>
+  <si>
+    <t>max_res_tot_grad_abcp</t>
+  </si>
+  <si>
+    <t>max_res_tot_cr_st</t>
+  </si>
+  <si>
+    <t>max_res_grad_bef_spr</t>
+  </si>
+  <si>
+    <t>max_res_enr_bef_spr</t>
+  </si>
+  <si>
+    <t>max_res_grad_bef_fall</t>
+  </si>
+  <si>
+    <t>max_res_enr_fall</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="165" formatCode="0\%"/>
-    <numFmt numFmtId="166" formatCode="0.00\%\ "/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="0\%"/>
+    <numFmt numFmtId="168" formatCode="0.00\%\ "/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="56">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5916,10 +5911,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -5974,10 +5969,10 @@
     <xf numFmtId="0" fontId="31" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6050,19 +6045,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6077,7 +6072,7 @@
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -6100,10 +6095,10 @@
     <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6140,7 +6135,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6149,7 +6144,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6216,7 +6211,7 @@
     </xf>
     <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="52" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="42" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6235,7 +6230,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="54" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6309,7 +6304,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="24" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6331,28 +6326,36 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -6368,16 +6371,18 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="15"/>
     </xf>
@@ -6417,16 +6422,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -7372,33 +7367,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X509"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C209" sqref="C209"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B240" workbookViewId="0">
+      <selection activeCell="D249" sqref="D249"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="54.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="54.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="67.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="51.109375" style="41" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="51.1640625" style="41" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" style="41" customWidth="1"/>
     <col min="6" max="6" width="23.33203125" style="4" customWidth="1"/>
-    <col min="7" max="9" width="8.77734375" style="4"/>
-    <col min="10" max="10" width="8.77734375" style="1"/>
+    <col min="7" max="9" width="8.83203125" style="4"/>
+    <col min="10" max="10" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="9" customFormat="1" ht="66.45" customHeight="1">
-      <c r="A1" s="225" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="225"/>
-      <c r="C1" s="225"/>
+    <row r="1" spans="1:24" s="9" customFormat="1" ht="66.5" customHeight="1">
+      <c r="A1" s="242" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
       <c r="D1" s="41"/>
       <c r="E1" s="41"/>
       <c r="F1" s="10"/>
@@ -7418,11 +7413,11 @@
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:24" s="9" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="238" t="s">
         <v>528</v>
       </c>
-      <c r="B3" s="234"/>
-      <c r="C3" s="234"/>
+      <c r="B3" s="238"/>
+      <c r="C3" s="238"/>
       <c r="D3" s="181"/>
       <c r="E3" s="181"/>
       <c r="F3" s="10"/>
@@ -7431,21 +7426,21 @@
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="11" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="244" t="s">
         <v>519</v>
       </c>
-      <c r="B4" s="230"/>
-      <c r="C4" s="230"/>
+      <c r="B4" s="245"/>
+      <c r="C4" s="245"/>
       <c r="D4" s="181"/>
       <c r="E4" s="181"/>
       <c r="F4" s="10"/>
     </row>
     <row r="6" spans="1:24" ht="48.75" customHeight="1">
-      <c r="A6" s="228" t="s">
+      <c r="A6" s="243" t="s">
         <v>520</v>
       </c>
-      <c r="B6" s="228"/>
-      <c r="C6" s="228"/>
+      <c r="B6" s="243"/>
+      <c r="C6" s="243"/>
       <c r="D6" s="182"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
@@ -7475,12 +7470,12 @@
       <c r="E7" s="181"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:24" s="163" customFormat="1" ht="40.049999999999997" customHeight="1">
-      <c r="A8" s="231" t="s">
-        <v>683</v>
-      </c>
-      <c r="B8" s="232"/>
-      <c r="C8" s="232"/>
+    <row r="8" spans="1:24" s="163" customFormat="1" ht="40" customHeight="1">
+      <c r="A8" s="233" t="s">
+        <v>636</v>
+      </c>
+      <c r="B8" s="234"/>
+      <c r="C8" s="234"/>
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
       <c r="F8" s="18"/>
@@ -7505,7 +7500,7 @@
     </row>
     <row r="9" spans="1:24" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A9" s="168" t="s">
-        <v>984</v>
+        <v>929</v>
       </c>
       <c r="B9" s="68"/>
       <c r="C9" s="67"/>
@@ -7533,7 +7528,7 @@
     </row>
     <row r="10" spans="1:24" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="88" t="s">
-        <v>647</v>
+        <v>600</v>
       </c>
       <c r="B10" s="86"/>
       <c r="C10" s="87"/>
@@ -7561,7 +7556,7 @@
     </row>
     <row r="11" spans="1:24" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="88" t="s">
-        <v>648</v>
+        <v>601</v>
       </c>
       <c r="B11" s="86"/>
       <c r="C11" s="87"/>
@@ -7588,11 +7583,11 @@
       <c r="X11" s="66"/>
     </row>
     <row r="12" spans="1:24" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="226" t="s">
+      <c r="A12" s="231" t="s">
         <v>455</v>
       </c>
-      <c r="B12" s="227"/>
-      <c r="C12" s="227"/>
+      <c r="B12" s="232"/>
+      <c r="C12" s="232"/>
       <c r="D12" s="183"/>
       <c r="E12" s="183"/>
       <c r="F12" s="66"/>
@@ -7671,7 +7666,7 @@
     </row>
     <row r="15" spans="1:24" s="57" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A15" s="71" t="s">
-        <v>671</v>
+        <v>624</v>
       </c>
       <c r="B15" s="80"/>
       <c r="C15" s="81"/>
@@ -7680,11 +7675,11 @@
     </row>
     <row r="16" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="72" t="s">
-        <v>988</v>
+        <v>933</v>
       </c>
       <c r="B16" s="77"/>
       <c r="C16" s="45" t="s">
-        <v>975</v>
+        <v>920</v>
       </c>
       <c r="D16" s="183" t="s">
         <v>530</v>
@@ -7695,11 +7690,11 @@
     </row>
     <row r="17" spans="1:24" ht="39" customHeight="1" thickBot="1">
       <c r="A17" s="72" t="s">
-        <v>989</v>
+        <v>934</v>
       </c>
       <c r="B17" s="78"/>
       <c r="C17" s="45" t="s">
-        <v>1000</v>
+        <v>945</v>
       </c>
       <c r="D17" s="183" t="s">
         <v>531</v>
@@ -7710,11 +7705,11 @@
     </row>
     <row r="18" spans="1:24" ht="103.5" customHeight="1" thickBot="1">
       <c r="A18" s="219" t="s">
-        <v>979</v>
+        <v>924</v>
       </c>
       <c r="B18" s="78"/>
       <c r="C18" s="45" t="s">
-        <v>980</v>
+        <v>925</v>
       </c>
       <c r="D18" s="183" t="s">
         <v>532</v>
@@ -7725,7 +7720,7 @@
     </row>
     <row r="19" spans="1:24" ht="18" customHeight="1" thickBot="1">
       <c r="A19" s="71" t="s">
-        <v>674</v>
+        <v>627</v>
       </c>
       <c r="B19" s="82"/>
       <c r="C19" s="83"/>
@@ -7733,11 +7728,11 @@
     </row>
     <row r="20" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A20" s="72" t="s">
-        <v>988</v>
+        <v>933</v>
       </c>
       <c r="B20" s="77"/>
       <c r="C20" s="46" t="s">
-        <v>974</v>
+        <v>919</v>
       </c>
       <c r="D20" s="41" t="s">
         <v>533</v>
@@ -7748,11 +7743,11 @@
     </row>
     <row r="21" spans="1:24" ht="52.5" customHeight="1" thickBot="1">
       <c r="A21" s="220" t="s">
-        <v>990</v>
+        <v>935</v>
       </c>
       <c r="B21" s="78"/>
       <c r="C21" s="46" t="s">
-        <v>1001</v>
+        <v>946</v>
       </c>
       <c r="D21" s="33" t="s">
         <v>534</v>
@@ -7761,13 +7756,13 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="1:24" ht="108.6" customHeight="1" thickBot="1">
+    <row r="22" spans="1:24" ht="108.5" customHeight="1" thickBot="1">
       <c r="A22" s="219" t="s">
-        <v>979</v>
+        <v>924</v>
       </c>
       <c r="B22" s="78"/>
       <c r="C22" s="46" t="s">
-        <v>981</v>
+        <v>926</v>
       </c>
       <c r="D22" s="41" t="s">
         <v>535</v>
@@ -7804,16 +7799,16 @@
       <c r="W23" s="60"/>
       <c r="X23" s="60"/>
     </row>
-    <row r="24" spans="1:24" ht="53.4" thickBot="1">
+    <row r="24" spans="1:24" ht="49" thickBot="1">
       <c r="A24" s="72" t="s">
-        <v>988</v>
+        <v>933</v>
       </c>
       <c r="B24" s="77"/>
       <c r="C24" s="218" t="s">
-        <v>977</v>
+        <v>922</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>720</v>
+        <v>671</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -7821,14 +7816,14 @@
     </row>
     <row r="25" spans="1:24" ht="47.25" customHeight="1" thickBot="1">
       <c r="A25" s="72" t="s">
-        <v>997</v>
+        <v>942</v>
       </c>
       <c r="B25" s="78"/>
       <c r="C25" s="62" t="s">
-        <v>995</v>
+        <v>940</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>721</v>
+        <v>672</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -7864,11 +7859,11 @@
     </row>
     <row r="27" spans="1:24" ht="48" customHeight="1" thickBot="1">
       <c r="A27" s="72" t="s">
-        <v>988</v>
+        <v>933</v>
       </c>
       <c r="B27" s="77"/>
       <c r="C27" s="46" t="s">
-        <v>976</v>
+        <v>921</v>
       </c>
       <c r="D27" s="41" t="s">
         <v>536</v>
@@ -7879,11 +7874,11 @@
     </row>
     <row r="28" spans="1:24" ht="46.5" customHeight="1" thickBot="1">
       <c r="A28" s="72" t="s">
-        <v>997</v>
+        <v>942</v>
       </c>
       <c r="B28" s="78"/>
       <c r="C28" s="46" t="s">
-        <v>996</v>
+        <v>941</v>
       </c>
       <c r="D28" s="41" t="s">
         <v>537</v>
@@ -7892,13 +7887,13 @@
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
     </row>
-    <row r="29" spans="1:24" ht="55.8" customHeight="1" thickBot="1">
+    <row r="29" spans="1:24" ht="55.75" customHeight="1" thickBot="1">
       <c r="A29" s="75" t="s">
-        <v>991</v>
+        <v>936</v>
       </c>
       <c r="B29" s="77"/>
       <c r="C29" s="45" t="s">
-        <v>978</v>
+        <v>923</v>
       </c>
       <c r="D29" s="33" t="s">
         <v>538</v>
@@ -7915,12 +7910,12 @@
       <c r="E30" s="181"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:24" ht="40.049999999999997" customHeight="1">
-      <c r="A31" s="231" t="s">
+    <row r="31" spans="1:24" ht="40" customHeight="1">
+      <c r="A31" s="233" t="s">
         <v>456</v>
       </c>
-      <c r="B31" s="232"/>
-      <c r="C31" s="232"/>
+      <c r="B31" s="234"/>
+      <c r="C31" s="234"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
@@ -7943,7 +7938,7 @@
     </row>
     <row r="32" spans="1:24" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A32" s="168" t="s">
-        <v>986</v>
+        <v>931</v>
       </c>
       <c r="B32" s="68"/>
       <c r="C32" s="67"/>
@@ -8026,11 +8021,11 @@
       <c r="X34" s="18"/>
     </row>
     <row r="35" spans="1:24" ht="43.5" customHeight="1">
-      <c r="A35" s="237" t="s">
+      <c r="A35" s="241" t="s">
         <v>458</v>
       </c>
-      <c r="B35" s="237"/>
-      <c r="C35" s="237"/>
+      <c r="B35" s="241"/>
+      <c r="C35" s="241"/>
       <c r="D35" s="180"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
@@ -8078,11 +8073,11 @@
       <c r="V36" s="3"/>
     </row>
     <row r="37" spans="1:24" ht="48.75" customHeight="1">
-      <c r="A37" s="235" t="s">
+      <c r="A37" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="236"/>
-      <c r="C37" s="236"/>
+      <c r="B37" s="240"/>
+      <c r="C37" s="240"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -8251,11 +8246,11 @@
       <c r="E49" s="181"/>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:24" ht="40.049999999999997" customHeight="1">
-      <c r="A50" s="231" t="s">
+    <row r="50" spans="1:24" ht="40" customHeight="1">
+      <c r="A50" s="233" t="s">
         <v>469</v>
       </c>
-      <c r="B50" s="232"/>
+      <c r="B50" s="234"/>
       <c r="C50" s="56"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
@@ -8362,11 +8357,11 @@
       <c r="X53" s="66"/>
     </row>
     <row r="54" spans="1:24" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A54" s="226" t="s">
+      <c r="A54" s="231" t="s">
         <v>455</v>
       </c>
-      <c r="B54" s="227"/>
-      <c r="C54" s="227"/>
+      <c r="B54" s="232"/>
+      <c r="C54" s="232"/>
       <c r="D54" s="41"/>
       <c r="E54" s="183"/>
       <c r="F54" s="66"/>
@@ -8419,8 +8414,8 @@
       <c r="A56" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="238"/>
-      <c r="C56" s="239"/>
+      <c r="B56" s="235"/>
+      <c r="C56" s="236"/>
       <c r="F56" s="31"/>
       <c r="G56" s="31"/>
       <c r="H56" s="31"/>
@@ -8435,7 +8430,7 @@
         <v>7</v>
       </c>
       <c r="D57" s="41" t="s">
-        <v>722</v>
+        <v>673</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
@@ -8505,7 +8500,7 @@
         <v>13</v>
       </c>
       <c r="D62" s="41" t="s">
-        <v>723</v>
+        <v>674</v>
       </c>
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
@@ -8576,7 +8571,7 @@
         <v>17</v>
       </c>
       <c r="D67" s="183" t="s">
-        <v>724</v>
+        <v>675</v>
       </c>
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
@@ -8614,7 +8609,7 @@
     </row>
     <row r="70" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A70" s="97" t="s">
-        <v>676</v>
+        <v>629</v>
       </c>
       <c r="B70" s="78"/>
       <c r="C70" s="46" t="s">
@@ -8661,7 +8656,7 @@
         <v>23</v>
       </c>
       <c r="D73" s="41" t="s">
-        <v>725</v>
+        <v>676</v>
       </c>
       <c r="F73" s="14"/>
       <c r="G73" s="14"/>
@@ -8699,7 +8694,7 @@
     </row>
     <row r="76" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A76" s="97" t="s">
-        <v>676</v>
+        <v>629</v>
       </c>
       <c r="B76" s="78"/>
       <c r="C76" s="46" t="s">
@@ -8749,7 +8744,7 @@
         <v>29</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>726</v>
+        <v>677</v>
       </c>
       <c r="F79" s="14"/>
       <c r="G79" s="14"/>
@@ -8787,7 +8782,7 @@
     </row>
     <row r="82" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A82" s="97" t="s">
-        <v>676</v>
+        <v>629</v>
       </c>
       <c r="B82" s="78"/>
       <c r="C82" s="46" t="s">
@@ -8834,7 +8829,7 @@
         <v>35</v>
       </c>
       <c r="D85" s="41" t="s">
-        <v>727</v>
+        <v>678</v>
       </c>
       <c r="F85" s="14"/>
       <c r="G85" s="14"/>
@@ -8872,7 +8867,7 @@
     </row>
     <row r="88" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A88" s="97" t="s">
-        <v>676</v>
+        <v>629</v>
       </c>
       <c r="B88" s="78"/>
       <c r="C88" s="46" t="s">
@@ -8919,7 +8914,7 @@
         <v>40</v>
       </c>
       <c r="D91" s="41" t="s">
-        <v>728</v>
+        <v>679</v>
       </c>
       <c r="F91" s="14"/>
       <c r="G91" s="14"/>
@@ -8989,7 +8984,7 @@
         <v>44</v>
       </c>
       <c r="D96" s="41" t="s">
-        <v>729</v>
+        <v>680</v>
       </c>
       <c r="F96" s="14"/>
       <c r="G96" s="14"/>
@@ -9027,7 +9022,7 @@
     </row>
     <row r="99" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A99" s="97" t="s">
-        <v>676</v>
+        <v>629</v>
       </c>
       <c r="B99" s="78"/>
       <c r="C99" s="46" t="s">
@@ -9074,7 +9069,7 @@
         <v>49</v>
       </c>
       <c r="D102" s="41" t="s">
-        <v>730</v>
+        <v>681</v>
       </c>
       <c r="F102" s="14"/>
       <c r="G102" s="14"/>
@@ -9112,7 +9107,7 @@
     </row>
     <row r="105" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A105" s="97" t="s">
-        <v>676</v>
+        <v>629</v>
       </c>
       <c r="B105" s="78"/>
       <c r="C105" s="46" t="s">
@@ -9150,7 +9145,7 @@
       <c r="G107" s="14"/>
       <c r="H107" s="14"/>
     </row>
-    <row r="108" spans="1:8" ht="49.95" customHeight="1" thickBot="1">
+    <row r="108" spans="1:8" ht="50" customHeight="1" thickBot="1">
       <c r="A108" s="97" t="s">
         <v>6</v>
       </c>
@@ -9159,7 +9154,7 @@
         <v>54</v>
       </c>
       <c r="D108" s="41" t="s">
-        <v>731</v>
+        <v>682</v>
       </c>
       <c r="F108" s="14"/>
       <c r="G108" s="14"/>
@@ -9267,7 +9262,7 @@
     </row>
     <row r="116" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A116" s="97" t="s">
-        <v>676</v>
+        <v>629</v>
       </c>
       <c r="B116" s="78"/>
       <c r="C116" s="46" t="s">
@@ -9305,7 +9300,7 @@
       <c r="G118" s="14"/>
       <c r="H118" s="14"/>
     </row>
-    <row r="119" spans="1:24" ht="49.95" customHeight="1" thickBot="1">
+    <row r="119" spans="1:24" ht="50" customHeight="1" thickBot="1">
       <c r="A119" s="97" t="s">
         <v>6</v>
       </c>
@@ -9314,7 +9309,7 @@
         <v>63</v>
       </c>
       <c r="D119" s="41" t="s">
-        <v>732</v>
+        <v>683</v>
       </c>
       <c r="F119" s="14"/>
       <c r="G119" s="14"/>
@@ -9326,7 +9321,7 @@
       </c>
       <c r="B120" s="77"/>
       <c r="C120" s="46" t="s">
-        <v>684</v>
+        <v>637</v>
       </c>
       <c r="D120" s="41" t="s">
         <v>580</v>
@@ -9341,7 +9336,7 @@
       </c>
       <c r="B121" s="78"/>
       <c r="C121" s="46" t="s">
-        <v>685</v>
+        <v>638</v>
       </c>
       <c r="D121" s="41" t="s">
         <v>581</v>
@@ -9352,7 +9347,7 @@
     </row>
     <row r="122" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A122" s="97" t="s">
-        <v>676</v>
+        <v>629</v>
       </c>
       <c r="B122" s="78"/>
       <c r="C122" s="46" t="s">
@@ -9371,7 +9366,7 @@
       </c>
       <c r="B123" s="77"/>
       <c r="C123" s="45" t="s">
-        <v>686</v>
+        <v>639</v>
       </c>
       <c r="D123" s="173" t="s">
         <v>583</v>
@@ -9388,11 +9383,11 @@
       <c r="E124" s="181"/>
       <c r="F124" s="10"/>
     </row>
-    <row r="125" spans="1:24" s="163" customFormat="1" ht="40.049999999999997" customHeight="1">
-      <c r="A125" s="231" t="s">
-        <v>687</v>
-      </c>
-      <c r="B125" s="232"/>
+    <row r="125" spans="1:24" s="163" customFormat="1" ht="40" customHeight="1">
+      <c r="A125" s="233" t="s">
+        <v>640</v>
+      </c>
+      <c r="B125" s="234"/>
       <c r="C125" s="56"/>
       <c r="D125" s="41"/>
       <c r="E125" s="41"/>
@@ -9473,11 +9468,11 @@
       <c r="X127" s="66"/>
     </row>
     <row r="128" spans="1:24" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A128" s="226" t="s">
+      <c r="A128" s="231" t="s">
         <v>455</v>
       </c>
-      <c r="B128" s="227"/>
-      <c r="C128" s="227"/>
+      <c r="B128" s="232"/>
+      <c r="C128" s="232"/>
       <c r="D128" s="32"/>
       <c r="E128" s="183"/>
       <c r="F128" s="66"/>
@@ -9530,8 +9525,8 @@
       <c r="A130" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B130" s="238"/>
-      <c r="C130" s="239"/>
+      <c r="B130" s="235"/>
+      <c r="C130" s="236"/>
       <c r="D130" s="32"/>
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
@@ -9546,7 +9541,7 @@
         <v>66</v>
       </c>
       <c r="D131" s="173" t="s">
-        <v>733</v>
+        <v>684</v>
       </c>
       <c r="F131" s="14"/>
       <c r="G131" s="14"/>
@@ -9616,8 +9611,8 @@
       <c r="A136" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="B136" s="238"/>
-      <c r="C136" s="239"/>
+      <c r="B136" s="235"/>
+      <c r="C136" s="236"/>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
       <c r="H136" s="14"/>
@@ -9632,7 +9627,7 @@
         <v>72</v>
       </c>
       <c r="D137" s="173" t="s">
-        <v>734</v>
+        <v>685</v>
       </c>
       <c r="F137" s="14"/>
       <c r="G137" s="14"/>
@@ -9677,7 +9672,7 @@
         <v>75</v>
       </c>
       <c r="D140" s="173" t="s">
-        <v>735</v>
+        <v>686</v>
       </c>
       <c r="F140" s="14"/>
       <c r="G140" s="14"/>
@@ -9704,7 +9699,7 @@
         <v>77</v>
       </c>
       <c r="D142" s="173" t="s">
-        <v>736</v>
+        <v>687</v>
       </c>
       <c r="E142" s="41"/>
       <c r="F142" s="41"/>
@@ -9782,11 +9777,11 @@
       <c r="E147" s="181"/>
       <c r="F147" s="10"/>
     </row>
-    <row r="148" spans="1:24" s="58" customFormat="1" ht="40.049999999999997" customHeight="1">
-      <c r="A148" s="231" t="s">
+    <row r="148" spans="1:24" s="58" customFormat="1" ht="40" customHeight="1">
+      <c r="A148" s="233" t="s">
         <v>475</v>
       </c>
-      <c r="B148" s="232"/>
+      <c r="B148" s="234"/>
       <c r="C148" s="56"/>
       <c r="D148" s="41"/>
       <c r="E148" s="41"/>
@@ -9839,11 +9834,11 @@
       <c r="X149" s="66"/>
     </row>
     <row r="150" spans="1:24" s="61" customFormat="1" ht="24" customHeight="1">
-      <c r="A150" s="226" t="s">
+      <c r="A150" s="231" t="s">
         <v>477</v>
       </c>
-      <c r="B150" s="227"/>
-      <c r="C150" s="227"/>
+      <c r="B150" s="232"/>
+      <c r="C150" s="232"/>
       <c r="D150" s="41"/>
       <c r="E150" s="183"/>
       <c r="F150" s="66"/>
@@ -9893,10 +9888,10 @@
       <c r="X151" s="94"/>
     </row>
     <row r="152" spans="1:24" s="58" customFormat="1" ht="36" customHeight="1">
-      <c r="A152" s="240" t="s">
+      <c r="A152" s="229" t="s">
         <v>478</v>
       </c>
-      <c r="B152" s="241"/>
+      <c r="B152" s="230"/>
       <c r="C152" s="104"/>
       <c r="D152" s="41"/>
       <c r="E152" s="41"/>
@@ -9922,7 +9917,7 @@
     </row>
     <row r="153" spans="1:24" s="57" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="A153" s="188" t="s">
-        <v>705</v>
+        <v>658</v>
       </c>
       <c r="B153" s="189"/>
       <c r="C153" s="190" t="s">
@@ -9970,7 +9965,7 @@
       </c>
       <c r="B156" s="53"/>
       <c r="C156" s="45" t="s">
-        <v>688</v>
+        <v>641</v>
       </c>
       <c r="D156" s="41" t="s">
         <v>596</v>
@@ -9980,13 +9975,13 @@
       <c r="H156" s="14"/>
     </row>
     <row r="157" spans="1:24" s="58" customFormat="1" ht="36" customHeight="1">
-      <c r="A157" s="240" t="s">
+      <c r="A157" s="229" t="s">
         <v>479</v>
       </c>
-      <c r="B157" s="241"/>
+      <c r="B157" s="230"/>
       <c r="C157" s="104"/>
       <c r="D157" s="41" t="s">
-        <v>737</v>
+        <v>688</v>
       </c>
       <c r="E157" s="41"/>
       <c r="F157" s="18"/>
@@ -10011,7 +10006,7 @@
     </row>
     <row r="158" spans="1:24" s="57" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="A158" s="188" t="s">
-        <v>706</v>
+        <v>659</v>
       </c>
       <c r="B158" s="189"/>
       <c r="C158" s="195" t="s">
@@ -10029,10 +10024,10 @@
       </c>
       <c r="B159" s="214"/>
       <c r="C159" s="46" t="s">
-        <v>675</v>
+        <v>628</v>
       </c>
       <c r="D159" s="173" t="s">
-        <v>597</v>
+        <v>948</v>
       </c>
       <c r="F159" s="14"/>
       <c r="G159" s="14"/>
@@ -10047,7 +10042,7 @@
         <v>90</v>
       </c>
       <c r="D160" s="41" t="s">
-        <v>598</v>
+        <v>949</v>
       </c>
       <c r="F160" s="14"/>
       <c r="G160" s="14"/>
@@ -10062,7 +10057,7 @@
         <v>92</v>
       </c>
       <c r="D161" s="41" t="s">
-        <v>599</v>
+        <v>950</v>
       </c>
       <c r="F161" s="14"/>
       <c r="G161" s="14"/>
@@ -10071,14 +10066,14 @@
     </row>
     <row r="162" spans="1:24" s="164" customFormat="1" ht="90.75" customHeight="1" thickBot="1">
       <c r="A162" s="193" t="s">
-        <v>715</v>
+        <v>668</v>
       </c>
       <c r="B162" s="214"/>
       <c r="C162" s="46" t="s">
-        <v>717</v>
+        <v>670</v>
       </c>
       <c r="D162" s="41" t="s">
-        <v>718</v>
+        <v>951</v>
       </c>
       <c r="E162" s="41"/>
       <c r="F162" s="41"/>
@@ -10087,20 +10082,20 @@
     </row>
     <row r="163" spans="1:24" ht="91.5" customHeight="1" thickBot="1">
       <c r="A163" s="193" t="s">
-        <v>716</v>
+        <v>669</v>
       </c>
       <c r="B163" s="214"/>
       <c r="C163" s="46" t="s">
-        <v>704</v>
+        <v>657</v>
       </c>
       <c r="D163" s="41" t="s">
-        <v>719</v>
+        <v>952</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
       <c r="H163" s="14"/>
     </row>
-    <row r="164" spans="1:24" ht="46.95" customHeight="1" thickBot="1">
+    <row r="164" spans="1:24" ht="47" customHeight="1" thickBot="1">
       <c r="A164" s="192" t="s">
         <v>93</v>
       </c>
@@ -10109,13 +10104,13 @@
         <v>94</v>
       </c>
       <c r="D164" s="41" t="s">
-        <v>600</v>
+        <v>953</v>
       </c>
       <c r="F164" s="14"/>
       <c r="G164" s="14"/>
       <c r="H164" s="14"/>
     </row>
-    <row r="165" spans="1:24" ht="49.95" customHeight="1" thickBot="1">
+    <row r="165" spans="1:24" ht="50" customHeight="1" thickBot="1">
       <c r="A165" s="194" t="s">
         <v>107</v>
       </c>
@@ -10124,7 +10119,7 @@
         <v>108</v>
       </c>
       <c r="D165" s="173" t="s">
-        <v>601</v>
+        <v>954</v>
       </c>
       <c r="F165" s="14"/>
       <c r="G165" s="14"/>
@@ -10139,7 +10134,7 @@
         <v>96</v>
       </c>
       <c r="D166" s="41" t="s">
-        <v>602</v>
+        <v>955</v>
       </c>
       <c r="F166" s="14"/>
       <c r="G166" s="14"/>
@@ -10154,7 +10149,7 @@
         <v>98</v>
       </c>
       <c r="D167" s="41" t="s">
-        <v>603</v>
+        <v>956</v>
       </c>
       <c r="F167" s="14"/>
       <c r="G167" s="14"/>
@@ -10169,7 +10164,7 @@
         <v>100</v>
       </c>
       <c r="D168" s="173" t="s">
-        <v>738</v>
+        <v>957</v>
       </c>
       <c r="F168" s="14"/>
       <c r="G168" s="14"/>
@@ -10184,7 +10179,7 @@
         <v>102</v>
       </c>
       <c r="D169" s="41" t="s">
-        <v>604</v>
+        <v>958</v>
       </c>
       <c r="F169" s="14"/>
       <c r="G169" s="14"/>
@@ -10199,13 +10194,13 @@
         <v>104</v>
       </c>
       <c r="D170" s="183" t="s">
-        <v>605</v>
+        <v>959</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
       <c r="H170" s="14"/>
     </row>
-    <row r="171" spans="1:24" ht="43.95" customHeight="1" thickBot="1">
+    <row r="171" spans="1:24" ht="44" customHeight="1" thickBot="1">
       <c r="A171" s="192" t="s">
         <v>105</v>
       </c>
@@ -10214,7 +10209,7 @@
         <v>106</v>
       </c>
       <c r="D171" s="183" t="s">
-        <v>606</v>
+        <v>960</v>
       </c>
       <c r="F171" s="14"/>
       <c r="G171" s="14"/>
@@ -10229,17 +10224,17 @@
         <v>110</v>
       </c>
       <c r="D172" s="185" t="s">
-        <v>607</v>
+        <v>961</v>
       </c>
       <c r="F172" s="14"/>
       <c r="G172" s="14"/>
       <c r="H172" s="14"/>
     </row>
     <row r="173" spans="1:24" s="58" customFormat="1" ht="36" customHeight="1">
-      <c r="A173" s="240" t="s">
+      <c r="A173" s="229" t="s">
         <v>480</v>
       </c>
-      <c r="B173" s="241"/>
+      <c r="B173" s="230"/>
       <c r="C173" s="104"/>
       <c r="D173" s="41"/>
       <c r="E173" s="41"/>
@@ -10265,7 +10260,7 @@
     </row>
     <row r="174" spans="1:24" s="57" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="A174" s="188" t="s">
-        <v>714</v>
+        <v>667</v>
       </c>
       <c r="B174" s="189"/>
       <c r="C174" s="195"/>
@@ -10282,7 +10277,7 @@
       <c r="B175" s="107"/>
       <c r="C175" s="43"/>
       <c r="D175" s="41" t="s">
-        <v>608</v>
+        <v>962</v>
       </c>
       <c r="F175" s="14"/>
       <c r="G175" s="14"/>
@@ -10295,7 +10290,7 @@
       <c r="B176" s="107"/>
       <c r="C176" s="43"/>
       <c r="D176" s="41" t="s">
-        <v>609</v>
+        <v>963</v>
       </c>
       <c r="F176" s="14"/>
       <c r="G176" s="14"/>
@@ -10308,7 +10303,7 @@
       <c r="B177" s="107"/>
       <c r="C177" s="43"/>
       <c r="D177" s="41" t="s">
-        <v>610</v>
+        <v>964</v>
       </c>
       <c r="F177" s="14"/>
       <c r="G177" s="14"/>
@@ -10321,7 +10316,7 @@
       <c r="B178" s="107"/>
       <c r="C178" s="43"/>
       <c r="D178" s="41" t="s">
-        <v>611</v>
+        <v>965</v>
       </c>
       <c r="F178" s="14"/>
       <c r="G178" s="14"/>
@@ -10334,7 +10329,7 @@
       <c r="B179" s="107"/>
       <c r="C179" s="43"/>
       <c r="D179" s="33" t="s">
-        <v>612</v>
+        <v>966</v>
       </c>
       <c r="F179" s="14"/>
       <c r="G179" s="14"/>
@@ -10347,7 +10342,7 @@
       <c r="B180" s="107"/>
       <c r="C180" s="43"/>
       <c r="D180" s="33" t="s">
-        <v>739</v>
+        <v>967</v>
       </c>
       <c r="F180" s="14"/>
       <c r="G180" s="14"/>
@@ -10360,7 +10355,7 @@
       <c r="B181" s="107"/>
       <c r="C181" s="43"/>
       <c r="D181" s="41" t="s">
-        <v>613</v>
+        <v>968</v>
       </c>
       <c r="F181" s="14"/>
       <c r="G181" s="14"/>
@@ -10373,7 +10368,7 @@
       <c r="B182" s="107"/>
       <c r="C182" s="43"/>
       <c r="D182" s="174" t="s">
-        <v>614</v>
+        <v>969</v>
       </c>
       <c r="F182" s="14"/>
       <c r="G182" s="14"/>
@@ -10389,17 +10384,17 @@
         <v>0</v>
       </c>
       <c r="D183" s="41" t="s">
-        <v>615</v>
+        <v>970</v>
       </c>
       <c r="F183" s="14"/>
       <c r="G183" s="14"/>
       <c r="H183" s="14"/>
     </row>
     <row r="184" spans="1:24" s="58" customFormat="1" ht="36" customHeight="1">
-      <c r="A184" s="240" t="s">
+      <c r="A184" s="229" t="s">
         <v>490</v>
       </c>
-      <c r="B184" s="241"/>
+      <c r="B184" s="230"/>
       <c r="C184" s="104"/>
       <c r="D184" s="41"/>
       <c r="E184" s="41"/>
@@ -10441,10 +10436,10 @@
       </c>
       <c r="B186" s="109"/>
       <c r="C186" s="46" t="s">
-        <v>690</v>
+        <v>643</v>
       </c>
       <c r="D186" s="41" t="s">
-        <v>616</v>
+        <v>971</v>
       </c>
       <c r="F186" s="14"/>
       <c r="G186" s="14"/>
@@ -10456,20 +10451,20 @@
       </c>
       <c r="B187" s="110"/>
       <c r="C187" s="46" t="s">
-        <v>697</v>
+        <v>650</v>
       </c>
       <c r="D187" s="41" t="s">
-        <v>617</v>
+        <v>972</v>
       </c>
       <c r="F187" s="14"/>
       <c r="G187" s="14"/>
       <c r="H187" s="14"/>
     </row>
     <row r="188" spans="1:24" s="58" customFormat="1" ht="36" customHeight="1">
-      <c r="A188" s="240" t="s">
+      <c r="A188" s="229" t="s">
         <v>491</v>
       </c>
-      <c r="B188" s="241"/>
+      <c r="B188" s="230"/>
       <c r="C188" s="104"/>
       <c r="D188" s="41"/>
       <c r="E188" s="41"/>
@@ -10495,7 +10490,7 @@
     </row>
     <row r="189" spans="1:24" s="57" customFormat="1" ht="24" customHeight="1">
       <c r="A189" s="188" t="s">
-        <v>707</v>
+        <v>660</v>
       </c>
       <c r="B189" s="189"/>
       <c r="C189" s="195" t="s">
@@ -10520,11 +10515,11 @@
         <v>492</v>
       </c>
       <c r="B191" s="53"/>
-      <c r="C191" s="261" t="s">
-        <v>677</v>
+      <c r="C191" s="225" t="s">
+        <v>630</v>
       </c>
       <c r="D191" s="41" t="s">
-        <v>618</v>
+        <v>973</v>
       </c>
       <c r="F191" s="33"/>
       <c r="G191" s="14"/>
@@ -10536,10 +10531,10 @@
       </c>
       <c r="B192" s="53"/>
       <c r="C192" s="41" t="s">
-        <v>678</v>
+        <v>631</v>
       </c>
       <c r="D192" s="41" t="s">
-        <v>619</v>
+        <v>974</v>
       </c>
       <c r="F192" s="33"/>
       <c r="G192" s="14"/>
@@ -10551,16 +10546,16 @@
       </c>
       <c r="B193" s="53"/>
       <c r="C193" s="41" t="s">
-        <v>679</v>
+        <v>632</v>
       </c>
       <c r="D193" s="41" t="s">
-        <v>620</v>
+        <v>975</v>
       </c>
       <c r="F193" s="33"/>
       <c r="G193" s="14"/>
       <c r="H193" s="14"/>
     </row>
-    <row r="194" spans="1:24" ht="10.050000000000001" customHeight="1">
+    <row r="194" spans="1:24" ht="10" customHeight="1">
       <c r="A194" s="23"/>
       <c r="B194" s="51"/>
       <c r="C194" s="42"/>
@@ -10569,10 +10564,10 @@
       <c r="H194" s="14"/>
     </row>
     <row r="195" spans="1:24" s="58" customFormat="1" ht="36" customHeight="1">
-      <c r="A195" s="240" t="s">
+      <c r="A195" s="229" t="s">
         <v>115</v>
       </c>
-      <c r="B195" s="241"/>
+      <c r="B195" s="230"/>
       <c r="C195" s="104"/>
       <c r="D195" s="41"/>
       <c r="E195" s="41"/>
@@ -10631,7 +10626,7 @@
         <v>114</v>
       </c>
       <c r="D197" s="41" t="s">
-        <v>621</v>
+        <v>976</v>
       </c>
       <c r="F197" s="14"/>
       <c r="G197" s="14"/>
@@ -10642,11 +10637,11 @@
         <v>495</v>
       </c>
       <c r="B198" s="50"/>
-      <c r="C198" s="262" t="s">
+      <c r="C198" s="226" t="s">
         <v>114</v>
       </c>
       <c r="D198" s="33" t="s">
-        <v>622</v>
+        <v>977</v>
       </c>
       <c r="F198" s="14"/>
       <c r="G198" s="14"/>
@@ -10657,11 +10652,11 @@
         <v>496</v>
       </c>
       <c r="B199" s="50"/>
-      <c r="C199" s="262" t="s">
+      <c r="C199" s="226" t="s">
         <v>116</v>
       </c>
       <c r="D199" s="33" t="s">
-        <v>740</v>
+        <v>978</v>
       </c>
       <c r="F199" s="14"/>
       <c r="G199" s="14"/>
@@ -10672,11 +10667,11 @@
         <v>117</v>
       </c>
       <c r="B200" s="50"/>
-      <c r="C200" s="261" t="s">
+      <c r="C200" s="225" t="s">
         <v>118</v>
       </c>
       <c r="D200" s="41" t="s">
-        <v>623</v>
+        <v>979</v>
       </c>
       <c r="F200" s="14"/>
       <c r="G200" s="14"/>
@@ -10687,11 +10682,11 @@
         <v>119</v>
       </c>
       <c r="B201" s="50"/>
-      <c r="C201" s="261" t="s">
+      <c r="C201" s="225" t="s">
         <v>516</v>
       </c>
       <c r="D201" s="41" t="s">
-        <v>624</v>
+        <v>980</v>
       </c>
       <c r="F201" s="14"/>
       <c r="G201" s="14"/>
@@ -10710,10 +10705,10 @@
       <c r="H202" s="41"/>
     </row>
     <row r="203" spans="1:24" s="58" customFormat="1" ht="36" customHeight="1">
-      <c r="A203" s="240" t="s">
+      <c r="A203" s="229" t="s">
         <v>501</v>
       </c>
-      <c r="B203" s="241"/>
+      <c r="B203" s="230"/>
       <c r="C203" s="104"/>
       <c r="D203" s="41"/>
       <c r="E203" s="41"/>
@@ -10768,11 +10763,11 @@
         <v>498</v>
       </c>
       <c r="B205" s="117"/>
-      <c r="C205" s="262" t="s">
+      <c r="C205" s="226" t="s">
         <v>500</v>
       </c>
       <c r="D205" s="41" t="s">
-        <v>625</v>
+        <v>981</v>
       </c>
       <c r="F205" s="14"/>
       <c r="G205" s="14"/>
@@ -10787,7 +10782,7 @@
         <v>452</v>
       </c>
       <c r="D206" s="41" t="s">
-        <v>626</v>
+        <v>982</v>
       </c>
       <c r="F206" s="14"/>
       <c r="G206" s="14"/>
@@ -10813,11 +10808,11 @@
       <c r="E208" s="181"/>
       <c r="F208" s="10"/>
     </row>
-    <row r="209" spans="1:24" s="58" customFormat="1" ht="40.049999999999997" customHeight="1">
-      <c r="A209" s="231" t="s">
+    <row r="209" spans="1:24" s="58" customFormat="1" ht="40" customHeight="1">
+      <c r="A209" s="233" t="s">
         <v>502</v>
       </c>
-      <c r="B209" s="232"/>
+      <c r="B209" s="234"/>
       <c r="C209" s="56"/>
       <c r="D209" s="41"/>
       <c r="E209" s="41"/>
@@ -10848,7 +10843,7 @@
       <c r="B210" s="86"/>
       <c r="C210" s="87"/>
       <c r="D210" s="41" t="s">
-        <v>627</v>
+        <v>597</v>
       </c>
       <c r="E210" s="183"/>
       <c r="F210" s="66"/>
@@ -10900,11 +10895,11 @@
       <c r="X211" s="66"/>
     </row>
     <row r="212" spans="1:24" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A212" s="233" t="s">
-        <v>703</v>
-      </c>
-      <c r="B212" s="227"/>
-      <c r="C212" s="227"/>
+      <c r="A212" s="237" t="s">
+        <v>656</v>
+      </c>
+      <c r="B212" s="232"/>
+      <c r="C212" s="232"/>
       <c r="D212" s="41"/>
       <c r="E212" s="183"/>
       <c r="F212" s="66"/>
@@ -10928,10 +10923,10 @@
       <c r="X212" s="66"/>
     </row>
     <row r="213" spans="1:24" s="58" customFormat="1" ht="36" customHeight="1">
-      <c r="A213" s="240" t="s">
+      <c r="A213" s="229" t="s">
         <v>503</v>
       </c>
-      <c r="B213" s="241"/>
+      <c r="B213" s="230"/>
       <c r="C213" s="104"/>
       <c r="D213" s="41"/>
       <c r="E213" s="41"/>
@@ -10957,7 +10952,7 @@
     </row>
     <row r="214" spans="1:24" s="57" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="A214" s="188" t="s">
-        <v>708</v>
+        <v>661</v>
       </c>
       <c r="B214" s="189"/>
       <c r="C214" s="195" t="s">
@@ -10978,7 +10973,7 @@
         <v>505</v>
       </c>
       <c r="D215" s="41" t="s">
-        <v>628</v>
+        <v>983</v>
       </c>
       <c r="F215" s="14"/>
       <c r="G215" s="14"/>
@@ -10989,11 +10984,11 @@
         <v>121</v>
       </c>
       <c r="B216" s="78"/>
-      <c r="C216" s="263" t="s">
+      <c r="C216" s="227" t="s">
         <v>506</v>
       </c>
       <c r="D216" s="41" t="s">
-        <v>629</v>
+        <v>984</v>
       </c>
       <c r="F216" s="41" t="s">
         <v>452</v>
@@ -11010,17 +11005,17 @@
         <v>507</v>
       </c>
       <c r="D217" s="41" t="s">
-        <v>630</v>
+        <v>985</v>
       </c>
       <c r="F217" s="14"/>
       <c r="G217" s="14"/>
       <c r="H217" s="14"/>
     </row>
     <row r="218" spans="1:24" s="58" customFormat="1" ht="36" customHeight="1">
-      <c r="A218" s="240" t="s">
+      <c r="A218" s="229" t="s">
         <v>503</v>
       </c>
-      <c r="B218" s="241"/>
+      <c r="B218" s="230"/>
       <c r="C218" s="104"/>
       <c r="D218" s="41"/>
       <c r="E218" s="41"/>
@@ -11046,7 +11041,7 @@
     </row>
     <row r="219" spans="1:24" s="57" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="A219" s="188" t="s">
-        <v>709</v>
+        <v>662</v>
       </c>
       <c r="B219" s="189"/>
       <c r="C219" s="195" t="s">
@@ -11067,7 +11062,7 @@
         <v>504</v>
       </c>
       <c r="D220" s="41" t="s">
-        <v>631</v>
+        <v>986</v>
       </c>
       <c r="E220" s="41"/>
       <c r="F220" s="114"/>
@@ -11083,7 +11078,7 @@
         <v>506</v>
       </c>
       <c r="D221" s="33" t="s">
-        <v>632</v>
+        <v>987</v>
       </c>
       <c r="F221" s="14"/>
       <c r="G221" s="14"/>
@@ -11098,17 +11093,17 @@
         <v>508</v>
       </c>
       <c r="D222" s="41" t="s">
-        <v>633</v>
+        <v>988</v>
       </c>
       <c r="F222" s="14"/>
       <c r="G222" s="14"/>
       <c r="H222" s="14"/>
     </row>
     <row r="223" spans="1:24" s="58" customFormat="1" ht="36" customHeight="1">
-      <c r="A223" s="240" t="s">
+      <c r="A223" s="229" t="s">
         <v>503</v>
       </c>
-      <c r="B223" s="241"/>
+      <c r="B223" s="230"/>
       <c r="C223" s="104"/>
       <c r="D223" s="41"/>
       <c r="E223" s="41"/>
@@ -11132,9 +11127,9 @@
       <c r="W223" s="18"/>
       <c r="X223" s="18"/>
     </row>
-    <row r="224" spans="1:24" ht="34.049999999999997" customHeight="1" thickBot="1">
+    <row r="224" spans="1:24" ht="34" customHeight="1" thickBot="1">
       <c r="A224" s="188" t="s">
-        <v>710</v>
+        <v>663</v>
       </c>
       <c r="B224" s="206"/>
       <c r="C224" s="207"/>
@@ -11151,7 +11146,7 @@
         <v>123</v>
       </c>
       <c r="D225" s="41" t="s">
-        <v>741</v>
+        <v>989</v>
       </c>
       <c r="F225" s="175"/>
       <c r="G225" s="14"/>
@@ -11163,10 +11158,10 @@
       </c>
       <c r="B226" s="78"/>
       <c r="C226" s="46" t="s">
-        <v>689</v>
+        <v>642</v>
       </c>
       <c r="D226" s="41" t="s">
-        <v>634</v>
+        <v>990</v>
       </c>
       <c r="F226" s="14"/>
       <c r="G226" s="14"/>
@@ -11178,20 +11173,20 @@
       </c>
       <c r="B227" s="78"/>
       <c r="C227" s="46" t="s">
-        <v>693</v>
+        <v>646</v>
       </c>
       <c r="D227" s="41" t="s">
-        <v>635</v>
+        <v>991</v>
       </c>
       <c r="F227" s="14"/>
       <c r="G227" s="14"/>
       <c r="H227" s="14"/>
     </row>
     <row r="228" spans="1:24" s="58" customFormat="1" ht="36" customHeight="1">
-      <c r="A228" s="240" t="s">
+      <c r="A228" s="229" t="s">
         <v>503</v>
       </c>
-      <c r="B228" s="241"/>
+      <c r="B228" s="230"/>
       <c r="C228" s="104"/>
       <c r="D228" s="41"/>
       <c r="E228" s="41"/>
@@ -11215,9 +11210,9 @@
       <c r="W228" s="18"/>
       <c r="X228" s="18"/>
     </row>
-    <row r="229" spans="1:24" ht="34.049999999999997" customHeight="1" thickBot="1">
+    <row r="229" spans="1:24" ht="34" customHeight="1" thickBot="1">
       <c r="A229" s="188" t="s">
-        <v>711</v>
+        <v>664</v>
       </c>
       <c r="B229" s="206"/>
       <c r="C229" s="207"/>
@@ -11231,10 +11226,10 @@
       </c>
       <c r="B230" s="78"/>
       <c r="C230" s="48" t="s">
-        <v>691</v>
+        <v>644</v>
       </c>
       <c r="D230" s="41" t="s">
-        <v>636</v>
+        <v>992</v>
       </c>
       <c r="F230" s="14"/>
       <c r="G230" s="14"/>
@@ -11246,10 +11241,10 @@
       </c>
       <c r="B231" s="78"/>
       <c r="C231" s="48" t="s">
-        <v>692</v>
+        <v>645</v>
       </c>
       <c r="D231" s="41" t="s">
-        <v>637</v>
+        <v>993</v>
       </c>
       <c r="F231" s="14"/>
       <c r="G231" s="14"/>
@@ -11261,10 +11256,10 @@
       </c>
       <c r="B232" s="78"/>
       <c r="C232" s="48" t="s">
-        <v>693</v>
+        <v>646</v>
       </c>
       <c r="D232" s="41" t="s">
-        <v>638</v>
+        <v>994</v>
       </c>
       <c r="F232" s="14"/>
       <c r="G232" s="14"/>
@@ -11277,7 +11272,7 @@
       <c r="B233" s="115"/>
       <c r="C233" s="104"/>
       <c r="D233" s="41" t="s">
-        <v>639</v>
+        <v>598</v>
       </c>
       <c r="E233" s="41"/>
       <c r="F233" s="18"/>
@@ -11300,9 +11295,9 @@
       <c r="W233" s="18"/>
       <c r="X233" s="18"/>
     </row>
-    <row r="234" spans="1:24" s="58" customFormat="1" ht="34.049999999999997" customHeight="1" thickBot="1">
+    <row r="234" spans="1:24" s="58" customFormat="1" ht="34" customHeight="1" thickBot="1">
       <c r="A234" s="188" t="s">
-        <v>713</v>
+        <v>666</v>
       </c>
       <c r="B234" s="206"/>
       <c r="C234" s="207"/>
@@ -11318,10 +11313,10 @@
       </c>
       <c r="B235" s="78"/>
       <c r="C235" s="46" t="s">
-        <v>1002</v>
+        <v>947</v>
       </c>
       <c r="D235" s="41" t="s">
-        <v>640</v>
+        <v>995</v>
       </c>
       <c r="F235" s="14"/>
       <c r="G235" s="14"/>
@@ -11333,10 +11328,10 @@
       </c>
       <c r="B236" s="78"/>
       <c r="C236" s="46" t="s">
-        <v>694</v>
+        <v>647</v>
       </c>
       <c r="D236" s="41" t="s">
-        <v>742</v>
+        <v>996</v>
       </c>
       <c r="F236" s="14"/>
       <c r="G236" s="14"/>
@@ -11348,10 +11343,10 @@
       </c>
       <c r="B237" s="78"/>
       <c r="C237" s="46" t="s">
-        <v>695</v>
+        <v>648</v>
       </c>
       <c r="D237" s="41" t="s">
-        <v>743</v>
+        <v>997</v>
       </c>
       <c r="F237" s="14"/>
       <c r="G237" s="14"/>
@@ -11364,7 +11359,7 @@
       <c r="B238" s="115"/>
       <c r="C238" s="104"/>
       <c r="D238" s="41" t="s">
-        <v>641</v>
+        <v>599</v>
       </c>
       <c r="E238" s="41"/>
       <c r="F238" s="18"/>
@@ -11418,11 +11413,11 @@
         <v>128</v>
       </c>
       <c r="B240" s="78"/>
-      <c r="C240" s="264" t="s">
-        <v>696</v>
+      <c r="C240" s="228" t="s">
+        <v>649</v>
       </c>
       <c r="D240" s="41" t="s">
-        <v>642</v>
+        <v>998</v>
       </c>
       <c r="F240" s="14"/>
       <c r="G240" s="14"/>
@@ -11484,29 +11479,29 @@
     </row>
     <row r="243" spans="1:24" ht="36" customHeight="1" thickBot="1">
       <c r="A243" s="211" t="s">
-        <v>712</v>
+        <v>665</v>
       </c>
       <c r="B243" s="78"/>
       <c r="C243" s="46" t="s">
-        <v>701</v>
+        <v>654</v>
       </c>
       <c r="D243" s="41" t="s">
-        <v>643</v>
+        <v>999</v>
       </c>
       <c r="F243" s="14"/>
       <c r="G243" s="14"/>
       <c r="H243" s="14"/>
     </row>
-    <row r="244" spans="1:24" ht="31.95" customHeight="1" thickBot="1">
+    <row r="244" spans="1:24" ht="32" customHeight="1" thickBot="1">
       <c r="A244" s="212" t="s">
         <v>130</v>
       </c>
       <c r="B244" s="78"/>
       <c r="C244" s="46" t="s">
-        <v>700</v>
+        <v>653</v>
       </c>
       <c r="D244" s="41" t="s">
-        <v>644</v>
+        <v>1000</v>
       </c>
       <c r="F244" s="14"/>
       <c r="G244" s="14"/>
@@ -11572,10 +11567,10 @@
       </c>
       <c r="B247" s="78"/>
       <c r="C247" s="46" t="s">
-        <v>702</v>
+        <v>655</v>
       </c>
       <c r="D247" s="41" t="s">
-        <v>645</v>
+        <v>1001</v>
       </c>
       <c r="F247" s="14"/>
       <c r="G247" s="14"/>
@@ -11590,7 +11585,7 @@
         <v>511</v>
       </c>
       <c r="D248" s="183" t="s">
-        <v>646</v>
+        <v>1002</v>
       </c>
       <c r="F248" s="14"/>
       <c r="G248" s="14"/>
@@ -11604,7 +11599,7 @@
       <c r="E249" s="181"/>
       <c r="F249" s="10"/>
     </row>
-    <row r="250" spans="1:24" ht="19.95" hidden="1" customHeight="1">
+    <row r="250" spans="1:24" ht="20" hidden="1" customHeight="1">
       <c r="A250" s="7" t="s">
         <v>133</v>
       </c>
@@ -11616,7 +11611,7 @@
         <v>134</v>
       </c>
       <c r="D250" s="179" t="s">
-        <v>744</v>
+        <v>689</v>
       </c>
       <c r="E250" s="41" t="s">
         <v>135</v>
@@ -11625,7 +11620,7 @@
       <c r="G250" s="14"/>
       <c r="H250" s="14"/>
     </row>
-    <row r="251" spans="1:24" ht="19.95" hidden="1" customHeight="1">
+    <row r="251" spans="1:24" ht="20" hidden="1" customHeight="1">
       <c r="A251" s="7" t="s">
         <v>136</v>
       </c>
@@ -11634,16 +11629,16 @@
         <v>0</v>
       </c>
       <c r="C251" s="41" t="s">
-        <v>649</v>
+        <v>602</v>
       </c>
       <c r="D251" s="174" t="s">
-        <v>745</v>
+        <v>690</v>
       </c>
       <c r="F251" s="14"/>
       <c r="G251" s="14"/>
       <c r="H251" s="14"/>
     </row>
-    <row r="252" spans="1:24" ht="19.95" hidden="1" customHeight="1">
+    <row r="252" spans="1:24" ht="20" hidden="1" customHeight="1">
       <c r="A252" s="7" t="s">
         <v>137</v>
       </c>
@@ -11655,13 +11650,13 @@
         <v>138</v>
       </c>
       <c r="D252" s="178" t="s">
-        <v>746</v>
+        <v>691</v>
       </c>
       <c r="F252" s="14"/>
       <c r="G252" s="14"/>
       <c r="H252" s="14"/>
     </row>
-    <row r="253" spans="1:24" ht="19.95" hidden="1" customHeight="1">
+    <row r="253" spans="1:24" ht="20" hidden="1" customHeight="1">
       <c r="A253" s="26" t="s">
         <v>139</v>
       </c>
@@ -11673,13 +11668,13 @@
         <v>140</v>
       </c>
       <c r="D253" s="174" t="s">
-        <v>747</v>
+        <v>692</v>
       </c>
       <c r="F253" s="14"/>
       <c r="G253" s="14"/>
       <c r="H253" s="14"/>
     </row>
-    <row r="254" spans="1:24" ht="19.95" hidden="1" customHeight="1">
+    <row r="254" spans="1:24" ht="20" hidden="1" customHeight="1">
       <c r="A254" s="7" t="s">
         <v>141</v>
       </c>
@@ -11688,16 +11683,16 @@
         <v>0</v>
       </c>
       <c r="C254" s="41" t="s">
-        <v>650</v>
+        <v>603</v>
       </c>
       <c r="D254" s="174" t="s">
-        <v>748</v>
+        <v>693</v>
       </c>
       <c r="F254" s="14"/>
       <c r="G254" s="14"/>
       <c r="H254" s="14"/>
     </row>
-    <row r="255" spans="1:24" ht="19.95" hidden="1" customHeight="1">
+    <row r="255" spans="1:24" ht="20" hidden="1" customHeight="1">
       <c r="A255" s="7" t="s">
         <v>142</v>
       </c>
@@ -11709,13 +11704,13 @@
         <v>143</v>
       </c>
       <c r="D255" s="174" t="s">
-        <v>749</v>
+        <v>694</v>
       </c>
       <c r="F255" s="14"/>
       <c r="G255" s="14"/>
       <c r="H255" s="14"/>
     </row>
-    <row r="256" spans="1:24" ht="19.95" hidden="1" customHeight="1">
+    <row r="256" spans="1:24" ht="20" hidden="1" customHeight="1">
       <c r="A256" s="26" t="s">
         <v>144</v>
       </c>
@@ -11727,13 +11722,13 @@
         <v>145</v>
       </c>
       <c r="D256" s="174" t="s">
-        <v>750</v>
+        <v>695</v>
       </c>
       <c r="F256" s="14"/>
       <c r="G256" s="14"/>
       <c r="H256" s="14"/>
     </row>
-    <row r="257" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="257" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A257" s="7" t="s">
         <v>146</v>
       </c>
@@ -11745,13 +11740,13 @@
         <v>147</v>
       </c>
       <c r="D257" s="178" t="s">
-        <v>751</v>
+        <v>696</v>
       </c>
       <c r="F257" s="14"/>
       <c r="G257" s="14"/>
       <c r="H257" s="14"/>
     </row>
-    <row r="258" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="258" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A258" s="7" t="s">
         <v>148</v>
       </c>
@@ -11763,7 +11758,7 @@
         <v>149</v>
       </c>
       <c r="D258" s="174" t="s">
-        <v>752</v>
+        <v>697</v>
       </c>
       <c r="F258" s="14"/>
       <c r="G258" s="14"/>
@@ -11781,13 +11776,13 @@
         <v>151</v>
       </c>
       <c r="D259" s="174" t="s">
-        <v>753</v>
+        <v>698</v>
       </c>
       <c r="F259" s="14"/>
       <c r="G259" s="14"/>
       <c r="H259" s="14"/>
     </row>
-    <row r="260" spans="1:8" ht="28.05" hidden="1" customHeight="1">
+    <row r="260" spans="1:8" ht="28" hidden="1" customHeight="1">
       <c r="A260" s="7" t="s">
         <v>152</v>
       </c>
@@ -11799,7 +11794,7 @@
         <v>153</v>
       </c>
       <c r="D260" s="174" t="s">
-        <v>754</v>
+        <v>699</v>
       </c>
       <c r="F260" s="14"/>
       <c r="G260" s="14"/>
@@ -11817,13 +11812,13 @@
         <v>155</v>
       </c>
       <c r="D261" s="174" t="s">
-        <v>755</v>
+        <v>700</v>
       </c>
       <c r="F261" s="14"/>
       <c r="G261" s="14"/>
       <c r="H261" s="14"/>
     </row>
-    <row r="262" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="262" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A262" s="7" t="s">
         <v>156</v>
       </c>
@@ -11835,7 +11830,7 @@
         <v>157</v>
       </c>
       <c r="D262" s="174" t="s">
-        <v>756</v>
+        <v>701</v>
       </c>
       <c r="F262" s="14"/>
       <c r="G262" s="14"/>
@@ -11853,7 +11848,7 @@
         <v>159</v>
       </c>
       <c r="D263" s="174" t="s">
-        <v>757</v>
+        <v>702</v>
       </c>
       <c r="F263" s="14"/>
       <c r="G263" s="14"/>
@@ -11871,13 +11866,13 @@
         <v>161</v>
       </c>
       <c r="D264" s="174" t="s">
-        <v>758</v>
+        <v>703</v>
       </c>
       <c r="F264" s="14"/>
       <c r="G264" s="14"/>
       <c r="H264" s="14"/>
     </row>
-    <row r="265" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="265" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A265" s="7" t="s">
         <v>162</v>
       </c>
@@ -11889,13 +11884,13 @@
         <v>163</v>
       </c>
       <c r="D265" s="174" t="s">
-        <v>759</v>
+        <v>704</v>
       </c>
       <c r="F265" s="14"/>
       <c r="G265" s="14"/>
       <c r="H265" s="14"/>
     </row>
-    <row r="266" spans="1:8" ht="40.049999999999997" hidden="1" customHeight="1">
+    <row r="266" spans="1:8" ht="40" hidden="1" customHeight="1">
       <c r="A266" s="7" t="s">
         <v>164</v>
       </c>
@@ -11907,13 +11902,13 @@
         <v>165</v>
       </c>
       <c r="D266" s="174" t="s">
-        <v>760</v>
+        <v>705</v>
       </c>
       <c r="F266" s="14"/>
       <c r="G266" s="14"/>
       <c r="H266" s="14"/>
     </row>
-    <row r="267" spans="1:8" ht="25.05" hidden="1" customHeight="1">
+    <row r="267" spans="1:8" ht="25" hidden="1" customHeight="1">
       <c r="A267" s="7" t="s">
         <v>166</v>
       </c>
@@ -11925,7 +11920,7 @@
         <v>167</v>
       </c>
       <c r="D267" s="174" t="s">
-        <v>761</v>
+        <v>706</v>
       </c>
       <c r="F267" s="14"/>
       <c r="G267" s="14"/>
@@ -11943,13 +11938,13 @@
         <v>169</v>
       </c>
       <c r="D268" s="174" t="s">
-        <v>762</v>
+        <v>707</v>
       </c>
       <c r="F268" s="14"/>
       <c r="G268" s="14"/>
       <c r="H268" s="14"/>
     </row>
-    <row r="269" spans="1:8" ht="46.05" hidden="1" customHeight="1">
+    <row r="269" spans="1:8" ht="46" hidden="1" customHeight="1">
       <c r="A269" s="7" t="s">
         <v>170</v>
       </c>
@@ -11961,7 +11956,7 @@
         <v>171</v>
       </c>
       <c r="D269" s="174" t="s">
-        <v>763</v>
+        <v>708</v>
       </c>
       <c r="F269" s="14"/>
       <c r="G269" s="14"/>
@@ -11979,7 +11974,7 @@
         <v>173</v>
       </c>
       <c r="D270" s="174" t="s">
-        <v>764</v>
+        <v>709</v>
       </c>
       <c r="F270" s="14"/>
       <c r="G270" s="14"/>
@@ -11997,7 +11992,7 @@
         <v>175</v>
       </c>
       <c r="D271" s="174" t="s">
-        <v>765</v>
+        <v>710</v>
       </c>
       <c r="F271" s="14"/>
       <c r="G271" s="14"/>
@@ -12015,13 +12010,13 @@
         <v>161</v>
       </c>
       <c r="D272" s="174" t="s">
-        <v>766</v>
+        <v>711</v>
       </c>
       <c r="F272" s="14"/>
       <c r="G272" s="14"/>
       <c r="H272" s="14"/>
     </row>
-    <row r="273" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="273" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A273" s="7" t="s">
         <v>177</v>
       </c>
@@ -12033,13 +12028,13 @@
         <v>178</v>
       </c>
       <c r="D273" s="174" t="s">
-        <v>767</v>
+        <v>712</v>
       </c>
       <c r="F273" s="14"/>
       <c r="G273" s="14"/>
       <c r="H273" s="14"/>
     </row>
-    <row r="274" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="274" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A274" s="7" t="s">
         <v>179</v>
       </c>
@@ -12048,16 +12043,16 @@
         <v>0</v>
       </c>
       <c r="C274" s="41" t="s">
-        <v>651</v>
+        <v>604</v>
       </c>
       <c r="D274" s="174" t="s">
-        <v>768</v>
+        <v>713</v>
       </c>
       <c r="F274" s="14"/>
       <c r="G274" s="14"/>
       <c r="H274" s="14"/>
     </row>
-    <row r="275" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="275" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A275" s="7" t="s">
         <v>180</v>
       </c>
@@ -12069,13 +12064,13 @@
         <v>181</v>
       </c>
       <c r="D275" s="174" t="s">
-        <v>769</v>
+        <v>714</v>
       </c>
       <c r="F275" s="14"/>
       <c r="G275" s="14"/>
       <c r="H275" s="14"/>
     </row>
-    <row r="276" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="276" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A276" s="26" t="s">
         <v>182</v>
       </c>
@@ -12087,13 +12082,13 @@
         <v>183</v>
       </c>
       <c r="D276" s="174" t="s">
-        <v>770</v>
+        <v>715</v>
       </c>
       <c r="F276" s="14"/>
       <c r="G276" s="14"/>
       <c r="H276" s="14"/>
     </row>
-    <row r="277" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="277" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A277" s="7" t="s">
         <v>184</v>
       </c>
@@ -12102,16 +12097,16 @@
         <v>0</v>
       </c>
       <c r="C277" s="41" t="s">
-        <v>652</v>
+        <v>605</v>
       </c>
       <c r="D277" s="174" t="s">
-        <v>771</v>
+        <v>716</v>
       </c>
       <c r="F277" s="14"/>
       <c r="G277" s="14"/>
       <c r="H277" s="14"/>
     </row>
-    <row r="278" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="278" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A278" s="7" t="s">
         <v>185</v>
       </c>
@@ -12123,13 +12118,13 @@
         <v>186</v>
       </c>
       <c r="D278" s="174" t="s">
-        <v>772</v>
+        <v>717</v>
       </c>
       <c r="F278" s="14"/>
       <c r="G278" s="14"/>
       <c r="H278" s="14"/>
     </row>
-    <row r="279" spans="1:8" ht="25.05" hidden="1" customHeight="1">
+    <row r="279" spans="1:8" ht="25" hidden="1" customHeight="1">
       <c r="A279" s="26" t="s">
         <v>187</v>
       </c>
@@ -12141,13 +12136,13 @@
         <v>188</v>
       </c>
       <c r="D279" s="174" t="s">
-        <v>773</v>
+        <v>718</v>
       </c>
       <c r="F279" s="14"/>
       <c r="G279" s="14"/>
       <c r="H279" s="14"/>
     </row>
-    <row r="280" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="280" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A280" s="7" t="s">
         <v>189</v>
       </c>
@@ -12159,7 +12154,7 @@
         <v>147</v>
       </c>
       <c r="D280" s="174" t="s">
-        <v>774</v>
+        <v>719</v>
       </c>
       <c r="F280" s="14"/>
       <c r="G280" s="14"/>
@@ -12177,7 +12172,7 @@
         <v>149</v>
       </c>
       <c r="D281" s="174" t="s">
-        <v>775</v>
+        <v>720</v>
       </c>
       <c r="F281" s="14"/>
       <c r="G281" s="14"/>
@@ -12195,13 +12190,13 @@
         <v>151</v>
       </c>
       <c r="D282" s="174" t="s">
-        <v>776</v>
+        <v>721</v>
       </c>
       <c r="F282" s="14"/>
       <c r="G282" s="14"/>
       <c r="H282" s="14"/>
     </row>
-    <row r="283" spans="1:8" ht="25.05" hidden="1" customHeight="1">
+    <row r="283" spans="1:8" ht="25" hidden="1" customHeight="1">
       <c r="A283" s="7" t="s">
         <v>192</v>
       </c>
@@ -12213,13 +12208,13 @@
         <v>153</v>
       </c>
       <c r="D283" s="174" t="s">
-        <v>777</v>
+        <v>722</v>
       </c>
       <c r="F283" s="14"/>
       <c r="G283" s="14"/>
       <c r="H283" s="14"/>
     </row>
-    <row r="284" spans="1:8" ht="37.049999999999997" hidden="1" customHeight="1">
+    <row r="284" spans="1:8" ht="37" hidden="1" customHeight="1">
       <c r="A284" s="7" t="s">
         <v>193</v>
       </c>
@@ -12231,7 +12226,7 @@
         <v>155</v>
       </c>
       <c r="D284" s="174" t="s">
-        <v>778</v>
+        <v>723</v>
       </c>
       <c r="F284" s="14"/>
       <c r="G284" s="14"/>
@@ -12249,7 +12244,7 @@
         <v>157</v>
       </c>
       <c r="D285" s="174" t="s">
-        <v>779</v>
+        <v>724</v>
       </c>
       <c r="F285" s="14"/>
       <c r="G285" s="14"/>
@@ -12267,7 +12262,7 @@
         <v>159</v>
       </c>
       <c r="D286" s="174" t="s">
-        <v>780</v>
+        <v>725</v>
       </c>
       <c r="F286" s="14"/>
       <c r="G286" s="14"/>
@@ -12285,7 +12280,7 @@
         <v>161</v>
       </c>
       <c r="D287" s="173" t="s">
-        <v>781</v>
+        <v>726</v>
       </c>
       <c r="F287" s="14"/>
       <c r="G287" s="14"/>
@@ -12303,7 +12298,7 @@
         <v>163</v>
       </c>
       <c r="D288" s="174" t="s">
-        <v>782</v>
+        <v>727</v>
       </c>
       <c r="F288" s="14"/>
       <c r="G288" s="14"/>
@@ -12321,7 +12316,7 @@
         <v>165</v>
       </c>
       <c r="D289" s="174" t="s">
-        <v>783</v>
+        <v>728</v>
       </c>
       <c r="F289" s="14"/>
       <c r="G289" s="14"/>
@@ -12339,13 +12334,13 @@
         <v>167</v>
       </c>
       <c r="D290" s="174" t="s">
-        <v>784</v>
+        <v>729</v>
       </c>
       <c r="F290" s="14"/>
       <c r="G290" s="14"/>
       <c r="H290" s="14"/>
     </row>
-    <row r="291" spans="1:8" ht="25.05" hidden="1" customHeight="1">
+    <row r="291" spans="1:8" ht="25" hidden="1" customHeight="1">
       <c r="A291" s="7" t="s">
         <v>200</v>
       </c>
@@ -12357,13 +12352,13 @@
         <v>201</v>
       </c>
       <c r="D291" s="174" t="s">
-        <v>785</v>
+        <v>730</v>
       </c>
       <c r="F291" s="14"/>
       <c r="G291" s="14"/>
       <c r="H291" s="14"/>
     </row>
-    <row r="292" spans="1:8" ht="37.049999999999997" hidden="1" customHeight="1">
+    <row r="292" spans="1:8" ht="37" hidden="1" customHeight="1">
       <c r="A292" s="7" t="s">
         <v>202</v>
       </c>
@@ -12375,13 +12370,13 @@
         <v>171</v>
       </c>
       <c r="D292" s="174" t="s">
-        <v>786</v>
+        <v>731</v>
       </c>
       <c r="F292" s="14"/>
       <c r="G292" s="14"/>
       <c r="H292" s="14"/>
     </row>
-    <row r="293" spans="1:8" ht="25.05" hidden="1" customHeight="1">
+    <row r="293" spans="1:8" ht="25" hidden="1" customHeight="1">
       <c r="A293" s="7" t="s">
         <v>203</v>
       </c>
@@ -12393,13 +12388,13 @@
         <v>173</v>
       </c>
       <c r="D293" s="174" t="s">
-        <v>787</v>
+        <v>732</v>
       </c>
       <c r="F293" s="14"/>
       <c r="G293" s="14"/>
       <c r="H293" s="14"/>
     </row>
-    <row r="294" spans="1:8" ht="49.05" hidden="1" customHeight="1">
+    <row r="294" spans="1:8" ht="49" hidden="1" customHeight="1">
       <c r="A294" s="7" t="s">
         <v>204</v>
       </c>
@@ -12411,13 +12406,13 @@
         <v>175</v>
       </c>
       <c r="D294" s="174" t="s">
-        <v>788</v>
+        <v>733</v>
       </c>
       <c r="F294" s="14"/>
       <c r="G294" s="14"/>
       <c r="H294" s="14"/>
     </row>
-    <row r="295" spans="1:8" ht="37.049999999999997" hidden="1" customHeight="1">
+    <row r="295" spans="1:8" ht="37" hidden="1" customHeight="1">
       <c r="A295" s="7" t="s">
         <v>205</v>
       </c>
@@ -12429,7 +12424,7 @@
         <v>161</v>
       </c>
       <c r="D295" s="174" t="s">
-        <v>789</v>
+        <v>734</v>
       </c>
       <c r="F295" s="14"/>
       <c r="G295" s="14"/>
@@ -12447,7 +12442,7 @@
         <v>207</v>
       </c>
       <c r="D296" s="174" t="s">
-        <v>790</v>
+        <v>735</v>
       </c>
       <c r="F296" s="14"/>
       <c r="G296" s="14"/>
@@ -12462,10 +12457,10 @@
         <v>0</v>
       </c>
       <c r="C297" s="41" t="s">
-        <v>653</v>
+        <v>606</v>
       </c>
       <c r="D297" s="174" t="s">
-        <v>791</v>
+        <v>736</v>
       </c>
       <c r="F297" s="14"/>
       <c r="G297" s="14"/>
@@ -12483,7 +12478,7 @@
         <v>210</v>
       </c>
       <c r="D298" s="174" t="s">
-        <v>792</v>
+        <v>737</v>
       </c>
       <c r="F298" s="14"/>
       <c r="G298" s="14"/>
@@ -12501,7 +12496,7 @@
         <v>212</v>
       </c>
       <c r="D299" s="174" t="s">
-        <v>793</v>
+        <v>738</v>
       </c>
       <c r="F299" s="14"/>
       <c r="G299" s="14"/>
@@ -12516,10 +12511,10 @@
         <v>0</v>
       </c>
       <c r="C300" s="41" t="s">
-        <v>654</v>
+        <v>607</v>
       </c>
       <c r="D300" s="174" t="s">
-        <v>794</v>
+        <v>739</v>
       </c>
       <c r="F300" s="14"/>
       <c r="G300" s="14"/>
@@ -12537,7 +12532,7 @@
         <v>215</v>
       </c>
       <c r="D301" s="174" t="s">
-        <v>795</v>
+        <v>740</v>
       </c>
       <c r="F301" s="14"/>
       <c r="G301" s="14"/>
@@ -12555,7 +12550,7 @@
         <v>217</v>
       </c>
       <c r="D302" s="174" t="s">
-        <v>796</v>
+        <v>741</v>
       </c>
       <c r="F302" s="14"/>
       <c r="G302" s="14"/>
@@ -12573,7 +12568,7 @@
         <v>147</v>
       </c>
       <c r="D303" s="174" t="s">
-        <v>797</v>
+        <v>742</v>
       </c>
       <c r="F303" s="14"/>
       <c r="G303" s="14"/>
@@ -12591,7 +12586,7 @@
         <v>149</v>
       </c>
       <c r="D304" s="174" t="s">
-        <v>798</v>
+        <v>743</v>
       </c>
       <c r="F304" s="14"/>
       <c r="G304" s="14"/>
@@ -12609,13 +12604,13 @@
         <v>151</v>
       </c>
       <c r="D305" s="174" t="s">
-        <v>799</v>
+        <v>744</v>
       </c>
       <c r="F305" s="14"/>
       <c r="G305" s="14"/>
       <c r="H305" s="14"/>
     </row>
-    <row r="306" spans="1:8" ht="25.05" hidden="1" customHeight="1">
+    <row r="306" spans="1:8" ht="25" hidden="1" customHeight="1">
       <c r="A306" s="7" t="s">
         <v>221</v>
       </c>
@@ -12627,13 +12622,13 @@
         <v>222</v>
       </c>
       <c r="D306" s="174" t="s">
-        <v>800</v>
+        <v>745</v>
       </c>
       <c r="F306" s="14"/>
       <c r="G306" s="14"/>
       <c r="H306" s="14"/>
     </row>
-    <row r="307" spans="1:8" ht="37.049999999999997" hidden="1" customHeight="1">
+    <row r="307" spans="1:8" ht="37" hidden="1" customHeight="1">
       <c r="A307" s="7" t="s">
         <v>223</v>
       </c>
@@ -12645,13 +12640,13 @@
         <v>155</v>
       </c>
       <c r="D307" s="174" t="s">
-        <v>801</v>
+        <v>746</v>
       </c>
       <c r="F307" s="14"/>
       <c r="G307" s="14"/>
       <c r="H307" s="14"/>
     </row>
-    <row r="308" spans="1:8" ht="27" hidden="1">
+    <row r="308" spans="1:8" hidden="1">
       <c r="A308" s="7" t="s">
         <v>224</v>
       </c>
@@ -12663,7 +12658,7 @@
         <v>157</v>
       </c>
       <c r="D308" s="174" t="s">
-        <v>802</v>
+        <v>747</v>
       </c>
       <c r="F308" s="14"/>
       <c r="G308" s="14"/>
@@ -12681,13 +12676,13 @@
         <v>159</v>
       </c>
       <c r="D309" s="174" t="s">
-        <v>803</v>
+        <v>748</v>
       </c>
       <c r="F309" s="14"/>
       <c r="G309" s="14"/>
       <c r="H309" s="14"/>
     </row>
-    <row r="310" spans="1:8" ht="58.95" hidden="1" customHeight="1">
+    <row r="310" spans="1:8" ht="59" hidden="1" customHeight="1">
       <c r="A310" s="7" t="s">
         <v>226</v>
       </c>
@@ -12699,13 +12694,13 @@
         <v>161</v>
       </c>
       <c r="D310" s="174" t="s">
-        <v>804</v>
+        <v>749</v>
       </c>
       <c r="F310" s="14"/>
       <c r="G310" s="14"/>
       <c r="H310" s="14"/>
     </row>
-    <row r="311" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="311" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A311" s="7" t="s">
         <v>227</v>
       </c>
@@ -12717,13 +12712,13 @@
         <v>163</v>
       </c>
       <c r="D311" s="174" t="s">
-        <v>805</v>
+        <v>750</v>
       </c>
       <c r="F311" s="14"/>
       <c r="G311" s="14"/>
       <c r="H311" s="14"/>
     </row>
-    <row r="312" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="312" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A312" s="7" t="s">
         <v>228</v>
       </c>
@@ -12735,13 +12730,13 @@
         <v>165</v>
       </c>
       <c r="D312" s="174" t="s">
-        <v>806</v>
+        <v>751</v>
       </c>
       <c r="F312" s="14"/>
       <c r="G312" s="14"/>
       <c r="H312" s="14"/>
     </row>
-    <row r="313" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="313" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A313" s="7" t="s">
         <v>229</v>
       </c>
@@ -12753,13 +12748,13 @@
         <v>167</v>
       </c>
       <c r="D313" s="174" t="s">
-        <v>807</v>
+        <v>752</v>
       </c>
       <c r="F313" s="14"/>
       <c r="G313" s="14"/>
       <c r="H313" s="14"/>
     </row>
-    <row r="314" spans="1:8" ht="28.05" hidden="1" customHeight="1">
+    <row r="314" spans="1:8" ht="28" hidden="1" customHeight="1">
       <c r="A314" s="7" t="s">
         <v>230</v>
       </c>
@@ -12771,13 +12766,13 @@
         <v>169</v>
       </c>
       <c r="D314" s="174" t="s">
-        <v>808</v>
+        <v>753</v>
       </c>
       <c r="F314" s="14"/>
       <c r="G314" s="14"/>
       <c r="H314" s="14"/>
     </row>
-    <row r="315" spans="1:8" ht="37.049999999999997" hidden="1" customHeight="1">
+    <row r="315" spans="1:8" ht="37" hidden="1" customHeight="1">
       <c r="A315" s="7" t="s">
         <v>231</v>
       </c>
@@ -12789,7 +12784,7 @@
         <v>171</v>
       </c>
       <c r="D315" s="174" t="s">
-        <v>809</v>
+        <v>754</v>
       </c>
       <c r="F315" s="14"/>
       <c r="G315" s="14"/>
@@ -12807,7 +12802,7 @@
         <v>173</v>
       </c>
       <c r="D316" s="174" t="s">
-        <v>810</v>
+        <v>755</v>
       </c>
       <c r="F316" s="14"/>
       <c r="G316" s="14"/>
@@ -12825,7 +12820,7 @@
         <v>175</v>
       </c>
       <c r="D317" s="174" t="s">
-        <v>811</v>
+        <v>756</v>
       </c>
       <c r="F317" s="14"/>
       <c r="G317" s="14"/>
@@ -12843,7 +12838,7 @@
         <v>161</v>
       </c>
       <c r="D318" s="174" t="s">
-        <v>812</v>
+        <v>757</v>
       </c>
       <c r="F318" s="14"/>
       <c r="G318" s="14"/>
@@ -12861,7 +12856,7 @@
         <v>236</v>
       </c>
       <c r="D319" s="174" t="s">
-        <v>813</v>
+        <v>758</v>
       </c>
       <c r="F319" s="14"/>
       <c r="G319" s="14"/>
@@ -12876,10 +12871,10 @@
         <v>0</v>
       </c>
       <c r="C320" s="41" t="s">
-        <v>655</v>
+        <v>608</v>
       </c>
       <c r="D320" s="174" t="s">
-        <v>814</v>
+        <v>759</v>
       </c>
       <c r="F320" s="14"/>
       <c r="G320" s="14"/>
@@ -12897,7 +12892,7 @@
         <v>239</v>
       </c>
       <c r="D321" s="174" t="s">
-        <v>815</v>
+        <v>760</v>
       </c>
       <c r="F321" s="14"/>
       <c r="G321" s="14"/>
@@ -12915,7 +12910,7 @@
         <v>241</v>
       </c>
       <c r="D322" s="174" t="s">
-        <v>816</v>
+        <v>761</v>
       </c>
       <c r="F322" s="14"/>
       <c r="G322" s="14"/>
@@ -12930,10 +12925,10 @@
         <v>0</v>
       </c>
       <c r="C323" s="41" t="s">
-        <v>656</v>
+        <v>609</v>
       </c>
       <c r="D323" s="174" t="s">
-        <v>817</v>
+        <v>762</v>
       </c>
       <c r="F323" s="14"/>
       <c r="G323" s="14"/>
@@ -12951,7 +12946,7 @@
         <v>244</v>
       </c>
       <c r="D324" s="174" t="s">
-        <v>818</v>
+        <v>763</v>
       </c>
       <c r="F324" s="14"/>
       <c r="G324" s="14"/>
@@ -12969,7 +12964,7 @@
         <v>246</v>
       </c>
       <c r="D325" s="174" t="s">
-        <v>819</v>
+        <v>764</v>
       </c>
       <c r="F325" s="14"/>
       <c r="G325" s="14"/>
@@ -12987,7 +12982,7 @@
         <v>147</v>
       </c>
       <c r="D326" s="174" t="s">
-        <v>820</v>
+        <v>765</v>
       </c>
       <c r="F326" s="14"/>
       <c r="G326" s="14"/>
@@ -13005,7 +13000,7 @@
         <v>149</v>
       </c>
       <c r="D327" s="174" t="s">
-        <v>821</v>
+        <v>766</v>
       </c>
       <c r="F327" s="14"/>
       <c r="G327" s="14"/>
@@ -13023,7 +13018,7 @@
         <v>151</v>
       </c>
       <c r="D328" s="174" t="s">
-        <v>822</v>
+        <v>767</v>
       </c>
       <c r="F328" s="14"/>
       <c r="G328" s="14"/>
@@ -13041,13 +13036,13 @@
         <v>153</v>
       </c>
       <c r="D329" s="174" t="s">
-        <v>823</v>
+        <v>768</v>
       </c>
       <c r="F329" s="14"/>
       <c r="G329" s="14"/>
       <c r="H329" s="14"/>
     </row>
-    <row r="330" spans="1:8" ht="40.049999999999997" hidden="1" customHeight="1">
+    <row r="330" spans="1:8" ht="40" hidden="1" customHeight="1">
       <c r="A330" s="7" t="s">
         <v>251</v>
       </c>
@@ -13059,7 +13054,7 @@
         <v>155</v>
       </c>
       <c r="D330" s="174" t="s">
-        <v>824</v>
+        <v>769</v>
       </c>
       <c r="F330" s="14"/>
       <c r="G330" s="14"/>
@@ -13077,7 +13072,7 @@
         <v>157</v>
       </c>
       <c r="D331" s="174" t="s">
-        <v>825</v>
+        <v>770</v>
       </c>
       <c r="F331" s="14"/>
       <c r="G331" s="14"/>
@@ -13095,7 +13090,7 @@
         <v>159</v>
       </c>
       <c r="D332" s="174" t="s">
-        <v>826</v>
+        <v>771</v>
       </c>
       <c r="F332" s="14"/>
       <c r="G332" s="14"/>
@@ -13113,13 +13108,13 @@
         <v>161</v>
       </c>
       <c r="D333" s="174" t="s">
-        <v>827</v>
+        <v>772</v>
       </c>
       <c r="F333" s="14"/>
       <c r="G333" s="14"/>
       <c r="H333" s="14"/>
     </row>
-    <row r="334" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="334" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A334" s="7" t="s">
         <v>255</v>
       </c>
@@ -13131,7 +13126,7 @@
         <v>163</v>
       </c>
       <c r="D334" s="174" t="s">
-        <v>828</v>
+        <v>773</v>
       </c>
       <c r="F334" s="14"/>
       <c r="G334" s="14"/>
@@ -13149,13 +13144,13 @@
         <v>165</v>
       </c>
       <c r="D335" s="174" t="s">
-        <v>829</v>
+        <v>774</v>
       </c>
       <c r="F335" s="14"/>
       <c r="G335" s="14"/>
       <c r="H335" s="14"/>
     </row>
-    <row r="336" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="336" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A336" s="7" t="s">
         <v>257</v>
       </c>
@@ -13167,13 +13162,13 @@
         <v>167</v>
       </c>
       <c r="D336" s="174" t="s">
-        <v>830</v>
+        <v>775</v>
       </c>
       <c r="F336" s="14"/>
       <c r="G336" s="14"/>
       <c r="H336" s="14"/>
     </row>
-    <row r="337" spans="1:8" ht="28.05" hidden="1" customHeight="1">
+    <row r="337" spans="1:8" ht="28" hidden="1" customHeight="1">
       <c r="A337" s="7" t="s">
         <v>258</v>
       </c>
@@ -13185,13 +13180,13 @@
         <v>169</v>
       </c>
       <c r="D337" s="174" t="s">
-        <v>831</v>
+        <v>776</v>
       </c>
       <c r="F337" s="14"/>
       <c r="G337" s="14"/>
       <c r="H337" s="14"/>
     </row>
-    <row r="338" spans="1:8" ht="40.950000000000003" hidden="1" customHeight="1">
+    <row r="338" spans="1:8" ht="41" hidden="1" customHeight="1">
       <c r="A338" s="7" t="s">
         <v>259</v>
       </c>
@@ -13203,13 +13198,13 @@
         <v>171</v>
       </c>
       <c r="D338" s="174" t="s">
-        <v>832</v>
+        <v>777</v>
       </c>
       <c r="F338" s="14"/>
       <c r="G338" s="14"/>
       <c r="H338" s="14"/>
     </row>
-    <row r="339" spans="1:8" ht="25.05" hidden="1" customHeight="1">
+    <row r="339" spans="1:8" ht="25" hidden="1" customHeight="1">
       <c r="A339" s="7" t="s">
         <v>260</v>
       </c>
@@ -13221,7 +13216,7 @@
         <v>173</v>
       </c>
       <c r="D339" s="174" t="s">
-        <v>833</v>
+        <v>778</v>
       </c>
       <c r="F339" s="14"/>
       <c r="G339" s="14"/>
@@ -13239,13 +13234,13 @@
         <v>175</v>
       </c>
       <c r="D340" s="174" t="s">
-        <v>834</v>
+        <v>779</v>
       </c>
       <c r="F340" s="14"/>
       <c r="G340" s="14"/>
       <c r="H340" s="14"/>
     </row>
-    <row r="341" spans="1:8" ht="37.049999999999997" hidden="1" customHeight="1">
+    <row r="341" spans="1:8" ht="37" hidden="1" customHeight="1">
       <c r="A341" s="44" t="s">
         <v>262</v>
       </c>
@@ -13257,7 +13252,7 @@
         <v>161</v>
       </c>
       <c r="D341" s="174" t="s">
-        <v>835</v>
+        <v>780</v>
       </c>
       <c r="F341" s="14"/>
       <c r="G341" s="14"/>
@@ -13275,7 +13270,7 @@
         <v>264</v>
       </c>
       <c r="D342" s="174" t="s">
-        <v>836</v>
+        <v>781</v>
       </c>
       <c r="F342" s="14"/>
       <c r="G342" s="14"/>
@@ -13290,10 +13285,10 @@
         <v>0</v>
       </c>
       <c r="C343" s="41" t="s">
-        <v>657</v>
+        <v>610</v>
       </c>
       <c r="D343" s="174" t="s">
-        <v>837</v>
+        <v>782</v>
       </c>
       <c r="F343" s="14"/>
       <c r="G343" s="14"/>
@@ -13311,7 +13306,7 @@
         <v>267</v>
       </c>
       <c r="D344" s="174" t="s">
-        <v>838</v>
+        <v>783</v>
       </c>
       <c r="F344" s="14"/>
       <c r="G344" s="14"/>
@@ -13329,13 +13324,13 @@
         <v>269</v>
       </c>
       <c r="D345" s="174" t="s">
-        <v>839</v>
+        <v>784</v>
       </c>
       <c r="F345" s="14"/>
       <c r="G345" s="14"/>
       <c r="H345" s="14"/>
     </row>
-    <row r="346" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="346" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A346" s="23" t="s">
         <v>270</v>
       </c>
@@ -13344,16 +13339,16 @@
         <v>0</v>
       </c>
       <c r="C346" s="41" t="s">
-        <v>658</v>
+        <v>611</v>
       </c>
       <c r="D346" s="174" t="s">
-        <v>840</v>
+        <v>785</v>
       </c>
       <c r="F346" s="14"/>
       <c r="G346" s="14"/>
       <c r="H346" s="14"/>
     </row>
-    <row r="347" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="347" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A347" s="23" t="s">
         <v>271</v>
       </c>
@@ -13365,7 +13360,7 @@
         <v>272</v>
       </c>
       <c r="D347" s="174" t="s">
-        <v>841</v>
+        <v>786</v>
       </c>
       <c r="F347" s="14"/>
       <c r="G347" s="14"/>
@@ -13383,7 +13378,7 @@
         <v>274</v>
       </c>
       <c r="D348" s="174" t="s">
-        <v>842</v>
+        <v>787</v>
       </c>
       <c r="F348" s="14"/>
       <c r="G348" s="14"/>
@@ -13401,7 +13396,7 @@
         <v>147</v>
       </c>
       <c r="D349" s="174" t="s">
-        <v>843</v>
+        <v>788</v>
       </c>
       <c r="F349" s="14"/>
       <c r="G349" s="14"/>
@@ -13419,7 +13414,7 @@
         <v>149</v>
       </c>
       <c r="D350" s="174" t="s">
-        <v>844</v>
+        <v>789</v>
       </c>
       <c r="F350" s="14"/>
       <c r="G350" s="14"/>
@@ -13437,7 +13432,7 @@
         <v>151</v>
       </c>
       <c r="D351" s="174" t="s">
-        <v>845</v>
+        <v>790</v>
       </c>
       <c r="F351" s="14"/>
       <c r="G351" s="14"/>
@@ -13455,13 +13450,13 @@
         <v>222</v>
       </c>
       <c r="D352" s="174" t="s">
-        <v>846</v>
+        <v>791</v>
       </c>
       <c r="F352" s="14"/>
       <c r="G352" s="14"/>
       <c r="H352" s="14"/>
     </row>
-    <row r="353" spans="1:8" ht="37.049999999999997" hidden="1" customHeight="1">
+    <row r="353" spans="1:8" ht="37" hidden="1" customHeight="1">
       <c r="A353" s="7" t="s">
         <v>279</v>
       </c>
@@ -13473,7 +13468,7 @@
         <v>155</v>
       </c>
       <c r="D353" s="174" t="s">
-        <v>847</v>
+        <v>792</v>
       </c>
       <c r="F353" s="14"/>
       <c r="G353" s="14"/>
@@ -13491,7 +13486,7 @@
         <v>157</v>
       </c>
       <c r="D354" s="174" t="s">
-        <v>848</v>
+        <v>793</v>
       </c>
       <c r="F354" s="14"/>
       <c r="G354" s="14"/>
@@ -13509,7 +13504,7 @@
         <v>159</v>
       </c>
       <c r="D355" s="174" t="s">
-        <v>849</v>
+        <v>794</v>
       </c>
       <c r="F355" s="14"/>
       <c r="G355" s="14"/>
@@ -13527,13 +13522,13 @@
         <v>161</v>
       </c>
       <c r="D356" s="174" t="s">
-        <v>850</v>
+        <v>795</v>
       </c>
       <c r="F356" s="14"/>
       <c r="G356" s="14"/>
       <c r="H356" s="14"/>
     </row>
-    <row r="357" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="357" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A357" s="7" t="s">
         <v>283</v>
       </c>
@@ -13545,13 +13540,13 @@
         <v>163</v>
       </c>
       <c r="D357" s="174" t="s">
-        <v>851</v>
+        <v>796</v>
       </c>
       <c r="F357" s="14"/>
       <c r="G357" s="14"/>
       <c r="H357" s="14"/>
     </row>
-    <row r="358" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="358" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A358" s="7" t="s">
         <v>284</v>
       </c>
@@ -13563,13 +13558,13 @@
         <v>165</v>
       </c>
       <c r="D358" s="174" t="s">
-        <v>852</v>
+        <v>797</v>
       </c>
       <c r="F358" s="14"/>
       <c r="G358" s="14"/>
       <c r="H358" s="14"/>
     </row>
-    <row r="359" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="359" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A359" s="7" t="s">
         <v>285</v>
       </c>
@@ -13581,7 +13576,7 @@
         <v>167</v>
       </c>
       <c r="D359" s="174" t="s">
-        <v>853</v>
+        <v>798</v>
       </c>
       <c r="F359" s="14"/>
       <c r="G359" s="14"/>
@@ -13599,13 +13594,13 @@
         <v>201</v>
       </c>
       <c r="D360" s="174" t="s">
-        <v>854</v>
+        <v>799</v>
       </c>
       <c r="F360" s="14"/>
       <c r="G360" s="14"/>
       <c r="H360" s="14"/>
     </row>
-    <row r="361" spans="1:8" ht="52.95" hidden="1" customHeight="1">
+    <row r="361" spans="1:8" ht="53" hidden="1" customHeight="1">
       <c r="A361" s="7" t="s">
         <v>287</v>
       </c>
@@ -13617,13 +13612,13 @@
         <v>288</v>
       </c>
       <c r="D361" s="174" t="s">
-        <v>855</v>
+        <v>800</v>
       </c>
       <c r="F361" s="14"/>
       <c r="G361" s="14"/>
       <c r="H361" s="14"/>
     </row>
-    <row r="362" spans="1:8" ht="28.05" hidden="1" customHeight="1">
+    <row r="362" spans="1:8" ht="28" hidden="1" customHeight="1">
       <c r="A362" s="7" t="s">
         <v>289</v>
       </c>
@@ -13635,13 +13630,13 @@
         <v>173</v>
       </c>
       <c r="D362" s="174" t="s">
-        <v>856</v>
+        <v>801</v>
       </c>
       <c r="F362" s="14"/>
       <c r="G362" s="14"/>
       <c r="H362" s="14"/>
     </row>
-    <row r="363" spans="1:8" ht="52.95" hidden="1" customHeight="1">
+    <row r="363" spans="1:8" ht="53" hidden="1" customHeight="1">
       <c r="A363" s="7" t="s">
         <v>290</v>
       </c>
@@ -13653,13 +13648,13 @@
         <v>175</v>
       </c>
       <c r="D363" s="174" t="s">
-        <v>857</v>
+        <v>802</v>
       </c>
       <c r="F363" s="14"/>
       <c r="G363" s="14"/>
       <c r="H363" s="14"/>
     </row>
-    <row r="364" spans="1:8" ht="52.95" hidden="1" customHeight="1">
+    <row r="364" spans="1:8" ht="53" hidden="1" customHeight="1">
       <c r="A364" s="7" t="s">
         <v>291</v>
       </c>
@@ -13671,13 +13666,13 @@
         <v>161</v>
       </c>
       <c r="D364" s="174" t="s">
-        <v>858</v>
+        <v>803</v>
       </c>
       <c r="F364" s="14"/>
       <c r="G364" s="14"/>
       <c r="H364" s="14"/>
     </row>
-    <row r="365" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="365" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A365" s="7" t="s">
         <v>292</v>
       </c>
@@ -13689,13 +13684,13 @@
         <v>293</v>
       </c>
       <c r="D365" s="174" t="s">
-        <v>859</v>
+        <v>804</v>
       </c>
       <c r="F365" s="14"/>
       <c r="G365" s="14"/>
       <c r="H365" s="14"/>
     </row>
-    <row r="366" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="366" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A366" s="23" t="s">
         <v>294</v>
       </c>
@@ -13704,16 +13699,16 @@
         <v>0</v>
       </c>
       <c r="C366" s="41" t="s">
-        <v>659</v>
+        <v>612</v>
       </c>
       <c r="D366" s="174" t="s">
-        <v>860</v>
+        <v>805</v>
       </c>
       <c r="F366" s="14"/>
       <c r="G366" s="14"/>
       <c r="H366" s="14"/>
     </row>
-    <row r="367" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="367" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A367" s="23" t="s">
         <v>295</v>
       </c>
@@ -13725,7 +13720,7 @@
         <v>296</v>
       </c>
       <c r="D367" s="174" t="s">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="F367" s="14"/>
       <c r="G367" s="14"/>
@@ -13743,13 +13738,13 @@
         <v>298</v>
       </c>
       <c r="D368" s="174" t="s">
-        <v>862</v>
+        <v>807</v>
       </c>
       <c r="F368" s="14"/>
       <c r="G368" s="14"/>
       <c r="H368" s="14"/>
     </row>
-    <row r="369" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="369" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A369" s="23" t="s">
         <v>299</v>
       </c>
@@ -13758,16 +13753,16 @@
         <v>0</v>
       </c>
       <c r="C369" s="41" t="s">
-        <v>660</v>
+        <v>613</v>
       </c>
       <c r="D369" s="174" t="s">
-        <v>863</v>
+        <v>808</v>
       </c>
       <c r="F369" s="14"/>
       <c r="G369" s="14"/>
       <c r="H369" s="14"/>
     </row>
-    <row r="370" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="370" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A370" s="23" t="s">
         <v>300</v>
       </c>
@@ -13779,13 +13774,13 @@
         <v>301</v>
       </c>
       <c r="D370" s="174" t="s">
-        <v>864</v>
+        <v>809</v>
       </c>
       <c r="F370" s="14"/>
       <c r="G370" s="14"/>
       <c r="H370" s="14"/>
     </row>
-    <row r="371" spans="1:8" ht="25.05" hidden="1" customHeight="1">
+    <row r="371" spans="1:8" ht="25" hidden="1" customHeight="1">
       <c r="A371" s="26" t="s">
         <v>302</v>
       </c>
@@ -13797,7 +13792,7 @@
         <v>303</v>
       </c>
       <c r="D371" s="174" t="s">
-        <v>865</v>
+        <v>810</v>
       </c>
       <c r="F371" s="14"/>
       <c r="G371" s="14"/>
@@ -13815,7 +13810,7 @@
         <v>147</v>
       </c>
       <c r="D372" s="174" t="s">
-        <v>866</v>
+        <v>811</v>
       </c>
       <c r="F372" s="14"/>
       <c r="G372" s="14"/>
@@ -13833,7 +13828,7 @@
         <v>149</v>
       </c>
       <c r="D373" s="174" t="s">
-        <v>867</v>
+        <v>812</v>
       </c>
       <c r="F373" s="14"/>
       <c r="G373" s="14"/>
@@ -13851,7 +13846,7 @@
         <v>151</v>
       </c>
       <c r="D374" s="174" t="s">
-        <v>868</v>
+        <v>813</v>
       </c>
       <c r="F374" s="14"/>
       <c r="G374" s="14"/>
@@ -13869,13 +13864,13 @@
         <v>153</v>
       </c>
       <c r="D375" s="174" t="s">
-        <v>869</v>
+        <v>814</v>
       </c>
       <c r="F375" s="14"/>
       <c r="G375" s="14"/>
       <c r="H375" s="14"/>
     </row>
-    <row r="376" spans="1:8" ht="49.95" hidden="1" customHeight="1">
+    <row r="376" spans="1:8" ht="50" hidden="1" customHeight="1">
       <c r="A376" s="7" t="s">
         <v>308</v>
       </c>
@@ -13887,13 +13882,13 @@
         <v>155</v>
       </c>
       <c r="D376" s="174" t="s">
-        <v>870</v>
+        <v>815</v>
       </c>
       <c r="F376" s="14"/>
       <c r="G376" s="14"/>
       <c r="H376" s="14"/>
     </row>
-    <row r="377" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="377" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A377" s="7" t="s">
         <v>309</v>
       </c>
@@ -13905,7 +13900,7 @@
         <v>157</v>
       </c>
       <c r="D377" s="174" t="s">
-        <v>871</v>
+        <v>816</v>
       </c>
       <c r="F377" s="14"/>
       <c r="G377" s="14"/>
@@ -13923,7 +13918,7 @@
         <v>159</v>
       </c>
       <c r="D378" s="174" t="s">
-        <v>872</v>
+        <v>817</v>
       </c>
       <c r="F378" s="14"/>
       <c r="G378" s="14"/>
@@ -13941,13 +13936,13 @@
         <v>161</v>
       </c>
       <c r="D379" s="174" t="s">
-        <v>873</v>
+        <v>818</v>
       </c>
       <c r="F379" s="14"/>
       <c r="G379" s="14"/>
       <c r="H379" s="14"/>
     </row>
-    <row r="380" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="380" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A380" s="7" t="s">
         <v>312</v>
       </c>
@@ -13959,13 +13954,13 @@
         <v>163</v>
       </c>
       <c r="D380" s="174" t="s">
-        <v>874</v>
+        <v>819</v>
       </c>
       <c r="F380" s="14"/>
       <c r="G380" s="14"/>
       <c r="H380" s="14"/>
     </row>
-    <row r="381" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="381" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A381" s="7" t="s">
         <v>313</v>
       </c>
@@ -13977,13 +13972,13 @@
         <v>165</v>
       </c>
       <c r="D381" s="174" t="s">
-        <v>875</v>
+        <v>820</v>
       </c>
       <c r="F381" s="14"/>
       <c r="G381" s="14"/>
       <c r="H381" s="14"/>
     </row>
-    <row r="382" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="382" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A382" s="7" t="s">
         <v>314</v>
       </c>
@@ -13995,7 +13990,7 @@
         <v>167</v>
       </c>
       <c r="D382" s="174" t="s">
-        <v>876</v>
+        <v>821</v>
       </c>
       <c r="F382" s="14"/>
       <c r="G382" s="14"/>
@@ -14013,13 +14008,13 @@
         <v>169</v>
       </c>
       <c r="D383" s="174" t="s">
-        <v>877</v>
+        <v>822</v>
       </c>
       <c r="F383" s="14"/>
       <c r="G383" s="14"/>
       <c r="H383" s="14"/>
     </row>
-    <row r="384" spans="1:8" ht="52.95" hidden="1" customHeight="1">
+    <row r="384" spans="1:8" ht="53" hidden="1" customHeight="1">
       <c r="A384" s="7" t="s">
         <v>316</v>
       </c>
@@ -14031,13 +14026,13 @@
         <v>288</v>
       </c>
       <c r="D384" s="174" t="s">
-        <v>878</v>
+        <v>823</v>
       </c>
       <c r="F384" s="14"/>
       <c r="G384" s="14"/>
       <c r="H384" s="14"/>
     </row>
-    <row r="385" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="385" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A385" s="7" t="s">
         <v>317</v>
       </c>
@@ -14049,13 +14044,13 @@
         <v>173</v>
       </c>
       <c r="D385" s="174" t="s">
-        <v>879</v>
+        <v>824</v>
       </c>
       <c r="F385" s="14"/>
       <c r="G385" s="14"/>
       <c r="H385" s="14"/>
     </row>
-    <row r="386" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="386" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A386" s="7" t="s">
         <v>318</v>
       </c>
@@ -14067,13 +14062,13 @@
         <v>175</v>
       </c>
       <c r="D386" s="174" t="s">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="F386" s="14"/>
       <c r="G386" s="14"/>
       <c r="H386" s="14"/>
     </row>
-    <row r="387" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="387" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A387" s="7" t="s">
         <v>319</v>
       </c>
@@ -14085,13 +14080,13 @@
         <v>161</v>
       </c>
       <c r="D387" s="174" t="s">
-        <v>881</v>
+        <v>826</v>
       </c>
       <c r="F387" s="14"/>
       <c r="G387" s="14"/>
       <c r="H387" s="14"/>
     </row>
-    <row r="388" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="388" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A388" s="7" t="s">
         <v>320</v>
       </c>
@@ -14103,13 +14098,13 @@
         <v>321</v>
       </c>
       <c r="D388" s="174" t="s">
-        <v>882</v>
+        <v>827</v>
       </c>
       <c r="F388" s="14"/>
       <c r="G388" s="14"/>
       <c r="H388" s="14"/>
     </row>
-    <row r="389" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="389" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A389" s="23" t="s">
         <v>322</v>
       </c>
@@ -14118,16 +14113,16 @@
         <v>0</v>
       </c>
       <c r="C389" s="41" t="s">
-        <v>661</v>
+        <v>614</v>
       </c>
       <c r="D389" s="174" t="s">
-        <v>883</v>
+        <v>828</v>
       </c>
       <c r="F389" s="14"/>
       <c r="G389" s="14"/>
       <c r="H389" s="14"/>
     </row>
-    <row r="390" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="390" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A390" s="23" t="s">
         <v>323</v>
       </c>
@@ -14139,13 +14134,13 @@
         <v>324</v>
       </c>
       <c r="D390" s="174" t="s">
-        <v>884</v>
+        <v>829</v>
       </c>
       <c r="F390" s="14"/>
       <c r="G390" s="14"/>
       <c r="H390" s="14"/>
     </row>
-    <row r="391" spans="1:8" ht="25.05" hidden="1" customHeight="1">
+    <row r="391" spans="1:8" ht="25" hidden="1" customHeight="1">
       <c r="A391" s="26" t="s">
         <v>325</v>
       </c>
@@ -14157,13 +14152,13 @@
         <v>326</v>
       </c>
       <c r="D391" s="174" t="s">
-        <v>885</v>
+        <v>830</v>
       </c>
       <c r="F391" s="14"/>
       <c r="G391" s="14"/>
       <c r="H391" s="14"/>
     </row>
-    <row r="392" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="392" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A392" s="23" t="s">
         <v>327</v>
       </c>
@@ -14172,16 +14167,16 @@
         <v>0</v>
       </c>
       <c r="C392" s="41" t="s">
-        <v>662</v>
+        <v>615</v>
       </c>
       <c r="D392" s="174" t="s">
-        <v>886</v>
+        <v>831</v>
       </c>
       <c r="F392" s="14"/>
       <c r="G392" s="14"/>
       <c r="H392" s="14"/>
     </row>
-    <row r="393" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="393" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A393" s="23" t="s">
         <v>328</v>
       </c>
@@ -14193,7 +14188,7 @@
         <v>329</v>
       </c>
       <c r="D393" s="174" t="s">
-        <v>887</v>
+        <v>832</v>
       </c>
       <c r="F393" s="14"/>
       <c r="G393" s="14"/>
@@ -14211,7 +14206,7 @@
         <v>331</v>
       </c>
       <c r="D394" s="174" t="s">
-        <v>888</v>
+        <v>833</v>
       </c>
       <c r="F394" s="14"/>
       <c r="G394" s="14"/>
@@ -14229,7 +14224,7 @@
         <v>147</v>
       </c>
       <c r="D395" s="174" t="s">
-        <v>889</v>
+        <v>834</v>
       </c>
       <c r="F395" s="14"/>
       <c r="G395" s="14"/>
@@ -14247,7 +14242,7 @@
         <v>149</v>
       </c>
       <c r="D396" s="174" t="s">
-        <v>890</v>
+        <v>835</v>
       </c>
       <c r="F396" s="14"/>
       <c r="G396" s="14"/>
@@ -14265,7 +14260,7 @@
         <v>151</v>
       </c>
       <c r="D397" s="174" t="s">
-        <v>891</v>
+        <v>836</v>
       </c>
       <c r="F397" s="14"/>
       <c r="G397" s="14"/>
@@ -14283,7 +14278,7 @@
         <v>153</v>
       </c>
       <c r="D398" s="174" t="s">
-        <v>892</v>
+        <v>837</v>
       </c>
       <c r="F398" s="14"/>
       <c r="G398" s="14"/>
@@ -14301,13 +14296,13 @@
         <v>155</v>
       </c>
       <c r="D399" s="174" t="s">
-        <v>893</v>
+        <v>838</v>
       </c>
       <c r="F399" s="14"/>
       <c r="G399" s="14"/>
       <c r="H399" s="14"/>
     </row>
-    <row r="400" spans="1:8" ht="27" hidden="1">
+    <row r="400" spans="1:8" hidden="1">
       <c r="A400" s="7" t="s">
         <v>337</v>
       </c>
@@ -14319,7 +14314,7 @@
         <v>157</v>
       </c>
       <c r="D400" s="174" t="s">
-        <v>894</v>
+        <v>839</v>
       </c>
       <c r="F400" s="14"/>
       <c r="G400" s="14"/>
@@ -14337,7 +14332,7 @@
         <v>159</v>
       </c>
       <c r="D401" s="174" t="s">
-        <v>895</v>
+        <v>840</v>
       </c>
       <c r="F401" s="14"/>
       <c r="G401" s="14"/>
@@ -14355,13 +14350,13 @@
         <v>161</v>
       </c>
       <c r="D402" s="174" t="s">
-        <v>896</v>
+        <v>841</v>
       </c>
       <c r="F402" s="14"/>
       <c r="G402" s="14"/>
       <c r="H402" s="14"/>
     </row>
-    <row r="403" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="403" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A403" s="7" t="s">
         <v>340</v>
       </c>
@@ -14373,13 +14368,13 @@
         <v>163</v>
       </c>
       <c r="D403" s="174" t="s">
-        <v>897</v>
+        <v>842</v>
       </c>
       <c r="F403" s="14"/>
       <c r="G403" s="14"/>
       <c r="H403" s="14"/>
     </row>
-    <row r="404" spans="1:8" ht="25.05" hidden="1" customHeight="1">
+    <row r="404" spans="1:8" ht="25" hidden="1" customHeight="1">
       <c r="A404" s="7" t="s">
         <v>341</v>
       </c>
@@ -14391,13 +14386,13 @@
         <v>165</v>
       </c>
       <c r="D404" s="174" t="s">
-        <v>898</v>
+        <v>843</v>
       </c>
       <c r="F404" s="14"/>
       <c r="G404" s="14"/>
       <c r="H404" s="14"/>
     </row>
-    <row r="405" spans="1:8" ht="25.05" hidden="1" customHeight="1">
+    <row r="405" spans="1:8" ht="25" hidden="1" customHeight="1">
       <c r="A405" s="7" t="s">
         <v>342</v>
       </c>
@@ -14409,7 +14404,7 @@
         <v>167</v>
       </c>
       <c r="D405" s="174" t="s">
-        <v>899</v>
+        <v>844</v>
       </c>
       <c r="F405" s="14"/>
       <c r="G405" s="14"/>
@@ -14427,7 +14422,7 @@
         <v>169</v>
       </c>
       <c r="D406" s="174" t="s">
-        <v>900</v>
+        <v>845</v>
       </c>
       <c r="F406" s="14"/>
       <c r="G406" s="14"/>
@@ -14445,7 +14440,7 @@
         <v>171</v>
       </c>
       <c r="D407" s="174" t="s">
-        <v>901</v>
+        <v>846</v>
       </c>
       <c r="F407" s="14"/>
       <c r="G407" s="14"/>
@@ -14463,13 +14458,13 @@
         <v>173</v>
       </c>
       <c r="D408" s="174" t="s">
-        <v>902</v>
+        <v>847</v>
       </c>
       <c r="F408" s="14"/>
       <c r="G408" s="14"/>
       <c r="H408" s="14"/>
     </row>
-    <row r="409" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="409" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A409" s="7" t="s">
         <v>346</v>
       </c>
@@ -14481,13 +14476,13 @@
         <v>175</v>
       </c>
       <c r="D409" s="174" t="s">
-        <v>903</v>
+        <v>848</v>
       </c>
       <c r="F409" s="14"/>
       <c r="G409" s="14"/>
       <c r="H409" s="14"/>
     </row>
-    <row r="410" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="410" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A410" s="7" t="s">
         <v>347</v>
       </c>
@@ -14499,13 +14494,13 @@
         <v>161</v>
       </c>
       <c r="D410" s="174" t="s">
-        <v>904</v>
+        <v>849</v>
       </c>
       <c r="F410" s="14"/>
       <c r="G410" s="14"/>
       <c r="H410" s="14"/>
     </row>
-    <row r="411" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="411" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A411" s="7" t="s">
         <v>348</v>
       </c>
@@ -14517,13 +14512,13 @@
         <v>349</v>
       </c>
       <c r="D411" s="174" t="s">
-        <v>905</v>
+        <v>850</v>
       </c>
       <c r="F411" s="14"/>
       <c r="G411" s="14"/>
       <c r="H411" s="14"/>
     </row>
-    <row r="412" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="412" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A412" s="23" t="s">
         <v>350</v>
       </c>
@@ -14532,16 +14527,16 @@
         <v>0</v>
       </c>
       <c r="C412" s="41" t="s">
-        <v>663</v>
+        <v>616</v>
       </c>
       <c r="D412" s="174" t="s">
-        <v>906</v>
+        <v>851</v>
       </c>
       <c r="F412" s="14"/>
       <c r="G412" s="14"/>
       <c r="H412" s="14"/>
     </row>
-    <row r="413" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="413" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A413" s="23" t="s">
         <v>351</v>
       </c>
@@ -14553,13 +14548,13 @@
         <v>352</v>
       </c>
       <c r="D413" s="174" t="s">
-        <v>907</v>
+        <v>852</v>
       </c>
       <c r="F413" s="14"/>
       <c r="G413" s="14"/>
       <c r="H413" s="14"/>
     </row>
-    <row r="414" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="414" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A414" s="26" t="s">
         <v>353</v>
       </c>
@@ -14571,13 +14566,13 @@
         <v>354</v>
       </c>
       <c r="D414" s="174" t="s">
-        <v>908</v>
+        <v>853</v>
       </c>
       <c r="F414" s="14"/>
       <c r="G414" s="14"/>
       <c r="H414" s="14"/>
     </row>
-    <row r="415" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="415" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A415" s="23" t="s">
         <v>355</v>
       </c>
@@ -14586,16 +14581,16 @@
         <v>0</v>
       </c>
       <c r="C415" s="41" t="s">
-        <v>664</v>
+        <v>617</v>
       </c>
       <c r="D415" s="174" t="s">
-        <v>909</v>
+        <v>854</v>
       </c>
       <c r="F415" s="14"/>
       <c r="G415" s="14"/>
       <c r="H415" s="14"/>
     </row>
-    <row r="416" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="416" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A416" s="23" t="s">
         <v>356</v>
       </c>
@@ -14607,13 +14602,13 @@
         <v>357</v>
       </c>
       <c r="D416" s="174" t="s">
-        <v>910</v>
+        <v>855</v>
       </c>
       <c r="F416" s="14"/>
       <c r="G416" s="14"/>
       <c r="H416" s="14"/>
     </row>
-    <row r="417" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="417" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A417" s="26" t="s">
         <v>358</v>
       </c>
@@ -14625,13 +14620,13 @@
         <v>359</v>
       </c>
       <c r="D417" s="174" t="s">
-        <v>911</v>
+        <v>856</v>
       </c>
       <c r="F417" s="14"/>
       <c r="G417" s="14"/>
       <c r="H417" s="14"/>
     </row>
-    <row r="418" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="418" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A418" s="7" t="s">
         <v>360</v>
       </c>
@@ -14643,13 +14638,13 @@
         <v>147</v>
       </c>
       <c r="D418" s="174" t="s">
-        <v>912</v>
+        <v>857</v>
       </c>
       <c r="F418" s="14"/>
       <c r="G418" s="14"/>
       <c r="H418" s="14"/>
     </row>
-    <row r="419" spans="1:8" ht="34.950000000000003" hidden="1" customHeight="1">
+    <row r="419" spans="1:8" ht="35" hidden="1" customHeight="1">
       <c r="A419" s="7" t="s">
         <v>361</v>
       </c>
@@ -14661,7 +14656,7 @@
         <v>149</v>
       </c>
       <c r="D419" s="174" t="s">
-        <v>913</v>
+        <v>858</v>
       </c>
       <c r="F419" s="14"/>
       <c r="G419" s="14"/>
@@ -14679,7 +14674,7 @@
         <v>151</v>
       </c>
       <c r="D420" s="174" t="s">
-        <v>914</v>
+        <v>859</v>
       </c>
       <c r="F420" s="14"/>
       <c r="G420" s="14"/>
@@ -14697,7 +14692,7 @@
         <v>153</v>
       </c>
       <c r="D421" s="174" t="s">
-        <v>915</v>
+        <v>860</v>
       </c>
       <c r="F421" s="14"/>
       <c r="G421" s="14"/>
@@ -14715,7 +14710,7 @@
         <v>155</v>
       </c>
       <c r="D422" s="174" t="s">
-        <v>916</v>
+        <v>861</v>
       </c>
       <c r="F422" s="14"/>
       <c r="G422" s="14"/>
@@ -14733,7 +14728,7 @@
         <v>157</v>
       </c>
       <c r="D423" s="174" t="s">
-        <v>917</v>
+        <v>862</v>
       </c>
       <c r="F423" s="14"/>
       <c r="G423" s="14"/>
@@ -14751,7 +14746,7 @@
         <v>159</v>
       </c>
       <c r="D424" s="174" t="s">
-        <v>918</v>
+        <v>863</v>
       </c>
       <c r="F424" s="14"/>
       <c r="G424" s="14"/>
@@ -14769,13 +14764,13 @@
         <v>161</v>
       </c>
       <c r="D425" s="174" t="s">
-        <v>919</v>
+        <v>864</v>
       </c>
       <c r="F425" s="14"/>
       <c r="G425" s="14"/>
       <c r="H425" s="14"/>
     </row>
-    <row r="426" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="426" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A426" s="7" t="s">
         <v>368</v>
       </c>
@@ -14787,13 +14782,13 @@
         <v>163</v>
       </c>
       <c r="D426" s="174" t="s">
-        <v>920</v>
+        <v>865</v>
       </c>
       <c r="F426" s="14"/>
       <c r="G426" s="14"/>
       <c r="H426" s="14"/>
     </row>
-    <row r="427" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="427" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A427" s="7" t="s">
         <v>369</v>
       </c>
@@ -14805,13 +14800,13 @@
         <v>165</v>
       </c>
       <c r="D427" s="174" t="s">
-        <v>921</v>
+        <v>866</v>
       </c>
       <c r="F427" s="14"/>
       <c r="G427" s="14"/>
       <c r="H427" s="14"/>
     </row>
-    <row r="428" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="428" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A428" s="7" t="s">
         <v>370</v>
       </c>
@@ -14823,7 +14818,7 @@
         <v>167</v>
       </c>
       <c r="D428" s="174" t="s">
-        <v>922</v>
+        <v>867</v>
       </c>
       <c r="F428" s="14"/>
       <c r="G428" s="14"/>
@@ -14841,13 +14836,13 @@
         <v>169</v>
       </c>
       <c r="D429" s="174" t="s">
-        <v>923</v>
+        <v>868</v>
       </c>
       <c r="F429" s="14"/>
       <c r="G429" s="14"/>
       <c r="H429" s="14"/>
     </row>
-    <row r="430" spans="1:8" ht="52.95" hidden="1" customHeight="1">
+    <row r="430" spans="1:8" ht="53" hidden="1" customHeight="1">
       <c r="A430" s="7" t="s">
         <v>372</v>
       </c>
@@ -14859,13 +14854,13 @@
         <v>288</v>
       </c>
       <c r="D430" s="174" t="s">
-        <v>924</v>
+        <v>869</v>
       </c>
       <c r="F430" s="14"/>
       <c r="G430" s="14"/>
       <c r="H430" s="14"/>
     </row>
-    <row r="431" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="431" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A431" s="7" t="s">
         <v>373</v>
       </c>
@@ -14877,13 +14872,13 @@
         <v>173</v>
       </c>
       <c r="D431" s="174" t="s">
-        <v>925</v>
+        <v>870</v>
       </c>
       <c r="F431" s="14"/>
       <c r="G431" s="14"/>
       <c r="H431" s="14"/>
     </row>
-    <row r="432" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="432" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A432" s="7" t="s">
         <v>374</v>
       </c>
@@ -14895,13 +14890,13 @@
         <v>175</v>
       </c>
       <c r="D432" s="174" t="s">
-        <v>926</v>
+        <v>871</v>
       </c>
       <c r="F432" s="14"/>
       <c r="G432" s="14"/>
       <c r="H432" s="14"/>
     </row>
-    <row r="433" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="433" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A433" s="7" t="s">
         <v>375</v>
       </c>
@@ -14913,13 +14908,13 @@
         <v>161</v>
       </c>
       <c r="D433" s="174" t="s">
-        <v>927</v>
+        <v>872</v>
       </c>
       <c r="F433" s="14"/>
       <c r="G433" s="14"/>
       <c r="H433" s="14"/>
     </row>
-    <row r="434" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="434" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A434" s="7" t="s">
         <v>376</v>
       </c>
@@ -14931,13 +14926,13 @@
         <v>377</v>
       </c>
       <c r="D434" s="174" t="s">
-        <v>928</v>
+        <v>873</v>
       </c>
       <c r="F434" s="14"/>
       <c r="G434" s="14"/>
       <c r="H434" s="14"/>
     </row>
-    <row r="435" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="435" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A435" s="23" t="s">
         <v>378</v>
       </c>
@@ -14946,16 +14941,16 @@
         <v>0</v>
       </c>
       <c r="C435" s="41" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="D435" s="174" t="s">
-        <v>929</v>
+        <v>874</v>
       </c>
       <c r="F435" s="14"/>
       <c r="G435" s="14"/>
       <c r="H435" s="14"/>
     </row>
-    <row r="436" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="436" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A436" s="23" t="s">
         <v>379</v>
       </c>
@@ -14967,13 +14962,13 @@
         <v>380</v>
       </c>
       <c r="D436" s="174" t="s">
-        <v>930</v>
+        <v>875</v>
       </c>
       <c r="F436" s="14"/>
       <c r="G436" s="14"/>
       <c r="H436" s="14"/>
     </row>
-    <row r="437" spans="1:8" ht="25.05" hidden="1" customHeight="1">
+    <row r="437" spans="1:8" ht="25" hidden="1" customHeight="1">
       <c r="A437" s="26" t="s">
         <v>381</v>
       </c>
@@ -14985,13 +14980,13 @@
         <v>382</v>
       </c>
       <c r="D437" s="174" t="s">
-        <v>931</v>
+        <v>876</v>
       </c>
       <c r="F437" s="14"/>
       <c r="G437" s="14"/>
       <c r="H437" s="14"/>
     </row>
-    <row r="438" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="438" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A438" s="23" t="s">
         <v>383</v>
       </c>
@@ -15000,16 +14995,16 @@
         <v>0</v>
       </c>
       <c r="C438" s="41" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="D438" s="174" t="s">
-        <v>932</v>
+        <v>877</v>
       </c>
       <c r="F438" s="14"/>
       <c r="G438" s="14"/>
       <c r="H438" s="14"/>
     </row>
-    <row r="439" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="439" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A439" s="23" t="s">
         <v>384</v>
       </c>
@@ -15021,13 +15016,13 @@
         <v>385</v>
       </c>
       <c r="D439" s="174" t="s">
-        <v>933</v>
+        <v>878</v>
       </c>
       <c r="F439" s="14"/>
       <c r="G439" s="14"/>
       <c r="H439" s="14"/>
     </row>
-    <row r="440" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="440" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A440" s="26" t="s">
         <v>386</v>
       </c>
@@ -15039,13 +15034,13 @@
         <v>387</v>
       </c>
       <c r="D440" s="174" t="s">
-        <v>934</v>
+        <v>879</v>
       </c>
       <c r="F440" s="14"/>
       <c r="G440" s="14"/>
       <c r="H440" s="14"/>
     </row>
-    <row r="441" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="441" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A441" s="7" t="s">
         <v>388</v>
       </c>
@@ -15057,7 +15052,7 @@
         <v>389</v>
       </c>
       <c r="D441" s="174" t="s">
-        <v>935</v>
+        <v>880</v>
       </c>
       <c r="F441" s="14"/>
       <c r="G441" s="14"/>
@@ -15075,7 +15070,7 @@
         <v>149</v>
       </c>
       <c r="D442" s="174" t="s">
-        <v>936</v>
+        <v>881</v>
       </c>
       <c r="F442" s="14"/>
       <c r="G442" s="14"/>
@@ -15093,7 +15088,7 @@
         <v>151</v>
       </c>
       <c r="D443" s="174" t="s">
-        <v>937</v>
+        <v>882</v>
       </c>
       <c r="F443" s="14"/>
       <c r="G443" s="14"/>
@@ -15111,13 +15106,13 @@
         <v>153</v>
       </c>
       <c r="D444" s="174" t="s">
-        <v>938</v>
+        <v>883</v>
       </c>
       <c r="F444" s="14"/>
       <c r="G444" s="14"/>
       <c r="H444" s="14"/>
     </row>
-    <row r="445" spans="1:8" ht="52.05" hidden="1" customHeight="1">
+    <row r="445" spans="1:8" ht="52" hidden="1" customHeight="1">
       <c r="A445" s="7" t="s">
         <v>393</v>
       </c>
@@ -15129,7 +15124,7 @@
         <v>394</v>
       </c>
       <c r="D445" s="174" t="s">
-        <v>939</v>
+        <v>884</v>
       </c>
       <c r="F445" s="14"/>
       <c r="G445" s="14"/>
@@ -15147,7 +15142,7 @@
         <v>157</v>
       </c>
       <c r="D446" s="174" t="s">
-        <v>940</v>
+        <v>885</v>
       </c>
       <c r="F446" s="14"/>
       <c r="G446" s="14"/>
@@ -15165,7 +15160,7 @@
         <v>159</v>
       </c>
       <c r="D447" s="174" t="s">
-        <v>941</v>
+        <v>886</v>
       </c>
       <c r="F447" s="14"/>
       <c r="G447" s="14"/>
@@ -15183,13 +15178,13 @@
         <v>161</v>
       </c>
       <c r="D448" s="174" t="s">
-        <v>942</v>
+        <v>887</v>
       </c>
       <c r="F448" s="14"/>
       <c r="G448" s="14"/>
       <c r="H448" s="14"/>
     </row>
-    <row r="449" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="449" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A449" s="7" t="s">
         <v>398</v>
       </c>
@@ -15201,7 +15196,7 @@
         <v>163</v>
       </c>
       <c r="D449" s="174" t="s">
-        <v>943</v>
+        <v>888</v>
       </c>
       <c r="F449" s="14"/>
       <c r="G449" s="14"/>
@@ -15219,7 +15214,7 @@
         <v>165</v>
       </c>
       <c r="D450" s="174" t="s">
-        <v>944</v>
+        <v>889</v>
       </c>
       <c r="F450" s="14"/>
       <c r="G450" s="14"/>
@@ -15237,13 +15232,13 @@
         <v>167</v>
       </c>
       <c r="D451" s="174" t="s">
-        <v>945</v>
+        <v>890</v>
       </c>
       <c r="F451" s="14"/>
       <c r="G451" s="14"/>
       <c r="H451" s="14"/>
     </row>
-    <row r="452" spans="1:8" ht="25.05" hidden="1" customHeight="1">
+    <row r="452" spans="1:8" ht="25" hidden="1" customHeight="1">
       <c r="A452" s="7" t="s">
         <v>401</v>
       </c>
@@ -15255,7 +15250,7 @@
         <v>169</v>
       </c>
       <c r="D452" s="174" t="s">
-        <v>946</v>
+        <v>891</v>
       </c>
       <c r="F452" s="14"/>
       <c r="G452" s="14"/>
@@ -15273,7 +15268,7 @@
         <v>171</v>
       </c>
       <c r="D453" s="174" t="s">
-        <v>947</v>
+        <v>892</v>
       </c>
       <c r="F453" s="14"/>
       <c r="G453" s="14"/>
@@ -15291,7 +15286,7 @@
         <v>173</v>
       </c>
       <c r="D454" s="174" t="s">
-        <v>948</v>
+        <v>893</v>
       </c>
       <c r="F454" s="14"/>
       <c r="G454" s="14"/>
@@ -15309,13 +15304,13 @@
         <v>175</v>
       </c>
       <c r="D455" s="174" t="s">
-        <v>949</v>
+        <v>894</v>
       </c>
       <c r="F455" s="14"/>
       <c r="G455" s="14"/>
       <c r="H455" s="14"/>
     </row>
-    <row r="456" spans="1:8" ht="55.95" hidden="1" customHeight="1">
+    <row r="456" spans="1:8" ht="56" hidden="1" customHeight="1">
       <c r="A456" s="7" t="s">
         <v>405</v>
       </c>
@@ -15327,13 +15322,13 @@
         <v>161</v>
       </c>
       <c r="D456" s="174" t="s">
-        <v>950</v>
+        <v>895</v>
       </c>
       <c r="F456" s="14"/>
       <c r="G456" s="14"/>
       <c r="H456" s="14"/>
     </row>
-    <row r="457" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="457" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A457" s="7" t="s">
         <v>406</v>
       </c>
@@ -15345,13 +15340,13 @@
         <v>407</v>
       </c>
       <c r="D457" s="174" t="s">
-        <v>951</v>
+        <v>896</v>
       </c>
       <c r="F457" s="14"/>
       <c r="G457" s="14"/>
       <c r="H457" s="14"/>
     </row>
-    <row r="458" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="458" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A458" s="23" t="s">
         <v>408</v>
       </c>
@@ -15360,16 +15355,16 @@
         <v>0</v>
       </c>
       <c r="C458" s="41" t="s">
-        <v>667</v>
+        <v>620</v>
       </c>
       <c r="D458" s="174" t="s">
-        <v>952</v>
+        <v>897</v>
       </c>
       <c r="F458" s="14"/>
       <c r="G458" s="14"/>
       <c r="H458" s="14"/>
     </row>
-    <row r="459" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="459" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A459" s="23" t="s">
         <v>409</v>
       </c>
@@ -15381,13 +15376,13 @@
         <v>410</v>
       </c>
       <c r="D459" s="174" t="s">
-        <v>953</v>
+        <v>898</v>
       </c>
       <c r="F459" s="14"/>
       <c r="G459" s="14"/>
       <c r="H459" s="14"/>
     </row>
-    <row r="460" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="460" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A460" s="26" t="s">
         <v>411</v>
       </c>
@@ -15399,13 +15394,13 @@
         <v>412</v>
       </c>
       <c r="D460" s="174" t="s">
-        <v>954</v>
+        <v>899</v>
       </c>
       <c r="F460" s="14"/>
       <c r="G460" s="14"/>
       <c r="H460" s="14"/>
     </row>
-    <row r="461" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="461" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A461" s="23" t="s">
         <v>413</v>
       </c>
@@ -15414,16 +15409,16 @@
         <v>0</v>
       </c>
       <c r="C461" s="41" t="s">
-        <v>668</v>
+        <v>621</v>
       </c>
       <c r="D461" s="174" t="s">
-        <v>955</v>
+        <v>900</v>
       </c>
       <c r="F461" s="14"/>
       <c r="G461" s="14"/>
       <c r="H461" s="14"/>
     </row>
-    <row r="462" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="462" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A462" s="23" t="s">
         <v>414</v>
       </c>
@@ -15435,7 +15430,7 @@
         <v>415</v>
       </c>
       <c r="D462" s="174" t="s">
-        <v>956</v>
+        <v>901</v>
       </c>
       <c r="F462" s="14"/>
       <c r="G462" s="14"/>
@@ -15453,7 +15448,7 @@
         <v>417</v>
       </c>
       <c r="D463" s="174" t="s">
-        <v>957</v>
+        <v>902</v>
       </c>
       <c r="F463" s="14"/>
       <c r="G463" s="14"/>
@@ -15471,7 +15466,7 @@
         <v>147</v>
       </c>
       <c r="D464" s="174" t="s">
-        <v>958</v>
+        <v>903</v>
       </c>
       <c r="F464" s="14"/>
       <c r="G464" s="14"/>
@@ -15489,7 +15484,7 @@
         <v>149</v>
       </c>
       <c r="D465" s="174" t="s">
-        <v>959</v>
+        <v>904</v>
       </c>
       <c r="F465" s="14"/>
       <c r="G465" s="14"/>
@@ -15507,13 +15502,13 @@
         <v>151</v>
       </c>
       <c r="D466" s="174" t="s">
-        <v>960</v>
+        <v>905</v>
       </c>
       <c r="F466" s="14"/>
       <c r="G466" s="14"/>
       <c r="H466" s="14"/>
     </row>
-    <row r="467" spans="1:8" ht="25.05" hidden="1" customHeight="1">
+    <row r="467" spans="1:8" ht="25" hidden="1" customHeight="1">
       <c r="A467" s="7" t="s">
         <v>421</v>
       </c>
@@ -15525,13 +15520,13 @@
         <v>222</v>
       </c>
       <c r="D467" s="174" t="s">
-        <v>961</v>
+        <v>906</v>
       </c>
       <c r="F467" s="14"/>
       <c r="G467" s="14"/>
       <c r="H467" s="14"/>
     </row>
-    <row r="468" spans="1:8" ht="37.049999999999997" hidden="1" customHeight="1">
+    <row r="468" spans="1:8" ht="37" hidden="1" customHeight="1">
       <c r="A468" s="7" t="s">
         <v>422</v>
       </c>
@@ -15543,7 +15538,7 @@
         <v>155</v>
       </c>
       <c r="D468" s="174" t="s">
-        <v>962</v>
+        <v>907</v>
       </c>
       <c r="F468" s="14"/>
       <c r="G468" s="14"/>
@@ -15561,13 +15556,13 @@
         <v>157</v>
       </c>
       <c r="D469" s="174" t="s">
-        <v>963</v>
+        <v>908</v>
       </c>
       <c r="F469" s="14"/>
       <c r="G469" s="14"/>
       <c r="H469" s="14"/>
     </row>
-    <row r="470" spans="1:8" ht="58.05" hidden="1" customHeight="1">
+    <row r="470" spans="1:8" ht="58" hidden="1" customHeight="1">
       <c r="A470" s="7" t="s">
         <v>424</v>
       </c>
@@ -15579,7 +15574,7 @@
         <v>159</v>
       </c>
       <c r="D470" s="174" t="s">
-        <v>964</v>
+        <v>909</v>
       </c>
       <c r="F470" s="14"/>
       <c r="G470" s="14"/>
@@ -15597,7 +15592,7 @@
         <v>161</v>
       </c>
       <c r="D471" s="174" t="s">
-        <v>965</v>
+        <v>910</v>
       </c>
       <c r="F471" s="14"/>
       <c r="G471" s="14"/>
@@ -15615,7 +15610,7 @@
         <v>163</v>
       </c>
       <c r="D472" s="174" t="s">
-        <v>966</v>
+        <v>911</v>
       </c>
       <c r="F472" s="14"/>
       <c r="G472" s="14"/>
@@ -15633,7 +15628,7 @@
         <v>165</v>
       </c>
       <c r="D473" s="174" t="s">
-        <v>967</v>
+        <v>912</v>
       </c>
       <c r="F473" s="14"/>
       <c r="G473" s="14"/>
@@ -15651,7 +15646,7 @@
         <v>167</v>
       </c>
       <c r="D474" s="174" t="s">
-        <v>968</v>
+        <v>913</v>
       </c>
       <c r="F474" s="14"/>
       <c r="G474" s="14"/>
@@ -15669,13 +15664,13 @@
         <v>169</v>
       </c>
       <c r="D475" s="174" t="s">
-        <v>969</v>
+        <v>914</v>
       </c>
       <c r="F475" s="14"/>
       <c r="G475" s="14"/>
       <c r="H475" s="14"/>
     </row>
-    <row r="476" spans="1:8" ht="37.049999999999997" hidden="1" customHeight="1">
+    <row r="476" spans="1:8" ht="37" hidden="1" customHeight="1">
       <c r="A476" s="7" t="s">
         <v>430</v>
       </c>
@@ -15687,13 +15682,13 @@
         <v>171</v>
       </c>
       <c r="D476" s="174" t="s">
-        <v>970</v>
+        <v>915</v>
       </c>
       <c r="F476" s="14"/>
       <c r="G476" s="14"/>
       <c r="H476" s="14"/>
     </row>
-    <row r="477" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="477" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A477" s="7" t="s">
         <v>431</v>
       </c>
@@ -15705,13 +15700,13 @@
         <v>173</v>
       </c>
       <c r="D477" s="174" t="s">
-        <v>971</v>
+        <v>916</v>
       </c>
       <c r="F477" s="14"/>
       <c r="G477" s="14"/>
       <c r="H477" s="14"/>
     </row>
-    <row r="478" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="478" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A478" s="7" t="s">
         <v>432</v>
       </c>
@@ -15723,13 +15718,13 @@
         <v>175</v>
       </c>
       <c r="D478" s="174" t="s">
-        <v>972</v>
+        <v>917</v>
       </c>
       <c r="F478" s="14"/>
       <c r="G478" s="14"/>
       <c r="H478" s="14"/>
     </row>
-    <row r="479" spans="1:8" ht="19.95" hidden="1" customHeight="1">
+    <row r="479" spans="1:8" ht="20" hidden="1" customHeight="1">
       <c r="A479" s="7" t="s">
         <v>433</v>
       </c>
@@ -15741,7 +15736,7 @@
         <v>161</v>
       </c>
       <c r="D479" s="174" t="s">
-        <v>973</v>
+        <v>918</v>
       </c>
       <c r="F479" s="14"/>
       <c r="G479" s="14"/>
@@ -15801,6 +15796,21 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="31">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A125:B125"/>
     <mergeCell ref="A213:B213"/>
     <mergeCell ref="A218:B218"/>
     <mergeCell ref="A228:B228"/>
@@ -15817,28 +15827,13 @@
     <mergeCell ref="A188:B188"/>
     <mergeCell ref="A195:B195"/>
     <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A36" location="'Move or Copy'!A1" display="Link to Move or Copy"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="61" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="61" fitToHeight="0" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C
 ©National Higher Educational Benchmarking Institute
@@ -15855,7 +15850,7 @@
     <brk id="227" max="2" man="1"/>
     <brk id="248" max="2" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -15866,7 +15861,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
   <dimension ref="A1:Y36"/>
@@ -15875,46 +15870,46 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" style="59" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" style="59" customWidth="1"/>
     <col min="2" max="3" width="20.6640625" style="59" customWidth="1"/>
-    <col min="4" max="4" width="63.44140625" style="59" customWidth="1"/>
-    <col min="5" max="5" width="3.44140625" style="59" customWidth="1"/>
-    <col min="6" max="6" width="78.109375" style="59" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="59"/>
+    <col min="4" max="4" width="63.5" style="59" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="59" customWidth="1"/>
+    <col min="6" max="6" width="78.1640625" style="59" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.45" customHeight="1">
-      <c r="A1" s="242" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.5" customHeight="1">
+      <c r="A1" s="246" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:25" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A2" s="244"/>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
+      <c r="A2" s="248"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="248"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:25" s="11" customFormat="1" ht="26.4" customHeight="1">
-      <c r="A3" s="247" t="s">
+    <row r="3" spans="1:25" s="11" customFormat="1" ht="26.5" customHeight="1">
+      <c r="A3" s="251" t="s">
         <v>529</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="248"/>
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.45" customHeight="1">
+    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.5" customHeight="1">
       <c r="A4" s="152" t="s">
         <v>434</v>
       </c>
@@ -15925,13 +15920,13 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:25" s="151" customFormat="1" ht="23.4" customHeight="1">
-      <c r="A5" s="257" t="s">
-        <v>670</v>
-      </c>
-      <c r="B5" s="258"/>
-      <c r="C5" s="258"/>
-      <c r="D5" s="258"/>
+    <row r="5" spans="1:25" s="151" customFormat="1" ht="23.5" customHeight="1">
+      <c r="A5" s="261" t="s">
+        <v>623</v>
+      </c>
+      <c r="B5" s="262"/>
+      <c r="C5" s="262"/>
+      <c r="D5" s="262"/>
       <c r="E5" s="149"/>
       <c r="F5" s="150"/>
       <c r="G5" s="149"/>
@@ -15952,7 +15947,7 @@
       <c r="V5" s="149"/>
       <c r="W5" s="149"/>
     </row>
-    <row r="6" spans="1:25" ht="31.8" customHeight="1">
+    <row r="6" spans="1:25" ht="31.75" customHeight="1">
       <c r="A6" s="64" t="s">
         <v>512</v>
       </c>
@@ -15981,10 +15976,10 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
-      <c r="A7" s="255" t="s">
-        <v>986</v>
-      </c>
-      <c r="B7" s="254"/>
+      <c r="A7" s="259" t="s">
+        <v>931</v>
+      </c>
+      <c r="B7" s="258"/>
       <c r="C7" s="90"/>
       <c r="D7" s="118"/>
       <c r="E7" s="18"/>
@@ -16063,15 +16058,15 @@
       <c r="V9" s="121"/>
       <c r="W9" s="121"/>
     </row>
-    <row r="10" spans="1:25" ht="22.95" customHeight="1" thickBot="1">
+    <row r="10" spans="1:25" ht="23" customHeight="1" thickBot="1">
       <c r="A10" s="55"/>
       <c r="C10" s="52"/>
       <c r="D10" s="28"/>
       <c r="E10" s="21"/>
     </row>
-    <row r="11" spans="1:25" ht="19.95" customHeight="1" thickBot="1">
+    <row r="11" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A11" s="71" t="s">
-        <v>671</v>
+        <v>624</v>
       </c>
       <c r="B11" s="125"/>
       <c r="C11" s="83"/>
@@ -16079,12 +16074,12 @@
     </row>
     <row r="12" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="72" t="s">
-        <v>988</v>
+        <v>933</v>
       </c>
       <c r="B12" s="126"/>
       <c r="C12" s="128"/>
       <c r="D12" s="132" t="s">
-        <v>982</v>
+        <v>927</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
@@ -16094,12 +16089,12 @@
     </row>
     <row r="13" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A13" s="72" t="s">
-        <v>989</v>
+        <v>934</v>
       </c>
       <c r="B13" s="126"/>
       <c r="C13" s="217"/>
       <c r="D13" s="132" t="s">
-        <v>999</v>
+        <v>944</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
@@ -16109,12 +16104,12 @@
     </row>
     <row r="14" spans="1:25" ht="96" customHeight="1" thickBot="1">
       <c r="A14" s="72" t="s">
-        <v>979</v>
+        <v>924</v>
       </c>
       <c r="B14" s="126"/>
       <c r="C14" s="78"/>
       <c r="D14" s="132" t="s">
-        <v>993</v>
+        <v>938</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
@@ -16122,9 +16117,9 @@
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
     </row>
-    <row r="15" spans="1:25" ht="19.95" customHeight="1" thickBot="1">
+    <row r="15" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A15" s="71" t="s">
-        <v>674</v>
+        <v>627</v>
       </c>
       <c r="B15" s="125"/>
       <c r="C15" s="83"/>
@@ -16132,12 +16127,12 @@
     </row>
     <row r="16" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="72" t="s">
-        <v>988</v>
+        <v>933</v>
       </c>
       <c r="B16" s="126"/>
       <c r="C16" s="129"/>
       <c r="D16" s="132" t="s">
-        <v>987</v>
+        <v>932</v>
       </c>
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
@@ -16145,14 +16140,14 @@
       <c r="H16" s="41"/>
       <c r="I16" s="41"/>
     </row>
-    <row r="17" spans="1:24" ht="55.95" customHeight="1" thickBot="1">
+    <row r="17" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A17" s="73" t="s">
-        <v>989</v>
+        <v>934</v>
       </c>
       <c r="B17" s="126"/>
       <c r="C17" s="217"/>
       <c r="D17" s="132" t="s">
-        <v>998</v>
+        <v>943</v>
       </c>
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
@@ -16162,12 +16157,12 @@
     </row>
     <row r="18" spans="1:24" ht="96" customHeight="1" thickBot="1">
       <c r="A18" s="72" t="s">
-        <v>979</v>
+        <v>924</v>
       </c>
       <c r="B18" s="126"/>
       <c r="C18" s="78"/>
       <c r="D18" s="132" t="s">
-        <v>994</v>
+        <v>939</v>
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
@@ -16176,21 +16171,21 @@
       <c r="I18" s="41"/>
     </row>
     <row r="19" spans="1:24" s="131" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A19" s="259"/>
-      <c r="B19" s="260"/>
-      <c r="C19" s="260"/>
-      <c r="D19" s="260" t="s">
+      <c r="A19" s="263"/>
+      <c r="B19" s="264"/>
+      <c r="C19" s="264"/>
+      <c r="D19" s="264" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="130"/>
     </row>
     <row r="20" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A20" s="233" t="s">
+      <c r="A20" s="237" t="s">
         <v>517</v>
       </c>
-      <c r="B20" s="233"/>
-      <c r="C20" s="233"/>
-      <c r="D20" s="233"/>
+      <c r="B20" s="237"/>
+      <c r="C20" s="237"/>
+      <c r="D20" s="237"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -16239,11 +16234,11 @@
       <c r="W21" s="18"/>
     </row>
     <row r="22" spans="1:24" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="251" t="s">
-        <v>682</v>
-      </c>
-      <c r="B22" s="227"/>
-      <c r="C22" s="227"/>
+      <c r="A22" s="255" t="s">
+        <v>635</v>
+      </c>
+      <c r="B22" s="232"/>
+      <c r="C22" s="232"/>
       <c r="D22" s="137"/>
       <c r="E22" s="66"/>
       <c r="F22" s="66"/>
@@ -16292,14 +16287,14 @@
       <c r="W23" s="66"/>
       <c r="X23" s="66"/>
     </row>
-    <row r="24" spans="1:24" ht="16.2" customHeight="1">
+    <row r="24" spans="1:24" ht="16.25" customHeight="1">
       <c r="A24" s="134" t="s">
         <v>452</v>
       </c>
-      <c r="B24" s="256" t="s">
-        <v>699</v>
-      </c>
-      <c r="C24" s="256"/>
+      <c r="B24" s="260" t="s">
+        <v>652</v>
+      </c>
+      <c r="C24" s="260"/>
       <c r="D24" s="103"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -16324,10 +16319,10 @@
     <row r="25" spans="1:24" ht="33" customHeight="1">
       <c r="A25" s="138"/>
       <c r="B25" s="139" t="s">
-        <v>673</v>
+        <v>626</v>
       </c>
       <c r="C25" s="140" t="s">
-        <v>672</v>
+        <v>625</v>
       </c>
       <c r="D25" s="141" t="s">
         <v>452</v>
@@ -16356,7 +16351,7 @@
       </c>
       <c r="E27" s="21"/>
     </row>
-    <row r="28" spans="1:24" ht="24">
+    <row r="28" spans="1:24" ht="23">
       <c r="A28" s="145" t="s">
         <v>439</v>
       </c>
@@ -16367,18 +16362,18 @@
       </c>
       <c r="E28" s="21"/>
     </row>
-    <row r="29" spans="1:24" ht="24">
+    <row r="29" spans="1:24">
       <c r="A29" s="145" t="s">
         <v>441</v>
       </c>
       <c r="B29" s="144"/>
       <c r="C29" s="144"/>
       <c r="D29" s="142" t="s">
-        <v>680</v>
+        <v>633</v>
       </c>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:24" ht="34.200000000000003">
+    <row r="30" spans="1:24" ht="33">
       <c r="A30" s="145" t="s">
         <v>442</v>
       </c>
@@ -16401,7 +16396,7 @@
       </c>
       <c r="E31" s="21"/>
     </row>
-    <row r="32" spans="1:24" ht="35.4">
+    <row r="32" spans="1:24" ht="34">
       <c r="A32" s="145" t="s">
         <v>445</v>
       </c>
@@ -16412,7 +16407,7 @@
       </c>
       <c r="E32" s="21"/>
     </row>
-    <row r="33" spans="1:6" ht="35.4">
+    <row r="33" spans="1:6" ht="34">
       <c r="A33" s="145" t="s">
         <v>447</v>
       </c>
@@ -16451,10 +16446,10 @@
       <c r="F35" s="42"/>
     </row>
     <row r="36" spans="1:6" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A36" s="245"/>
-      <c r="B36" s="246"/>
-      <c r="C36" s="246"/>
-      <c r="D36" s="246"/>
+      <c r="A36" s="249"/>
+      <c r="B36" s="250"/>
+      <c r="C36" s="250"/>
+      <c r="D36" s="250"/>
       <c r="E36" s="10"/>
     </row>
   </sheetData>
@@ -16473,12 +16468,12 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" fitToHeight="2" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" fitToHeight="2" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C©National Higher Educational Benchmarking Institute
 Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -16489,7 +16484,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
   <dimension ref="A1:Y36"/>
@@ -16498,46 +16493,46 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" style="221" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" style="221" customWidth="1"/>
     <col min="2" max="3" width="20.6640625" style="221" customWidth="1"/>
-    <col min="4" max="4" width="63.44140625" style="221" customWidth="1"/>
-    <col min="5" max="5" width="3.44140625" style="221" customWidth="1"/>
-    <col min="6" max="6" width="78.109375" style="221" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="221"/>
+    <col min="4" max="4" width="63.5" style="221" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="221" customWidth="1"/>
+    <col min="6" max="6" width="78.1640625" style="221" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="221"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.45" customHeight="1">
-      <c r="A1" s="242" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.5" customHeight="1">
+      <c r="A1" s="246" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:25" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A2" s="244"/>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
+      <c r="A2" s="248"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="248"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:25" s="11" customFormat="1" ht="26.4" customHeight="1">
-      <c r="A3" s="247" t="s">
+    <row r="3" spans="1:25" s="11" customFormat="1" ht="26.5" customHeight="1">
+      <c r="A3" s="251" t="s">
         <v>529</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="248"/>
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.45" customHeight="1">
+    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.5" customHeight="1">
       <c r="A4" s="152" t="s">
         <v>434</v>
       </c>
@@ -16549,12 +16544,12 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:25" s="151" customFormat="1" ht="21" customHeight="1">
-      <c r="A5" s="257" t="s">
-        <v>670</v>
-      </c>
-      <c r="B5" s="258"/>
-      <c r="C5" s="258"/>
-      <c r="D5" s="258"/>
+      <c r="A5" s="261" t="s">
+        <v>623</v>
+      </c>
+      <c r="B5" s="262"/>
+      <c r="C5" s="262"/>
+      <c r="D5" s="262"/>
       <c r="E5" s="149"/>
       <c r="F5" s="150"/>
       <c r="G5" s="149"/>
@@ -16604,10 +16599,10 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
-      <c r="A7" s="255" t="s">
-        <v>986</v>
-      </c>
-      <c r="B7" s="254"/>
+      <c r="A7" s="259" t="s">
+        <v>931</v>
+      </c>
+      <c r="B7" s="258"/>
       <c r="C7" s="90"/>
       <c r="D7" s="118"/>
       <c r="E7" s="18"/>
@@ -16686,15 +16681,15 @@
       <c r="V9" s="121"/>
       <c r="W9" s="121"/>
     </row>
-    <row r="10" spans="1:25" ht="22.95" customHeight="1" thickBot="1">
+    <row r="10" spans="1:25" ht="23" customHeight="1" thickBot="1">
       <c r="A10" s="55"/>
       <c r="C10" s="52"/>
       <c r="D10" s="28"/>
       <c r="E10" s="21"/>
     </row>
-    <row r="11" spans="1:25" ht="19.95" customHeight="1" thickBot="1">
+    <row r="11" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A11" s="71" t="s">
-        <v>671</v>
+        <v>624</v>
       </c>
       <c r="B11" s="125"/>
       <c r="C11" s="83"/>
@@ -16702,12 +16697,12 @@
     </row>
     <row r="12" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="72" t="s">
-        <v>988</v>
+        <v>933</v>
       </c>
       <c r="B12" s="126"/>
       <c r="C12" s="128"/>
       <c r="D12" s="132" t="s">
-        <v>982</v>
+        <v>927</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
@@ -16717,12 +16712,12 @@
     </row>
     <row r="13" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A13" s="72" t="s">
-        <v>989</v>
+        <v>934</v>
       </c>
       <c r="B13" s="126"/>
       <c r="C13" s="217"/>
       <c r="D13" s="132" t="s">
-        <v>999</v>
+        <v>944</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
@@ -16732,12 +16727,12 @@
     </row>
     <row r="14" spans="1:25" ht="96" customHeight="1" thickBot="1">
       <c r="A14" s="72" t="s">
-        <v>979</v>
+        <v>924</v>
       </c>
       <c r="B14" s="126"/>
       <c r="C14" s="78"/>
       <c r="D14" s="132" t="s">
-        <v>993</v>
+        <v>938</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
@@ -16745,9 +16740,9 @@
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
     </row>
-    <row r="15" spans="1:25" ht="19.95" customHeight="1" thickBot="1">
+    <row r="15" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A15" s="71" t="s">
-        <v>674</v>
+        <v>627</v>
       </c>
       <c r="B15" s="125"/>
       <c r="C15" s="83"/>
@@ -16755,12 +16750,12 @@
     </row>
     <row r="16" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="72" t="s">
-        <v>988</v>
+        <v>933</v>
       </c>
       <c r="B16" s="126"/>
       <c r="C16" s="129"/>
       <c r="D16" s="132" t="s">
-        <v>987</v>
+        <v>932</v>
       </c>
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
@@ -16768,14 +16763,14 @@
       <c r="H16" s="41"/>
       <c r="I16" s="41"/>
     </row>
-    <row r="17" spans="1:24" ht="55.95" customHeight="1" thickBot="1">
+    <row r="17" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A17" s="73" t="s">
-        <v>989</v>
+        <v>934</v>
       </c>
       <c r="B17" s="126"/>
       <c r="C17" s="217"/>
       <c r="D17" s="132" t="s">
-        <v>998</v>
+        <v>943</v>
       </c>
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
@@ -16785,12 +16780,12 @@
     </row>
     <row r="18" spans="1:24" ht="96" customHeight="1" thickBot="1">
       <c r="A18" s="72" t="s">
-        <v>979</v>
+        <v>924</v>
       </c>
       <c r="B18" s="126"/>
       <c r="C18" s="78"/>
       <c r="D18" s="132" t="s">
-        <v>994</v>
+        <v>939</v>
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
@@ -16799,21 +16794,21 @@
       <c r="I18" s="41"/>
     </row>
     <row r="19" spans="1:24" s="131" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A19" s="259"/>
-      <c r="B19" s="260"/>
-      <c r="C19" s="260"/>
-      <c r="D19" s="260" t="s">
+      <c r="A19" s="263"/>
+      <c r="B19" s="264"/>
+      <c r="C19" s="264"/>
+      <c r="D19" s="264" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="130"/>
     </row>
     <row r="20" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A20" s="233" t="s">
+      <c r="A20" s="237" t="s">
         <v>517</v>
       </c>
-      <c r="B20" s="233"/>
-      <c r="C20" s="233"/>
-      <c r="D20" s="233"/>
+      <c r="B20" s="237"/>
+      <c r="C20" s="237"/>
+      <c r="D20" s="237"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -16862,11 +16857,11 @@
       <c r="W21" s="18"/>
     </row>
     <row r="22" spans="1:24" s="223" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="251" t="s">
-        <v>682</v>
-      </c>
-      <c r="B22" s="227"/>
-      <c r="C22" s="227"/>
+      <c r="A22" s="255" t="s">
+        <v>635</v>
+      </c>
+      <c r="B22" s="232"/>
+      <c r="C22" s="232"/>
       <c r="D22" s="137"/>
       <c r="E22" s="66"/>
       <c r="F22" s="66"/>
@@ -16915,14 +16910,14 @@
       <c r="W23" s="66"/>
       <c r="X23" s="66"/>
     </row>
-    <row r="24" spans="1:24" ht="16.2" customHeight="1">
+    <row r="24" spans="1:24" ht="16.25" customHeight="1">
       <c r="A24" s="134" t="s">
         <v>452</v>
       </c>
-      <c r="B24" s="256" t="s">
-        <v>699</v>
-      </c>
-      <c r="C24" s="256"/>
+      <c r="B24" s="260" t="s">
+        <v>652</v>
+      </c>
+      <c r="C24" s="260"/>
       <c r="D24" s="103"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -16947,10 +16942,10 @@
     <row r="25" spans="1:24" ht="33" customHeight="1">
       <c r="A25" s="138"/>
       <c r="B25" s="139" t="s">
-        <v>673</v>
+        <v>626</v>
       </c>
       <c r="C25" s="140" t="s">
-        <v>672</v>
+        <v>625</v>
       </c>
       <c r="D25" s="141" t="s">
         <v>452</v>
@@ -16979,7 +16974,7 @@
       </c>
       <c r="E27" s="21"/>
     </row>
-    <row r="28" spans="1:24" ht="24">
+    <row r="28" spans="1:24" ht="23">
       <c r="A28" s="145" t="s">
         <v>439</v>
       </c>
@@ -16990,18 +16985,18 @@
       </c>
       <c r="E28" s="21"/>
     </row>
-    <row r="29" spans="1:24" ht="24">
+    <row r="29" spans="1:24">
       <c r="A29" s="145" t="s">
         <v>441</v>
       </c>
       <c r="B29" s="144"/>
       <c r="C29" s="144"/>
       <c r="D29" s="142" t="s">
-        <v>680</v>
+        <v>633</v>
       </c>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:24" ht="34.200000000000003">
+    <row r="30" spans="1:24" ht="33">
       <c r="A30" s="145" t="s">
         <v>442</v>
       </c>
@@ -17024,7 +17019,7 @@
       </c>
       <c r="E31" s="21"/>
     </row>
-    <row r="32" spans="1:24" ht="35.4">
+    <row r="32" spans="1:24" ht="34">
       <c r="A32" s="145" t="s">
         <v>445</v>
       </c>
@@ -17035,7 +17030,7 @@
       </c>
       <c r="E32" s="21"/>
     </row>
-    <row r="33" spans="1:6" ht="35.4">
+    <row r="33" spans="1:6" ht="34">
       <c r="A33" s="145" t="s">
         <v>447</v>
       </c>
@@ -17074,10 +17069,10 @@
       <c r="F35" s="42"/>
     </row>
     <row r="36" spans="1:6" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A36" s="245"/>
-      <c r="B36" s="246"/>
-      <c r="C36" s="246"/>
-      <c r="D36" s="246"/>
+      <c r="A36" s="249"/>
+      <c r="B36" s="250"/>
+      <c r="C36" s="250"/>
+      <c r="D36" s="250"/>
       <c r="E36" s="10"/>
     </row>
   </sheetData>
@@ -17096,12 +17091,12 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" fitToHeight="2" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" fitToHeight="2" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C©National Higher Educational Benchmarking Institute
 Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -17118,18 +17113,18 @@
       <selection activeCell="A66" sqref="A1:Q66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="8.77734375" style="159"/>
+    <col min="1" max="16384" width="8.83203125" style="159"/>
   </cols>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="51" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="51" orientation="portrait"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="20" max="56" man="1"/>
   </colBreaks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -17146,22 +17141,22 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" customWidth="1"/>
     <col min="2" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="63.44140625" customWidth="1"/>
-    <col min="5" max="5" width="3.44140625" customWidth="1"/>
-    <col min="6" max="6" width="78.109375" customWidth="1"/>
+    <col min="4" max="4" width="63.5" customWidth="1"/>
+    <col min="5" max="5" width="3.5" customWidth="1"/>
+    <col min="6" max="6" width="78.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="9" customFormat="1" ht="66.45" customHeight="1">
-      <c r="A1" s="242" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+    <row r="1" spans="1:25" s="9" customFormat="1" ht="66.5" customHeight="1">
+      <c r="A1" s="246" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="10"/>
@@ -17170,10 +17165,10 @@
       <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:25" s="9" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A2" s="244"/>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
+      <c r="A2" s="248"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="248"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -17182,16 +17177,16 @@
       <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:25" s="9" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="251" t="s">
         <v>529</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="248"/>
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="1:25" s="9" customFormat="1" ht="18.45" customHeight="1">
+    <row r="4" spans="1:25" s="9" customFormat="1" ht="18.5" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>434</v>
       </c>
@@ -17203,12 +17198,12 @@
       <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:25" ht="39" customHeight="1">
-      <c r="A5" s="234" t="s">
-        <v>669</v>
-      </c>
-      <c r="B5" s="236"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
+      <c r="A5" s="238" t="s">
+        <v>622</v>
+      </c>
+      <c r="B5" s="240"/>
+      <c r="C5" s="240"/>
+      <c r="D5" s="240"/>
       <c r="E5" s="3"/>
       <c r="F5" s="29"/>
       <c r="G5" s="3"/>
@@ -17229,13 +17224,13 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:25" s="163" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A6" s="231" t="s">
-        <v>698</v>
-      </c>
-      <c r="B6" s="249"/>
-      <c r="C6" s="249"/>
-      <c r="D6" s="250"/>
+    <row r="6" spans="1:25" s="163" customFormat="1" ht="28.75" customHeight="1">
+      <c r="A6" s="233" t="s">
+        <v>651</v>
+      </c>
+      <c r="B6" s="253"/>
+      <c r="C6" s="253"/>
+      <c r="D6" s="254"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
@@ -17258,10 +17253,10 @@
       <c r="X6" s="18"/>
     </row>
     <row r="7" spans="1:25" s="59" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A7" s="255" t="s">
-        <v>986</v>
-      </c>
-      <c r="B7" s="254"/>
+      <c r="A7" s="259" t="s">
+        <v>931</v>
+      </c>
+      <c r="B7" s="258"/>
       <c r="C7" s="90"/>
       <c r="D7" s="118"/>
       <c r="E7" s="18"/>
@@ -17340,15 +17335,15 @@
       <c r="V9" s="121"/>
       <c r="W9" s="121"/>
     </row>
-    <row r="10" spans="1:25" ht="22.95" customHeight="1" thickBot="1">
+    <row r="10" spans="1:25" ht="23" customHeight="1" thickBot="1">
       <c r="A10" s="55"/>
       <c r="C10" s="52"/>
       <c r="D10" s="28"/>
       <c r="E10" s="21"/>
     </row>
-    <row r="11" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
+    <row r="11" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A11" s="71" t="s">
-        <v>671</v>
+        <v>624</v>
       </c>
       <c r="B11" s="125"/>
       <c r="C11" s="83"/>
@@ -17358,12 +17353,12 @@
     </row>
     <row r="12" spans="1:25" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="72" t="s">
-        <v>988</v>
+        <v>933</v>
       </c>
       <c r="B12" s="126"/>
       <c r="C12" s="128"/>
       <c r="D12" s="132" t="s">
-        <v>982</v>
+        <v>927</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="14"/>
@@ -17373,12 +17368,12 @@
     </row>
     <row r="13" spans="1:25" s="1" customFormat="1" ht="48" customHeight="1" thickBot="1">
       <c r="A13" s="72" t="s">
-        <v>989</v>
+        <v>934</v>
       </c>
       <c r="B13" s="126"/>
       <c r="C13" s="217"/>
       <c r="D13" s="171" t="s">
-        <v>999</v>
+        <v>944</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="14"/>
@@ -17388,12 +17383,12 @@
     </row>
     <row r="14" spans="1:25" s="1" customFormat="1" ht="96" customHeight="1" thickBot="1">
       <c r="A14" s="169" t="s">
-        <v>979</v>
+        <v>924</v>
       </c>
       <c r="B14" s="126"/>
       <c r="C14" s="78"/>
       <c r="D14" s="171" t="s">
-        <v>993</v>
+        <v>938</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="13"/>
@@ -17401,9 +17396,9 @@
       <c r="H14" s="14"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
+    <row r="15" spans="1:25" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A15" s="71" t="s">
-        <v>674</v>
+        <v>627</v>
       </c>
       <c r="B15" s="125"/>
       <c r="C15" s="83"/>
@@ -17415,12 +17410,12 @@
     </row>
     <row r="16" spans="1:25" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="72" t="s">
-        <v>988</v>
+        <v>933</v>
       </c>
       <c r="B16" s="126"/>
       <c r="C16" s="129"/>
       <c r="D16" s="132" t="s">
-        <v>983</v>
+        <v>928</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="14"/>
@@ -17430,12 +17425,12 @@
     </row>
     <row r="17" spans="1:24" s="1" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
       <c r="A17" s="72" t="s">
-        <v>989</v>
+        <v>934</v>
       </c>
       <c r="B17" s="126"/>
       <c r="C17" s="127"/>
       <c r="D17" s="171" t="s">
-        <v>998</v>
+        <v>943</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="14"/>
@@ -17445,12 +17440,12 @@
     </row>
     <row r="18" spans="1:24" s="1" customFormat="1" ht="96" customHeight="1" thickBot="1">
       <c r="A18" s="169" t="s">
-        <v>979</v>
+        <v>924</v>
       </c>
       <c r="B18" s="126"/>
       <c r="C18" s="63"/>
       <c r="D18" s="132" t="s">
-        <v>992</v>
+        <v>937</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -17459,20 +17454,20 @@
       <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:24" s="11" customFormat="1" ht="6" customHeight="1">
-      <c r="A19" s="253"/>
-      <c r="B19" s="254"/>
-      <c r="C19" s="254"/>
-      <c r="D19" s="254"/>
+      <c r="A19" s="257"/>
+      <c r="B19" s="258"/>
+      <c r="C19" s="258"/>
+      <c r="D19" s="258"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A20" s="233" t="s">
+      <c r="A20" s="237" t="s">
         <v>517</v>
       </c>
-      <c r="B20" s="233"/>
-      <c r="C20" s="233"/>
-      <c r="D20" s="233"/>
+      <c r="B20" s="237"/>
+      <c r="C20" s="237"/>
+      <c r="D20" s="237"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -17521,11 +17516,11 @@
       <c r="W21" s="18"/>
     </row>
     <row r="22" spans="1:24" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="251" t="s">
-        <v>682</v>
-      </c>
-      <c r="B22" s="227"/>
-      <c r="C22" s="227"/>
+      <c r="A22" s="255" t="s">
+        <v>635</v>
+      </c>
+      <c r="B22" s="232"/>
+      <c r="C22" s="232"/>
       <c r="D22" s="137"/>
       <c r="E22" s="66"/>
       <c r="F22" s="66"/>
@@ -17574,14 +17569,14 @@
       <c r="W23" s="66"/>
       <c r="X23" s="66"/>
     </row>
-    <row r="24" spans="1:24" ht="16.2" customHeight="1">
+    <row r="24" spans="1:24" ht="16.25" customHeight="1">
       <c r="A24" s="134" t="s">
         <v>452</v>
       </c>
-      <c r="B24" s="252" t="s">
-        <v>699</v>
-      </c>
-      <c r="C24" s="252"/>
+      <c r="B24" s="256" t="s">
+        <v>652</v>
+      </c>
+      <c r="C24" s="256"/>
       <c r="D24" s="103"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -17606,10 +17601,10 @@
     <row r="25" spans="1:24" s="20" customFormat="1" ht="33" customHeight="1">
       <c r="A25" s="138"/>
       <c r="B25" s="139" t="s">
-        <v>673</v>
+        <v>626</v>
       </c>
       <c r="C25" s="140" t="s">
-        <v>672</v>
+        <v>625</v>
       </c>
       <c r="D25" s="141" t="s">
         <v>452</v>
@@ -17659,12 +17654,12 @@
       <c r="B29" s="144"/>
       <c r="C29" s="144"/>
       <c r="D29" s="142" t="s">
-        <v>680</v>
+        <v>633</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:24" ht="34.200000000000003">
+    <row r="30" spans="1:24" ht="33">
       <c r="A30" s="145" t="s">
         <v>442</v>
       </c>
@@ -17688,7 +17683,7 @@
       <c r="E31" s="21"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:24" ht="35.4">
+    <row r="32" spans="1:24" ht="34">
       <c r="A32" s="145" t="s">
         <v>445</v>
       </c>
@@ -17700,7 +17695,7 @@
       <c r="E32" s="21"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" ht="35.4">
+    <row r="33" spans="1:6" ht="34">
       <c r="A33" s="145" t="s">
         <v>447</v>
       </c>
@@ -17730,7 +17725,7 @@
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
     </row>
-    <row r="35" spans="1:6" s="59" customFormat="1" ht="13.05" customHeight="1">
+    <row r="35" spans="1:6" s="59" customFormat="1" ht="13" customHeight="1">
       <c r="A35" s="145"/>
       <c r="B35" s="147"/>
       <c r="C35" s="147"/>
@@ -17739,10 +17734,10 @@
       <c r="F35" s="42"/>
     </row>
     <row r="36" spans="1:6" s="9" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A36" s="245"/>
-      <c r="B36" s="246"/>
-      <c r="C36" s="246"/>
-      <c r="D36" s="246"/>
+      <c r="A36" s="249"/>
+      <c r="B36" s="250"/>
+      <c r="C36" s="250"/>
+      <c r="D36" s="250"/>
       <c r="E36" s="10"/>
       <c r="F36" s="11"/>
     </row>
@@ -18064,12 +18059,12 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" fitToHeight="2" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" fitToHeight="2" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C©National Higher Educational Benchmarking Institute
 Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -18086,46 +18081,46 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" style="59" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" style="59" customWidth="1"/>
     <col min="2" max="3" width="20.6640625" style="59" customWidth="1"/>
-    <col min="4" max="4" width="63.44140625" style="59" customWidth="1"/>
-    <col min="5" max="5" width="3.44140625" style="59" customWidth="1"/>
-    <col min="6" max="6" width="78.109375" style="59" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="59"/>
+    <col min="4" max="4" width="63.5" style="59" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="59" customWidth="1"/>
+    <col min="6" max="6" width="78.1640625" style="59" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.45" customHeight="1">
-      <c r="A1" s="242" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.5" customHeight="1">
+      <c r="A1" s="246" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:25" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A2" s="244"/>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
+      <c r="A2" s="248"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="248"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:25" s="11" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="251" t="s">
         <v>529</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="248"/>
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.45" customHeight="1">
+    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.5" customHeight="1">
       <c r="A4" s="152" t="s">
         <v>434</v>
       </c>
@@ -18137,12 +18132,12 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:25" s="151" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="257" t="s">
-        <v>670</v>
-      </c>
-      <c r="B5" s="258"/>
-      <c r="C5" s="258"/>
-      <c r="D5" s="258"/>
+      <c r="A5" s="261" t="s">
+        <v>623</v>
+      </c>
+      <c r="B5" s="262"/>
+      <c r="C5" s="262"/>
+      <c r="D5" s="262"/>
       <c r="E5" s="149"/>
       <c r="F5" s="150"/>
       <c r="G5" s="149"/>
@@ -18163,7 +18158,7 @@
       <c r="V5" s="149"/>
       <c r="W5" s="149"/>
     </row>
-    <row r="6" spans="1:25" ht="28.8" customHeight="1">
+    <row r="6" spans="1:25" ht="28.75" customHeight="1">
       <c r="A6" s="64" t="s">
         <v>512</v>
       </c>
@@ -18192,10 +18187,10 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
-      <c r="A7" s="255" t="s">
-        <v>986</v>
-      </c>
-      <c r="B7" s="254"/>
+      <c r="A7" s="259" t="s">
+        <v>931</v>
+      </c>
+      <c r="B7" s="258"/>
       <c r="C7" s="90"/>
       <c r="D7" s="118"/>
       <c r="E7" s="18"/>
@@ -18274,15 +18269,15 @@
       <c r="V9" s="121"/>
       <c r="W9" s="121"/>
     </row>
-    <row r="10" spans="1:25" ht="22.95" customHeight="1" thickBot="1">
+    <row r="10" spans="1:25" ht="23" customHeight="1" thickBot="1">
       <c r="A10" s="55"/>
       <c r="C10" s="52"/>
       <c r="D10" s="28"/>
       <c r="E10" s="21"/>
     </row>
-    <row r="11" spans="1:25" ht="19.95" customHeight="1" thickBot="1">
+    <row r="11" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A11" s="71" t="s">
-        <v>671</v>
+        <v>624</v>
       </c>
       <c r="B11" s="125"/>
       <c r="C11" s="83"/>
@@ -18290,12 +18285,12 @@
     </row>
     <row r="12" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="72" t="s">
-        <v>988</v>
+        <v>933</v>
       </c>
       <c r="B12" s="126"/>
       <c r="C12" s="128"/>
       <c r="D12" s="132" t="s">
-        <v>982</v>
+        <v>927</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
@@ -18305,12 +18300,12 @@
     </row>
     <row r="13" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A13" s="73" t="s">
-        <v>989</v>
+        <v>934</v>
       </c>
       <c r="B13" s="126"/>
       <c r="C13" s="217"/>
       <c r="D13" s="171" t="s">
-        <v>999</v>
+        <v>944</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
@@ -18320,12 +18315,12 @@
     </row>
     <row r="14" spans="1:25" ht="96" customHeight="1" thickBot="1">
       <c r="A14" s="72" t="s">
-        <v>979</v>
+        <v>924</v>
       </c>
       <c r="B14" s="126"/>
       <c r="C14" s="78"/>
       <c r="D14" s="171" t="s">
-        <v>993</v>
+        <v>938</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
@@ -18333,9 +18328,9 @@
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
     </row>
-    <row r="15" spans="1:25" ht="19.95" customHeight="1" thickBot="1">
+    <row r="15" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A15" s="71" t="s">
-        <v>674</v>
+        <v>627</v>
       </c>
       <c r="B15" s="125"/>
       <c r="C15" s="83"/>
@@ -18343,12 +18338,12 @@
     </row>
     <row r="16" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="72" t="s">
-        <v>988</v>
+        <v>933</v>
       </c>
       <c r="B16" s="126"/>
       <c r="C16" s="129"/>
       <c r="D16" s="132" t="s">
-        <v>987</v>
+        <v>932</v>
       </c>
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
@@ -18356,14 +18351,14 @@
       <c r="H16" s="41"/>
       <c r="I16" s="41"/>
     </row>
-    <row r="17" spans="1:24" ht="55.95" customHeight="1" thickBot="1">
+    <row r="17" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A17" s="73" t="s">
-        <v>989</v>
+        <v>934</v>
       </c>
       <c r="B17" s="126"/>
       <c r="C17" s="217"/>
       <c r="D17" s="171" t="s">
-        <v>998</v>
+        <v>943</v>
       </c>
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
@@ -18373,12 +18368,12 @@
     </row>
     <row r="18" spans="1:24" ht="96" customHeight="1" thickBot="1">
       <c r="A18" s="72" t="s">
-        <v>979</v>
+        <v>924</v>
       </c>
       <c r="B18" s="126"/>
       <c r="C18" s="78"/>
       <c r="D18" s="132" t="s">
-        <v>994</v>
+        <v>939</v>
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
@@ -18387,21 +18382,21 @@
       <c r="I18" s="41"/>
     </row>
     <row r="19" spans="1:24" s="131" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A19" s="259"/>
-      <c r="B19" s="260"/>
-      <c r="C19" s="260"/>
-      <c r="D19" s="260" t="s">
+      <c r="A19" s="263"/>
+      <c r="B19" s="264"/>
+      <c r="C19" s="264"/>
+      <c r="D19" s="264" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="130"/>
     </row>
     <row r="20" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A20" s="233" t="s">
+      <c r="A20" s="237" t="s">
         <v>517</v>
       </c>
-      <c r="B20" s="233"/>
-      <c r="C20" s="233"/>
-      <c r="D20" s="233"/>
+      <c r="B20" s="237"/>
+      <c r="C20" s="237"/>
+      <c r="D20" s="237"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -18450,11 +18445,11 @@
       <c r="W21" s="18"/>
     </row>
     <row r="22" spans="1:24" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="251" t="s">
-        <v>682</v>
-      </c>
-      <c r="B22" s="227"/>
-      <c r="C22" s="227"/>
+      <c r="A22" s="255" t="s">
+        <v>635</v>
+      </c>
+      <c r="B22" s="232"/>
+      <c r="C22" s="232"/>
       <c r="D22" s="137"/>
       <c r="E22" s="66"/>
       <c r="F22" s="66"/>
@@ -18503,14 +18498,14 @@
       <c r="W23" s="66"/>
       <c r="X23" s="66"/>
     </row>
-    <row r="24" spans="1:24" ht="16.2" customHeight="1">
+    <row r="24" spans="1:24" ht="16.25" customHeight="1">
       <c r="A24" s="134" t="s">
         <v>452</v>
       </c>
-      <c r="B24" s="256" t="s">
-        <v>699</v>
-      </c>
-      <c r="C24" s="256"/>
+      <c r="B24" s="260" t="s">
+        <v>652</v>
+      </c>
+      <c r="C24" s="260"/>
       <c r="D24" s="103"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -18535,10 +18530,10 @@
     <row r="25" spans="1:24" ht="33" customHeight="1">
       <c r="A25" s="138"/>
       <c r="B25" s="139" t="s">
-        <v>673</v>
+        <v>626</v>
       </c>
       <c r="C25" s="140" t="s">
-        <v>672</v>
+        <v>625</v>
       </c>
       <c r="D25" s="141" t="s">
         <v>452</v>
@@ -18578,18 +18573,18 @@
       </c>
       <c r="E28" s="21"/>
     </row>
-    <row r="29" spans="1:24" ht="24">
+    <row r="29" spans="1:24">
       <c r="A29" s="145" t="s">
         <v>441</v>
       </c>
       <c r="B29" s="144"/>
       <c r="C29" s="144"/>
       <c r="D29" s="142" t="s">
-        <v>681</v>
+        <v>634</v>
       </c>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:24" ht="34.200000000000003">
+    <row r="30" spans="1:24" ht="33">
       <c r="A30" s="145" t="s">
         <v>442</v>
       </c>
@@ -18612,7 +18607,7 @@
       </c>
       <c r="E31" s="21"/>
     </row>
-    <row r="32" spans="1:24" ht="35.4">
+    <row r="32" spans="1:24" ht="34">
       <c r="A32" s="145" t="s">
         <v>445</v>
       </c>
@@ -18623,7 +18618,7 @@
       </c>
       <c r="E32" s="21"/>
     </row>
-    <row r="33" spans="1:6" ht="35.4">
+    <row r="33" spans="1:6" ht="34">
       <c r="A33" s="145" t="s">
         <v>447</v>
       </c>
@@ -18662,10 +18657,10 @@
       <c r="F35" s="42"/>
     </row>
     <row r="36" spans="1:6" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A36" s="245"/>
-      <c r="B36" s="246"/>
-      <c r="C36" s="246"/>
-      <c r="D36" s="246"/>
+      <c r="A36" s="249"/>
+      <c r="B36" s="250"/>
+      <c r="C36" s="250"/>
+      <c r="D36" s="250"/>
       <c r="E36" s="10"/>
     </row>
   </sheetData>
@@ -18684,12 +18679,12 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" fitToHeight="2" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" fitToHeight="2" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C©National Higher Educational Benchmarking Institute
 Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -18706,46 +18701,46 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" style="59" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" style="59" customWidth="1"/>
     <col min="2" max="3" width="20.6640625" style="59" customWidth="1"/>
-    <col min="4" max="4" width="63.44140625" style="59" customWidth="1"/>
-    <col min="5" max="5" width="3.44140625" style="59" customWidth="1"/>
-    <col min="6" max="6" width="78.109375" style="59" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="59"/>
+    <col min="4" max="4" width="63.5" style="59" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="59" customWidth="1"/>
+    <col min="6" max="6" width="78.1640625" style="59" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.45" customHeight="1">
-      <c r="A1" s="242" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.5" customHeight="1">
+      <c r="A1" s="246" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:25" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A2" s="244"/>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
+      <c r="A2" s="248"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="248"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:25" s="11" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="251" t="s">
         <v>529</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="248"/>
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.45" customHeight="1">
+    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.5" customHeight="1">
       <c r="A4" s="152" t="s">
         <v>434</v>
       </c>
@@ -18757,12 +18752,12 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:25" s="151" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="257" t="s">
-        <v>670</v>
-      </c>
-      <c r="B5" s="258"/>
-      <c r="C5" s="258"/>
-      <c r="D5" s="258"/>
+      <c r="A5" s="261" t="s">
+        <v>623</v>
+      </c>
+      <c r="B5" s="262"/>
+      <c r="C5" s="262"/>
+      <c r="D5" s="262"/>
       <c r="E5" s="149"/>
       <c r="F5" s="150"/>
       <c r="G5" s="149"/>
@@ -18783,7 +18778,7 @@
       <c r="V5" s="149"/>
       <c r="W5" s="149"/>
     </row>
-    <row r="6" spans="1:25" ht="29.4" customHeight="1">
+    <row r="6" spans="1:25" ht="29.5" customHeight="1">
       <c r="A6" s="64" t="s">
         <v>512</v>
       </c>
@@ -18812,10 +18807,10 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
-      <c r="A7" s="255" t="s">
-        <v>986</v>
-      </c>
-      <c r="B7" s="254"/>
+      <c r="A7" s="259" t="s">
+        <v>931</v>
+      </c>
+      <c r="B7" s="258"/>
       <c r="C7" s="90"/>
       <c r="D7" s="118"/>
       <c r="E7" s="18"/>
@@ -18894,15 +18889,15 @@
       <c r="V9" s="121"/>
       <c r="W9" s="121"/>
     </row>
-    <row r="10" spans="1:25" ht="22.95" customHeight="1" thickBot="1">
+    <row r="10" spans="1:25" ht="23" customHeight="1" thickBot="1">
       <c r="A10" s="55"/>
       <c r="C10" s="52"/>
       <c r="D10" s="28"/>
       <c r="E10" s="21"/>
     </row>
-    <row r="11" spans="1:25" ht="19.95" customHeight="1" thickBot="1">
+    <row r="11" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A11" s="71" t="s">
-        <v>671</v>
+        <v>624</v>
       </c>
       <c r="B11" s="125"/>
       <c r="C11" s="83"/>
@@ -18910,12 +18905,12 @@
     </row>
     <row r="12" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="72" t="s">
-        <v>988</v>
+        <v>933</v>
       </c>
       <c r="B12" s="126"/>
       <c r="C12" s="128"/>
       <c r="D12" s="132" t="s">
-        <v>982</v>
+        <v>927</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
@@ -18925,12 +18920,12 @@
     </row>
     <row r="13" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A13" s="73" t="s">
-        <v>989</v>
+        <v>934</v>
       </c>
       <c r="B13" s="126"/>
       <c r="C13" s="217"/>
       <c r="D13" s="132" t="s">
-        <v>999</v>
+        <v>944</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
@@ -18940,12 +18935,12 @@
     </row>
     <row r="14" spans="1:25" ht="96" customHeight="1" thickBot="1">
       <c r="A14" s="72" t="s">
-        <v>979</v>
+        <v>924</v>
       </c>
       <c r="B14" s="126"/>
       <c r="C14" s="78"/>
       <c r="D14" s="132" t="s">
-        <v>993</v>
+        <v>938</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
@@ -18953,9 +18948,9 @@
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
     </row>
-    <row r="15" spans="1:25" ht="19.95" customHeight="1" thickBot="1">
+    <row r="15" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A15" s="71" t="s">
-        <v>674</v>
+        <v>627</v>
       </c>
       <c r="B15" s="125"/>
       <c r="C15" s="83"/>
@@ -18963,12 +18958,12 @@
     </row>
     <row r="16" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="72" t="s">
-        <v>988</v>
+        <v>933</v>
       </c>
       <c r="B16" s="126"/>
       <c r="C16" s="129"/>
       <c r="D16" s="132" t="s">
-        <v>987</v>
+        <v>932</v>
       </c>
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
@@ -18976,14 +18971,14 @@
       <c r="H16" s="41"/>
       <c r="I16" s="41"/>
     </row>
-    <row r="17" spans="1:24" ht="55.95" customHeight="1" thickBot="1">
+    <row r="17" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A17" s="73" t="s">
-        <v>989</v>
+        <v>934</v>
       </c>
       <c r="B17" s="126"/>
       <c r="C17" s="217"/>
       <c r="D17" s="132" t="s">
-        <v>998</v>
+        <v>943</v>
       </c>
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
@@ -18993,12 +18988,12 @@
     </row>
     <row r="18" spans="1:24" ht="96" customHeight="1" thickBot="1">
       <c r="A18" s="72" t="s">
-        <v>979</v>
+        <v>924</v>
       </c>
       <c r="B18" s="126"/>
       <c r="C18" s="78"/>
       <c r="D18" s="132" t="s">
-        <v>994</v>
+        <v>939</v>
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
@@ -19007,21 +19002,21 @@
       <c r="I18" s="41"/>
     </row>
     <row r="19" spans="1:24" s="131" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A19" s="259"/>
-      <c r="B19" s="260"/>
-      <c r="C19" s="260"/>
-      <c r="D19" s="260" t="s">
+      <c r="A19" s="263"/>
+      <c r="B19" s="264"/>
+      <c r="C19" s="264"/>
+      <c r="D19" s="264" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="130"/>
     </row>
     <row r="20" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A20" s="233" t="s">
+      <c r="A20" s="237" t="s">
         <v>517</v>
       </c>
-      <c r="B20" s="233"/>
-      <c r="C20" s="233"/>
-      <c r="D20" s="233"/>
+      <c r="B20" s="237"/>
+      <c r="C20" s="237"/>
+      <c r="D20" s="237"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -19070,11 +19065,11 @@
       <c r="W21" s="18"/>
     </row>
     <row r="22" spans="1:24" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="251" t="s">
-        <v>682</v>
-      </c>
-      <c r="B22" s="227"/>
-      <c r="C22" s="227"/>
+      <c r="A22" s="255" t="s">
+        <v>635</v>
+      </c>
+      <c r="B22" s="232"/>
+      <c r="C22" s="232"/>
       <c r="D22" s="137"/>
       <c r="E22" s="66"/>
       <c r="F22" s="66"/>
@@ -19123,14 +19118,14 @@
       <c r="W23" s="66"/>
       <c r="X23" s="66"/>
     </row>
-    <row r="24" spans="1:24" ht="16.2" customHeight="1">
+    <row r="24" spans="1:24" ht="16.25" customHeight="1">
       <c r="A24" s="134" t="s">
         <v>452</v>
       </c>
-      <c r="B24" s="256" t="s">
-        <v>699</v>
-      </c>
-      <c r="C24" s="256"/>
+      <c r="B24" s="260" t="s">
+        <v>652</v>
+      </c>
+      <c r="C24" s="260"/>
       <c r="D24" s="103"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -19155,10 +19150,10 @@
     <row r="25" spans="1:24" ht="33" customHeight="1">
       <c r="A25" s="138"/>
       <c r="B25" s="139" t="s">
-        <v>673</v>
+        <v>626</v>
       </c>
       <c r="C25" s="140" t="s">
-        <v>672</v>
+        <v>625</v>
       </c>
       <c r="D25" s="141" t="s">
         <v>452</v>
@@ -19187,7 +19182,7 @@
       </c>
       <c r="E27" s="21"/>
     </row>
-    <row r="28" spans="1:24" ht="24">
+    <row r="28" spans="1:24" ht="23">
       <c r="A28" s="145" t="s">
         <v>439</v>
       </c>
@@ -19198,18 +19193,18 @@
       </c>
       <c r="E28" s="21"/>
     </row>
-    <row r="29" spans="1:24" ht="24">
+    <row r="29" spans="1:24">
       <c r="A29" s="145" t="s">
         <v>441</v>
       </c>
       <c r="B29" s="144"/>
       <c r="C29" s="144"/>
       <c r="D29" s="142" t="s">
-        <v>681</v>
+        <v>634</v>
       </c>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:24" ht="34.200000000000003">
+    <row r="30" spans="1:24" ht="33">
       <c r="A30" s="145" t="s">
         <v>442</v>
       </c>
@@ -19232,7 +19227,7 @@
       </c>
       <c r="E31" s="21"/>
     </row>
-    <row r="32" spans="1:24" ht="35.4">
+    <row r="32" spans="1:24" ht="34">
       <c r="A32" s="145" t="s">
         <v>445</v>
       </c>
@@ -19243,7 +19238,7 @@
       </c>
       <c r="E32" s="21"/>
     </row>
-    <row r="33" spans="1:6" ht="35.4">
+    <row r="33" spans="1:6" ht="34">
       <c r="A33" s="145" t="s">
         <v>447</v>
       </c>
@@ -19282,10 +19277,10 @@
       <c r="F35" s="42"/>
     </row>
     <row r="36" spans="1:6" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A36" s="245"/>
-      <c r="B36" s="246"/>
-      <c r="C36" s="246"/>
-      <c r="D36" s="246"/>
+      <c r="A36" s="249"/>
+      <c r="B36" s="250"/>
+      <c r="C36" s="250"/>
+      <c r="D36" s="250"/>
       <c r="E36" s="10"/>
     </row>
   </sheetData>
@@ -19304,12 +19299,12 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" fitToHeight="2" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" fitToHeight="2" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C©National Higher Educational Benchmarking Institute
 Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -19326,46 +19321,46 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" style="59" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" style="59" customWidth="1"/>
     <col min="2" max="3" width="20.6640625" style="59" customWidth="1"/>
-    <col min="4" max="4" width="63.44140625" style="59" customWidth="1"/>
-    <col min="5" max="5" width="3.44140625" style="59" customWidth="1"/>
-    <col min="6" max="6" width="78.109375" style="59" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="59"/>
+    <col min="4" max="4" width="63.5" style="59" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="59" customWidth="1"/>
+    <col min="6" max="6" width="78.1640625" style="59" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.45" customHeight="1">
-      <c r="A1" s="242" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.5" customHeight="1">
+      <c r="A1" s="246" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:25" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A2" s="244"/>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
+      <c r="A2" s="248"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="248"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:25" s="11" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="251" t="s">
         <v>529</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="248"/>
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.45" customHeight="1">
+    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.5" customHeight="1">
       <c r="A4" s="152" t="s">
         <v>434</v>
       </c>
@@ -19376,13 +19371,13 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:25" s="151" customFormat="1" ht="25.2" customHeight="1">
-      <c r="A5" s="257" t="s">
-        <v>670</v>
-      </c>
-      <c r="B5" s="258"/>
-      <c r="C5" s="258"/>
-      <c r="D5" s="258"/>
+    <row r="5" spans="1:25" s="151" customFormat="1" ht="25.25" customHeight="1">
+      <c r="A5" s="261" t="s">
+        <v>623</v>
+      </c>
+      <c r="B5" s="262"/>
+      <c r="C5" s="262"/>
+      <c r="D5" s="262"/>
       <c r="E5" s="149"/>
       <c r="F5" s="150"/>
       <c r="G5" s="149"/>
@@ -19403,7 +19398,7 @@
       <c r="V5" s="149"/>
       <c r="W5" s="149"/>
     </row>
-    <row r="6" spans="1:25" ht="28.8" customHeight="1">
+    <row r="6" spans="1:25" ht="28.75" customHeight="1">
       <c r="A6" s="64" t="s">
         <v>512</v>
       </c>
@@ -19432,10 +19427,10 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
-      <c r="A7" s="255" t="s">
-        <v>986</v>
-      </c>
-      <c r="B7" s="254"/>
+      <c r="A7" s="259" t="s">
+        <v>931</v>
+      </c>
+      <c r="B7" s="258"/>
       <c r="C7" s="90"/>
       <c r="D7" s="118"/>
       <c r="E7" s="18"/>
@@ -19514,15 +19509,15 @@
       <c r="V9" s="121"/>
       <c r="W9" s="121"/>
     </row>
-    <row r="10" spans="1:25" ht="22.95" customHeight="1" thickBot="1">
+    <row r="10" spans="1:25" ht="23" customHeight="1" thickBot="1">
       <c r="A10" s="55"/>
       <c r="C10" s="52"/>
       <c r="D10" s="28"/>
       <c r="E10" s="21"/>
     </row>
-    <row r="11" spans="1:25" ht="19.95" customHeight="1" thickBot="1">
+    <row r="11" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A11" s="71" t="s">
-        <v>671</v>
+        <v>624</v>
       </c>
       <c r="B11" s="125"/>
       <c r="C11" s="83"/>
@@ -19530,12 +19525,12 @@
     </row>
     <row r="12" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="72" t="s">
-        <v>988</v>
+        <v>933</v>
       </c>
       <c r="B12" s="126"/>
       <c r="C12" s="128"/>
       <c r="D12" s="132" t="s">
-        <v>982</v>
+        <v>927</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
@@ -19545,12 +19540,12 @@
     </row>
     <row r="13" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A13" s="73" t="s">
-        <v>989</v>
+        <v>934</v>
       </c>
       <c r="B13" s="126"/>
       <c r="C13" s="217"/>
       <c r="D13" s="132" t="s">
-        <v>999</v>
+        <v>944</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
@@ -19560,12 +19555,12 @@
     </row>
     <row r="14" spans="1:25" ht="96" customHeight="1" thickBot="1">
       <c r="A14" s="72" t="s">
-        <v>979</v>
+        <v>924</v>
       </c>
       <c r="B14" s="126"/>
       <c r="C14" s="78"/>
       <c r="D14" s="132" t="s">
-        <v>993</v>
+        <v>938</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="41" t="s">
@@ -19575,9 +19570,9 @@
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
     </row>
-    <row r="15" spans="1:25" ht="19.95" customHeight="1" thickBot="1">
+    <row r="15" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A15" s="71" t="s">
-        <v>674</v>
+        <v>627</v>
       </c>
       <c r="B15" s="125"/>
       <c r="C15" s="83"/>
@@ -19585,12 +19580,12 @@
     </row>
     <row r="16" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="72" t="s">
-        <v>988</v>
+        <v>933</v>
       </c>
       <c r="B16" s="126"/>
       <c r="C16" s="129"/>
       <c r="D16" s="132" t="s">
-        <v>987</v>
+        <v>932</v>
       </c>
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
@@ -19598,14 +19593,14 @@
       <c r="H16" s="41"/>
       <c r="I16" s="41"/>
     </row>
-    <row r="17" spans="1:24" ht="55.95" customHeight="1" thickBot="1">
+    <row r="17" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A17" s="73" t="s">
-        <v>989</v>
+        <v>934</v>
       </c>
       <c r="B17" s="126"/>
       <c r="C17" s="217"/>
       <c r="D17" s="132" t="s">
-        <v>998</v>
+        <v>943</v>
       </c>
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
@@ -19615,12 +19610,12 @@
     </row>
     <row r="18" spans="1:24" ht="96" customHeight="1" thickBot="1">
       <c r="A18" s="72" t="s">
-        <v>979</v>
+        <v>924</v>
       </c>
       <c r="B18" s="126"/>
       <c r="C18" s="78"/>
       <c r="D18" s="132" t="s">
-        <v>994</v>
+        <v>939</v>
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
@@ -19629,21 +19624,21 @@
       <c r="I18" s="41"/>
     </row>
     <row r="19" spans="1:24" s="131" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A19" s="259"/>
-      <c r="B19" s="260"/>
-      <c r="C19" s="260"/>
-      <c r="D19" s="260" t="s">
+      <c r="A19" s="263"/>
+      <c r="B19" s="264"/>
+      <c r="C19" s="264"/>
+      <c r="D19" s="264" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="130"/>
     </row>
     <row r="20" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A20" s="233" t="s">
+      <c r="A20" s="237" t="s">
         <v>517</v>
       </c>
-      <c r="B20" s="233"/>
-      <c r="C20" s="233"/>
-      <c r="D20" s="233"/>
+      <c r="B20" s="237"/>
+      <c r="C20" s="237"/>
+      <c r="D20" s="237"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -19692,11 +19687,11 @@
       <c r="W21" s="18"/>
     </row>
     <row r="22" spans="1:24" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="251" t="s">
-        <v>682</v>
-      </c>
-      <c r="B22" s="227"/>
-      <c r="C22" s="227"/>
+      <c r="A22" s="255" t="s">
+        <v>635</v>
+      </c>
+      <c r="B22" s="232"/>
+      <c r="C22" s="232"/>
       <c r="D22" s="137"/>
       <c r="E22" s="66"/>
       <c r="F22" s="66"/>
@@ -19745,14 +19740,14 @@
       <c r="W23" s="66"/>
       <c r="X23" s="66"/>
     </row>
-    <row r="24" spans="1:24" ht="16.2" customHeight="1">
+    <row r="24" spans="1:24" ht="16.25" customHeight="1">
       <c r="A24" s="134" t="s">
         <v>452</v>
       </c>
-      <c r="B24" s="256" t="s">
-        <v>699</v>
-      </c>
-      <c r="C24" s="256"/>
+      <c r="B24" s="260" t="s">
+        <v>652</v>
+      </c>
+      <c r="C24" s="260"/>
       <c r="D24" s="103"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -19777,10 +19772,10 @@
     <row r="25" spans="1:24" ht="33" customHeight="1">
       <c r="A25" s="138"/>
       <c r="B25" s="139" t="s">
-        <v>673</v>
+        <v>626</v>
       </c>
       <c r="C25" s="140" t="s">
-        <v>672</v>
+        <v>625</v>
       </c>
       <c r="D25" s="141" t="s">
         <v>452</v>
@@ -19809,7 +19804,7 @@
       </c>
       <c r="E27" s="21"/>
     </row>
-    <row r="28" spans="1:24" ht="24">
+    <row r="28" spans="1:24" ht="23">
       <c r="A28" s="145" t="s">
         <v>439</v>
       </c>
@@ -19820,18 +19815,18 @@
       </c>
       <c r="E28" s="21"/>
     </row>
-    <row r="29" spans="1:24" ht="24">
+    <row r="29" spans="1:24">
       <c r="A29" s="145" t="s">
         <v>441</v>
       </c>
       <c r="B29" s="144"/>
       <c r="C29" s="144"/>
       <c r="D29" s="142" t="s">
-        <v>680</v>
+        <v>633</v>
       </c>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:24" ht="34.200000000000003">
+    <row r="30" spans="1:24" ht="33">
       <c r="A30" s="145" t="s">
         <v>442</v>
       </c>
@@ -19854,7 +19849,7 @@
       </c>
       <c r="E31" s="21"/>
     </row>
-    <row r="32" spans="1:24" ht="35.4">
+    <row r="32" spans="1:24" ht="34">
       <c r="A32" s="145" t="s">
         <v>445</v>
       </c>
@@ -19865,7 +19860,7 @@
       </c>
       <c r="E32" s="21"/>
     </row>
-    <row r="33" spans="1:6" ht="35.4">
+    <row r="33" spans="1:6" ht="34">
       <c r="A33" s="145" t="s">
         <v>447</v>
       </c>
@@ -19904,10 +19899,10 @@
       <c r="F35" s="42"/>
     </row>
     <row r="36" spans="1:6" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A36" s="245"/>
-      <c r="B36" s="246"/>
-      <c r="C36" s="246"/>
-      <c r="D36" s="246"/>
+      <c r="A36" s="249"/>
+      <c r="B36" s="250"/>
+      <c r="C36" s="250"/>
+      <c r="D36" s="250"/>
       <c r="E36" s="10"/>
     </row>
   </sheetData>
@@ -19926,12 +19921,12 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" fitToHeight="2" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" fitToHeight="2" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C©National Higher Educational Benchmarking Institute
 Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -19942,7 +19937,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
   <dimension ref="A1:Y36"/>
@@ -19951,46 +19946,46 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" style="59" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" style="59" customWidth="1"/>
     <col min="2" max="3" width="20.6640625" style="59" customWidth="1"/>
-    <col min="4" max="4" width="63.44140625" style="59" customWidth="1"/>
-    <col min="5" max="5" width="3.44140625" style="59" customWidth="1"/>
-    <col min="6" max="6" width="78.109375" style="59" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="59"/>
+    <col min="4" max="4" width="63.5" style="59" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="59" customWidth="1"/>
+    <col min="6" max="6" width="78.1640625" style="59" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.45" customHeight="1">
-      <c r="A1" s="242" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.5" customHeight="1">
+      <c r="A1" s="246" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:25" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A2" s="244"/>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
+      <c r="A2" s="248"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="248"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:25" s="11" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="251" t="s">
         <v>529</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="248"/>
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.45" customHeight="1">
+    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.5" customHeight="1">
       <c r="A4" s="152" t="s">
         <v>434</v>
       </c>
@@ -20002,12 +19997,12 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:25" s="151" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="257" t="s">
-        <v>670</v>
-      </c>
-      <c r="B5" s="258"/>
-      <c r="C5" s="258"/>
-      <c r="D5" s="258"/>
+      <c r="A5" s="261" t="s">
+        <v>623</v>
+      </c>
+      <c r="B5" s="262"/>
+      <c r="C5" s="262"/>
+      <c r="D5" s="262"/>
       <c r="E5" s="149"/>
       <c r="F5" s="150"/>
       <c r="G5" s="149"/>
@@ -20028,7 +20023,7 @@
       <c r="V5" s="149"/>
       <c r="W5" s="149"/>
     </row>
-    <row r="6" spans="1:25" ht="29.4" customHeight="1">
+    <row r="6" spans="1:25" ht="29.5" customHeight="1">
       <c r="A6" s="64" t="s">
         <v>512</v>
       </c>
@@ -20057,10 +20052,10 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
-      <c r="A7" s="255" t="s">
-        <v>986</v>
-      </c>
-      <c r="B7" s="254"/>
+      <c r="A7" s="259" t="s">
+        <v>931</v>
+      </c>
+      <c r="B7" s="258"/>
       <c r="C7" s="90"/>
       <c r="D7" s="118"/>
       <c r="E7" s="18"/>
@@ -20139,15 +20134,15 @@
       <c r="V9" s="121"/>
       <c r="W9" s="121"/>
     </row>
-    <row r="10" spans="1:25" ht="22.95" customHeight="1" thickBot="1">
+    <row r="10" spans="1:25" ht="23" customHeight="1" thickBot="1">
       <c r="A10" s="55"/>
       <c r="C10" s="52"/>
       <c r="D10" s="28"/>
       <c r="E10" s="21"/>
     </row>
-    <row r="11" spans="1:25" ht="19.95" customHeight="1" thickBot="1">
+    <row r="11" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A11" s="71" t="s">
-        <v>671</v>
+        <v>624</v>
       </c>
       <c r="B11" s="125"/>
       <c r="C11" s="83"/>
@@ -20155,12 +20150,12 @@
     </row>
     <row r="12" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="72" t="s">
-        <v>988</v>
+        <v>933</v>
       </c>
       <c r="B12" s="126"/>
       <c r="C12" s="128"/>
       <c r="D12" s="132" t="s">
-        <v>982</v>
+        <v>927</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
@@ -20170,12 +20165,12 @@
     </row>
     <row r="13" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A13" s="73" t="s">
-        <v>989</v>
+        <v>934</v>
       </c>
       <c r="B13" s="126"/>
       <c r="C13" s="217"/>
       <c r="D13" s="132" t="s">
-        <v>999</v>
+        <v>944</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
@@ -20185,12 +20180,12 @@
     </row>
     <row r="14" spans="1:25" ht="96" customHeight="1" thickBot="1">
       <c r="A14" s="72" t="s">
-        <v>979</v>
+        <v>924</v>
       </c>
       <c r="B14" s="126"/>
       <c r="C14" s="78"/>
       <c r="D14" s="132" t="s">
-        <v>993</v>
+        <v>938</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
@@ -20198,9 +20193,9 @@
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
     </row>
-    <row r="15" spans="1:25" ht="19.95" customHeight="1" thickBot="1">
+    <row r="15" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A15" s="71" t="s">
-        <v>674</v>
+        <v>627</v>
       </c>
       <c r="B15" s="125"/>
       <c r="C15" s="83"/>
@@ -20208,12 +20203,12 @@
     </row>
     <row r="16" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="72" t="s">
-        <v>988</v>
+        <v>933</v>
       </c>
       <c r="B16" s="126"/>
       <c r="C16" s="129"/>
       <c r="D16" s="132" t="s">
-        <v>987</v>
+        <v>932</v>
       </c>
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
@@ -20221,14 +20216,14 @@
       <c r="H16" s="41"/>
       <c r="I16" s="41"/>
     </row>
-    <row r="17" spans="1:24" ht="55.95" customHeight="1" thickBot="1">
+    <row r="17" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A17" s="73" t="s">
-        <v>989</v>
+        <v>934</v>
       </c>
       <c r="B17" s="126"/>
       <c r="C17" s="217"/>
       <c r="D17" s="132" t="s">
-        <v>998</v>
+        <v>943</v>
       </c>
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
@@ -20238,12 +20233,12 @@
     </row>
     <row r="18" spans="1:24" ht="96" customHeight="1" thickBot="1">
       <c r="A18" s="72" t="s">
-        <v>979</v>
+        <v>924</v>
       </c>
       <c r="B18" s="126"/>
       <c r="C18" s="78"/>
       <c r="D18" s="132" t="s">
-        <v>994</v>
+        <v>939</v>
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
@@ -20252,21 +20247,21 @@
       <c r="I18" s="41"/>
     </row>
     <row r="19" spans="1:24" s="131" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A19" s="259"/>
-      <c r="B19" s="260"/>
-      <c r="C19" s="260"/>
-      <c r="D19" s="260" t="s">
+      <c r="A19" s="263"/>
+      <c r="B19" s="264"/>
+      <c r="C19" s="264"/>
+      <c r="D19" s="264" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="130"/>
     </row>
     <row r="20" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A20" s="233" t="s">
+      <c r="A20" s="237" t="s">
         <v>517</v>
       </c>
-      <c r="B20" s="233"/>
-      <c r="C20" s="233"/>
-      <c r="D20" s="233"/>
+      <c r="B20" s="237"/>
+      <c r="C20" s="237"/>
+      <c r="D20" s="237"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -20315,11 +20310,11 @@
       <c r="W21" s="18"/>
     </row>
     <row r="22" spans="1:24" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="251" t="s">
-        <v>682</v>
-      </c>
-      <c r="B22" s="227"/>
-      <c r="C22" s="227"/>
+      <c r="A22" s="255" t="s">
+        <v>635</v>
+      </c>
+      <c r="B22" s="232"/>
+      <c r="C22" s="232"/>
       <c r="D22" s="137"/>
       <c r="E22" s="66"/>
       <c r="F22" s="66"/>
@@ -20368,14 +20363,14 @@
       <c r="W23" s="66"/>
       <c r="X23" s="66"/>
     </row>
-    <row r="24" spans="1:24" ht="16.2" customHeight="1">
+    <row r="24" spans="1:24" ht="16.25" customHeight="1">
       <c r="A24" s="134" t="s">
         <v>452</v>
       </c>
-      <c r="B24" s="256" t="s">
-        <v>699</v>
-      </c>
-      <c r="C24" s="256"/>
+      <c r="B24" s="260" t="s">
+        <v>652</v>
+      </c>
+      <c r="C24" s="260"/>
       <c r="D24" s="103"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -20400,10 +20395,10 @@
     <row r="25" spans="1:24" ht="33" customHeight="1">
       <c r="A25" s="138"/>
       <c r="B25" s="139" t="s">
-        <v>673</v>
+        <v>626</v>
       </c>
       <c r="C25" s="140" t="s">
-        <v>672</v>
+        <v>625</v>
       </c>
       <c r="D25" s="141" t="s">
         <v>452</v>
@@ -20432,7 +20427,7 @@
       </c>
       <c r="E27" s="21"/>
     </row>
-    <row r="28" spans="1:24" ht="24">
+    <row r="28" spans="1:24" ht="23">
       <c r="A28" s="145" t="s">
         <v>439</v>
       </c>
@@ -20443,18 +20438,18 @@
       </c>
       <c r="E28" s="21"/>
     </row>
-    <row r="29" spans="1:24" ht="24">
+    <row r="29" spans="1:24">
       <c r="A29" s="145" t="s">
         <v>441</v>
       </c>
       <c r="B29" s="144"/>
       <c r="C29" s="144"/>
       <c r="D29" s="142" t="s">
-        <v>680</v>
+        <v>633</v>
       </c>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:24" ht="34.200000000000003">
+    <row r="30" spans="1:24" ht="33">
       <c r="A30" s="145" t="s">
         <v>442</v>
       </c>
@@ -20477,7 +20472,7 @@
       </c>
       <c r="E31" s="21"/>
     </row>
-    <row r="32" spans="1:24" ht="35.4">
+    <row r="32" spans="1:24" ht="34">
       <c r="A32" s="145" t="s">
         <v>445</v>
       </c>
@@ -20488,7 +20483,7 @@
       </c>
       <c r="E32" s="21"/>
     </row>
-    <row r="33" spans="1:6" ht="35.4">
+    <row r="33" spans="1:6" ht="34">
       <c r="A33" s="145" t="s">
         <v>447</v>
       </c>
@@ -20527,10 +20522,10 @@
       <c r="F35" s="42"/>
     </row>
     <row r="36" spans="1:6" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A36" s="245"/>
-      <c r="B36" s="246"/>
-      <c r="C36" s="246"/>
-      <c r="D36" s="246"/>
+      <c r="A36" s="249"/>
+      <c r="B36" s="250"/>
+      <c r="C36" s="250"/>
+      <c r="D36" s="250"/>
       <c r="E36" s="10"/>
     </row>
   </sheetData>
@@ -20549,12 +20544,12 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" fitToHeight="2" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" fitToHeight="2" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C©National Higher Educational Benchmarking Institute
 Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -20565,7 +20560,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
   <dimension ref="A1:Y36"/>
@@ -20574,46 +20569,46 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" style="59" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" style="59" customWidth="1"/>
     <col min="2" max="3" width="20.6640625" style="59" customWidth="1"/>
-    <col min="4" max="4" width="63.44140625" style="59" customWidth="1"/>
-    <col min="5" max="5" width="3.44140625" style="59" customWidth="1"/>
-    <col min="6" max="6" width="78.109375" style="59" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="59"/>
+    <col min="4" max="4" width="63.5" style="59" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="59" customWidth="1"/>
+    <col min="6" max="6" width="78.1640625" style="59" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.45" customHeight="1">
-      <c r="A1" s="242" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.5" customHeight="1">
+      <c r="A1" s="246" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:25" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A2" s="244"/>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
+      <c r="A2" s="248"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="248"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:25" s="11" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A3" s="247" t="s">
+    <row r="3" spans="1:25" s="11" customFormat="1" ht="27.5" customHeight="1">
+      <c r="A3" s="251" t="s">
         <v>529</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="248"/>
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.45" customHeight="1">
+    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.5" customHeight="1">
       <c r="A4" s="152" t="s">
         <v>434</v>
       </c>
@@ -20624,13 +20619,13 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:25" s="151" customFormat="1" ht="25.8" customHeight="1">
-      <c r="A5" s="257" t="s">
-        <v>670</v>
-      </c>
-      <c r="B5" s="258"/>
-      <c r="C5" s="258"/>
-      <c r="D5" s="258"/>
+    <row r="5" spans="1:25" s="151" customFormat="1" ht="25.75" customHeight="1">
+      <c r="A5" s="261" t="s">
+        <v>623</v>
+      </c>
+      <c r="B5" s="262"/>
+      <c r="C5" s="262"/>
+      <c r="D5" s="262"/>
       <c r="E5" s="149"/>
       <c r="F5" s="150"/>
       <c r="G5" s="149"/>
@@ -20680,10 +20675,10 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
-      <c r="A7" s="255" t="s">
-        <v>986</v>
-      </c>
-      <c r="B7" s="254"/>
+      <c r="A7" s="259" t="s">
+        <v>931</v>
+      </c>
+      <c r="B7" s="258"/>
       <c r="C7" s="90"/>
       <c r="D7" s="118"/>
       <c r="E7" s="18"/>
@@ -20762,15 +20757,15 @@
       <c r="V9" s="121"/>
       <c r="W9" s="121"/>
     </row>
-    <row r="10" spans="1:25" ht="22.95" customHeight="1" thickBot="1">
+    <row r="10" spans="1:25" ht="23" customHeight="1" thickBot="1">
       <c r="A10" s="55"/>
       <c r="C10" s="52"/>
       <c r="D10" s="28"/>
       <c r="E10" s="21"/>
     </row>
-    <row r="11" spans="1:25" ht="19.95" customHeight="1" thickBot="1">
+    <row r="11" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A11" s="71" t="s">
-        <v>671</v>
+        <v>624</v>
       </c>
       <c r="B11" s="125"/>
       <c r="C11" s="83"/>
@@ -20778,12 +20773,12 @@
     </row>
     <row r="12" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="72" t="s">
-        <v>988</v>
+        <v>933</v>
       </c>
       <c r="B12" s="126"/>
       <c r="C12" s="128"/>
       <c r="D12" s="132" t="s">
-        <v>982</v>
+        <v>927</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
@@ -20793,12 +20788,12 @@
     </row>
     <row r="13" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A13" s="73" t="s">
-        <v>989</v>
+        <v>934</v>
       </c>
       <c r="B13" s="126"/>
       <c r="C13" s="217"/>
       <c r="D13" s="132" t="s">
-        <v>999</v>
+        <v>944</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
@@ -20808,12 +20803,12 @@
     </row>
     <row r="14" spans="1:25" ht="96" customHeight="1" thickBot="1">
       <c r="A14" s="72" t="s">
-        <v>979</v>
+        <v>924</v>
       </c>
       <c r="B14" s="126"/>
       <c r="C14" s="78"/>
       <c r="D14" s="132" t="s">
-        <v>993</v>
+        <v>938</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
@@ -20821,9 +20816,9 @@
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
     </row>
-    <row r="15" spans="1:25" ht="19.95" customHeight="1" thickBot="1">
+    <row r="15" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A15" s="71" t="s">
-        <v>674</v>
+        <v>627</v>
       </c>
       <c r="B15" s="125"/>
       <c r="C15" s="83"/>
@@ -20831,12 +20826,12 @@
     </row>
     <row r="16" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="72" t="s">
-        <v>988</v>
+        <v>933</v>
       </c>
       <c r="B16" s="126"/>
       <c r="C16" s="129"/>
       <c r="D16" s="132" t="s">
-        <v>987</v>
+        <v>932</v>
       </c>
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
@@ -20844,14 +20839,14 @@
       <c r="H16" s="41"/>
       <c r="I16" s="41"/>
     </row>
-    <row r="17" spans="1:24" ht="55.95" customHeight="1" thickBot="1">
+    <row r="17" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A17" s="73" t="s">
-        <v>989</v>
+        <v>934</v>
       </c>
       <c r="B17" s="126"/>
       <c r="C17" s="217"/>
       <c r="D17" s="132" t="s">
-        <v>998</v>
+        <v>943</v>
       </c>
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
@@ -20861,12 +20856,12 @@
     </row>
     <row r="18" spans="1:24" ht="96" customHeight="1" thickBot="1">
       <c r="A18" s="72" t="s">
-        <v>979</v>
+        <v>924</v>
       </c>
       <c r="B18" s="126"/>
       <c r="C18" s="78"/>
       <c r="D18" s="132" t="s">
-        <v>994</v>
+        <v>939</v>
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
@@ -20875,21 +20870,21 @@
       <c r="I18" s="41"/>
     </row>
     <row r="19" spans="1:24" s="131" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A19" s="259"/>
-      <c r="B19" s="260"/>
-      <c r="C19" s="260"/>
-      <c r="D19" s="260" t="s">
+      <c r="A19" s="263"/>
+      <c r="B19" s="264"/>
+      <c r="C19" s="264"/>
+      <c r="D19" s="264" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="130"/>
     </row>
     <row r="20" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A20" s="233" t="s">
+      <c r="A20" s="237" t="s">
         <v>517</v>
       </c>
-      <c r="B20" s="233"/>
-      <c r="C20" s="233"/>
-      <c r="D20" s="233"/>
+      <c r="B20" s="237"/>
+      <c r="C20" s="237"/>
+      <c r="D20" s="237"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -20938,11 +20933,11 @@
       <c r="W21" s="18"/>
     </row>
     <row r="22" spans="1:24" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="251" t="s">
-        <v>682</v>
-      </c>
-      <c r="B22" s="227"/>
-      <c r="C22" s="227"/>
+      <c r="A22" s="255" t="s">
+        <v>635</v>
+      </c>
+      <c r="B22" s="232"/>
+      <c r="C22" s="232"/>
       <c r="D22" s="137"/>
       <c r="E22" s="66"/>
       <c r="F22" s="66"/>
@@ -20991,14 +20986,14 @@
       <c r="W23" s="66"/>
       <c r="X23" s="66"/>
     </row>
-    <row r="24" spans="1:24" ht="16.2" customHeight="1">
+    <row r="24" spans="1:24" ht="16.25" customHeight="1">
       <c r="A24" s="134" t="s">
         <v>452</v>
       </c>
-      <c r="B24" s="256" t="s">
-        <v>699</v>
-      </c>
-      <c r="C24" s="256"/>
+      <c r="B24" s="260" t="s">
+        <v>652</v>
+      </c>
+      <c r="C24" s="260"/>
       <c r="D24" s="103"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -21023,10 +21018,10 @@
     <row r="25" spans="1:24" ht="33" customHeight="1">
       <c r="A25" s="138"/>
       <c r="B25" s="139" t="s">
-        <v>673</v>
+        <v>626</v>
       </c>
       <c r="C25" s="140" t="s">
-        <v>672</v>
+        <v>625</v>
       </c>
       <c r="D25" s="141" t="s">
         <v>452</v>
@@ -21055,7 +21050,7 @@
       </c>
       <c r="E27" s="21"/>
     </row>
-    <row r="28" spans="1:24" ht="24">
+    <row r="28" spans="1:24" ht="23">
       <c r="A28" s="145" t="s">
         <v>439</v>
       </c>
@@ -21066,18 +21061,18 @@
       </c>
       <c r="E28" s="21"/>
     </row>
-    <row r="29" spans="1:24" ht="24">
+    <row r="29" spans="1:24">
       <c r="A29" s="145" t="s">
         <v>441</v>
       </c>
       <c r="B29" s="144"/>
       <c r="C29" s="144"/>
       <c r="D29" s="142" t="s">
-        <v>680</v>
+        <v>633</v>
       </c>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:24" ht="34.200000000000003">
+    <row r="30" spans="1:24" ht="33">
       <c r="A30" s="145" t="s">
         <v>442</v>
       </c>
@@ -21100,7 +21095,7 @@
       </c>
       <c r="E31" s="21"/>
     </row>
-    <row r="32" spans="1:24" ht="35.4">
+    <row r="32" spans="1:24" ht="34">
       <c r="A32" s="145" t="s">
         <v>445</v>
       </c>
@@ -21111,7 +21106,7 @@
       </c>
       <c r="E32" s="21"/>
     </row>
-    <row r="33" spans="1:6" ht="35.4">
+    <row r="33" spans="1:6" ht="34">
       <c r="A33" s="145" t="s">
         <v>447</v>
       </c>
@@ -21150,10 +21145,10 @@
       <c r="F35" s="42"/>
     </row>
     <row r="36" spans="1:6" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A36" s="245"/>
-      <c r="B36" s="246"/>
-      <c r="C36" s="246"/>
-      <c r="D36" s="246"/>
+      <c r="A36" s="249"/>
+      <c r="B36" s="250"/>
+      <c r="C36" s="250"/>
+      <c r="D36" s="250"/>
       <c r="E36" s="10"/>
     </row>
   </sheetData>
@@ -21172,12 +21167,12 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" fitToHeight="2" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" fitToHeight="2" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C©National Higher Educational Benchmarking Institute
 Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -21188,7 +21183,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
   <dimension ref="A1:Y36"/>
@@ -21197,46 +21192,46 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" style="59" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" style="59" customWidth="1"/>
     <col min="2" max="3" width="20.6640625" style="59" customWidth="1"/>
-    <col min="4" max="4" width="63.44140625" style="59" customWidth="1"/>
-    <col min="5" max="5" width="3.44140625" style="59" customWidth="1"/>
-    <col min="6" max="6" width="78.109375" style="59" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="59"/>
+    <col min="4" max="4" width="63.5" style="59" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="59" customWidth="1"/>
+    <col min="6" max="6" width="78.1640625" style="59" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.45" customHeight="1">
-      <c r="A1" s="242" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.5" customHeight="1">
+      <c r="A1" s="246" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:25" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A2" s="244"/>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
+      <c r="A2" s="248"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="248"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:25" s="11" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="251" t="s">
         <v>529</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="248"/>
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.45" customHeight="1">
+    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.5" customHeight="1">
       <c r="A4" s="152" t="s">
         <v>434</v>
       </c>
@@ -21248,12 +21243,12 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:25" s="151" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="257" t="s">
-        <v>670</v>
-      </c>
-      <c r="B5" s="258"/>
-      <c r="C5" s="258"/>
-      <c r="D5" s="258"/>
+      <c r="A5" s="261" t="s">
+        <v>623</v>
+      </c>
+      <c r="B5" s="262"/>
+      <c r="C5" s="262"/>
+      <c r="D5" s="262"/>
       <c r="E5" s="149"/>
       <c r="F5" s="150"/>
       <c r="G5" s="149"/>
@@ -21274,7 +21269,7 @@
       <c r="V5" s="149"/>
       <c r="W5" s="149"/>
     </row>
-    <row r="6" spans="1:25" ht="31.2" customHeight="1">
+    <row r="6" spans="1:25" ht="31.25" customHeight="1">
       <c r="A6" s="64" t="s">
         <v>512</v>
       </c>
@@ -21303,10 +21298,10 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
-      <c r="A7" s="255" t="s">
-        <v>986</v>
-      </c>
-      <c r="B7" s="254"/>
+      <c r="A7" s="259" t="s">
+        <v>931</v>
+      </c>
+      <c r="B7" s="258"/>
       <c r="C7" s="90"/>
       <c r="D7" s="118"/>
       <c r="E7" s="18"/>
@@ -21360,7 +21355,7 @@
     </row>
     <row r="9" spans="1:25" s="123" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="124" t="s">
-        <v>985</v>
+        <v>930</v>
       </c>
       <c r="B9" s="120"/>
       <c r="C9" s="120"/>
@@ -21385,15 +21380,15 @@
       <c r="V9" s="121"/>
       <c r="W9" s="121"/>
     </row>
-    <row r="10" spans="1:25" ht="22.95" customHeight="1" thickBot="1">
+    <row r="10" spans="1:25" ht="23" customHeight="1" thickBot="1">
       <c r="A10" s="55"/>
       <c r="C10" s="52"/>
       <c r="D10" s="28"/>
       <c r="E10" s="21"/>
     </row>
-    <row r="11" spans="1:25" ht="19.95" customHeight="1" thickBot="1">
+    <row r="11" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A11" s="71" t="s">
-        <v>671</v>
+        <v>624</v>
       </c>
       <c r="B11" s="125"/>
       <c r="C11" s="83"/>
@@ -21401,12 +21396,12 @@
     </row>
     <row r="12" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="72" t="s">
-        <v>988</v>
+        <v>933</v>
       </c>
       <c r="B12" s="126"/>
       <c r="C12" s="128"/>
       <c r="D12" s="132" t="s">
-        <v>982</v>
+        <v>927</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
@@ -21416,12 +21411,12 @@
     </row>
     <row r="13" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A13" s="73" t="s">
-        <v>989</v>
+        <v>934</v>
       </c>
       <c r="B13" s="126"/>
       <c r="C13" s="217"/>
       <c r="D13" s="132" t="s">
-        <v>999</v>
+        <v>944</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
@@ -21431,12 +21426,12 @@
     </row>
     <row r="14" spans="1:25" ht="96" customHeight="1" thickBot="1">
       <c r="A14" s="72" t="s">
-        <v>979</v>
+        <v>924</v>
       </c>
       <c r="B14" s="126"/>
       <c r="C14" s="78"/>
       <c r="D14" s="132" t="s">
-        <v>993</v>
+        <v>938</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
@@ -21444,9 +21439,9 @@
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
     </row>
-    <row r="15" spans="1:25" ht="19.95" customHeight="1" thickBot="1">
+    <row r="15" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A15" s="71" t="s">
-        <v>674</v>
+        <v>627</v>
       </c>
       <c r="B15" s="125"/>
       <c r="C15" s="83"/>
@@ -21454,12 +21449,12 @@
     </row>
     <row r="16" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="72" t="s">
-        <v>988</v>
+        <v>933</v>
       </c>
       <c r="B16" s="126"/>
       <c r="C16" s="129"/>
       <c r="D16" s="132" t="s">
-        <v>987</v>
+        <v>932</v>
       </c>
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
@@ -21467,14 +21462,14 @@
       <c r="H16" s="41"/>
       <c r="I16" s="41"/>
     </row>
-    <row r="17" spans="1:24" ht="55.95" customHeight="1" thickBot="1">
+    <row r="17" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A17" s="73" t="s">
-        <v>989</v>
+        <v>934</v>
       </c>
       <c r="B17" s="126"/>
       <c r="C17" s="217"/>
       <c r="D17" s="132" t="s">
-        <v>998</v>
+        <v>943</v>
       </c>
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
@@ -21484,12 +21479,12 @@
     </row>
     <row r="18" spans="1:24" ht="96" customHeight="1" thickBot="1">
       <c r="A18" s="72" t="s">
-        <v>979</v>
+        <v>924</v>
       </c>
       <c r="B18" s="126"/>
       <c r="C18" s="78"/>
       <c r="D18" s="132" t="s">
-        <v>994</v>
+        <v>939</v>
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
@@ -21498,21 +21493,21 @@
       <c r="I18" s="41"/>
     </row>
     <row r="19" spans="1:24" s="131" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A19" s="259"/>
-      <c r="B19" s="260"/>
-      <c r="C19" s="260"/>
-      <c r="D19" s="260" t="s">
+      <c r="A19" s="263"/>
+      <c r="B19" s="264"/>
+      <c r="C19" s="264"/>
+      <c r="D19" s="264" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="130"/>
     </row>
     <row r="20" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A20" s="233" t="s">
+      <c r="A20" s="237" t="s">
         <v>517</v>
       </c>
-      <c r="B20" s="233"/>
-      <c r="C20" s="233"/>
-      <c r="D20" s="233"/>
+      <c r="B20" s="237"/>
+      <c r="C20" s="237"/>
+      <c r="D20" s="237"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -21561,11 +21556,11 @@
       <c r="W21" s="18"/>
     </row>
     <row r="22" spans="1:24" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="251" t="s">
-        <v>682</v>
-      </c>
-      <c r="B22" s="227"/>
-      <c r="C22" s="227"/>
+      <c r="A22" s="255" t="s">
+        <v>635</v>
+      </c>
+      <c r="B22" s="232"/>
+      <c r="C22" s="232"/>
       <c r="D22" s="137"/>
       <c r="E22" s="66"/>
       <c r="F22" s="66"/>
@@ -21614,14 +21609,14 @@
       <c r="W23" s="66"/>
       <c r="X23" s="66"/>
     </row>
-    <row r="24" spans="1:24" ht="16.2" customHeight="1">
+    <row r="24" spans="1:24" ht="16.25" customHeight="1">
       <c r="A24" s="134" t="s">
         <v>452</v>
       </c>
-      <c r="B24" s="256" t="s">
-        <v>699</v>
-      </c>
-      <c r="C24" s="256"/>
+      <c r="B24" s="260" t="s">
+        <v>652</v>
+      </c>
+      <c r="C24" s="260"/>
       <c r="D24" s="103"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -21646,10 +21641,10 @@
     <row r="25" spans="1:24" ht="33" customHeight="1">
       <c r="A25" s="138"/>
       <c r="B25" s="139" t="s">
-        <v>673</v>
+        <v>626</v>
       </c>
       <c r="C25" s="140" t="s">
-        <v>672</v>
+        <v>625</v>
       </c>
       <c r="D25" s="141" t="s">
         <v>452</v>
@@ -21678,7 +21673,7 @@
       </c>
       <c r="E27" s="21"/>
     </row>
-    <row r="28" spans="1:24" ht="24">
+    <row r="28" spans="1:24" ht="23">
       <c r="A28" s="145" t="s">
         <v>439</v>
       </c>
@@ -21689,18 +21684,18 @@
       </c>
       <c r="E28" s="21"/>
     </row>
-    <row r="29" spans="1:24" ht="24">
+    <row r="29" spans="1:24">
       <c r="A29" s="145" t="s">
         <v>441</v>
       </c>
       <c r="B29" s="144"/>
       <c r="C29" s="144"/>
       <c r="D29" s="142" t="s">
-        <v>680</v>
+        <v>633</v>
       </c>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:24" ht="34.200000000000003">
+    <row r="30" spans="1:24" ht="33">
       <c r="A30" s="145" t="s">
         <v>442</v>
       </c>
@@ -21723,7 +21718,7 @@
       </c>
       <c r="E31" s="21"/>
     </row>
-    <row r="32" spans="1:24" ht="35.4">
+    <row r="32" spans="1:24" ht="34">
       <c r="A32" s="145" t="s">
         <v>445</v>
       </c>
@@ -21734,7 +21729,7 @@
       </c>
       <c r="E32" s="21"/>
     </row>
-    <row r="33" spans="1:6" ht="35.4">
+    <row r="33" spans="1:6" ht="34">
       <c r="A33" s="145" t="s">
         <v>447</v>
       </c>
@@ -21773,10 +21768,10 @@
       <c r="F35" s="42"/>
     </row>
     <row r="36" spans="1:6" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A36" s="245"/>
-      <c r="B36" s="246"/>
-      <c r="C36" s="246"/>
-      <c r="D36" s="246"/>
+      <c r="A36" s="249"/>
+      <c r="B36" s="250"/>
+      <c r="C36" s="250"/>
+      <c r="D36" s="250"/>
       <c r="E36" s="10"/>
     </row>
   </sheetData>
@@ -21795,12 +21790,12 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" fitToHeight="2" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" fitToHeight="2" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C©National Higher Educational Benchmarking Institute
 Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -21811,7 +21806,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
   <dimension ref="A1:Y36"/>
@@ -21820,46 +21815,46 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" style="59" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" style="59" customWidth="1"/>
     <col min="2" max="3" width="20.6640625" style="59" customWidth="1"/>
-    <col min="4" max="4" width="63.44140625" style="59" customWidth="1"/>
-    <col min="5" max="5" width="3.44140625" style="59" customWidth="1"/>
-    <col min="6" max="6" width="78.109375" style="59" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="59"/>
+    <col min="4" max="4" width="63.5" style="59" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="59" customWidth="1"/>
+    <col min="6" max="6" width="78.1640625" style="59" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.45" customHeight="1">
-      <c r="A1" s="242" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+    <row r="1" spans="1:25" s="11" customFormat="1" ht="66.5" customHeight="1">
+      <c r="A1" s="246" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:25" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A2" s="244"/>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
+      <c r="A2" s="248"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="248"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:25" s="11" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="251" t="s">
         <v>529</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="248"/>
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.45" customHeight="1">
+    <row r="4" spans="1:25" s="11" customFormat="1" ht="18.5" customHeight="1">
       <c r="A4" s="152" t="s">
         <v>434</v>
       </c>
@@ -21871,12 +21866,12 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:25" s="151" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="257" t="s">
-        <v>670</v>
-      </c>
-      <c r="B5" s="258"/>
-      <c r="C5" s="258"/>
-      <c r="D5" s="258"/>
+      <c r="A5" s="261" t="s">
+        <v>623</v>
+      </c>
+      <c r="B5" s="262"/>
+      <c r="C5" s="262"/>
+      <c r="D5" s="262"/>
       <c r="E5" s="149"/>
       <c r="F5" s="150"/>
       <c r="G5" s="149"/>
@@ -21926,10 +21921,10 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="23.25" customHeight="1">
-      <c r="A7" s="255" t="s">
-        <v>986</v>
-      </c>
-      <c r="B7" s="254"/>
+      <c r="A7" s="259" t="s">
+        <v>931</v>
+      </c>
+      <c r="B7" s="258"/>
       <c r="C7" s="90"/>
       <c r="D7" s="118"/>
       <c r="E7" s="18"/>
@@ -21983,7 +21978,7 @@
     </row>
     <row r="9" spans="1:25" s="123" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="124" t="s">
-        <v>985</v>
+        <v>930</v>
       </c>
       <c r="B9" s="120"/>
       <c r="C9" s="120"/>
@@ -22008,15 +22003,15 @@
       <c r="V9" s="121"/>
       <c r="W9" s="121"/>
     </row>
-    <row r="10" spans="1:25" ht="22.95" customHeight="1" thickBot="1">
+    <row r="10" spans="1:25" ht="23" customHeight="1" thickBot="1">
       <c r="A10" s="55"/>
       <c r="C10" s="52"/>
       <c r="D10" s="28"/>
       <c r="E10" s="21"/>
     </row>
-    <row r="11" spans="1:25" ht="19.95" customHeight="1" thickBot="1">
+    <row r="11" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A11" s="71" t="s">
-        <v>671</v>
+        <v>624</v>
       </c>
       <c r="B11" s="125"/>
       <c r="C11" s="83"/>
@@ -22024,12 +22019,12 @@
     </row>
     <row r="12" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="72" t="s">
-        <v>988</v>
+        <v>933</v>
       </c>
       <c r="B12" s="126"/>
       <c r="C12" s="128"/>
       <c r="D12" s="132" t="s">
-        <v>982</v>
+        <v>927</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
@@ -22039,12 +22034,12 @@
     </row>
     <row r="13" spans="1:25" ht="48" customHeight="1" thickBot="1">
       <c r="A13" s="73" t="s">
-        <v>989</v>
+        <v>934</v>
       </c>
       <c r="B13" s="126"/>
       <c r="C13" s="217"/>
       <c r="D13" s="132" t="s">
-        <v>999</v>
+        <v>944</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
@@ -22054,12 +22049,12 @@
     </row>
     <row r="14" spans="1:25" ht="96" customHeight="1" thickBot="1">
       <c r="A14" s="72" t="s">
-        <v>979</v>
+        <v>924</v>
       </c>
       <c r="B14" s="126"/>
       <c r="C14" s="78"/>
       <c r="D14" s="132" t="s">
-        <v>993</v>
+        <v>938</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
@@ -22067,9 +22062,9 @@
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
     </row>
-    <row r="15" spans="1:25" ht="19.95" customHeight="1" thickBot="1">
+    <row r="15" spans="1:25" ht="20" customHeight="1" thickBot="1">
       <c r="A15" s="71" t="s">
-        <v>674</v>
+        <v>627</v>
       </c>
       <c r="B15" s="125"/>
       <c r="C15" s="83"/>
@@ -22077,12 +22072,12 @@
     </row>
     <row r="16" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="72" t="s">
-        <v>988</v>
+        <v>933</v>
       </c>
       <c r="B16" s="126"/>
       <c r="C16" s="129"/>
       <c r="D16" s="132" t="s">
-        <v>987</v>
+        <v>932</v>
       </c>
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
@@ -22090,14 +22085,14 @@
       <c r="H16" s="41"/>
       <c r="I16" s="41"/>
     </row>
-    <row r="17" spans="1:24" ht="55.95" customHeight="1" thickBot="1">
+    <row r="17" spans="1:24" ht="56" customHeight="1" thickBot="1">
       <c r="A17" s="73" t="s">
-        <v>989</v>
+        <v>934</v>
       </c>
       <c r="B17" s="126"/>
       <c r="C17" s="217"/>
       <c r="D17" s="132" t="s">
-        <v>998</v>
+        <v>943</v>
       </c>
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
@@ -22107,12 +22102,12 @@
     </row>
     <row r="18" spans="1:24" ht="96" customHeight="1" thickBot="1">
       <c r="A18" s="72" t="s">
-        <v>979</v>
+        <v>924</v>
       </c>
       <c r="B18" s="126"/>
       <c r="C18" s="78"/>
       <c r="D18" s="132" t="s">
-        <v>994</v>
+        <v>939</v>
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
@@ -22121,21 +22116,21 @@
       <c r="I18" s="41"/>
     </row>
     <row r="19" spans="1:24" s="131" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A19" s="259"/>
-      <c r="B19" s="260"/>
-      <c r="C19" s="260"/>
-      <c r="D19" s="260" t="s">
+      <c r="A19" s="263"/>
+      <c r="B19" s="264"/>
+      <c r="C19" s="264"/>
+      <c r="D19" s="264" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="130"/>
     </row>
     <row r="20" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A20" s="233" t="s">
+      <c r="A20" s="237" t="s">
         <v>517</v>
       </c>
-      <c r="B20" s="233"/>
-      <c r="C20" s="233"/>
-      <c r="D20" s="233"/>
+      <c r="B20" s="237"/>
+      <c r="C20" s="237"/>
+      <c r="D20" s="237"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -22184,11 +22179,11 @@
       <c r="W21" s="18"/>
     </row>
     <row r="22" spans="1:24" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="251" t="s">
-        <v>682</v>
-      </c>
-      <c r="B22" s="227"/>
-      <c r="C22" s="227"/>
+      <c r="A22" s="255" t="s">
+        <v>635</v>
+      </c>
+      <c r="B22" s="232"/>
+      <c r="C22" s="232"/>
       <c r="D22" s="137"/>
       <c r="E22" s="66"/>
       <c r="F22" s="66"/>
@@ -22237,14 +22232,14 @@
       <c r="W23" s="66"/>
       <c r="X23" s="66"/>
     </row>
-    <row r="24" spans="1:24" ht="16.2" customHeight="1">
+    <row r="24" spans="1:24" ht="16.25" customHeight="1">
       <c r="A24" s="134" t="s">
         <v>452</v>
       </c>
-      <c r="B24" s="256" t="s">
-        <v>699</v>
-      </c>
-      <c r="C24" s="256"/>
+      <c r="B24" s="260" t="s">
+        <v>652</v>
+      </c>
+      <c r="C24" s="260"/>
       <c r="D24" s="103"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -22269,10 +22264,10 @@
     <row r="25" spans="1:24" ht="33" customHeight="1">
       <c r="A25" s="138"/>
       <c r="B25" s="139" t="s">
-        <v>673</v>
+        <v>626</v>
       </c>
       <c r="C25" s="140" t="s">
-        <v>672</v>
+        <v>625</v>
       </c>
       <c r="D25" s="141" t="s">
         <v>452</v>
@@ -22301,7 +22296,7 @@
       </c>
       <c r="E27" s="21"/>
     </row>
-    <row r="28" spans="1:24" ht="24">
+    <row r="28" spans="1:24" ht="23">
       <c r="A28" s="145" t="s">
         <v>439</v>
       </c>
@@ -22312,18 +22307,18 @@
       </c>
       <c r="E28" s="21"/>
     </row>
-    <row r="29" spans="1:24" ht="24">
+    <row r="29" spans="1:24">
       <c r="A29" s="145" t="s">
         <v>441</v>
       </c>
       <c r="B29" s="144"/>
       <c r="C29" s="144"/>
       <c r="D29" s="142" t="s">
-        <v>680</v>
+        <v>633</v>
       </c>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:24" ht="34.200000000000003">
+    <row r="30" spans="1:24" ht="33">
       <c r="A30" s="145" t="s">
         <v>442</v>
       </c>
@@ -22346,7 +22341,7 @@
       </c>
       <c r="E31" s="21"/>
     </row>
-    <row r="32" spans="1:24" ht="35.4">
+    <row r="32" spans="1:24" ht="34">
       <c r="A32" s="145" t="s">
         <v>445</v>
       </c>
@@ -22357,7 +22352,7 @@
       </c>
       <c r="E32" s="21"/>
     </row>
-    <row r="33" spans="1:6" ht="35.4">
+    <row r="33" spans="1:6" ht="34">
       <c r="A33" s="145" t="s">
         <v>447</v>
       </c>
@@ -22396,10 +22391,10 @@
       <c r="F35" s="42"/>
     </row>
     <row r="36" spans="1:6" s="11" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A36" s="245"/>
-      <c r="B36" s="246"/>
-      <c r="C36" s="246"/>
-      <c r="D36" s="246"/>
+      <c r="A36" s="249"/>
+      <c r="B36" s="250"/>
+      <c r="C36" s="250"/>
+      <c r="D36" s="250"/>
       <c r="E36" s="10"/>
     </row>
   </sheetData>
@@ -22418,12 +22413,12 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" fitToHeight="2" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" fitToHeight="2" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C©National Higher Educational Benchmarking Institute
 Maximizing Resources for Student Success Data Entry Form:  Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
